--- a/01_基本設計書/20200220リリース/SC-K13_当日実績参照.xlsx
+++ b/01_基本設計書/20200220リリース/SC-K13_当日実績参照.xlsx
@@ -9,7 +9,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ローカル作業_Wang\GitHub\backdoor\01_基本設計書\20200220リリース\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B29D10E4-C5EF-4967-BC54-0BC83BF43DEA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A0B1348-0EE1-4C8F-95BB-3C18A978D8E7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="703" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -142,7 +142,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1780" uniqueCount="559">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1780" uniqueCount="556">
   <si>
     <t>プロジェクト名</t>
     <rPh sb="6" eb="7">
@@ -2451,17 +2451,6 @@
     <phoneticPr fontId="4"/>
   </si>
   <si>
-    <t>・表示フラグ = '1' and 取消フラグ = '0'
-・品種コード(昇順)</t>
-    <rPh sb="30" eb="32">
-      <t>ヒンシュ</t>
-    </rPh>
-    <rPh sb="36" eb="38">
-      <t>ショウジュン</t>
-    </rPh>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
     <t>・コードマスタ.コード区分='ELTYPE'
 ・表示フラグ = '1' and 取消フラグ = '0'
 ・表示順序(昇順)
@@ -2583,10 +2572,6 @@
     <t>生産製品マスタ.製品半製品区分</t>
   </si>
   <si>
-    <t>"MOLD"</t>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
     <t>・コードマスタ.取消フラグ</t>
     <rPh sb="8" eb="10">
       <t>トリケシ</t>
@@ -2604,16 +2589,6 @@
     </rPh>
     <rPh sb="3" eb="6">
       <t>ネンガッピ</t>
-    </rPh>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <t>③検索結果</t>
-    <rPh sb="1" eb="3">
-      <t>ケンサク</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>ケッカ</t>
     </rPh>
     <phoneticPr fontId="4"/>
   </si>
@@ -2664,64 +2639,6 @@
   </si>
   <si>
     <t>実績数量１.製品半製品区分</t>
-  </si>
-  <si>
-    <t>②検索結果１</t>
-  </si>
-  <si>
-    <t>②検索結果１.パック品名略称</t>
-    <rPh sb="10" eb="12">
-      <t>ヒンメイ</t>
-    </rPh>
-    <rPh sb="12" eb="14">
-      <t>リャクショウ</t>
-    </rPh>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <t>ON   ②検索結果１.品名事業所コード</t>
-  </si>
-  <si>
-    <t>AND ②検索結果１.パック品名略称</t>
-  </si>
-  <si>
-    <t>AND ②検索結果１.納入先コード</t>
-  </si>
-  <si>
-    <t>AND ②検索結果１.納入区分</t>
-  </si>
-  <si>
-    <t>AND ②検索結果１.製品半製品区分</t>
-  </si>
-  <si>
-    <t>ON   ②検索結果１.金型番号</t>
-    <rPh sb="12" eb="13">
-      <t>カネ</t>
-    </rPh>
-    <rPh sb="13" eb="14">
-      <t>ガタ</t>
-    </rPh>
-    <rPh sb="14" eb="16">
-      <t>バンゴウ</t>
-    </rPh>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <t>ON   ②検索結果１.事業所コード</t>
-    <rPh sb="12" eb="15">
-      <t>ジギョウショ</t>
-    </rPh>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <t>AND ②検索結果１.作番</t>
-    <rPh sb="11" eb="13">
-      <t>サクバン</t>
-    </rPh>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <t>AND ②検索結果１.品名事業所コード</t>
   </si>
   <si>
     <t>・実績数量１.納入区分</t>
@@ -2951,14 +2868,6 @@
     <phoneticPr fontId="4"/>
   </si>
   <si>
-    <t>'D2'</t>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <t>'D3'</t>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
     <t>LEFT OUTER JOIN 実績登録データ 実績登録２</t>
     <rPh sb="18" eb="20">
       <t>トウロク</t>
@@ -3019,14 +2928,6 @@
     <phoneticPr fontId="4"/>
   </si>
   <si>
-    <t>'F1'</t>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <t>'C1'</t>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
     <t>CASE WHEN (完成_当日 = 0 AND 完成_訂正 = 0 AND 不良_当日 = 0 AND 不良_訂正 = 0</t>
     <rPh sb="11" eb="13">
       <t>カンセイ</t>
@@ -3057,14 +2958,6 @@
   </si>
   <si>
     <t>実績管理データ.構成要素区分</t>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <t>AND ②検索結果１.製品半製品区分</t>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <t>・②検索結果１.構成要素区分</t>
     <phoneticPr fontId="4"/>
   </si>
   <si>
@@ -3256,10 +3149,6 @@
     <rPh sb="10" eb="13">
       <t>ネンガッピ</t>
     </rPh>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <t>実績管理データ</t>
     <phoneticPr fontId="4"/>
   </si>
   <si>
@@ -3518,25 +3407,6 @@
     <t>コードマスタ</t>
   </si>
   <si>
-    <t>②検索結果１.客先部品番号</t>
-    <rPh sb="1" eb="3">
-      <t>ケンサク</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>ケッカ</t>
-    </rPh>
-    <rPh sb="7" eb="9">
-      <t>キャクサキ</t>
-    </rPh>
-    <rPh sb="9" eb="11">
-      <t>ブヒン</t>
-    </rPh>
-    <rPh sb="11" eb="13">
-      <t>バンゴウ</t>
-    </rPh>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
     <t>生産製品マスタ.品種コード</t>
     <rPh sb="0" eb="2">
       <t>セイサン</t>
@@ -3563,53 +3433,10 @@
     <phoneticPr fontId="4"/>
   </si>
   <si>
-    <t>・②検索結果１.品種コード</t>
-    <rPh sb="2" eb="4">
-      <t>ケンサク</t>
-    </rPh>
-    <rPh sb="4" eb="6">
-      <t>ケッカ</t>
-    </rPh>
-    <rPh sb="8" eb="10">
-      <t>ヒンシュ</t>
-    </rPh>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <t>・②検索結果１.車種コード</t>
-    <rPh sb="2" eb="4">
-      <t>ケンサク</t>
-    </rPh>
-    <rPh sb="4" eb="6">
-      <t>ケッカ</t>
-    </rPh>
-    <rPh sb="8" eb="10">
-      <t>シャシュ</t>
-    </rPh>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
     <t>金型番号</t>
   </si>
   <si>
-    <t>AND ②検索結果１.区分個体ＮＯ</t>
-    <rPh sb="11" eb="13">
-      <t>クブン</t>
-    </rPh>
-    <rPh sb="13" eb="15">
-      <t>コタイ</t>
-    </rPh>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <t>・②検索結果１.構成要素区分</t>
-  </si>
-  <si>
     <t>実績管理データ.区分個体ＮＯ</t>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <t>②検索結果１</t>
     <phoneticPr fontId="4"/>
   </si>
   <si>
@@ -3691,31 +3518,187 @@
     <phoneticPr fontId="4"/>
   </si>
   <si>
+    <t>Large process</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>・取消フラグ = '0'
+・工程コード(昇順)</t>
+    <rPh sb="14" eb="16">
+      <t>コウテイ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>ショウジュン</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>・取消フラグ = '0'
+・表示順序(昇順)、品種コード(昇順)</t>
+    <rPh sb="19" eb="21">
+      <t>ショウジュン</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>ヒンシュ</t>
+    </rPh>
+    <rPh sb="29" eb="31">
+      <t>ショウジュン</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
     <t>・コード+「：」+名称
 ・工程マスタの大工程コード、工程略称</t>
-    <rPh sb="13" eb="15">
-      <t>コウテイ</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>エクセル</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>ON   実績管理データ.品名事業所コード</t>
+  </si>
+  <si>
+    <t>①検索結果１</t>
+  </si>
+  <si>
+    <t>①検索結果１.パック品名略称</t>
+    <rPh sb="10" eb="12">
+      <t>ヒンメイ</t>
     </rPh>
-    <rPh sb="19" eb="20">
-      <t>ダイ</t>
-    </rPh>
-    <rPh sb="20" eb="22">
-      <t>コウテイ</t>
-    </rPh>
-    <rPh sb="26" eb="28">
-      <t>コウテイ</t>
-    </rPh>
-    <rPh sb="28" eb="30">
+    <rPh sb="12" eb="14">
       <t>リャクショウ</t>
     </rPh>
     <phoneticPr fontId="4"/>
   </si>
   <si>
-    <t>取消フラグ = '0'</t>
+    <t>①検索結果１.客先部品番号</t>
+    <rPh sb="1" eb="3">
+      <t>ケンサク</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ケッカ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>キャクサキ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ブヒン</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>バンゴウ</t>
+    </rPh>
     <phoneticPr fontId="4"/>
   </si>
   <si>
-    <t>Large process</t>
+    <t>ON   ①検索結果１.金型番号</t>
+    <rPh sb="12" eb="13">
+      <t>カネ</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>ガタ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>バンゴウ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>ON   ①検索結果１.事業所コード</t>
+    <rPh sb="12" eb="15">
+      <t>ジギョウショ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>AND ①検索結果１.作番</t>
+    <rPh sb="11" eb="13">
+      <t>サクバン</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>AND ①検索結果１.品名事業所コード</t>
+  </si>
+  <si>
+    <t>AND ①検索結果１.パック品名略称</t>
+  </si>
+  <si>
+    <t>AND ①検索結果１.納入先コード</t>
+  </si>
+  <si>
+    <t>AND ①検索結果１.納入区分</t>
+  </si>
+  <si>
+    <t>AND ①検索結果１.製品半製品区分</t>
+  </si>
+  <si>
+    <t>・①検索結果１.品種コード</t>
+    <rPh sb="2" eb="4">
+      <t>ケンサク</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ケッカ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ヒンシュ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>・①検索結果１.構成要素区分</t>
+  </si>
+  <si>
+    <t>・①検索結果１.車種コード</t>
+    <rPh sb="2" eb="4">
+      <t>ケンサク</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ケッカ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>シャシュ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>AND ①検索結果１.区分個体ＮＯ</t>
+    <rPh sb="11" eb="13">
+      <t>クブン</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>コタイ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>②検索結果</t>
+    <rPh sb="1" eb="3">
+      <t>ケンサク</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ケッカ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>"MOLD"：金型番号</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>'D2'： 成形不良</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>'D3'：仕上不良</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>'F1'： 再塗装判定</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>'C1'： リペア判定</t>
     <phoneticPr fontId="4"/>
   </si>
 </sst>
@@ -5125,11 +5108,11 @@
     <xf numFmtId="0" fontId="20" fillId="8" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="20" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="58" fontId="11" fillId="0" borderId="0" xfId="3" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -5140,91 +5123,6 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="16" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -5251,6 +5149,91 @@
     </xf>
     <xf numFmtId="0" fontId="20" fillId="3" borderId="7" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="16" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="8" xfId="13" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -5345,6 +5328,12 @@
     <xf numFmtId="0" fontId="16" fillId="5" borderId="7" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="4" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="2" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="16" fillId="5" borderId="3" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -5356,12 +5345,6 @@
     </xf>
     <xf numFmtId="0" fontId="16" fillId="5" borderId="7" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="5" borderId="4" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="5" borderId="2" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="37" fillId="10" borderId="3" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -6205,7 +6188,7 @@
               <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
               <a:extLst>
                 <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="参照用レイアウト!$B$2:$CX$44" spid="_x0000_s3596"/>
+                  <a14:cameraTool cellRange="参照用レイアウト!$B$2:$CX$44" spid="_x0000_s3644"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPicPr>
@@ -6270,7 +6253,7 @@
               <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
               <a:extLst>
                 <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="参照用レイアウト!$B$47:$CX$89" spid="_x0000_s3597"/>
+                  <a14:cameraTool cellRange="参照用レイアウト!$B$47:$CX$89" spid="_x0000_s3645"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPicPr>
@@ -6335,7 +6318,7 @@
               <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
               <a:extLst>
                 <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="参照用レイアウト!$B$92:$CX$134" spid="_x0000_s3598"/>
+                  <a14:cameraTool cellRange="参照用レイアウト!$B$92:$CX$134" spid="_x0000_s3646"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPicPr>
@@ -8452,1779 +8435,1994 @@
   <sheetData>
     <row r="1" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="56"/>
-      <c r="B1" s="276" t="s">
+      <c r="B1" s="245" t="s">
         <v>6</v>
       </c>
-      <c r="C1" s="276"/>
-      <c r="D1" s="276"/>
-      <c r="E1" s="276"/>
-      <c r="F1" s="276"/>
-      <c r="G1" s="276"/>
-      <c r="H1" s="276"/>
-      <c r="I1" s="276"/>
-      <c r="J1" s="276"/>
-      <c r="K1" s="276"/>
-      <c r="L1" s="276"/>
-      <c r="M1" s="276"/>
-      <c r="N1" s="276"/>
-      <c r="O1" s="276"/>
-      <c r="P1" s="276"/>
-      <c r="Q1" s="276"/>
-      <c r="R1" s="276"/>
-      <c r="S1" s="276"/>
-      <c r="T1" s="276"/>
-      <c r="U1" s="276"/>
-      <c r="V1" s="276"/>
-      <c r="W1" s="276"/>
-      <c r="X1" s="276"/>
-      <c r="Y1" s="276"/>
-      <c r="Z1" s="276"/>
-      <c r="AA1" s="276"/>
-      <c r="AB1" s="276"/>
-      <c r="AC1" s="276"/>
-      <c r="AD1" s="276"/>
-      <c r="AE1" s="276"/>
-      <c r="AF1" s="276"/>
-      <c r="AG1" s="276"/>
-      <c r="AH1" s="276"/>
-      <c r="AI1" s="276"/>
-      <c r="AJ1" s="276"/>
-      <c r="AK1" s="276"/>
-      <c r="AL1" s="276"/>
-      <c r="AM1" s="276"/>
-      <c r="AN1" s="276"/>
-      <c r="AO1" s="276"/>
-      <c r="AP1" s="276"/>
-      <c r="AQ1" s="276"/>
-      <c r="AR1" s="276"/>
-      <c r="AS1" s="276"/>
-      <c r="AT1" s="276"/>
-      <c r="AU1" s="276"/>
-      <c r="AV1" s="276"/>
-      <c r="AW1" s="276"/>
+      <c r="C1" s="245"/>
+      <c r="D1" s="245"/>
+      <c r="E1" s="245"/>
+      <c r="F1" s="245"/>
+      <c r="G1" s="245"/>
+      <c r="H1" s="245"/>
+      <c r="I1" s="245"/>
+      <c r="J1" s="245"/>
+      <c r="K1" s="245"/>
+      <c r="L1" s="245"/>
+      <c r="M1" s="245"/>
+      <c r="N1" s="245"/>
+      <c r="O1" s="245"/>
+      <c r="P1" s="245"/>
+      <c r="Q1" s="245"/>
+      <c r="R1" s="245"/>
+      <c r="S1" s="245"/>
+      <c r="T1" s="245"/>
+      <c r="U1" s="245"/>
+      <c r="V1" s="245"/>
+      <c r="W1" s="245"/>
+      <c r="X1" s="245"/>
+      <c r="Y1" s="245"/>
+      <c r="Z1" s="245"/>
+      <c r="AA1" s="245"/>
+      <c r="AB1" s="245"/>
+      <c r="AC1" s="245"/>
+      <c r="AD1" s="245"/>
+      <c r="AE1" s="245"/>
+      <c r="AF1" s="245"/>
+      <c r="AG1" s="245"/>
+      <c r="AH1" s="245"/>
+      <c r="AI1" s="245"/>
+      <c r="AJ1" s="245"/>
+      <c r="AK1" s="245"/>
+      <c r="AL1" s="245"/>
+      <c r="AM1" s="245"/>
+      <c r="AN1" s="245"/>
+      <c r="AO1" s="245"/>
+      <c r="AP1" s="245"/>
+      <c r="AQ1" s="245"/>
+      <c r="AR1" s="245"/>
+      <c r="AS1" s="245"/>
+      <c r="AT1" s="245"/>
+      <c r="AU1" s="245"/>
+      <c r="AV1" s="245"/>
+      <c r="AW1" s="245"/>
     </row>
     <row r="2" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="56"/>
-      <c r="B2" s="277"/>
-      <c r="C2" s="277"/>
-      <c r="D2" s="277"/>
-      <c r="E2" s="277"/>
-      <c r="F2" s="277"/>
-      <c r="G2" s="277"/>
-      <c r="H2" s="277"/>
-      <c r="I2" s="277"/>
-      <c r="J2" s="277"/>
-      <c r="K2" s="277"/>
-      <c r="L2" s="277"/>
-      <c r="M2" s="277"/>
-      <c r="N2" s="277"/>
-      <c r="O2" s="277"/>
-      <c r="P2" s="277"/>
-      <c r="Q2" s="277"/>
-      <c r="R2" s="277"/>
-      <c r="S2" s="277"/>
-      <c r="T2" s="277"/>
-      <c r="U2" s="277"/>
-      <c r="V2" s="277"/>
-      <c r="W2" s="277"/>
-      <c r="X2" s="277"/>
-      <c r="Y2" s="277"/>
-      <c r="Z2" s="277"/>
-      <c r="AA2" s="277"/>
-      <c r="AB2" s="277"/>
-      <c r="AC2" s="277"/>
-      <c r="AD2" s="277"/>
-      <c r="AE2" s="277"/>
-      <c r="AF2" s="277"/>
-      <c r="AG2" s="277"/>
-      <c r="AH2" s="277"/>
-      <c r="AI2" s="277"/>
-      <c r="AJ2" s="277"/>
-      <c r="AK2" s="277"/>
-      <c r="AL2" s="277"/>
-      <c r="AM2" s="277"/>
-      <c r="AN2" s="277"/>
-      <c r="AO2" s="277"/>
-      <c r="AP2" s="277"/>
-      <c r="AQ2" s="277"/>
-      <c r="AR2" s="277"/>
-      <c r="AS2" s="277"/>
-      <c r="AT2" s="277"/>
-      <c r="AU2" s="277"/>
-      <c r="AV2" s="277"/>
-      <c r="AW2" s="277"/>
+      <c r="B2" s="246"/>
+      <c r="C2" s="246"/>
+      <c r="D2" s="246"/>
+      <c r="E2" s="246"/>
+      <c r="F2" s="246"/>
+      <c r="G2" s="246"/>
+      <c r="H2" s="246"/>
+      <c r="I2" s="246"/>
+      <c r="J2" s="246"/>
+      <c r="K2" s="246"/>
+      <c r="L2" s="246"/>
+      <c r="M2" s="246"/>
+      <c r="N2" s="246"/>
+      <c r="O2" s="246"/>
+      <c r="P2" s="246"/>
+      <c r="Q2" s="246"/>
+      <c r="R2" s="246"/>
+      <c r="S2" s="246"/>
+      <c r="T2" s="246"/>
+      <c r="U2" s="246"/>
+      <c r="V2" s="246"/>
+      <c r="W2" s="246"/>
+      <c r="X2" s="246"/>
+      <c r="Y2" s="246"/>
+      <c r="Z2" s="246"/>
+      <c r="AA2" s="246"/>
+      <c r="AB2" s="246"/>
+      <c r="AC2" s="246"/>
+      <c r="AD2" s="246"/>
+      <c r="AE2" s="246"/>
+      <c r="AF2" s="246"/>
+      <c r="AG2" s="246"/>
+      <c r="AH2" s="246"/>
+      <c r="AI2" s="246"/>
+      <c r="AJ2" s="246"/>
+      <c r="AK2" s="246"/>
+      <c r="AL2" s="246"/>
+      <c r="AM2" s="246"/>
+      <c r="AN2" s="246"/>
+      <c r="AO2" s="246"/>
+      <c r="AP2" s="246"/>
+      <c r="AQ2" s="246"/>
+      <c r="AR2" s="246"/>
+      <c r="AS2" s="246"/>
+      <c r="AT2" s="246"/>
+      <c r="AU2" s="246"/>
+      <c r="AV2" s="246"/>
+      <c r="AW2" s="246"/>
     </row>
     <row r="3" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="56"/>
-      <c r="B3" s="278" t="s">
+      <c r="B3" s="247" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="278"/>
-      <c r="D3" s="278"/>
-      <c r="E3" s="278" t="s">
+      <c r="C3" s="247"/>
+      <c r="D3" s="247"/>
+      <c r="E3" s="247" t="s">
         <v>8</v>
       </c>
-      <c r="F3" s="278"/>
-      <c r="G3" s="278"/>
-      <c r="H3" s="278"/>
-      <c r="I3" s="278"/>
-      <c r="J3" s="279" t="s">
+      <c r="F3" s="247"/>
+      <c r="G3" s="247"/>
+      <c r="H3" s="247"/>
+      <c r="I3" s="247"/>
+      <c r="J3" s="248" t="s">
         <v>9</v>
       </c>
-      <c r="K3" s="280"/>
-      <c r="L3" s="281"/>
-      <c r="M3" s="279" t="s">
+      <c r="K3" s="249"/>
+      <c r="L3" s="250"/>
+      <c r="M3" s="248" t="s">
         <v>10</v>
       </c>
-      <c r="N3" s="280"/>
-      <c r="O3" s="280"/>
-      <c r="P3" s="280"/>
-      <c r="Q3" s="280"/>
-      <c r="R3" s="281"/>
-      <c r="S3" s="278" t="s">
+      <c r="N3" s="249"/>
+      <c r="O3" s="249"/>
+      <c r="P3" s="249"/>
+      <c r="Q3" s="249"/>
+      <c r="R3" s="250"/>
+      <c r="S3" s="247" t="s">
         <v>11</v>
       </c>
-      <c r="T3" s="278"/>
-      <c r="U3" s="278"/>
-      <c r="V3" s="278" t="s">
+      <c r="T3" s="247"/>
+      <c r="U3" s="247"/>
+      <c r="V3" s="247" t="s">
         <v>12</v>
       </c>
-      <c r="W3" s="278"/>
-      <c r="X3" s="278"/>
-      <c r="Y3" s="278"/>
-      <c r="Z3" s="278"/>
-      <c r="AA3" s="278"/>
-      <c r="AB3" s="278"/>
-      <c r="AC3" s="278"/>
-      <c r="AD3" s="278"/>
-      <c r="AE3" s="278"/>
-      <c r="AF3" s="278"/>
-      <c r="AG3" s="278"/>
-      <c r="AH3" s="278"/>
-      <c r="AI3" s="278"/>
-      <c r="AJ3" s="278"/>
-      <c r="AK3" s="278"/>
-      <c r="AL3" s="278"/>
-      <c r="AM3" s="278"/>
-      <c r="AN3" s="278" t="s">
+      <c r="W3" s="247"/>
+      <c r="X3" s="247"/>
+      <c r="Y3" s="247"/>
+      <c r="Z3" s="247"/>
+      <c r="AA3" s="247"/>
+      <c r="AB3" s="247"/>
+      <c r="AC3" s="247"/>
+      <c r="AD3" s="247"/>
+      <c r="AE3" s="247"/>
+      <c r="AF3" s="247"/>
+      <c r="AG3" s="247"/>
+      <c r="AH3" s="247"/>
+      <c r="AI3" s="247"/>
+      <c r="AJ3" s="247"/>
+      <c r="AK3" s="247"/>
+      <c r="AL3" s="247"/>
+      <c r="AM3" s="247"/>
+      <c r="AN3" s="247" t="s">
         <v>13</v>
       </c>
-      <c r="AO3" s="278"/>
-      <c r="AP3" s="278"/>
-      <c r="AQ3" s="278"/>
-      <c r="AR3" s="278"/>
-      <c r="AS3" s="278" t="s">
+      <c r="AO3" s="247"/>
+      <c r="AP3" s="247"/>
+      <c r="AQ3" s="247"/>
+      <c r="AR3" s="247"/>
+      <c r="AS3" s="247" t="s">
         <v>14</v>
       </c>
-      <c r="AT3" s="278"/>
-      <c r="AU3" s="278"/>
-      <c r="AV3" s="278"/>
-      <c r="AW3" s="278"/>
+      <c r="AT3" s="247"/>
+      <c r="AU3" s="247"/>
+      <c r="AV3" s="247"/>
+      <c r="AW3" s="247"/>
     </row>
     <row r="4" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="56"/>
-      <c r="B4" s="278"/>
-      <c r="C4" s="278"/>
-      <c r="D4" s="278"/>
-      <c r="E4" s="278"/>
-      <c r="F4" s="278"/>
-      <c r="G4" s="278"/>
-      <c r="H4" s="278"/>
-      <c r="I4" s="278"/>
-      <c r="J4" s="282"/>
-      <c r="K4" s="283"/>
-      <c r="L4" s="284"/>
-      <c r="M4" s="282"/>
-      <c r="N4" s="283"/>
-      <c r="O4" s="283"/>
-      <c r="P4" s="283"/>
-      <c r="Q4" s="283"/>
-      <c r="R4" s="284"/>
-      <c r="S4" s="278"/>
-      <c r="T4" s="278"/>
-      <c r="U4" s="278"/>
-      <c r="V4" s="278"/>
-      <c r="W4" s="278"/>
-      <c r="X4" s="278"/>
-      <c r="Y4" s="278"/>
-      <c r="Z4" s="278"/>
-      <c r="AA4" s="278"/>
-      <c r="AB4" s="278"/>
-      <c r="AC4" s="278"/>
-      <c r="AD4" s="278"/>
-      <c r="AE4" s="278"/>
-      <c r="AF4" s="278"/>
-      <c r="AG4" s="278"/>
-      <c r="AH4" s="278"/>
-      <c r="AI4" s="278"/>
-      <c r="AJ4" s="278"/>
-      <c r="AK4" s="278"/>
-      <c r="AL4" s="278"/>
-      <c r="AM4" s="278"/>
-      <c r="AN4" s="278"/>
-      <c r="AO4" s="278"/>
-      <c r="AP4" s="278"/>
-      <c r="AQ4" s="278"/>
-      <c r="AR4" s="278"/>
-      <c r="AS4" s="278"/>
-      <c r="AT4" s="278"/>
-      <c r="AU4" s="278"/>
-      <c r="AV4" s="278"/>
-      <c r="AW4" s="278"/>
+      <c r="B4" s="247"/>
+      <c r="C4" s="247"/>
+      <c r="D4" s="247"/>
+      <c r="E4" s="247"/>
+      <c r="F4" s="247"/>
+      <c r="G4" s="247"/>
+      <c r="H4" s="247"/>
+      <c r="I4" s="247"/>
+      <c r="J4" s="251"/>
+      <c r="K4" s="252"/>
+      <c r="L4" s="253"/>
+      <c r="M4" s="251"/>
+      <c r="N4" s="252"/>
+      <c r="O4" s="252"/>
+      <c r="P4" s="252"/>
+      <c r="Q4" s="252"/>
+      <c r="R4" s="253"/>
+      <c r="S4" s="247"/>
+      <c r="T4" s="247"/>
+      <c r="U4" s="247"/>
+      <c r="V4" s="247"/>
+      <c r="W4" s="247"/>
+      <c r="X4" s="247"/>
+      <c r="Y4" s="247"/>
+      <c r="Z4" s="247"/>
+      <c r="AA4" s="247"/>
+      <c r="AB4" s="247"/>
+      <c r="AC4" s="247"/>
+      <c r="AD4" s="247"/>
+      <c r="AE4" s="247"/>
+      <c r="AF4" s="247"/>
+      <c r="AG4" s="247"/>
+      <c r="AH4" s="247"/>
+      <c r="AI4" s="247"/>
+      <c r="AJ4" s="247"/>
+      <c r="AK4" s="247"/>
+      <c r="AL4" s="247"/>
+      <c r="AM4" s="247"/>
+      <c r="AN4" s="247"/>
+      <c r="AO4" s="247"/>
+      <c r="AP4" s="247"/>
+      <c r="AQ4" s="247"/>
+      <c r="AR4" s="247"/>
+      <c r="AS4" s="247"/>
+      <c r="AT4" s="247"/>
+      <c r="AU4" s="247"/>
+      <c r="AV4" s="247"/>
+      <c r="AW4" s="247"/>
     </row>
     <row r="5" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A5" s="58"/>
-      <c r="B5" s="270">
+      <c r="B5" s="255">
         <v>1</v>
       </c>
-      <c r="C5" s="270"/>
-      <c r="D5" s="270"/>
-      <c r="E5" s="251">
+      <c r="C5" s="255"/>
+      <c r="D5" s="255"/>
+      <c r="E5" s="256">
         <v>43711</v>
       </c>
-      <c r="F5" s="251"/>
-      <c r="G5" s="251"/>
-      <c r="H5" s="251"/>
-      <c r="I5" s="251"/>
-      <c r="J5" s="252" t="s">
+      <c r="F5" s="256"/>
+      <c r="G5" s="256"/>
+      <c r="H5" s="256"/>
+      <c r="I5" s="256"/>
+      <c r="J5" s="257" t="s">
         <v>15</v>
       </c>
-      <c r="K5" s="253"/>
-      <c r="L5" s="254"/>
-      <c r="M5" s="252" t="s">
+      <c r="K5" s="258"/>
+      <c r="L5" s="259"/>
+      <c r="M5" s="257" t="s">
         <v>16</v>
       </c>
-      <c r="N5" s="253"/>
-      <c r="O5" s="253"/>
-      <c r="P5" s="253"/>
-      <c r="Q5" s="253"/>
-      <c r="R5" s="254"/>
-      <c r="S5" s="258" t="s">
+      <c r="N5" s="258"/>
+      <c r="O5" s="258"/>
+      <c r="P5" s="258"/>
+      <c r="Q5" s="258"/>
+      <c r="R5" s="259"/>
+      <c r="S5" s="254" t="s">
         <v>17</v>
       </c>
-      <c r="T5" s="258"/>
-      <c r="U5" s="258"/>
-      <c r="V5" s="269" t="s">
+      <c r="T5" s="254"/>
+      <c r="U5" s="254"/>
+      <c r="V5" s="263" t="s">
         <v>18</v>
       </c>
-      <c r="W5" s="269"/>
-      <c r="X5" s="269"/>
-      <c r="Y5" s="269"/>
-      <c r="Z5" s="269"/>
-      <c r="AA5" s="269"/>
-      <c r="AB5" s="269"/>
-      <c r="AC5" s="269"/>
-      <c r="AD5" s="269"/>
-      <c r="AE5" s="269"/>
-      <c r="AF5" s="269"/>
-      <c r="AG5" s="269"/>
-      <c r="AH5" s="269"/>
-      <c r="AI5" s="269"/>
-      <c r="AJ5" s="269"/>
-      <c r="AK5" s="269"/>
-      <c r="AL5" s="269"/>
-      <c r="AM5" s="269"/>
-      <c r="AN5" s="258" t="s">
+      <c r="W5" s="263"/>
+      <c r="X5" s="263"/>
+      <c r="Y5" s="263"/>
+      <c r="Z5" s="263"/>
+      <c r="AA5" s="263"/>
+      <c r="AB5" s="263"/>
+      <c r="AC5" s="263"/>
+      <c r="AD5" s="263"/>
+      <c r="AE5" s="263"/>
+      <c r="AF5" s="263"/>
+      <c r="AG5" s="263"/>
+      <c r="AH5" s="263"/>
+      <c r="AI5" s="263"/>
+      <c r="AJ5" s="263"/>
+      <c r="AK5" s="263"/>
+      <c r="AL5" s="263"/>
+      <c r="AM5" s="263"/>
+      <c r="AN5" s="254" t="s">
         <v>128</v>
       </c>
-      <c r="AO5" s="258"/>
-      <c r="AP5" s="258"/>
-      <c r="AQ5" s="258"/>
-      <c r="AR5" s="258"/>
-      <c r="AS5" s="258"/>
-      <c r="AT5" s="258"/>
-      <c r="AU5" s="258"/>
-      <c r="AV5" s="258"/>
-      <c r="AW5" s="258"/>
+      <c r="AO5" s="254"/>
+      <c r="AP5" s="254"/>
+      <c r="AQ5" s="254"/>
+      <c r="AR5" s="254"/>
+      <c r="AS5" s="254"/>
+      <c r="AT5" s="254"/>
+      <c r="AU5" s="254"/>
+      <c r="AV5" s="254"/>
+      <c r="AW5" s="254"/>
     </row>
     <row r="6" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A6" s="58"/>
-      <c r="B6" s="270"/>
-      <c r="C6" s="270"/>
-      <c r="D6" s="270"/>
-      <c r="E6" s="251"/>
-      <c r="F6" s="251"/>
-      <c r="G6" s="251"/>
-      <c r="H6" s="251"/>
-      <c r="I6" s="251"/>
-      <c r="J6" s="252"/>
-      <c r="K6" s="253"/>
-      <c r="L6" s="254"/>
-      <c r="M6" s="273"/>
-      <c r="N6" s="274"/>
-      <c r="O6" s="274"/>
-      <c r="P6" s="274"/>
-      <c r="Q6" s="274"/>
-      <c r="R6" s="275"/>
-      <c r="S6" s="258"/>
-      <c r="T6" s="258"/>
-      <c r="U6" s="258"/>
-      <c r="V6" s="269"/>
-      <c r="W6" s="269"/>
-      <c r="X6" s="269"/>
-      <c r="Y6" s="269"/>
-      <c r="Z6" s="269"/>
-      <c r="AA6" s="269"/>
-      <c r="AB6" s="269"/>
-      <c r="AC6" s="269"/>
-      <c r="AD6" s="269"/>
-      <c r="AE6" s="269"/>
-      <c r="AF6" s="269"/>
-      <c r="AG6" s="269"/>
-      <c r="AH6" s="269"/>
-      <c r="AI6" s="269"/>
-      <c r="AJ6" s="269"/>
-      <c r="AK6" s="269"/>
-      <c r="AL6" s="269"/>
-      <c r="AM6" s="269"/>
-      <c r="AN6" s="258"/>
-      <c r="AO6" s="258"/>
-      <c r="AP6" s="258"/>
-      <c r="AQ6" s="258"/>
-      <c r="AR6" s="258"/>
-      <c r="AS6" s="258"/>
-      <c r="AT6" s="258"/>
-      <c r="AU6" s="258"/>
-      <c r="AV6" s="258"/>
-      <c r="AW6" s="258"/>
+      <c r="B6" s="255"/>
+      <c r="C6" s="255"/>
+      <c r="D6" s="255"/>
+      <c r="E6" s="256"/>
+      <c r="F6" s="256"/>
+      <c r="G6" s="256"/>
+      <c r="H6" s="256"/>
+      <c r="I6" s="256"/>
+      <c r="J6" s="257"/>
+      <c r="K6" s="258"/>
+      <c r="L6" s="259"/>
+      <c r="M6" s="260"/>
+      <c r="N6" s="261"/>
+      <c r="O6" s="261"/>
+      <c r="P6" s="261"/>
+      <c r="Q6" s="261"/>
+      <c r="R6" s="262"/>
+      <c r="S6" s="254"/>
+      <c r="T6" s="254"/>
+      <c r="U6" s="254"/>
+      <c r="V6" s="263"/>
+      <c r="W6" s="263"/>
+      <c r="X6" s="263"/>
+      <c r="Y6" s="263"/>
+      <c r="Z6" s="263"/>
+      <c r="AA6" s="263"/>
+      <c r="AB6" s="263"/>
+      <c r="AC6" s="263"/>
+      <c r="AD6" s="263"/>
+      <c r="AE6" s="263"/>
+      <c r="AF6" s="263"/>
+      <c r="AG6" s="263"/>
+      <c r="AH6" s="263"/>
+      <c r="AI6" s="263"/>
+      <c r="AJ6" s="263"/>
+      <c r="AK6" s="263"/>
+      <c r="AL6" s="263"/>
+      <c r="AM6" s="263"/>
+      <c r="AN6" s="254"/>
+      <c r="AO6" s="254"/>
+      <c r="AP6" s="254"/>
+      <c r="AQ6" s="254"/>
+      <c r="AR6" s="254"/>
+      <c r="AS6" s="254"/>
+      <c r="AT6" s="254"/>
+      <c r="AU6" s="254"/>
+      <c r="AV6" s="254"/>
+      <c r="AW6" s="254"/>
     </row>
     <row r="7" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A7" s="58"/>
-      <c r="B7" s="270"/>
-      <c r="C7" s="270"/>
-      <c r="D7" s="270"/>
-      <c r="E7" s="251"/>
-      <c r="F7" s="251"/>
-      <c r="G7" s="251"/>
-      <c r="H7" s="251"/>
-      <c r="I7" s="251"/>
-      <c r="J7" s="252"/>
-      <c r="K7" s="253"/>
-      <c r="L7" s="254"/>
-      <c r="M7" s="273"/>
-      <c r="N7" s="274"/>
-      <c r="O7" s="274"/>
-      <c r="P7" s="274"/>
-      <c r="Q7" s="274"/>
-      <c r="R7" s="275"/>
-      <c r="S7" s="258"/>
-      <c r="T7" s="258"/>
-      <c r="U7" s="258"/>
-      <c r="V7" s="269"/>
-      <c r="W7" s="269"/>
-      <c r="X7" s="269"/>
-      <c r="Y7" s="269"/>
-      <c r="Z7" s="269"/>
-      <c r="AA7" s="269"/>
-      <c r="AB7" s="269"/>
-      <c r="AC7" s="269"/>
-      <c r="AD7" s="269"/>
-      <c r="AE7" s="269"/>
-      <c r="AF7" s="269"/>
-      <c r="AG7" s="269"/>
-      <c r="AH7" s="269"/>
-      <c r="AI7" s="269"/>
-      <c r="AJ7" s="269"/>
-      <c r="AK7" s="269"/>
-      <c r="AL7" s="269"/>
-      <c r="AM7" s="269"/>
-      <c r="AN7" s="258"/>
-      <c r="AO7" s="258"/>
-      <c r="AP7" s="258"/>
-      <c r="AQ7" s="258"/>
-      <c r="AR7" s="258"/>
-      <c r="AS7" s="258"/>
-      <c r="AT7" s="258"/>
-      <c r="AU7" s="258"/>
-      <c r="AV7" s="258"/>
-      <c r="AW7" s="258"/>
+      <c r="B7" s="255"/>
+      <c r="C7" s="255"/>
+      <c r="D7" s="255"/>
+      <c r="E7" s="256"/>
+      <c r="F7" s="256"/>
+      <c r="G7" s="256"/>
+      <c r="H7" s="256"/>
+      <c r="I7" s="256"/>
+      <c r="J7" s="257"/>
+      <c r="K7" s="258"/>
+      <c r="L7" s="259"/>
+      <c r="M7" s="260"/>
+      <c r="N7" s="261"/>
+      <c r="O7" s="261"/>
+      <c r="P7" s="261"/>
+      <c r="Q7" s="261"/>
+      <c r="R7" s="262"/>
+      <c r="S7" s="254"/>
+      <c r="T7" s="254"/>
+      <c r="U7" s="254"/>
+      <c r="V7" s="263"/>
+      <c r="W7" s="263"/>
+      <c r="X7" s="263"/>
+      <c r="Y7" s="263"/>
+      <c r="Z7" s="263"/>
+      <c r="AA7" s="263"/>
+      <c r="AB7" s="263"/>
+      <c r="AC7" s="263"/>
+      <c r="AD7" s="263"/>
+      <c r="AE7" s="263"/>
+      <c r="AF7" s="263"/>
+      <c r="AG7" s="263"/>
+      <c r="AH7" s="263"/>
+      <c r="AI7" s="263"/>
+      <c r="AJ7" s="263"/>
+      <c r="AK7" s="263"/>
+      <c r="AL7" s="263"/>
+      <c r="AM7" s="263"/>
+      <c r="AN7" s="254"/>
+      <c r="AO7" s="254"/>
+      <c r="AP7" s="254"/>
+      <c r="AQ7" s="254"/>
+      <c r="AR7" s="254"/>
+      <c r="AS7" s="254"/>
+      <c r="AT7" s="254"/>
+      <c r="AU7" s="254"/>
+      <c r="AV7" s="254"/>
+      <c r="AW7" s="254"/>
     </row>
     <row r="8" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A8" s="58"/>
-      <c r="B8" s="270"/>
-      <c r="C8" s="270"/>
-      <c r="D8" s="270"/>
-      <c r="E8" s="251"/>
-      <c r="F8" s="251"/>
-      <c r="G8" s="251"/>
-      <c r="H8" s="251"/>
-      <c r="I8" s="251"/>
-      <c r="J8" s="252"/>
-      <c r="K8" s="253"/>
-      <c r="L8" s="254"/>
-      <c r="M8" s="273"/>
-      <c r="N8" s="274"/>
-      <c r="O8" s="274"/>
-      <c r="P8" s="274"/>
-      <c r="Q8" s="274"/>
-      <c r="R8" s="275"/>
-      <c r="S8" s="258"/>
-      <c r="T8" s="258"/>
-      <c r="U8" s="258"/>
-      <c r="V8" s="269"/>
-      <c r="W8" s="269"/>
-      <c r="X8" s="269"/>
-      <c r="Y8" s="269"/>
-      <c r="Z8" s="269"/>
-      <c r="AA8" s="269"/>
-      <c r="AB8" s="269"/>
-      <c r="AC8" s="269"/>
-      <c r="AD8" s="269"/>
-      <c r="AE8" s="269"/>
-      <c r="AF8" s="269"/>
-      <c r="AG8" s="269"/>
-      <c r="AH8" s="269"/>
-      <c r="AI8" s="269"/>
-      <c r="AJ8" s="269"/>
-      <c r="AK8" s="269"/>
-      <c r="AL8" s="269"/>
-      <c r="AM8" s="269"/>
-      <c r="AN8" s="258"/>
-      <c r="AO8" s="258"/>
-      <c r="AP8" s="258"/>
-      <c r="AQ8" s="258"/>
-      <c r="AR8" s="258"/>
-      <c r="AS8" s="258"/>
-      <c r="AT8" s="258"/>
-      <c r="AU8" s="258"/>
-      <c r="AV8" s="258"/>
-      <c r="AW8" s="258"/>
+      <c r="B8" s="255"/>
+      <c r="C8" s="255"/>
+      <c r="D8" s="255"/>
+      <c r="E8" s="256"/>
+      <c r="F8" s="256"/>
+      <c r="G8" s="256"/>
+      <c r="H8" s="256"/>
+      <c r="I8" s="256"/>
+      <c r="J8" s="257"/>
+      <c r="K8" s="258"/>
+      <c r="L8" s="259"/>
+      <c r="M8" s="260"/>
+      <c r="N8" s="261"/>
+      <c r="O8" s="261"/>
+      <c r="P8" s="261"/>
+      <c r="Q8" s="261"/>
+      <c r="R8" s="262"/>
+      <c r="S8" s="254"/>
+      <c r="T8" s="254"/>
+      <c r="U8" s="254"/>
+      <c r="V8" s="263"/>
+      <c r="W8" s="263"/>
+      <c r="X8" s="263"/>
+      <c r="Y8" s="263"/>
+      <c r="Z8" s="263"/>
+      <c r="AA8" s="263"/>
+      <c r="AB8" s="263"/>
+      <c r="AC8" s="263"/>
+      <c r="AD8" s="263"/>
+      <c r="AE8" s="263"/>
+      <c r="AF8" s="263"/>
+      <c r="AG8" s="263"/>
+      <c r="AH8" s="263"/>
+      <c r="AI8" s="263"/>
+      <c r="AJ8" s="263"/>
+      <c r="AK8" s="263"/>
+      <c r="AL8" s="263"/>
+      <c r="AM8" s="263"/>
+      <c r="AN8" s="254"/>
+      <c r="AO8" s="254"/>
+      <c r="AP8" s="254"/>
+      <c r="AQ8" s="254"/>
+      <c r="AR8" s="254"/>
+      <c r="AS8" s="254"/>
+      <c r="AT8" s="254"/>
+      <c r="AU8" s="254"/>
+      <c r="AV8" s="254"/>
+      <c r="AW8" s="254"/>
     </row>
     <row r="9" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A9" s="58"/>
-      <c r="B9" s="270"/>
-      <c r="C9" s="270"/>
-      <c r="D9" s="270"/>
-      <c r="E9" s="251"/>
-      <c r="F9" s="251"/>
-      <c r="G9" s="251"/>
-      <c r="H9" s="251"/>
-      <c r="I9" s="251"/>
-      <c r="J9" s="252"/>
-      <c r="K9" s="253"/>
-      <c r="L9" s="254"/>
-      <c r="M9" s="273"/>
-      <c r="N9" s="274"/>
-      <c r="O9" s="274"/>
-      <c r="P9" s="274"/>
-      <c r="Q9" s="274"/>
-      <c r="R9" s="275"/>
-      <c r="S9" s="258"/>
-      <c r="T9" s="258"/>
-      <c r="U9" s="258"/>
-      <c r="V9" s="269"/>
-      <c r="W9" s="269"/>
-      <c r="X9" s="269"/>
-      <c r="Y9" s="269"/>
-      <c r="Z9" s="269"/>
-      <c r="AA9" s="269"/>
-      <c r="AB9" s="269"/>
-      <c r="AC9" s="269"/>
-      <c r="AD9" s="269"/>
-      <c r="AE9" s="269"/>
-      <c r="AF9" s="269"/>
-      <c r="AG9" s="269"/>
-      <c r="AH9" s="269"/>
-      <c r="AI9" s="269"/>
-      <c r="AJ9" s="269"/>
-      <c r="AK9" s="269"/>
-      <c r="AL9" s="269"/>
-      <c r="AM9" s="269"/>
-      <c r="AN9" s="258"/>
-      <c r="AO9" s="258"/>
-      <c r="AP9" s="258"/>
-      <c r="AQ9" s="258"/>
-      <c r="AR9" s="258"/>
-      <c r="AS9" s="258"/>
-      <c r="AT9" s="258"/>
-      <c r="AU9" s="258"/>
-      <c r="AV9" s="258"/>
-      <c r="AW9" s="258"/>
+      <c r="B9" s="255"/>
+      <c r="C9" s="255"/>
+      <c r="D9" s="255"/>
+      <c r="E9" s="256"/>
+      <c r="F9" s="256"/>
+      <c r="G9" s="256"/>
+      <c r="H9" s="256"/>
+      <c r="I9" s="256"/>
+      <c r="J9" s="257"/>
+      <c r="K9" s="258"/>
+      <c r="L9" s="259"/>
+      <c r="M9" s="260"/>
+      <c r="N9" s="261"/>
+      <c r="O9" s="261"/>
+      <c r="P9" s="261"/>
+      <c r="Q9" s="261"/>
+      <c r="R9" s="262"/>
+      <c r="S9" s="254"/>
+      <c r="T9" s="254"/>
+      <c r="U9" s="254"/>
+      <c r="V9" s="263"/>
+      <c r="W9" s="263"/>
+      <c r="X9" s="263"/>
+      <c r="Y9" s="263"/>
+      <c r="Z9" s="263"/>
+      <c r="AA9" s="263"/>
+      <c r="AB9" s="263"/>
+      <c r="AC9" s="263"/>
+      <c r="AD9" s="263"/>
+      <c r="AE9" s="263"/>
+      <c r="AF9" s="263"/>
+      <c r="AG9" s="263"/>
+      <c r="AH9" s="263"/>
+      <c r="AI9" s="263"/>
+      <c r="AJ9" s="263"/>
+      <c r="AK9" s="263"/>
+      <c r="AL9" s="263"/>
+      <c r="AM9" s="263"/>
+      <c r="AN9" s="254"/>
+      <c r="AO9" s="254"/>
+      <c r="AP9" s="254"/>
+      <c r="AQ9" s="254"/>
+      <c r="AR9" s="254"/>
+      <c r="AS9" s="254"/>
+      <c r="AT9" s="254"/>
+      <c r="AU9" s="254"/>
+      <c r="AV9" s="254"/>
+      <c r="AW9" s="254"/>
     </row>
     <row r="10" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A10" s="58"/>
-      <c r="B10" s="270"/>
-      <c r="C10" s="270"/>
-      <c r="D10" s="270"/>
-      <c r="E10" s="251"/>
-      <c r="F10" s="251"/>
-      <c r="G10" s="251"/>
-      <c r="H10" s="251"/>
-      <c r="I10" s="251"/>
-      <c r="J10" s="252"/>
-      <c r="K10" s="253"/>
-      <c r="L10" s="254"/>
-      <c r="M10" s="273"/>
-      <c r="N10" s="274"/>
-      <c r="O10" s="274"/>
-      <c r="P10" s="274"/>
-      <c r="Q10" s="274"/>
-      <c r="R10" s="275"/>
-      <c r="S10" s="258"/>
-      <c r="T10" s="258"/>
-      <c r="U10" s="258"/>
-      <c r="V10" s="269"/>
-      <c r="W10" s="269"/>
-      <c r="X10" s="269"/>
-      <c r="Y10" s="269"/>
-      <c r="Z10" s="269"/>
-      <c r="AA10" s="269"/>
-      <c r="AB10" s="269"/>
-      <c r="AC10" s="269"/>
-      <c r="AD10" s="269"/>
-      <c r="AE10" s="269"/>
-      <c r="AF10" s="269"/>
-      <c r="AG10" s="269"/>
-      <c r="AH10" s="269"/>
-      <c r="AI10" s="269"/>
-      <c r="AJ10" s="269"/>
-      <c r="AK10" s="269"/>
-      <c r="AL10" s="269"/>
-      <c r="AM10" s="269"/>
-      <c r="AN10" s="258"/>
-      <c r="AO10" s="258"/>
-      <c r="AP10" s="258"/>
-      <c r="AQ10" s="258"/>
-      <c r="AR10" s="258"/>
-      <c r="AS10" s="258"/>
-      <c r="AT10" s="258"/>
-      <c r="AU10" s="258"/>
-      <c r="AV10" s="258"/>
-      <c r="AW10" s="258"/>
+      <c r="B10" s="255"/>
+      <c r="C10" s="255"/>
+      <c r="D10" s="255"/>
+      <c r="E10" s="256"/>
+      <c r="F10" s="256"/>
+      <c r="G10" s="256"/>
+      <c r="H10" s="256"/>
+      <c r="I10" s="256"/>
+      <c r="J10" s="257"/>
+      <c r="K10" s="258"/>
+      <c r="L10" s="259"/>
+      <c r="M10" s="260"/>
+      <c r="N10" s="261"/>
+      <c r="O10" s="261"/>
+      <c r="P10" s="261"/>
+      <c r="Q10" s="261"/>
+      <c r="R10" s="262"/>
+      <c r="S10" s="254"/>
+      <c r="T10" s="254"/>
+      <c r="U10" s="254"/>
+      <c r="V10" s="263"/>
+      <c r="W10" s="263"/>
+      <c r="X10" s="263"/>
+      <c r="Y10" s="263"/>
+      <c r="Z10" s="263"/>
+      <c r="AA10" s="263"/>
+      <c r="AB10" s="263"/>
+      <c r="AC10" s="263"/>
+      <c r="AD10" s="263"/>
+      <c r="AE10" s="263"/>
+      <c r="AF10" s="263"/>
+      <c r="AG10" s="263"/>
+      <c r="AH10" s="263"/>
+      <c r="AI10" s="263"/>
+      <c r="AJ10" s="263"/>
+      <c r="AK10" s="263"/>
+      <c r="AL10" s="263"/>
+      <c r="AM10" s="263"/>
+      <c r="AN10" s="254"/>
+      <c r="AO10" s="254"/>
+      <c r="AP10" s="254"/>
+      <c r="AQ10" s="254"/>
+      <c r="AR10" s="254"/>
+      <c r="AS10" s="254"/>
+      <c r="AT10" s="254"/>
+      <c r="AU10" s="254"/>
+      <c r="AV10" s="254"/>
+      <c r="AW10" s="254"/>
     </row>
     <row r="11" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A11" s="58"/>
-      <c r="B11" s="270"/>
-      <c r="C11" s="270"/>
-      <c r="D11" s="270"/>
-      <c r="E11" s="251"/>
-      <c r="F11" s="251"/>
-      <c r="G11" s="251"/>
-      <c r="H11" s="251"/>
-      <c r="I11" s="251"/>
-      <c r="J11" s="252"/>
-      <c r="K11" s="253"/>
-      <c r="L11" s="254"/>
-      <c r="M11" s="265"/>
-      <c r="N11" s="263"/>
-      <c r="O11" s="263"/>
-      <c r="P11" s="263"/>
-      <c r="Q11" s="263"/>
-      <c r="R11" s="264"/>
-      <c r="S11" s="258"/>
-      <c r="T11" s="258"/>
-      <c r="U11" s="258"/>
-      <c r="V11" s="259"/>
-      <c r="W11" s="271"/>
-      <c r="X11" s="271"/>
-      <c r="Y11" s="271"/>
-      <c r="Z11" s="271"/>
-      <c r="AA11" s="271"/>
-      <c r="AB11" s="271"/>
-      <c r="AC11" s="271"/>
-      <c r="AD11" s="271"/>
-      <c r="AE11" s="271"/>
-      <c r="AF11" s="271"/>
-      <c r="AG11" s="271"/>
-      <c r="AH11" s="271"/>
-      <c r="AI11" s="271"/>
-      <c r="AJ11" s="271"/>
-      <c r="AK11" s="271"/>
-      <c r="AL11" s="271"/>
-      <c r="AM11" s="272"/>
-      <c r="AN11" s="258"/>
-      <c r="AO11" s="258"/>
-      <c r="AP11" s="258"/>
-      <c r="AQ11" s="258"/>
-      <c r="AR11" s="258"/>
-      <c r="AS11" s="258"/>
-      <c r="AT11" s="258"/>
-      <c r="AU11" s="258"/>
-      <c r="AV11" s="258"/>
-      <c r="AW11" s="258"/>
+      <c r="B11" s="255"/>
+      <c r="C11" s="255"/>
+      <c r="D11" s="255"/>
+      <c r="E11" s="256"/>
+      <c r="F11" s="256"/>
+      <c r="G11" s="256"/>
+      <c r="H11" s="256"/>
+      <c r="I11" s="256"/>
+      <c r="J11" s="257"/>
+      <c r="K11" s="258"/>
+      <c r="L11" s="259"/>
+      <c r="M11" s="267"/>
+      <c r="N11" s="268"/>
+      <c r="O11" s="268"/>
+      <c r="P11" s="268"/>
+      <c r="Q11" s="268"/>
+      <c r="R11" s="269"/>
+      <c r="S11" s="254"/>
+      <c r="T11" s="254"/>
+      <c r="U11" s="254"/>
+      <c r="V11" s="270"/>
+      <c r="W11" s="276"/>
+      <c r="X11" s="276"/>
+      <c r="Y11" s="276"/>
+      <c r="Z11" s="276"/>
+      <c r="AA11" s="276"/>
+      <c r="AB11" s="276"/>
+      <c r="AC11" s="276"/>
+      <c r="AD11" s="276"/>
+      <c r="AE11" s="276"/>
+      <c r="AF11" s="276"/>
+      <c r="AG11" s="276"/>
+      <c r="AH11" s="276"/>
+      <c r="AI11" s="276"/>
+      <c r="AJ11" s="276"/>
+      <c r="AK11" s="276"/>
+      <c r="AL11" s="276"/>
+      <c r="AM11" s="277"/>
+      <c r="AN11" s="254"/>
+      <c r="AO11" s="254"/>
+      <c r="AP11" s="254"/>
+      <c r="AQ11" s="254"/>
+      <c r="AR11" s="254"/>
+      <c r="AS11" s="254"/>
+      <c r="AT11" s="254"/>
+      <c r="AU11" s="254"/>
+      <c r="AV11" s="254"/>
+      <c r="AW11" s="254"/>
     </row>
     <row r="12" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A12" s="58"/>
-      <c r="B12" s="248"/>
-      <c r="C12" s="249"/>
-      <c r="D12" s="250"/>
-      <c r="E12" s="251"/>
-      <c r="F12" s="251"/>
-      <c r="G12" s="251"/>
-      <c r="H12" s="251"/>
-      <c r="I12" s="251"/>
-      <c r="J12" s="252"/>
-      <c r="K12" s="253"/>
-      <c r="L12" s="254"/>
-      <c r="M12" s="265"/>
-      <c r="N12" s="263"/>
-      <c r="O12" s="263"/>
-      <c r="P12" s="263"/>
-      <c r="Q12" s="263"/>
-      <c r="R12" s="264"/>
-      <c r="S12" s="258"/>
-      <c r="T12" s="258"/>
-      <c r="U12" s="258"/>
-      <c r="V12" s="259"/>
-      <c r="W12" s="260"/>
-      <c r="X12" s="260"/>
-      <c r="Y12" s="260"/>
-      <c r="Z12" s="260"/>
-      <c r="AA12" s="260"/>
-      <c r="AB12" s="260"/>
-      <c r="AC12" s="260"/>
-      <c r="AD12" s="260"/>
-      <c r="AE12" s="260"/>
-      <c r="AF12" s="260"/>
-      <c r="AG12" s="260"/>
-      <c r="AH12" s="260"/>
-      <c r="AI12" s="260"/>
-      <c r="AJ12" s="260"/>
-      <c r="AK12" s="260"/>
-      <c r="AL12" s="260"/>
-      <c r="AM12" s="261"/>
-      <c r="AN12" s="245"/>
-      <c r="AO12" s="246"/>
-      <c r="AP12" s="246"/>
-      <c r="AQ12" s="246"/>
-      <c r="AR12" s="247"/>
-      <c r="AS12" s="245"/>
-      <c r="AT12" s="246"/>
-      <c r="AU12" s="246"/>
-      <c r="AV12" s="246"/>
-      <c r="AW12" s="247"/>
+      <c r="B12" s="264"/>
+      <c r="C12" s="265"/>
+      <c r="D12" s="266"/>
+      <c r="E12" s="256"/>
+      <c r="F12" s="256"/>
+      <c r="G12" s="256"/>
+      <c r="H12" s="256"/>
+      <c r="I12" s="256"/>
+      <c r="J12" s="257"/>
+      <c r="K12" s="258"/>
+      <c r="L12" s="259"/>
+      <c r="M12" s="267"/>
+      <c r="N12" s="268"/>
+      <c r="O12" s="268"/>
+      <c r="P12" s="268"/>
+      <c r="Q12" s="268"/>
+      <c r="R12" s="269"/>
+      <c r="S12" s="254"/>
+      <c r="T12" s="254"/>
+      <c r="U12" s="254"/>
+      <c r="V12" s="270"/>
+      <c r="W12" s="271"/>
+      <c r="X12" s="271"/>
+      <c r="Y12" s="271"/>
+      <c r="Z12" s="271"/>
+      <c r="AA12" s="271"/>
+      <c r="AB12" s="271"/>
+      <c r="AC12" s="271"/>
+      <c r="AD12" s="271"/>
+      <c r="AE12" s="271"/>
+      <c r="AF12" s="271"/>
+      <c r="AG12" s="271"/>
+      <c r="AH12" s="271"/>
+      <c r="AI12" s="271"/>
+      <c r="AJ12" s="271"/>
+      <c r="AK12" s="271"/>
+      <c r="AL12" s="271"/>
+      <c r="AM12" s="272"/>
+      <c r="AN12" s="273"/>
+      <c r="AO12" s="274"/>
+      <c r="AP12" s="274"/>
+      <c r="AQ12" s="274"/>
+      <c r="AR12" s="275"/>
+      <c r="AS12" s="273"/>
+      <c r="AT12" s="274"/>
+      <c r="AU12" s="274"/>
+      <c r="AV12" s="274"/>
+      <c r="AW12" s="275"/>
     </row>
     <row r="13" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A13" s="58"/>
-      <c r="B13" s="248"/>
-      <c r="C13" s="249"/>
-      <c r="D13" s="250"/>
-      <c r="E13" s="251"/>
-      <c r="F13" s="251"/>
-      <c r="G13" s="251"/>
-      <c r="H13" s="251"/>
-      <c r="I13" s="251"/>
-      <c r="J13" s="252"/>
-      <c r="K13" s="253"/>
-      <c r="L13" s="254"/>
-      <c r="M13" s="262"/>
-      <c r="N13" s="263"/>
-      <c r="O13" s="263"/>
-      <c r="P13" s="263"/>
-      <c r="Q13" s="263"/>
-      <c r="R13" s="264"/>
-      <c r="S13" s="258"/>
-      <c r="T13" s="258"/>
-      <c r="U13" s="258"/>
-      <c r="V13" s="259"/>
-      <c r="W13" s="260"/>
-      <c r="X13" s="260"/>
-      <c r="Y13" s="260"/>
-      <c r="Z13" s="260"/>
-      <c r="AA13" s="260"/>
-      <c r="AB13" s="260"/>
-      <c r="AC13" s="260"/>
-      <c r="AD13" s="260"/>
-      <c r="AE13" s="260"/>
-      <c r="AF13" s="260"/>
-      <c r="AG13" s="260"/>
-      <c r="AH13" s="260"/>
-      <c r="AI13" s="260"/>
-      <c r="AJ13" s="260"/>
-      <c r="AK13" s="260"/>
-      <c r="AL13" s="260"/>
-      <c r="AM13" s="261"/>
-      <c r="AN13" s="245"/>
-      <c r="AO13" s="246"/>
-      <c r="AP13" s="246"/>
-      <c r="AQ13" s="246"/>
-      <c r="AR13" s="247"/>
-      <c r="AS13" s="245"/>
-      <c r="AT13" s="246"/>
-      <c r="AU13" s="246"/>
-      <c r="AV13" s="246"/>
-      <c r="AW13" s="247"/>
+      <c r="B13" s="264"/>
+      <c r="C13" s="265"/>
+      <c r="D13" s="266"/>
+      <c r="E13" s="256"/>
+      <c r="F13" s="256"/>
+      <c r="G13" s="256"/>
+      <c r="H13" s="256"/>
+      <c r="I13" s="256"/>
+      <c r="J13" s="257"/>
+      <c r="K13" s="258"/>
+      <c r="L13" s="259"/>
+      <c r="M13" s="278"/>
+      <c r="N13" s="268"/>
+      <c r="O13" s="268"/>
+      <c r="P13" s="268"/>
+      <c r="Q13" s="268"/>
+      <c r="R13" s="269"/>
+      <c r="S13" s="254"/>
+      <c r="T13" s="254"/>
+      <c r="U13" s="254"/>
+      <c r="V13" s="270"/>
+      <c r="W13" s="271"/>
+      <c r="X13" s="271"/>
+      <c r="Y13" s="271"/>
+      <c r="Z13" s="271"/>
+      <c r="AA13" s="271"/>
+      <c r="AB13" s="271"/>
+      <c r="AC13" s="271"/>
+      <c r="AD13" s="271"/>
+      <c r="AE13" s="271"/>
+      <c r="AF13" s="271"/>
+      <c r="AG13" s="271"/>
+      <c r="AH13" s="271"/>
+      <c r="AI13" s="271"/>
+      <c r="AJ13" s="271"/>
+      <c r="AK13" s="271"/>
+      <c r="AL13" s="271"/>
+      <c r="AM13" s="272"/>
+      <c r="AN13" s="273"/>
+      <c r="AO13" s="274"/>
+      <c r="AP13" s="274"/>
+      <c r="AQ13" s="274"/>
+      <c r="AR13" s="275"/>
+      <c r="AS13" s="273"/>
+      <c r="AT13" s="274"/>
+      <c r="AU13" s="274"/>
+      <c r="AV13" s="274"/>
+      <c r="AW13" s="275"/>
     </row>
     <row r="14" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A14" s="58"/>
-      <c r="B14" s="248"/>
-      <c r="C14" s="249"/>
-      <c r="D14" s="250"/>
-      <c r="E14" s="251"/>
-      <c r="F14" s="251"/>
-      <c r="G14" s="251"/>
-      <c r="H14" s="251"/>
-      <c r="I14" s="251"/>
-      <c r="J14" s="252"/>
-      <c r="K14" s="253"/>
-      <c r="L14" s="254"/>
-      <c r="M14" s="262"/>
-      <c r="N14" s="263"/>
-      <c r="O14" s="263"/>
-      <c r="P14" s="263"/>
-      <c r="Q14" s="263"/>
-      <c r="R14" s="264"/>
-      <c r="S14" s="258"/>
-      <c r="T14" s="258"/>
-      <c r="U14" s="258"/>
-      <c r="V14" s="268"/>
-      <c r="W14" s="269"/>
-      <c r="X14" s="269"/>
-      <c r="Y14" s="269"/>
-      <c r="Z14" s="269"/>
-      <c r="AA14" s="269"/>
-      <c r="AB14" s="269"/>
-      <c r="AC14" s="269"/>
-      <c r="AD14" s="269"/>
-      <c r="AE14" s="269"/>
-      <c r="AF14" s="269"/>
-      <c r="AG14" s="269"/>
-      <c r="AH14" s="269"/>
-      <c r="AI14" s="269"/>
-      <c r="AJ14" s="269"/>
-      <c r="AK14" s="269"/>
-      <c r="AL14" s="269"/>
-      <c r="AM14" s="269"/>
-      <c r="AN14" s="258"/>
-      <c r="AO14" s="258"/>
-      <c r="AP14" s="258"/>
-      <c r="AQ14" s="258"/>
-      <c r="AR14" s="258"/>
-      <c r="AS14" s="245"/>
-      <c r="AT14" s="246"/>
-      <c r="AU14" s="246"/>
-      <c r="AV14" s="246"/>
-      <c r="AW14" s="247"/>
+      <c r="B14" s="264"/>
+      <c r="C14" s="265"/>
+      <c r="D14" s="266"/>
+      <c r="E14" s="256"/>
+      <c r="F14" s="256"/>
+      <c r="G14" s="256"/>
+      <c r="H14" s="256"/>
+      <c r="I14" s="256"/>
+      <c r="J14" s="257"/>
+      <c r="K14" s="258"/>
+      <c r="L14" s="259"/>
+      <c r="M14" s="278"/>
+      <c r="N14" s="268"/>
+      <c r="O14" s="268"/>
+      <c r="P14" s="268"/>
+      <c r="Q14" s="268"/>
+      <c r="R14" s="269"/>
+      <c r="S14" s="254"/>
+      <c r="T14" s="254"/>
+      <c r="U14" s="254"/>
+      <c r="V14" s="279"/>
+      <c r="W14" s="263"/>
+      <c r="X14" s="263"/>
+      <c r="Y14" s="263"/>
+      <c r="Z14" s="263"/>
+      <c r="AA14" s="263"/>
+      <c r="AB14" s="263"/>
+      <c r="AC14" s="263"/>
+      <c r="AD14" s="263"/>
+      <c r="AE14" s="263"/>
+      <c r="AF14" s="263"/>
+      <c r="AG14" s="263"/>
+      <c r="AH14" s="263"/>
+      <c r="AI14" s="263"/>
+      <c r="AJ14" s="263"/>
+      <c r="AK14" s="263"/>
+      <c r="AL14" s="263"/>
+      <c r="AM14" s="263"/>
+      <c r="AN14" s="254"/>
+      <c r="AO14" s="254"/>
+      <c r="AP14" s="254"/>
+      <c r="AQ14" s="254"/>
+      <c r="AR14" s="254"/>
+      <c r="AS14" s="273"/>
+      <c r="AT14" s="274"/>
+      <c r="AU14" s="274"/>
+      <c r="AV14" s="274"/>
+      <c r="AW14" s="275"/>
     </row>
     <row r="15" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A15" s="58"/>
-      <c r="B15" s="248"/>
-      <c r="C15" s="249"/>
-      <c r="D15" s="250"/>
-      <c r="E15" s="251"/>
-      <c r="F15" s="251"/>
-      <c r="G15" s="251"/>
-      <c r="H15" s="251"/>
-      <c r="I15" s="251"/>
-      <c r="J15" s="252"/>
-      <c r="K15" s="253"/>
-      <c r="L15" s="254"/>
-      <c r="M15" s="265"/>
-      <c r="N15" s="263"/>
-      <c r="O15" s="263"/>
-      <c r="P15" s="263"/>
-      <c r="Q15" s="263"/>
-      <c r="R15" s="264"/>
-      <c r="S15" s="258"/>
-      <c r="T15" s="258"/>
-      <c r="U15" s="258"/>
-      <c r="V15" s="259"/>
-      <c r="W15" s="260"/>
-      <c r="X15" s="260"/>
-      <c r="Y15" s="260"/>
-      <c r="Z15" s="260"/>
-      <c r="AA15" s="260"/>
-      <c r="AB15" s="260"/>
-      <c r="AC15" s="260"/>
-      <c r="AD15" s="260"/>
-      <c r="AE15" s="260"/>
-      <c r="AF15" s="260"/>
-      <c r="AG15" s="260"/>
-      <c r="AH15" s="260"/>
-      <c r="AI15" s="260"/>
-      <c r="AJ15" s="260"/>
-      <c r="AK15" s="260"/>
-      <c r="AL15" s="260"/>
-      <c r="AM15" s="261"/>
-      <c r="AN15" s="245"/>
-      <c r="AO15" s="246"/>
-      <c r="AP15" s="246"/>
-      <c r="AQ15" s="246"/>
-      <c r="AR15" s="247"/>
-      <c r="AS15" s="245"/>
-      <c r="AT15" s="246"/>
-      <c r="AU15" s="246"/>
-      <c r="AV15" s="246"/>
-      <c r="AW15" s="247"/>
+      <c r="B15" s="264"/>
+      <c r="C15" s="265"/>
+      <c r="D15" s="266"/>
+      <c r="E15" s="256"/>
+      <c r="F15" s="256"/>
+      <c r="G15" s="256"/>
+      <c r="H15" s="256"/>
+      <c r="I15" s="256"/>
+      <c r="J15" s="257"/>
+      <c r="K15" s="258"/>
+      <c r="L15" s="259"/>
+      <c r="M15" s="267"/>
+      <c r="N15" s="268"/>
+      <c r="O15" s="268"/>
+      <c r="P15" s="268"/>
+      <c r="Q15" s="268"/>
+      <c r="R15" s="269"/>
+      <c r="S15" s="254"/>
+      <c r="T15" s="254"/>
+      <c r="U15" s="254"/>
+      <c r="V15" s="270"/>
+      <c r="W15" s="271"/>
+      <c r="X15" s="271"/>
+      <c r="Y15" s="271"/>
+      <c r="Z15" s="271"/>
+      <c r="AA15" s="271"/>
+      <c r="AB15" s="271"/>
+      <c r="AC15" s="271"/>
+      <c r="AD15" s="271"/>
+      <c r="AE15" s="271"/>
+      <c r="AF15" s="271"/>
+      <c r="AG15" s="271"/>
+      <c r="AH15" s="271"/>
+      <c r="AI15" s="271"/>
+      <c r="AJ15" s="271"/>
+      <c r="AK15" s="271"/>
+      <c r="AL15" s="271"/>
+      <c r="AM15" s="272"/>
+      <c r="AN15" s="273"/>
+      <c r="AO15" s="274"/>
+      <c r="AP15" s="274"/>
+      <c r="AQ15" s="274"/>
+      <c r="AR15" s="275"/>
+      <c r="AS15" s="273"/>
+      <c r="AT15" s="274"/>
+      <c r="AU15" s="274"/>
+      <c r="AV15" s="274"/>
+      <c r="AW15" s="275"/>
     </row>
     <row r="16" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A16" s="58"/>
-      <c r="B16" s="248"/>
-      <c r="C16" s="249"/>
-      <c r="D16" s="250"/>
-      <c r="E16" s="251"/>
-      <c r="F16" s="251"/>
-      <c r="G16" s="251"/>
-      <c r="H16" s="251"/>
-      <c r="I16" s="251"/>
-      <c r="J16" s="252"/>
-      <c r="K16" s="253"/>
-      <c r="L16" s="254"/>
-      <c r="M16" s="265"/>
-      <c r="N16" s="263"/>
-      <c r="O16" s="263"/>
-      <c r="P16" s="263"/>
-      <c r="Q16" s="263"/>
-      <c r="R16" s="264"/>
-      <c r="S16" s="258"/>
-      <c r="T16" s="258"/>
-      <c r="U16" s="258"/>
-      <c r="V16" s="259"/>
-      <c r="W16" s="260"/>
-      <c r="X16" s="260"/>
-      <c r="Y16" s="260"/>
-      <c r="Z16" s="260"/>
-      <c r="AA16" s="260"/>
-      <c r="AB16" s="260"/>
-      <c r="AC16" s="260"/>
-      <c r="AD16" s="260"/>
-      <c r="AE16" s="260"/>
-      <c r="AF16" s="260"/>
-      <c r="AG16" s="260"/>
-      <c r="AH16" s="260"/>
-      <c r="AI16" s="260"/>
-      <c r="AJ16" s="260"/>
-      <c r="AK16" s="260"/>
-      <c r="AL16" s="260"/>
-      <c r="AM16" s="261"/>
-      <c r="AN16" s="245"/>
-      <c r="AO16" s="246"/>
-      <c r="AP16" s="246"/>
-      <c r="AQ16" s="246"/>
-      <c r="AR16" s="247"/>
-      <c r="AS16" s="245"/>
-      <c r="AT16" s="246"/>
-      <c r="AU16" s="246"/>
-      <c r="AV16" s="246"/>
-      <c r="AW16" s="247"/>
+      <c r="B16" s="264"/>
+      <c r="C16" s="265"/>
+      <c r="D16" s="266"/>
+      <c r="E16" s="256"/>
+      <c r="F16" s="256"/>
+      <c r="G16" s="256"/>
+      <c r="H16" s="256"/>
+      <c r="I16" s="256"/>
+      <c r="J16" s="257"/>
+      <c r="K16" s="258"/>
+      <c r="L16" s="259"/>
+      <c r="M16" s="267"/>
+      <c r="N16" s="268"/>
+      <c r="O16" s="268"/>
+      <c r="P16" s="268"/>
+      <c r="Q16" s="268"/>
+      <c r="R16" s="269"/>
+      <c r="S16" s="254"/>
+      <c r="T16" s="254"/>
+      <c r="U16" s="254"/>
+      <c r="V16" s="270"/>
+      <c r="W16" s="271"/>
+      <c r="X16" s="271"/>
+      <c r="Y16" s="271"/>
+      <c r="Z16" s="271"/>
+      <c r="AA16" s="271"/>
+      <c r="AB16" s="271"/>
+      <c r="AC16" s="271"/>
+      <c r="AD16" s="271"/>
+      <c r="AE16" s="271"/>
+      <c r="AF16" s="271"/>
+      <c r="AG16" s="271"/>
+      <c r="AH16" s="271"/>
+      <c r="AI16" s="271"/>
+      <c r="AJ16" s="271"/>
+      <c r="AK16" s="271"/>
+      <c r="AL16" s="271"/>
+      <c r="AM16" s="272"/>
+      <c r="AN16" s="273"/>
+      <c r="AO16" s="274"/>
+      <c r="AP16" s="274"/>
+      <c r="AQ16" s="274"/>
+      <c r="AR16" s="275"/>
+      <c r="AS16" s="273"/>
+      <c r="AT16" s="274"/>
+      <c r="AU16" s="274"/>
+      <c r="AV16" s="274"/>
+      <c r="AW16" s="275"/>
     </row>
     <row r="17" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A17" s="58"/>
-      <c r="B17" s="248"/>
-      <c r="C17" s="249"/>
-      <c r="D17" s="250"/>
-      <c r="E17" s="251"/>
-      <c r="F17" s="251"/>
-      <c r="G17" s="251"/>
-      <c r="H17" s="251"/>
-      <c r="I17" s="251"/>
-      <c r="J17" s="252"/>
-      <c r="K17" s="253"/>
-      <c r="L17" s="254"/>
-      <c r="M17" s="265"/>
-      <c r="N17" s="263"/>
-      <c r="O17" s="263"/>
-      <c r="P17" s="263"/>
-      <c r="Q17" s="263"/>
-      <c r="R17" s="266"/>
-      <c r="S17" s="267"/>
-      <c r="T17" s="267"/>
-      <c r="U17" s="267"/>
-      <c r="V17" s="259"/>
-      <c r="W17" s="260"/>
-      <c r="X17" s="260"/>
-      <c r="Y17" s="260"/>
-      <c r="Z17" s="260"/>
-      <c r="AA17" s="260"/>
-      <c r="AB17" s="260"/>
-      <c r="AC17" s="260"/>
-      <c r="AD17" s="260"/>
-      <c r="AE17" s="260"/>
-      <c r="AF17" s="260"/>
-      <c r="AG17" s="260"/>
-      <c r="AH17" s="260"/>
-      <c r="AI17" s="260"/>
-      <c r="AJ17" s="260"/>
-      <c r="AK17" s="260"/>
-      <c r="AL17" s="260"/>
-      <c r="AM17" s="261"/>
-      <c r="AN17" s="245"/>
-      <c r="AO17" s="246"/>
-      <c r="AP17" s="246"/>
-      <c r="AQ17" s="246"/>
-      <c r="AR17" s="247"/>
-      <c r="AS17" s="245"/>
-      <c r="AT17" s="246"/>
-      <c r="AU17" s="246"/>
-      <c r="AV17" s="246"/>
-      <c r="AW17" s="247"/>
+      <c r="B17" s="264"/>
+      <c r="C17" s="265"/>
+      <c r="D17" s="266"/>
+      <c r="E17" s="256"/>
+      <c r="F17" s="256"/>
+      <c r="G17" s="256"/>
+      <c r="H17" s="256"/>
+      <c r="I17" s="256"/>
+      <c r="J17" s="257"/>
+      <c r="K17" s="258"/>
+      <c r="L17" s="259"/>
+      <c r="M17" s="267"/>
+      <c r="N17" s="268"/>
+      <c r="O17" s="268"/>
+      <c r="P17" s="268"/>
+      <c r="Q17" s="268"/>
+      <c r="R17" s="280"/>
+      <c r="S17" s="281"/>
+      <c r="T17" s="281"/>
+      <c r="U17" s="281"/>
+      <c r="V17" s="270"/>
+      <c r="W17" s="271"/>
+      <c r="X17" s="271"/>
+      <c r="Y17" s="271"/>
+      <c r="Z17" s="271"/>
+      <c r="AA17" s="271"/>
+      <c r="AB17" s="271"/>
+      <c r="AC17" s="271"/>
+      <c r="AD17" s="271"/>
+      <c r="AE17" s="271"/>
+      <c r="AF17" s="271"/>
+      <c r="AG17" s="271"/>
+      <c r="AH17" s="271"/>
+      <c r="AI17" s="271"/>
+      <c r="AJ17" s="271"/>
+      <c r="AK17" s="271"/>
+      <c r="AL17" s="271"/>
+      <c r="AM17" s="272"/>
+      <c r="AN17" s="273"/>
+      <c r="AO17" s="274"/>
+      <c r="AP17" s="274"/>
+      <c r="AQ17" s="274"/>
+      <c r="AR17" s="275"/>
+      <c r="AS17" s="273"/>
+      <c r="AT17" s="274"/>
+      <c r="AU17" s="274"/>
+      <c r="AV17" s="274"/>
+      <c r="AW17" s="275"/>
     </row>
     <row r="18" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A18" s="58"/>
-      <c r="B18" s="248"/>
-      <c r="C18" s="249"/>
-      <c r="D18" s="250"/>
-      <c r="E18" s="251"/>
-      <c r="F18" s="251"/>
-      <c r="G18" s="251"/>
-      <c r="H18" s="251"/>
-      <c r="I18" s="251"/>
-      <c r="J18" s="252"/>
-      <c r="K18" s="253"/>
-      <c r="L18" s="254"/>
-      <c r="M18" s="262"/>
-      <c r="N18" s="263"/>
-      <c r="O18" s="263"/>
-      <c r="P18" s="263"/>
-      <c r="Q18" s="263"/>
-      <c r="R18" s="264"/>
-      <c r="S18" s="258"/>
-      <c r="T18" s="258"/>
-      <c r="U18" s="258"/>
-      <c r="V18" s="259"/>
-      <c r="W18" s="260"/>
-      <c r="X18" s="260"/>
-      <c r="Y18" s="260"/>
-      <c r="Z18" s="260"/>
-      <c r="AA18" s="260"/>
-      <c r="AB18" s="260"/>
-      <c r="AC18" s="260"/>
-      <c r="AD18" s="260"/>
-      <c r="AE18" s="260"/>
-      <c r="AF18" s="260"/>
-      <c r="AG18" s="260"/>
-      <c r="AH18" s="260"/>
-      <c r="AI18" s="260"/>
-      <c r="AJ18" s="260"/>
-      <c r="AK18" s="260"/>
-      <c r="AL18" s="260"/>
-      <c r="AM18" s="261"/>
-      <c r="AN18" s="245"/>
-      <c r="AO18" s="246"/>
-      <c r="AP18" s="246"/>
-      <c r="AQ18" s="246"/>
-      <c r="AR18" s="247"/>
-      <c r="AS18" s="245"/>
-      <c r="AT18" s="246"/>
-      <c r="AU18" s="246"/>
-      <c r="AV18" s="246"/>
-      <c r="AW18" s="247"/>
+      <c r="B18" s="264"/>
+      <c r="C18" s="265"/>
+      <c r="D18" s="266"/>
+      <c r="E18" s="256"/>
+      <c r="F18" s="256"/>
+      <c r="G18" s="256"/>
+      <c r="H18" s="256"/>
+      <c r="I18" s="256"/>
+      <c r="J18" s="257"/>
+      <c r="K18" s="258"/>
+      <c r="L18" s="259"/>
+      <c r="M18" s="278"/>
+      <c r="N18" s="268"/>
+      <c r="O18" s="268"/>
+      <c r="P18" s="268"/>
+      <c r="Q18" s="268"/>
+      <c r="R18" s="269"/>
+      <c r="S18" s="254"/>
+      <c r="T18" s="254"/>
+      <c r="U18" s="254"/>
+      <c r="V18" s="270"/>
+      <c r="W18" s="271"/>
+      <c r="X18" s="271"/>
+      <c r="Y18" s="271"/>
+      <c r="Z18" s="271"/>
+      <c r="AA18" s="271"/>
+      <c r="AB18" s="271"/>
+      <c r="AC18" s="271"/>
+      <c r="AD18" s="271"/>
+      <c r="AE18" s="271"/>
+      <c r="AF18" s="271"/>
+      <c r="AG18" s="271"/>
+      <c r="AH18" s="271"/>
+      <c r="AI18" s="271"/>
+      <c r="AJ18" s="271"/>
+      <c r="AK18" s="271"/>
+      <c r="AL18" s="271"/>
+      <c r="AM18" s="272"/>
+      <c r="AN18" s="273"/>
+      <c r="AO18" s="274"/>
+      <c r="AP18" s="274"/>
+      <c r="AQ18" s="274"/>
+      <c r="AR18" s="275"/>
+      <c r="AS18" s="273"/>
+      <c r="AT18" s="274"/>
+      <c r="AU18" s="274"/>
+      <c r="AV18" s="274"/>
+      <c r="AW18" s="275"/>
     </row>
     <row r="19" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A19" s="58"/>
-      <c r="B19" s="248"/>
-      <c r="C19" s="249"/>
-      <c r="D19" s="250"/>
-      <c r="E19" s="251"/>
-      <c r="F19" s="251"/>
-      <c r="G19" s="251"/>
-      <c r="H19" s="251"/>
-      <c r="I19" s="251"/>
-      <c r="J19" s="252"/>
-      <c r="K19" s="253"/>
-      <c r="L19" s="254"/>
-      <c r="M19" s="265"/>
-      <c r="N19" s="263"/>
-      <c r="O19" s="263"/>
-      <c r="P19" s="263"/>
-      <c r="Q19" s="263"/>
-      <c r="R19" s="264"/>
-      <c r="S19" s="258"/>
-      <c r="T19" s="258"/>
-      <c r="U19" s="258"/>
-      <c r="V19" s="259"/>
-      <c r="W19" s="260"/>
-      <c r="X19" s="260"/>
-      <c r="Y19" s="260"/>
-      <c r="Z19" s="260"/>
-      <c r="AA19" s="260"/>
-      <c r="AB19" s="260"/>
-      <c r="AC19" s="260"/>
-      <c r="AD19" s="260"/>
-      <c r="AE19" s="260"/>
-      <c r="AF19" s="260"/>
-      <c r="AG19" s="260"/>
-      <c r="AH19" s="260"/>
-      <c r="AI19" s="260"/>
-      <c r="AJ19" s="260"/>
-      <c r="AK19" s="260"/>
-      <c r="AL19" s="260"/>
-      <c r="AM19" s="261"/>
-      <c r="AN19" s="258"/>
-      <c r="AO19" s="258"/>
-      <c r="AP19" s="258"/>
-      <c r="AQ19" s="258"/>
-      <c r="AR19" s="258"/>
-      <c r="AS19" s="245"/>
-      <c r="AT19" s="246"/>
-      <c r="AU19" s="246"/>
-      <c r="AV19" s="246"/>
-      <c r="AW19" s="247"/>
+      <c r="B19" s="264"/>
+      <c r="C19" s="265"/>
+      <c r="D19" s="266"/>
+      <c r="E19" s="256"/>
+      <c r="F19" s="256"/>
+      <c r="G19" s="256"/>
+      <c r="H19" s="256"/>
+      <c r="I19" s="256"/>
+      <c r="J19" s="257"/>
+      <c r="K19" s="258"/>
+      <c r="L19" s="259"/>
+      <c r="M19" s="267"/>
+      <c r="N19" s="268"/>
+      <c r="O19" s="268"/>
+      <c r="P19" s="268"/>
+      <c r="Q19" s="268"/>
+      <c r="R19" s="269"/>
+      <c r="S19" s="254"/>
+      <c r="T19" s="254"/>
+      <c r="U19" s="254"/>
+      <c r="V19" s="270"/>
+      <c r="W19" s="271"/>
+      <c r="X19" s="271"/>
+      <c r="Y19" s="271"/>
+      <c r="Z19" s="271"/>
+      <c r="AA19" s="271"/>
+      <c r="AB19" s="271"/>
+      <c r="AC19" s="271"/>
+      <c r="AD19" s="271"/>
+      <c r="AE19" s="271"/>
+      <c r="AF19" s="271"/>
+      <c r="AG19" s="271"/>
+      <c r="AH19" s="271"/>
+      <c r="AI19" s="271"/>
+      <c r="AJ19" s="271"/>
+      <c r="AK19" s="271"/>
+      <c r="AL19" s="271"/>
+      <c r="AM19" s="272"/>
+      <c r="AN19" s="254"/>
+      <c r="AO19" s="254"/>
+      <c r="AP19" s="254"/>
+      <c r="AQ19" s="254"/>
+      <c r="AR19" s="254"/>
+      <c r="AS19" s="273"/>
+      <c r="AT19" s="274"/>
+      <c r="AU19" s="274"/>
+      <c r="AV19" s="274"/>
+      <c r="AW19" s="275"/>
     </row>
     <row r="20" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A20" s="58"/>
-      <c r="B20" s="248"/>
-      <c r="C20" s="249"/>
-      <c r="D20" s="250"/>
-      <c r="E20" s="251"/>
-      <c r="F20" s="251"/>
-      <c r="G20" s="251"/>
-      <c r="H20" s="251"/>
-      <c r="I20" s="251"/>
-      <c r="J20" s="252"/>
-      <c r="K20" s="253"/>
-      <c r="L20" s="254"/>
-      <c r="M20" s="265"/>
-      <c r="N20" s="263"/>
-      <c r="O20" s="263"/>
-      <c r="P20" s="263"/>
-      <c r="Q20" s="263"/>
-      <c r="R20" s="264"/>
-      <c r="S20" s="245"/>
-      <c r="T20" s="246"/>
-      <c r="U20" s="247"/>
-      <c r="V20" s="259"/>
-      <c r="W20" s="260"/>
-      <c r="X20" s="260"/>
-      <c r="Y20" s="260"/>
-      <c r="Z20" s="260"/>
-      <c r="AA20" s="260"/>
-      <c r="AB20" s="260"/>
-      <c r="AC20" s="260"/>
-      <c r="AD20" s="260"/>
-      <c r="AE20" s="260"/>
-      <c r="AF20" s="260"/>
-      <c r="AG20" s="260"/>
-      <c r="AH20" s="260"/>
-      <c r="AI20" s="260"/>
-      <c r="AJ20" s="260"/>
-      <c r="AK20" s="260"/>
-      <c r="AL20" s="260"/>
-      <c r="AM20" s="261"/>
-      <c r="AN20" s="245"/>
-      <c r="AO20" s="246"/>
-      <c r="AP20" s="246"/>
-      <c r="AQ20" s="246"/>
-      <c r="AR20" s="247"/>
-      <c r="AS20" s="245"/>
-      <c r="AT20" s="246"/>
-      <c r="AU20" s="246"/>
-      <c r="AV20" s="246"/>
-      <c r="AW20" s="247"/>
+      <c r="B20" s="264"/>
+      <c r="C20" s="265"/>
+      <c r="D20" s="266"/>
+      <c r="E20" s="256"/>
+      <c r="F20" s="256"/>
+      <c r="G20" s="256"/>
+      <c r="H20" s="256"/>
+      <c r="I20" s="256"/>
+      <c r="J20" s="257"/>
+      <c r="K20" s="258"/>
+      <c r="L20" s="259"/>
+      <c r="M20" s="267"/>
+      <c r="N20" s="268"/>
+      <c r="O20" s="268"/>
+      <c r="P20" s="268"/>
+      <c r="Q20" s="268"/>
+      <c r="R20" s="269"/>
+      <c r="S20" s="273"/>
+      <c r="T20" s="274"/>
+      <c r="U20" s="275"/>
+      <c r="V20" s="270"/>
+      <c r="W20" s="271"/>
+      <c r="X20" s="271"/>
+      <c r="Y20" s="271"/>
+      <c r="Z20" s="271"/>
+      <c r="AA20" s="271"/>
+      <c r="AB20" s="271"/>
+      <c r="AC20" s="271"/>
+      <c r="AD20" s="271"/>
+      <c r="AE20" s="271"/>
+      <c r="AF20" s="271"/>
+      <c r="AG20" s="271"/>
+      <c r="AH20" s="271"/>
+      <c r="AI20" s="271"/>
+      <c r="AJ20" s="271"/>
+      <c r="AK20" s="271"/>
+      <c r="AL20" s="271"/>
+      <c r="AM20" s="272"/>
+      <c r="AN20" s="273"/>
+      <c r="AO20" s="274"/>
+      <c r="AP20" s="274"/>
+      <c r="AQ20" s="274"/>
+      <c r="AR20" s="275"/>
+      <c r="AS20" s="273"/>
+      <c r="AT20" s="274"/>
+      <c r="AU20" s="274"/>
+      <c r="AV20" s="274"/>
+      <c r="AW20" s="275"/>
     </row>
     <row r="21" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A21" s="58"/>
-      <c r="B21" s="248"/>
-      <c r="C21" s="249"/>
-      <c r="D21" s="250"/>
-      <c r="E21" s="251"/>
-      <c r="F21" s="251"/>
-      <c r="G21" s="251"/>
-      <c r="H21" s="251"/>
-      <c r="I21" s="251"/>
-      <c r="J21" s="252"/>
-      <c r="K21" s="253"/>
-      <c r="L21" s="254"/>
-      <c r="M21" s="265"/>
-      <c r="N21" s="263"/>
-      <c r="O21" s="263"/>
-      <c r="P21" s="263"/>
-      <c r="Q21" s="263"/>
-      <c r="R21" s="264"/>
-      <c r="S21" s="258"/>
-      <c r="T21" s="258"/>
-      <c r="U21" s="258"/>
-      <c r="V21" s="259"/>
-      <c r="W21" s="260"/>
-      <c r="X21" s="260"/>
-      <c r="Y21" s="260"/>
-      <c r="Z21" s="260"/>
-      <c r="AA21" s="260"/>
-      <c r="AB21" s="260"/>
-      <c r="AC21" s="260"/>
-      <c r="AD21" s="260"/>
-      <c r="AE21" s="260"/>
-      <c r="AF21" s="260"/>
-      <c r="AG21" s="260"/>
-      <c r="AH21" s="260"/>
-      <c r="AI21" s="260"/>
-      <c r="AJ21" s="260"/>
-      <c r="AK21" s="260"/>
-      <c r="AL21" s="260"/>
-      <c r="AM21" s="261"/>
-      <c r="AN21" s="245"/>
-      <c r="AO21" s="246"/>
-      <c r="AP21" s="246"/>
-      <c r="AQ21" s="246"/>
-      <c r="AR21" s="247"/>
-      <c r="AS21" s="245"/>
-      <c r="AT21" s="246"/>
-      <c r="AU21" s="246"/>
-      <c r="AV21" s="246"/>
-      <c r="AW21" s="247"/>
+      <c r="B21" s="264"/>
+      <c r="C21" s="265"/>
+      <c r="D21" s="266"/>
+      <c r="E21" s="256"/>
+      <c r="F21" s="256"/>
+      <c r="G21" s="256"/>
+      <c r="H21" s="256"/>
+      <c r="I21" s="256"/>
+      <c r="J21" s="257"/>
+      <c r="K21" s="258"/>
+      <c r="L21" s="259"/>
+      <c r="M21" s="267"/>
+      <c r="N21" s="268"/>
+      <c r="O21" s="268"/>
+      <c r="P21" s="268"/>
+      <c r="Q21" s="268"/>
+      <c r="R21" s="269"/>
+      <c r="S21" s="254"/>
+      <c r="T21" s="254"/>
+      <c r="U21" s="254"/>
+      <c r="V21" s="270"/>
+      <c r="W21" s="271"/>
+      <c r="X21" s="271"/>
+      <c r="Y21" s="271"/>
+      <c r="Z21" s="271"/>
+      <c r="AA21" s="271"/>
+      <c r="AB21" s="271"/>
+      <c r="AC21" s="271"/>
+      <c r="AD21" s="271"/>
+      <c r="AE21" s="271"/>
+      <c r="AF21" s="271"/>
+      <c r="AG21" s="271"/>
+      <c r="AH21" s="271"/>
+      <c r="AI21" s="271"/>
+      <c r="AJ21" s="271"/>
+      <c r="AK21" s="271"/>
+      <c r="AL21" s="271"/>
+      <c r="AM21" s="272"/>
+      <c r="AN21" s="273"/>
+      <c r="AO21" s="274"/>
+      <c r="AP21" s="274"/>
+      <c r="AQ21" s="274"/>
+      <c r="AR21" s="275"/>
+      <c r="AS21" s="273"/>
+      <c r="AT21" s="274"/>
+      <c r="AU21" s="274"/>
+      <c r="AV21" s="274"/>
+      <c r="AW21" s="275"/>
     </row>
     <row r="22" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A22" s="58"/>
-      <c r="B22" s="248"/>
-      <c r="C22" s="249"/>
-      <c r="D22" s="250"/>
-      <c r="E22" s="251"/>
-      <c r="F22" s="251"/>
-      <c r="G22" s="251"/>
-      <c r="H22" s="251"/>
-      <c r="I22" s="251"/>
-      <c r="J22" s="252"/>
-      <c r="K22" s="253"/>
-      <c r="L22" s="254"/>
-      <c r="M22" s="265"/>
-      <c r="N22" s="263"/>
-      <c r="O22" s="263"/>
-      <c r="P22" s="263"/>
-      <c r="Q22" s="263"/>
-      <c r="R22" s="264"/>
-      <c r="S22" s="258"/>
-      <c r="T22" s="258"/>
-      <c r="U22" s="258"/>
-      <c r="V22" s="259"/>
-      <c r="W22" s="260"/>
-      <c r="X22" s="260"/>
-      <c r="Y22" s="260"/>
-      <c r="Z22" s="260"/>
-      <c r="AA22" s="260"/>
-      <c r="AB22" s="260"/>
-      <c r="AC22" s="260"/>
-      <c r="AD22" s="260"/>
-      <c r="AE22" s="260"/>
-      <c r="AF22" s="260"/>
-      <c r="AG22" s="260"/>
-      <c r="AH22" s="260"/>
-      <c r="AI22" s="260"/>
-      <c r="AJ22" s="260"/>
-      <c r="AK22" s="260"/>
-      <c r="AL22" s="260"/>
-      <c r="AM22" s="261"/>
-      <c r="AN22" s="245"/>
-      <c r="AO22" s="246"/>
-      <c r="AP22" s="246"/>
-      <c r="AQ22" s="246"/>
-      <c r="AR22" s="247"/>
-      <c r="AS22" s="245"/>
-      <c r="AT22" s="246"/>
-      <c r="AU22" s="246"/>
-      <c r="AV22" s="246"/>
-      <c r="AW22" s="247"/>
+      <c r="B22" s="264"/>
+      <c r="C22" s="265"/>
+      <c r="D22" s="266"/>
+      <c r="E22" s="256"/>
+      <c r="F22" s="256"/>
+      <c r="G22" s="256"/>
+      <c r="H22" s="256"/>
+      <c r="I22" s="256"/>
+      <c r="J22" s="257"/>
+      <c r="K22" s="258"/>
+      <c r="L22" s="259"/>
+      <c r="M22" s="267"/>
+      <c r="N22" s="268"/>
+      <c r="O22" s="268"/>
+      <c r="P22" s="268"/>
+      <c r="Q22" s="268"/>
+      <c r="R22" s="269"/>
+      <c r="S22" s="254"/>
+      <c r="T22" s="254"/>
+      <c r="U22" s="254"/>
+      <c r="V22" s="270"/>
+      <c r="W22" s="271"/>
+      <c r="X22" s="271"/>
+      <c r="Y22" s="271"/>
+      <c r="Z22" s="271"/>
+      <c r="AA22" s="271"/>
+      <c r="AB22" s="271"/>
+      <c r="AC22" s="271"/>
+      <c r="AD22" s="271"/>
+      <c r="AE22" s="271"/>
+      <c r="AF22" s="271"/>
+      <c r="AG22" s="271"/>
+      <c r="AH22" s="271"/>
+      <c r="AI22" s="271"/>
+      <c r="AJ22" s="271"/>
+      <c r="AK22" s="271"/>
+      <c r="AL22" s="271"/>
+      <c r="AM22" s="272"/>
+      <c r="AN22" s="273"/>
+      <c r="AO22" s="274"/>
+      <c r="AP22" s="274"/>
+      <c r="AQ22" s="274"/>
+      <c r="AR22" s="275"/>
+      <c r="AS22" s="273"/>
+      <c r="AT22" s="274"/>
+      <c r="AU22" s="274"/>
+      <c r="AV22" s="274"/>
+      <c r="AW22" s="275"/>
     </row>
     <row r="23" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A23" s="56"/>
-      <c r="B23" s="248"/>
-      <c r="C23" s="249"/>
-      <c r="D23" s="250"/>
-      <c r="E23" s="251"/>
-      <c r="F23" s="251"/>
-      <c r="G23" s="251"/>
-      <c r="H23" s="251"/>
-      <c r="I23" s="251"/>
-      <c r="J23" s="252"/>
-      <c r="K23" s="253"/>
-      <c r="L23" s="254"/>
-      <c r="M23" s="265"/>
-      <c r="N23" s="263"/>
-      <c r="O23" s="263"/>
-      <c r="P23" s="263"/>
-      <c r="Q23" s="263"/>
-      <c r="R23" s="264"/>
-      <c r="S23" s="258"/>
-      <c r="T23" s="258"/>
-      <c r="U23" s="258"/>
-      <c r="V23" s="259"/>
-      <c r="W23" s="260"/>
-      <c r="X23" s="260"/>
-      <c r="Y23" s="260"/>
-      <c r="Z23" s="260"/>
-      <c r="AA23" s="260"/>
-      <c r="AB23" s="260"/>
-      <c r="AC23" s="260"/>
-      <c r="AD23" s="260"/>
-      <c r="AE23" s="260"/>
-      <c r="AF23" s="260"/>
-      <c r="AG23" s="260"/>
-      <c r="AH23" s="260"/>
-      <c r="AI23" s="260"/>
-      <c r="AJ23" s="260"/>
-      <c r="AK23" s="260"/>
-      <c r="AL23" s="260"/>
-      <c r="AM23" s="261"/>
-      <c r="AN23" s="245"/>
-      <c r="AO23" s="246"/>
-      <c r="AP23" s="246"/>
-      <c r="AQ23" s="246"/>
-      <c r="AR23" s="247"/>
-      <c r="AS23" s="245"/>
-      <c r="AT23" s="246"/>
-      <c r="AU23" s="246"/>
-      <c r="AV23" s="246"/>
-      <c r="AW23" s="247"/>
+      <c r="B23" s="264"/>
+      <c r="C23" s="265"/>
+      <c r="D23" s="266"/>
+      <c r="E23" s="256"/>
+      <c r="F23" s="256"/>
+      <c r="G23" s="256"/>
+      <c r="H23" s="256"/>
+      <c r="I23" s="256"/>
+      <c r="J23" s="257"/>
+      <c r="K23" s="258"/>
+      <c r="L23" s="259"/>
+      <c r="M23" s="267"/>
+      <c r="N23" s="268"/>
+      <c r="O23" s="268"/>
+      <c r="P23" s="268"/>
+      <c r="Q23" s="268"/>
+      <c r="R23" s="269"/>
+      <c r="S23" s="254"/>
+      <c r="T23" s="254"/>
+      <c r="U23" s="254"/>
+      <c r="V23" s="270"/>
+      <c r="W23" s="271"/>
+      <c r="X23" s="271"/>
+      <c r="Y23" s="271"/>
+      <c r="Z23" s="271"/>
+      <c r="AA23" s="271"/>
+      <c r="AB23" s="271"/>
+      <c r="AC23" s="271"/>
+      <c r="AD23" s="271"/>
+      <c r="AE23" s="271"/>
+      <c r="AF23" s="271"/>
+      <c r="AG23" s="271"/>
+      <c r="AH23" s="271"/>
+      <c r="AI23" s="271"/>
+      <c r="AJ23" s="271"/>
+      <c r="AK23" s="271"/>
+      <c r="AL23" s="271"/>
+      <c r="AM23" s="272"/>
+      <c r="AN23" s="273"/>
+      <c r="AO23" s="274"/>
+      <c r="AP23" s="274"/>
+      <c r="AQ23" s="274"/>
+      <c r="AR23" s="275"/>
+      <c r="AS23" s="273"/>
+      <c r="AT23" s="274"/>
+      <c r="AU23" s="274"/>
+      <c r="AV23" s="274"/>
+      <c r="AW23" s="275"/>
     </row>
     <row r="24" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A24" s="56"/>
-      <c r="B24" s="248"/>
-      <c r="C24" s="249"/>
-      <c r="D24" s="250"/>
-      <c r="E24" s="251"/>
-      <c r="F24" s="251"/>
-      <c r="G24" s="251"/>
-      <c r="H24" s="251"/>
-      <c r="I24" s="251"/>
-      <c r="J24" s="252"/>
-      <c r="K24" s="253"/>
-      <c r="L24" s="254"/>
-      <c r="M24" s="265"/>
-      <c r="N24" s="263"/>
-      <c r="O24" s="263"/>
-      <c r="P24" s="263"/>
-      <c r="Q24" s="263"/>
-      <c r="R24" s="264"/>
-      <c r="S24" s="258"/>
-      <c r="T24" s="258"/>
-      <c r="U24" s="258"/>
-      <c r="V24" s="259"/>
-      <c r="W24" s="260"/>
-      <c r="X24" s="260"/>
-      <c r="Y24" s="260"/>
-      <c r="Z24" s="260"/>
-      <c r="AA24" s="260"/>
-      <c r="AB24" s="260"/>
-      <c r="AC24" s="260"/>
-      <c r="AD24" s="260"/>
-      <c r="AE24" s="260"/>
-      <c r="AF24" s="260"/>
-      <c r="AG24" s="260"/>
-      <c r="AH24" s="260"/>
-      <c r="AI24" s="260"/>
-      <c r="AJ24" s="260"/>
-      <c r="AK24" s="260"/>
-      <c r="AL24" s="260"/>
-      <c r="AM24" s="261"/>
-      <c r="AN24" s="245"/>
-      <c r="AO24" s="246"/>
-      <c r="AP24" s="246"/>
-      <c r="AQ24" s="246"/>
-      <c r="AR24" s="247"/>
-      <c r="AS24" s="245"/>
-      <c r="AT24" s="246"/>
-      <c r="AU24" s="246"/>
-      <c r="AV24" s="246"/>
-      <c r="AW24" s="247"/>
+      <c r="B24" s="264"/>
+      <c r="C24" s="265"/>
+      <c r="D24" s="266"/>
+      <c r="E24" s="256"/>
+      <c r="F24" s="256"/>
+      <c r="G24" s="256"/>
+      <c r="H24" s="256"/>
+      <c r="I24" s="256"/>
+      <c r="J24" s="257"/>
+      <c r="K24" s="258"/>
+      <c r="L24" s="259"/>
+      <c r="M24" s="267"/>
+      <c r="N24" s="268"/>
+      <c r="O24" s="268"/>
+      <c r="P24" s="268"/>
+      <c r="Q24" s="268"/>
+      <c r="R24" s="269"/>
+      <c r="S24" s="254"/>
+      <c r="T24" s="254"/>
+      <c r="U24" s="254"/>
+      <c r="V24" s="270"/>
+      <c r="W24" s="271"/>
+      <c r="X24" s="271"/>
+      <c r="Y24" s="271"/>
+      <c r="Z24" s="271"/>
+      <c r="AA24" s="271"/>
+      <c r="AB24" s="271"/>
+      <c r="AC24" s="271"/>
+      <c r="AD24" s="271"/>
+      <c r="AE24" s="271"/>
+      <c r="AF24" s="271"/>
+      <c r="AG24" s="271"/>
+      <c r="AH24" s="271"/>
+      <c r="AI24" s="271"/>
+      <c r="AJ24" s="271"/>
+      <c r="AK24" s="271"/>
+      <c r="AL24" s="271"/>
+      <c r="AM24" s="272"/>
+      <c r="AN24" s="273"/>
+      <c r="AO24" s="274"/>
+      <c r="AP24" s="274"/>
+      <c r="AQ24" s="274"/>
+      <c r="AR24" s="275"/>
+      <c r="AS24" s="273"/>
+      <c r="AT24" s="274"/>
+      <c r="AU24" s="274"/>
+      <c r="AV24" s="274"/>
+      <c r="AW24" s="275"/>
     </row>
     <row r="25" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A25" s="56"/>
-      <c r="B25" s="248"/>
-      <c r="C25" s="249"/>
-      <c r="D25" s="250"/>
-      <c r="E25" s="251"/>
-      <c r="F25" s="251"/>
-      <c r="G25" s="251"/>
-      <c r="H25" s="251"/>
-      <c r="I25" s="251"/>
-      <c r="J25" s="252"/>
-      <c r="K25" s="253"/>
-      <c r="L25" s="254"/>
-      <c r="M25" s="262"/>
-      <c r="N25" s="263"/>
-      <c r="O25" s="263"/>
-      <c r="P25" s="263"/>
-      <c r="Q25" s="263"/>
-      <c r="R25" s="264"/>
-      <c r="S25" s="258"/>
-      <c r="T25" s="258"/>
-      <c r="U25" s="258"/>
-      <c r="V25" s="259"/>
-      <c r="W25" s="260"/>
-      <c r="X25" s="260"/>
-      <c r="Y25" s="260"/>
-      <c r="Z25" s="260"/>
-      <c r="AA25" s="260"/>
-      <c r="AB25" s="260"/>
-      <c r="AC25" s="260"/>
-      <c r="AD25" s="260"/>
-      <c r="AE25" s="260"/>
-      <c r="AF25" s="260"/>
-      <c r="AG25" s="260"/>
-      <c r="AH25" s="260"/>
-      <c r="AI25" s="260"/>
-      <c r="AJ25" s="260"/>
-      <c r="AK25" s="260"/>
-      <c r="AL25" s="260"/>
-      <c r="AM25" s="261"/>
-      <c r="AN25" s="245"/>
-      <c r="AO25" s="246"/>
-      <c r="AP25" s="246"/>
-      <c r="AQ25" s="246"/>
-      <c r="AR25" s="247"/>
-      <c r="AS25" s="245"/>
-      <c r="AT25" s="246"/>
-      <c r="AU25" s="246"/>
-      <c r="AV25" s="246"/>
-      <c r="AW25" s="247"/>
+      <c r="B25" s="264"/>
+      <c r="C25" s="265"/>
+      <c r="D25" s="266"/>
+      <c r="E25" s="256"/>
+      <c r="F25" s="256"/>
+      <c r="G25" s="256"/>
+      <c r="H25" s="256"/>
+      <c r="I25" s="256"/>
+      <c r="J25" s="257"/>
+      <c r="K25" s="258"/>
+      <c r="L25" s="259"/>
+      <c r="M25" s="278"/>
+      <c r="N25" s="268"/>
+      <c r="O25" s="268"/>
+      <c r="P25" s="268"/>
+      <c r="Q25" s="268"/>
+      <c r="R25" s="269"/>
+      <c r="S25" s="254"/>
+      <c r="T25" s="254"/>
+      <c r="U25" s="254"/>
+      <c r="V25" s="270"/>
+      <c r="W25" s="271"/>
+      <c r="X25" s="271"/>
+      <c r="Y25" s="271"/>
+      <c r="Z25" s="271"/>
+      <c r="AA25" s="271"/>
+      <c r="AB25" s="271"/>
+      <c r="AC25" s="271"/>
+      <c r="AD25" s="271"/>
+      <c r="AE25" s="271"/>
+      <c r="AF25" s="271"/>
+      <c r="AG25" s="271"/>
+      <c r="AH25" s="271"/>
+      <c r="AI25" s="271"/>
+      <c r="AJ25" s="271"/>
+      <c r="AK25" s="271"/>
+      <c r="AL25" s="271"/>
+      <c r="AM25" s="272"/>
+      <c r="AN25" s="273"/>
+      <c r="AO25" s="274"/>
+      <c r="AP25" s="274"/>
+      <c r="AQ25" s="274"/>
+      <c r="AR25" s="275"/>
+      <c r="AS25" s="273"/>
+      <c r="AT25" s="274"/>
+      <c r="AU25" s="274"/>
+      <c r="AV25" s="274"/>
+      <c r="AW25" s="275"/>
     </row>
     <row r="26" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A26" s="56"/>
-      <c r="B26" s="248"/>
-      <c r="C26" s="249"/>
-      <c r="D26" s="250"/>
-      <c r="E26" s="251"/>
-      <c r="F26" s="251"/>
-      <c r="G26" s="251"/>
-      <c r="H26" s="251"/>
-      <c r="I26" s="251"/>
-      <c r="J26" s="252"/>
-      <c r="K26" s="253"/>
-      <c r="L26" s="254"/>
-      <c r="M26" s="262"/>
-      <c r="N26" s="263"/>
-      <c r="O26" s="263"/>
-      <c r="P26" s="263"/>
-      <c r="Q26" s="263"/>
-      <c r="R26" s="264"/>
-      <c r="S26" s="258"/>
-      <c r="T26" s="258"/>
-      <c r="U26" s="258"/>
-      <c r="V26" s="259"/>
-      <c r="W26" s="260"/>
-      <c r="X26" s="260"/>
-      <c r="Y26" s="260"/>
-      <c r="Z26" s="260"/>
-      <c r="AA26" s="260"/>
-      <c r="AB26" s="260"/>
-      <c r="AC26" s="260"/>
-      <c r="AD26" s="260"/>
-      <c r="AE26" s="260"/>
-      <c r="AF26" s="260"/>
-      <c r="AG26" s="260"/>
-      <c r="AH26" s="260"/>
-      <c r="AI26" s="260"/>
-      <c r="AJ26" s="260"/>
-      <c r="AK26" s="260"/>
-      <c r="AL26" s="260"/>
-      <c r="AM26" s="261"/>
-      <c r="AN26" s="245"/>
-      <c r="AO26" s="246"/>
-      <c r="AP26" s="246"/>
-      <c r="AQ26" s="246"/>
-      <c r="AR26" s="247"/>
-      <c r="AS26" s="245"/>
-      <c r="AT26" s="246"/>
-      <c r="AU26" s="246"/>
-      <c r="AV26" s="246"/>
-      <c r="AW26" s="247"/>
+      <c r="B26" s="264"/>
+      <c r="C26" s="265"/>
+      <c r="D26" s="266"/>
+      <c r="E26" s="256"/>
+      <c r="F26" s="256"/>
+      <c r="G26" s="256"/>
+      <c r="H26" s="256"/>
+      <c r="I26" s="256"/>
+      <c r="J26" s="257"/>
+      <c r="K26" s="258"/>
+      <c r="L26" s="259"/>
+      <c r="M26" s="278"/>
+      <c r="N26" s="268"/>
+      <c r="O26" s="268"/>
+      <c r="P26" s="268"/>
+      <c r="Q26" s="268"/>
+      <c r="R26" s="269"/>
+      <c r="S26" s="254"/>
+      <c r="T26" s="254"/>
+      <c r="U26" s="254"/>
+      <c r="V26" s="270"/>
+      <c r="W26" s="271"/>
+      <c r="X26" s="271"/>
+      <c r="Y26" s="271"/>
+      <c r="Z26" s="271"/>
+      <c r="AA26" s="271"/>
+      <c r="AB26" s="271"/>
+      <c r="AC26" s="271"/>
+      <c r="AD26" s="271"/>
+      <c r="AE26" s="271"/>
+      <c r="AF26" s="271"/>
+      <c r="AG26" s="271"/>
+      <c r="AH26" s="271"/>
+      <c r="AI26" s="271"/>
+      <c r="AJ26" s="271"/>
+      <c r="AK26" s="271"/>
+      <c r="AL26" s="271"/>
+      <c r="AM26" s="272"/>
+      <c r="AN26" s="273"/>
+      <c r="AO26" s="274"/>
+      <c r="AP26" s="274"/>
+      <c r="AQ26" s="274"/>
+      <c r="AR26" s="275"/>
+      <c r="AS26" s="273"/>
+      <c r="AT26" s="274"/>
+      <c r="AU26" s="274"/>
+      <c r="AV26" s="274"/>
+      <c r="AW26" s="275"/>
     </row>
     <row r="27" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A27" s="56"/>
-      <c r="B27" s="248"/>
-      <c r="C27" s="249"/>
-      <c r="D27" s="250"/>
-      <c r="E27" s="251"/>
-      <c r="F27" s="251"/>
-      <c r="G27" s="251"/>
-      <c r="H27" s="251"/>
-      <c r="I27" s="251"/>
-      <c r="J27" s="252"/>
-      <c r="K27" s="253"/>
-      <c r="L27" s="254"/>
-      <c r="M27" s="262"/>
-      <c r="N27" s="263"/>
-      <c r="O27" s="263"/>
-      <c r="P27" s="263"/>
-      <c r="Q27" s="263"/>
-      <c r="R27" s="264"/>
-      <c r="S27" s="258"/>
-      <c r="T27" s="258"/>
-      <c r="U27" s="258"/>
-      <c r="V27" s="259"/>
-      <c r="W27" s="260"/>
-      <c r="X27" s="260"/>
-      <c r="Y27" s="260"/>
-      <c r="Z27" s="260"/>
-      <c r="AA27" s="260"/>
-      <c r="AB27" s="260"/>
-      <c r="AC27" s="260"/>
-      <c r="AD27" s="260"/>
-      <c r="AE27" s="260"/>
-      <c r="AF27" s="260"/>
-      <c r="AG27" s="260"/>
-      <c r="AH27" s="260"/>
-      <c r="AI27" s="260"/>
-      <c r="AJ27" s="260"/>
-      <c r="AK27" s="260"/>
-      <c r="AL27" s="260"/>
-      <c r="AM27" s="261"/>
-      <c r="AN27" s="245"/>
-      <c r="AO27" s="246"/>
-      <c r="AP27" s="246"/>
-      <c r="AQ27" s="246"/>
-      <c r="AR27" s="247"/>
-      <c r="AS27" s="245"/>
-      <c r="AT27" s="246"/>
-      <c r="AU27" s="246"/>
-      <c r="AV27" s="246"/>
-      <c r="AW27" s="247"/>
+      <c r="B27" s="264"/>
+      <c r="C27" s="265"/>
+      <c r="D27" s="266"/>
+      <c r="E27" s="256"/>
+      <c r="F27" s="256"/>
+      <c r="G27" s="256"/>
+      <c r="H27" s="256"/>
+      <c r="I27" s="256"/>
+      <c r="J27" s="257"/>
+      <c r="K27" s="258"/>
+      <c r="L27" s="259"/>
+      <c r="M27" s="278"/>
+      <c r="N27" s="268"/>
+      <c r="O27" s="268"/>
+      <c r="P27" s="268"/>
+      <c r="Q27" s="268"/>
+      <c r="R27" s="269"/>
+      <c r="S27" s="254"/>
+      <c r="T27" s="254"/>
+      <c r="U27" s="254"/>
+      <c r="V27" s="270"/>
+      <c r="W27" s="271"/>
+      <c r="X27" s="271"/>
+      <c r="Y27" s="271"/>
+      <c r="Z27" s="271"/>
+      <c r="AA27" s="271"/>
+      <c r="AB27" s="271"/>
+      <c r="AC27" s="271"/>
+      <c r="AD27" s="271"/>
+      <c r="AE27" s="271"/>
+      <c r="AF27" s="271"/>
+      <c r="AG27" s="271"/>
+      <c r="AH27" s="271"/>
+      <c r="AI27" s="271"/>
+      <c r="AJ27" s="271"/>
+      <c r="AK27" s="271"/>
+      <c r="AL27" s="271"/>
+      <c r="AM27" s="272"/>
+      <c r="AN27" s="273"/>
+      <c r="AO27" s="274"/>
+      <c r="AP27" s="274"/>
+      <c r="AQ27" s="274"/>
+      <c r="AR27" s="275"/>
+      <c r="AS27" s="273"/>
+      <c r="AT27" s="274"/>
+      <c r="AU27" s="274"/>
+      <c r="AV27" s="274"/>
+      <c r="AW27" s="275"/>
     </row>
     <row r="28" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A28" s="56"/>
-      <c r="B28" s="248"/>
-      <c r="C28" s="249"/>
-      <c r="D28" s="250"/>
-      <c r="E28" s="251"/>
-      <c r="F28" s="251"/>
-      <c r="G28" s="251"/>
-      <c r="H28" s="251"/>
-      <c r="I28" s="251"/>
-      <c r="J28" s="252"/>
-      <c r="K28" s="253"/>
-      <c r="L28" s="254"/>
-      <c r="M28" s="265"/>
-      <c r="N28" s="263"/>
-      <c r="O28" s="263"/>
-      <c r="P28" s="263"/>
-      <c r="Q28" s="263"/>
-      <c r="R28" s="264"/>
-      <c r="S28" s="258"/>
-      <c r="T28" s="258"/>
-      <c r="U28" s="258"/>
-      <c r="V28" s="259"/>
-      <c r="W28" s="260"/>
-      <c r="X28" s="260"/>
-      <c r="Y28" s="260"/>
-      <c r="Z28" s="260"/>
-      <c r="AA28" s="260"/>
-      <c r="AB28" s="260"/>
-      <c r="AC28" s="260"/>
-      <c r="AD28" s="260"/>
-      <c r="AE28" s="260"/>
-      <c r="AF28" s="260"/>
-      <c r="AG28" s="260"/>
-      <c r="AH28" s="260"/>
-      <c r="AI28" s="260"/>
-      <c r="AJ28" s="260"/>
-      <c r="AK28" s="260"/>
-      <c r="AL28" s="260"/>
-      <c r="AM28" s="261"/>
-      <c r="AN28" s="245"/>
-      <c r="AO28" s="246"/>
-      <c r="AP28" s="246"/>
-      <c r="AQ28" s="246"/>
-      <c r="AR28" s="247"/>
-      <c r="AS28" s="245"/>
-      <c r="AT28" s="246"/>
-      <c r="AU28" s="246"/>
-      <c r="AV28" s="246"/>
-      <c r="AW28" s="247"/>
+      <c r="B28" s="264"/>
+      <c r="C28" s="265"/>
+      <c r="D28" s="266"/>
+      <c r="E28" s="256"/>
+      <c r="F28" s="256"/>
+      <c r="G28" s="256"/>
+      <c r="H28" s="256"/>
+      <c r="I28" s="256"/>
+      <c r="J28" s="257"/>
+      <c r="K28" s="258"/>
+      <c r="L28" s="259"/>
+      <c r="M28" s="267"/>
+      <c r="N28" s="268"/>
+      <c r="O28" s="268"/>
+      <c r="P28" s="268"/>
+      <c r="Q28" s="268"/>
+      <c r="R28" s="269"/>
+      <c r="S28" s="254"/>
+      <c r="T28" s="254"/>
+      <c r="U28" s="254"/>
+      <c r="V28" s="270"/>
+      <c r="W28" s="271"/>
+      <c r="X28" s="271"/>
+      <c r="Y28" s="271"/>
+      <c r="Z28" s="271"/>
+      <c r="AA28" s="271"/>
+      <c r="AB28" s="271"/>
+      <c r="AC28" s="271"/>
+      <c r="AD28" s="271"/>
+      <c r="AE28" s="271"/>
+      <c r="AF28" s="271"/>
+      <c r="AG28" s="271"/>
+      <c r="AH28" s="271"/>
+      <c r="AI28" s="271"/>
+      <c r="AJ28" s="271"/>
+      <c r="AK28" s="271"/>
+      <c r="AL28" s="271"/>
+      <c r="AM28" s="272"/>
+      <c r="AN28" s="273"/>
+      <c r="AO28" s="274"/>
+      <c r="AP28" s="274"/>
+      <c r="AQ28" s="274"/>
+      <c r="AR28" s="275"/>
+      <c r="AS28" s="273"/>
+      <c r="AT28" s="274"/>
+      <c r="AU28" s="274"/>
+      <c r="AV28" s="274"/>
+      <c r="AW28" s="275"/>
     </row>
     <row r="29" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A29" s="56"/>
-      <c r="B29" s="248"/>
-      <c r="C29" s="249"/>
-      <c r="D29" s="250"/>
-      <c r="E29" s="251"/>
-      <c r="F29" s="251"/>
-      <c r="G29" s="251"/>
-      <c r="H29" s="251"/>
-      <c r="I29" s="251"/>
-      <c r="J29" s="252"/>
-      <c r="K29" s="253"/>
-      <c r="L29" s="254"/>
-      <c r="M29" s="265"/>
-      <c r="N29" s="263"/>
-      <c r="O29" s="263"/>
-      <c r="P29" s="263"/>
-      <c r="Q29" s="263"/>
-      <c r="R29" s="264"/>
-      <c r="S29" s="258"/>
-      <c r="T29" s="258"/>
-      <c r="U29" s="258"/>
-      <c r="V29" s="259"/>
-      <c r="W29" s="260"/>
-      <c r="X29" s="260"/>
-      <c r="Y29" s="260"/>
-      <c r="Z29" s="260"/>
-      <c r="AA29" s="260"/>
-      <c r="AB29" s="260"/>
-      <c r="AC29" s="260"/>
-      <c r="AD29" s="260"/>
-      <c r="AE29" s="260"/>
-      <c r="AF29" s="260"/>
-      <c r="AG29" s="260"/>
-      <c r="AH29" s="260"/>
-      <c r="AI29" s="260"/>
-      <c r="AJ29" s="260"/>
-      <c r="AK29" s="260"/>
-      <c r="AL29" s="260"/>
-      <c r="AM29" s="261"/>
-      <c r="AN29" s="245"/>
-      <c r="AO29" s="246"/>
-      <c r="AP29" s="246"/>
-      <c r="AQ29" s="246"/>
-      <c r="AR29" s="247"/>
-      <c r="AS29" s="245"/>
-      <c r="AT29" s="246"/>
-      <c r="AU29" s="246"/>
-      <c r="AV29" s="246"/>
-      <c r="AW29" s="247"/>
+      <c r="B29" s="264"/>
+      <c r="C29" s="265"/>
+      <c r="D29" s="266"/>
+      <c r="E29" s="256"/>
+      <c r="F29" s="256"/>
+      <c r="G29" s="256"/>
+      <c r="H29" s="256"/>
+      <c r="I29" s="256"/>
+      <c r="J29" s="257"/>
+      <c r="K29" s="258"/>
+      <c r="L29" s="259"/>
+      <c r="M29" s="267"/>
+      <c r="N29" s="268"/>
+      <c r="O29" s="268"/>
+      <c r="P29" s="268"/>
+      <c r="Q29" s="268"/>
+      <c r="R29" s="269"/>
+      <c r="S29" s="254"/>
+      <c r="T29" s="254"/>
+      <c r="U29" s="254"/>
+      <c r="V29" s="270"/>
+      <c r="W29" s="271"/>
+      <c r="X29" s="271"/>
+      <c r="Y29" s="271"/>
+      <c r="Z29" s="271"/>
+      <c r="AA29" s="271"/>
+      <c r="AB29" s="271"/>
+      <c r="AC29" s="271"/>
+      <c r="AD29" s="271"/>
+      <c r="AE29" s="271"/>
+      <c r="AF29" s="271"/>
+      <c r="AG29" s="271"/>
+      <c r="AH29" s="271"/>
+      <c r="AI29" s="271"/>
+      <c r="AJ29" s="271"/>
+      <c r="AK29" s="271"/>
+      <c r="AL29" s="271"/>
+      <c r="AM29" s="272"/>
+      <c r="AN29" s="273"/>
+      <c r="AO29" s="274"/>
+      <c r="AP29" s="274"/>
+      <c r="AQ29" s="274"/>
+      <c r="AR29" s="275"/>
+      <c r="AS29" s="273"/>
+      <c r="AT29" s="274"/>
+      <c r="AU29" s="274"/>
+      <c r="AV29" s="274"/>
+      <c r="AW29" s="275"/>
     </row>
     <row r="30" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A30" s="56"/>
-      <c r="B30" s="248"/>
-      <c r="C30" s="249"/>
-      <c r="D30" s="250"/>
-      <c r="E30" s="251"/>
-      <c r="F30" s="251"/>
-      <c r="G30" s="251"/>
-      <c r="H30" s="251"/>
-      <c r="I30" s="251"/>
-      <c r="J30" s="252"/>
-      <c r="K30" s="253"/>
-      <c r="L30" s="254"/>
-      <c r="M30" s="262"/>
-      <c r="N30" s="263"/>
-      <c r="O30" s="263"/>
-      <c r="P30" s="263"/>
-      <c r="Q30" s="263"/>
-      <c r="R30" s="264"/>
-      <c r="S30" s="258"/>
-      <c r="T30" s="258"/>
-      <c r="U30" s="258"/>
-      <c r="V30" s="259"/>
-      <c r="W30" s="260"/>
-      <c r="X30" s="260"/>
-      <c r="Y30" s="260"/>
-      <c r="Z30" s="260"/>
-      <c r="AA30" s="260"/>
-      <c r="AB30" s="260"/>
-      <c r="AC30" s="260"/>
-      <c r="AD30" s="260"/>
-      <c r="AE30" s="260"/>
-      <c r="AF30" s="260"/>
-      <c r="AG30" s="260"/>
-      <c r="AH30" s="260"/>
-      <c r="AI30" s="260"/>
-      <c r="AJ30" s="260"/>
-      <c r="AK30" s="260"/>
-      <c r="AL30" s="260"/>
-      <c r="AM30" s="261"/>
-      <c r="AN30" s="245"/>
-      <c r="AO30" s="246"/>
-      <c r="AP30" s="246"/>
-      <c r="AQ30" s="246"/>
-      <c r="AR30" s="247"/>
-      <c r="AS30" s="245"/>
-      <c r="AT30" s="246"/>
-      <c r="AU30" s="246"/>
-      <c r="AV30" s="246"/>
-      <c r="AW30" s="247"/>
+      <c r="B30" s="264"/>
+      <c r="C30" s="265"/>
+      <c r="D30" s="266"/>
+      <c r="E30" s="256"/>
+      <c r="F30" s="256"/>
+      <c r="G30" s="256"/>
+      <c r="H30" s="256"/>
+      <c r="I30" s="256"/>
+      <c r="J30" s="257"/>
+      <c r="K30" s="258"/>
+      <c r="L30" s="259"/>
+      <c r="M30" s="278"/>
+      <c r="N30" s="268"/>
+      <c r="O30" s="268"/>
+      <c r="P30" s="268"/>
+      <c r="Q30" s="268"/>
+      <c r="R30" s="269"/>
+      <c r="S30" s="254"/>
+      <c r="T30" s="254"/>
+      <c r="U30" s="254"/>
+      <c r="V30" s="270"/>
+      <c r="W30" s="271"/>
+      <c r="X30" s="271"/>
+      <c r="Y30" s="271"/>
+      <c r="Z30" s="271"/>
+      <c r="AA30" s="271"/>
+      <c r="AB30" s="271"/>
+      <c r="AC30" s="271"/>
+      <c r="AD30" s="271"/>
+      <c r="AE30" s="271"/>
+      <c r="AF30" s="271"/>
+      <c r="AG30" s="271"/>
+      <c r="AH30" s="271"/>
+      <c r="AI30" s="271"/>
+      <c r="AJ30" s="271"/>
+      <c r="AK30" s="271"/>
+      <c r="AL30" s="271"/>
+      <c r="AM30" s="272"/>
+      <c r="AN30" s="273"/>
+      <c r="AO30" s="274"/>
+      <c r="AP30" s="274"/>
+      <c r="AQ30" s="274"/>
+      <c r="AR30" s="275"/>
+      <c r="AS30" s="273"/>
+      <c r="AT30" s="274"/>
+      <c r="AU30" s="274"/>
+      <c r="AV30" s="274"/>
+      <c r="AW30" s="275"/>
     </row>
     <row r="31" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A31" s="56"/>
-      <c r="B31" s="248"/>
-      <c r="C31" s="249"/>
-      <c r="D31" s="250"/>
-      <c r="E31" s="251"/>
-      <c r="F31" s="251"/>
-      <c r="G31" s="251"/>
-      <c r="H31" s="251"/>
-      <c r="I31" s="251"/>
-      <c r="J31" s="252"/>
-      <c r="K31" s="253"/>
-      <c r="L31" s="254"/>
-      <c r="M31" s="262"/>
-      <c r="N31" s="263"/>
-      <c r="O31" s="263"/>
-      <c r="P31" s="263"/>
-      <c r="Q31" s="263"/>
-      <c r="R31" s="264"/>
-      <c r="S31" s="258"/>
-      <c r="T31" s="258"/>
-      <c r="U31" s="258"/>
-      <c r="V31" s="259"/>
-      <c r="W31" s="260"/>
-      <c r="X31" s="260"/>
-      <c r="Y31" s="260"/>
-      <c r="Z31" s="260"/>
-      <c r="AA31" s="260"/>
-      <c r="AB31" s="260"/>
-      <c r="AC31" s="260"/>
-      <c r="AD31" s="260"/>
-      <c r="AE31" s="260"/>
-      <c r="AF31" s="260"/>
-      <c r="AG31" s="260"/>
-      <c r="AH31" s="260"/>
-      <c r="AI31" s="260"/>
-      <c r="AJ31" s="260"/>
-      <c r="AK31" s="260"/>
-      <c r="AL31" s="260"/>
-      <c r="AM31" s="261"/>
-      <c r="AN31" s="245"/>
-      <c r="AO31" s="246"/>
-      <c r="AP31" s="246"/>
-      <c r="AQ31" s="246"/>
-      <c r="AR31" s="247"/>
-      <c r="AS31" s="245"/>
-      <c r="AT31" s="246"/>
-      <c r="AU31" s="246"/>
-      <c r="AV31" s="246"/>
-      <c r="AW31" s="247"/>
+      <c r="B31" s="264"/>
+      <c r="C31" s="265"/>
+      <c r="D31" s="266"/>
+      <c r="E31" s="256"/>
+      <c r="F31" s="256"/>
+      <c r="G31" s="256"/>
+      <c r="H31" s="256"/>
+      <c r="I31" s="256"/>
+      <c r="J31" s="257"/>
+      <c r="K31" s="258"/>
+      <c r="L31" s="259"/>
+      <c r="M31" s="278"/>
+      <c r="N31" s="268"/>
+      <c r="O31" s="268"/>
+      <c r="P31" s="268"/>
+      <c r="Q31" s="268"/>
+      <c r="R31" s="269"/>
+      <c r="S31" s="254"/>
+      <c r="T31" s="254"/>
+      <c r="U31" s="254"/>
+      <c r="V31" s="270"/>
+      <c r="W31" s="271"/>
+      <c r="X31" s="271"/>
+      <c r="Y31" s="271"/>
+      <c r="Z31" s="271"/>
+      <c r="AA31" s="271"/>
+      <c r="AB31" s="271"/>
+      <c r="AC31" s="271"/>
+      <c r="AD31" s="271"/>
+      <c r="AE31" s="271"/>
+      <c r="AF31" s="271"/>
+      <c r="AG31" s="271"/>
+      <c r="AH31" s="271"/>
+      <c r="AI31" s="271"/>
+      <c r="AJ31" s="271"/>
+      <c r="AK31" s="271"/>
+      <c r="AL31" s="271"/>
+      <c r="AM31" s="272"/>
+      <c r="AN31" s="273"/>
+      <c r="AO31" s="274"/>
+      <c r="AP31" s="274"/>
+      <c r="AQ31" s="274"/>
+      <c r="AR31" s="275"/>
+      <c r="AS31" s="273"/>
+      <c r="AT31" s="274"/>
+      <c r="AU31" s="274"/>
+      <c r="AV31" s="274"/>
+      <c r="AW31" s="275"/>
     </row>
     <row r="32" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A32" s="56"/>
-      <c r="B32" s="248"/>
-      <c r="C32" s="249"/>
-      <c r="D32" s="250"/>
-      <c r="E32" s="251"/>
-      <c r="F32" s="251"/>
-      <c r="G32" s="251"/>
-      <c r="H32" s="251"/>
-      <c r="I32" s="251"/>
-      <c r="J32" s="252"/>
-      <c r="K32" s="253"/>
-      <c r="L32" s="254"/>
-      <c r="M32" s="262"/>
-      <c r="N32" s="263"/>
-      <c r="O32" s="263"/>
-      <c r="P32" s="263"/>
-      <c r="Q32" s="263"/>
-      <c r="R32" s="264"/>
-      <c r="S32" s="258"/>
-      <c r="T32" s="258"/>
-      <c r="U32" s="258"/>
-      <c r="V32" s="259"/>
-      <c r="W32" s="260"/>
-      <c r="X32" s="260"/>
-      <c r="Y32" s="260"/>
-      <c r="Z32" s="260"/>
-      <c r="AA32" s="260"/>
-      <c r="AB32" s="260"/>
-      <c r="AC32" s="260"/>
-      <c r="AD32" s="260"/>
-      <c r="AE32" s="260"/>
-      <c r="AF32" s="260"/>
-      <c r="AG32" s="260"/>
-      <c r="AH32" s="260"/>
-      <c r="AI32" s="260"/>
-      <c r="AJ32" s="260"/>
-      <c r="AK32" s="260"/>
-      <c r="AL32" s="260"/>
-      <c r="AM32" s="261"/>
-      <c r="AN32" s="245"/>
-      <c r="AO32" s="246"/>
-      <c r="AP32" s="246"/>
-      <c r="AQ32" s="246"/>
-      <c r="AR32" s="247"/>
-      <c r="AS32" s="245"/>
-      <c r="AT32" s="246"/>
-      <c r="AU32" s="246"/>
-      <c r="AV32" s="246"/>
-      <c r="AW32" s="247"/>
+      <c r="B32" s="264"/>
+      <c r="C32" s="265"/>
+      <c r="D32" s="266"/>
+      <c r="E32" s="256"/>
+      <c r="F32" s="256"/>
+      <c r="G32" s="256"/>
+      <c r="H32" s="256"/>
+      <c r="I32" s="256"/>
+      <c r="J32" s="257"/>
+      <c r="K32" s="258"/>
+      <c r="L32" s="259"/>
+      <c r="M32" s="278"/>
+      <c r="N32" s="268"/>
+      <c r="O32" s="268"/>
+      <c r="P32" s="268"/>
+      <c r="Q32" s="268"/>
+      <c r="R32" s="269"/>
+      <c r="S32" s="254"/>
+      <c r="T32" s="254"/>
+      <c r="U32" s="254"/>
+      <c r="V32" s="270"/>
+      <c r="W32" s="271"/>
+      <c r="X32" s="271"/>
+      <c r="Y32" s="271"/>
+      <c r="Z32" s="271"/>
+      <c r="AA32" s="271"/>
+      <c r="AB32" s="271"/>
+      <c r="AC32" s="271"/>
+      <c r="AD32" s="271"/>
+      <c r="AE32" s="271"/>
+      <c r="AF32" s="271"/>
+      <c r="AG32" s="271"/>
+      <c r="AH32" s="271"/>
+      <c r="AI32" s="271"/>
+      <c r="AJ32" s="271"/>
+      <c r="AK32" s="271"/>
+      <c r="AL32" s="271"/>
+      <c r="AM32" s="272"/>
+      <c r="AN32" s="273"/>
+      <c r="AO32" s="274"/>
+      <c r="AP32" s="274"/>
+      <c r="AQ32" s="274"/>
+      <c r="AR32" s="275"/>
+      <c r="AS32" s="273"/>
+      <c r="AT32" s="274"/>
+      <c r="AU32" s="274"/>
+      <c r="AV32" s="274"/>
+      <c r="AW32" s="275"/>
     </row>
     <row r="33" spans="2:49" x14ac:dyDescent="0.25">
-      <c r="B33" s="248"/>
-      <c r="C33" s="249"/>
-      <c r="D33" s="250"/>
-      <c r="E33" s="251"/>
-      <c r="F33" s="251"/>
-      <c r="G33" s="251"/>
-      <c r="H33" s="251"/>
-      <c r="I33" s="251"/>
-      <c r="J33" s="252"/>
-      <c r="K33" s="253"/>
-      <c r="L33" s="254"/>
-      <c r="M33" s="262"/>
-      <c r="N33" s="263"/>
-      <c r="O33" s="263"/>
-      <c r="P33" s="263"/>
-      <c r="Q33" s="263"/>
-      <c r="R33" s="264"/>
-      <c r="S33" s="258"/>
-      <c r="T33" s="258"/>
-      <c r="U33" s="258"/>
-      <c r="V33" s="259"/>
-      <c r="W33" s="260"/>
-      <c r="X33" s="260"/>
-      <c r="Y33" s="260"/>
-      <c r="Z33" s="260"/>
-      <c r="AA33" s="260"/>
-      <c r="AB33" s="260"/>
-      <c r="AC33" s="260"/>
-      <c r="AD33" s="260"/>
-      <c r="AE33" s="260"/>
-      <c r="AF33" s="260"/>
-      <c r="AG33" s="260"/>
-      <c r="AH33" s="260"/>
-      <c r="AI33" s="260"/>
-      <c r="AJ33" s="260"/>
-      <c r="AK33" s="260"/>
-      <c r="AL33" s="260"/>
-      <c r="AM33" s="261"/>
-      <c r="AN33" s="245"/>
-      <c r="AO33" s="246"/>
-      <c r="AP33" s="246"/>
-      <c r="AQ33" s="246"/>
-      <c r="AR33" s="247"/>
-      <c r="AS33" s="245"/>
-      <c r="AT33" s="246"/>
-      <c r="AU33" s="246"/>
-      <c r="AV33" s="246"/>
-      <c r="AW33" s="247"/>
+      <c r="B33" s="264"/>
+      <c r="C33" s="265"/>
+      <c r="D33" s="266"/>
+      <c r="E33" s="256"/>
+      <c r="F33" s="256"/>
+      <c r="G33" s="256"/>
+      <c r="H33" s="256"/>
+      <c r="I33" s="256"/>
+      <c r="J33" s="257"/>
+      <c r="K33" s="258"/>
+      <c r="L33" s="259"/>
+      <c r="M33" s="278"/>
+      <c r="N33" s="268"/>
+      <c r="O33" s="268"/>
+      <c r="P33" s="268"/>
+      <c r="Q33" s="268"/>
+      <c r="R33" s="269"/>
+      <c r="S33" s="254"/>
+      <c r="T33" s="254"/>
+      <c r="U33" s="254"/>
+      <c r="V33" s="270"/>
+      <c r="W33" s="271"/>
+      <c r="X33" s="271"/>
+      <c r="Y33" s="271"/>
+      <c r="Z33" s="271"/>
+      <c r="AA33" s="271"/>
+      <c r="AB33" s="271"/>
+      <c r="AC33" s="271"/>
+      <c r="AD33" s="271"/>
+      <c r="AE33" s="271"/>
+      <c r="AF33" s="271"/>
+      <c r="AG33" s="271"/>
+      <c r="AH33" s="271"/>
+      <c r="AI33" s="271"/>
+      <c r="AJ33" s="271"/>
+      <c r="AK33" s="271"/>
+      <c r="AL33" s="271"/>
+      <c r="AM33" s="272"/>
+      <c r="AN33" s="273"/>
+      <c r="AO33" s="274"/>
+      <c r="AP33" s="274"/>
+      <c r="AQ33" s="274"/>
+      <c r="AR33" s="275"/>
+      <c r="AS33" s="273"/>
+      <c r="AT33" s="274"/>
+      <c r="AU33" s="274"/>
+      <c r="AV33" s="274"/>
+      <c r="AW33" s="275"/>
     </row>
     <row r="34" spans="2:49" x14ac:dyDescent="0.25">
-      <c r="B34" s="248"/>
-      <c r="C34" s="249"/>
-      <c r="D34" s="250"/>
-      <c r="E34" s="251"/>
-      <c r="F34" s="251"/>
-      <c r="G34" s="251"/>
-      <c r="H34" s="251"/>
-      <c r="I34" s="251"/>
-      <c r="J34" s="252"/>
-      <c r="K34" s="253"/>
-      <c r="L34" s="254"/>
-      <c r="M34" s="255"/>
-      <c r="N34" s="256"/>
-      <c r="O34" s="256"/>
-      <c r="P34" s="256"/>
-      <c r="Q34" s="256"/>
-      <c r="R34" s="257"/>
-      <c r="S34" s="258"/>
-      <c r="T34" s="258"/>
-      <c r="U34" s="258"/>
-      <c r="V34" s="259"/>
-      <c r="W34" s="260"/>
-      <c r="X34" s="260"/>
-      <c r="Y34" s="260"/>
-      <c r="Z34" s="260"/>
-      <c r="AA34" s="260"/>
-      <c r="AB34" s="260"/>
-      <c r="AC34" s="260"/>
-      <c r="AD34" s="260"/>
-      <c r="AE34" s="260"/>
-      <c r="AF34" s="260"/>
-      <c r="AG34" s="260"/>
-      <c r="AH34" s="260"/>
-      <c r="AI34" s="260"/>
-      <c r="AJ34" s="260"/>
-      <c r="AK34" s="260"/>
-      <c r="AL34" s="260"/>
-      <c r="AM34" s="261"/>
-      <c r="AN34" s="245"/>
-      <c r="AO34" s="246"/>
-      <c r="AP34" s="246"/>
-      <c r="AQ34" s="246"/>
-      <c r="AR34" s="247"/>
-      <c r="AS34" s="245"/>
-      <c r="AT34" s="246"/>
-      <c r="AU34" s="246"/>
-      <c r="AV34" s="246"/>
-      <c r="AW34" s="247"/>
+      <c r="B34" s="264"/>
+      <c r="C34" s="265"/>
+      <c r="D34" s="266"/>
+      <c r="E34" s="256"/>
+      <c r="F34" s="256"/>
+      <c r="G34" s="256"/>
+      <c r="H34" s="256"/>
+      <c r="I34" s="256"/>
+      <c r="J34" s="257"/>
+      <c r="K34" s="258"/>
+      <c r="L34" s="259"/>
+      <c r="M34" s="282"/>
+      <c r="N34" s="283"/>
+      <c r="O34" s="283"/>
+      <c r="P34" s="283"/>
+      <c r="Q34" s="283"/>
+      <c r="R34" s="284"/>
+      <c r="S34" s="254"/>
+      <c r="T34" s="254"/>
+      <c r="U34" s="254"/>
+      <c r="V34" s="270"/>
+      <c r="W34" s="271"/>
+      <c r="X34" s="271"/>
+      <c r="Y34" s="271"/>
+      <c r="Z34" s="271"/>
+      <c r="AA34" s="271"/>
+      <c r="AB34" s="271"/>
+      <c r="AC34" s="271"/>
+      <c r="AD34" s="271"/>
+      <c r="AE34" s="271"/>
+      <c r="AF34" s="271"/>
+      <c r="AG34" s="271"/>
+      <c r="AH34" s="271"/>
+      <c r="AI34" s="271"/>
+      <c r="AJ34" s="271"/>
+      <c r="AK34" s="271"/>
+      <c r="AL34" s="271"/>
+      <c r="AM34" s="272"/>
+      <c r="AN34" s="273"/>
+      <c r="AO34" s="274"/>
+      <c r="AP34" s="274"/>
+      <c r="AQ34" s="274"/>
+      <c r="AR34" s="275"/>
+      <c r="AS34" s="273"/>
+      <c r="AT34" s="274"/>
+      <c r="AU34" s="274"/>
+      <c r="AV34" s="274"/>
+      <c r="AW34" s="275"/>
     </row>
   </sheetData>
   <mergeCells count="249">
-    <mergeCell ref="B1:AW2"/>
-    <mergeCell ref="B3:D4"/>
-    <mergeCell ref="E3:I4"/>
-    <mergeCell ref="J3:L4"/>
-    <mergeCell ref="M3:R4"/>
-    <mergeCell ref="S3:U4"/>
-    <mergeCell ref="V3:AM4"/>
-    <mergeCell ref="AN3:AR4"/>
-    <mergeCell ref="AS3:AW4"/>
+    <mergeCell ref="AN33:AR33"/>
+    <mergeCell ref="AS33:AW33"/>
+    <mergeCell ref="B34:D34"/>
+    <mergeCell ref="E34:I34"/>
+    <mergeCell ref="J34:L34"/>
+    <mergeCell ref="M34:R34"/>
+    <mergeCell ref="S34:U34"/>
+    <mergeCell ref="V34:AM34"/>
+    <mergeCell ref="AN34:AR34"/>
+    <mergeCell ref="AS34:AW34"/>
+    <mergeCell ref="B33:D33"/>
+    <mergeCell ref="E33:I33"/>
+    <mergeCell ref="J33:L33"/>
+    <mergeCell ref="M33:R33"/>
+    <mergeCell ref="S33:U33"/>
+    <mergeCell ref="V33:AM33"/>
+    <mergeCell ref="AN31:AR31"/>
+    <mergeCell ref="AS31:AW31"/>
+    <mergeCell ref="B32:D32"/>
+    <mergeCell ref="E32:I32"/>
+    <mergeCell ref="J32:L32"/>
+    <mergeCell ref="M32:R32"/>
+    <mergeCell ref="S32:U32"/>
+    <mergeCell ref="V32:AM32"/>
+    <mergeCell ref="AN32:AR32"/>
+    <mergeCell ref="AS32:AW32"/>
+    <mergeCell ref="B31:D31"/>
+    <mergeCell ref="E31:I31"/>
+    <mergeCell ref="J31:L31"/>
+    <mergeCell ref="M31:R31"/>
+    <mergeCell ref="S31:U31"/>
+    <mergeCell ref="V31:AM31"/>
+    <mergeCell ref="AN29:AR29"/>
+    <mergeCell ref="AS29:AW29"/>
+    <mergeCell ref="B30:D30"/>
+    <mergeCell ref="E30:I30"/>
+    <mergeCell ref="J30:L30"/>
+    <mergeCell ref="M30:R30"/>
+    <mergeCell ref="S30:U30"/>
+    <mergeCell ref="V30:AM30"/>
+    <mergeCell ref="AN30:AR30"/>
+    <mergeCell ref="AS30:AW30"/>
+    <mergeCell ref="B29:D29"/>
+    <mergeCell ref="E29:I29"/>
+    <mergeCell ref="J29:L29"/>
+    <mergeCell ref="M29:R29"/>
+    <mergeCell ref="S29:U29"/>
+    <mergeCell ref="V29:AM29"/>
+    <mergeCell ref="AN27:AR27"/>
+    <mergeCell ref="AS27:AW27"/>
+    <mergeCell ref="B28:D28"/>
+    <mergeCell ref="E28:I28"/>
+    <mergeCell ref="J28:L28"/>
+    <mergeCell ref="M28:R28"/>
+    <mergeCell ref="S28:U28"/>
+    <mergeCell ref="V28:AM28"/>
+    <mergeCell ref="AN28:AR28"/>
+    <mergeCell ref="AS28:AW28"/>
+    <mergeCell ref="B27:D27"/>
+    <mergeCell ref="E27:I27"/>
+    <mergeCell ref="J27:L27"/>
+    <mergeCell ref="M27:R27"/>
+    <mergeCell ref="S27:U27"/>
+    <mergeCell ref="V27:AM27"/>
+    <mergeCell ref="AN25:AR25"/>
+    <mergeCell ref="AS25:AW25"/>
+    <mergeCell ref="B26:D26"/>
+    <mergeCell ref="E26:I26"/>
+    <mergeCell ref="J26:L26"/>
+    <mergeCell ref="M26:R26"/>
+    <mergeCell ref="S26:U26"/>
+    <mergeCell ref="V26:AM26"/>
+    <mergeCell ref="AN26:AR26"/>
+    <mergeCell ref="AS26:AW26"/>
+    <mergeCell ref="B25:D25"/>
+    <mergeCell ref="E25:I25"/>
+    <mergeCell ref="J25:L25"/>
+    <mergeCell ref="M25:R25"/>
+    <mergeCell ref="S25:U25"/>
+    <mergeCell ref="V25:AM25"/>
+    <mergeCell ref="AN23:AR23"/>
+    <mergeCell ref="AS23:AW23"/>
+    <mergeCell ref="B24:D24"/>
+    <mergeCell ref="E24:I24"/>
+    <mergeCell ref="J24:L24"/>
+    <mergeCell ref="M24:R24"/>
+    <mergeCell ref="S24:U24"/>
+    <mergeCell ref="V24:AM24"/>
+    <mergeCell ref="AN24:AR24"/>
+    <mergeCell ref="AS24:AW24"/>
+    <mergeCell ref="B23:D23"/>
+    <mergeCell ref="E23:I23"/>
+    <mergeCell ref="J23:L23"/>
+    <mergeCell ref="M23:R23"/>
+    <mergeCell ref="S23:U23"/>
+    <mergeCell ref="V23:AM23"/>
+    <mergeCell ref="AN21:AR21"/>
+    <mergeCell ref="AS21:AW21"/>
+    <mergeCell ref="B22:D22"/>
+    <mergeCell ref="E22:I22"/>
+    <mergeCell ref="J22:L22"/>
+    <mergeCell ref="M22:R22"/>
+    <mergeCell ref="S22:U22"/>
+    <mergeCell ref="V22:AM22"/>
+    <mergeCell ref="AN22:AR22"/>
+    <mergeCell ref="AS22:AW22"/>
+    <mergeCell ref="B21:D21"/>
+    <mergeCell ref="E21:I21"/>
+    <mergeCell ref="J21:L21"/>
+    <mergeCell ref="M21:R21"/>
+    <mergeCell ref="S21:U21"/>
+    <mergeCell ref="V21:AM21"/>
+    <mergeCell ref="AN19:AR19"/>
+    <mergeCell ref="AS19:AW19"/>
+    <mergeCell ref="B20:D20"/>
+    <mergeCell ref="E20:I20"/>
+    <mergeCell ref="J20:L20"/>
+    <mergeCell ref="M20:R20"/>
+    <mergeCell ref="S20:U20"/>
+    <mergeCell ref="V20:AM20"/>
+    <mergeCell ref="AN20:AR20"/>
+    <mergeCell ref="AS20:AW20"/>
+    <mergeCell ref="B19:D19"/>
+    <mergeCell ref="E19:I19"/>
+    <mergeCell ref="J19:L19"/>
+    <mergeCell ref="M19:R19"/>
+    <mergeCell ref="S19:U19"/>
+    <mergeCell ref="V19:AM19"/>
+    <mergeCell ref="AN17:AR17"/>
+    <mergeCell ref="AS17:AW17"/>
+    <mergeCell ref="B18:D18"/>
+    <mergeCell ref="E18:I18"/>
+    <mergeCell ref="J18:L18"/>
+    <mergeCell ref="M18:R18"/>
+    <mergeCell ref="S18:U18"/>
+    <mergeCell ref="V18:AM18"/>
+    <mergeCell ref="AN18:AR18"/>
+    <mergeCell ref="AS18:AW18"/>
+    <mergeCell ref="B17:D17"/>
+    <mergeCell ref="E17:I17"/>
+    <mergeCell ref="J17:L17"/>
+    <mergeCell ref="M17:R17"/>
+    <mergeCell ref="S17:U17"/>
+    <mergeCell ref="V17:AM17"/>
+    <mergeCell ref="AN15:AR15"/>
+    <mergeCell ref="AS15:AW15"/>
+    <mergeCell ref="B16:D16"/>
+    <mergeCell ref="E16:I16"/>
+    <mergeCell ref="J16:L16"/>
+    <mergeCell ref="M16:R16"/>
+    <mergeCell ref="S16:U16"/>
+    <mergeCell ref="V16:AM16"/>
+    <mergeCell ref="AN16:AR16"/>
+    <mergeCell ref="AS16:AW16"/>
+    <mergeCell ref="B15:D15"/>
+    <mergeCell ref="E15:I15"/>
+    <mergeCell ref="J15:L15"/>
+    <mergeCell ref="M15:R15"/>
+    <mergeCell ref="S15:U15"/>
+    <mergeCell ref="V15:AM15"/>
+    <mergeCell ref="AN13:AR13"/>
+    <mergeCell ref="AS13:AW13"/>
+    <mergeCell ref="B14:D14"/>
+    <mergeCell ref="E14:I14"/>
+    <mergeCell ref="J14:L14"/>
+    <mergeCell ref="M14:R14"/>
+    <mergeCell ref="S14:U14"/>
+    <mergeCell ref="V14:AM14"/>
+    <mergeCell ref="AN14:AR14"/>
+    <mergeCell ref="AS14:AW14"/>
+    <mergeCell ref="B13:D13"/>
+    <mergeCell ref="E13:I13"/>
+    <mergeCell ref="J13:L13"/>
+    <mergeCell ref="M13:R13"/>
+    <mergeCell ref="S13:U13"/>
+    <mergeCell ref="V13:AM13"/>
+    <mergeCell ref="AN11:AR11"/>
+    <mergeCell ref="AS11:AW11"/>
+    <mergeCell ref="B12:D12"/>
+    <mergeCell ref="E12:I12"/>
+    <mergeCell ref="J12:L12"/>
+    <mergeCell ref="M12:R12"/>
+    <mergeCell ref="S12:U12"/>
+    <mergeCell ref="V12:AM12"/>
+    <mergeCell ref="AN12:AR12"/>
+    <mergeCell ref="AS12:AW12"/>
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="E11:I11"/>
+    <mergeCell ref="J11:L11"/>
+    <mergeCell ref="M11:R11"/>
+    <mergeCell ref="S11:U11"/>
+    <mergeCell ref="V11:AM11"/>
+    <mergeCell ref="AN9:AR9"/>
+    <mergeCell ref="AS9:AW9"/>
+    <mergeCell ref="B10:D10"/>
+    <mergeCell ref="E10:I10"/>
+    <mergeCell ref="J10:L10"/>
+    <mergeCell ref="M10:R10"/>
+    <mergeCell ref="S10:U10"/>
+    <mergeCell ref="V10:AM10"/>
+    <mergeCell ref="AN10:AR10"/>
+    <mergeCell ref="AS10:AW10"/>
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="E9:I9"/>
+    <mergeCell ref="J9:L9"/>
+    <mergeCell ref="M9:R9"/>
+    <mergeCell ref="S9:U9"/>
+    <mergeCell ref="V9:AM9"/>
+    <mergeCell ref="AN7:AR7"/>
+    <mergeCell ref="AS7:AW7"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="E8:I8"/>
+    <mergeCell ref="J8:L8"/>
+    <mergeCell ref="M8:R8"/>
+    <mergeCell ref="S8:U8"/>
+    <mergeCell ref="V8:AM8"/>
+    <mergeCell ref="AN8:AR8"/>
+    <mergeCell ref="AS8:AW8"/>
+    <mergeCell ref="B7:D7"/>
+    <mergeCell ref="E7:I7"/>
+    <mergeCell ref="J7:L7"/>
+    <mergeCell ref="M7:R7"/>
+    <mergeCell ref="S7:U7"/>
+    <mergeCell ref="V7:AM7"/>
     <mergeCell ref="AN5:AR5"/>
     <mergeCell ref="AS5:AW5"/>
     <mergeCell ref="B6:D6"/>
@@ -10241,230 +10439,15 @@
     <mergeCell ref="M5:R5"/>
     <mergeCell ref="S5:U5"/>
     <mergeCell ref="V5:AM5"/>
-    <mergeCell ref="AN7:AR7"/>
-    <mergeCell ref="AS7:AW7"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="E8:I8"/>
-    <mergeCell ref="J8:L8"/>
-    <mergeCell ref="M8:R8"/>
-    <mergeCell ref="S8:U8"/>
-    <mergeCell ref="V8:AM8"/>
-    <mergeCell ref="AN8:AR8"/>
-    <mergeCell ref="AS8:AW8"/>
-    <mergeCell ref="B7:D7"/>
-    <mergeCell ref="E7:I7"/>
-    <mergeCell ref="J7:L7"/>
-    <mergeCell ref="M7:R7"/>
-    <mergeCell ref="S7:U7"/>
-    <mergeCell ref="V7:AM7"/>
-    <mergeCell ref="AN9:AR9"/>
-    <mergeCell ref="AS9:AW9"/>
-    <mergeCell ref="B10:D10"/>
-    <mergeCell ref="E10:I10"/>
-    <mergeCell ref="J10:L10"/>
-    <mergeCell ref="M10:R10"/>
-    <mergeCell ref="S10:U10"/>
-    <mergeCell ref="V10:AM10"/>
-    <mergeCell ref="AN10:AR10"/>
-    <mergeCell ref="AS10:AW10"/>
-    <mergeCell ref="B9:D9"/>
-    <mergeCell ref="E9:I9"/>
-    <mergeCell ref="J9:L9"/>
-    <mergeCell ref="M9:R9"/>
-    <mergeCell ref="S9:U9"/>
-    <mergeCell ref="V9:AM9"/>
-    <mergeCell ref="AN11:AR11"/>
-    <mergeCell ref="AS11:AW11"/>
-    <mergeCell ref="B12:D12"/>
-    <mergeCell ref="E12:I12"/>
-    <mergeCell ref="J12:L12"/>
-    <mergeCell ref="M12:R12"/>
-    <mergeCell ref="S12:U12"/>
-    <mergeCell ref="V12:AM12"/>
-    <mergeCell ref="AN12:AR12"/>
-    <mergeCell ref="AS12:AW12"/>
-    <mergeCell ref="B11:D11"/>
-    <mergeCell ref="E11:I11"/>
-    <mergeCell ref="J11:L11"/>
-    <mergeCell ref="M11:R11"/>
-    <mergeCell ref="S11:U11"/>
-    <mergeCell ref="V11:AM11"/>
-    <mergeCell ref="AN13:AR13"/>
-    <mergeCell ref="AS13:AW13"/>
-    <mergeCell ref="B14:D14"/>
-    <mergeCell ref="E14:I14"/>
-    <mergeCell ref="J14:L14"/>
-    <mergeCell ref="M14:R14"/>
-    <mergeCell ref="S14:U14"/>
-    <mergeCell ref="V14:AM14"/>
-    <mergeCell ref="AN14:AR14"/>
-    <mergeCell ref="AS14:AW14"/>
-    <mergeCell ref="B13:D13"/>
-    <mergeCell ref="E13:I13"/>
-    <mergeCell ref="J13:L13"/>
-    <mergeCell ref="M13:R13"/>
-    <mergeCell ref="S13:U13"/>
-    <mergeCell ref="V13:AM13"/>
-    <mergeCell ref="AN15:AR15"/>
-    <mergeCell ref="AS15:AW15"/>
-    <mergeCell ref="B16:D16"/>
-    <mergeCell ref="E16:I16"/>
-    <mergeCell ref="J16:L16"/>
-    <mergeCell ref="M16:R16"/>
-    <mergeCell ref="S16:U16"/>
-    <mergeCell ref="V16:AM16"/>
-    <mergeCell ref="AN16:AR16"/>
-    <mergeCell ref="AS16:AW16"/>
-    <mergeCell ref="B15:D15"/>
-    <mergeCell ref="E15:I15"/>
-    <mergeCell ref="J15:L15"/>
-    <mergeCell ref="M15:R15"/>
-    <mergeCell ref="S15:U15"/>
-    <mergeCell ref="V15:AM15"/>
-    <mergeCell ref="AN17:AR17"/>
-    <mergeCell ref="AS17:AW17"/>
-    <mergeCell ref="B18:D18"/>
-    <mergeCell ref="E18:I18"/>
-    <mergeCell ref="J18:L18"/>
-    <mergeCell ref="M18:R18"/>
-    <mergeCell ref="S18:U18"/>
-    <mergeCell ref="V18:AM18"/>
-    <mergeCell ref="AN18:AR18"/>
-    <mergeCell ref="AS18:AW18"/>
-    <mergeCell ref="B17:D17"/>
-    <mergeCell ref="E17:I17"/>
-    <mergeCell ref="J17:L17"/>
-    <mergeCell ref="M17:R17"/>
-    <mergeCell ref="S17:U17"/>
-    <mergeCell ref="V17:AM17"/>
-    <mergeCell ref="AN19:AR19"/>
-    <mergeCell ref="AS19:AW19"/>
-    <mergeCell ref="B20:D20"/>
-    <mergeCell ref="E20:I20"/>
-    <mergeCell ref="J20:L20"/>
-    <mergeCell ref="M20:R20"/>
-    <mergeCell ref="S20:U20"/>
-    <mergeCell ref="V20:AM20"/>
-    <mergeCell ref="AN20:AR20"/>
-    <mergeCell ref="AS20:AW20"/>
-    <mergeCell ref="B19:D19"/>
-    <mergeCell ref="E19:I19"/>
-    <mergeCell ref="J19:L19"/>
-    <mergeCell ref="M19:R19"/>
-    <mergeCell ref="S19:U19"/>
-    <mergeCell ref="V19:AM19"/>
-    <mergeCell ref="AN21:AR21"/>
-    <mergeCell ref="AS21:AW21"/>
-    <mergeCell ref="B22:D22"/>
-    <mergeCell ref="E22:I22"/>
-    <mergeCell ref="J22:L22"/>
-    <mergeCell ref="M22:R22"/>
-    <mergeCell ref="S22:U22"/>
-    <mergeCell ref="V22:AM22"/>
-    <mergeCell ref="AN22:AR22"/>
-    <mergeCell ref="AS22:AW22"/>
-    <mergeCell ref="B21:D21"/>
-    <mergeCell ref="E21:I21"/>
-    <mergeCell ref="J21:L21"/>
-    <mergeCell ref="M21:R21"/>
-    <mergeCell ref="S21:U21"/>
-    <mergeCell ref="V21:AM21"/>
-    <mergeCell ref="AN23:AR23"/>
-    <mergeCell ref="AS23:AW23"/>
-    <mergeCell ref="B24:D24"/>
-    <mergeCell ref="E24:I24"/>
-    <mergeCell ref="J24:L24"/>
-    <mergeCell ref="M24:R24"/>
-    <mergeCell ref="S24:U24"/>
-    <mergeCell ref="V24:AM24"/>
-    <mergeCell ref="AN24:AR24"/>
-    <mergeCell ref="AS24:AW24"/>
-    <mergeCell ref="B23:D23"/>
-    <mergeCell ref="E23:I23"/>
-    <mergeCell ref="J23:L23"/>
-    <mergeCell ref="M23:R23"/>
-    <mergeCell ref="S23:U23"/>
-    <mergeCell ref="V23:AM23"/>
-    <mergeCell ref="AN25:AR25"/>
-    <mergeCell ref="AS25:AW25"/>
-    <mergeCell ref="B26:D26"/>
-    <mergeCell ref="E26:I26"/>
-    <mergeCell ref="J26:L26"/>
-    <mergeCell ref="M26:R26"/>
-    <mergeCell ref="S26:U26"/>
-    <mergeCell ref="V26:AM26"/>
-    <mergeCell ref="AN26:AR26"/>
-    <mergeCell ref="AS26:AW26"/>
-    <mergeCell ref="B25:D25"/>
-    <mergeCell ref="E25:I25"/>
-    <mergeCell ref="J25:L25"/>
-    <mergeCell ref="M25:R25"/>
-    <mergeCell ref="S25:U25"/>
-    <mergeCell ref="V25:AM25"/>
-    <mergeCell ref="AN27:AR27"/>
-    <mergeCell ref="AS27:AW27"/>
-    <mergeCell ref="B28:D28"/>
-    <mergeCell ref="E28:I28"/>
-    <mergeCell ref="J28:L28"/>
-    <mergeCell ref="M28:R28"/>
-    <mergeCell ref="S28:U28"/>
-    <mergeCell ref="V28:AM28"/>
-    <mergeCell ref="AN28:AR28"/>
-    <mergeCell ref="AS28:AW28"/>
-    <mergeCell ref="B27:D27"/>
-    <mergeCell ref="E27:I27"/>
-    <mergeCell ref="J27:L27"/>
-    <mergeCell ref="M27:R27"/>
-    <mergeCell ref="S27:U27"/>
-    <mergeCell ref="V27:AM27"/>
-    <mergeCell ref="AN29:AR29"/>
-    <mergeCell ref="AS29:AW29"/>
-    <mergeCell ref="B30:D30"/>
-    <mergeCell ref="E30:I30"/>
-    <mergeCell ref="J30:L30"/>
-    <mergeCell ref="M30:R30"/>
-    <mergeCell ref="S30:U30"/>
-    <mergeCell ref="V30:AM30"/>
-    <mergeCell ref="AN30:AR30"/>
-    <mergeCell ref="AS30:AW30"/>
-    <mergeCell ref="B29:D29"/>
-    <mergeCell ref="E29:I29"/>
-    <mergeCell ref="J29:L29"/>
-    <mergeCell ref="M29:R29"/>
-    <mergeCell ref="S29:U29"/>
-    <mergeCell ref="V29:AM29"/>
-    <mergeCell ref="AN31:AR31"/>
-    <mergeCell ref="AS31:AW31"/>
-    <mergeCell ref="B32:D32"/>
-    <mergeCell ref="E32:I32"/>
-    <mergeCell ref="J32:L32"/>
-    <mergeCell ref="M32:R32"/>
-    <mergeCell ref="S32:U32"/>
-    <mergeCell ref="V32:AM32"/>
-    <mergeCell ref="AN32:AR32"/>
-    <mergeCell ref="AS32:AW32"/>
-    <mergeCell ref="B31:D31"/>
-    <mergeCell ref="E31:I31"/>
-    <mergeCell ref="J31:L31"/>
-    <mergeCell ref="M31:R31"/>
-    <mergeCell ref="S31:U31"/>
-    <mergeCell ref="V31:AM31"/>
-    <mergeCell ref="AN33:AR33"/>
-    <mergeCell ref="AS33:AW33"/>
-    <mergeCell ref="B34:D34"/>
-    <mergeCell ref="E34:I34"/>
-    <mergeCell ref="J34:L34"/>
-    <mergeCell ref="M34:R34"/>
-    <mergeCell ref="S34:U34"/>
-    <mergeCell ref="V34:AM34"/>
-    <mergeCell ref="AN34:AR34"/>
-    <mergeCell ref="AS34:AW34"/>
-    <mergeCell ref="B33:D33"/>
-    <mergeCell ref="E33:I33"/>
-    <mergeCell ref="J33:L33"/>
-    <mergeCell ref="M33:R33"/>
-    <mergeCell ref="S33:U33"/>
-    <mergeCell ref="V33:AM33"/>
+    <mergeCell ref="B1:AW2"/>
+    <mergeCell ref="B3:D4"/>
+    <mergeCell ref="E3:I4"/>
+    <mergeCell ref="J3:L4"/>
+    <mergeCell ref="M3:R4"/>
+    <mergeCell ref="S3:U4"/>
+    <mergeCell ref="V3:AM4"/>
+    <mergeCell ref="AN3:AR4"/>
+    <mergeCell ref="AS3:AW4"/>
   </mergeCells>
   <phoneticPr fontId="4"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -12493,7 +12476,7 @@
       <c r="I51" s="85"/>
       <c r="J51" s="236"/>
       <c r="K51" s="235" t="s">
-        <v>519</v>
+        <v>498</v>
       </c>
       <c r="L51" s="85"/>
       <c r="M51" s="85"/>
@@ -12525,7 +12508,7 @@
       <c r="AK51" s="287"/>
       <c r="AL51" s="288"/>
       <c r="AM51" s="82" t="s">
-        <v>524</v>
+        <v>503</v>
       </c>
       <c r="AN51" s="83"/>
       <c r="AO51" s="83"/>
@@ -12571,7 +12554,7 @@
       <c r="I52" s="85"/>
       <c r="J52" s="236"/>
       <c r="K52" s="235" t="s">
-        <v>528</v>
+        <v>507</v>
       </c>
       <c r="L52" s="85"/>
       <c r="M52" s="85"/>
@@ -12649,7 +12632,7 @@
       <c r="I53" s="85"/>
       <c r="J53" s="236"/>
       <c r="K53" s="235" t="s">
-        <v>529</v>
+        <v>508</v>
       </c>
       <c r="L53" s="85"/>
       <c r="M53" s="85"/>
@@ -12727,7 +12710,7 @@
       <c r="I54" s="85"/>
       <c r="J54" s="236"/>
       <c r="K54" s="235" t="s">
-        <v>540</v>
+        <v>513</v>
       </c>
       <c r="L54" s="85"/>
       <c r="M54" s="85"/>
@@ -13039,7 +13022,7 @@
       <c r="I58" s="85"/>
       <c r="J58" s="236"/>
       <c r="K58" s="235" t="s">
-        <v>526</v>
+        <v>505</v>
       </c>
       <c r="L58" s="85"/>
       <c r="M58" s="85"/>
@@ -13071,7 +13054,7 @@
       <c r="AK58" s="287"/>
       <c r="AL58" s="288"/>
       <c r="AM58" s="82" t="s">
-        <v>527</v>
+        <v>506</v>
       </c>
       <c r="AN58" s="83"/>
       <c r="AO58" s="83"/>
@@ -13117,7 +13100,7 @@
       <c r="I59" s="85"/>
       <c r="J59" s="115"/>
       <c r="K59" s="114" t="s">
-        <v>444</v>
+        <v>430</v>
       </c>
       <c r="L59" s="85"/>
       <c r="M59" s="85"/>
@@ -13149,7 +13132,7 @@
       <c r="AK59" s="287"/>
       <c r="AL59" s="288"/>
       <c r="AM59" s="82" t="s">
-        <v>523</v>
+        <v>502</v>
       </c>
       <c r="AN59" s="83"/>
       <c r="AO59" s="83"/>
@@ -13195,7 +13178,7 @@
       <c r="I60" s="85"/>
       <c r="J60" s="236"/>
       <c r="K60" s="235" t="s">
-        <v>520</v>
+        <v>499</v>
       </c>
       <c r="L60" s="85"/>
       <c r="M60" s="85"/>
@@ -13227,7 +13210,7 @@
       <c r="AK60" s="287"/>
       <c r="AL60" s="288"/>
       <c r="AM60" s="82" t="s">
-        <v>521</v>
+        <v>500</v>
       </c>
       <c r="AN60" s="83"/>
       <c r="AO60" s="83"/>
@@ -13305,7 +13288,7 @@
       <c r="AK61" s="287"/>
       <c r="AL61" s="288"/>
       <c r="AM61" s="82" t="s">
-        <v>522</v>
+        <v>501</v>
       </c>
       <c r="AN61" s="83"/>
       <c r="AO61" s="83"/>
@@ -13342,6 +13325,35 @@
     </row>
   </sheetData>
   <mergeCells count="58">
+    <mergeCell ref="B61:C61"/>
+    <mergeCell ref="AE61:AF61"/>
+    <mergeCell ref="AG61:AH61"/>
+    <mergeCell ref="AI61:AJ61"/>
+    <mergeCell ref="AK61:AL61"/>
+    <mergeCell ref="AO2:AS2"/>
+    <mergeCell ref="AZ2:BG2"/>
+    <mergeCell ref="B50:C50"/>
+    <mergeCell ref="B52:C52"/>
+    <mergeCell ref="B53:C53"/>
+    <mergeCell ref="AG51:AH51"/>
+    <mergeCell ref="AK51:AL51"/>
+    <mergeCell ref="AE51:AF51"/>
+    <mergeCell ref="B51:C51"/>
+    <mergeCell ref="AI51:AJ51"/>
+    <mergeCell ref="AI52:AJ52"/>
+    <mergeCell ref="AK52:AL52"/>
+    <mergeCell ref="AK53:AL53"/>
+    <mergeCell ref="AI53:AJ53"/>
+    <mergeCell ref="AE58:AF58"/>
+    <mergeCell ref="AE52:AF52"/>
+    <mergeCell ref="AE53:AF53"/>
+    <mergeCell ref="AG53:AH53"/>
+    <mergeCell ref="AG54:AH54"/>
+    <mergeCell ref="AG52:AH52"/>
+    <mergeCell ref="AI55:AJ55"/>
+    <mergeCell ref="AI57:AJ57"/>
+    <mergeCell ref="AG58:AH58"/>
+    <mergeCell ref="AI58:AJ58"/>
     <mergeCell ref="B54:C54"/>
     <mergeCell ref="AI54:AJ54"/>
     <mergeCell ref="AK54:AL54"/>
@@ -13354,45 +13366,16 @@
     <mergeCell ref="B57:C57"/>
     <mergeCell ref="AE57:AF57"/>
     <mergeCell ref="AG57:AH57"/>
-    <mergeCell ref="AI57:AJ57"/>
+    <mergeCell ref="AE54:AF54"/>
     <mergeCell ref="B55:C55"/>
     <mergeCell ref="AE55:AF55"/>
     <mergeCell ref="AG55:AH55"/>
-    <mergeCell ref="AI55:AJ55"/>
     <mergeCell ref="AK55:AL55"/>
     <mergeCell ref="AG60:AH60"/>
     <mergeCell ref="AI60:AJ60"/>
     <mergeCell ref="AK60:AL60"/>
-    <mergeCell ref="AE58:AF58"/>
-    <mergeCell ref="AE52:AF52"/>
-    <mergeCell ref="AE53:AF53"/>
-    <mergeCell ref="AG53:AH53"/>
-    <mergeCell ref="AG54:AH54"/>
-    <mergeCell ref="AG52:AH52"/>
-    <mergeCell ref="AI52:AJ52"/>
-    <mergeCell ref="AK52:AL52"/>
-    <mergeCell ref="AK53:AL53"/>
-    <mergeCell ref="AE54:AF54"/>
-    <mergeCell ref="AI53:AJ53"/>
-    <mergeCell ref="AO2:AS2"/>
-    <mergeCell ref="AZ2:BG2"/>
-    <mergeCell ref="B50:C50"/>
-    <mergeCell ref="B52:C52"/>
-    <mergeCell ref="B53:C53"/>
-    <mergeCell ref="AG51:AH51"/>
-    <mergeCell ref="AK51:AL51"/>
-    <mergeCell ref="AE51:AF51"/>
-    <mergeCell ref="B51:C51"/>
-    <mergeCell ref="AI51:AJ51"/>
     <mergeCell ref="B58:C58"/>
-    <mergeCell ref="AG58:AH58"/>
-    <mergeCell ref="AI58:AJ58"/>
     <mergeCell ref="AK58:AL58"/>
-    <mergeCell ref="B61:C61"/>
-    <mergeCell ref="AE61:AF61"/>
-    <mergeCell ref="AG61:AH61"/>
-    <mergeCell ref="AI61:AJ61"/>
-    <mergeCell ref="AK61:AL61"/>
     <mergeCell ref="B59:C59"/>
     <mergeCell ref="AE59:AF59"/>
     <mergeCell ref="AG59:AH59"/>
@@ -13893,22 +13876,22 @@
     <row r="6" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="15"/>
       <c r="B6" s="15"/>
-      <c r="C6" s="278" t="s">
+      <c r="C6" s="247" t="s">
         <v>27</v>
       </c>
-      <c r="D6" s="278" t="s">
+      <c r="D6" s="247" t="s">
         <v>60</v>
       </c>
-      <c r="E6" s="278" t="s">
+      <c r="E6" s="247" t="s">
         <v>44</v>
       </c>
-      <c r="F6" s="278" t="s">
+      <c r="F6" s="247" t="s">
         <v>45</v>
       </c>
-      <c r="G6" s="278" t="s">
+      <c r="G6" s="247" t="s">
         <v>28</v>
       </c>
-      <c r="H6" s="278" t="s">
+      <c r="H6" s="247" t="s">
         <v>29</v>
       </c>
       <c r="I6" s="306" t="s">
@@ -13917,13 +13900,13 @@
       <c r="J6" s="306" t="s">
         <v>51</v>
       </c>
-      <c r="K6" s="278" t="s">
+      <c r="K6" s="247" t="s">
         <v>31</v>
       </c>
-      <c r="L6" s="278" t="s">
+      <c r="L6" s="247" t="s">
         <v>30</v>
       </c>
-      <c r="M6" s="278" t="s">
+      <c r="M6" s="247" t="s">
         <v>33</v>
       </c>
       <c r="N6" s="75" t="s">
@@ -13938,17 +13921,17 @@
     <row r="7" spans="1:18" ht="15.75" x14ac:dyDescent="0.15">
       <c r="A7" s="15"/>
       <c r="B7" s="15"/>
-      <c r="C7" s="278"/>
-      <c r="D7" s="278"/>
-      <c r="E7" s="278"/>
-      <c r="F7" s="278"/>
-      <c r="G7" s="278"/>
-      <c r="H7" s="278"/>
+      <c r="C7" s="247"/>
+      <c r="D7" s="247"/>
+      <c r="E7" s="247"/>
+      <c r="F7" s="247"/>
+      <c r="G7" s="247"/>
+      <c r="H7" s="247"/>
       <c r="I7" s="306"/>
       <c r="J7" s="306"/>
-      <c r="K7" s="278"/>
-      <c r="L7" s="278"/>
-      <c r="M7" s="278"/>
+      <c r="K7" s="247"/>
+      <c r="L7" s="247"/>
+      <c r="M7" s="247"/>
       <c r="N7" s="43" t="s">
         <v>83</v>
       </c>
@@ -14015,7 +13998,7 @@
         <v>62</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>308</v>
+        <v>533</v>
       </c>
       <c r="F9" s="7" t="s">
         <v>141</v>
@@ -14159,22 +14142,22 @@
     <row r="14" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="15"/>
       <c r="B14" s="15"/>
-      <c r="C14" s="278" t="s">
+      <c r="C14" s="247" t="s">
         <v>27</v>
       </c>
-      <c r="D14" s="278" t="s">
+      <c r="D14" s="247" t="s">
         <v>60</v>
       </c>
-      <c r="E14" s="278" t="s">
+      <c r="E14" s="247" t="s">
         <v>44</v>
       </c>
-      <c r="F14" s="278" t="s">
+      <c r="F14" s="247" t="s">
         <v>45</v>
       </c>
-      <c r="G14" s="278" t="s">
+      <c r="G14" s="247" t="s">
         <v>28</v>
       </c>
-      <c r="H14" s="278" t="s">
+      <c r="H14" s="247" t="s">
         <v>29</v>
       </c>
       <c r="I14" s="307" t="s">
@@ -14183,13 +14166,13 @@
       <c r="J14" s="306" t="s">
         <v>51</v>
       </c>
-      <c r="K14" s="278" t="s">
+      <c r="K14" s="247" t="s">
         <v>31</v>
       </c>
-      <c r="L14" s="278" t="s">
+      <c r="L14" s="247" t="s">
         <v>30</v>
       </c>
-      <c r="M14" s="278" t="s">
+      <c r="M14" s="247" t="s">
         <v>33</v>
       </c>
       <c r="N14" s="75" t="s">
@@ -14204,17 +14187,17 @@
     <row r="15" spans="1:18" ht="15.75" x14ac:dyDescent="0.15">
       <c r="A15" s="15"/>
       <c r="B15" s="15"/>
-      <c r="C15" s="278"/>
-      <c r="D15" s="278"/>
-      <c r="E15" s="278"/>
-      <c r="F15" s="278"/>
-      <c r="G15" s="278"/>
-      <c r="H15" s="278"/>
+      <c r="C15" s="247"/>
+      <c r="D15" s="247"/>
+      <c r="E15" s="247"/>
+      <c r="F15" s="247"/>
+      <c r="G15" s="247"/>
+      <c r="H15" s="247"/>
       <c r="I15" s="308"/>
       <c r="J15" s="306"/>
-      <c r="K15" s="278"/>
-      <c r="L15" s="278"/>
-      <c r="M15" s="278"/>
+      <c r="K15" s="247"/>
+      <c r="L15" s="247"/>
+      <c r="M15" s="247"/>
       <c r="N15" s="43" t="s">
         <v>83</v>
       </c>
@@ -14236,10 +14219,10 @@
         <v>65</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>552</v>
+        <v>525</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>558</v>
+        <v>529</v>
       </c>
       <c r="G16" s="16" t="s">
         <v>116</v>
@@ -14262,17 +14245,17 @@
       <c r="M16" s="7" t="s">
         <v>236</v>
       </c>
-      <c r="N16" s="240" t="s">
-        <v>556</v>
-      </c>
-      <c r="O16" s="7" t="s">
+      <c r="N16" s="241" t="s">
+        <v>532</v>
+      </c>
+      <c r="O16" s="44" t="s">
         <v>34</v>
       </c>
       <c r="P16" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="Q16" s="240" t="s">
-        <v>557</v>
+      <c r="Q16" s="8" t="s">
+        <v>530</v>
       </c>
     </row>
     <row r="17" spans="1:17" ht="28.5" x14ac:dyDescent="0.15">
@@ -14321,7 +14304,7 @@
         <v>34</v>
       </c>
       <c r="Q17" s="8" t="s">
-        <v>372</v>
+        <v>531</v>
       </c>
     </row>
     <row r="18" spans="1:17" ht="57" x14ac:dyDescent="0.15">
@@ -14370,7 +14353,7 @@
         <v>34</v>
       </c>
       <c r="Q18" s="8" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
     </row>
     <row r="19" spans="1:17" ht="42.75" x14ac:dyDescent="0.15">
@@ -14419,7 +14402,7 @@
         <v>34</v>
       </c>
       <c r="Q19" s="8" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
     </row>
     <row r="20" spans="1:17" ht="71.25" x14ac:dyDescent="0.15">
@@ -14459,7 +14442,7 @@
         <v>34</v>
       </c>
       <c r="N20" s="8" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="O20" s="7" t="s">
         <v>34</v>
@@ -14468,7 +14451,7 @@
         <v>34</v>
       </c>
       <c r="Q20" s="8" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.15">
@@ -14488,22 +14471,22 @@
     </row>
     <row r="24" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B24" s="119"/>
-      <c r="C24" s="278" t="s">
+      <c r="C24" s="247" t="s">
         <v>27</v>
       </c>
-      <c r="D24" s="278" t="s">
+      <c r="D24" s="247" t="s">
         <v>60</v>
       </c>
-      <c r="E24" s="278" t="s">
+      <c r="E24" s="247" t="s">
         <v>44</v>
       </c>
-      <c r="F24" s="278" t="s">
+      <c r="F24" s="247" t="s">
         <v>45</v>
       </c>
-      <c r="G24" s="278" t="s">
+      <c r="G24" s="247" t="s">
         <v>28</v>
       </c>
-      <c r="H24" s="278" t="s">
+      <c r="H24" s="247" t="s">
         <v>29</v>
       </c>
       <c r="I24" s="306" t="s">
@@ -14512,13 +14495,13 @@
       <c r="J24" s="306" t="s">
         <v>51</v>
       </c>
-      <c r="K24" s="278" t="s">
+      <c r="K24" s="247" t="s">
         <v>31</v>
       </c>
-      <c r="L24" s="278" t="s">
+      <c r="L24" s="247" t="s">
         <v>30</v>
       </c>
-      <c r="M24" s="278" t="s">
+      <c r="M24" s="247" t="s">
         <v>33</v>
       </c>
       <c r="N24" s="75" t="s">
@@ -14532,17 +14515,17 @@
     </row>
     <row r="25" spans="1:17" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B25" s="119"/>
-      <c r="C25" s="278"/>
-      <c r="D25" s="278"/>
-      <c r="E25" s="278"/>
-      <c r="F25" s="278"/>
-      <c r="G25" s="278"/>
-      <c r="H25" s="278"/>
+      <c r="C25" s="247"/>
+      <c r="D25" s="247"/>
+      <c r="E25" s="247"/>
+      <c r="F25" s="247"/>
+      <c r="G25" s="247"/>
+      <c r="H25" s="247"/>
       <c r="I25" s="306"/>
       <c r="J25" s="306"/>
-      <c r="K25" s="278"/>
-      <c r="L25" s="278"/>
-      <c r="M25" s="278"/>
+      <c r="K25" s="247"/>
+      <c r="L25" s="247"/>
+      <c r="M25" s="247"/>
       <c r="N25" s="116" t="s">
         <v>83</v>
       </c>
@@ -14685,7 +14668,7 @@
         <v>35</v>
       </c>
       <c r="P28" s="8" t="s">
-        <v>542</v>
+        <v>515</v>
       </c>
       <c r="Q28" s="8"/>
     </row>
@@ -14729,7 +14712,7 @@
         <v>35</v>
       </c>
       <c r="P29" s="8" t="s">
-        <v>541</v>
+        <v>514</v>
       </c>
       <c r="Q29" s="8"/>
     </row>
@@ -14773,7 +14756,7 @@
         <v>35</v>
       </c>
       <c r="P30" s="8" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="Q30" s="8"/>
     </row>
@@ -14861,7 +14844,7 @@
         <v>35</v>
       </c>
       <c r="P32" s="8" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="Q32" s="8"/>
     </row>
@@ -14905,7 +14888,7 @@
         <v>35</v>
       </c>
       <c r="P33" s="8" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="Q33" s="8"/>
     </row>
@@ -14949,7 +14932,7 @@
         <v>35</v>
       </c>
       <c r="P34" s="8" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="Q34" s="8"/>
     </row>
@@ -14987,7 +14970,7 @@
         <v>34</v>
       </c>
       <c r="N35" s="7" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="O35" s="7" t="s">
         <v>35</v>
@@ -15006,7 +14989,7 @@
         <v>188</v>
       </c>
       <c r="E36" s="16" t="s">
-        <v>426</v>
+        <v>412</v>
       </c>
       <c r="F36" s="220" t="s">
         <v>340</v>
@@ -15037,7 +15020,7 @@
         <v>35</v>
       </c>
       <c r="P36" s="8" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="Q36" s="8"/>
     </row>
@@ -15081,7 +15064,7 @@
         <v>35</v>
       </c>
       <c r="P37" s="8" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="Q37" s="8"/>
     </row>
@@ -15095,22 +15078,22 @@
     </row>
     <row r="40" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B40" s="119"/>
-      <c r="C40" s="278" t="s">
+      <c r="C40" s="247" t="s">
         <v>27</v>
       </c>
-      <c r="D40" s="278" t="s">
+      <c r="D40" s="247" t="s">
         <v>60</v>
       </c>
-      <c r="E40" s="278" t="s">
+      <c r="E40" s="247" t="s">
         <v>44</v>
       </c>
-      <c r="F40" s="278" t="s">
+      <c r="F40" s="247" t="s">
         <v>45</v>
       </c>
-      <c r="G40" s="278" t="s">
+      <c r="G40" s="247" t="s">
         <v>28</v>
       </c>
-      <c r="H40" s="278" t="s">
+      <c r="H40" s="247" t="s">
         <v>29</v>
       </c>
       <c r="I40" s="306" t="s">
@@ -15119,13 +15102,13 @@
       <c r="J40" s="306" t="s">
         <v>51</v>
       </c>
-      <c r="K40" s="278" t="s">
+      <c r="K40" s="247" t="s">
         <v>31</v>
       </c>
-      <c r="L40" s="278" t="s">
+      <c r="L40" s="247" t="s">
         <v>30</v>
       </c>
-      <c r="M40" s="278" t="s">
+      <c r="M40" s="247" t="s">
         <v>33</v>
       </c>
       <c r="N40" s="75" t="s">
@@ -15139,17 +15122,17 @@
     </row>
     <row r="41" spans="1:17" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B41" s="119"/>
-      <c r="C41" s="278"/>
-      <c r="D41" s="278"/>
-      <c r="E41" s="278"/>
-      <c r="F41" s="278"/>
-      <c r="G41" s="278"/>
-      <c r="H41" s="278"/>
+      <c r="C41" s="247"/>
+      <c r="D41" s="247"/>
+      <c r="E41" s="247"/>
+      <c r="F41" s="247"/>
+      <c r="G41" s="247"/>
+      <c r="H41" s="247"/>
       <c r="I41" s="306"/>
       <c r="J41" s="306"/>
-      <c r="K41" s="278"/>
-      <c r="L41" s="278"/>
-      <c r="M41" s="278"/>
+      <c r="K41" s="247"/>
+      <c r="L41" s="247"/>
+      <c r="M41" s="247"/>
       <c r="N41" s="116" t="s">
         <v>83</v>
       </c>
@@ -15292,7 +15275,7 @@
         <v>35</v>
       </c>
       <c r="P44" s="7" t="s">
-        <v>542</v>
+        <v>515</v>
       </c>
       <c r="Q44" s="8"/>
     </row>
@@ -15336,7 +15319,7 @@
         <v>35</v>
       </c>
       <c r="P45" s="7" t="s">
-        <v>434</v>
+        <v>420</v>
       </c>
       <c r="Q45" s="8"/>
     </row>
@@ -15380,7 +15363,7 @@
         <v>35</v>
       </c>
       <c r="P46" s="7" t="s">
-        <v>543</v>
+        <v>516</v>
       </c>
       <c r="Q46" s="8"/>
     </row>
@@ -15424,7 +15407,7 @@
         <v>35</v>
       </c>
       <c r="P47" s="8" t="s">
-        <v>544</v>
+        <v>517</v>
       </c>
       <c r="Q47" s="8"/>
     </row>
@@ -15468,7 +15451,7 @@
         <v>35</v>
       </c>
       <c r="P48" s="7" t="s">
-        <v>545</v>
+        <v>518</v>
       </c>
       <c r="Q48" s="8"/>
     </row>
@@ -15512,7 +15495,7 @@
         <v>35</v>
       </c>
       <c r="P49" s="120" t="s">
-        <v>544</v>
+        <v>517</v>
       </c>
       <c r="Q49" s="8"/>
     </row>
@@ -15556,7 +15539,7 @@
         <v>35</v>
       </c>
       <c r="P50" s="7" t="s">
-        <v>546</v>
+        <v>519</v>
       </c>
       <c r="Q50" s="8"/>
     </row>
@@ -15600,7 +15583,7 @@
         <v>35</v>
       </c>
       <c r="P51" s="8" t="s">
-        <v>546</v>
+        <v>519</v>
       </c>
       <c r="Q51" s="8"/>
     </row>
@@ -15644,7 +15627,7 @@
         <v>35</v>
       </c>
       <c r="P52" s="7" t="s">
-        <v>547</v>
+        <v>520</v>
       </c>
       <c r="Q52" s="8"/>
     </row>
@@ -15682,7 +15665,7 @@
         <v>34</v>
       </c>
       <c r="N53" s="7" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="O53" s="7" t="s">
         <v>35</v>
@@ -15726,13 +15709,13 @@
         <v>34</v>
       </c>
       <c r="N54" s="7" t="s">
-        <v>549</v>
+        <v>522</v>
       </c>
       <c r="O54" s="7" t="s">
         <v>35</v>
       </c>
       <c r="P54" s="8" t="s">
-        <v>548</v>
+        <v>521</v>
       </c>
       <c r="Q54" s="8"/>
     </row>
@@ -15770,13 +15753,13 @@
         <v>34</v>
       </c>
       <c r="N55" s="7" t="s">
-        <v>549</v>
+        <v>522</v>
       </c>
       <c r="O55" s="7" t="s">
         <v>35</v>
       </c>
       <c r="P55" s="8" t="s">
-        <v>548</v>
+        <v>521</v>
       </c>
       <c r="Q55" s="8"/>
     </row>
@@ -15814,13 +15797,13 @@
         <v>34</v>
       </c>
       <c r="N56" s="7" t="s">
-        <v>549</v>
+        <v>522</v>
       </c>
       <c r="O56" s="7" t="s">
         <v>35</v>
       </c>
       <c r="P56" s="8" t="s">
-        <v>548</v>
+        <v>521</v>
       </c>
       <c r="Q56" s="8"/>
     </row>
@@ -15858,13 +15841,13 @@
         <v>34</v>
       </c>
       <c r="N57" s="7" t="s">
-        <v>549</v>
+        <v>522</v>
       </c>
       <c r="O57" s="7" t="s">
         <v>35</v>
       </c>
       <c r="P57" s="8" t="s">
-        <v>548</v>
+        <v>521</v>
       </c>
       <c r="Q57" s="8"/>
     </row>
@@ -15894,22 +15877,22 @@
     </row>
     <row r="60" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B60" s="119"/>
-      <c r="C60" s="278" t="s">
+      <c r="C60" s="247" t="s">
         <v>27</v>
       </c>
-      <c r="D60" s="278" t="s">
+      <c r="D60" s="247" t="s">
         <v>60</v>
       </c>
-      <c r="E60" s="278" t="s">
+      <c r="E60" s="247" t="s">
         <v>44</v>
       </c>
-      <c r="F60" s="278" t="s">
+      <c r="F60" s="247" t="s">
         <v>45</v>
       </c>
-      <c r="G60" s="278" t="s">
+      <c r="G60" s="247" t="s">
         <v>28</v>
       </c>
-      <c r="H60" s="278" t="s">
+      <c r="H60" s="247" t="s">
         <v>29</v>
       </c>
       <c r="I60" s="306" t="s">
@@ -15918,13 +15901,13 @@
       <c r="J60" s="306" t="s">
         <v>51</v>
       </c>
-      <c r="K60" s="278" t="s">
+      <c r="K60" s="247" t="s">
         <v>31</v>
       </c>
-      <c r="L60" s="278" t="s">
+      <c r="L60" s="247" t="s">
         <v>30</v>
       </c>
-      <c r="M60" s="278" t="s">
+      <c r="M60" s="247" t="s">
         <v>33</v>
       </c>
       <c r="N60" s="75" t="s">
@@ -15938,17 +15921,17 @@
     </row>
     <row r="61" spans="1:17" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B61" s="119"/>
-      <c r="C61" s="278"/>
-      <c r="D61" s="278"/>
-      <c r="E61" s="278"/>
-      <c r="F61" s="278"/>
-      <c r="G61" s="278"/>
-      <c r="H61" s="278"/>
+      <c r="C61" s="247"/>
+      <c r="D61" s="247"/>
+      <c r="E61" s="247"/>
+      <c r="F61" s="247"/>
+      <c r="G61" s="247"/>
+      <c r="H61" s="247"/>
       <c r="I61" s="306"/>
       <c r="J61" s="306"/>
-      <c r="K61" s="278"/>
-      <c r="L61" s="278"/>
-      <c r="M61" s="278"/>
+      <c r="K61" s="247"/>
+      <c r="L61" s="247"/>
+      <c r="M61" s="247"/>
       <c r="N61" s="116" t="s">
         <v>83</v>
       </c>
@@ -16091,7 +16074,7 @@
         <v>35</v>
       </c>
       <c r="P64" s="7" t="s">
-        <v>542</v>
+        <v>515</v>
       </c>
       <c r="Q64" s="8"/>
     </row>
@@ -16135,7 +16118,7 @@
         <v>35</v>
       </c>
       <c r="P65" s="7" t="s">
-        <v>434</v>
+        <v>420</v>
       </c>
       <c r="Q65" s="8"/>
     </row>
@@ -16179,7 +16162,7 @@
         <v>35</v>
       </c>
       <c r="P66" s="7" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="Q66" s="8"/>
     </row>
@@ -16223,7 +16206,7 @@
         <v>35</v>
       </c>
       <c r="P67" s="7" t="s">
-        <v>551</v>
+        <v>524</v>
       </c>
       <c r="Q67" s="8"/>
     </row>
@@ -16261,13 +16244,13 @@
         <v>34</v>
       </c>
       <c r="N68" s="7" t="s">
-        <v>550</v>
+        <v>523</v>
       </c>
       <c r="O68" s="7" t="s">
         <v>35</v>
       </c>
       <c r="P68" s="7" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="Q68" s="8"/>
     </row>
@@ -16305,13 +16288,13 @@
         <v>34</v>
       </c>
       <c r="N69" s="7" t="s">
-        <v>550</v>
+        <v>523</v>
       </c>
       <c r="O69" s="7" t="s">
         <v>35</v>
       </c>
       <c r="P69" s="8" t="s">
-        <v>546</v>
+        <v>519</v>
       </c>
       <c r="Q69" s="8"/>
     </row>
@@ -16349,13 +16332,13 @@
         <v>34</v>
       </c>
       <c r="N70" s="7" t="s">
-        <v>550</v>
+        <v>523</v>
       </c>
       <c r="O70" s="7" t="s">
         <v>35</v>
       </c>
       <c r="P70" s="7" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="Q70" s="8"/>
     </row>
@@ -16393,7 +16376,7 @@
         <v>34</v>
       </c>
       <c r="N71" s="7" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="O71" s="7" t="s">
         <v>35</v>
@@ -16412,7 +16395,7 @@
         <v>188</v>
       </c>
       <c r="E72" s="16" t="s">
-        <v>426</v>
+        <v>412</v>
       </c>
       <c r="F72" s="220" t="s">
         <v>340</v>
@@ -16437,13 +16420,13 @@
         <v>34</v>
       </c>
       <c r="N72" s="7" t="s">
-        <v>550</v>
+        <v>523</v>
       </c>
       <c r="O72" s="7" t="s">
         <v>35</v>
       </c>
       <c r="P72" s="8" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="Q72" s="8"/>
     </row>
@@ -16481,13 +16464,13 @@
         <v>34</v>
       </c>
       <c r="N73" s="7" t="s">
-        <v>550</v>
+        <v>523</v>
       </c>
       <c r="O73" s="7" t="s">
         <v>35</v>
       </c>
       <c r="P73" s="8" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="Q73" s="8"/>
     </row>
@@ -16540,26 +16523,38 @@
     </row>
   </sheetData>
   <mergeCells count="60">
-    <mergeCell ref="K14:K15"/>
-    <mergeCell ref="M24:M25"/>
-    <mergeCell ref="Q24:Q25"/>
-    <mergeCell ref="M40:M41"/>
-    <mergeCell ref="Q40:Q41"/>
-    <mergeCell ref="Q6:Q7"/>
-    <mergeCell ref="Q14:Q15"/>
-    <mergeCell ref="M6:M7"/>
-    <mergeCell ref="M14:M15"/>
-    <mergeCell ref="L14:L15"/>
-    <mergeCell ref="J6:J7"/>
-    <mergeCell ref="D6:D7"/>
-    <mergeCell ref="I6:I7"/>
-    <mergeCell ref="L6:L7"/>
-    <mergeCell ref="K6:K7"/>
-    <mergeCell ref="C6:C7"/>
-    <mergeCell ref="E6:E7"/>
-    <mergeCell ref="G6:G7"/>
-    <mergeCell ref="H6:H7"/>
-    <mergeCell ref="F6:F7"/>
+    <mergeCell ref="M60:M61"/>
+    <mergeCell ref="Q60:Q61"/>
+    <mergeCell ref="H60:H61"/>
+    <mergeCell ref="I60:I61"/>
+    <mergeCell ref="J60:J61"/>
+    <mergeCell ref="K60:K61"/>
+    <mergeCell ref="L60:L61"/>
+    <mergeCell ref="C60:C61"/>
+    <mergeCell ref="D60:D61"/>
+    <mergeCell ref="E60:E61"/>
+    <mergeCell ref="F60:F61"/>
+    <mergeCell ref="G60:G61"/>
+    <mergeCell ref="H40:H41"/>
+    <mergeCell ref="I40:I41"/>
+    <mergeCell ref="J40:J41"/>
+    <mergeCell ref="K40:K41"/>
+    <mergeCell ref="L40:L41"/>
+    <mergeCell ref="C40:C41"/>
+    <mergeCell ref="D40:D41"/>
+    <mergeCell ref="E40:E41"/>
+    <mergeCell ref="F40:F41"/>
+    <mergeCell ref="G40:G41"/>
+    <mergeCell ref="H24:H25"/>
+    <mergeCell ref="I24:I25"/>
+    <mergeCell ref="J24:J25"/>
+    <mergeCell ref="K24:K25"/>
+    <mergeCell ref="L24:L25"/>
+    <mergeCell ref="C24:C25"/>
+    <mergeCell ref="D24:D25"/>
+    <mergeCell ref="E24:E25"/>
+    <mergeCell ref="F24:F25"/>
+    <mergeCell ref="G24:G25"/>
     <mergeCell ref="I14:I15"/>
     <mergeCell ref="J14:J15"/>
     <mergeCell ref="C14:C15"/>
@@ -16568,38 +16563,26 @@
     <mergeCell ref="G14:G15"/>
     <mergeCell ref="H14:H15"/>
     <mergeCell ref="D14:D15"/>
-    <mergeCell ref="C24:C25"/>
-    <mergeCell ref="D24:D25"/>
-    <mergeCell ref="E24:E25"/>
-    <mergeCell ref="F24:F25"/>
-    <mergeCell ref="G24:G25"/>
-    <mergeCell ref="H24:H25"/>
-    <mergeCell ref="I24:I25"/>
-    <mergeCell ref="J24:J25"/>
-    <mergeCell ref="K24:K25"/>
-    <mergeCell ref="L24:L25"/>
-    <mergeCell ref="C40:C41"/>
-    <mergeCell ref="D40:D41"/>
-    <mergeCell ref="E40:E41"/>
-    <mergeCell ref="F40:F41"/>
-    <mergeCell ref="G40:G41"/>
-    <mergeCell ref="H40:H41"/>
-    <mergeCell ref="I40:I41"/>
-    <mergeCell ref="J40:J41"/>
-    <mergeCell ref="K40:K41"/>
-    <mergeCell ref="L40:L41"/>
-    <mergeCell ref="C60:C61"/>
-    <mergeCell ref="D60:D61"/>
-    <mergeCell ref="E60:E61"/>
-    <mergeCell ref="F60:F61"/>
-    <mergeCell ref="G60:G61"/>
-    <mergeCell ref="M60:M61"/>
-    <mergeCell ref="Q60:Q61"/>
-    <mergeCell ref="H60:H61"/>
-    <mergeCell ref="I60:I61"/>
-    <mergeCell ref="J60:J61"/>
-    <mergeCell ref="K60:K61"/>
-    <mergeCell ref="L60:L61"/>
+    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="E6:E7"/>
+    <mergeCell ref="G6:G7"/>
+    <mergeCell ref="H6:H7"/>
+    <mergeCell ref="F6:F7"/>
+    <mergeCell ref="J6:J7"/>
+    <mergeCell ref="D6:D7"/>
+    <mergeCell ref="I6:I7"/>
+    <mergeCell ref="L6:L7"/>
+    <mergeCell ref="K6:K7"/>
+    <mergeCell ref="Q6:Q7"/>
+    <mergeCell ref="Q14:Q15"/>
+    <mergeCell ref="M6:M7"/>
+    <mergeCell ref="M14:M15"/>
+    <mergeCell ref="L14:L15"/>
+    <mergeCell ref="K14:K15"/>
+    <mergeCell ref="M24:M25"/>
+    <mergeCell ref="Q24:Q25"/>
+    <mergeCell ref="M40:M41"/>
+    <mergeCell ref="Q40:Q41"/>
   </mergeCells>
   <phoneticPr fontId="4"/>
   <pageMargins left="0.62992125984251968" right="0.62992125984251968" top="0.78740157480314965" bottom="0.78740157480314965" header="0.39370078740157483" footer="0.39370078740157483"/>
@@ -17264,9 +17247,9 @@
       <c r="H14" s="234"/>
       <c r="I14" s="234"/>
       <c r="J14" s="234"/>
-      <c r="K14" s="241"/>
+      <c r="K14" s="240"/>
       <c r="L14" s="128" t="s">
-        <v>401</v>
+        <v>535</v>
       </c>
       <c r="M14" s="130"/>
       <c r="N14" s="130"/>
@@ -17312,7 +17295,7 @@
       <c r="E15" s="24"/>
       <c r="F15" s="78"/>
       <c r="G15" s="238" t="s">
-        <v>487</v>
+        <v>467</v>
       </c>
       <c r="H15" s="237"/>
       <c r="I15" s="237"/>
@@ -17372,7 +17355,7 @@
       <c r="L16" s="24"/>
       <c r="M16" s="24"/>
       <c r="N16" s="24" t="s">
-        <v>431</v>
+        <v>417</v>
       </c>
       <c r="O16" s="24"/>
       <c r="P16" s="24"/>
@@ -17423,7 +17406,7 @@
       <c r="L17" s="24"/>
       <c r="M17" s="24"/>
       <c r="N17" s="24" t="s">
-        <v>432</v>
+        <v>418</v>
       </c>
       <c r="O17" s="24"/>
       <c r="P17" s="24"/>
@@ -17474,7 +17457,7 @@
       <c r="L18" s="24"/>
       <c r="M18" s="24"/>
       <c r="N18" s="24" t="s">
-        <v>433</v>
+        <v>419</v>
       </c>
       <c r="O18" s="24"/>
       <c r="P18" s="24"/>
@@ -17525,7 +17508,7 @@
       <c r="L19" s="24"/>
       <c r="M19" s="24"/>
       <c r="N19" s="24" t="s">
-        <v>434</v>
+        <v>420</v>
       </c>
       <c r="O19" s="24"/>
       <c r="P19" s="24"/>
@@ -17576,7 +17559,7 @@
       <c r="L20" s="24"/>
       <c r="M20" s="24"/>
       <c r="N20" s="24" t="s">
-        <v>435</v>
+        <v>421</v>
       </c>
       <c r="O20" s="24"/>
       <c r="P20" s="24"/>
@@ -17627,7 +17610,7 @@
       <c r="L21" s="24"/>
       <c r="M21" s="24"/>
       <c r="N21" s="24" t="s">
-        <v>436</v>
+        <v>422</v>
       </c>
       <c r="O21" s="24"/>
       <c r="P21" s="24"/>
@@ -17678,7 +17661,7 @@
       <c r="L22" s="24"/>
       <c r="M22" s="24"/>
       <c r="N22" s="24" t="s">
-        <v>476</v>
+        <v>458</v>
       </c>
       <c r="O22" s="24"/>
       <c r="P22" s="24"/>
@@ -17729,7 +17712,7 @@
       <c r="L23" s="24"/>
       <c r="M23" s="24"/>
       <c r="N23" s="24" t="s">
-        <v>441</v>
+        <v>427</v>
       </c>
       <c r="O23" s="24"/>
       <c r="P23" s="24"/>
@@ -17780,7 +17763,7 @@
       <c r="L24" s="24"/>
       <c r="M24" s="24"/>
       <c r="N24" s="24" t="s">
-        <v>477</v>
+        <v>459</v>
       </c>
       <c r="O24" s="24"/>
       <c r="P24" s="24"/>
@@ -17831,7 +17814,7 @@
       <c r="L25" s="24"/>
       <c r="M25" s="24"/>
       <c r="N25" s="24" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="O25" s="24"/>
       <c r="P25" s="24"/>
@@ -17882,7 +17865,7 @@
       <c r="L26" s="24"/>
       <c r="M26" s="24"/>
       <c r="N26" s="24" t="s">
-        <v>531</v>
+        <v>509</v>
       </c>
       <c r="O26" s="24"/>
       <c r="P26" s="24"/>
@@ -17933,7 +17916,7 @@
       <c r="L27" s="24"/>
       <c r="M27" s="24"/>
       <c r="N27" s="24" t="s">
-        <v>532</v>
+        <v>510</v>
       </c>
       <c r="O27" s="24"/>
       <c r="P27" s="24"/>
@@ -18035,7 +18018,7 @@
       <c r="L29" s="24"/>
       <c r="M29" s="24"/>
       <c r="N29" s="24" t="s">
-        <v>505</v>
+        <v>430</v>
       </c>
       <c r="O29" s="24"/>
       <c r="P29" s="24"/>
@@ -18086,7 +18069,7 @@
       <c r="L30" s="24"/>
       <c r="M30" s="24"/>
       <c r="N30" s="24" t="s">
-        <v>496</v>
+        <v>476</v>
       </c>
       <c r="O30" s="24"/>
       <c r="P30" s="24"/>
@@ -18137,7 +18120,7 @@
       <c r="L31" s="24"/>
       <c r="M31" s="24"/>
       <c r="N31" s="24" t="s">
-        <v>450</v>
+        <v>436</v>
       </c>
       <c r="O31" s="24"/>
       <c r="P31" s="24"/>
@@ -18155,7 +18138,7 @@
         <v>230</v>
       </c>
       <c r="AB31" s="24" t="s">
-        <v>497</v>
+        <v>477</v>
       </c>
       <c r="AC31" s="24"/>
       <c r="AD31" s="24"/>
@@ -18192,7 +18175,7 @@
       <c r="L32" s="24"/>
       <c r="M32" s="24"/>
       <c r="N32" s="24" t="s">
-        <v>438</v>
+        <v>424</v>
       </c>
       <c r="O32" s="24"/>
       <c r="P32" s="24"/>
@@ -18210,7 +18193,7 @@
         <v>230</v>
       </c>
       <c r="AB32" s="24" t="s">
-        <v>498</v>
+        <v>478</v>
       </c>
       <c r="AC32" s="24"/>
       <c r="AD32" s="24"/>
@@ -18247,7 +18230,7 @@
       <c r="L33" s="24"/>
       <c r="M33" s="24"/>
       <c r="N33" s="24" t="s">
-        <v>451</v>
+        <v>437</v>
       </c>
       <c r="O33" s="24"/>
       <c r="P33" s="24"/>
@@ -18265,7 +18248,7 @@
         <v>230</v>
       </c>
       <c r="AB33" s="24" t="s">
-        <v>499</v>
+        <v>479</v>
       </c>
       <c r="AC33" s="24"/>
       <c r="AD33" s="24"/>
@@ -18302,7 +18285,7 @@
       <c r="L34" s="24"/>
       <c r="M34" s="24"/>
       <c r="N34" s="24" t="s">
-        <v>452</v>
+        <v>438</v>
       </c>
       <c r="O34" s="24"/>
       <c r="P34" s="24"/>
@@ -18320,7 +18303,7 @@
         <v>230</v>
       </c>
       <c r="AB34" s="24" t="s">
-        <v>500</v>
+        <v>480</v>
       </c>
       <c r="AC34" s="24"/>
       <c r="AD34" s="24"/>
@@ -18357,7 +18340,7 @@
       <c r="L35" s="24"/>
       <c r="M35" s="24"/>
       <c r="N35" s="24" t="s">
-        <v>453</v>
+        <v>439</v>
       </c>
       <c r="O35" s="24"/>
       <c r="P35" s="24"/>
@@ -18375,7 +18358,7 @@
         <v>230</v>
       </c>
       <c r="AB35" s="24" t="s">
-        <v>501</v>
+        <v>481</v>
       </c>
       <c r="AC35" s="24"/>
       <c r="AD35" s="24"/>
@@ -18412,7 +18395,7 @@
       <c r="L36" s="24"/>
       <c r="M36" s="24"/>
       <c r="N36" s="24" t="s">
-        <v>454</v>
+        <v>440</v>
       </c>
       <c r="O36" s="24"/>
       <c r="P36" s="24"/>
@@ -18430,7 +18413,7 @@
         <v>230</v>
       </c>
       <c r="AB36" s="24" t="s">
-        <v>502</v>
+        <v>482</v>
       </c>
       <c r="AC36" s="24"/>
       <c r="AD36" s="24"/>
@@ -18467,7 +18450,7 @@
       <c r="L37" s="24"/>
       <c r="M37" s="24"/>
       <c r="N37" s="24" t="s">
-        <v>455</v>
+        <v>441</v>
       </c>
       <c r="O37" s="24"/>
       <c r="P37" s="24"/>
@@ -18485,7 +18468,7 @@
         <v>230</v>
       </c>
       <c r="AB37" s="24" t="s">
-        <v>503</v>
+        <v>483</v>
       </c>
       <c r="AC37" s="24"/>
       <c r="AD37" s="24"/>
@@ -18522,7 +18505,7 @@
       <c r="L38" s="24"/>
       <c r="M38" s="24"/>
       <c r="N38" s="24" t="s">
-        <v>525</v>
+        <v>504</v>
       </c>
       <c r="O38" s="24"/>
       <c r="P38" s="24"/>
@@ -18573,7 +18556,7 @@
       <c r="L39" s="24"/>
       <c r="M39" s="24"/>
       <c r="N39" s="24" t="s">
-        <v>437</v>
+        <v>423</v>
       </c>
       <c r="O39" s="24"/>
       <c r="P39" s="24"/>
@@ -18591,7 +18574,7 @@
         <v>230</v>
       </c>
       <c r="AB39" s="24" t="s">
-        <v>442</v>
+        <v>428</v>
       </c>
       <c r="AC39" s="24"/>
       <c r="AD39" s="24"/>
@@ -18628,7 +18611,7 @@
       <c r="L40" s="24"/>
       <c r="M40" s="24"/>
       <c r="N40" s="24" t="s">
-        <v>438</v>
+        <v>424</v>
       </c>
       <c r="O40" s="24"/>
       <c r="P40" s="24"/>
@@ -18646,7 +18629,7 @@
         <v>230</v>
       </c>
       <c r="AB40" s="24" t="s">
-        <v>443</v>
+        <v>429</v>
       </c>
       <c r="AC40" s="24"/>
       <c r="AD40" s="24"/>
@@ -18683,7 +18666,7 @@
       <c r="L41" s="24"/>
       <c r="M41" s="24"/>
       <c r="N41" s="24" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="O41" s="24"/>
       <c r="P41" s="24"/>
@@ -18734,7 +18717,7 @@
       <c r="L42" s="24"/>
       <c r="M42" s="24"/>
       <c r="N42" s="24" t="s">
-        <v>403</v>
+        <v>534</v>
       </c>
       <c r="O42" s="24"/>
       <c r="P42" s="24"/>
@@ -18752,7 +18735,7 @@
         <v>230</v>
       </c>
       <c r="AB42" s="24" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="AC42" s="24"/>
       <c r="AD42" s="24"/>
@@ -18789,7 +18772,7 @@
       <c r="L43" s="24"/>
       <c r="M43" s="24"/>
       <c r="N43" s="24" t="s">
-        <v>404</v>
+        <v>438</v>
       </c>
       <c r="O43" s="24"/>
       <c r="P43" s="24"/>
@@ -18807,7 +18790,7 @@
         <v>230</v>
       </c>
       <c r="AB43" s="24" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="AC43" s="24"/>
       <c r="AD43" s="24"/>
@@ -18844,7 +18827,7 @@
       <c r="L44" s="24"/>
       <c r="M44" s="24"/>
       <c r="N44" s="24" t="s">
-        <v>405</v>
+        <v>439</v>
       </c>
       <c r="O44" s="24"/>
       <c r="P44" s="24"/>
@@ -18862,7 +18845,7 @@
         <v>230</v>
       </c>
       <c r="AB44" s="24" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="AC44" s="24"/>
       <c r="AD44" s="24"/>
@@ -18899,7 +18882,7 @@
       <c r="L45" s="24"/>
       <c r="M45" s="24"/>
       <c r="N45" s="24" t="s">
-        <v>406</v>
+        <v>440</v>
       </c>
       <c r="O45" s="24"/>
       <c r="P45" s="24"/>
@@ -18917,7 +18900,7 @@
         <v>230</v>
       </c>
       <c r="AB45" s="24" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="AC45" s="24"/>
       <c r="AD45" s="24"/>
@@ -18954,7 +18937,7 @@
       <c r="L46" s="24"/>
       <c r="M46" s="24"/>
       <c r="N46" s="24" t="s">
-        <v>407</v>
+        <v>441</v>
       </c>
       <c r="O46" s="24"/>
       <c r="P46" s="24"/>
@@ -18972,7 +18955,7 @@
         <v>230</v>
       </c>
       <c r="AB46" s="24" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="AC46" s="24"/>
       <c r="AD46" s="24"/>
@@ -19060,7 +19043,7 @@
       <c r="L48" s="24"/>
       <c r="M48" s="24"/>
       <c r="N48" s="24" t="s">
-        <v>504</v>
+        <v>484</v>
       </c>
       <c r="O48" s="24"/>
       <c r="P48" s="24"/>
@@ -19078,7 +19061,7 @@
         <v>230</v>
       </c>
       <c r="AB48" s="24" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="AC48" s="24"/>
       <c r="AD48" s="24"/>
@@ -19115,7 +19098,7 @@
       <c r="L49" s="24"/>
       <c r="M49" s="24"/>
       <c r="N49" s="24" t="s">
-        <v>439</v>
+        <v>425</v>
       </c>
       <c r="O49" s="24"/>
       <c r="P49" s="24"/>
@@ -19133,7 +19116,7 @@
         <v>230</v>
       </c>
       <c r="AB49" s="24" t="s">
-        <v>427</v>
+        <v>413</v>
       </c>
       <c r="AC49" s="24"/>
       <c r="AD49" s="24"/>
@@ -19170,7 +19153,7 @@
       <c r="L50" s="24"/>
       <c r="M50" s="24"/>
       <c r="N50" s="24" t="s">
-        <v>555</v>
+        <v>528</v>
       </c>
       <c r="O50" s="24"/>
       <c r="P50" s="24"/>
@@ -19227,7 +19210,7 @@
       <c r="L51" s="24"/>
       <c r="M51" s="24"/>
       <c r="N51" s="24" t="s">
-        <v>440</v>
+        <v>426</v>
       </c>
       <c r="O51" s="24"/>
       <c r="P51" s="24"/>
@@ -19331,7 +19314,7 @@
       <c r="J53" s="24"/>
       <c r="K53" s="78"/>
       <c r="L53" s="24" t="s">
-        <v>391</v>
+        <v>550</v>
       </c>
       <c r="M53" s="24"/>
       <c r="N53" s="24"/>
@@ -19435,7 +19418,7 @@
       <c r="L55" s="24"/>
       <c r="M55" s="24"/>
       <c r="N55" s="24" t="s">
-        <v>402</v>
+        <v>536</v>
       </c>
       <c r="O55" s="24"/>
       <c r="P55" s="24"/>
@@ -19486,7 +19469,7 @@
       <c r="L56" s="24"/>
       <c r="M56" s="24"/>
       <c r="N56" s="24" t="s">
-        <v>530</v>
+        <v>537</v>
       </c>
       <c r="O56" s="24"/>
       <c r="P56" s="24"/>
@@ -19588,7 +19571,7 @@
       <c r="L58" s="24"/>
       <c r="M58" s="24"/>
       <c r="N58" s="24" t="s">
-        <v>514</v>
+        <v>493</v>
       </c>
       <c r="O58" s="24"/>
       <c r="P58" s="24"/>
@@ -19639,7 +19622,7 @@
       <c r="L59" s="24"/>
       <c r="M59" s="24"/>
       <c r="N59" s="24" t="s">
-        <v>517</v>
+        <v>496</v>
       </c>
       <c r="O59" s="24"/>
       <c r="P59" s="24"/>
@@ -19690,7 +19673,7 @@
       <c r="L60" s="24"/>
       <c r="M60" s="24"/>
       <c r="N60" s="24" t="s">
-        <v>515</v>
+        <v>494</v>
       </c>
       <c r="O60" s="24"/>
       <c r="P60" s="24"/>
@@ -19741,7 +19724,7 @@
       <c r="L61" s="24"/>
       <c r="M61" s="24"/>
       <c r="N61" s="24" t="s">
-        <v>413</v>
+        <v>399</v>
       </c>
       <c r="O61" s="24"/>
       <c r="P61" s="24"/>
@@ -19792,7 +19775,7 @@
       <c r="L62" s="24"/>
       <c r="M62" s="24"/>
       <c r="N62" s="24" t="s">
-        <v>516</v>
+        <v>495</v>
       </c>
       <c r="O62" s="24"/>
       <c r="P62" s="24"/>
@@ -19843,7 +19826,7 @@
       <c r="L63" s="24"/>
       <c r="M63" s="24"/>
       <c r="N63" s="24" t="s">
-        <v>490</v>
+        <v>470</v>
       </c>
       <c r="O63" s="24"/>
       <c r="P63" s="24"/>
@@ -19894,7 +19877,7 @@
       <c r="L64" s="125"/>
       <c r="M64" s="79"/>
       <c r="N64" s="79" t="s">
-        <v>472</v>
+        <v>454</v>
       </c>
       <c r="O64" s="79"/>
       <c r="P64" s="79"/>
@@ -19948,7 +19931,7 @@
       <c r="O65" s="79"/>
       <c r="P65" s="79"/>
       <c r="Q65" s="79" t="s">
-        <v>425</v>
+        <v>411</v>
       </c>
       <c r="R65" s="79"/>
       <c r="S65" s="79"/>
@@ -20149,7 +20132,7 @@
       <c r="L69" s="24"/>
       <c r="M69" s="24"/>
       <c r="N69" s="24" t="s">
-        <v>401</v>
+        <v>535</v>
       </c>
       <c r="O69" s="24"/>
       <c r="P69" s="24"/>
@@ -20251,7 +20234,7 @@
       <c r="L71" s="24"/>
       <c r="M71" s="24"/>
       <c r="N71" s="24" t="s">
-        <v>408</v>
+        <v>538</v>
       </c>
       <c r="O71" s="24"/>
       <c r="P71" s="24"/>
@@ -20306,7 +20289,7 @@
       <c r="L72" s="24"/>
       <c r="M72" s="24"/>
       <c r="N72" s="24" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="O72" s="24"/>
       <c r="P72" s="24"/>
@@ -20357,7 +20340,7 @@
       <c r="L73" s="24"/>
       <c r="M73" s="24"/>
       <c r="N73" s="24" t="s">
-        <v>409</v>
+        <v>539</v>
       </c>
       <c r="O73" s="24"/>
       <c r="P73" s="24"/>
@@ -20375,7 +20358,7 @@
         <v>230</v>
       </c>
       <c r="AB73" s="24" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="AC73" s="24"/>
       <c r="AD73" s="24"/>
@@ -20412,7 +20395,7 @@
       <c r="L74" s="24"/>
       <c r="M74" s="24"/>
       <c r="N74" s="24" t="s">
-        <v>410</v>
+        <v>540</v>
       </c>
       <c r="O74" s="24"/>
       <c r="P74" s="24"/>
@@ -20430,7 +20413,7 @@
         <v>230</v>
       </c>
       <c r="AB74" s="24" t="s">
-        <v>395</v>
+        <v>392</v>
       </c>
       <c r="AC74" s="24"/>
       <c r="AD74" s="24"/>
@@ -20467,7 +20450,7 @@
       <c r="L75" s="24"/>
       <c r="M75" s="24"/>
       <c r="N75" s="24" t="s">
-        <v>411</v>
+        <v>541</v>
       </c>
       <c r="O75" s="24"/>
       <c r="P75" s="24"/>
@@ -20485,7 +20468,7 @@
         <v>230</v>
       </c>
       <c r="AB75" s="24" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
       <c r="AC75" s="24"/>
       <c r="AD75" s="24"/>
@@ -20522,7 +20505,7 @@
       <c r="L76" s="24"/>
       <c r="M76" s="24"/>
       <c r="N76" s="24" t="s">
-        <v>404</v>
+        <v>542</v>
       </c>
       <c r="O76" s="24"/>
       <c r="P76" s="24"/>
@@ -20540,7 +20523,7 @@
         <v>230</v>
       </c>
       <c r="AB76" s="24" t="s">
-        <v>397</v>
+        <v>394</v>
       </c>
       <c r="AC76" s="24"/>
       <c r="AD76" s="24"/>
@@ -20577,7 +20560,7 @@
       <c r="L77" s="24"/>
       <c r="M77" s="24"/>
       <c r="N77" s="24" t="s">
-        <v>405</v>
+        <v>543</v>
       </c>
       <c r="O77" s="24"/>
       <c r="P77" s="24"/>
@@ -20595,7 +20578,7 @@
         <v>230</v>
       </c>
       <c r="AB77" s="24" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
       <c r="AC77" s="24"/>
       <c r="AD77" s="24"/>
@@ -20632,7 +20615,7 @@
       <c r="L78" s="24"/>
       <c r="M78" s="24"/>
       <c r="N78" s="24" t="s">
-        <v>406</v>
+        <v>544</v>
       </c>
       <c r="O78" s="24"/>
       <c r="P78" s="24"/>
@@ -20650,7 +20633,7 @@
         <v>230</v>
       </c>
       <c r="AB78" s="24" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
       <c r="AC78" s="24"/>
       <c r="AD78" s="24"/>
@@ -20687,7 +20670,7 @@
       <c r="L79" s="24"/>
       <c r="M79" s="24"/>
       <c r="N79" s="24" t="s">
-        <v>407</v>
+        <v>545</v>
       </c>
       <c r="O79" s="24"/>
       <c r="P79" s="24"/>
@@ -20705,7 +20688,7 @@
         <v>230</v>
       </c>
       <c r="AB79" s="24" t="s">
-        <v>400</v>
+        <v>397</v>
       </c>
       <c r="AC79" s="24"/>
       <c r="AD79" s="24"/>
@@ -20742,7 +20725,7 @@
       <c r="L80" s="24"/>
       <c r="M80" s="24"/>
       <c r="N80" s="24" t="s">
-        <v>414</v>
+        <v>400</v>
       </c>
       <c r="O80" s="24"/>
       <c r="P80" s="24"/>
@@ -20793,7 +20776,7 @@
       <c r="L81" s="24"/>
       <c r="M81" s="24"/>
       <c r="N81" s="24" t="s">
-        <v>409</v>
+        <v>539</v>
       </c>
       <c r="O81" s="24"/>
       <c r="P81" s="24"/>
@@ -20811,7 +20794,7 @@
         <v>230</v>
       </c>
       <c r="AB81" s="24" t="s">
-        <v>415</v>
+        <v>401</v>
       </c>
       <c r="AC81" s="24"/>
       <c r="AD81" s="24"/>
@@ -20848,7 +20831,7 @@
       <c r="L82" s="24"/>
       <c r="M82" s="24"/>
       <c r="N82" s="24" t="s">
-        <v>410</v>
+        <v>540</v>
       </c>
       <c r="O82" s="24"/>
       <c r="P82" s="24"/>
@@ -20866,7 +20849,7 @@
         <v>230</v>
       </c>
       <c r="AB82" s="24" t="s">
-        <v>416</v>
+        <v>402</v>
       </c>
       <c r="AC82" s="24"/>
       <c r="AD82" s="24"/>
@@ -20903,7 +20886,7 @@
       <c r="L83" s="24"/>
       <c r="M83" s="24"/>
       <c r="N83" s="24" t="s">
-        <v>411</v>
+        <v>541</v>
       </c>
       <c r="O83" s="24"/>
       <c r="P83" s="24"/>
@@ -20921,7 +20904,7 @@
         <v>230</v>
       </c>
       <c r="AB83" s="24" t="s">
-        <v>417</v>
+        <v>403</v>
       </c>
       <c r="AC83" s="24"/>
       <c r="AD83" s="24"/>
@@ -20958,7 +20941,7 @@
       <c r="L84" s="24"/>
       <c r="M84" s="24"/>
       <c r="N84" s="24" t="s">
-        <v>404</v>
+        <v>542</v>
       </c>
       <c r="O84" s="24"/>
       <c r="P84" s="24"/>
@@ -20976,7 +20959,7 @@
         <v>230</v>
       </c>
       <c r="AB84" s="24" t="s">
-        <v>418</v>
+        <v>404</v>
       </c>
       <c r="AC84" s="24"/>
       <c r="AD84" s="24"/>
@@ -21013,7 +20996,7 @@
       <c r="L85" s="24"/>
       <c r="M85" s="24"/>
       <c r="N85" s="24" t="s">
-        <v>405</v>
+        <v>543</v>
       </c>
       <c r="O85" s="24"/>
       <c r="P85" s="24"/>
@@ -21031,7 +21014,7 @@
         <v>230</v>
       </c>
       <c r="AB85" s="24" t="s">
-        <v>419</v>
+        <v>405</v>
       </c>
       <c r="AC85" s="24"/>
       <c r="AD85" s="24"/>
@@ -21068,7 +21051,7 @@
       <c r="L86" s="24"/>
       <c r="M86" s="24"/>
       <c r="N86" s="24" t="s">
-        <v>406</v>
+        <v>544</v>
       </c>
       <c r="O86" s="24"/>
       <c r="P86" s="24"/>
@@ -21086,7 +21069,7 @@
         <v>230</v>
       </c>
       <c r="AB86" s="24" t="s">
-        <v>420</v>
+        <v>406</v>
       </c>
       <c r="AC86" s="24"/>
       <c r="AD86" s="24"/>
@@ -21123,7 +21106,7 @@
       <c r="L87" s="24"/>
       <c r="M87" s="24"/>
       <c r="N87" s="24" t="s">
-        <v>478</v>
+        <v>545</v>
       </c>
       <c r="O87" s="24"/>
       <c r="P87" s="24"/>
@@ -21141,7 +21124,7 @@
         <v>230</v>
       </c>
       <c r="AB87" s="24" t="s">
-        <v>421</v>
+        <v>407</v>
       </c>
       <c r="AC87" s="24"/>
       <c r="AD87" s="24"/>
@@ -21247,7 +21230,7 @@
         <v>230</v>
       </c>
       <c r="AB89" s="24" t="s">
-        <v>387</v>
+        <v>551</v>
       </c>
       <c r="AC89" s="24"/>
       <c r="AD89" s="24"/>
@@ -21284,7 +21267,7 @@
       <c r="L90" s="24"/>
       <c r="M90" s="24"/>
       <c r="N90" s="24" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="O90" s="24"/>
       <c r="P90" s="24"/>
@@ -21302,7 +21285,7 @@
         <v>230</v>
       </c>
       <c r="AB90" s="230" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="AC90" s="24"/>
       <c r="AD90" s="24"/>
@@ -21339,7 +21322,7 @@
       <c r="L91" s="24"/>
       <c r="M91" s="24"/>
       <c r="N91" s="24" t="s">
-        <v>533</v>
+        <v>546</v>
       </c>
       <c r="O91" s="24"/>
       <c r="P91" s="24"/>
@@ -21396,7 +21379,7 @@
       <c r="L92" s="24"/>
       <c r="M92" s="24"/>
       <c r="N92" s="24" t="s">
-        <v>479</v>
+        <v>547</v>
       </c>
       <c r="O92" s="24"/>
       <c r="P92" s="24"/>
@@ -21453,7 +21436,7 @@
       <c r="L93" s="24"/>
       <c r="M93" s="24"/>
       <c r="N93" s="24" t="s">
-        <v>534</v>
+        <v>548</v>
       </c>
       <c r="O93" s="24"/>
       <c r="P93" s="24"/>
@@ -21510,7 +21493,7 @@
       <c r="L94" s="24"/>
       <c r="M94" s="24"/>
       <c r="N94" s="24" t="s">
-        <v>412</v>
+        <v>398</v>
       </c>
       <c r="O94" s="24"/>
       <c r="P94" s="24"/>
@@ -21525,7 +21508,7 @@
       <c r="Y94" s="24"/>
       <c r="Z94" s="24"/>
       <c r="AA94" s="24" t="s">
-        <v>422</v>
+        <v>408</v>
       </c>
       <c r="AB94" s="24"/>
       <c r="AC94" s="24"/>
@@ -21563,7 +21546,7 @@
       <c r="L95" s="24"/>
       <c r="M95" s="24"/>
       <c r="N95" s="24" t="s">
-        <v>424</v>
+        <v>410</v>
       </c>
       <c r="O95" s="24"/>
       <c r="P95" s="24"/>
@@ -21578,7 +21561,7 @@
       <c r="Y95" s="24"/>
       <c r="Z95" s="24"/>
       <c r="AA95" s="24" t="s">
-        <v>423</v>
+        <v>409</v>
       </c>
       <c r="AB95" s="24"/>
       <c r="AC95" s="24"/>
@@ -21667,7 +21650,7 @@
       <c r="L97" s="24"/>
       <c r="M97" s="24"/>
       <c r="N97" s="24" t="s">
-        <v>428</v>
+        <v>414</v>
       </c>
       <c r="O97" s="24"/>
       <c r="P97" s="24"/>
@@ -21718,7 +21701,7 @@
       <c r="L98" s="24"/>
       <c r="M98" s="24"/>
       <c r="N98" s="24" t="s">
-        <v>429</v>
+        <v>415</v>
       </c>
       <c r="O98" s="24"/>
       <c r="P98" s="24"/>
@@ -21769,7 +21752,7 @@
       <c r="L99" s="24"/>
       <c r="M99" s="24"/>
       <c r="N99" s="24" t="s">
-        <v>430</v>
+        <v>416</v>
       </c>
       <c r="O99" s="24"/>
       <c r="P99" s="24"/>
@@ -21871,7 +21854,7 @@
       <c r="L101" s="125"/>
       <c r="M101" s="79"/>
       <c r="N101" s="125" t="s">
-        <v>402</v>
+        <v>536</v>
       </c>
       <c r="O101" s="125"/>
       <c r="P101" s="125"/>
@@ -21922,7 +21905,7 @@
       <c r="L102" s="125"/>
       <c r="M102" s="79"/>
       <c r="N102" s="125" t="s">
-        <v>530</v>
+        <v>537</v>
       </c>
       <c r="O102" s="125"/>
       <c r="P102" s="125"/>
@@ -21973,7 +21956,7 @@
       <c r="L103" s="125"/>
       <c r="M103" s="79"/>
       <c r="N103" s="125" t="s">
-        <v>535</v>
+        <v>511</v>
       </c>
       <c r="O103" s="125"/>
       <c r="P103" s="125"/>
@@ -22071,9 +22054,9 @@
       <c r="H105" s="234"/>
       <c r="I105" s="234"/>
       <c r="J105" s="234"/>
-      <c r="K105" s="241"/>
+      <c r="K105" s="240"/>
       <c r="L105" s="128" t="s">
-        <v>401</v>
+        <v>535</v>
       </c>
       <c r="M105" s="130"/>
       <c r="N105" s="130"/>
@@ -22119,7 +22102,7 @@
       <c r="E106" s="24"/>
       <c r="F106" s="78"/>
       <c r="G106" s="238" t="s">
-        <v>488</v>
+        <v>468</v>
       </c>
       <c r="H106" s="237"/>
       <c r="I106" s="237"/>
@@ -22179,7 +22162,7 @@
       <c r="L107" s="24"/>
       <c r="M107" s="24"/>
       <c r="N107" s="237" t="s">
-        <v>431</v>
+        <v>417</v>
       </c>
       <c r="O107" s="24"/>
       <c r="P107" s="24"/>
@@ -22230,7 +22213,7 @@
       <c r="L108" s="24"/>
       <c r="M108" s="24"/>
       <c r="N108" s="237" t="s">
-        <v>538</v>
+        <v>512</v>
       </c>
       <c r="O108" s="24"/>
       <c r="P108" s="24"/>
@@ -22281,7 +22264,7 @@
       <c r="L109" s="24"/>
       <c r="M109" s="24"/>
       <c r="N109" s="237" t="s">
-        <v>432</v>
+        <v>418</v>
       </c>
       <c r="O109" s="24"/>
       <c r="P109" s="24"/>
@@ -22332,7 +22315,7 @@
       <c r="L110" s="24"/>
       <c r="M110" s="24"/>
       <c r="N110" s="237" t="s">
-        <v>433</v>
+        <v>419</v>
       </c>
       <c r="O110" s="24"/>
       <c r="P110" s="24"/>
@@ -22383,7 +22366,7 @@
       <c r="L111" s="24"/>
       <c r="M111" s="24"/>
       <c r="N111" s="237" t="s">
-        <v>434</v>
+        <v>420</v>
       </c>
       <c r="O111" s="24"/>
       <c r="P111" s="24"/>
@@ -22434,7 +22417,7 @@
       <c r="L112" s="24"/>
       <c r="M112" s="24"/>
       <c r="N112" s="24" t="s">
-        <v>435</v>
+        <v>421</v>
       </c>
       <c r="O112" s="24"/>
       <c r="P112" s="24"/>
@@ -22485,7 +22468,7 @@
       <c r="L113" s="24"/>
       <c r="M113" s="24"/>
       <c r="N113" s="24" t="s">
-        <v>436</v>
+        <v>422</v>
       </c>
       <c r="O113" s="24"/>
       <c r="P113" s="24"/>
@@ -22536,7 +22519,7 @@
       <c r="L114" s="24"/>
       <c r="M114" s="24"/>
       <c r="N114" s="24" t="s">
-        <v>476</v>
+        <v>458</v>
       </c>
       <c r="O114" s="24"/>
       <c r="P114" s="24"/>
@@ -22587,7 +22570,7 @@
       <c r="L115" s="24"/>
       <c r="M115" s="24"/>
       <c r="N115" s="24" t="s">
-        <v>477</v>
+        <v>459</v>
       </c>
       <c r="O115" s="24"/>
       <c r="P115" s="24"/>
@@ -22638,7 +22621,7 @@
       <c r="L116" s="24"/>
       <c r="M116" s="24"/>
       <c r="N116" s="24" t="s">
-        <v>531</v>
+        <v>509</v>
       </c>
       <c r="O116" s="24"/>
       <c r="P116" s="24"/>
@@ -22689,7 +22672,7 @@
       <c r="L117" s="24"/>
       <c r="M117" s="24"/>
       <c r="N117" s="24" t="s">
-        <v>532</v>
+        <v>510</v>
       </c>
       <c r="O117" s="24"/>
       <c r="P117" s="24"/>
@@ -22791,7 +22774,7 @@
       <c r="L119" s="24"/>
       <c r="M119" s="24"/>
       <c r="N119" s="24" t="s">
-        <v>444</v>
+        <v>430</v>
       </c>
       <c r="O119" s="24"/>
       <c r="P119" s="24"/>
@@ -22842,7 +22825,7 @@
       <c r="L120" s="24"/>
       <c r="M120" s="24"/>
       <c r="N120" s="24" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="O120" s="24"/>
       <c r="P120" s="24"/>
@@ -22893,7 +22876,7 @@
       <c r="L121" s="24"/>
       <c r="M121" s="24"/>
       <c r="N121" s="24" t="s">
-        <v>403</v>
+        <v>534</v>
       </c>
       <c r="O121" s="24"/>
       <c r="P121" s="24"/>
@@ -22911,7 +22894,7 @@
         <v>230</v>
       </c>
       <c r="AB121" s="24" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="AC121" s="24"/>
       <c r="AD121" s="24"/>
@@ -22948,7 +22931,7 @@
       <c r="L122" s="24"/>
       <c r="M122" s="24"/>
       <c r="N122" s="24" t="s">
-        <v>404</v>
+        <v>438</v>
       </c>
       <c r="O122" s="24"/>
       <c r="P122" s="24"/>
@@ -22966,7 +22949,7 @@
         <v>230</v>
       </c>
       <c r="AB122" s="24" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="AC122" s="24"/>
       <c r="AD122" s="24"/>
@@ -23003,7 +22986,7 @@
       <c r="L123" s="24"/>
       <c r="M123" s="24"/>
       <c r="N123" s="24" t="s">
-        <v>405</v>
+        <v>439</v>
       </c>
       <c r="O123" s="24"/>
       <c r="P123" s="24"/>
@@ -23021,7 +23004,7 @@
         <v>230</v>
       </c>
       <c r="AB123" s="24" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="AC123" s="24"/>
       <c r="AD123" s="24"/>
@@ -23058,7 +23041,7 @@
       <c r="L124" s="24"/>
       <c r="M124" s="24"/>
       <c r="N124" s="24" t="s">
-        <v>406</v>
+        <v>440</v>
       </c>
       <c r="O124" s="24"/>
       <c r="P124" s="24"/>
@@ -23076,7 +23059,7 @@
         <v>230</v>
       </c>
       <c r="AB124" s="24" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="AC124" s="24"/>
       <c r="AD124" s="24"/>
@@ -23113,7 +23096,7 @@
       <c r="L125" s="24"/>
       <c r="M125" s="24"/>
       <c r="N125" s="24" t="s">
-        <v>407</v>
+        <v>441</v>
       </c>
       <c r="O125" s="24"/>
       <c r="P125" s="24"/>
@@ -23131,7 +23114,7 @@
         <v>230</v>
       </c>
       <c r="AB125" s="24" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="AC125" s="24"/>
       <c r="AD125" s="24"/>
@@ -23219,7 +23202,7 @@
       <c r="L127" s="24"/>
       <c r="M127" s="24"/>
       <c r="N127" s="24" t="s">
-        <v>439</v>
+        <v>425</v>
       </c>
       <c r="O127" s="24"/>
       <c r="P127" s="24"/>
@@ -23237,7 +23220,7 @@
         <v>230</v>
       </c>
       <c r="AB127" s="24" t="s">
-        <v>427</v>
+        <v>413</v>
       </c>
       <c r="AC127" s="24"/>
       <c r="AD127" s="24"/>
@@ -23274,7 +23257,7 @@
       <c r="L128" s="24"/>
       <c r="M128" s="24"/>
       <c r="N128" s="24" t="s">
-        <v>555</v>
+        <v>528</v>
       </c>
       <c r="O128" s="24"/>
       <c r="P128" s="24"/>
@@ -23331,7 +23314,7 @@
       <c r="L129" s="24"/>
       <c r="M129" s="24"/>
       <c r="N129" s="24" t="s">
-        <v>440</v>
+        <v>426</v>
       </c>
       <c r="O129" s="24"/>
       <c r="P129" s="24"/>
@@ -23435,7 +23418,7 @@
       <c r="J131" s="24"/>
       <c r="K131" s="78"/>
       <c r="L131" s="24" t="s">
-        <v>391</v>
+        <v>550</v>
       </c>
       <c r="M131" s="24"/>
       <c r="N131" s="24"/>
@@ -23539,7 +23522,7 @@
       <c r="L133" s="24"/>
       <c r="M133" s="24"/>
       <c r="N133" s="24" t="s">
-        <v>402</v>
+        <v>536</v>
       </c>
       <c r="O133" s="24"/>
       <c r="P133" s="24"/>
@@ -23590,7 +23573,7 @@
       <c r="L134" s="24"/>
       <c r="M134" s="24"/>
       <c r="N134" s="24" t="s">
-        <v>507</v>
+        <v>486</v>
       </c>
       <c r="O134" s="24"/>
       <c r="P134" s="24"/>
@@ -23641,7 +23624,7 @@
       <c r="L135" s="24"/>
       <c r="M135" s="24"/>
       <c r="N135" s="24" t="s">
-        <v>508</v>
+        <v>487</v>
       </c>
       <c r="O135" s="24"/>
       <c r="P135" s="24"/>
@@ -23692,7 +23675,7 @@
       <c r="L136" s="24"/>
       <c r="M136" s="24"/>
       <c r="N136" s="24" t="s">
-        <v>509</v>
+        <v>488</v>
       </c>
       <c r="O136" s="24"/>
       <c r="P136" s="24"/>
@@ -23743,7 +23726,7 @@
       <c r="L137" s="24"/>
       <c r="M137" s="24"/>
       <c r="N137" s="24" t="s">
-        <v>510</v>
+        <v>489</v>
       </c>
       <c r="O137" s="24"/>
       <c r="P137" s="24"/>
@@ -23794,7 +23777,7 @@
       <c r="L138" s="24"/>
       <c r="M138" s="24"/>
       <c r="N138" s="125" t="s">
-        <v>511</v>
+        <v>490</v>
       </c>
       <c r="O138" s="232"/>
       <c r="P138" s="232"/>
@@ -23845,7 +23828,7 @@
       <c r="L139" s="24"/>
       <c r="M139" s="24"/>
       <c r="N139" s="125" t="s">
-        <v>512</v>
+        <v>491</v>
       </c>
       <c r="O139" s="232"/>
       <c r="P139" s="232"/>
@@ -23896,7 +23879,7 @@
       <c r="L140" s="24"/>
       <c r="M140" s="24"/>
       <c r="N140" s="24" t="s">
-        <v>513</v>
+        <v>492</v>
       </c>
       <c r="O140" s="24"/>
       <c r="P140" s="24"/>
@@ -23947,7 +23930,7 @@
       <c r="L141" s="24"/>
       <c r="M141" s="24"/>
       <c r="N141" s="24" t="s">
-        <v>413</v>
+        <v>399</v>
       </c>
       <c r="O141" s="24"/>
       <c r="P141" s="24"/>
@@ -23998,7 +23981,7 @@
       <c r="L142" s="24"/>
       <c r="M142" s="24"/>
       <c r="N142" s="24" t="s">
-        <v>445</v>
+        <v>431</v>
       </c>
       <c r="O142" s="24"/>
       <c r="P142" s="24"/>
@@ -24049,7 +24032,7 @@
       <c r="L143" s="24"/>
       <c r="M143" s="24"/>
       <c r="N143" s="24" t="s">
-        <v>446</v>
+        <v>432</v>
       </c>
       <c r="O143" s="24"/>
       <c r="P143" s="24"/>
@@ -24100,7 +24083,7 @@
       <c r="L144" s="24"/>
       <c r="M144" s="24"/>
       <c r="N144" s="24" t="s">
-        <v>462</v>
+        <v>446</v>
       </c>
       <c r="O144" s="24"/>
       <c r="P144" s="24"/>
@@ -24151,7 +24134,7 @@
       <c r="L145" s="24"/>
       <c r="M145" s="24"/>
       <c r="N145" s="24" t="s">
-        <v>463</v>
+        <v>447</v>
       </c>
       <c r="O145" s="24"/>
       <c r="P145" s="24"/>
@@ -24202,7 +24185,7 @@
       <c r="L146" s="125"/>
       <c r="M146" s="79"/>
       <c r="N146" s="79" t="s">
-        <v>480</v>
+        <v>460</v>
       </c>
       <c r="O146" s="79"/>
       <c r="P146" s="79"/>
@@ -24256,7 +24239,7 @@
       <c r="O147" s="79"/>
       <c r="P147" s="79"/>
       <c r="Q147" s="79" t="s">
-        <v>481</v>
+        <v>461</v>
       </c>
       <c r="R147" s="79"/>
       <c r="S147" s="79"/>
@@ -24307,7 +24290,7 @@
       <c r="O148" s="79"/>
       <c r="P148" s="79"/>
       <c r="Q148" s="79" t="s">
-        <v>482</v>
+        <v>462</v>
       </c>
       <c r="R148" s="79"/>
       <c r="S148" s="79"/>
@@ -24358,7 +24341,7 @@
       <c r="O149" s="79"/>
       <c r="P149" s="79"/>
       <c r="Q149" s="79" t="s">
-        <v>483</v>
+        <v>463</v>
       </c>
       <c r="R149" s="79"/>
       <c r="S149" s="79"/>
@@ -24409,7 +24392,7 @@
       <c r="O150" s="79"/>
       <c r="P150" s="79"/>
       <c r="Q150" s="79" t="s">
-        <v>485</v>
+        <v>465</v>
       </c>
       <c r="R150" s="79"/>
       <c r="S150" s="79"/>
@@ -24460,7 +24443,7 @@
       <c r="O151" s="79"/>
       <c r="P151" s="79"/>
       <c r="Q151" s="79" t="s">
-        <v>484</v>
+        <v>464</v>
       </c>
       <c r="R151" s="79"/>
       <c r="S151" s="79"/>
@@ -24661,7 +24644,7 @@
       <c r="L155" s="24"/>
       <c r="M155" s="24"/>
       <c r="N155" s="24" t="s">
-        <v>401</v>
+        <v>535</v>
       </c>
       <c r="O155" s="24"/>
       <c r="P155" s="24"/>
@@ -24712,7 +24695,7 @@
       <c r="L156" s="24"/>
       <c r="M156" s="24"/>
       <c r="N156" s="24" t="s">
-        <v>496</v>
+        <v>476</v>
       </c>
       <c r="O156" s="24"/>
       <c r="P156" s="24"/>
@@ -24763,7 +24746,7 @@
       <c r="L157" s="24"/>
       <c r="M157" s="24"/>
       <c r="N157" s="24" t="s">
-        <v>409</v>
+        <v>539</v>
       </c>
       <c r="O157" s="24"/>
       <c r="P157" s="24"/>
@@ -24781,7 +24764,7 @@
         <v>230</v>
       </c>
       <c r="AB157" s="24" t="s">
-        <v>497</v>
+        <v>477</v>
       </c>
       <c r="AC157" s="24"/>
       <c r="AD157" s="24"/>
@@ -24818,7 +24801,7 @@
       <c r="L158" s="24"/>
       <c r="M158" s="24"/>
       <c r="N158" s="24" t="s">
-        <v>410</v>
+        <v>540</v>
       </c>
       <c r="O158" s="24"/>
       <c r="P158" s="24"/>
@@ -24836,7 +24819,7 @@
         <v>230</v>
       </c>
       <c r="AB158" s="24" t="s">
-        <v>498</v>
+        <v>478</v>
       </c>
       <c r="AC158" s="24"/>
       <c r="AD158" s="24"/>
@@ -24873,7 +24856,7 @@
       <c r="L159" s="24"/>
       <c r="M159" s="24"/>
       <c r="N159" s="24" t="s">
-        <v>411</v>
+        <v>541</v>
       </c>
       <c r="O159" s="24"/>
       <c r="P159" s="24"/>
@@ -24891,7 +24874,7 @@
         <v>230</v>
       </c>
       <c r="AB159" s="24" t="s">
-        <v>499</v>
+        <v>479</v>
       </c>
       <c r="AC159" s="24"/>
       <c r="AD159" s="24"/>
@@ -24928,7 +24911,7 @@
       <c r="L160" s="24"/>
       <c r="M160" s="24"/>
       <c r="N160" s="24" t="s">
-        <v>404</v>
+        <v>542</v>
       </c>
       <c r="O160" s="24"/>
       <c r="P160" s="24"/>
@@ -24946,7 +24929,7 @@
         <v>230</v>
       </c>
       <c r="AB160" s="24" t="s">
-        <v>500</v>
+        <v>480</v>
       </c>
       <c r="AC160" s="24"/>
       <c r="AD160" s="24"/>
@@ -24983,7 +24966,7 @@
       <c r="L161" s="24"/>
       <c r="M161" s="24"/>
       <c r="N161" s="24" t="s">
-        <v>405</v>
+        <v>543</v>
       </c>
       <c r="O161" s="24"/>
       <c r="P161" s="24"/>
@@ -25001,7 +24984,7 @@
         <v>230</v>
       </c>
       <c r="AB161" s="24" t="s">
-        <v>501</v>
+        <v>481</v>
       </c>
       <c r="AC161" s="24"/>
       <c r="AD161" s="24"/>
@@ -25038,7 +25021,7 @@
       <c r="L162" s="24"/>
       <c r="M162" s="24"/>
       <c r="N162" s="24" t="s">
-        <v>406</v>
+        <v>544</v>
       </c>
       <c r="O162" s="24"/>
       <c r="P162" s="24"/>
@@ -25056,7 +25039,7 @@
         <v>230</v>
       </c>
       <c r="AB162" s="24" t="s">
-        <v>502</v>
+        <v>482</v>
       </c>
       <c r="AC162" s="24"/>
       <c r="AD162" s="24"/>
@@ -25093,7 +25076,7 @@
       <c r="L163" s="24"/>
       <c r="M163" s="24"/>
       <c r="N163" s="24" t="s">
-        <v>407</v>
+        <v>545</v>
       </c>
       <c r="O163" s="24"/>
       <c r="P163" s="24"/>
@@ -25111,7 +25094,7 @@
         <v>230</v>
       </c>
       <c r="AB163" s="24" t="s">
-        <v>503</v>
+        <v>483</v>
       </c>
       <c r="AC163" s="24"/>
       <c r="AD163" s="24"/>
@@ -25148,7 +25131,7 @@
       <c r="L164" s="24"/>
       <c r="M164" s="24"/>
       <c r="N164" s="24" t="s">
-        <v>447</v>
+        <v>433</v>
       </c>
       <c r="O164" s="24"/>
       <c r="P164" s="24"/>
@@ -25199,7 +25182,7 @@
       <c r="L165" s="24"/>
       <c r="M165" s="24"/>
       <c r="N165" s="24" t="s">
-        <v>409</v>
+        <v>539</v>
       </c>
       <c r="O165" s="24"/>
       <c r="P165" s="24"/>
@@ -25217,7 +25200,7 @@
         <v>230</v>
       </c>
       <c r="AB165" s="24" t="s">
-        <v>448</v>
+        <v>434</v>
       </c>
       <c r="AC165" s="24"/>
       <c r="AD165" s="24"/>
@@ -25254,7 +25237,7 @@
       <c r="L166" s="24"/>
       <c r="M166" s="24"/>
       <c r="N166" s="24" t="s">
-        <v>536</v>
+        <v>549</v>
       </c>
       <c r="O166" s="24"/>
       <c r="P166" s="24"/>
@@ -25272,7 +25255,7 @@
         <v>230</v>
       </c>
       <c r="AB166" s="24" t="s">
-        <v>449</v>
+        <v>435</v>
       </c>
       <c r="AC166" s="24"/>
       <c r="AD166" s="24"/>
@@ -25309,7 +25292,7 @@
       <c r="L167" s="24"/>
       <c r="M167" s="24"/>
       <c r="N167" s="24" t="s">
-        <v>459</v>
+        <v>443</v>
       </c>
       <c r="O167" s="24"/>
       <c r="P167" s="24"/>
@@ -25360,7 +25343,7 @@
       <c r="L168" s="24"/>
       <c r="M168" s="24"/>
       <c r="N168" s="24" t="s">
-        <v>409</v>
+        <v>539</v>
       </c>
       <c r="O168" s="24"/>
       <c r="P168" s="24"/>
@@ -25378,7 +25361,7 @@
         <v>230</v>
       </c>
       <c r="AB168" s="24" t="s">
-        <v>460</v>
+        <v>444</v>
       </c>
       <c r="AC168" s="24"/>
       <c r="AD168" s="24"/>
@@ -25415,7 +25398,7 @@
       <c r="L169" s="24"/>
       <c r="M169" s="24"/>
       <c r="N169" s="24" t="s">
-        <v>536</v>
+        <v>549</v>
       </c>
       <c r="O169" s="24"/>
       <c r="P169" s="24"/>
@@ -25433,7 +25416,7 @@
         <v>230</v>
       </c>
       <c r="AB169" s="24" t="s">
-        <v>461</v>
+        <v>445</v>
       </c>
       <c r="AC169" s="24"/>
       <c r="AD169" s="24"/>
@@ -25470,7 +25453,7 @@
       <c r="L170" s="24"/>
       <c r="M170" s="24"/>
       <c r="N170" s="24" t="s">
-        <v>464</v>
+        <v>448</v>
       </c>
       <c r="O170" s="24"/>
       <c r="P170" s="24"/>
@@ -25521,7 +25504,7 @@
       <c r="L171" s="24"/>
       <c r="M171" s="24"/>
       <c r="N171" s="24" t="s">
-        <v>409</v>
+        <v>539</v>
       </c>
       <c r="O171" s="24"/>
       <c r="P171" s="24"/>
@@ -25539,7 +25522,7 @@
         <v>230</v>
       </c>
       <c r="AB171" s="24" t="s">
-        <v>465</v>
+        <v>449</v>
       </c>
       <c r="AC171" s="24"/>
       <c r="AD171" s="24"/>
@@ -25576,7 +25559,7 @@
       <c r="L172" s="24"/>
       <c r="M172" s="24"/>
       <c r="N172" s="24" t="s">
-        <v>536</v>
+        <v>549</v>
       </c>
       <c r="O172" s="24"/>
       <c r="P172" s="24"/>
@@ -25594,7 +25577,7 @@
         <v>230</v>
       </c>
       <c r="AB172" s="24" t="s">
-        <v>466</v>
+        <v>450</v>
       </c>
       <c r="AC172" s="24"/>
       <c r="AD172" s="24"/>
@@ -25631,7 +25614,7 @@
       <c r="L173" s="24"/>
       <c r="M173" s="24"/>
       <c r="N173" s="24" t="s">
-        <v>467</v>
+        <v>451</v>
       </c>
       <c r="O173" s="24"/>
       <c r="P173" s="24"/>
@@ -25682,7 +25665,7 @@
       <c r="L174" s="24"/>
       <c r="M174" s="24"/>
       <c r="N174" s="24" t="s">
-        <v>409</v>
+        <v>539</v>
       </c>
       <c r="O174" s="24"/>
       <c r="P174" s="24"/>
@@ -25700,7 +25683,7 @@
         <v>230</v>
       </c>
       <c r="AB174" s="24" t="s">
-        <v>468</v>
+        <v>452</v>
       </c>
       <c r="AC174" s="24"/>
       <c r="AD174" s="24"/>
@@ -25737,7 +25720,7 @@
       <c r="L175" s="24"/>
       <c r="M175" s="24"/>
       <c r="N175" s="24" t="s">
-        <v>536</v>
+        <v>549</v>
       </c>
       <c r="O175" s="24"/>
       <c r="P175" s="24"/>
@@ -25755,7 +25738,7 @@
         <v>230</v>
       </c>
       <c r="AB175" s="24" t="s">
-        <v>469</v>
+        <v>453</v>
       </c>
       <c r="AC175" s="24"/>
       <c r="AD175" s="24"/>
@@ -25843,7 +25826,7 @@
       <c r="L177" s="24"/>
       <c r="M177" s="24"/>
       <c r="N177" s="24" t="s">
-        <v>533</v>
+        <v>546</v>
       </c>
       <c r="O177" s="24"/>
       <c r="P177" s="24"/>
@@ -25900,7 +25883,7 @@
       <c r="L178" s="24"/>
       <c r="M178" s="24"/>
       <c r="N178" s="24" t="s">
-        <v>537</v>
+        <v>547</v>
       </c>
       <c r="O178" s="24"/>
       <c r="P178" s="24"/>
@@ -25957,7 +25940,7 @@
       <c r="L179" s="24"/>
       <c r="M179" s="24"/>
       <c r="N179" s="24" t="s">
-        <v>534</v>
+        <v>548</v>
       </c>
       <c r="O179" s="24"/>
       <c r="P179" s="24"/>
@@ -26014,7 +25997,7 @@
       <c r="L180" s="24"/>
       <c r="M180" s="24"/>
       <c r="N180" s="24" t="s">
-        <v>506</v>
+        <v>485</v>
       </c>
       <c r="O180" s="24"/>
       <c r="P180" s="24"/>
@@ -26032,7 +26015,7 @@
         <v>230</v>
       </c>
       <c r="AB180" s="24" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="AC180" s="24"/>
       <c r="AD180" s="24"/>
@@ -26069,7 +26052,7 @@
       <c r="L181" s="24"/>
       <c r="M181" s="24"/>
       <c r="N181" s="24" t="s">
-        <v>491</v>
+        <v>471</v>
       </c>
       <c r="O181" s="24"/>
       <c r="P181" s="24"/>
@@ -26087,7 +26070,7 @@
         <v>230</v>
       </c>
       <c r="AB181" s="24" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="AC181" s="24"/>
       <c r="AD181" s="24"/>
@@ -26124,7 +26107,7 @@
       <c r="L182" s="24"/>
       <c r="M182" s="24"/>
       <c r="N182" s="24" t="s">
-        <v>456</v>
+        <v>442</v>
       </c>
       <c r="O182" s="24"/>
       <c r="P182" s="24"/>
@@ -26142,7 +26125,7 @@
         <v>230</v>
       </c>
       <c r="AB182" s="230" t="s">
-        <v>457</v>
+        <v>552</v>
       </c>
       <c r="AC182" s="24"/>
       <c r="AD182" s="24"/>
@@ -26179,7 +26162,7 @@
       <c r="L183" s="24"/>
       <c r="M183" s="24"/>
       <c r="N183" s="24" t="s">
-        <v>494</v>
+        <v>474</v>
       </c>
       <c r="O183" s="24"/>
       <c r="P183" s="24"/>
@@ -26197,7 +26180,7 @@
         <v>230</v>
       </c>
       <c r="AB183" s="24" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="AC183" s="24"/>
       <c r="AD183" s="24"/>
@@ -26234,7 +26217,7 @@
       <c r="L184" s="24"/>
       <c r="M184" s="24"/>
       <c r="N184" s="24" t="s">
-        <v>473</v>
+        <v>455</v>
       </c>
       <c r="O184" s="24"/>
       <c r="P184" s="24"/>
@@ -26252,7 +26235,7 @@
         <v>230</v>
       </c>
       <c r="AB184" s="230" t="s">
-        <v>458</v>
+        <v>553</v>
       </c>
       <c r="AC184" s="24"/>
       <c r="AD184" s="24"/>
@@ -26289,7 +26272,7 @@
       <c r="L185" s="24"/>
       <c r="M185" s="24"/>
       <c r="N185" s="24" t="s">
-        <v>493</v>
+        <v>473</v>
       </c>
       <c r="O185" s="24"/>
       <c r="P185" s="24"/>
@@ -26307,7 +26290,7 @@
         <v>230</v>
       </c>
       <c r="AB185" s="24" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="AC185" s="24"/>
       <c r="AD185" s="24"/>
@@ -26344,7 +26327,7 @@
       <c r="L186" s="24"/>
       <c r="M186" s="24"/>
       <c r="N186" s="24" t="s">
-        <v>474</v>
+        <v>456</v>
       </c>
       <c r="O186" s="24"/>
       <c r="P186" s="24"/>
@@ -26362,7 +26345,7 @@
         <v>230</v>
       </c>
       <c r="AB186" s="230" t="s">
-        <v>470</v>
+        <v>554</v>
       </c>
       <c r="AC186" s="24"/>
       <c r="AD186" s="24"/>
@@ -26399,7 +26382,7 @@
       <c r="L187" s="24"/>
       <c r="M187" s="24"/>
       <c r="N187" s="24" t="s">
-        <v>492</v>
+        <v>472</v>
       </c>
       <c r="O187" s="24"/>
       <c r="P187" s="24"/>
@@ -26417,7 +26400,7 @@
         <v>230</v>
       </c>
       <c r="AB187" s="24" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="AC187" s="24"/>
       <c r="AD187" s="24"/>
@@ -26454,7 +26437,7 @@
       <c r="L188" s="24"/>
       <c r="M188" s="24"/>
       <c r="N188" s="24" t="s">
-        <v>475</v>
+        <v>457</v>
       </c>
       <c r="O188" s="24"/>
       <c r="P188" s="24"/>
@@ -26472,7 +26455,7 @@
         <v>230</v>
       </c>
       <c r="AB188" s="230" t="s">
-        <v>471</v>
+        <v>555</v>
       </c>
       <c r="AC188" s="24"/>
       <c r="AD188" s="24"/>
@@ -26560,7 +26543,7 @@
       <c r="L190" s="24"/>
       <c r="M190" s="24"/>
       <c r="N190" s="125" t="s">
-        <v>428</v>
+        <v>414</v>
       </c>
       <c r="O190" s="125"/>
       <c r="P190" s="125"/>
@@ -26662,7 +26645,7 @@
       <c r="L192" s="125"/>
       <c r="M192" s="79"/>
       <c r="N192" s="125" t="s">
-        <v>402</v>
+        <v>536</v>
       </c>
       <c r="O192" s="125"/>
       <c r="P192" s="125"/>
@@ -26755,14 +26738,14 @@
       <c r="E194" s="125"/>
       <c r="F194" s="126"/>
       <c r="G194" s="127" t="s">
-        <v>486</v>
+        <v>466</v>
       </c>
       <c r="H194" s="128"/>
       <c r="I194" s="128"/>
       <c r="J194" s="128"/>
       <c r="K194" s="129"/>
       <c r="L194" s="128" t="s">
-        <v>539</v>
+        <v>535</v>
       </c>
       <c r="M194" s="130"/>
       <c r="N194" s="130"/>
@@ -26808,7 +26791,7 @@
       <c r="E195" s="24"/>
       <c r="F195" s="78"/>
       <c r="G195" s="238" t="s">
-        <v>489</v>
+        <v>469</v>
       </c>
       <c r="H195" s="237"/>
       <c r="I195" s="237"/>
@@ -26868,7 +26851,7 @@
       <c r="L196" s="24"/>
       <c r="M196" s="24"/>
       <c r="N196" s="24" t="s">
-        <v>431</v>
+        <v>417</v>
       </c>
       <c r="O196" s="24"/>
       <c r="P196" s="24"/>
@@ -26919,7 +26902,7 @@
       <c r="L197" s="24"/>
       <c r="M197" s="24"/>
       <c r="N197" s="24" t="s">
-        <v>432</v>
+        <v>418</v>
       </c>
       <c r="O197" s="24"/>
       <c r="P197" s="24"/>
@@ -26970,7 +26953,7 @@
       <c r="L198" s="24"/>
       <c r="M198" s="24"/>
       <c r="N198" s="24" t="s">
-        <v>433</v>
+        <v>419</v>
       </c>
       <c r="O198" s="24"/>
       <c r="P198" s="24"/>
@@ -27021,7 +27004,7 @@
       <c r="L199" s="24"/>
       <c r="M199" s="24"/>
       <c r="N199" s="24" t="s">
-        <v>541</v>
+        <v>514</v>
       </c>
       <c r="O199" s="24"/>
       <c r="P199" s="24"/>
@@ -27072,7 +27055,7 @@
       <c r="L200" s="24"/>
       <c r="M200" s="24"/>
       <c r="N200" s="24" t="s">
-        <v>435</v>
+        <v>421</v>
       </c>
       <c r="O200" s="24"/>
       <c r="P200" s="24"/>
@@ -27123,7 +27106,7 @@
       <c r="L201" s="24"/>
       <c r="M201" s="24"/>
       <c r="N201" s="24" t="s">
-        <v>436</v>
+        <v>422</v>
       </c>
       <c r="O201" s="24"/>
       <c r="P201" s="24"/>
@@ -27174,7 +27157,7 @@
       <c r="L202" s="24"/>
       <c r="M202" s="24"/>
       <c r="N202" s="24" t="s">
-        <v>476</v>
+        <v>458</v>
       </c>
       <c r="O202" s="24"/>
       <c r="P202" s="24"/>
@@ -27225,7 +27208,7 @@
       <c r="L203" s="24"/>
       <c r="M203" s="24"/>
       <c r="N203" s="24" t="s">
-        <v>477</v>
+        <v>459</v>
       </c>
       <c r="O203" s="24"/>
       <c r="P203" s="24"/>
@@ -27276,7 +27259,7 @@
       <c r="L204" s="24"/>
       <c r="M204" s="24"/>
       <c r="N204" s="24" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="O204" s="24"/>
       <c r="P204" s="24"/>
@@ -27327,7 +27310,7 @@
       <c r="L205" s="24"/>
       <c r="M205" s="24"/>
       <c r="N205" s="24" t="s">
-        <v>531</v>
+        <v>509</v>
       </c>
       <c r="O205" s="24"/>
       <c r="P205" s="24"/>
@@ -27378,7 +27361,7 @@
       <c r="L206" s="24"/>
       <c r="M206" s="24"/>
       <c r="N206" s="24" t="s">
-        <v>532</v>
+        <v>510</v>
       </c>
       <c r="O206" s="24"/>
       <c r="P206" s="24"/>
@@ -27480,7 +27463,7 @@
       <c r="L208" s="24"/>
       <c r="M208" s="24"/>
       <c r="N208" s="24" t="s">
-        <v>444</v>
+        <v>430</v>
       </c>
       <c r="O208" s="24"/>
       <c r="P208" s="24"/>
@@ -27531,7 +27514,7 @@
       <c r="L209" s="24"/>
       <c r="M209" s="24"/>
       <c r="N209" s="24" t="s">
-        <v>496</v>
+        <v>476</v>
       </c>
       <c r="O209" s="24"/>
       <c r="P209" s="24"/>
@@ -27582,7 +27565,7 @@
       <c r="L210" s="24"/>
       <c r="M210" s="24"/>
       <c r="N210" s="24" t="s">
-        <v>450</v>
+        <v>436</v>
       </c>
       <c r="O210" s="24"/>
       <c r="P210" s="24"/>
@@ -27600,7 +27583,7 @@
         <v>230</v>
       </c>
       <c r="AB210" s="24" t="s">
-        <v>497</v>
+        <v>477</v>
       </c>
       <c r="AC210" s="24"/>
       <c r="AD210" s="24"/>
@@ -27637,7 +27620,7 @@
       <c r="L211" s="24"/>
       <c r="M211" s="24"/>
       <c r="N211" s="24" t="s">
-        <v>438</v>
+        <v>424</v>
       </c>
       <c r="O211" s="24"/>
       <c r="P211" s="24"/>
@@ -27655,7 +27638,7 @@
         <v>230</v>
       </c>
       <c r="AB211" s="24" t="s">
-        <v>498</v>
+        <v>478</v>
       </c>
       <c r="AC211" s="24"/>
       <c r="AD211" s="24"/>
@@ -27692,7 +27675,7 @@
       <c r="L212" s="24"/>
       <c r="M212" s="24"/>
       <c r="N212" s="24" t="s">
-        <v>451</v>
+        <v>437</v>
       </c>
       <c r="O212" s="24"/>
       <c r="P212" s="24"/>
@@ -27710,7 +27693,7 @@
         <v>230</v>
       </c>
       <c r="AB212" s="24" t="s">
-        <v>499</v>
+        <v>479</v>
       </c>
       <c r="AC212" s="24"/>
       <c r="AD212" s="24"/>
@@ -27747,7 +27730,7 @@
       <c r="L213" s="24"/>
       <c r="M213" s="24"/>
       <c r="N213" s="24" t="s">
-        <v>452</v>
+        <v>438</v>
       </c>
       <c r="O213" s="24"/>
       <c r="P213" s="24"/>
@@ -27765,7 +27748,7 @@
         <v>230</v>
       </c>
       <c r="AB213" s="24" t="s">
-        <v>500</v>
+        <v>480</v>
       </c>
       <c r="AC213" s="24"/>
       <c r="AD213" s="24"/>
@@ -27802,7 +27785,7 @@
       <c r="L214" s="24"/>
       <c r="M214" s="24"/>
       <c r="N214" s="24" t="s">
-        <v>453</v>
+        <v>439</v>
       </c>
       <c r="O214" s="24"/>
       <c r="P214" s="24"/>
@@ -27820,7 +27803,7 @@
         <v>230</v>
       </c>
       <c r="AB214" s="24" t="s">
-        <v>501</v>
+        <v>481</v>
       </c>
       <c r="AC214" s="24"/>
       <c r="AD214" s="24"/>
@@ -27857,7 +27840,7 @@
       <c r="L215" s="24"/>
       <c r="M215" s="24"/>
       <c r="N215" s="24" t="s">
-        <v>454</v>
+        <v>440</v>
       </c>
       <c r="O215" s="24"/>
       <c r="P215" s="24"/>
@@ -27875,7 +27858,7 @@
         <v>230</v>
       </c>
       <c r="AB215" s="24" t="s">
-        <v>502</v>
+        <v>482</v>
       </c>
       <c r="AC215" s="24"/>
       <c r="AD215" s="24"/>
@@ -27912,7 +27895,7 @@
       <c r="L216" s="24"/>
       <c r="M216" s="24"/>
       <c r="N216" s="24" t="s">
-        <v>455</v>
+        <v>441</v>
       </c>
       <c r="O216" s="24"/>
       <c r="P216" s="24"/>
@@ -27930,7 +27913,7 @@
         <v>230</v>
       </c>
       <c r="AB216" s="24" t="s">
-        <v>503</v>
+        <v>483</v>
       </c>
       <c r="AC216" s="24"/>
       <c r="AD216" s="24"/>
@@ -27967,7 +27950,7 @@
       <c r="L217" s="24"/>
       <c r="M217" s="24"/>
       <c r="N217" s="24" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="O217" s="24"/>
       <c r="P217" s="24"/>
@@ -28018,7 +28001,7 @@
       <c r="L218" s="24"/>
       <c r="M218" s="24"/>
       <c r="N218" s="24" t="s">
-        <v>403</v>
+        <v>534</v>
       </c>
       <c r="O218" s="24"/>
       <c r="P218" s="24"/>
@@ -28036,7 +28019,7 @@
         <v>230</v>
       </c>
       <c r="AB218" s="24" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="AC218" s="24"/>
       <c r="AD218" s="24"/>
@@ -28073,7 +28056,7 @@
       <c r="L219" s="24"/>
       <c r="M219" s="24"/>
       <c r="N219" s="24" t="s">
-        <v>404</v>
+        <v>438</v>
       </c>
       <c r="O219" s="24"/>
       <c r="P219" s="24"/>
@@ -28091,7 +28074,7 @@
         <v>230</v>
       </c>
       <c r="AB219" s="24" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="AC219" s="24"/>
       <c r="AD219" s="24"/>
@@ -28128,7 +28111,7 @@
       <c r="L220" s="24"/>
       <c r="M220" s="24"/>
       <c r="N220" s="24" t="s">
-        <v>405</v>
+        <v>439</v>
       </c>
       <c r="O220" s="24"/>
       <c r="P220" s="24"/>
@@ -28146,7 +28129,7 @@
         <v>230</v>
       </c>
       <c r="AB220" s="24" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="AC220" s="24"/>
       <c r="AD220" s="24"/>
@@ -28183,7 +28166,7 @@
       <c r="L221" s="24"/>
       <c r="M221" s="24"/>
       <c r="N221" s="24" t="s">
-        <v>406</v>
+        <v>440</v>
       </c>
       <c r="O221" s="24"/>
       <c r="P221" s="24"/>
@@ -28201,7 +28184,7 @@
         <v>230</v>
       </c>
       <c r="AB221" s="24" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="AC221" s="24"/>
       <c r="AD221" s="24"/>
@@ -28238,7 +28221,7 @@
       <c r="L222" s="24"/>
       <c r="M222" s="24"/>
       <c r="N222" s="24" t="s">
-        <v>407</v>
+        <v>441</v>
       </c>
       <c r="O222" s="24"/>
       <c r="P222" s="24"/>
@@ -28256,7 +28239,7 @@
         <v>230</v>
       </c>
       <c r="AB222" s="24" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="AC222" s="24"/>
       <c r="AD222" s="24"/>
@@ -28344,7 +28327,7 @@
       <c r="L224" s="24"/>
       <c r="M224" s="24"/>
       <c r="N224" s="24" t="s">
-        <v>504</v>
+        <v>484</v>
       </c>
       <c r="O224" s="24"/>
       <c r="P224" s="24"/>
@@ -28362,7 +28345,7 @@
         <v>230</v>
       </c>
       <c r="AB224" s="24" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="AC224" s="24"/>
       <c r="AD224" s="24"/>
@@ -28399,7 +28382,7 @@
       <c r="L225" s="24"/>
       <c r="M225" s="24"/>
       <c r="N225" s="24" t="s">
-        <v>439</v>
+        <v>425</v>
       </c>
       <c r="O225" s="24"/>
       <c r="P225" s="24"/>
@@ -28417,7 +28400,7 @@
         <v>230</v>
       </c>
       <c r="AB225" s="24" t="s">
-        <v>427</v>
+        <v>413</v>
       </c>
       <c r="AC225" s="24"/>
       <c r="AD225" s="24"/>
@@ -28454,7 +28437,7 @@
       <c r="L226" s="24"/>
       <c r="M226" s="24"/>
       <c r="N226" s="24" t="s">
-        <v>555</v>
+        <v>528</v>
       </c>
       <c r="O226" s="24"/>
       <c r="P226" s="24"/>
@@ -28511,7 +28494,7 @@
       <c r="L227" s="24"/>
       <c r="M227" s="24"/>
       <c r="N227" s="24" t="s">
-        <v>440</v>
+        <v>426</v>
       </c>
       <c r="O227" s="24"/>
       <c r="P227" s="24"/>
@@ -28615,7 +28598,7 @@
       <c r="J229" s="24"/>
       <c r="K229" s="78"/>
       <c r="L229" s="24" t="s">
-        <v>391</v>
+        <v>550</v>
       </c>
       <c r="M229" s="24"/>
       <c r="N229" s="24"/>
@@ -28719,7 +28702,7 @@
       <c r="L231" s="24"/>
       <c r="M231" s="24"/>
       <c r="N231" s="24" t="s">
-        <v>402</v>
+        <v>536</v>
       </c>
       <c r="O231" s="24"/>
       <c r="P231" s="24"/>
@@ -28770,7 +28753,7 @@
       <c r="L232" s="24"/>
       <c r="M232" s="24"/>
       <c r="N232" s="24" t="s">
-        <v>530</v>
+        <v>537</v>
       </c>
       <c r="O232" s="24"/>
       <c r="P232" s="24"/>
@@ -28821,7 +28804,7 @@
       <c r="L233" s="24"/>
       <c r="M233" s="24"/>
       <c r="N233" s="24" t="s">
-        <v>518</v>
+        <v>497</v>
       </c>
       <c r="O233" s="24"/>
       <c r="P233" s="24"/>
@@ -28872,7 +28855,7 @@
       <c r="L234" s="24"/>
       <c r="M234" s="24"/>
       <c r="N234" s="24" t="s">
-        <v>514</v>
+        <v>493</v>
       </c>
       <c r="O234" s="24"/>
       <c r="P234" s="24"/>
@@ -28923,7 +28906,7 @@
       <c r="L235" s="24"/>
       <c r="M235" s="24"/>
       <c r="N235" s="24" t="s">
-        <v>517</v>
+        <v>496</v>
       </c>
       <c r="O235" s="24"/>
       <c r="P235" s="24"/>
@@ -28974,7 +28957,7 @@
       <c r="L236" s="24"/>
       <c r="M236" s="24"/>
       <c r="N236" s="24" t="s">
-        <v>515</v>
+        <v>494</v>
       </c>
       <c r="O236" s="24"/>
       <c r="P236" s="24"/>
@@ -29025,7 +29008,7 @@
       <c r="L237" s="24"/>
       <c r="M237" s="24"/>
       <c r="N237" s="24" t="s">
-        <v>413</v>
+        <v>399</v>
       </c>
       <c r="O237" s="24"/>
       <c r="P237" s="24"/>
@@ -29076,7 +29059,7 @@
       <c r="L238" s="24"/>
       <c r="M238" s="24"/>
       <c r="N238" s="24" t="s">
-        <v>516</v>
+        <v>495</v>
       </c>
       <c r="O238" s="24"/>
       <c r="P238" s="24"/>
@@ -29127,7 +29110,7 @@
       <c r="L239" s="24"/>
       <c r="M239" s="24"/>
       <c r="N239" s="24" t="s">
-        <v>490</v>
+        <v>470</v>
       </c>
       <c r="O239" s="24"/>
       <c r="P239" s="24"/>
@@ -29178,7 +29161,7 @@
       <c r="L240" s="125"/>
       <c r="M240" s="79"/>
       <c r="N240" s="79" t="s">
-        <v>495</v>
+        <v>475</v>
       </c>
       <c r="O240" s="79"/>
       <c r="P240" s="79"/>
@@ -29232,7 +29215,7 @@
       <c r="O241" s="79"/>
       <c r="P241" s="79"/>
       <c r="Q241" s="79" t="s">
-        <v>425</v>
+        <v>411</v>
       </c>
       <c r="R241" s="79"/>
       <c r="S241" s="79"/>
@@ -29433,7 +29416,7 @@
       <c r="L245" s="24"/>
       <c r="M245" s="24"/>
       <c r="N245" s="24" t="s">
-        <v>401</v>
+        <v>535</v>
       </c>
       <c r="O245" s="24"/>
       <c r="P245" s="24"/>
@@ -29484,7 +29467,7 @@
       <c r="L246" s="24"/>
       <c r="M246" s="24"/>
       <c r="N246" s="24" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="O246" s="24"/>
       <c r="P246" s="24"/>
@@ -29535,7 +29518,7 @@
       <c r="L247" s="24"/>
       <c r="M247" s="24"/>
       <c r="N247" s="24" t="s">
-        <v>409</v>
+        <v>539</v>
       </c>
       <c r="O247" s="24"/>
       <c r="P247" s="24"/>
@@ -29553,7 +29536,7 @@
         <v>230</v>
       </c>
       <c r="AB247" s="24" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="AC247" s="24"/>
       <c r="AD247" s="24"/>
@@ -29590,7 +29573,7 @@
       <c r="L248" s="24"/>
       <c r="M248" s="24"/>
       <c r="N248" s="24" t="s">
-        <v>410</v>
+        <v>540</v>
       </c>
       <c r="O248" s="24"/>
       <c r="P248" s="24"/>
@@ -29608,7 +29591,7 @@
         <v>230</v>
       </c>
       <c r="AB248" s="24" t="s">
-        <v>395</v>
+        <v>392</v>
       </c>
       <c r="AC248" s="24"/>
       <c r="AD248" s="24"/>
@@ -29645,7 +29628,7 @@
       <c r="L249" s="24"/>
       <c r="M249" s="24"/>
       <c r="N249" s="24" t="s">
-        <v>411</v>
+        <v>541</v>
       </c>
       <c r="O249" s="24"/>
       <c r="P249" s="24"/>
@@ -29663,7 +29646,7 @@
         <v>230</v>
       </c>
       <c r="AB249" s="24" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
       <c r="AC249" s="24"/>
       <c r="AD249" s="24"/>
@@ -29700,7 +29683,7 @@
       <c r="L250" s="24"/>
       <c r="M250" s="24"/>
       <c r="N250" s="24" t="s">
-        <v>404</v>
+        <v>542</v>
       </c>
       <c r="O250" s="24"/>
       <c r="P250" s="24"/>
@@ -29718,7 +29701,7 @@
         <v>230</v>
       </c>
       <c r="AB250" s="24" t="s">
-        <v>397</v>
+        <v>394</v>
       </c>
       <c r="AC250" s="24"/>
       <c r="AD250" s="24"/>
@@ -29755,7 +29738,7 @@
       <c r="L251" s="24"/>
       <c r="M251" s="24"/>
       <c r="N251" s="24" t="s">
-        <v>405</v>
+        <v>543</v>
       </c>
       <c r="O251" s="24"/>
       <c r="P251" s="24"/>
@@ -29773,7 +29756,7 @@
         <v>230</v>
       </c>
       <c r="AB251" s="24" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
       <c r="AC251" s="24"/>
       <c r="AD251" s="24"/>
@@ -29810,7 +29793,7 @@
       <c r="L252" s="24"/>
       <c r="M252" s="24"/>
       <c r="N252" s="24" t="s">
-        <v>406</v>
+        <v>544</v>
       </c>
       <c r="O252" s="24"/>
       <c r="P252" s="24"/>
@@ -29828,7 +29811,7 @@
         <v>230</v>
       </c>
       <c r="AB252" s="24" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
       <c r="AC252" s="24"/>
       <c r="AD252" s="24"/>
@@ -29865,7 +29848,7 @@
       <c r="L253" s="24"/>
       <c r="M253" s="24"/>
       <c r="N253" s="24" t="s">
-        <v>407</v>
+        <v>545</v>
       </c>
       <c r="O253" s="24"/>
       <c r="P253" s="24"/>
@@ -29883,7 +29866,7 @@
         <v>230</v>
       </c>
       <c r="AB253" s="24" t="s">
-        <v>400</v>
+        <v>397</v>
       </c>
       <c r="AC253" s="24"/>
       <c r="AD253" s="24"/>
@@ -29920,7 +29903,7 @@
       <c r="L254" s="24"/>
       <c r="M254" s="24"/>
       <c r="N254" s="24" t="s">
-        <v>414</v>
+        <v>400</v>
       </c>
       <c r="O254" s="24"/>
       <c r="P254" s="24"/>
@@ -29971,7 +29954,7 @@
       <c r="L255" s="24"/>
       <c r="M255" s="24"/>
       <c r="N255" s="24" t="s">
-        <v>409</v>
+        <v>539</v>
       </c>
       <c r="O255" s="24"/>
       <c r="P255" s="24"/>
@@ -29989,7 +29972,7 @@
         <v>230</v>
       </c>
       <c r="AB255" s="24" t="s">
-        <v>415</v>
+        <v>401</v>
       </c>
       <c r="AC255" s="24"/>
       <c r="AD255" s="24"/>
@@ -30026,7 +30009,7 @@
       <c r="L256" s="24"/>
       <c r="M256" s="24"/>
       <c r="N256" s="24" t="s">
-        <v>410</v>
+        <v>540</v>
       </c>
       <c r="O256" s="24"/>
       <c r="P256" s="24"/>
@@ -30044,7 +30027,7 @@
         <v>230</v>
       </c>
       <c r="AB256" s="24" t="s">
-        <v>416</v>
+        <v>402</v>
       </c>
       <c r="AC256" s="24"/>
       <c r="AD256" s="24"/>
@@ -30081,7 +30064,7 @@
       <c r="L257" s="24"/>
       <c r="M257" s="24"/>
       <c r="N257" s="24" t="s">
-        <v>411</v>
+        <v>541</v>
       </c>
       <c r="O257" s="24"/>
       <c r="P257" s="24"/>
@@ -30099,7 +30082,7 @@
         <v>230</v>
       </c>
       <c r="AB257" s="24" t="s">
-        <v>417</v>
+        <v>403</v>
       </c>
       <c r="AC257" s="24"/>
       <c r="AD257" s="24"/>
@@ -30136,7 +30119,7 @@
       <c r="L258" s="24"/>
       <c r="M258" s="24"/>
       <c r="N258" s="24" t="s">
-        <v>404</v>
+        <v>542</v>
       </c>
       <c r="O258" s="24"/>
       <c r="P258" s="24"/>
@@ -30154,7 +30137,7 @@
         <v>230</v>
       </c>
       <c r="AB258" s="24" t="s">
-        <v>418</v>
+        <v>404</v>
       </c>
       <c r="AC258" s="24"/>
       <c r="AD258" s="24"/>
@@ -30191,7 +30174,7 @@
       <c r="L259" s="24"/>
       <c r="M259" s="24"/>
       <c r="N259" s="24" t="s">
-        <v>405</v>
+        <v>543</v>
       </c>
       <c r="O259" s="24"/>
       <c r="P259" s="24"/>
@@ -30209,7 +30192,7 @@
         <v>230</v>
       </c>
       <c r="AB259" s="24" t="s">
-        <v>419</v>
+        <v>405</v>
       </c>
       <c r="AC259" s="24"/>
       <c r="AD259" s="24"/>
@@ -30246,7 +30229,7 @@
       <c r="L260" s="24"/>
       <c r="M260" s="24"/>
       <c r="N260" s="24" t="s">
-        <v>406</v>
+        <v>544</v>
       </c>
       <c r="O260" s="24"/>
       <c r="P260" s="24"/>
@@ -30264,7 +30247,7 @@
         <v>230</v>
       </c>
       <c r="AB260" s="24" t="s">
-        <v>420</v>
+        <v>406</v>
       </c>
       <c r="AC260" s="24"/>
       <c r="AD260" s="24"/>
@@ -30301,7 +30284,7 @@
       <c r="L261" s="24"/>
       <c r="M261" s="24"/>
       <c r="N261" s="24" t="s">
-        <v>407</v>
+        <v>545</v>
       </c>
       <c r="O261" s="24"/>
       <c r="P261" s="24"/>
@@ -30319,7 +30302,7 @@
         <v>230</v>
       </c>
       <c r="AB261" s="24" t="s">
-        <v>421</v>
+        <v>407</v>
       </c>
       <c r="AC261" s="24"/>
       <c r="AD261" s="24"/>
@@ -30407,7 +30390,7 @@
       <c r="L263" s="24"/>
       <c r="M263" s="24"/>
       <c r="N263" s="24" t="s">
-        <v>533</v>
+        <v>546</v>
       </c>
       <c r="O263" s="24"/>
       <c r="P263" s="24"/>
@@ -30464,7 +30447,7 @@
       <c r="L264" s="24"/>
       <c r="M264" s="24"/>
       <c r="N264" s="24" t="s">
-        <v>537</v>
+        <v>547</v>
       </c>
       <c r="O264" s="24"/>
       <c r="P264" s="24"/>
@@ -30521,7 +30504,7 @@
       <c r="L265" s="24"/>
       <c r="M265" s="24"/>
       <c r="N265" s="24" t="s">
-        <v>534</v>
+        <v>548</v>
       </c>
       <c r="O265" s="24"/>
       <c r="P265" s="24"/>
@@ -30578,7 +30561,7 @@
       <c r="L266" s="24"/>
       <c r="M266" s="24"/>
       <c r="N266" s="24" t="s">
-        <v>412</v>
+        <v>398</v>
       </c>
       <c r="O266" s="24"/>
       <c r="P266" s="24"/>
@@ -30593,7 +30576,7 @@
       <c r="Y266" s="24"/>
       <c r="Z266" s="24"/>
       <c r="AA266" s="24" t="s">
-        <v>422</v>
+        <v>408</v>
       </c>
       <c r="AB266" s="24"/>
       <c r="AC266" s="24"/>
@@ -30631,7 +30614,7 @@
       <c r="L267" s="24"/>
       <c r="M267" s="24"/>
       <c r="N267" s="24" t="s">
-        <v>424</v>
+        <v>410</v>
       </c>
       <c r="O267" s="24"/>
       <c r="P267" s="24"/>
@@ -30646,7 +30629,7 @@
       <c r="Y267" s="24"/>
       <c r="Z267" s="24"/>
       <c r="AA267" s="24" t="s">
-        <v>423</v>
+        <v>409</v>
       </c>
       <c r="AB267" s="24"/>
       <c r="AC267" s="24"/>
@@ -30735,7 +30718,7 @@
       <c r="L269" s="24"/>
       <c r="M269" s="24"/>
       <c r="N269" s="24" t="s">
-        <v>428</v>
+        <v>414</v>
       </c>
       <c r="O269" s="24"/>
       <c r="P269" s="24"/>
@@ -30786,7 +30769,7 @@
       <c r="L270" s="24"/>
       <c r="M270" s="24"/>
       <c r="N270" s="24" t="s">
-        <v>429</v>
+        <v>415</v>
       </c>
       <c r="O270" s="24"/>
       <c r="P270" s="24"/>
@@ -30888,7 +30871,7 @@
       <c r="L272" s="125"/>
       <c r="M272" s="79"/>
       <c r="N272" s="125" t="s">
-        <v>402</v>
+        <v>536</v>
       </c>
       <c r="O272" s="125"/>
       <c r="P272" s="125"/>
@@ -30939,7 +30922,7 @@
       <c r="L273" s="125"/>
       <c r="M273" s="79"/>
       <c r="N273" s="125" t="s">
-        <v>530</v>
+        <v>537</v>
       </c>
       <c r="O273" s="125"/>
       <c r="P273" s="125"/>
@@ -44457,12 +44440,12 @@
       <c r="M9" s="312" t="s">
         <v>246</v>
       </c>
-      <c r="N9" s="320"/>
+      <c r="N9" s="316"/>
       <c r="O9" s="313"/>
-      <c r="P9" s="316" t="s">
+      <c r="P9" s="318" t="s">
         <v>241</v>
       </c>
-      <c r="Q9" s="317"/>
+      <c r="Q9" s="319"/>
       <c r="R9" s="53"/>
       <c r="S9" s="53"/>
       <c r="T9" s="53"/>
@@ -44522,10 +44505,10 @@
       <c r="K10" s="314"/>
       <c r="L10" s="315"/>
       <c r="M10" s="314"/>
-      <c r="N10" s="321"/>
+      <c r="N10" s="317"/>
       <c r="O10" s="315"/>
-      <c r="P10" s="318"/>
-      <c r="Q10" s="319"/>
+      <c r="P10" s="320"/>
+      <c r="Q10" s="321"/>
       <c r="R10" s="53"/>
       <c r="S10" s="53"/>
       <c r="T10" s="53"/>
@@ -45316,7 +45299,7 @@
       <c r="M22" s="312">
         <v>1</v>
       </c>
-      <c r="N22" s="317"/>
+      <c r="N22" s="319"/>
       <c r="O22" s="53"/>
       <c r="P22" s="53"/>
       <c r="Q22" s="53"/>
@@ -45378,8 +45361,8 @@
       <c r="J23" s="67"/>
       <c r="K23" s="314"/>
       <c r="L23" s="315"/>
-      <c r="M23" s="318"/>
-      <c r="N23" s="319"/>
+      <c r="M23" s="320"/>
+      <c r="N23" s="321"/>
       <c r="O23" s="53"/>
       <c r="P23" s="53"/>
       <c r="Q23" s="53"/>
@@ -45805,12 +45788,12 @@
       <c r="M30" s="312" t="s">
         <v>246</v>
       </c>
-      <c r="N30" s="320"/>
+      <c r="N30" s="316"/>
       <c r="O30" s="313"/>
-      <c r="P30" s="316" t="s">
+      <c r="P30" s="318" t="s">
         <v>241</v>
       </c>
-      <c r="Q30" s="317"/>
+      <c r="Q30" s="319"/>
       <c r="R30" s="53"/>
       <c r="S30" s="53"/>
       <c r="T30" s="53"/>
@@ -45870,10 +45853,10 @@
       <c r="K31" s="314"/>
       <c r="L31" s="315"/>
       <c r="M31" s="314"/>
-      <c r="N31" s="321"/>
+      <c r="N31" s="317"/>
       <c r="O31" s="315"/>
-      <c r="P31" s="318"/>
-      <c r="Q31" s="319"/>
+      <c r="P31" s="320"/>
+      <c r="Q31" s="321"/>
       <c r="R31" s="53"/>
       <c r="S31" s="53"/>
       <c r="T31" s="53"/>
@@ -57355,11 +57338,6 @@
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="K30:L31"/>
-    <mergeCell ref="M30:O31"/>
-    <mergeCell ref="P30:Q31"/>
-    <mergeCell ref="K22:L23"/>
-    <mergeCell ref="M22:N23"/>
     <mergeCell ref="AT1:AZ1"/>
     <mergeCell ref="S2:AD2"/>
     <mergeCell ref="AI2:AM2"/>
@@ -57368,6 +57346,11 @@
     <mergeCell ref="P9:Q10"/>
     <mergeCell ref="AI1:AM1"/>
     <mergeCell ref="M9:O10"/>
+    <mergeCell ref="K30:L31"/>
+    <mergeCell ref="M30:O31"/>
+    <mergeCell ref="P30:Q31"/>
+    <mergeCell ref="K22:L23"/>
+    <mergeCell ref="M22:N23"/>
   </mergeCells>
   <phoneticPr fontId="17"/>
   <pageMargins left="0.78740157480314965" right="0.39370078740157483" top="0.78740157480314965" bottom="0.39370078740157483" header="0.39370078740157483" footer="0.19685039370078741"/>
@@ -58661,7 +58644,7 @@
       <c r="B14" s="160"/>
       <c r="C14" s="161"/>
       <c r="D14" s="166" t="s">
-        <v>554</v>
+        <v>527</v>
       </c>
       <c r="E14" s="167"/>
       <c r="F14" s="167"/>
@@ -58774,7 +58757,7 @@
       <c r="B15" s="160"/>
       <c r="C15" s="161"/>
       <c r="D15" s="167" t="s">
-        <v>553</v>
+        <v>526</v>
       </c>
       <c r="E15" s="167"/>
       <c r="F15" s="167"/>
@@ -63259,7 +63242,7 @@
       <c r="B59" s="160"/>
       <c r="C59" s="161"/>
       <c r="D59" s="166" t="s">
-        <v>554</v>
+        <v>527</v>
       </c>
       <c r="E59" s="167"/>
       <c r="F59" s="167"/>
@@ -63372,7 +63355,7 @@
       <c r="B60" s="160"/>
       <c r="C60" s="161"/>
       <c r="D60" s="167" t="s">
-        <v>553</v>
+        <v>526</v>
       </c>
       <c r="E60" s="167"/>
       <c r="F60" s="167"/>
@@ -67889,7 +67872,7 @@
       <c r="B104" s="160"/>
       <c r="C104" s="161"/>
       <c r="D104" s="166" t="s">
-        <v>554</v>
+        <v>527</v>
       </c>
       <c r="E104" s="167"/>
       <c r="F104" s="167"/>
@@ -68002,7 +67985,7 @@
       <c r="B105" s="160"/>
       <c r="C105" s="161"/>
       <c r="D105" s="167" t="s">
-        <v>553</v>
+        <v>526</v>
       </c>
       <c r="E105" s="167"/>
       <c r="F105" s="167"/>
@@ -71253,6 +71236,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x0101005B3AFDF1A27EF4448B30400A700269C9" ma:contentTypeVersion="7" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="af1e50296a73b747a155d4c5a148cd8b">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="72c70d25-b9e8-475b-ae7b-39931ca24b85" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="d7c374c4e1cfeff0cf58497e8c642c22" ns2:_="">
     <xsd:import namespace="72c70d25-b9e8-475b-ae7b-39931ca24b85"/>
@@ -71410,12 +71399,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
@@ -71426,6 +71409,22 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7B96F246-76A3-4A27-8547-17CD1E715E86}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="72c70d25-b9e8-475b-ae7b-39931ca24b85"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1F39FE47-ED8B-411A-AD54-8C8E5636C88B}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -71443,22 +71442,6 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7B96F246-76A3-4A27-8547-17CD1E715E86}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="72c70d25-b9e8-475b-ae7b-39931ca24b85"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7CA02E59-26EF-42FD-ADE3-8B1F7DDCD7B9}">
   <ds:schemaRefs>

--- a/01_基本設計書/20200220リリース/SC-K13_当日実績参照.xlsx
+++ b/01_基本設計書/20200220リリース/SC-K13_当日実績参照.xlsx
@@ -9,7 +9,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ローカル作業_Wang\GitHub\backdoor\01_基本設計書\20200220リリース\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{515F2A25-C9EA-461C-876C-3CBE745F52CB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03312EBC-A727-44A8-BAE1-EE52B3140E63}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="703" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -3057,9 +3057,6 @@
     <phoneticPr fontId="4"/>
   </si>
   <si>
-    <t>工程グループマスタ</t>
-  </si>
-  <si>
     <t>実績登録データ</t>
     <rPh sb="2" eb="4">
       <t>トウロク</t>
@@ -3127,22 +3124,6 @@
     <phoneticPr fontId="4"/>
   </si>
   <si>
-    <t>工程データを取得して、判断する。</t>
-    <rPh sb="0" eb="2">
-      <t>コウテイ</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>シュトク</t>
-    </rPh>
-    <rPh sb="11" eb="13">
-      <t>ハンダン</t>
-    </rPh>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <t>作業計画データ</t>
-  </si>
-  <si>
     <t>金型番号を取得して、画面に表示する。</t>
     <rPh sb="0" eb="2">
       <t>カナガタ</t>
@@ -3173,9 +3154,6 @@
   </si>
   <si>
     <t>コードマスタ</t>
-  </si>
-  <si>
-    <t>標準通過工程マスタ</t>
   </si>
   <si>
     <t>実績管理データ.パック品名略称</t>
@@ -3599,6 +3577,37 @@
   </si>
   <si>
     <t>①検索結果</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>生産品名マスタ</t>
+    <rPh sb="0" eb="2">
+      <t>セイサン</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ヒンメイ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>品名データを取得して、判断する。</t>
+    <rPh sb="0" eb="2">
+      <t>ヒンメイ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>シュトク</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ハンダン</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>工程マスタ</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>作業計画データ</t>
     <phoneticPr fontId="4"/>
   </si>
 </sst>
@@ -5011,6 +5020,91 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="16" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -5037,91 +5131,6 @@
     </xf>
     <xf numFmtId="0" fontId="20" fillId="3" borderId="7" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="16" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="8" xfId="13" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -5216,12 +5225,6 @@
     <xf numFmtId="0" fontId="16" fillId="5" borderId="7" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="5" borderId="4" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="5" borderId="2" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="16" fillId="5" borderId="3" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -5233,6 +5236,12 @@
     </xf>
     <xf numFmtId="0" fontId="16" fillId="5" borderId="7" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="4" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="2" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="37" fillId="10" borderId="3" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -6076,7 +6085,7 @@
               <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
               <a:extLst>
                 <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="参照用レイアウト!$B$2:$CX$44" spid="_x0000_s3677"/>
+                  <a14:cameraTool cellRange="参照用レイアウト!$B$2:$CX$44" spid="_x0000_s3683"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPicPr>
@@ -6141,7 +6150,7 @@
               <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
               <a:extLst>
                 <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="参照用レイアウト!$B$47:$CX$89" spid="_x0000_s3678"/>
+                  <a14:cameraTool cellRange="参照用レイアウト!$B$47:$CX$89" spid="_x0000_s3684"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPicPr>
@@ -6206,7 +6215,7 @@
               <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
               <a:extLst>
                 <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="参照用レイアウト!$B$92:$CX$134" spid="_x0000_s3679"/>
+                  <a14:cameraTool cellRange="参照用レイアウト!$B$92:$CX$134" spid="_x0000_s3685"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPicPr>
@@ -8323,1770 +8332,2003 @@
   <sheetData>
     <row r="1" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="56"/>
-      <c r="B1" s="241" t="s">
+      <c r="B1" s="272" t="s">
         <v>6</v>
       </c>
-      <c r="C1" s="241"/>
-      <c r="D1" s="241"/>
-      <c r="E1" s="241"/>
-      <c r="F1" s="241"/>
-      <c r="G1" s="241"/>
-      <c r="H1" s="241"/>
-      <c r="I1" s="241"/>
-      <c r="J1" s="241"/>
-      <c r="K1" s="241"/>
-      <c r="L1" s="241"/>
-      <c r="M1" s="241"/>
-      <c r="N1" s="241"/>
-      <c r="O1" s="241"/>
-      <c r="P1" s="241"/>
-      <c r="Q1" s="241"/>
-      <c r="R1" s="241"/>
-      <c r="S1" s="241"/>
-      <c r="T1" s="241"/>
-      <c r="U1" s="241"/>
-      <c r="V1" s="241"/>
-      <c r="W1" s="241"/>
-      <c r="X1" s="241"/>
-      <c r="Y1" s="241"/>
-      <c r="Z1" s="241"/>
-      <c r="AA1" s="241"/>
-      <c r="AB1" s="241"/>
-      <c r="AC1" s="241"/>
-      <c r="AD1" s="241"/>
-      <c r="AE1" s="241"/>
-      <c r="AF1" s="241"/>
-      <c r="AG1" s="241"/>
-      <c r="AH1" s="241"/>
-      <c r="AI1" s="241"/>
-      <c r="AJ1" s="241"/>
-      <c r="AK1" s="241"/>
-      <c r="AL1" s="241"/>
-      <c r="AM1" s="241"/>
-      <c r="AN1" s="241"/>
-      <c r="AO1" s="241"/>
-      <c r="AP1" s="241"/>
-      <c r="AQ1" s="241"/>
-      <c r="AR1" s="241"/>
-      <c r="AS1" s="241"/>
-      <c r="AT1" s="241"/>
-      <c r="AU1" s="241"/>
-      <c r="AV1" s="241"/>
-      <c r="AW1" s="241"/>
+      <c r="C1" s="272"/>
+      <c r="D1" s="272"/>
+      <c r="E1" s="272"/>
+      <c r="F1" s="272"/>
+      <c r="G1" s="272"/>
+      <c r="H1" s="272"/>
+      <c r="I1" s="272"/>
+      <c r="J1" s="272"/>
+      <c r="K1" s="272"/>
+      <c r="L1" s="272"/>
+      <c r="M1" s="272"/>
+      <c r="N1" s="272"/>
+      <c r="O1" s="272"/>
+      <c r="P1" s="272"/>
+      <c r="Q1" s="272"/>
+      <c r="R1" s="272"/>
+      <c r="S1" s="272"/>
+      <c r="T1" s="272"/>
+      <c r="U1" s="272"/>
+      <c r="V1" s="272"/>
+      <c r="W1" s="272"/>
+      <c r="X1" s="272"/>
+      <c r="Y1" s="272"/>
+      <c r="Z1" s="272"/>
+      <c r="AA1" s="272"/>
+      <c r="AB1" s="272"/>
+      <c r="AC1" s="272"/>
+      <c r="AD1" s="272"/>
+      <c r="AE1" s="272"/>
+      <c r="AF1" s="272"/>
+      <c r="AG1" s="272"/>
+      <c r="AH1" s="272"/>
+      <c r="AI1" s="272"/>
+      <c r="AJ1" s="272"/>
+      <c r="AK1" s="272"/>
+      <c r="AL1" s="272"/>
+      <c r="AM1" s="272"/>
+      <c r="AN1" s="272"/>
+      <c r="AO1" s="272"/>
+      <c r="AP1" s="272"/>
+      <c r="AQ1" s="272"/>
+      <c r="AR1" s="272"/>
+      <c r="AS1" s="272"/>
+      <c r="AT1" s="272"/>
+      <c r="AU1" s="272"/>
+      <c r="AV1" s="272"/>
+      <c r="AW1" s="272"/>
     </row>
     <row r="2" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="56"/>
-      <c r="B2" s="242"/>
-      <c r="C2" s="242"/>
-      <c r="D2" s="242"/>
-      <c r="E2" s="242"/>
-      <c r="F2" s="242"/>
-      <c r="G2" s="242"/>
-      <c r="H2" s="242"/>
-      <c r="I2" s="242"/>
-      <c r="J2" s="242"/>
-      <c r="K2" s="242"/>
-      <c r="L2" s="242"/>
-      <c r="M2" s="242"/>
-      <c r="N2" s="242"/>
-      <c r="O2" s="242"/>
-      <c r="P2" s="242"/>
-      <c r="Q2" s="242"/>
-      <c r="R2" s="242"/>
-      <c r="S2" s="242"/>
-      <c r="T2" s="242"/>
-      <c r="U2" s="242"/>
-      <c r="V2" s="242"/>
-      <c r="W2" s="242"/>
-      <c r="X2" s="242"/>
-      <c r="Y2" s="242"/>
-      <c r="Z2" s="242"/>
-      <c r="AA2" s="242"/>
-      <c r="AB2" s="242"/>
-      <c r="AC2" s="242"/>
-      <c r="AD2" s="242"/>
-      <c r="AE2" s="242"/>
-      <c r="AF2" s="242"/>
-      <c r="AG2" s="242"/>
-      <c r="AH2" s="242"/>
-      <c r="AI2" s="242"/>
-      <c r="AJ2" s="242"/>
-      <c r="AK2" s="242"/>
-      <c r="AL2" s="242"/>
-      <c r="AM2" s="242"/>
-      <c r="AN2" s="242"/>
-      <c r="AO2" s="242"/>
-      <c r="AP2" s="242"/>
-      <c r="AQ2" s="242"/>
-      <c r="AR2" s="242"/>
-      <c r="AS2" s="242"/>
-      <c r="AT2" s="242"/>
-      <c r="AU2" s="242"/>
-      <c r="AV2" s="242"/>
-      <c r="AW2" s="242"/>
+      <c r="B2" s="273"/>
+      <c r="C2" s="273"/>
+      <c r="D2" s="273"/>
+      <c r="E2" s="273"/>
+      <c r="F2" s="273"/>
+      <c r="G2" s="273"/>
+      <c r="H2" s="273"/>
+      <c r="I2" s="273"/>
+      <c r="J2" s="273"/>
+      <c r="K2" s="273"/>
+      <c r="L2" s="273"/>
+      <c r="M2" s="273"/>
+      <c r="N2" s="273"/>
+      <c r="O2" s="273"/>
+      <c r="P2" s="273"/>
+      <c r="Q2" s="273"/>
+      <c r="R2" s="273"/>
+      <c r="S2" s="273"/>
+      <c r="T2" s="273"/>
+      <c r="U2" s="273"/>
+      <c r="V2" s="273"/>
+      <c r="W2" s="273"/>
+      <c r="X2" s="273"/>
+      <c r="Y2" s="273"/>
+      <c r="Z2" s="273"/>
+      <c r="AA2" s="273"/>
+      <c r="AB2" s="273"/>
+      <c r="AC2" s="273"/>
+      <c r="AD2" s="273"/>
+      <c r="AE2" s="273"/>
+      <c r="AF2" s="273"/>
+      <c r="AG2" s="273"/>
+      <c r="AH2" s="273"/>
+      <c r="AI2" s="273"/>
+      <c r="AJ2" s="273"/>
+      <c r="AK2" s="273"/>
+      <c r="AL2" s="273"/>
+      <c r="AM2" s="273"/>
+      <c r="AN2" s="273"/>
+      <c r="AO2" s="273"/>
+      <c r="AP2" s="273"/>
+      <c r="AQ2" s="273"/>
+      <c r="AR2" s="273"/>
+      <c r="AS2" s="273"/>
+      <c r="AT2" s="273"/>
+      <c r="AU2" s="273"/>
+      <c r="AV2" s="273"/>
+      <c r="AW2" s="273"/>
     </row>
     <row r="3" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="56"/>
-      <c r="B3" s="243" t="s">
+      <c r="B3" s="274" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="243"/>
-      <c r="D3" s="243"/>
-      <c r="E3" s="243" t="s">
+      <c r="C3" s="274"/>
+      <c r="D3" s="274"/>
+      <c r="E3" s="274" t="s">
         <v>8</v>
       </c>
-      <c r="F3" s="243"/>
-      <c r="G3" s="243"/>
-      <c r="H3" s="243"/>
-      <c r="I3" s="243"/>
-      <c r="J3" s="244" t="s">
+      <c r="F3" s="274"/>
+      <c r="G3" s="274"/>
+      <c r="H3" s="274"/>
+      <c r="I3" s="274"/>
+      <c r="J3" s="275" t="s">
         <v>9</v>
       </c>
-      <c r="K3" s="245"/>
-      <c r="L3" s="246"/>
-      <c r="M3" s="244" t="s">
+      <c r="K3" s="276"/>
+      <c r="L3" s="277"/>
+      <c r="M3" s="275" t="s">
         <v>10</v>
       </c>
-      <c r="N3" s="245"/>
-      <c r="O3" s="245"/>
-      <c r="P3" s="245"/>
-      <c r="Q3" s="245"/>
-      <c r="R3" s="246"/>
-      <c r="S3" s="243" t="s">
+      <c r="N3" s="276"/>
+      <c r="O3" s="276"/>
+      <c r="P3" s="276"/>
+      <c r="Q3" s="276"/>
+      <c r="R3" s="277"/>
+      <c r="S3" s="274" t="s">
         <v>11</v>
       </c>
-      <c r="T3" s="243"/>
-      <c r="U3" s="243"/>
-      <c r="V3" s="243" t="s">
+      <c r="T3" s="274"/>
+      <c r="U3" s="274"/>
+      <c r="V3" s="274" t="s">
         <v>12</v>
       </c>
-      <c r="W3" s="243"/>
-      <c r="X3" s="243"/>
-      <c r="Y3" s="243"/>
-      <c r="Z3" s="243"/>
-      <c r="AA3" s="243"/>
-      <c r="AB3" s="243"/>
-      <c r="AC3" s="243"/>
-      <c r="AD3" s="243"/>
-      <c r="AE3" s="243"/>
-      <c r="AF3" s="243"/>
-      <c r="AG3" s="243"/>
-      <c r="AH3" s="243"/>
-      <c r="AI3" s="243"/>
-      <c r="AJ3" s="243"/>
-      <c r="AK3" s="243"/>
-      <c r="AL3" s="243"/>
-      <c r="AM3" s="243"/>
-      <c r="AN3" s="243" t="s">
+      <c r="W3" s="274"/>
+      <c r="X3" s="274"/>
+      <c r="Y3" s="274"/>
+      <c r="Z3" s="274"/>
+      <c r="AA3" s="274"/>
+      <c r="AB3" s="274"/>
+      <c r="AC3" s="274"/>
+      <c r="AD3" s="274"/>
+      <c r="AE3" s="274"/>
+      <c r="AF3" s="274"/>
+      <c r="AG3" s="274"/>
+      <c r="AH3" s="274"/>
+      <c r="AI3" s="274"/>
+      <c r="AJ3" s="274"/>
+      <c r="AK3" s="274"/>
+      <c r="AL3" s="274"/>
+      <c r="AM3" s="274"/>
+      <c r="AN3" s="274" t="s">
         <v>13</v>
       </c>
-      <c r="AO3" s="243"/>
-      <c r="AP3" s="243"/>
-      <c r="AQ3" s="243"/>
-      <c r="AR3" s="243"/>
-      <c r="AS3" s="243" t="s">
+      <c r="AO3" s="274"/>
+      <c r="AP3" s="274"/>
+      <c r="AQ3" s="274"/>
+      <c r="AR3" s="274"/>
+      <c r="AS3" s="274" t="s">
         <v>14</v>
       </c>
-      <c r="AT3" s="243"/>
-      <c r="AU3" s="243"/>
-      <c r="AV3" s="243"/>
-      <c r="AW3" s="243"/>
+      <c r="AT3" s="274"/>
+      <c r="AU3" s="274"/>
+      <c r="AV3" s="274"/>
+      <c r="AW3" s="274"/>
     </row>
     <row r="4" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="56"/>
-      <c r="B4" s="243"/>
-      <c r="C4" s="243"/>
-      <c r="D4" s="243"/>
-      <c r="E4" s="243"/>
-      <c r="F4" s="243"/>
-      <c r="G4" s="243"/>
-      <c r="H4" s="243"/>
-      <c r="I4" s="243"/>
-      <c r="J4" s="247"/>
-      <c r="K4" s="248"/>
-      <c r="L4" s="249"/>
-      <c r="M4" s="247"/>
-      <c r="N4" s="248"/>
-      <c r="O4" s="248"/>
-      <c r="P4" s="248"/>
-      <c r="Q4" s="248"/>
-      <c r="R4" s="249"/>
-      <c r="S4" s="243"/>
-      <c r="T4" s="243"/>
-      <c r="U4" s="243"/>
-      <c r="V4" s="243"/>
-      <c r="W4" s="243"/>
-      <c r="X4" s="243"/>
-      <c r="Y4" s="243"/>
-      <c r="Z4" s="243"/>
-      <c r="AA4" s="243"/>
-      <c r="AB4" s="243"/>
-      <c r="AC4" s="243"/>
-      <c r="AD4" s="243"/>
-      <c r="AE4" s="243"/>
-      <c r="AF4" s="243"/>
-      <c r="AG4" s="243"/>
-      <c r="AH4" s="243"/>
-      <c r="AI4" s="243"/>
-      <c r="AJ4" s="243"/>
-      <c r="AK4" s="243"/>
-      <c r="AL4" s="243"/>
-      <c r="AM4" s="243"/>
-      <c r="AN4" s="243"/>
-      <c r="AO4" s="243"/>
-      <c r="AP4" s="243"/>
-      <c r="AQ4" s="243"/>
-      <c r="AR4" s="243"/>
-      <c r="AS4" s="243"/>
-      <c r="AT4" s="243"/>
-      <c r="AU4" s="243"/>
-      <c r="AV4" s="243"/>
-      <c r="AW4" s="243"/>
+      <c r="B4" s="274"/>
+      <c r="C4" s="274"/>
+      <c r="D4" s="274"/>
+      <c r="E4" s="274"/>
+      <c r="F4" s="274"/>
+      <c r="G4" s="274"/>
+      <c r="H4" s="274"/>
+      <c r="I4" s="274"/>
+      <c r="J4" s="278"/>
+      <c r="K4" s="279"/>
+      <c r="L4" s="280"/>
+      <c r="M4" s="278"/>
+      <c r="N4" s="279"/>
+      <c r="O4" s="279"/>
+      <c r="P4" s="279"/>
+      <c r="Q4" s="279"/>
+      <c r="R4" s="280"/>
+      <c r="S4" s="274"/>
+      <c r="T4" s="274"/>
+      <c r="U4" s="274"/>
+      <c r="V4" s="274"/>
+      <c r="W4" s="274"/>
+      <c r="X4" s="274"/>
+      <c r="Y4" s="274"/>
+      <c r="Z4" s="274"/>
+      <c r="AA4" s="274"/>
+      <c r="AB4" s="274"/>
+      <c r="AC4" s="274"/>
+      <c r="AD4" s="274"/>
+      <c r="AE4" s="274"/>
+      <c r="AF4" s="274"/>
+      <c r="AG4" s="274"/>
+      <c r="AH4" s="274"/>
+      <c r="AI4" s="274"/>
+      <c r="AJ4" s="274"/>
+      <c r="AK4" s="274"/>
+      <c r="AL4" s="274"/>
+      <c r="AM4" s="274"/>
+      <c r="AN4" s="274"/>
+      <c r="AO4" s="274"/>
+      <c r="AP4" s="274"/>
+      <c r="AQ4" s="274"/>
+      <c r="AR4" s="274"/>
+      <c r="AS4" s="274"/>
+      <c r="AT4" s="274"/>
+      <c r="AU4" s="274"/>
+      <c r="AV4" s="274"/>
+      <c r="AW4" s="274"/>
     </row>
     <row r="5" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A5" s="58"/>
-      <c r="B5" s="251">
+      <c r="B5" s="266">
         <v>1</v>
       </c>
-      <c r="C5" s="251"/>
-      <c r="D5" s="251"/>
-      <c r="E5" s="252">
+      <c r="C5" s="266"/>
+      <c r="D5" s="266"/>
+      <c r="E5" s="247">
         <v>43711</v>
       </c>
-      <c r="F5" s="252"/>
-      <c r="G5" s="252"/>
-      <c r="H5" s="252"/>
-      <c r="I5" s="252"/>
-      <c r="J5" s="253" t="s">
+      <c r="F5" s="247"/>
+      <c r="G5" s="247"/>
+      <c r="H5" s="247"/>
+      <c r="I5" s="247"/>
+      <c r="J5" s="248" t="s">
         <v>15</v>
       </c>
-      <c r="K5" s="254"/>
-      <c r="L5" s="255"/>
-      <c r="M5" s="253" t="s">
+      <c r="K5" s="249"/>
+      <c r="L5" s="250"/>
+      <c r="M5" s="248" t="s">
         <v>16</v>
       </c>
-      <c r="N5" s="254"/>
-      <c r="O5" s="254"/>
-      <c r="P5" s="254"/>
-      <c r="Q5" s="254"/>
-      <c r="R5" s="255"/>
-      <c r="S5" s="250" t="s">
+      <c r="N5" s="249"/>
+      <c r="O5" s="249"/>
+      <c r="P5" s="249"/>
+      <c r="Q5" s="249"/>
+      <c r="R5" s="250"/>
+      <c r="S5" s="254" t="s">
         <v>17</v>
       </c>
-      <c r="T5" s="250"/>
-      <c r="U5" s="250"/>
-      <c r="V5" s="259" t="s">
+      <c r="T5" s="254"/>
+      <c r="U5" s="254"/>
+      <c r="V5" s="265" t="s">
         <v>18</v>
       </c>
-      <c r="W5" s="259"/>
-      <c r="X5" s="259"/>
-      <c r="Y5" s="259"/>
-      <c r="Z5" s="259"/>
-      <c r="AA5" s="259"/>
-      <c r="AB5" s="259"/>
-      <c r="AC5" s="259"/>
-      <c r="AD5" s="259"/>
-      <c r="AE5" s="259"/>
-      <c r="AF5" s="259"/>
-      <c r="AG5" s="259"/>
-      <c r="AH5" s="259"/>
-      <c r="AI5" s="259"/>
-      <c r="AJ5" s="259"/>
-      <c r="AK5" s="259"/>
-      <c r="AL5" s="259"/>
-      <c r="AM5" s="259"/>
-      <c r="AN5" s="250" t="s">
+      <c r="W5" s="265"/>
+      <c r="X5" s="265"/>
+      <c r="Y5" s="265"/>
+      <c r="Z5" s="265"/>
+      <c r="AA5" s="265"/>
+      <c r="AB5" s="265"/>
+      <c r="AC5" s="265"/>
+      <c r="AD5" s="265"/>
+      <c r="AE5" s="265"/>
+      <c r="AF5" s="265"/>
+      <c r="AG5" s="265"/>
+      <c r="AH5" s="265"/>
+      <c r="AI5" s="265"/>
+      <c r="AJ5" s="265"/>
+      <c r="AK5" s="265"/>
+      <c r="AL5" s="265"/>
+      <c r="AM5" s="265"/>
+      <c r="AN5" s="254" t="s">
         <v>128</v>
       </c>
-      <c r="AO5" s="250"/>
-      <c r="AP5" s="250"/>
-      <c r="AQ5" s="250"/>
-      <c r="AR5" s="250"/>
-      <c r="AS5" s="250"/>
-      <c r="AT5" s="250"/>
-      <c r="AU5" s="250"/>
-      <c r="AV5" s="250"/>
-      <c r="AW5" s="250"/>
+      <c r="AO5" s="254"/>
+      <c r="AP5" s="254"/>
+      <c r="AQ5" s="254"/>
+      <c r="AR5" s="254"/>
+      <c r="AS5" s="254"/>
+      <c r="AT5" s="254"/>
+      <c r="AU5" s="254"/>
+      <c r="AV5" s="254"/>
+      <c r="AW5" s="254"/>
     </row>
     <row r="6" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A6" s="58"/>
-      <c r="B6" s="251"/>
-      <c r="C6" s="251"/>
-      <c r="D6" s="251"/>
-      <c r="E6" s="252"/>
-      <c r="F6" s="252"/>
-      <c r="G6" s="252"/>
-      <c r="H6" s="252"/>
-      <c r="I6" s="252"/>
-      <c r="J6" s="253"/>
-      <c r="K6" s="254"/>
-      <c r="L6" s="255"/>
-      <c r="M6" s="256"/>
-      <c r="N6" s="257"/>
-      <c r="O6" s="257"/>
-      <c r="P6" s="257"/>
-      <c r="Q6" s="257"/>
-      <c r="R6" s="258"/>
-      <c r="S6" s="250"/>
-      <c r="T6" s="250"/>
-      <c r="U6" s="250"/>
-      <c r="V6" s="259"/>
-      <c r="W6" s="259"/>
-      <c r="X6" s="259"/>
-      <c r="Y6" s="259"/>
-      <c r="Z6" s="259"/>
-      <c r="AA6" s="259"/>
-      <c r="AB6" s="259"/>
-      <c r="AC6" s="259"/>
-      <c r="AD6" s="259"/>
-      <c r="AE6" s="259"/>
-      <c r="AF6" s="259"/>
-      <c r="AG6" s="259"/>
-      <c r="AH6" s="259"/>
-      <c r="AI6" s="259"/>
-      <c r="AJ6" s="259"/>
-      <c r="AK6" s="259"/>
-      <c r="AL6" s="259"/>
-      <c r="AM6" s="259"/>
-      <c r="AN6" s="250"/>
-      <c r="AO6" s="250"/>
-      <c r="AP6" s="250"/>
-      <c r="AQ6" s="250"/>
-      <c r="AR6" s="250"/>
-      <c r="AS6" s="250"/>
-      <c r="AT6" s="250"/>
-      <c r="AU6" s="250"/>
-      <c r="AV6" s="250"/>
-      <c r="AW6" s="250"/>
+      <c r="B6" s="266"/>
+      <c r="C6" s="266"/>
+      <c r="D6" s="266"/>
+      <c r="E6" s="247"/>
+      <c r="F6" s="247"/>
+      <c r="G6" s="247"/>
+      <c r="H6" s="247"/>
+      <c r="I6" s="247"/>
+      <c r="J6" s="248"/>
+      <c r="K6" s="249"/>
+      <c r="L6" s="250"/>
+      <c r="M6" s="269"/>
+      <c r="N6" s="270"/>
+      <c r="O6" s="270"/>
+      <c r="P6" s="270"/>
+      <c r="Q6" s="270"/>
+      <c r="R6" s="271"/>
+      <c r="S6" s="254"/>
+      <c r="T6" s="254"/>
+      <c r="U6" s="254"/>
+      <c r="V6" s="265"/>
+      <c r="W6" s="265"/>
+      <c r="X6" s="265"/>
+      <c r="Y6" s="265"/>
+      <c r="Z6" s="265"/>
+      <c r="AA6" s="265"/>
+      <c r="AB6" s="265"/>
+      <c r="AC6" s="265"/>
+      <c r="AD6" s="265"/>
+      <c r="AE6" s="265"/>
+      <c r="AF6" s="265"/>
+      <c r="AG6" s="265"/>
+      <c r="AH6" s="265"/>
+      <c r="AI6" s="265"/>
+      <c r="AJ6" s="265"/>
+      <c r="AK6" s="265"/>
+      <c r="AL6" s="265"/>
+      <c r="AM6" s="265"/>
+      <c r="AN6" s="254"/>
+      <c r="AO6" s="254"/>
+      <c r="AP6" s="254"/>
+      <c r="AQ6" s="254"/>
+      <c r="AR6" s="254"/>
+      <c r="AS6" s="254"/>
+      <c r="AT6" s="254"/>
+      <c r="AU6" s="254"/>
+      <c r="AV6" s="254"/>
+      <c r="AW6" s="254"/>
     </row>
     <row r="7" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A7" s="58"/>
-      <c r="B7" s="251"/>
-      <c r="C7" s="251"/>
-      <c r="D7" s="251"/>
-      <c r="E7" s="252"/>
-      <c r="F7" s="252"/>
-      <c r="G7" s="252"/>
-      <c r="H7" s="252"/>
-      <c r="I7" s="252"/>
-      <c r="J7" s="253"/>
-      <c r="K7" s="254"/>
-      <c r="L7" s="255"/>
-      <c r="M7" s="256"/>
-      <c r="N7" s="257"/>
-      <c r="O7" s="257"/>
-      <c r="P7" s="257"/>
-      <c r="Q7" s="257"/>
-      <c r="R7" s="258"/>
-      <c r="S7" s="250"/>
-      <c r="T7" s="250"/>
-      <c r="U7" s="250"/>
-      <c r="V7" s="259"/>
-      <c r="W7" s="259"/>
-      <c r="X7" s="259"/>
-      <c r="Y7" s="259"/>
-      <c r="Z7" s="259"/>
-      <c r="AA7" s="259"/>
-      <c r="AB7" s="259"/>
-      <c r="AC7" s="259"/>
-      <c r="AD7" s="259"/>
-      <c r="AE7" s="259"/>
-      <c r="AF7" s="259"/>
-      <c r="AG7" s="259"/>
-      <c r="AH7" s="259"/>
-      <c r="AI7" s="259"/>
-      <c r="AJ7" s="259"/>
-      <c r="AK7" s="259"/>
-      <c r="AL7" s="259"/>
-      <c r="AM7" s="259"/>
-      <c r="AN7" s="250"/>
-      <c r="AO7" s="250"/>
-      <c r="AP7" s="250"/>
-      <c r="AQ7" s="250"/>
-      <c r="AR7" s="250"/>
-      <c r="AS7" s="250"/>
-      <c r="AT7" s="250"/>
-      <c r="AU7" s="250"/>
-      <c r="AV7" s="250"/>
-      <c r="AW7" s="250"/>
+      <c r="B7" s="266"/>
+      <c r="C7" s="266"/>
+      <c r="D7" s="266"/>
+      <c r="E7" s="247"/>
+      <c r="F7" s="247"/>
+      <c r="G7" s="247"/>
+      <c r="H7" s="247"/>
+      <c r="I7" s="247"/>
+      <c r="J7" s="248"/>
+      <c r="K7" s="249"/>
+      <c r="L7" s="250"/>
+      <c r="M7" s="269"/>
+      <c r="N7" s="270"/>
+      <c r="O7" s="270"/>
+      <c r="P7" s="270"/>
+      <c r="Q7" s="270"/>
+      <c r="R7" s="271"/>
+      <c r="S7" s="254"/>
+      <c r="T7" s="254"/>
+      <c r="U7" s="254"/>
+      <c r="V7" s="265"/>
+      <c r="W7" s="265"/>
+      <c r="X7" s="265"/>
+      <c r="Y7" s="265"/>
+      <c r="Z7" s="265"/>
+      <c r="AA7" s="265"/>
+      <c r="AB7" s="265"/>
+      <c r="AC7" s="265"/>
+      <c r="AD7" s="265"/>
+      <c r="AE7" s="265"/>
+      <c r="AF7" s="265"/>
+      <c r="AG7" s="265"/>
+      <c r="AH7" s="265"/>
+      <c r="AI7" s="265"/>
+      <c r="AJ7" s="265"/>
+      <c r="AK7" s="265"/>
+      <c r="AL7" s="265"/>
+      <c r="AM7" s="265"/>
+      <c r="AN7" s="254"/>
+      <c r="AO7" s="254"/>
+      <c r="AP7" s="254"/>
+      <c r="AQ7" s="254"/>
+      <c r="AR7" s="254"/>
+      <c r="AS7" s="254"/>
+      <c r="AT7" s="254"/>
+      <c r="AU7" s="254"/>
+      <c r="AV7" s="254"/>
+      <c r="AW7" s="254"/>
     </row>
     <row r="8" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A8" s="58"/>
-      <c r="B8" s="251"/>
-      <c r="C8" s="251"/>
-      <c r="D8" s="251"/>
-      <c r="E8" s="252"/>
-      <c r="F8" s="252"/>
-      <c r="G8" s="252"/>
-      <c r="H8" s="252"/>
-      <c r="I8" s="252"/>
-      <c r="J8" s="253"/>
-      <c r="K8" s="254"/>
-      <c r="L8" s="255"/>
-      <c r="M8" s="256"/>
-      <c r="N8" s="257"/>
-      <c r="O8" s="257"/>
-      <c r="P8" s="257"/>
-      <c r="Q8" s="257"/>
-      <c r="R8" s="258"/>
-      <c r="S8" s="250"/>
-      <c r="T8" s="250"/>
-      <c r="U8" s="250"/>
-      <c r="V8" s="259"/>
-      <c r="W8" s="259"/>
-      <c r="X8" s="259"/>
-      <c r="Y8" s="259"/>
-      <c r="Z8" s="259"/>
-      <c r="AA8" s="259"/>
-      <c r="AB8" s="259"/>
-      <c r="AC8" s="259"/>
-      <c r="AD8" s="259"/>
-      <c r="AE8" s="259"/>
-      <c r="AF8" s="259"/>
-      <c r="AG8" s="259"/>
-      <c r="AH8" s="259"/>
-      <c r="AI8" s="259"/>
-      <c r="AJ8" s="259"/>
-      <c r="AK8" s="259"/>
-      <c r="AL8" s="259"/>
-      <c r="AM8" s="259"/>
-      <c r="AN8" s="250"/>
-      <c r="AO8" s="250"/>
-      <c r="AP8" s="250"/>
-      <c r="AQ8" s="250"/>
-      <c r="AR8" s="250"/>
-      <c r="AS8" s="250"/>
-      <c r="AT8" s="250"/>
-      <c r="AU8" s="250"/>
-      <c r="AV8" s="250"/>
-      <c r="AW8" s="250"/>
+      <c r="B8" s="266"/>
+      <c r="C8" s="266"/>
+      <c r="D8" s="266"/>
+      <c r="E8" s="247"/>
+      <c r="F8" s="247"/>
+      <c r="G8" s="247"/>
+      <c r="H8" s="247"/>
+      <c r="I8" s="247"/>
+      <c r="J8" s="248"/>
+      <c r="K8" s="249"/>
+      <c r="L8" s="250"/>
+      <c r="M8" s="269"/>
+      <c r="N8" s="270"/>
+      <c r="O8" s="270"/>
+      <c r="P8" s="270"/>
+      <c r="Q8" s="270"/>
+      <c r="R8" s="271"/>
+      <c r="S8" s="254"/>
+      <c r="T8" s="254"/>
+      <c r="U8" s="254"/>
+      <c r="V8" s="265"/>
+      <c r="W8" s="265"/>
+      <c r="X8" s="265"/>
+      <c r="Y8" s="265"/>
+      <c r="Z8" s="265"/>
+      <c r="AA8" s="265"/>
+      <c r="AB8" s="265"/>
+      <c r="AC8" s="265"/>
+      <c r="AD8" s="265"/>
+      <c r="AE8" s="265"/>
+      <c r="AF8" s="265"/>
+      <c r="AG8" s="265"/>
+      <c r="AH8" s="265"/>
+      <c r="AI8" s="265"/>
+      <c r="AJ8" s="265"/>
+      <c r="AK8" s="265"/>
+      <c r="AL8" s="265"/>
+      <c r="AM8" s="265"/>
+      <c r="AN8" s="254"/>
+      <c r="AO8" s="254"/>
+      <c r="AP8" s="254"/>
+      <c r="AQ8" s="254"/>
+      <c r="AR8" s="254"/>
+      <c r="AS8" s="254"/>
+      <c r="AT8" s="254"/>
+      <c r="AU8" s="254"/>
+      <c r="AV8" s="254"/>
+      <c r="AW8" s="254"/>
     </row>
     <row r="9" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A9" s="58"/>
-      <c r="B9" s="251"/>
-      <c r="C9" s="251"/>
-      <c r="D9" s="251"/>
-      <c r="E9" s="252"/>
-      <c r="F9" s="252"/>
-      <c r="G9" s="252"/>
-      <c r="H9" s="252"/>
-      <c r="I9" s="252"/>
-      <c r="J9" s="253"/>
-      <c r="K9" s="254"/>
-      <c r="L9" s="255"/>
-      <c r="M9" s="256"/>
-      <c r="N9" s="257"/>
-      <c r="O9" s="257"/>
-      <c r="P9" s="257"/>
-      <c r="Q9" s="257"/>
-      <c r="R9" s="258"/>
-      <c r="S9" s="250"/>
-      <c r="T9" s="250"/>
-      <c r="U9" s="250"/>
-      <c r="V9" s="259"/>
-      <c r="W9" s="259"/>
-      <c r="X9" s="259"/>
-      <c r="Y9" s="259"/>
-      <c r="Z9" s="259"/>
-      <c r="AA9" s="259"/>
-      <c r="AB9" s="259"/>
-      <c r="AC9" s="259"/>
-      <c r="AD9" s="259"/>
-      <c r="AE9" s="259"/>
-      <c r="AF9" s="259"/>
-      <c r="AG9" s="259"/>
-      <c r="AH9" s="259"/>
-      <c r="AI9" s="259"/>
-      <c r="AJ9" s="259"/>
-      <c r="AK9" s="259"/>
-      <c r="AL9" s="259"/>
-      <c r="AM9" s="259"/>
-      <c r="AN9" s="250"/>
-      <c r="AO9" s="250"/>
-      <c r="AP9" s="250"/>
-      <c r="AQ9" s="250"/>
-      <c r="AR9" s="250"/>
-      <c r="AS9" s="250"/>
-      <c r="AT9" s="250"/>
-      <c r="AU9" s="250"/>
-      <c r="AV9" s="250"/>
-      <c r="AW9" s="250"/>
+      <c r="B9" s="266"/>
+      <c r="C9" s="266"/>
+      <c r="D9" s="266"/>
+      <c r="E9" s="247"/>
+      <c r="F9" s="247"/>
+      <c r="G9" s="247"/>
+      <c r="H9" s="247"/>
+      <c r="I9" s="247"/>
+      <c r="J9" s="248"/>
+      <c r="K9" s="249"/>
+      <c r="L9" s="250"/>
+      <c r="M9" s="269"/>
+      <c r="N9" s="270"/>
+      <c r="O9" s="270"/>
+      <c r="P9" s="270"/>
+      <c r="Q9" s="270"/>
+      <c r="R9" s="271"/>
+      <c r="S9" s="254"/>
+      <c r="T9" s="254"/>
+      <c r="U9" s="254"/>
+      <c r="V9" s="265"/>
+      <c r="W9" s="265"/>
+      <c r="X9" s="265"/>
+      <c r="Y9" s="265"/>
+      <c r="Z9" s="265"/>
+      <c r="AA9" s="265"/>
+      <c r="AB9" s="265"/>
+      <c r="AC9" s="265"/>
+      <c r="AD9" s="265"/>
+      <c r="AE9" s="265"/>
+      <c r="AF9" s="265"/>
+      <c r="AG9" s="265"/>
+      <c r="AH9" s="265"/>
+      <c r="AI9" s="265"/>
+      <c r="AJ9" s="265"/>
+      <c r="AK9" s="265"/>
+      <c r="AL9" s="265"/>
+      <c r="AM9" s="265"/>
+      <c r="AN9" s="254"/>
+      <c r="AO9" s="254"/>
+      <c r="AP9" s="254"/>
+      <c r="AQ9" s="254"/>
+      <c r="AR9" s="254"/>
+      <c r="AS9" s="254"/>
+      <c r="AT9" s="254"/>
+      <c r="AU9" s="254"/>
+      <c r="AV9" s="254"/>
+      <c r="AW9" s="254"/>
     </row>
     <row r="10" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A10" s="58"/>
-      <c r="B10" s="251"/>
-      <c r="C10" s="251"/>
-      <c r="D10" s="251"/>
-      <c r="E10" s="252"/>
-      <c r="F10" s="252"/>
-      <c r="G10" s="252"/>
-      <c r="H10" s="252"/>
-      <c r="I10" s="252"/>
-      <c r="J10" s="253"/>
-      <c r="K10" s="254"/>
-      <c r="L10" s="255"/>
-      <c r="M10" s="256"/>
-      <c r="N10" s="257"/>
-      <c r="O10" s="257"/>
-      <c r="P10" s="257"/>
-      <c r="Q10" s="257"/>
-      <c r="R10" s="258"/>
-      <c r="S10" s="250"/>
-      <c r="T10" s="250"/>
-      <c r="U10" s="250"/>
-      <c r="V10" s="259"/>
-      <c r="W10" s="259"/>
-      <c r="X10" s="259"/>
-      <c r="Y10" s="259"/>
-      <c r="Z10" s="259"/>
-      <c r="AA10" s="259"/>
-      <c r="AB10" s="259"/>
-      <c r="AC10" s="259"/>
-      <c r="AD10" s="259"/>
-      <c r="AE10" s="259"/>
-      <c r="AF10" s="259"/>
-      <c r="AG10" s="259"/>
-      <c r="AH10" s="259"/>
-      <c r="AI10" s="259"/>
-      <c r="AJ10" s="259"/>
-      <c r="AK10" s="259"/>
-      <c r="AL10" s="259"/>
-      <c r="AM10" s="259"/>
-      <c r="AN10" s="250"/>
-      <c r="AO10" s="250"/>
-      <c r="AP10" s="250"/>
-      <c r="AQ10" s="250"/>
-      <c r="AR10" s="250"/>
-      <c r="AS10" s="250"/>
-      <c r="AT10" s="250"/>
-      <c r="AU10" s="250"/>
-      <c r="AV10" s="250"/>
-      <c r="AW10" s="250"/>
+      <c r="B10" s="266"/>
+      <c r="C10" s="266"/>
+      <c r="D10" s="266"/>
+      <c r="E10" s="247"/>
+      <c r="F10" s="247"/>
+      <c r="G10" s="247"/>
+      <c r="H10" s="247"/>
+      <c r="I10" s="247"/>
+      <c r="J10" s="248"/>
+      <c r="K10" s="249"/>
+      <c r="L10" s="250"/>
+      <c r="M10" s="269"/>
+      <c r="N10" s="270"/>
+      <c r="O10" s="270"/>
+      <c r="P10" s="270"/>
+      <c r="Q10" s="270"/>
+      <c r="R10" s="271"/>
+      <c r="S10" s="254"/>
+      <c r="T10" s="254"/>
+      <c r="U10" s="254"/>
+      <c r="V10" s="265"/>
+      <c r="W10" s="265"/>
+      <c r="X10" s="265"/>
+      <c r="Y10" s="265"/>
+      <c r="Z10" s="265"/>
+      <c r="AA10" s="265"/>
+      <c r="AB10" s="265"/>
+      <c r="AC10" s="265"/>
+      <c r="AD10" s="265"/>
+      <c r="AE10" s="265"/>
+      <c r="AF10" s="265"/>
+      <c r="AG10" s="265"/>
+      <c r="AH10" s="265"/>
+      <c r="AI10" s="265"/>
+      <c r="AJ10" s="265"/>
+      <c r="AK10" s="265"/>
+      <c r="AL10" s="265"/>
+      <c r="AM10" s="265"/>
+      <c r="AN10" s="254"/>
+      <c r="AO10" s="254"/>
+      <c r="AP10" s="254"/>
+      <c r="AQ10" s="254"/>
+      <c r="AR10" s="254"/>
+      <c r="AS10" s="254"/>
+      <c r="AT10" s="254"/>
+      <c r="AU10" s="254"/>
+      <c r="AV10" s="254"/>
+      <c r="AW10" s="254"/>
     </row>
     <row r="11" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A11" s="58"/>
-      <c r="B11" s="251"/>
-      <c r="C11" s="251"/>
-      <c r="D11" s="251"/>
-      <c r="E11" s="252"/>
-      <c r="F11" s="252"/>
-      <c r="G11" s="252"/>
-      <c r="H11" s="252"/>
-      <c r="I11" s="252"/>
-      <c r="J11" s="253"/>
-      <c r="K11" s="254"/>
-      <c r="L11" s="255"/>
-      <c r="M11" s="263"/>
-      <c r="N11" s="264"/>
-      <c r="O11" s="264"/>
-      <c r="P11" s="264"/>
-      <c r="Q11" s="264"/>
-      <c r="R11" s="265"/>
-      <c r="S11" s="250"/>
-      <c r="T11" s="250"/>
-      <c r="U11" s="250"/>
-      <c r="V11" s="266"/>
-      <c r="W11" s="272"/>
-      <c r="X11" s="272"/>
-      <c r="Y11" s="272"/>
-      <c r="Z11" s="272"/>
-      <c r="AA11" s="272"/>
-      <c r="AB11" s="272"/>
-      <c r="AC11" s="272"/>
-      <c r="AD11" s="272"/>
-      <c r="AE11" s="272"/>
-      <c r="AF11" s="272"/>
-      <c r="AG11" s="272"/>
-      <c r="AH11" s="272"/>
-      <c r="AI11" s="272"/>
-      <c r="AJ11" s="272"/>
-      <c r="AK11" s="272"/>
-      <c r="AL11" s="272"/>
-      <c r="AM11" s="273"/>
-      <c r="AN11" s="250"/>
-      <c r="AO11" s="250"/>
-      <c r="AP11" s="250"/>
-      <c r="AQ11" s="250"/>
-      <c r="AR11" s="250"/>
-      <c r="AS11" s="250"/>
-      <c r="AT11" s="250"/>
-      <c r="AU11" s="250"/>
-      <c r="AV11" s="250"/>
-      <c r="AW11" s="250"/>
+      <c r="B11" s="266"/>
+      <c r="C11" s="266"/>
+      <c r="D11" s="266"/>
+      <c r="E11" s="247"/>
+      <c r="F11" s="247"/>
+      <c r="G11" s="247"/>
+      <c r="H11" s="247"/>
+      <c r="I11" s="247"/>
+      <c r="J11" s="248"/>
+      <c r="K11" s="249"/>
+      <c r="L11" s="250"/>
+      <c r="M11" s="261"/>
+      <c r="N11" s="259"/>
+      <c r="O11" s="259"/>
+      <c r="P11" s="259"/>
+      <c r="Q11" s="259"/>
+      <c r="R11" s="260"/>
+      <c r="S11" s="254"/>
+      <c r="T11" s="254"/>
+      <c r="U11" s="254"/>
+      <c r="V11" s="255"/>
+      <c r="W11" s="267"/>
+      <c r="X11" s="267"/>
+      <c r="Y11" s="267"/>
+      <c r="Z11" s="267"/>
+      <c r="AA11" s="267"/>
+      <c r="AB11" s="267"/>
+      <c r="AC11" s="267"/>
+      <c r="AD11" s="267"/>
+      <c r="AE11" s="267"/>
+      <c r="AF11" s="267"/>
+      <c r="AG11" s="267"/>
+      <c r="AH11" s="267"/>
+      <c r="AI11" s="267"/>
+      <c r="AJ11" s="267"/>
+      <c r="AK11" s="267"/>
+      <c r="AL11" s="267"/>
+      <c r="AM11" s="268"/>
+      <c r="AN11" s="254"/>
+      <c r="AO11" s="254"/>
+      <c r="AP11" s="254"/>
+      <c r="AQ11" s="254"/>
+      <c r="AR11" s="254"/>
+      <c r="AS11" s="254"/>
+      <c r="AT11" s="254"/>
+      <c r="AU11" s="254"/>
+      <c r="AV11" s="254"/>
+      <c r="AW11" s="254"/>
     </row>
     <row r="12" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A12" s="58"/>
-      <c r="B12" s="260"/>
-      <c r="C12" s="261"/>
-      <c r="D12" s="262"/>
-      <c r="E12" s="252"/>
-      <c r="F12" s="252"/>
-      <c r="G12" s="252"/>
-      <c r="H12" s="252"/>
-      <c r="I12" s="252"/>
-      <c r="J12" s="253"/>
-      <c r="K12" s="254"/>
-      <c r="L12" s="255"/>
-      <c r="M12" s="263"/>
-      <c r="N12" s="264"/>
-      <c r="O12" s="264"/>
-      <c r="P12" s="264"/>
-      <c r="Q12" s="264"/>
-      <c r="R12" s="265"/>
-      <c r="S12" s="250"/>
-      <c r="T12" s="250"/>
-      <c r="U12" s="250"/>
-      <c r="V12" s="266"/>
-      <c r="W12" s="267"/>
-      <c r="X12" s="267"/>
-      <c r="Y12" s="267"/>
-      <c r="Z12" s="267"/>
-      <c r="AA12" s="267"/>
-      <c r="AB12" s="267"/>
-      <c r="AC12" s="267"/>
-      <c r="AD12" s="267"/>
-      <c r="AE12" s="267"/>
-      <c r="AF12" s="267"/>
-      <c r="AG12" s="267"/>
-      <c r="AH12" s="267"/>
-      <c r="AI12" s="267"/>
-      <c r="AJ12" s="267"/>
-      <c r="AK12" s="267"/>
-      <c r="AL12" s="267"/>
-      <c r="AM12" s="268"/>
-      <c r="AN12" s="269"/>
-      <c r="AO12" s="270"/>
-      <c r="AP12" s="270"/>
-      <c r="AQ12" s="270"/>
-      <c r="AR12" s="271"/>
-      <c r="AS12" s="269"/>
-      <c r="AT12" s="270"/>
-      <c r="AU12" s="270"/>
-      <c r="AV12" s="270"/>
-      <c r="AW12" s="271"/>
+      <c r="B12" s="244"/>
+      <c r="C12" s="245"/>
+      <c r="D12" s="246"/>
+      <c r="E12" s="247"/>
+      <c r="F12" s="247"/>
+      <c r="G12" s="247"/>
+      <c r="H12" s="247"/>
+      <c r="I12" s="247"/>
+      <c r="J12" s="248"/>
+      <c r="K12" s="249"/>
+      <c r="L12" s="250"/>
+      <c r="M12" s="261"/>
+      <c r="N12" s="259"/>
+      <c r="O12" s="259"/>
+      <c r="P12" s="259"/>
+      <c r="Q12" s="259"/>
+      <c r="R12" s="260"/>
+      <c r="S12" s="254"/>
+      <c r="T12" s="254"/>
+      <c r="U12" s="254"/>
+      <c r="V12" s="255"/>
+      <c r="W12" s="256"/>
+      <c r="X12" s="256"/>
+      <c r="Y12" s="256"/>
+      <c r="Z12" s="256"/>
+      <c r="AA12" s="256"/>
+      <c r="AB12" s="256"/>
+      <c r="AC12" s="256"/>
+      <c r="AD12" s="256"/>
+      <c r="AE12" s="256"/>
+      <c r="AF12" s="256"/>
+      <c r="AG12" s="256"/>
+      <c r="AH12" s="256"/>
+      <c r="AI12" s="256"/>
+      <c r="AJ12" s="256"/>
+      <c r="AK12" s="256"/>
+      <c r="AL12" s="256"/>
+      <c r="AM12" s="257"/>
+      <c r="AN12" s="241"/>
+      <c r="AO12" s="242"/>
+      <c r="AP12" s="242"/>
+      <c r="AQ12" s="242"/>
+      <c r="AR12" s="243"/>
+      <c r="AS12" s="241"/>
+      <c r="AT12" s="242"/>
+      <c r="AU12" s="242"/>
+      <c r="AV12" s="242"/>
+      <c r="AW12" s="243"/>
     </row>
     <row r="13" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A13" s="58"/>
-      <c r="B13" s="260"/>
-      <c r="C13" s="261"/>
-      <c r="D13" s="262"/>
-      <c r="E13" s="252"/>
-      <c r="F13" s="252"/>
-      <c r="G13" s="252"/>
-      <c r="H13" s="252"/>
-      <c r="I13" s="252"/>
-      <c r="J13" s="253"/>
-      <c r="K13" s="254"/>
-      <c r="L13" s="255"/>
-      <c r="M13" s="274"/>
-      <c r="N13" s="264"/>
-      <c r="O13" s="264"/>
-      <c r="P13" s="264"/>
-      <c r="Q13" s="264"/>
-      <c r="R13" s="265"/>
-      <c r="S13" s="250"/>
-      <c r="T13" s="250"/>
-      <c r="U13" s="250"/>
-      <c r="V13" s="266"/>
-      <c r="W13" s="267"/>
-      <c r="X13" s="267"/>
-      <c r="Y13" s="267"/>
-      <c r="Z13" s="267"/>
-      <c r="AA13" s="267"/>
-      <c r="AB13" s="267"/>
-      <c r="AC13" s="267"/>
-      <c r="AD13" s="267"/>
-      <c r="AE13" s="267"/>
-      <c r="AF13" s="267"/>
-      <c r="AG13" s="267"/>
-      <c r="AH13" s="267"/>
-      <c r="AI13" s="267"/>
-      <c r="AJ13" s="267"/>
-      <c r="AK13" s="267"/>
-      <c r="AL13" s="267"/>
-      <c r="AM13" s="268"/>
-      <c r="AN13" s="269"/>
-      <c r="AO13" s="270"/>
-      <c r="AP13" s="270"/>
-      <c r="AQ13" s="270"/>
-      <c r="AR13" s="271"/>
-      <c r="AS13" s="269"/>
-      <c r="AT13" s="270"/>
-      <c r="AU13" s="270"/>
-      <c r="AV13" s="270"/>
-      <c r="AW13" s="271"/>
+      <c r="B13" s="244"/>
+      <c r="C13" s="245"/>
+      <c r="D13" s="246"/>
+      <c r="E13" s="247"/>
+      <c r="F13" s="247"/>
+      <c r="G13" s="247"/>
+      <c r="H13" s="247"/>
+      <c r="I13" s="247"/>
+      <c r="J13" s="248"/>
+      <c r="K13" s="249"/>
+      <c r="L13" s="250"/>
+      <c r="M13" s="258"/>
+      <c r="N13" s="259"/>
+      <c r="O13" s="259"/>
+      <c r="P13" s="259"/>
+      <c r="Q13" s="259"/>
+      <c r="R13" s="260"/>
+      <c r="S13" s="254"/>
+      <c r="T13" s="254"/>
+      <c r="U13" s="254"/>
+      <c r="V13" s="255"/>
+      <c r="W13" s="256"/>
+      <c r="X13" s="256"/>
+      <c r="Y13" s="256"/>
+      <c r="Z13" s="256"/>
+      <c r="AA13" s="256"/>
+      <c r="AB13" s="256"/>
+      <c r="AC13" s="256"/>
+      <c r="AD13" s="256"/>
+      <c r="AE13" s="256"/>
+      <c r="AF13" s="256"/>
+      <c r="AG13" s="256"/>
+      <c r="AH13" s="256"/>
+      <c r="AI13" s="256"/>
+      <c r="AJ13" s="256"/>
+      <c r="AK13" s="256"/>
+      <c r="AL13" s="256"/>
+      <c r="AM13" s="257"/>
+      <c r="AN13" s="241"/>
+      <c r="AO13" s="242"/>
+      <c r="AP13" s="242"/>
+      <c r="AQ13" s="242"/>
+      <c r="AR13" s="243"/>
+      <c r="AS13" s="241"/>
+      <c r="AT13" s="242"/>
+      <c r="AU13" s="242"/>
+      <c r="AV13" s="242"/>
+      <c r="AW13" s="243"/>
     </row>
     <row r="14" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A14" s="58"/>
-      <c r="B14" s="260"/>
-      <c r="C14" s="261"/>
-      <c r="D14" s="262"/>
-      <c r="E14" s="252"/>
-      <c r="F14" s="252"/>
-      <c r="G14" s="252"/>
-      <c r="H14" s="252"/>
-      <c r="I14" s="252"/>
-      <c r="J14" s="253"/>
-      <c r="K14" s="254"/>
-      <c r="L14" s="255"/>
-      <c r="M14" s="274"/>
-      <c r="N14" s="264"/>
-      <c r="O14" s="264"/>
-      <c r="P14" s="264"/>
-      <c r="Q14" s="264"/>
-      <c r="R14" s="265"/>
-      <c r="S14" s="250"/>
-      <c r="T14" s="250"/>
-      <c r="U14" s="250"/>
-      <c r="V14" s="275"/>
-      <c r="W14" s="259"/>
-      <c r="X14" s="259"/>
-      <c r="Y14" s="259"/>
-      <c r="Z14" s="259"/>
-      <c r="AA14" s="259"/>
-      <c r="AB14" s="259"/>
-      <c r="AC14" s="259"/>
-      <c r="AD14" s="259"/>
-      <c r="AE14" s="259"/>
-      <c r="AF14" s="259"/>
-      <c r="AG14" s="259"/>
-      <c r="AH14" s="259"/>
-      <c r="AI14" s="259"/>
-      <c r="AJ14" s="259"/>
-      <c r="AK14" s="259"/>
-      <c r="AL14" s="259"/>
-      <c r="AM14" s="259"/>
-      <c r="AN14" s="250"/>
-      <c r="AO14" s="250"/>
-      <c r="AP14" s="250"/>
-      <c r="AQ14" s="250"/>
-      <c r="AR14" s="250"/>
-      <c r="AS14" s="269"/>
-      <c r="AT14" s="270"/>
-      <c r="AU14" s="270"/>
-      <c r="AV14" s="270"/>
-      <c r="AW14" s="271"/>
+      <c r="B14" s="244"/>
+      <c r="C14" s="245"/>
+      <c r="D14" s="246"/>
+      <c r="E14" s="247"/>
+      <c r="F14" s="247"/>
+      <c r="G14" s="247"/>
+      <c r="H14" s="247"/>
+      <c r="I14" s="247"/>
+      <c r="J14" s="248"/>
+      <c r="K14" s="249"/>
+      <c r="L14" s="250"/>
+      <c r="M14" s="258"/>
+      <c r="N14" s="259"/>
+      <c r="O14" s="259"/>
+      <c r="P14" s="259"/>
+      <c r="Q14" s="259"/>
+      <c r="R14" s="260"/>
+      <c r="S14" s="254"/>
+      <c r="T14" s="254"/>
+      <c r="U14" s="254"/>
+      <c r="V14" s="264"/>
+      <c r="W14" s="265"/>
+      <c r="X14" s="265"/>
+      <c r="Y14" s="265"/>
+      <c r="Z14" s="265"/>
+      <c r="AA14" s="265"/>
+      <c r="AB14" s="265"/>
+      <c r="AC14" s="265"/>
+      <c r="AD14" s="265"/>
+      <c r="AE14" s="265"/>
+      <c r="AF14" s="265"/>
+      <c r="AG14" s="265"/>
+      <c r="AH14" s="265"/>
+      <c r="AI14" s="265"/>
+      <c r="AJ14" s="265"/>
+      <c r="AK14" s="265"/>
+      <c r="AL14" s="265"/>
+      <c r="AM14" s="265"/>
+      <c r="AN14" s="254"/>
+      <c r="AO14" s="254"/>
+      <c r="AP14" s="254"/>
+      <c r="AQ14" s="254"/>
+      <c r="AR14" s="254"/>
+      <c r="AS14" s="241"/>
+      <c r="AT14" s="242"/>
+      <c r="AU14" s="242"/>
+      <c r="AV14" s="242"/>
+      <c r="AW14" s="243"/>
     </row>
     <row r="15" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A15" s="58"/>
-      <c r="B15" s="260"/>
-      <c r="C15" s="261"/>
-      <c r="D15" s="262"/>
-      <c r="E15" s="252"/>
-      <c r="F15" s="252"/>
-      <c r="G15" s="252"/>
-      <c r="H15" s="252"/>
-      <c r="I15" s="252"/>
-      <c r="J15" s="253"/>
-      <c r="K15" s="254"/>
-      <c r="L15" s="255"/>
-      <c r="M15" s="263"/>
-      <c r="N15" s="264"/>
-      <c r="O15" s="264"/>
-      <c r="P15" s="264"/>
-      <c r="Q15" s="264"/>
-      <c r="R15" s="265"/>
-      <c r="S15" s="250"/>
-      <c r="T15" s="250"/>
-      <c r="U15" s="250"/>
-      <c r="V15" s="266"/>
-      <c r="W15" s="267"/>
-      <c r="X15" s="267"/>
-      <c r="Y15" s="267"/>
-      <c r="Z15" s="267"/>
-      <c r="AA15" s="267"/>
-      <c r="AB15" s="267"/>
-      <c r="AC15" s="267"/>
-      <c r="AD15" s="267"/>
-      <c r="AE15" s="267"/>
-      <c r="AF15" s="267"/>
-      <c r="AG15" s="267"/>
-      <c r="AH15" s="267"/>
-      <c r="AI15" s="267"/>
-      <c r="AJ15" s="267"/>
-      <c r="AK15" s="267"/>
-      <c r="AL15" s="267"/>
-      <c r="AM15" s="268"/>
-      <c r="AN15" s="269"/>
-      <c r="AO15" s="270"/>
-      <c r="AP15" s="270"/>
-      <c r="AQ15" s="270"/>
-      <c r="AR15" s="271"/>
-      <c r="AS15" s="269"/>
-      <c r="AT15" s="270"/>
-      <c r="AU15" s="270"/>
-      <c r="AV15" s="270"/>
-      <c r="AW15" s="271"/>
+      <c r="B15" s="244"/>
+      <c r="C15" s="245"/>
+      <c r="D15" s="246"/>
+      <c r="E15" s="247"/>
+      <c r="F15" s="247"/>
+      <c r="G15" s="247"/>
+      <c r="H15" s="247"/>
+      <c r="I15" s="247"/>
+      <c r="J15" s="248"/>
+      <c r="K15" s="249"/>
+      <c r="L15" s="250"/>
+      <c r="M15" s="261"/>
+      <c r="N15" s="259"/>
+      <c r="O15" s="259"/>
+      <c r="P15" s="259"/>
+      <c r="Q15" s="259"/>
+      <c r="R15" s="260"/>
+      <c r="S15" s="254"/>
+      <c r="T15" s="254"/>
+      <c r="U15" s="254"/>
+      <c r="V15" s="255"/>
+      <c r="W15" s="256"/>
+      <c r="X15" s="256"/>
+      <c r="Y15" s="256"/>
+      <c r="Z15" s="256"/>
+      <c r="AA15" s="256"/>
+      <c r="AB15" s="256"/>
+      <c r="AC15" s="256"/>
+      <c r="AD15" s="256"/>
+      <c r="AE15" s="256"/>
+      <c r="AF15" s="256"/>
+      <c r="AG15" s="256"/>
+      <c r="AH15" s="256"/>
+      <c r="AI15" s="256"/>
+      <c r="AJ15" s="256"/>
+      <c r="AK15" s="256"/>
+      <c r="AL15" s="256"/>
+      <c r="AM15" s="257"/>
+      <c r="AN15" s="241"/>
+      <c r="AO15" s="242"/>
+      <c r="AP15" s="242"/>
+      <c r="AQ15" s="242"/>
+      <c r="AR15" s="243"/>
+      <c r="AS15" s="241"/>
+      <c r="AT15" s="242"/>
+      <c r="AU15" s="242"/>
+      <c r="AV15" s="242"/>
+      <c r="AW15" s="243"/>
     </row>
     <row r="16" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A16" s="58"/>
-      <c r="B16" s="260"/>
-      <c r="C16" s="261"/>
-      <c r="D16" s="262"/>
-      <c r="E16" s="252"/>
-      <c r="F16" s="252"/>
-      <c r="G16" s="252"/>
-      <c r="H16" s="252"/>
-      <c r="I16" s="252"/>
-      <c r="J16" s="253"/>
-      <c r="K16" s="254"/>
-      <c r="L16" s="255"/>
-      <c r="M16" s="263"/>
-      <c r="N16" s="264"/>
-      <c r="O16" s="264"/>
-      <c r="P16" s="264"/>
-      <c r="Q16" s="264"/>
-      <c r="R16" s="265"/>
-      <c r="S16" s="250"/>
-      <c r="T16" s="250"/>
-      <c r="U16" s="250"/>
-      <c r="V16" s="266"/>
-      <c r="W16" s="267"/>
-      <c r="X16" s="267"/>
-      <c r="Y16" s="267"/>
-      <c r="Z16" s="267"/>
-      <c r="AA16" s="267"/>
-      <c r="AB16" s="267"/>
-      <c r="AC16" s="267"/>
-      <c r="AD16" s="267"/>
-      <c r="AE16" s="267"/>
-      <c r="AF16" s="267"/>
-      <c r="AG16" s="267"/>
-      <c r="AH16" s="267"/>
-      <c r="AI16" s="267"/>
-      <c r="AJ16" s="267"/>
-      <c r="AK16" s="267"/>
-      <c r="AL16" s="267"/>
-      <c r="AM16" s="268"/>
-      <c r="AN16" s="269"/>
-      <c r="AO16" s="270"/>
-      <c r="AP16" s="270"/>
-      <c r="AQ16" s="270"/>
-      <c r="AR16" s="271"/>
-      <c r="AS16" s="269"/>
-      <c r="AT16" s="270"/>
-      <c r="AU16" s="270"/>
-      <c r="AV16" s="270"/>
-      <c r="AW16" s="271"/>
+      <c r="B16" s="244"/>
+      <c r="C16" s="245"/>
+      <c r="D16" s="246"/>
+      <c r="E16" s="247"/>
+      <c r="F16" s="247"/>
+      <c r="G16" s="247"/>
+      <c r="H16" s="247"/>
+      <c r="I16" s="247"/>
+      <c r="J16" s="248"/>
+      <c r="K16" s="249"/>
+      <c r="L16" s="250"/>
+      <c r="M16" s="261"/>
+      <c r="N16" s="259"/>
+      <c r="O16" s="259"/>
+      <c r="P16" s="259"/>
+      <c r="Q16" s="259"/>
+      <c r="R16" s="260"/>
+      <c r="S16" s="254"/>
+      <c r="T16" s="254"/>
+      <c r="U16" s="254"/>
+      <c r="V16" s="255"/>
+      <c r="W16" s="256"/>
+      <c r="X16" s="256"/>
+      <c r="Y16" s="256"/>
+      <c r="Z16" s="256"/>
+      <c r="AA16" s="256"/>
+      <c r="AB16" s="256"/>
+      <c r="AC16" s="256"/>
+      <c r="AD16" s="256"/>
+      <c r="AE16" s="256"/>
+      <c r="AF16" s="256"/>
+      <c r="AG16" s="256"/>
+      <c r="AH16" s="256"/>
+      <c r="AI16" s="256"/>
+      <c r="AJ16" s="256"/>
+      <c r="AK16" s="256"/>
+      <c r="AL16" s="256"/>
+      <c r="AM16" s="257"/>
+      <c r="AN16" s="241"/>
+      <c r="AO16" s="242"/>
+      <c r="AP16" s="242"/>
+      <c r="AQ16" s="242"/>
+      <c r="AR16" s="243"/>
+      <c r="AS16" s="241"/>
+      <c r="AT16" s="242"/>
+      <c r="AU16" s="242"/>
+      <c r="AV16" s="242"/>
+      <c r="AW16" s="243"/>
     </row>
     <row r="17" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A17" s="58"/>
-      <c r="B17" s="260"/>
-      <c r="C17" s="261"/>
-      <c r="D17" s="262"/>
-      <c r="E17" s="252"/>
-      <c r="F17" s="252"/>
-      <c r="G17" s="252"/>
-      <c r="H17" s="252"/>
-      <c r="I17" s="252"/>
-      <c r="J17" s="253"/>
-      <c r="K17" s="254"/>
-      <c r="L17" s="255"/>
-      <c r="M17" s="263"/>
-      <c r="N17" s="264"/>
-      <c r="O17" s="264"/>
-      <c r="P17" s="264"/>
-      <c r="Q17" s="264"/>
-      <c r="R17" s="276"/>
-      <c r="S17" s="277"/>
-      <c r="T17" s="277"/>
-      <c r="U17" s="277"/>
-      <c r="V17" s="266"/>
-      <c r="W17" s="267"/>
-      <c r="X17" s="267"/>
-      <c r="Y17" s="267"/>
-      <c r="Z17" s="267"/>
-      <c r="AA17" s="267"/>
-      <c r="AB17" s="267"/>
-      <c r="AC17" s="267"/>
-      <c r="AD17" s="267"/>
-      <c r="AE17" s="267"/>
-      <c r="AF17" s="267"/>
-      <c r="AG17" s="267"/>
-      <c r="AH17" s="267"/>
-      <c r="AI17" s="267"/>
-      <c r="AJ17" s="267"/>
-      <c r="AK17" s="267"/>
-      <c r="AL17" s="267"/>
-      <c r="AM17" s="268"/>
-      <c r="AN17" s="269"/>
-      <c r="AO17" s="270"/>
-      <c r="AP17" s="270"/>
-      <c r="AQ17" s="270"/>
-      <c r="AR17" s="271"/>
-      <c r="AS17" s="269"/>
-      <c r="AT17" s="270"/>
-      <c r="AU17" s="270"/>
-      <c r="AV17" s="270"/>
-      <c r="AW17" s="271"/>
+      <c r="B17" s="244"/>
+      <c r="C17" s="245"/>
+      <c r="D17" s="246"/>
+      <c r="E17" s="247"/>
+      <c r="F17" s="247"/>
+      <c r="G17" s="247"/>
+      <c r="H17" s="247"/>
+      <c r="I17" s="247"/>
+      <c r="J17" s="248"/>
+      <c r="K17" s="249"/>
+      <c r="L17" s="250"/>
+      <c r="M17" s="261"/>
+      <c r="N17" s="259"/>
+      <c r="O17" s="259"/>
+      <c r="P17" s="259"/>
+      <c r="Q17" s="259"/>
+      <c r="R17" s="262"/>
+      <c r="S17" s="263"/>
+      <c r="T17" s="263"/>
+      <c r="U17" s="263"/>
+      <c r="V17" s="255"/>
+      <c r="W17" s="256"/>
+      <c r="X17" s="256"/>
+      <c r="Y17" s="256"/>
+      <c r="Z17" s="256"/>
+      <c r="AA17" s="256"/>
+      <c r="AB17" s="256"/>
+      <c r="AC17" s="256"/>
+      <c r="AD17" s="256"/>
+      <c r="AE17" s="256"/>
+      <c r="AF17" s="256"/>
+      <c r="AG17" s="256"/>
+      <c r="AH17" s="256"/>
+      <c r="AI17" s="256"/>
+      <c r="AJ17" s="256"/>
+      <c r="AK17" s="256"/>
+      <c r="AL17" s="256"/>
+      <c r="AM17" s="257"/>
+      <c r="AN17" s="241"/>
+      <c r="AO17" s="242"/>
+      <c r="AP17" s="242"/>
+      <c r="AQ17" s="242"/>
+      <c r="AR17" s="243"/>
+      <c r="AS17" s="241"/>
+      <c r="AT17" s="242"/>
+      <c r="AU17" s="242"/>
+      <c r="AV17" s="242"/>
+      <c r="AW17" s="243"/>
     </row>
     <row r="18" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A18" s="58"/>
-      <c r="B18" s="260"/>
-      <c r="C18" s="261"/>
-      <c r="D18" s="262"/>
-      <c r="E18" s="252"/>
-      <c r="F18" s="252"/>
-      <c r="G18" s="252"/>
-      <c r="H18" s="252"/>
-      <c r="I18" s="252"/>
-      <c r="J18" s="253"/>
-      <c r="K18" s="254"/>
-      <c r="L18" s="255"/>
-      <c r="M18" s="274"/>
-      <c r="N18" s="264"/>
-      <c r="O18" s="264"/>
-      <c r="P18" s="264"/>
-      <c r="Q18" s="264"/>
-      <c r="R18" s="265"/>
-      <c r="S18" s="250"/>
-      <c r="T18" s="250"/>
-      <c r="U18" s="250"/>
-      <c r="V18" s="266"/>
-      <c r="W18" s="267"/>
-      <c r="X18" s="267"/>
-      <c r="Y18" s="267"/>
-      <c r="Z18" s="267"/>
-      <c r="AA18" s="267"/>
-      <c r="AB18" s="267"/>
-      <c r="AC18" s="267"/>
-      <c r="AD18" s="267"/>
-      <c r="AE18" s="267"/>
-      <c r="AF18" s="267"/>
-      <c r="AG18" s="267"/>
-      <c r="AH18" s="267"/>
-      <c r="AI18" s="267"/>
-      <c r="AJ18" s="267"/>
-      <c r="AK18" s="267"/>
-      <c r="AL18" s="267"/>
-      <c r="AM18" s="268"/>
-      <c r="AN18" s="269"/>
-      <c r="AO18" s="270"/>
-      <c r="AP18" s="270"/>
-      <c r="AQ18" s="270"/>
-      <c r="AR18" s="271"/>
-      <c r="AS18" s="269"/>
-      <c r="AT18" s="270"/>
-      <c r="AU18" s="270"/>
-      <c r="AV18" s="270"/>
-      <c r="AW18" s="271"/>
+      <c r="B18" s="244"/>
+      <c r="C18" s="245"/>
+      <c r="D18" s="246"/>
+      <c r="E18" s="247"/>
+      <c r="F18" s="247"/>
+      <c r="G18" s="247"/>
+      <c r="H18" s="247"/>
+      <c r="I18" s="247"/>
+      <c r="J18" s="248"/>
+      <c r="K18" s="249"/>
+      <c r="L18" s="250"/>
+      <c r="M18" s="258"/>
+      <c r="N18" s="259"/>
+      <c r="O18" s="259"/>
+      <c r="P18" s="259"/>
+      <c r="Q18" s="259"/>
+      <c r="R18" s="260"/>
+      <c r="S18" s="254"/>
+      <c r="T18" s="254"/>
+      <c r="U18" s="254"/>
+      <c r="V18" s="255"/>
+      <c r="W18" s="256"/>
+      <c r="X18" s="256"/>
+      <c r="Y18" s="256"/>
+      <c r="Z18" s="256"/>
+      <c r="AA18" s="256"/>
+      <c r="AB18" s="256"/>
+      <c r="AC18" s="256"/>
+      <c r="AD18" s="256"/>
+      <c r="AE18" s="256"/>
+      <c r="AF18" s="256"/>
+      <c r="AG18" s="256"/>
+      <c r="AH18" s="256"/>
+      <c r="AI18" s="256"/>
+      <c r="AJ18" s="256"/>
+      <c r="AK18" s="256"/>
+      <c r="AL18" s="256"/>
+      <c r="AM18" s="257"/>
+      <c r="AN18" s="241"/>
+      <c r="AO18" s="242"/>
+      <c r="AP18" s="242"/>
+      <c r="AQ18" s="242"/>
+      <c r="AR18" s="243"/>
+      <c r="AS18" s="241"/>
+      <c r="AT18" s="242"/>
+      <c r="AU18" s="242"/>
+      <c r="AV18" s="242"/>
+      <c r="AW18" s="243"/>
     </row>
     <row r="19" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A19" s="58"/>
-      <c r="B19" s="260"/>
-      <c r="C19" s="261"/>
-      <c r="D19" s="262"/>
-      <c r="E19" s="252"/>
-      <c r="F19" s="252"/>
-      <c r="G19" s="252"/>
-      <c r="H19" s="252"/>
-      <c r="I19" s="252"/>
-      <c r="J19" s="253"/>
-      <c r="K19" s="254"/>
-      <c r="L19" s="255"/>
-      <c r="M19" s="263"/>
-      <c r="N19" s="264"/>
-      <c r="O19" s="264"/>
-      <c r="P19" s="264"/>
-      <c r="Q19" s="264"/>
-      <c r="R19" s="265"/>
-      <c r="S19" s="250"/>
-      <c r="T19" s="250"/>
-      <c r="U19" s="250"/>
-      <c r="V19" s="266"/>
-      <c r="W19" s="267"/>
-      <c r="X19" s="267"/>
-      <c r="Y19" s="267"/>
-      <c r="Z19" s="267"/>
-      <c r="AA19" s="267"/>
-      <c r="AB19" s="267"/>
-      <c r="AC19" s="267"/>
-      <c r="AD19" s="267"/>
-      <c r="AE19" s="267"/>
-      <c r="AF19" s="267"/>
-      <c r="AG19" s="267"/>
-      <c r="AH19" s="267"/>
-      <c r="AI19" s="267"/>
-      <c r="AJ19" s="267"/>
-      <c r="AK19" s="267"/>
-      <c r="AL19" s="267"/>
-      <c r="AM19" s="268"/>
-      <c r="AN19" s="250"/>
-      <c r="AO19" s="250"/>
-      <c r="AP19" s="250"/>
-      <c r="AQ19" s="250"/>
-      <c r="AR19" s="250"/>
-      <c r="AS19" s="269"/>
-      <c r="AT19" s="270"/>
-      <c r="AU19" s="270"/>
-      <c r="AV19" s="270"/>
-      <c r="AW19" s="271"/>
+      <c r="B19" s="244"/>
+      <c r="C19" s="245"/>
+      <c r="D19" s="246"/>
+      <c r="E19" s="247"/>
+      <c r="F19" s="247"/>
+      <c r="G19" s="247"/>
+      <c r="H19" s="247"/>
+      <c r="I19" s="247"/>
+      <c r="J19" s="248"/>
+      <c r="K19" s="249"/>
+      <c r="L19" s="250"/>
+      <c r="M19" s="261"/>
+      <c r="N19" s="259"/>
+      <c r="O19" s="259"/>
+      <c r="P19" s="259"/>
+      <c r="Q19" s="259"/>
+      <c r="R19" s="260"/>
+      <c r="S19" s="254"/>
+      <c r="T19" s="254"/>
+      <c r="U19" s="254"/>
+      <c r="V19" s="255"/>
+      <c r="W19" s="256"/>
+      <c r="X19" s="256"/>
+      <c r="Y19" s="256"/>
+      <c r="Z19" s="256"/>
+      <c r="AA19" s="256"/>
+      <c r="AB19" s="256"/>
+      <c r="AC19" s="256"/>
+      <c r="AD19" s="256"/>
+      <c r="AE19" s="256"/>
+      <c r="AF19" s="256"/>
+      <c r="AG19" s="256"/>
+      <c r="AH19" s="256"/>
+      <c r="AI19" s="256"/>
+      <c r="AJ19" s="256"/>
+      <c r="AK19" s="256"/>
+      <c r="AL19" s="256"/>
+      <c r="AM19" s="257"/>
+      <c r="AN19" s="254"/>
+      <c r="AO19" s="254"/>
+      <c r="AP19" s="254"/>
+      <c r="AQ19" s="254"/>
+      <c r="AR19" s="254"/>
+      <c r="AS19" s="241"/>
+      <c r="AT19" s="242"/>
+      <c r="AU19" s="242"/>
+      <c r="AV19" s="242"/>
+      <c r="AW19" s="243"/>
     </row>
     <row r="20" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A20" s="58"/>
-      <c r="B20" s="260"/>
-      <c r="C20" s="261"/>
-      <c r="D20" s="262"/>
-      <c r="E20" s="252"/>
-      <c r="F20" s="252"/>
-      <c r="G20" s="252"/>
-      <c r="H20" s="252"/>
-      <c r="I20" s="252"/>
-      <c r="J20" s="253"/>
-      <c r="K20" s="254"/>
-      <c r="L20" s="255"/>
-      <c r="M20" s="263"/>
-      <c r="N20" s="264"/>
-      <c r="O20" s="264"/>
-      <c r="P20" s="264"/>
-      <c r="Q20" s="264"/>
-      <c r="R20" s="265"/>
-      <c r="S20" s="269"/>
-      <c r="T20" s="270"/>
-      <c r="U20" s="271"/>
-      <c r="V20" s="266"/>
-      <c r="W20" s="267"/>
-      <c r="X20" s="267"/>
-      <c r="Y20" s="267"/>
-      <c r="Z20" s="267"/>
-      <c r="AA20" s="267"/>
-      <c r="AB20" s="267"/>
-      <c r="AC20" s="267"/>
-      <c r="AD20" s="267"/>
-      <c r="AE20" s="267"/>
-      <c r="AF20" s="267"/>
-      <c r="AG20" s="267"/>
-      <c r="AH20" s="267"/>
-      <c r="AI20" s="267"/>
-      <c r="AJ20" s="267"/>
-      <c r="AK20" s="267"/>
-      <c r="AL20" s="267"/>
-      <c r="AM20" s="268"/>
-      <c r="AN20" s="269"/>
-      <c r="AO20" s="270"/>
-      <c r="AP20" s="270"/>
-      <c r="AQ20" s="270"/>
-      <c r="AR20" s="271"/>
-      <c r="AS20" s="269"/>
-      <c r="AT20" s="270"/>
-      <c r="AU20" s="270"/>
-      <c r="AV20" s="270"/>
-      <c r="AW20" s="271"/>
+      <c r="B20" s="244"/>
+      <c r="C20" s="245"/>
+      <c r="D20" s="246"/>
+      <c r="E20" s="247"/>
+      <c r="F20" s="247"/>
+      <c r="G20" s="247"/>
+      <c r="H20" s="247"/>
+      <c r="I20" s="247"/>
+      <c r="J20" s="248"/>
+      <c r="K20" s="249"/>
+      <c r="L20" s="250"/>
+      <c r="M20" s="261"/>
+      <c r="N20" s="259"/>
+      <c r="O20" s="259"/>
+      <c r="P20" s="259"/>
+      <c r="Q20" s="259"/>
+      <c r="R20" s="260"/>
+      <c r="S20" s="241"/>
+      <c r="T20" s="242"/>
+      <c r="U20" s="243"/>
+      <c r="V20" s="255"/>
+      <c r="W20" s="256"/>
+      <c r="X20" s="256"/>
+      <c r="Y20" s="256"/>
+      <c r="Z20" s="256"/>
+      <c r="AA20" s="256"/>
+      <c r="AB20" s="256"/>
+      <c r="AC20" s="256"/>
+      <c r="AD20" s="256"/>
+      <c r="AE20" s="256"/>
+      <c r="AF20" s="256"/>
+      <c r="AG20" s="256"/>
+      <c r="AH20" s="256"/>
+      <c r="AI20" s="256"/>
+      <c r="AJ20" s="256"/>
+      <c r="AK20" s="256"/>
+      <c r="AL20" s="256"/>
+      <c r="AM20" s="257"/>
+      <c r="AN20" s="241"/>
+      <c r="AO20" s="242"/>
+      <c r="AP20" s="242"/>
+      <c r="AQ20" s="242"/>
+      <c r="AR20" s="243"/>
+      <c r="AS20" s="241"/>
+      <c r="AT20" s="242"/>
+      <c r="AU20" s="242"/>
+      <c r="AV20" s="242"/>
+      <c r="AW20" s="243"/>
     </row>
     <row r="21" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A21" s="58"/>
-      <c r="B21" s="260"/>
-      <c r="C21" s="261"/>
-      <c r="D21" s="262"/>
-      <c r="E21" s="252"/>
-      <c r="F21" s="252"/>
-      <c r="G21" s="252"/>
-      <c r="H21" s="252"/>
-      <c r="I21" s="252"/>
-      <c r="J21" s="253"/>
-      <c r="K21" s="254"/>
-      <c r="L21" s="255"/>
-      <c r="M21" s="263"/>
-      <c r="N21" s="264"/>
-      <c r="O21" s="264"/>
-      <c r="P21" s="264"/>
-      <c r="Q21" s="264"/>
-      <c r="R21" s="265"/>
-      <c r="S21" s="250"/>
-      <c r="T21" s="250"/>
-      <c r="U21" s="250"/>
-      <c r="V21" s="266"/>
-      <c r="W21" s="267"/>
-      <c r="X21" s="267"/>
-      <c r="Y21" s="267"/>
-      <c r="Z21" s="267"/>
-      <c r="AA21" s="267"/>
-      <c r="AB21" s="267"/>
-      <c r="AC21" s="267"/>
-      <c r="AD21" s="267"/>
-      <c r="AE21" s="267"/>
-      <c r="AF21" s="267"/>
-      <c r="AG21" s="267"/>
-      <c r="AH21" s="267"/>
-      <c r="AI21" s="267"/>
-      <c r="AJ21" s="267"/>
-      <c r="AK21" s="267"/>
-      <c r="AL21" s="267"/>
-      <c r="AM21" s="268"/>
-      <c r="AN21" s="269"/>
-      <c r="AO21" s="270"/>
-      <c r="AP21" s="270"/>
-      <c r="AQ21" s="270"/>
-      <c r="AR21" s="271"/>
-      <c r="AS21" s="269"/>
-      <c r="AT21" s="270"/>
-      <c r="AU21" s="270"/>
-      <c r="AV21" s="270"/>
-      <c r="AW21" s="271"/>
+      <c r="B21" s="244"/>
+      <c r="C21" s="245"/>
+      <c r="D21" s="246"/>
+      <c r="E21" s="247"/>
+      <c r="F21" s="247"/>
+      <c r="G21" s="247"/>
+      <c r="H21" s="247"/>
+      <c r="I21" s="247"/>
+      <c r="J21" s="248"/>
+      <c r="K21" s="249"/>
+      <c r="L21" s="250"/>
+      <c r="M21" s="261"/>
+      <c r="N21" s="259"/>
+      <c r="O21" s="259"/>
+      <c r="P21" s="259"/>
+      <c r="Q21" s="259"/>
+      <c r="R21" s="260"/>
+      <c r="S21" s="254"/>
+      <c r="T21" s="254"/>
+      <c r="U21" s="254"/>
+      <c r="V21" s="255"/>
+      <c r="W21" s="256"/>
+      <c r="X21" s="256"/>
+      <c r="Y21" s="256"/>
+      <c r="Z21" s="256"/>
+      <c r="AA21" s="256"/>
+      <c r="AB21" s="256"/>
+      <c r="AC21" s="256"/>
+      <c r="AD21" s="256"/>
+      <c r="AE21" s="256"/>
+      <c r="AF21" s="256"/>
+      <c r="AG21" s="256"/>
+      <c r="AH21" s="256"/>
+      <c r="AI21" s="256"/>
+      <c r="AJ21" s="256"/>
+      <c r="AK21" s="256"/>
+      <c r="AL21" s="256"/>
+      <c r="AM21" s="257"/>
+      <c r="AN21" s="241"/>
+      <c r="AO21" s="242"/>
+      <c r="AP21" s="242"/>
+      <c r="AQ21" s="242"/>
+      <c r="AR21" s="243"/>
+      <c r="AS21" s="241"/>
+      <c r="AT21" s="242"/>
+      <c r="AU21" s="242"/>
+      <c r="AV21" s="242"/>
+      <c r="AW21" s="243"/>
     </row>
     <row r="22" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A22" s="58"/>
-      <c r="B22" s="260"/>
-      <c r="C22" s="261"/>
-      <c r="D22" s="262"/>
-      <c r="E22" s="252"/>
-      <c r="F22" s="252"/>
-      <c r="G22" s="252"/>
-      <c r="H22" s="252"/>
-      <c r="I22" s="252"/>
-      <c r="J22" s="253"/>
-      <c r="K22" s="254"/>
-      <c r="L22" s="255"/>
-      <c r="M22" s="263"/>
-      <c r="N22" s="264"/>
-      <c r="O22" s="264"/>
-      <c r="P22" s="264"/>
-      <c r="Q22" s="264"/>
-      <c r="R22" s="265"/>
-      <c r="S22" s="250"/>
-      <c r="T22" s="250"/>
-      <c r="U22" s="250"/>
-      <c r="V22" s="266"/>
-      <c r="W22" s="267"/>
-      <c r="X22" s="267"/>
-      <c r="Y22" s="267"/>
-      <c r="Z22" s="267"/>
-      <c r="AA22" s="267"/>
-      <c r="AB22" s="267"/>
-      <c r="AC22" s="267"/>
-      <c r="AD22" s="267"/>
-      <c r="AE22" s="267"/>
-      <c r="AF22" s="267"/>
-      <c r="AG22" s="267"/>
-      <c r="AH22" s="267"/>
-      <c r="AI22" s="267"/>
-      <c r="AJ22" s="267"/>
-      <c r="AK22" s="267"/>
-      <c r="AL22" s="267"/>
-      <c r="AM22" s="268"/>
-      <c r="AN22" s="269"/>
-      <c r="AO22" s="270"/>
-      <c r="AP22" s="270"/>
-      <c r="AQ22" s="270"/>
-      <c r="AR22" s="271"/>
-      <c r="AS22" s="269"/>
-      <c r="AT22" s="270"/>
-      <c r="AU22" s="270"/>
-      <c r="AV22" s="270"/>
-      <c r="AW22" s="271"/>
+      <c r="B22" s="244"/>
+      <c r="C22" s="245"/>
+      <c r="D22" s="246"/>
+      <c r="E22" s="247"/>
+      <c r="F22" s="247"/>
+      <c r="G22" s="247"/>
+      <c r="H22" s="247"/>
+      <c r="I22" s="247"/>
+      <c r="J22" s="248"/>
+      <c r="K22" s="249"/>
+      <c r="L22" s="250"/>
+      <c r="M22" s="261"/>
+      <c r="N22" s="259"/>
+      <c r="O22" s="259"/>
+      <c r="P22" s="259"/>
+      <c r="Q22" s="259"/>
+      <c r="R22" s="260"/>
+      <c r="S22" s="254"/>
+      <c r="T22" s="254"/>
+      <c r="U22" s="254"/>
+      <c r="V22" s="255"/>
+      <c r="W22" s="256"/>
+      <c r="X22" s="256"/>
+      <c r="Y22" s="256"/>
+      <c r="Z22" s="256"/>
+      <c r="AA22" s="256"/>
+      <c r="AB22" s="256"/>
+      <c r="AC22" s="256"/>
+      <c r="AD22" s="256"/>
+      <c r="AE22" s="256"/>
+      <c r="AF22" s="256"/>
+      <c r="AG22" s="256"/>
+      <c r="AH22" s="256"/>
+      <c r="AI22" s="256"/>
+      <c r="AJ22" s="256"/>
+      <c r="AK22" s="256"/>
+      <c r="AL22" s="256"/>
+      <c r="AM22" s="257"/>
+      <c r="AN22" s="241"/>
+      <c r="AO22" s="242"/>
+      <c r="AP22" s="242"/>
+      <c r="AQ22" s="242"/>
+      <c r="AR22" s="243"/>
+      <c r="AS22" s="241"/>
+      <c r="AT22" s="242"/>
+      <c r="AU22" s="242"/>
+      <c r="AV22" s="242"/>
+      <c r="AW22" s="243"/>
     </row>
     <row r="23" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A23" s="56"/>
-      <c r="B23" s="260"/>
-      <c r="C23" s="261"/>
-      <c r="D23" s="262"/>
-      <c r="E23" s="252"/>
-      <c r="F23" s="252"/>
-      <c r="G23" s="252"/>
-      <c r="H23" s="252"/>
-      <c r="I23" s="252"/>
-      <c r="J23" s="253"/>
-      <c r="K23" s="254"/>
-      <c r="L23" s="255"/>
-      <c r="M23" s="263"/>
-      <c r="N23" s="264"/>
-      <c r="O23" s="264"/>
-      <c r="P23" s="264"/>
-      <c r="Q23" s="264"/>
-      <c r="R23" s="265"/>
-      <c r="S23" s="250"/>
-      <c r="T23" s="250"/>
-      <c r="U23" s="250"/>
-      <c r="V23" s="266"/>
-      <c r="W23" s="267"/>
-      <c r="X23" s="267"/>
-      <c r="Y23" s="267"/>
-      <c r="Z23" s="267"/>
-      <c r="AA23" s="267"/>
-      <c r="AB23" s="267"/>
-      <c r="AC23" s="267"/>
-      <c r="AD23" s="267"/>
-      <c r="AE23" s="267"/>
-      <c r="AF23" s="267"/>
-      <c r="AG23" s="267"/>
-      <c r="AH23" s="267"/>
-      <c r="AI23" s="267"/>
-      <c r="AJ23" s="267"/>
-      <c r="AK23" s="267"/>
-      <c r="AL23" s="267"/>
-      <c r="AM23" s="268"/>
-      <c r="AN23" s="269"/>
-      <c r="AO23" s="270"/>
-      <c r="AP23" s="270"/>
-      <c r="AQ23" s="270"/>
-      <c r="AR23" s="271"/>
-      <c r="AS23" s="269"/>
-      <c r="AT23" s="270"/>
-      <c r="AU23" s="270"/>
-      <c r="AV23" s="270"/>
-      <c r="AW23" s="271"/>
+      <c r="B23" s="244"/>
+      <c r="C23" s="245"/>
+      <c r="D23" s="246"/>
+      <c r="E23" s="247"/>
+      <c r="F23" s="247"/>
+      <c r="G23" s="247"/>
+      <c r="H23" s="247"/>
+      <c r="I23" s="247"/>
+      <c r="J23" s="248"/>
+      <c r="K23" s="249"/>
+      <c r="L23" s="250"/>
+      <c r="M23" s="261"/>
+      <c r="N23" s="259"/>
+      <c r="O23" s="259"/>
+      <c r="P23" s="259"/>
+      <c r="Q23" s="259"/>
+      <c r="R23" s="260"/>
+      <c r="S23" s="254"/>
+      <c r="T23" s="254"/>
+      <c r="U23" s="254"/>
+      <c r="V23" s="255"/>
+      <c r="W23" s="256"/>
+      <c r="X23" s="256"/>
+      <c r="Y23" s="256"/>
+      <c r="Z23" s="256"/>
+      <c r="AA23" s="256"/>
+      <c r="AB23" s="256"/>
+      <c r="AC23" s="256"/>
+      <c r="AD23" s="256"/>
+      <c r="AE23" s="256"/>
+      <c r="AF23" s="256"/>
+      <c r="AG23" s="256"/>
+      <c r="AH23" s="256"/>
+      <c r="AI23" s="256"/>
+      <c r="AJ23" s="256"/>
+      <c r="AK23" s="256"/>
+      <c r="AL23" s="256"/>
+      <c r="AM23" s="257"/>
+      <c r="AN23" s="241"/>
+      <c r="AO23" s="242"/>
+      <c r="AP23" s="242"/>
+      <c r="AQ23" s="242"/>
+      <c r="AR23" s="243"/>
+      <c r="AS23" s="241"/>
+      <c r="AT23" s="242"/>
+      <c r="AU23" s="242"/>
+      <c r="AV23" s="242"/>
+      <c r="AW23" s="243"/>
     </row>
     <row r="24" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A24" s="56"/>
-      <c r="B24" s="260"/>
-      <c r="C24" s="261"/>
-      <c r="D24" s="262"/>
-      <c r="E24" s="252"/>
-      <c r="F24" s="252"/>
-      <c r="G24" s="252"/>
-      <c r="H24" s="252"/>
-      <c r="I24" s="252"/>
-      <c r="J24" s="253"/>
-      <c r="K24" s="254"/>
-      <c r="L24" s="255"/>
-      <c r="M24" s="263"/>
-      <c r="N24" s="264"/>
-      <c r="O24" s="264"/>
-      <c r="P24" s="264"/>
-      <c r="Q24" s="264"/>
-      <c r="R24" s="265"/>
-      <c r="S24" s="250"/>
-      <c r="T24" s="250"/>
-      <c r="U24" s="250"/>
-      <c r="V24" s="266"/>
-      <c r="W24" s="267"/>
-      <c r="X24" s="267"/>
-      <c r="Y24" s="267"/>
-      <c r="Z24" s="267"/>
-      <c r="AA24" s="267"/>
-      <c r="AB24" s="267"/>
-      <c r="AC24" s="267"/>
-      <c r="AD24" s="267"/>
-      <c r="AE24" s="267"/>
-      <c r="AF24" s="267"/>
-      <c r="AG24" s="267"/>
-      <c r="AH24" s="267"/>
-      <c r="AI24" s="267"/>
-      <c r="AJ24" s="267"/>
-      <c r="AK24" s="267"/>
-      <c r="AL24" s="267"/>
-      <c r="AM24" s="268"/>
-      <c r="AN24" s="269"/>
-      <c r="AO24" s="270"/>
-      <c r="AP24" s="270"/>
-      <c r="AQ24" s="270"/>
-      <c r="AR24" s="271"/>
-      <c r="AS24" s="269"/>
-      <c r="AT24" s="270"/>
-      <c r="AU24" s="270"/>
-      <c r="AV24" s="270"/>
-      <c r="AW24" s="271"/>
+      <c r="B24" s="244"/>
+      <c r="C24" s="245"/>
+      <c r="D24" s="246"/>
+      <c r="E24" s="247"/>
+      <c r="F24" s="247"/>
+      <c r="G24" s="247"/>
+      <c r="H24" s="247"/>
+      <c r="I24" s="247"/>
+      <c r="J24" s="248"/>
+      <c r="K24" s="249"/>
+      <c r="L24" s="250"/>
+      <c r="M24" s="261"/>
+      <c r="N24" s="259"/>
+      <c r="O24" s="259"/>
+      <c r="P24" s="259"/>
+      <c r="Q24" s="259"/>
+      <c r="R24" s="260"/>
+      <c r="S24" s="254"/>
+      <c r="T24" s="254"/>
+      <c r="U24" s="254"/>
+      <c r="V24" s="255"/>
+      <c r="W24" s="256"/>
+      <c r="X24" s="256"/>
+      <c r="Y24" s="256"/>
+      <c r="Z24" s="256"/>
+      <c r="AA24" s="256"/>
+      <c r="AB24" s="256"/>
+      <c r="AC24" s="256"/>
+      <c r="AD24" s="256"/>
+      <c r="AE24" s="256"/>
+      <c r="AF24" s="256"/>
+      <c r="AG24" s="256"/>
+      <c r="AH24" s="256"/>
+      <c r="AI24" s="256"/>
+      <c r="AJ24" s="256"/>
+      <c r="AK24" s="256"/>
+      <c r="AL24" s="256"/>
+      <c r="AM24" s="257"/>
+      <c r="AN24" s="241"/>
+      <c r="AO24" s="242"/>
+      <c r="AP24" s="242"/>
+      <c r="AQ24" s="242"/>
+      <c r="AR24" s="243"/>
+      <c r="AS24" s="241"/>
+      <c r="AT24" s="242"/>
+      <c r="AU24" s="242"/>
+      <c r="AV24" s="242"/>
+      <c r="AW24" s="243"/>
     </row>
     <row r="25" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A25" s="56"/>
-      <c r="B25" s="260"/>
-      <c r="C25" s="261"/>
-      <c r="D25" s="262"/>
-      <c r="E25" s="252"/>
-      <c r="F25" s="252"/>
-      <c r="G25" s="252"/>
-      <c r="H25" s="252"/>
-      <c r="I25" s="252"/>
-      <c r="J25" s="253"/>
-      <c r="K25" s="254"/>
-      <c r="L25" s="255"/>
-      <c r="M25" s="274"/>
-      <c r="N25" s="264"/>
-      <c r="O25" s="264"/>
-      <c r="P25" s="264"/>
-      <c r="Q25" s="264"/>
-      <c r="R25" s="265"/>
-      <c r="S25" s="250"/>
-      <c r="T25" s="250"/>
-      <c r="U25" s="250"/>
-      <c r="V25" s="266"/>
-      <c r="W25" s="267"/>
-      <c r="X25" s="267"/>
-      <c r="Y25" s="267"/>
-      <c r="Z25" s="267"/>
-      <c r="AA25" s="267"/>
-      <c r="AB25" s="267"/>
-      <c r="AC25" s="267"/>
-      <c r="AD25" s="267"/>
-      <c r="AE25" s="267"/>
-      <c r="AF25" s="267"/>
-      <c r="AG25" s="267"/>
-      <c r="AH25" s="267"/>
-      <c r="AI25" s="267"/>
-      <c r="AJ25" s="267"/>
-      <c r="AK25" s="267"/>
-      <c r="AL25" s="267"/>
-      <c r="AM25" s="268"/>
-      <c r="AN25" s="269"/>
-      <c r="AO25" s="270"/>
-      <c r="AP25" s="270"/>
-      <c r="AQ25" s="270"/>
-      <c r="AR25" s="271"/>
-      <c r="AS25" s="269"/>
-      <c r="AT25" s="270"/>
-      <c r="AU25" s="270"/>
-      <c r="AV25" s="270"/>
-      <c r="AW25" s="271"/>
+      <c r="B25" s="244"/>
+      <c r="C25" s="245"/>
+      <c r="D25" s="246"/>
+      <c r="E25" s="247"/>
+      <c r="F25" s="247"/>
+      <c r="G25" s="247"/>
+      <c r="H25" s="247"/>
+      <c r="I25" s="247"/>
+      <c r="J25" s="248"/>
+      <c r="K25" s="249"/>
+      <c r="L25" s="250"/>
+      <c r="M25" s="258"/>
+      <c r="N25" s="259"/>
+      <c r="O25" s="259"/>
+      <c r="P25" s="259"/>
+      <c r="Q25" s="259"/>
+      <c r="R25" s="260"/>
+      <c r="S25" s="254"/>
+      <c r="T25" s="254"/>
+      <c r="U25" s="254"/>
+      <c r="V25" s="255"/>
+      <c r="W25" s="256"/>
+      <c r="X25" s="256"/>
+      <c r="Y25" s="256"/>
+      <c r="Z25" s="256"/>
+      <c r="AA25" s="256"/>
+      <c r="AB25" s="256"/>
+      <c r="AC25" s="256"/>
+      <c r="AD25" s="256"/>
+      <c r="AE25" s="256"/>
+      <c r="AF25" s="256"/>
+      <c r="AG25" s="256"/>
+      <c r="AH25" s="256"/>
+      <c r="AI25" s="256"/>
+      <c r="AJ25" s="256"/>
+      <c r="AK25" s="256"/>
+      <c r="AL25" s="256"/>
+      <c r="AM25" s="257"/>
+      <c r="AN25" s="241"/>
+      <c r="AO25" s="242"/>
+      <c r="AP25" s="242"/>
+      <c r="AQ25" s="242"/>
+      <c r="AR25" s="243"/>
+      <c r="AS25" s="241"/>
+      <c r="AT25" s="242"/>
+      <c r="AU25" s="242"/>
+      <c r="AV25" s="242"/>
+      <c r="AW25" s="243"/>
     </row>
     <row r="26" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A26" s="56"/>
-      <c r="B26" s="260"/>
-      <c r="C26" s="261"/>
-      <c r="D26" s="262"/>
-      <c r="E26" s="252"/>
-      <c r="F26" s="252"/>
-      <c r="G26" s="252"/>
-      <c r="H26" s="252"/>
-      <c r="I26" s="252"/>
-      <c r="J26" s="253"/>
-      <c r="K26" s="254"/>
-      <c r="L26" s="255"/>
-      <c r="M26" s="274"/>
-      <c r="N26" s="264"/>
-      <c r="O26" s="264"/>
-      <c r="P26" s="264"/>
-      <c r="Q26" s="264"/>
-      <c r="R26" s="265"/>
-      <c r="S26" s="250"/>
-      <c r="T26" s="250"/>
-      <c r="U26" s="250"/>
-      <c r="V26" s="266"/>
-      <c r="W26" s="267"/>
-      <c r="X26" s="267"/>
-      <c r="Y26" s="267"/>
-      <c r="Z26" s="267"/>
-      <c r="AA26" s="267"/>
-      <c r="AB26" s="267"/>
-      <c r="AC26" s="267"/>
-      <c r="AD26" s="267"/>
-      <c r="AE26" s="267"/>
-      <c r="AF26" s="267"/>
-      <c r="AG26" s="267"/>
-      <c r="AH26" s="267"/>
-      <c r="AI26" s="267"/>
-      <c r="AJ26" s="267"/>
-      <c r="AK26" s="267"/>
-      <c r="AL26" s="267"/>
-      <c r="AM26" s="268"/>
-      <c r="AN26" s="269"/>
-      <c r="AO26" s="270"/>
-      <c r="AP26" s="270"/>
-      <c r="AQ26" s="270"/>
-      <c r="AR26" s="271"/>
-      <c r="AS26" s="269"/>
-      <c r="AT26" s="270"/>
-      <c r="AU26" s="270"/>
-      <c r="AV26" s="270"/>
-      <c r="AW26" s="271"/>
+      <c r="B26" s="244"/>
+      <c r="C26" s="245"/>
+      <c r="D26" s="246"/>
+      <c r="E26" s="247"/>
+      <c r="F26" s="247"/>
+      <c r="G26" s="247"/>
+      <c r="H26" s="247"/>
+      <c r="I26" s="247"/>
+      <c r="J26" s="248"/>
+      <c r="K26" s="249"/>
+      <c r="L26" s="250"/>
+      <c r="M26" s="258"/>
+      <c r="N26" s="259"/>
+      <c r="O26" s="259"/>
+      <c r="P26" s="259"/>
+      <c r="Q26" s="259"/>
+      <c r="R26" s="260"/>
+      <c r="S26" s="254"/>
+      <c r="T26" s="254"/>
+      <c r="U26" s="254"/>
+      <c r="V26" s="255"/>
+      <c r="W26" s="256"/>
+      <c r="X26" s="256"/>
+      <c r="Y26" s="256"/>
+      <c r="Z26" s="256"/>
+      <c r="AA26" s="256"/>
+      <c r="AB26" s="256"/>
+      <c r="AC26" s="256"/>
+      <c r="AD26" s="256"/>
+      <c r="AE26" s="256"/>
+      <c r="AF26" s="256"/>
+      <c r="AG26" s="256"/>
+      <c r="AH26" s="256"/>
+      <c r="AI26" s="256"/>
+      <c r="AJ26" s="256"/>
+      <c r="AK26" s="256"/>
+      <c r="AL26" s="256"/>
+      <c r="AM26" s="257"/>
+      <c r="AN26" s="241"/>
+      <c r="AO26" s="242"/>
+      <c r="AP26" s="242"/>
+      <c r="AQ26" s="242"/>
+      <c r="AR26" s="243"/>
+      <c r="AS26" s="241"/>
+      <c r="AT26" s="242"/>
+      <c r="AU26" s="242"/>
+      <c r="AV26" s="242"/>
+      <c r="AW26" s="243"/>
     </row>
     <row r="27" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A27" s="56"/>
-      <c r="B27" s="260"/>
-      <c r="C27" s="261"/>
-      <c r="D27" s="262"/>
-      <c r="E27" s="252"/>
-      <c r="F27" s="252"/>
-      <c r="G27" s="252"/>
-      <c r="H27" s="252"/>
-      <c r="I27" s="252"/>
-      <c r="J27" s="253"/>
-      <c r="K27" s="254"/>
-      <c r="L27" s="255"/>
-      <c r="M27" s="274"/>
-      <c r="N27" s="264"/>
-      <c r="O27" s="264"/>
-      <c r="P27" s="264"/>
-      <c r="Q27" s="264"/>
-      <c r="R27" s="265"/>
-      <c r="S27" s="250"/>
-      <c r="T27" s="250"/>
-      <c r="U27" s="250"/>
-      <c r="V27" s="266"/>
-      <c r="W27" s="267"/>
-      <c r="X27" s="267"/>
-      <c r="Y27" s="267"/>
-      <c r="Z27" s="267"/>
-      <c r="AA27" s="267"/>
-      <c r="AB27" s="267"/>
-      <c r="AC27" s="267"/>
-      <c r="AD27" s="267"/>
-      <c r="AE27" s="267"/>
-      <c r="AF27" s="267"/>
-      <c r="AG27" s="267"/>
-      <c r="AH27" s="267"/>
-      <c r="AI27" s="267"/>
-      <c r="AJ27" s="267"/>
-      <c r="AK27" s="267"/>
-      <c r="AL27" s="267"/>
-      <c r="AM27" s="268"/>
-      <c r="AN27" s="269"/>
-      <c r="AO27" s="270"/>
-      <c r="AP27" s="270"/>
-      <c r="AQ27" s="270"/>
-      <c r="AR27" s="271"/>
-      <c r="AS27" s="269"/>
-      <c r="AT27" s="270"/>
-      <c r="AU27" s="270"/>
-      <c r="AV27" s="270"/>
-      <c r="AW27" s="271"/>
+      <c r="B27" s="244"/>
+      <c r="C27" s="245"/>
+      <c r="D27" s="246"/>
+      <c r="E27" s="247"/>
+      <c r="F27" s="247"/>
+      <c r="G27" s="247"/>
+      <c r="H27" s="247"/>
+      <c r="I27" s="247"/>
+      <c r="J27" s="248"/>
+      <c r="K27" s="249"/>
+      <c r="L27" s="250"/>
+      <c r="M27" s="258"/>
+      <c r="N27" s="259"/>
+      <c r="O27" s="259"/>
+      <c r="P27" s="259"/>
+      <c r="Q27" s="259"/>
+      <c r="R27" s="260"/>
+      <c r="S27" s="254"/>
+      <c r="T27" s="254"/>
+      <c r="U27" s="254"/>
+      <c r="V27" s="255"/>
+      <c r="W27" s="256"/>
+      <c r="X27" s="256"/>
+      <c r="Y27" s="256"/>
+      <c r="Z27" s="256"/>
+      <c r="AA27" s="256"/>
+      <c r="AB27" s="256"/>
+      <c r="AC27" s="256"/>
+      <c r="AD27" s="256"/>
+      <c r="AE27" s="256"/>
+      <c r="AF27" s="256"/>
+      <c r="AG27" s="256"/>
+      <c r="AH27" s="256"/>
+      <c r="AI27" s="256"/>
+      <c r="AJ27" s="256"/>
+      <c r="AK27" s="256"/>
+      <c r="AL27" s="256"/>
+      <c r="AM27" s="257"/>
+      <c r="AN27" s="241"/>
+      <c r="AO27" s="242"/>
+      <c r="AP27" s="242"/>
+      <c r="AQ27" s="242"/>
+      <c r="AR27" s="243"/>
+      <c r="AS27" s="241"/>
+      <c r="AT27" s="242"/>
+      <c r="AU27" s="242"/>
+      <c r="AV27" s="242"/>
+      <c r="AW27" s="243"/>
     </row>
     <row r="28" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A28" s="56"/>
-      <c r="B28" s="260"/>
-      <c r="C28" s="261"/>
-      <c r="D28" s="262"/>
-      <c r="E28" s="252"/>
-      <c r="F28" s="252"/>
-      <c r="G28" s="252"/>
-      <c r="H28" s="252"/>
-      <c r="I28" s="252"/>
-      <c r="J28" s="253"/>
-      <c r="K28" s="254"/>
-      <c r="L28" s="255"/>
-      <c r="M28" s="263"/>
-      <c r="N28" s="264"/>
-      <c r="O28" s="264"/>
-      <c r="P28" s="264"/>
-      <c r="Q28" s="264"/>
-      <c r="R28" s="265"/>
-      <c r="S28" s="250"/>
-      <c r="T28" s="250"/>
-      <c r="U28" s="250"/>
-      <c r="V28" s="266"/>
-      <c r="W28" s="267"/>
-      <c r="X28" s="267"/>
-      <c r="Y28" s="267"/>
-      <c r="Z28" s="267"/>
-      <c r="AA28" s="267"/>
-      <c r="AB28" s="267"/>
-      <c r="AC28" s="267"/>
-      <c r="AD28" s="267"/>
-      <c r="AE28" s="267"/>
-      <c r="AF28" s="267"/>
-      <c r="AG28" s="267"/>
-      <c r="AH28" s="267"/>
-      <c r="AI28" s="267"/>
-      <c r="AJ28" s="267"/>
-      <c r="AK28" s="267"/>
-      <c r="AL28" s="267"/>
-      <c r="AM28" s="268"/>
-      <c r="AN28" s="269"/>
-      <c r="AO28" s="270"/>
-      <c r="AP28" s="270"/>
-      <c r="AQ28" s="270"/>
-      <c r="AR28" s="271"/>
-      <c r="AS28" s="269"/>
-      <c r="AT28" s="270"/>
-      <c r="AU28" s="270"/>
-      <c r="AV28" s="270"/>
-      <c r="AW28" s="271"/>
+      <c r="B28" s="244"/>
+      <c r="C28" s="245"/>
+      <c r="D28" s="246"/>
+      <c r="E28" s="247"/>
+      <c r="F28" s="247"/>
+      <c r="G28" s="247"/>
+      <c r="H28" s="247"/>
+      <c r="I28" s="247"/>
+      <c r="J28" s="248"/>
+      <c r="K28" s="249"/>
+      <c r="L28" s="250"/>
+      <c r="M28" s="261"/>
+      <c r="N28" s="259"/>
+      <c r="O28" s="259"/>
+      <c r="P28" s="259"/>
+      <c r="Q28" s="259"/>
+      <c r="R28" s="260"/>
+      <c r="S28" s="254"/>
+      <c r="T28" s="254"/>
+      <c r="U28" s="254"/>
+      <c r="V28" s="255"/>
+      <c r="W28" s="256"/>
+      <c r="X28" s="256"/>
+      <c r="Y28" s="256"/>
+      <c r="Z28" s="256"/>
+      <c r="AA28" s="256"/>
+      <c r="AB28" s="256"/>
+      <c r="AC28" s="256"/>
+      <c r="AD28" s="256"/>
+      <c r="AE28" s="256"/>
+      <c r="AF28" s="256"/>
+      <c r="AG28" s="256"/>
+      <c r="AH28" s="256"/>
+      <c r="AI28" s="256"/>
+      <c r="AJ28" s="256"/>
+      <c r="AK28" s="256"/>
+      <c r="AL28" s="256"/>
+      <c r="AM28" s="257"/>
+      <c r="AN28" s="241"/>
+      <c r="AO28" s="242"/>
+      <c r="AP28" s="242"/>
+      <c r="AQ28" s="242"/>
+      <c r="AR28" s="243"/>
+      <c r="AS28" s="241"/>
+      <c r="AT28" s="242"/>
+      <c r="AU28" s="242"/>
+      <c r="AV28" s="242"/>
+      <c r="AW28" s="243"/>
     </row>
     <row r="29" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A29" s="56"/>
-      <c r="B29" s="260"/>
-      <c r="C29" s="261"/>
-      <c r="D29" s="262"/>
-      <c r="E29" s="252"/>
-      <c r="F29" s="252"/>
-      <c r="G29" s="252"/>
-      <c r="H29" s="252"/>
-      <c r="I29" s="252"/>
-      <c r="J29" s="253"/>
-      <c r="K29" s="254"/>
-      <c r="L29" s="255"/>
-      <c r="M29" s="263"/>
-      <c r="N29" s="264"/>
-      <c r="O29" s="264"/>
-      <c r="P29" s="264"/>
-      <c r="Q29" s="264"/>
-      <c r="R29" s="265"/>
-      <c r="S29" s="250"/>
-      <c r="T29" s="250"/>
-      <c r="U29" s="250"/>
-      <c r="V29" s="266"/>
-      <c r="W29" s="267"/>
-      <c r="X29" s="267"/>
-      <c r="Y29" s="267"/>
-      <c r="Z29" s="267"/>
-      <c r="AA29" s="267"/>
-      <c r="AB29" s="267"/>
-      <c r="AC29" s="267"/>
-      <c r="AD29" s="267"/>
-      <c r="AE29" s="267"/>
-      <c r="AF29" s="267"/>
-      <c r="AG29" s="267"/>
-      <c r="AH29" s="267"/>
-      <c r="AI29" s="267"/>
-      <c r="AJ29" s="267"/>
-      <c r="AK29" s="267"/>
-      <c r="AL29" s="267"/>
-      <c r="AM29" s="268"/>
-      <c r="AN29" s="269"/>
-      <c r="AO29" s="270"/>
-      <c r="AP29" s="270"/>
-      <c r="AQ29" s="270"/>
-      <c r="AR29" s="271"/>
-      <c r="AS29" s="269"/>
-      <c r="AT29" s="270"/>
-      <c r="AU29" s="270"/>
-      <c r="AV29" s="270"/>
-      <c r="AW29" s="271"/>
+      <c r="B29" s="244"/>
+      <c r="C29" s="245"/>
+      <c r="D29" s="246"/>
+      <c r="E29" s="247"/>
+      <c r="F29" s="247"/>
+      <c r="G29" s="247"/>
+      <c r="H29" s="247"/>
+      <c r="I29" s="247"/>
+      <c r="J29" s="248"/>
+      <c r="K29" s="249"/>
+      <c r="L29" s="250"/>
+      <c r="M29" s="261"/>
+      <c r="N29" s="259"/>
+      <c r="O29" s="259"/>
+      <c r="P29" s="259"/>
+      <c r="Q29" s="259"/>
+      <c r="R29" s="260"/>
+      <c r="S29" s="254"/>
+      <c r="T29" s="254"/>
+      <c r="U29" s="254"/>
+      <c r="V29" s="255"/>
+      <c r="W29" s="256"/>
+      <c r="X29" s="256"/>
+      <c r="Y29" s="256"/>
+      <c r="Z29" s="256"/>
+      <c r="AA29" s="256"/>
+      <c r="AB29" s="256"/>
+      <c r="AC29" s="256"/>
+      <c r="AD29" s="256"/>
+      <c r="AE29" s="256"/>
+      <c r="AF29" s="256"/>
+      <c r="AG29" s="256"/>
+      <c r="AH29" s="256"/>
+      <c r="AI29" s="256"/>
+      <c r="AJ29" s="256"/>
+      <c r="AK29" s="256"/>
+      <c r="AL29" s="256"/>
+      <c r="AM29" s="257"/>
+      <c r="AN29" s="241"/>
+      <c r="AO29" s="242"/>
+      <c r="AP29" s="242"/>
+      <c r="AQ29" s="242"/>
+      <c r="AR29" s="243"/>
+      <c r="AS29" s="241"/>
+      <c r="AT29" s="242"/>
+      <c r="AU29" s="242"/>
+      <c r="AV29" s="242"/>
+      <c r="AW29" s="243"/>
     </row>
     <row r="30" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A30" s="56"/>
-      <c r="B30" s="260"/>
-      <c r="C30" s="261"/>
-      <c r="D30" s="262"/>
-      <c r="E30" s="252"/>
-      <c r="F30" s="252"/>
-      <c r="G30" s="252"/>
-      <c r="H30" s="252"/>
-      <c r="I30" s="252"/>
-      <c r="J30" s="253"/>
-      <c r="K30" s="254"/>
-      <c r="L30" s="255"/>
-      <c r="M30" s="274"/>
-      <c r="N30" s="264"/>
-      <c r="O30" s="264"/>
-      <c r="P30" s="264"/>
-      <c r="Q30" s="264"/>
-      <c r="R30" s="265"/>
-      <c r="S30" s="250"/>
-      <c r="T30" s="250"/>
-      <c r="U30" s="250"/>
-      <c r="V30" s="266"/>
-      <c r="W30" s="267"/>
-      <c r="X30" s="267"/>
-      <c r="Y30" s="267"/>
-      <c r="Z30" s="267"/>
-      <c r="AA30" s="267"/>
-      <c r="AB30" s="267"/>
-      <c r="AC30" s="267"/>
-      <c r="AD30" s="267"/>
-      <c r="AE30" s="267"/>
-      <c r="AF30" s="267"/>
-      <c r="AG30" s="267"/>
-      <c r="AH30" s="267"/>
-      <c r="AI30" s="267"/>
-      <c r="AJ30" s="267"/>
-      <c r="AK30" s="267"/>
-      <c r="AL30" s="267"/>
-      <c r="AM30" s="268"/>
-      <c r="AN30" s="269"/>
-      <c r="AO30" s="270"/>
-      <c r="AP30" s="270"/>
-      <c r="AQ30" s="270"/>
-      <c r="AR30" s="271"/>
-      <c r="AS30" s="269"/>
-      <c r="AT30" s="270"/>
-      <c r="AU30" s="270"/>
-      <c r="AV30" s="270"/>
-      <c r="AW30" s="271"/>
+      <c r="B30" s="244"/>
+      <c r="C30" s="245"/>
+      <c r="D30" s="246"/>
+      <c r="E30" s="247"/>
+      <c r="F30" s="247"/>
+      <c r="G30" s="247"/>
+      <c r="H30" s="247"/>
+      <c r="I30" s="247"/>
+      <c r="J30" s="248"/>
+      <c r="K30" s="249"/>
+      <c r="L30" s="250"/>
+      <c r="M30" s="258"/>
+      <c r="N30" s="259"/>
+      <c r="O30" s="259"/>
+      <c r="P30" s="259"/>
+      <c r="Q30" s="259"/>
+      <c r="R30" s="260"/>
+      <c r="S30" s="254"/>
+      <c r="T30" s="254"/>
+      <c r="U30" s="254"/>
+      <c r="V30" s="255"/>
+      <c r="W30" s="256"/>
+      <c r="X30" s="256"/>
+      <c r="Y30" s="256"/>
+      <c r="Z30" s="256"/>
+      <c r="AA30" s="256"/>
+      <c r="AB30" s="256"/>
+      <c r="AC30" s="256"/>
+      <c r="AD30" s="256"/>
+      <c r="AE30" s="256"/>
+      <c r="AF30" s="256"/>
+      <c r="AG30" s="256"/>
+      <c r="AH30" s="256"/>
+      <c r="AI30" s="256"/>
+      <c r="AJ30" s="256"/>
+      <c r="AK30" s="256"/>
+      <c r="AL30" s="256"/>
+      <c r="AM30" s="257"/>
+      <c r="AN30" s="241"/>
+      <c r="AO30" s="242"/>
+      <c r="AP30" s="242"/>
+      <c r="AQ30" s="242"/>
+      <c r="AR30" s="243"/>
+      <c r="AS30" s="241"/>
+      <c r="AT30" s="242"/>
+      <c r="AU30" s="242"/>
+      <c r="AV30" s="242"/>
+      <c r="AW30" s="243"/>
     </row>
     <row r="31" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A31" s="56"/>
-      <c r="B31" s="260"/>
-      <c r="C31" s="261"/>
-      <c r="D31" s="262"/>
-      <c r="E31" s="252"/>
-      <c r="F31" s="252"/>
-      <c r="G31" s="252"/>
-      <c r="H31" s="252"/>
-      <c r="I31" s="252"/>
-      <c r="J31" s="253"/>
-      <c r="K31" s="254"/>
-      <c r="L31" s="255"/>
-      <c r="M31" s="274"/>
-      <c r="N31" s="264"/>
-      <c r="O31" s="264"/>
-      <c r="P31" s="264"/>
-      <c r="Q31" s="264"/>
-      <c r="R31" s="265"/>
-      <c r="S31" s="250"/>
-      <c r="T31" s="250"/>
-      <c r="U31" s="250"/>
-      <c r="V31" s="266"/>
-      <c r="W31" s="267"/>
-      <c r="X31" s="267"/>
-      <c r="Y31" s="267"/>
-      <c r="Z31" s="267"/>
-      <c r="AA31" s="267"/>
-      <c r="AB31" s="267"/>
-      <c r="AC31" s="267"/>
-      <c r="AD31" s="267"/>
-      <c r="AE31" s="267"/>
-      <c r="AF31" s="267"/>
-      <c r="AG31" s="267"/>
-      <c r="AH31" s="267"/>
-      <c r="AI31" s="267"/>
-      <c r="AJ31" s="267"/>
-      <c r="AK31" s="267"/>
-      <c r="AL31" s="267"/>
-      <c r="AM31" s="268"/>
-      <c r="AN31" s="269"/>
-      <c r="AO31" s="270"/>
-      <c r="AP31" s="270"/>
-      <c r="AQ31" s="270"/>
-      <c r="AR31" s="271"/>
-      <c r="AS31" s="269"/>
-      <c r="AT31" s="270"/>
-      <c r="AU31" s="270"/>
-      <c r="AV31" s="270"/>
-      <c r="AW31" s="271"/>
+      <c r="B31" s="244"/>
+      <c r="C31" s="245"/>
+      <c r="D31" s="246"/>
+      <c r="E31" s="247"/>
+      <c r="F31" s="247"/>
+      <c r="G31" s="247"/>
+      <c r="H31" s="247"/>
+      <c r="I31" s="247"/>
+      <c r="J31" s="248"/>
+      <c r="K31" s="249"/>
+      <c r="L31" s="250"/>
+      <c r="M31" s="258"/>
+      <c r="N31" s="259"/>
+      <c r="O31" s="259"/>
+      <c r="P31" s="259"/>
+      <c r="Q31" s="259"/>
+      <c r="R31" s="260"/>
+      <c r="S31" s="254"/>
+      <c r="T31" s="254"/>
+      <c r="U31" s="254"/>
+      <c r="V31" s="255"/>
+      <c r="W31" s="256"/>
+      <c r="X31" s="256"/>
+      <c r="Y31" s="256"/>
+      <c r="Z31" s="256"/>
+      <c r="AA31" s="256"/>
+      <c r="AB31" s="256"/>
+      <c r="AC31" s="256"/>
+      <c r="AD31" s="256"/>
+      <c r="AE31" s="256"/>
+      <c r="AF31" s="256"/>
+      <c r="AG31" s="256"/>
+      <c r="AH31" s="256"/>
+      <c r="AI31" s="256"/>
+      <c r="AJ31" s="256"/>
+      <c r="AK31" s="256"/>
+      <c r="AL31" s="256"/>
+      <c r="AM31" s="257"/>
+      <c r="AN31" s="241"/>
+      <c r="AO31" s="242"/>
+      <c r="AP31" s="242"/>
+      <c r="AQ31" s="242"/>
+      <c r="AR31" s="243"/>
+      <c r="AS31" s="241"/>
+      <c r="AT31" s="242"/>
+      <c r="AU31" s="242"/>
+      <c r="AV31" s="242"/>
+      <c r="AW31" s="243"/>
     </row>
     <row r="32" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A32" s="56"/>
-      <c r="B32" s="260"/>
-      <c r="C32" s="261"/>
-      <c r="D32" s="262"/>
-      <c r="E32" s="252"/>
-      <c r="F32" s="252"/>
-      <c r="G32" s="252"/>
-      <c r="H32" s="252"/>
-      <c r="I32" s="252"/>
-      <c r="J32" s="253"/>
-      <c r="K32" s="254"/>
-      <c r="L32" s="255"/>
-      <c r="M32" s="274"/>
-      <c r="N32" s="264"/>
-      <c r="O32" s="264"/>
-      <c r="P32" s="264"/>
-      <c r="Q32" s="264"/>
-      <c r="R32" s="265"/>
-      <c r="S32" s="250"/>
-      <c r="T32" s="250"/>
-      <c r="U32" s="250"/>
-      <c r="V32" s="266"/>
-      <c r="W32" s="267"/>
-      <c r="X32" s="267"/>
-      <c r="Y32" s="267"/>
-      <c r="Z32" s="267"/>
-      <c r="AA32" s="267"/>
-      <c r="AB32" s="267"/>
-      <c r="AC32" s="267"/>
-      <c r="AD32" s="267"/>
-      <c r="AE32" s="267"/>
-      <c r="AF32" s="267"/>
-      <c r="AG32" s="267"/>
-      <c r="AH32" s="267"/>
-      <c r="AI32" s="267"/>
-      <c r="AJ32" s="267"/>
-      <c r="AK32" s="267"/>
-      <c r="AL32" s="267"/>
-      <c r="AM32" s="268"/>
-      <c r="AN32" s="269"/>
-      <c r="AO32" s="270"/>
-      <c r="AP32" s="270"/>
-      <c r="AQ32" s="270"/>
-      <c r="AR32" s="271"/>
-      <c r="AS32" s="269"/>
-      <c r="AT32" s="270"/>
-      <c r="AU32" s="270"/>
-      <c r="AV32" s="270"/>
-      <c r="AW32" s="271"/>
+      <c r="B32" s="244"/>
+      <c r="C32" s="245"/>
+      <c r="D32" s="246"/>
+      <c r="E32" s="247"/>
+      <c r="F32" s="247"/>
+      <c r="G32" s="247"/>
+      <c r="H32" s="247"/>
+      <c r="I32" s="247"/>
+      <c r="J32" s="248"/>
+      <c r="K32" s="249"/>
+      <c r="L32" s="250"/>
+      <c r="M32" s="258"/>
+      <c r="N32" s="259"/>
+      <c r="O32" s="259"/>
+      <c r="P32" s="259"/>
+      <c r="Q32" s="259"/>
+      <c r="R32" s="260"/>
+      <c r="S32" s="254"/>
+      <c r="T32" s="254"/>
+      <c r="U32" s="254"/>
+      <c r="V32" s="255"/>
+      <c r="W32" s="256"/>
+      <c r="X32" s="256"/>
+      <c r="Y32" s="256"/>
+      <c r="Z32" s="256"/>
+      <c r="AA32" s="256"/>
+      <c r="AB32" s="256"/>
+      <c r="AC32" s="256"/>
+      <c r="AD32" s="256"/>
+      <c r="AE32" s="256"/>
+      <c r="AF32" s="256"/>
+      <c r="AG32" s="256"/>
+      <c r="AH32" s="256"/>
+      <c r="AI32" s="256"/>
+      <c r="AJ32" s="256"/>
+      <c r="AK32" s="256"/>
+      <c r="AL32" s="256"/>
+      <c r="AM32" s="257"/>
+      <c r="AN32" s="241"/>
+      <c r="AO32" s="242"/>
+      <c r="AP32" s="242"/>
+      <c r="AQ32" s="242"/>
+      <c r="AR32" s="243"/>
+      <c r="AS32" s="241"/>
+      <c r="AT32" s="242"/>
+      <c r="AU32" s="242"/>
+      <c r="AV32" s="242"/>
+      <c r="AW32" s="243"/>
     </row>
     <row r="33" spans="2:49" x14ac:dyDescent="0.25">
-      <c r="B33" s="260"/>
-      <c r="C33" s="261"/>
-      <c r="D33" s="262"/>
-      <c r="E33" s="252"/>
-      <c r="F33" s="252"/>
-      <c r="G33" s="252"/>
-      <c r="H33" s="252"/>
-      <c r="I33" s="252"/>
-      <c r="J33" s="253"/>
-      <c r="K33" s="254"/>
-      <c r="L33" s="255"/>
-      <c r="M33" s="274"/>
-      <c r="N33" s="264"/>
-      <c r="O33" s="264"/>
-      <c r="P33" s="264"/>
-      <c r="Q33" s="264"/>
-      <c r="R33" s="265"/>
-      <c r="S33" s="250"/>
-      <c r="T33" s="250"/>
-      <c r="U33" s="250"/>
-      <c r="V33" s="266"/>
-      <c r="W33" s="267"/>
-      <c r="X33" s="267"/>
-      <c r="Y33" s="267"/>
-      <c r="Z33" s="267"/>
-      <c r="AA33" s="267"/>
-      <c r="AB33" s="267"/>
-      <c r="AC33" s="267"/>
-      <c r="AD33" s="267"/>
-      <c r="AE33" s="267"/>
-      <c r="AF33" s="267"/>
-      <c r="AG33" s="267"/>
-      <c r="AH33" s="267"/>
-      <c r="AI33" s="267"/>
-      <c r="AJ33" s="267"/>
-      <c r="AK33" s="267"/>
-      <c r="AL33" s="267"/>
-      <c r="AM33" s="268"/>
-      <c r="AN33" s="269"/>
-      <c r="AO33" s="270"/>
-      <c r="AP33" s="270"/>
-      <c r="AQ33" s="270"/>
-      <c r="AR33" s="271"/>
-      <c r="AS33" s="269"/>
-      <c r="AT33" s="270"/>
-      <c r="AU33" s="270"/>
-      <c r="AV33" s="270"/>
-      <c r="AW33" s="271"/>
+      <c r="B33" s="244"/>
+      <c r="C33" s="245"/>
+      <c r="D33" s="246"/>
+      <c r="E33" s="247"/>
+      <c r="F33" s="247"/>
+      <c r="G33" s="247"/>
+      <c r="H33" s="247"/>
+      <c r="I33" s="247"/>
+      <c r="J33" s="248"/>
+      <c r="K33" s="249"/>
+      <c r="L33" s="250"/>
+      <c r="M33" s="258"/>
+      <c r="N33" s="259"/>
+      <c r="O33" s="259"/>
+      <c r="P33" s="259"/>
+      <c r="Q33" s="259"/>
+      <c r="R33" s="260"/>
+      <c r="S33" s="254"/>
+      <c r="T33" s="254"/>
+      <c r="U33" s="254"/>
+      <c r="V33" s="255"/>
+      <c r="W33" s="256"/>
+      <c r="X33" s="256"/>
+      <c r="Y33" s="256"/>
+      <c r="Z33" s="256"/>
+      <c r="AA33" s="256"/>
+      <c r="AB33" s="256"/>
+      <c r="AC33" s="256"/>
+      <c r="AD33" s="256"/>
+      <c r="AE33" s="256"/>
+      <c r="AF33" s="256"/>
+      <c r="AG33" s="256"/>
+      <c r="AH33" s="256"/>
+      <c r="AI33" s="256"/>
+      <c r="AJ33" s="256"/>
+      <c r="AK33" s="256"/>
+      <c r="AL33" s="256"/>
+      <c r="AM33" s="257"/>
+      <c r="AN33" s="241"/>
+      <c r="AO33" s="242"/>
+      <c r="AP33" s="242"/>
+      <c r="AQ33" s="242"/>
+      <c r="AR33" s="243"/>
+      <c r="AS33" s="241"/>
+      <c r="AT33" s="242"/>
+      <c r="AU33" s="242"/>
+      <c r="AV33" s="242"/>
+      <c r="AW33" s="243"/>
     </row>
     <row r="34" spans="2:49" x14ac:dyDescent="0.25">
-      <c r="B34" s="260"/>
-      <c r="C34" s="261"/>
-      <c r="D34" s="262"/>
-      <c r="E34" s="252"/>
-      <c r="F34" s="252"/>
-      <c r="G34" s="252"/>
-      <c r="H34" s="252"/>
-      <c r="I34" s="252"/>
-      <c r="J34" s="253"/>
-      <c r="K34" s="254"/>
-      <c r="L34" s="255"/>
-      <c r="M34" s="278"/>
-      <c r="N34" s="279"/>
-      <c r="O34" s="279"/>
-      <c r="P34" s="279"/>
-      <c r="Q34" s="279"/>
-      <c r="R34" s="280"/>
-      <c r="S34" s="250"/>
-      <c r="T34" s="250"/>
-      <c r="U34" s="250"/>
-      <c r="V34" s="266"/>
-      <c r="W34" s="267"/>
-      <c r="X34" s="267"/>
-      <c r="Y34" s="267"/>
-      <c r="Z34" s="267"/>
-      <c r="AA34" s="267"/>
-      <c r="AB34" s="267"/>
-      <c r="AC34" s="267"/>
-      <c r="AD34" s="267"/>
-      <c r="AE34" s="267"/>
-      <c r="AF34" s="267"/>
-      <c r="AG34" s="267"/>
-      <c r="AH34" s="267"/>
-      <c r="AI34" s="267"/>
-      <c r="AJ34" s="267"/>
-      <c r="AK34" s="267"/>
-      <c r="AL34" s="267"/>
-      <c r="AM34" s="268"/>
-      <c r="AN34" s="269"/>
-      <c r="AO34" s="270"/>
-      <c r="AP34" s="270"/>
-      <c r="AQ34" s="270"/>
-      <c r="AR34" s="271"/>
-      <c r="AS34" s="269"/>
-      <c r="AT34" s="270"/>
-      <c r="AU34" s="270"/>
-      <c r="AV34" s="270"/>
-      <c r="AW34" s="271"/>
+      <c r="B34" s="244"/>
+      <c r="C34" s="245"/>
+      <c r="D34" s="246"/>
+      <c r="E34" s="247"/>
+      <c r="F34" s="247"/>
+      <c r="G34" s="247"/>
+      <c r="H34" s="247"/>
+      <c r="I34" s="247"/>
+      <c r="J34" s="248"/>
+      <c r="K34" s="249"/>
+      <c r="L34" s="250"/>
+      <c r="M34" s="251"/>
+      <c r="N34" s="252"/>
+      <c r="O34" s="252"/>
+      <c r="P34" s="252"/>
+      <c r="Q34" s="252"/>
+      <c r="R34" s="253"/>
+      <c r="S34" s="254"/>
+      <c r="T34" s="254"/>
+      <c r="U34" s="254"/>
+      <c r="V34" s="255"/>
+      <c r="W34" s="256"/>
+      <c r="X34" s="256"/>
+      <c r="Y34" s="256"/>
+      <c r="Z34" s="256"/>
+      <c r="AA34" s="256"/>
+      <c r="AB34" s="256"/>
+      <c r="AC34" s="256"/>
+      <c r="AD34" s="256"/>
+      <c r="AE34" s="256"/>
+      <c r="AF34" s="256"/>
+      <c r="AG34" s="256"/>
+      <c r="AH34" s="256"/>
+      <c r="AI34" s="256"/>
+      <c r="AJ34" s="256"/>
+      <c r="AK34" s="256"/>
+      <c r="AL34" s="256"/>
+      <c r="AM34" s="257"/>
+      <c r="AN34" s="241"/>
+      <c r="AO34" s="242"/>
+      <c r="AP34" s="242"/>
+      <c r="AQ34" s="242"/>
+      <c r="AR34" s="243"/>
+      <c r="AS34" s="241"/>
+      <c r="AT34" s="242"/>
+      <c r="AU34" s="242"/>
+      <c r="AV34" s="242"/>
+      <c r="AW34" s="243"/>
     </row>
   </sheetData>
   <mergeCells count="249">
+    <mergeCell ref="B1:AW2"/>
+    <mergeCell ref="B3:D4"/>
+    <mergeCell ref="E3:I4"/>
+    <mergeCell ref="J3:L4"/>
+    <mergeCell ref="M3:R4"/>
+    <mergeCell ref="S3:U4"/>
+    <mergeCell ref="V3:AM4"/>
+    <mergeCell ref="AN3:AR4"/>
+    <mergeCell ref="AS3:AW4"/>
+    <mergeCell ref="AN5:AR5"/>
+    <mergeCell ref="AS5:AW5"/>
+    <mergeCell ref="B6:D6"/>
+    <mergeCell ref="E6:I6"/>
+    <mergeCell ref="J6:L6"/>
+    <mergeCell ref="M6:R6"/>
+    <mergeCell ref="S6:U6"/>
+    <mergeCell ref="V6:AM6"/>
+    <mergeCell ref="AN6:AR6"/>
+    <mergeCell ref="AS6:AW6"/>
+    <mergeCell ref="B5:D5"/>
+    <mergeCell ref="E5:I5"/>
+    <mergeCell ref="J5:L5"/>
+    <mergeCell ref="M5:R5"/>
+    <mergeCell ref="S5:U5"/>
+    <mergeCell ref="V5:AM5"/>
+    <mergeCell ref="AN7:AR7"/>
+    <mergeCell ref="AS7:AW7"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="E8:I8"/>
+    <mergeCell ref="J8:L8"/>
+    <mergeCell ref="M8:R8"/>
+    <mergeCell ref="S8:U8"/>
+    <mergeCell ref="V8:AM8"/>
+    <mergeCell ref="AN8:AR8"/>
+    <mergeCell ref="AS8:AW8"/>
+    <mergeCell ref="B7:D7"/>
+    <mergeCell ref="E7:I7"/>
+    <mergeCell ref="J7:L7"/>
+    <mergeCell ref="M7:R7"/>
+    <mergeCell ref="S7:U7"/>
+    <mergeCell ref="V7:AM7"/>
+    <mergeCell ref="AN9:AR9"/>
+    <mergeCell ref="AS9:AW9"/>
+    <mergeCell ref="B10:D10"/>
+    <mergeCell ref="E10:I10"/>
+    <mergeCell ref="J10:L10"/>
+    <mergeCell ref="M10:R10"/>
+    <mergeCell ref="S10:U10"/>
+    <mergeCell ref="V10:AM10"/>
+    <mergeCell ref="AN10:AR10"/>
+    <mergeCell ref="AS10:AW10"/>
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="E9:I9"/>
+    <mergeCell ref="J9:L9"/>
+    <mergeCell ref="M9:R9"/>
+    <mergeCell ref="S9:U9"/>
+    <mergeCell ref="V9:AM9"/>
+    <mergeCell ref="AN11:AR11"/>
+    <mergeCell ref="AS11:AW11"/>
+    <mergeCell ref="B12:D12"/>
+    <mergeCell ref="E12:I12"/>
+    <mergeCell ref="J12:L12"/>
+    <mergeCell ref="M12:R12"/>
+    <mergeCell ref="S12:U12"/>
+    <mergeCell ref="V12:AM12"/>
+    <mergeCell ref="AN12:AR12"/>
+    <mergeCell ref="AS12:AW12"/>
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="E11:I11"/>
+    <mergeCell ref="J11:L11"/>
+    <mergeCell ref="M11:R11"/>
+    <mergeCell ref="S11:U11"/>
+    <mergeCell ref="V11:AM11"/>
+    <mergeCell ref="AN13:AR13"/>
+    <mergeCell ref="AS13:AW13"/>
+    <mergeCell ref="B14:D14"/>
+    <mergeCell ref="E14:I14"/>
+    <mergeCell ref="J14:L14"/>
+    <mergeCell ref="M14:R14"/>
+    <mergeCell ref="S14:U14"/>
+    <mergeCell ref="V14:AM14"/>
+    <mergeCell ref="AN14:AR14"/>
+    <mergeCell ref="AS14:AW14"/>
+    <mergeCell ref="B13:D13"/>
+    <mergeCell ref="E13:I13"/>
+    <mergeCell ref="J13:L13"/>
+    <mergeCell ref="M13:R13"/>
+    <mergeCell ref="S13:U13"/>
+    <mergeCell ref="V13:AM13"/>
+    <mergeCell ref="AN15:AR15"/>
+    <mergeCell ref="AS15:AW15"/>
+    <mergeCell ref="B16:D16"/>
+    <mergeCell ref="E16:I16"/>
+    <mergeCell ref="J16:L16"/>
+    <mergeCell ref="M16:R16"/>
+    <mergeCell ref="S16:U16"/>
+    <mergeCell ref="V16:AM16"/>
+    <mergeCell ref="AN16:AR16"/>
+    <mergeCell ref="AS16:AW16"/>
+    <mergeCell ref="B15:D15"/>
+    <mergeCell ref="E15:I15"/>
+    <mergeCell ref="J15:L15"/>
+    <mergeCell ref="M15:R15"/>
+    <mergeCell ref="S15:U15"/>
+    <mergeCell ref="V15:AM15"/>
+    <mergeCell ref="AN17:AR17"/>
+    <mergeCell ref="AS17:AW17"/>
+    <mergeCell ref="B18:D18"/>
+    <mergeCell ref="E18:I18"/>
+    <mergeCell ref="J18:L18"/>
+    <mergeCell ref="M18:R18"/>
+    <mergeCell ref="S18:U18"/>
+    <mergeCell ref="V18:AM18"/>
+    <mergeCell ref="AN18:AR18"/>
+    <mergeCell ref="AS18:AW18"/>
+    <mergeCell ref="B17:D17"/>
+    <mergeCell ref="E17:I17"/>
+    <mergeCell ref="J17:L17"/>
+    <mergeCell ref="M17:R17"/>
+    <mergeCell ref="S17:U17"/>
+    <mergeCell ref="V17:AM17"/>
+    <mergeCell ref="AN19:AR19"/>
+    <mergeCell ref="AS19:AW19"/>
+    <mergeCell ref="B20:D20"/>
+    <mergeCell ref="E20:I20"/>
+    <mergeCell ref="J20:L20"/>
+    <mergeCell ref="M20:R20"/>
+    <mergeCell ref="S20:U20"/>
+    <mergeCell ref="V20:AM20"/>
+    <mergeCell ref="AN20:AR20"/>
+    <mergeCell ref="AS20:AW20"/>
+    <mergeCell ref="B19:D19"/>
+    <mergeCell ref="E19:I19"/>
+    <mergeCell ref="J19:L19"/>
+    <mergeCell ref="M19:R19"/>
+    <mergeCell ref="S19:U19"/>
+    <mergeCell ref="V19:AM19"/>
+    <mergeCell ref="AN21:AR21"/>
+    <mergeCell ref="AS21:AW21"/>
+    <mergeCell ref="B22:D22"/>
+    <mergeCell ref="E22:I22"/>
+    <mergeCell ref="J22:L22"/>
+    <mergeCell ref="M22:R22"/>
+    <mergeCell ref="S22:U22"/>
+    <mergeCell ref="V22:AM22"/>
+    <mergeCell ref="AN22:AR22"/>
+    <mergeCell ref="AS22:AW22"/>
+    <mergeCell ref="B21:D21"/>
+    <mergeCell ref="E21:I21"/>
+    <mergeCell ref="J21:L21"/>
+    <mergeCell ref="M21:R21"/>
+    <mergeCell ref="S21:U21"/>
+    <mergeCell ref="V21:AM21"/>
+    <mergeCell ref="AN23:AR23"/>
+    <mergeCell ref="AS23:AW23"/>
+    <mergeCell ref="B24:D24"/>
+    <mergeCell ref="E24:I24"/>
+    <mergeCell ref="J24:L24"/>
+    <mergeCell ref="M24:R24"/>
+    <mergeCell ref="S24:U24"/>
+    <mergeCell ref="V24:AM24"/>
+    <mergeCell ref="AN24:AR24"/>
+    <mergeCell ref="AS24:AW24"/>
+    <mergeCell ref="B23:D23"/>
+    <mergeCell ref="E23:I23"/>
+    <mergeCell ref="J23:L23"/>
+    <mergeCell ref="M23:R23"/>
+    <mergeCell ref="S23:U23"/>
+    <mergeCell ref="V23:AM23"/>
+    <mergeCell ref="AN25:AR25"/>
+    <mergeCell ref="AS25:AW25"/>
+    <mergeCell ref="B26:D26"/>
+    <mergeCell ref="E26:I26"/>
+    <mergeCell ref="J26:L26"/>
+    <mergeCell ref="M26:R26"/>
+    <mergeCell ref="S26:U26"/>
+    <mergeCell ref="V26:AM26"/>
+    <mergeCell ref="AN26:AR26"/>
+    <mergeCell ref="AS26:AW26"/>
+    <mergeCell ref="B25:D25"/>
+    <mergeCell ref="E25:I25"/>
+    <mergeCell ref="J25:L25"/>
+    <mergeCell ref="M25:R25"/>
+    <mergeCell ref="S25:U25"/>
+    <mergeCell ref="V25:AM25"/>
+    <mergeCell ref="AN27:AR27"/>
+    <mergeCell ref="AS27:AW27"/>
+    <mergeCell ref="B28:D28"/>
+    <mergeCell ref="E28:I28"/>
+    <mergeCell ref="J28:L28"/>
+    <mergeCell ref="M28:R28"/>
+    <mergeCell ref="S28:U28"/>
+    <mergeCell ref="V28:AM28"/>
+    <mergeCell ref="AN28:AR28"/>
+    <mergeCell ref="AS28:AW28"/>
+    <mergeCell ref="B27:D27"/>
+    <mergeCell ref="E27:I27"/>
+    <mergeCell ref="J27:L27"/>
+    <mergeCell ref="M27:R27"/>
+    <mergeCell ref="S27:U27"/>
+    <mergeCell ref="V27:AM27"/>
+    <mergeCell ref="AN29:AR29"/>
+    <mergeCell ref="AS29:AW29"/>
+    <mergeCell ref="B30:D30"/>
+    <mergeCell ref="E30:I30"/>
+    <mergeCell ref="J30:L30"/>
+    <mergeCell ref="M30:R30"/>
+    <mergeCell ref="S30:U30"/>
+    <mergeCell ref="V30:AM30"/>
+    <mergeCell ref="AN30:AR30"/>
+    <mergeCell ref="AS30:AW30"/>
+    <mergeCell ref="B29:D29"/>
+    <mergeCell ref="E29:I29"/>
+    <mergeCell ref="J29:L29"/>
+    <mergeCell ref="M29:R29"/>
+    <mergeCell ref="S29:U29"/>
+    <mergeCell ref="V29:AM29"/>
+    <mergeCell ref="AN31:AR31"/>
+    <mergeCell ref="AS31:AW31"/>
+    <mergeCell ref="B32:D32"/>
+    <mergeCell ref="E32:I32"/>
+    <mergeCell ref="J32:L32"/>
+    <mergeCell ref="M32:R32"/>
+    <mergeCell ref="S32:U32"/>
+    <mergeCell ref="V32:AM32"/>
+    <mergeCell ref="AN32:AR32"/>
+    <mergeCell ref="AS32:AW32"/>
+    <mergeCell ref="B31:D31"/>
+    <mergeCell ref="E31:I31"/>
+    <mergeCell ref="J31:L31"/>
+    <mergeCell ref="M31:R31"/>
+    <mergeCell ref="S31:U31"/>
+    <mergeCell ref="V31:AM31"/>
     <mergeCell ref="AN33:AR33"/>
     <mergeCell ref="AS33:AW33"/>
     <mergeCell ref="B34:D34"/>
@@ -10103,239 +10345,6 @@
     <mergeCell ref="M33:R33"/>
     <mergeCell ref="S33:U33"/>
     <mergeCell ref="V33:AM33"/>
-    <mergeCell ref="AN31:AR31"/>
-    <mergeCell ref="AS31:AW31"/>
-    <mergeCell ref="B32:D32"/>
-    <mergeCell ref="E32:I32"/>
-    <mergeCell ref="J32:L32"/>
-    <mergeCell ref="M32:R32"/>
-    <mergeCell ref="S32:U32"/>
-    <mergeCell ref="V32:AM32"/>
-    <mergeCell ref="AN32:AR32"/>
-    <mergeCell ref="AS32:AW32"/>
-    <mergeCell ref="B31:D31"/>
-    <mergeCell ref="E31:I31"/>
-    <mergeCell ref="J31:L31"/>
-    <mergeCell ref="M31:R31"/>
-    <mergeCell ref="S31:U31"/>
-    <mergeCell ref="V31:AM31"/>
-    <mergeCell ref="AN29:AR29"/>
-    <mergeCell ref="AS29:AW29"/>
-    <mergeCell ref="B30:D30"/>
-    <mergeCell ref="E30:I30"/>
-    <mergeCell ref="J30:L30"/>
-    <mergeCell ref="M30:R30"/>
-    <mergeCell ref="S30:U30"/>
-    <mergeCell ref="V30:AM30"/>
-    <mergeCell ref="AN30:AR30"/>
-    <mergeCell ref="AS30:AW30"/>
-    <mergeCell ref="B29:D29"/>
-    <mergeCell ref="E29:I29"/>
-    <mergeCell ref="J29:L29"/>
-    <mergeCell ref="M29:R29"/>
-    <mergeCell ref="S29:U29"/>
-    <mergeCell ref="V29:AM29"/>
-    <mergeCell ref="AN27:AR27"/>
-    <mergeCell ref="AS27:AW27"/>
-    <mergeCell ref="B28:D28"/>
-    <mergeCell ref="E28:I28"/>
-    <mergeCell ref="J28:L28"/>
-    <mergeCell ref="M28:R28"/>
-    <mergeCell ref="S28:U28"/>
-    <mergeCell ref="V28:AM28"/>
-    <mergeCell ref="AN28:AR28"/>
-    <mergeCell ref="AS28:AW28"/>
-    <mergeCell ref="B27:D27"/>
-    <mergeCell ref="E27:I27"/>
-    <mergeCell ref="J27:L27"/>
-    <mergeCell ref="M27:R27"/>
-    <mergeCell ref="S27:U27"/>
-    <mergeCell ref="V27:AM27"/>
-    <mergeCell ref="AN25:AR25"/>
-    <mergeCell ref="AS25:AW25"/>
-    <mergeCell ref="B26:D26"/>
-    <mergeCell ref="E26:I26"/>
-    <mergeCell ref="J26:L26"/>
-    <mergeCell ref="M26:R26"/>
-    <mergeCell ref="S26:U26"/>
-    <mergeCell ref="V26:AM26"/>
-    <mergeCell ref="AN26:AR26"/>
-    <mergeCell ref="AS26:AW26"/>
-    <mergeCell ref="B25:D25"/>
-    <mergeCell ref="E25:I25"/>
-    <mergeCell ref="J25:L25"/>
-    <mergeCell ref="M25:R25"/>
-    <mergeCell ref="S25:U25"/>
-    <mergeCell ref="V25:AM25"/>
-    <mergeCell ref="AN23:AR23"/>
-    <mergeCell ref="AS23:AW23"/>
-    <mergeCell ref="B24:D24"/>
-    <mergeCell ref="E24:I24"/>
-    <mergeCell ref="J24:L24"/>
-    <mergeCell ref="M24:R24"/>
-    <mergeCell ref="S24:U24"/>
-    <mergeCell ref="V24:AM24"/>
-    <mergeCell ref="AN24:AR24"/>
-    <mergeCell ref="AS24:AW24"/>
-    <mergeCell ref="B23:D23"/>
-    <mergeCell ref="E23:I23"/>
-    <mergeCell ref="J23:L23"/>
-    <mergeCell ref="M23:R23"/>
-    <mergeCell ref="S23:U23"/>
-    <mergeCell ref="V23:AM23"/>
-    <mergeCell ref="AN21:AR21"/>
-    <mergeCell ref="AS21:AW21"/>
-    <mergeCell ref="B22:D22"/>
-    <mergeCell ref="E22:I22"/>
-    <mergeCell ref="J22:L22"/>
-    <mergeCell ref="M22:R22"/>
-    <mergeCell ref="S22:U22"/>
-    <mergeCell ref="V22:AM22"/>
-    <mergeCell ref="AN22:AR22"/>
-    <mergeCell ref="AS22:AW22"/>
-    <mergeCell ref="B21:D21"/>
-    <mergeCell ref="E21:I21"/>
-    <mergeCell ref="J21:L21"/>
-    <mergeCell ref="M21:R21"/>
-    <mergeCell ref="S21:U21"/>
-    <mergeCell ref="V21:AM21"/>
-    <mergeCell ref="AN19:AR19"/>
-    <mergeCell ref="AS19:AW19"/>
-    <mergeCell ref="B20:D20"/>
-    <mergeCell ref="E20:I20"/>
-    <mergeCell ref="J20:L20"/>
-    <mergeCell ref="M20:R20"/>
-    <mergeCell ref="S20:U20"/>
-    <mergeCell ref="V20:AM20"/>
-    <mergeCell ref="AN20:AR20"/>
-    <mergeCell ref="AS20:AW20"/>
-    <mergeCell ref="B19:D19"/>
-    <mergeCell ref="E19:I19"/>
-    <mergeCell ref="J19:L19"/>
-    <mergeCell ref="M19:R19"/>
-    <mergeCell ref="S19:U19"/>
-    <mergeCell ref="V19:AM19"/>
-    <mergeCell ref="AN17:AR17"/>
-    <mergeCell ref="AS17:AW17"/>
-    <mergeCell ref="B18:D18"/>
-    <mergeCell ref="E18:I18"/>
-    <mergeCell ref="J18:L18"/>
-    <mergeCell ref="M18:R18"/>
-    <mergeCell ref="S18:U18"/>
-    <mergeCell ref="V18:AM18"/>
-    <mergeCell ref="AN18:AR18"/>
-    <mergeCell ref="AS18:AW18"/>
-    <mergeCell ref="B17:D17"/>
-    <mergeCell ref="E17:I17"/>
-    <mergeCell ref="J17:L17"/>
-    <mergeCell ref="M17:R17"/>
-    <mergeCell ref="S17:U17"/>
-    <mergeCell ref="V17:AM17"/>
-    <mergeCell ref="AN15:AR15"/>
-    <mergeCell ref="AS15:AW15"/>
-    <mergeCell ref="B16:D16"/>
-    <mergeCell ref="E16:I16"/>
-    <mergeCell ref="J16:L16"/>
-    <mergeCell ref="M16:R16"/>
-    <mergeCell ref="S16:U16"/>
-    <mergeCell ref="V16:AM16"/>
-    <mergeCell ref="AN16:AR16"/>
-    <mergeCell ref="AS16:AW16"/>
-    <mergeCell ref="B15:D15"/>
-    <mergeCell ref="E15:I15"/>
-    <mergeCell ref="J15:L15"/>
-    <mergeCell ref="M15:R15"/>
-    <mergeCell ref="S15:U15"/>
-    <mergeCell ref="V15:AM15"/>
-    <mergeCell ref="AN13:AR13"/>
-    <mergeCell ref="AS13:AW13"/>
-    <mergeCell ref="B14:D14"/>
-    <mergeCell ref="E14:I14"/>
-    <mergeCell ref="J14:L14"/>
-    <mergeCell ref="M14:R14"/>
-    <mergeCell ref="S14:U14"/>
-    <mergeCell ref="V14:AM14"/>
-    <mergeCell ref="AN14:AR14"/>
-    <mergeCell ref="AS14:AW14"/>
-    <mergeCell ref="B13:D13"/>
-    <mergeCell ref="E13:I13"/>
-    <mergeCell ref="J13:L13"/>
-    <mergeCell ref="M13:R13"/>
-    <mergeCell ref="S13:U13"/>
-    <mergeCell ref="V13:AM13"/>
-    <mergeCell ref="AN11:AR11"/>
-    <mergeCell ref="AS11:AW11"/>
-    <mergeCell ref="B12:D12"/>
-    <mergeCell ref="E12:I12"/>
-    <mergeCell ref="J12:L12"/>
-    <mergeCell ref="M12:R12"/>
-    <mergeCell ref="S12:U12"/>
-    <mergeCell ref="V12:AM12"/>
-    <mergeCell ref="AN12:AR12"/>
-    <mergeCell ref="AS12:AW12"/>
-    <mergeCell ref="B11:D11"/>
-    <mergeCell ref="E11:I11"/>
-    <mergeCell ref="J11:L11"/>
-    <mergeCell ref="M11:R11"/>
-    <mergeCell ref="S11:U11"/>
-    <mergeCell ref="V11:AM11"/>
-    <mergeCell ref="AN9:AR9"/>
-    <mergeCell ref="AS9:AW9"/>
-    <mergeCell ref="B10:D10"/>
-    <mergeCell ref="E10:I10"/>
-    <mergeCell ref="J10:L10"/>
-    <mergeCell ref="M10:R10"/>
-    <mergeCell ref="S10:U10"/>
-    <mergeCell ref="V10:AM10"/>
-    <mergeCell ref="AN10:AR10"/>
-    <mergeCell ref="AS10:AW10"/>
-    <mergeCell ref="B9:D9"/>
-    <mergeCell ref="E9:I9"/>
-    <mergeCell ref="J9:L9"/>
-    <mergeCell ref="M9:R9"/>
-    <mergeCell ref="S9:U9"/>
-    <mergeCell ref="V9:AM9"/>
-    <mergeCell ref="AN7:AR7"/>
-    <mergeCell ref="AS7:AW7"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="E8:I8"/>
-    <mergeCell ref="J8:L8"/>
-    <mergeCell ref="M8:R8"/>
-    <mergeCell ref="S8:U8"/>
-    <mergeCell ref="V8:AM8"/>
-    <mergeCell ref="AN8:AR8"/>
-    <mergeCell ref="AS8:AW8"/>
-    <mergeCell ref="B7:D7"/>
-    <mergeCell ref="E7:I7"/>
-    <mergeCell ref="J7:L7"/>
-    <mergeCell ref="M7:R7"/>
-    <mergeCell ref="S7:U7"/>
-    <mergeCell ref="V7:AM7"/>
-    <mergeCell ref="AN5:AR5"/>
-    <mergeCell ref="AS5:AW5"/>
-    <mergeCell ref="B6:D6"/>
-    <mergeCell ref="E6:I6"/>
-    <mergeCell ref="J6:L6"/>
-    <mergeCell ref="M6:R6"/>
-    <mergeCell ref="S6:U6"/>
-    <mergeCell ref="V6:AM6"/>
-    <mergeCell ref="AN6:AR6"/>
-    <mergeCell ref="AS6:AW6"/>
-    <mergeCell ref="B5:D5"/>
-    <mergeCell ref="E5:I5"/>
-    <mergeCell ref="J5:L5"/>
-    <mergeCell ref="M5:R5"/>
-    <mergeCell ref="S5:U5"/>
-    <mergeCell ref="V5:AM5"/>
-    <mergeCell ref="B1:AW2"/>
-    <mergeCell ref="B3:D4"/>
-    <mergeCell ref="E3:I4"/>
-    <mergeCell ref="J3:L4"/>
-    <mergeCell ref="M3:R4"/>
-    <mergeCell ref="S3:U4"/>
-    <mergeCell ref="V3:AM4"/>
-    <mergeCell ref="AN3:AR4"/>
-    <mergeCell ref="AS3:AW4"/>
   </mergeCells>
   <phoneticPr fontId="4"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -12364,7 +12373,7 @@
       <c r="I51" s="84"/>
       <c r="J51" s="224"/>
       <c r="K51" s="223" t="s">
-        <v>463</v>
+        <v>539</v>
       </c>
       <c r="L51" s="84"/>
       <c r="M51" s="84"/>
@@ -12396,7 +12405,7 @@
       <c r="AK51" s="283"/>
       <c r="AL51" s="284"/>
       <c r="AM51" s="81" t="s">
-        <v>468</v>
+        <v>540</v>
       </c>
       <c r="AN51" s="82"/>
       <c r="AO51" s="82"/>
@@ -12442,7 +12451,7 @@
       <c r="I52" s="84"/>
       <c r="J52" s="224"/>
       <c r="K52" s="223" t="s">
-        <v>471</v>
+        <v>468</v>
       </c>
       <c r="L52" s="84"/>
       <c r="M52" s="84"/>
@@ -12520,7 +12529,7 @@
       <c r="I53" s="84"/>
       <c r="J53" s="224"/>
       <c r="K53" s="223" t="s">
-        <v>472</v>
+        <v>469</v>
       </c>
       <c r="L53" s="84"/>
       <c r="M53" s="84"/>
@@ -12598,7 +12607,7 @@
       <c r="I54" s="84"/>
       <c r="J54" s="224"/>
       <c r="K54" s="223" t="s">
-        <v>473</v>
+        <v>541</v>
       </c>
       <c r="L54" s="84"/>
       <c r="M54" s="84"/>
@@ -12910,7 +12919,7 @@
       <c r="I58" s="84"/>
       <c r="J58" s="224"/>
       <c r="K58" s="223" t="s">
-        <v>469</v>
+        <v>542</v>
       </c>
       <c r="L58" s="84"/>
       <c r="M58" s="84"/>
@@ -12942,7 +12951,7 @@
       <c r="AK58" s="283"/>
       <c r="AL58" s="284"/>
       <c r="AM58" s="81" t="s">
-        <v>470</v>
+        <v>467</v>
       </c>
       <c r="AN58" s="82"/>
       <c r="AO58" s="82"/>
@@ -13020,7 +13029,7 @@
       <c r="AK59" s="283"/>
       <c r="AL59" s="284"/>
       <c r="AM59" s="81" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="AN59" s="82"/>
       <c r="AO59" s="82"/>
@@ -13066,7 +13075,7 @@
       <c r="I60" s="84"/>
       <c r="J60" s="224"/>
       <c r="K60" s="223" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="L60" s="84"/>
       <c r="M60" s="84"/>
@@ -13098,7 +13107,7 @@
       <c r="AK60" s="283"/>
       <c r="AL60" s="284"/>
       <c r="AM60" s="81" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="AN60" s="82"/>
       <c r="AO60" s="82"/>
@@ -13176,7 +13185,7 @@
       <c r="AK61" s="283"/>
       <c r="AL61" s="284"/>
       <c r="AM61" s="81" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="AN61" s="82"/>
       <c r="AO61" s="82"/>
@@ -13213,11 +13222,43 @@
     </row>
   </sheetData>
   <mergeCells count="58">
-    <mergeCell ref="B61:C61"/>
-    <mergeCell ref="AE61:AF61"/>
-    <mergeCell ref="AG61:AH61"/>
-    <mergeCell ref="AI61:AJ61"/>
-    <mergeCell ref="AK61:AL61"/>
+    <mergeCell ref="B60:C60"/>
+    <mergeCell ref="AE60:AF60"/>
+    <mergeCell ref="B58:C58"/>
+    <mergeCell ref="AK58:AL58"/>
+    <mergeCell ref="B59:C59"/>
+    <mergeCell ref="AE59:AF59"/>
+    <mergeCell ref="AG59:AH59"/>
+    <mergeCell ref="AI59:AJ59"/>
+    <mergeCell ref="AK59:AL59"/>
+    <mergeCell ref="AK55:AL55"/>
+    <mergeCell ref="AI55:AJ55"/>
+    <mergeCell ref="AG60:AH60"/>
+    <mergeCell ref="AI60:AJ60"/>
+    <mergeCell ref="AK60:AL60"/>
+    <mergeCell ref="B54:C54"/>
+    <mergeCell ref="AI54:AJ54"/>
+    <mergeCell ref="AE58:AF58"/>
+    <mergeCell ref="AK54:AL54"/>
+    <mergeCell ref="AK57:AL57"/>
+    <mergeCell ref="B56:C56"/>
+    <mergeCell ref="AE56:AF56"/>
+    <mergeCell ref="AG56:AH56"/>
+    <mergeCell ref="AI56:AJ56"/>
+    <mergeCell ref="AK56:AL56"/>
+    <mergeCell ref="B57:C57"/>
+    <mergeCell ref="AE57:AF57"/>
+    <mergeCell ref="AG57:AH57"/>
+    <mergeCell ref="AE54:AF54"/>
+    <mergeCell ref="B55:C55"/>
+    <mergeCell ref="AE55:AF55"/>
+    <mergeCell ref="AG53:AH53"/>
+    <mergeCell ref="AG54:AH54"/>
+    <mergeCell ref="AG52:AH52"/>
+    <mergeCell ref="AI57:AJ57"/>
+    <mergeCell ref="AG58:AH58"/>
+    <mergeCell ref="AI58:AJ58"/>
+    <mergeCell ref="AG55:AH55"/>
     <mergeCell ref="AO2:AS2"/>
     <mergeCell ref="AZ2:BG2"/>
     <mergeCell ref="B50:C50"/>
@@ -13234,43 +13275,11 @@
     <mergeCell ref="AI53:AJ53"/>
     <mergeCell ref="AE52:AF52"/>
     <mergeCell ref="AE53:AF53"/>
-    <mergeCell ref="AG53:AH53"/>
-    <mergeCell ref="AG54:AH54"/>
-    <mergeCell ref="AG52:AH52"/>
-    <mergeCell ref="AI57:AJ57"/>
-    <mergeCell ref="AG58:AH58"/>
-    <mergeCell ref="AI58:AJ58"/>
-    <mergeCell ref="AG55:AH55"/>
-    <mergeCell ref="B54:C54"/>
-    <mergeCell ref="AI54:AJ54"/>
-    <mergeCell ref="AE58:AF58"/>
-    <mergeCell ref="AK54:AL54"/>
-    <mergeCell ref="AK57:AL57"/>
-    <mergeCell ref="B56:C56"/>
-    <mergeCell ref="AE56:AF56"/>
-    <mergeCell ref="AG56:AH56"/>
-    <mergeCell ref="AI56:AJ56"/>
-    <mergeCell ref="AK56:AL56"/>
-    <mergeCell ref="B57:C57"/>
-    <mergeCell ref="AE57:AF57"/>
-    <mergeCell ref="AG57:AH57"/>
-    <mergeCell ref="AE54:AF54"/>
-    <mergeCell ref="B55:C55"/>
-    <mergeCell ref="AE55:AF55"/>
-    <mergeCell ref="AK55:AL55"/>
-    <mergeCell ref="AI55:AJ55"/>
-    <mergeCell ref="AG60:AH60"/>
-    <mergeCell ref="AI60:AJ60"/>
-    <mergeCell ref="AK60:AL60"/>
-    <mergeCell ref="B60:C60"/>
-    <mergeCell ref="AE60:AF60"/>
-    <mergeCell ref="B58:C58"/>
-    <mergeCell ref="AK58:AL58"/>
-    <mergeCell ref="B59:C59"/>
-    <mergeCell ref="AE59:AF59"/>
-    <mergeCell ref="AG59:AH59"/>
-    <mergeCell ref="AI59:AJ59"/>
-    <mergeCell ref="AK59:AL59"/>
+    <mergeCell ref="B61:C61"/>
+    <mergeCell ref="AE61:AF61"/>
+    <mergeCell ref="AG61:AH61"/>
+    <mergeCell ref="AI61:AJ61"/>
+    <mergeCell ref="AK61:AL61"/>
   </mergeCells>
   <phoneticPr fontId="4"/>
   <printOptions horizontalCentered="1"/>
@@ -13764,22 +13773,22 @@
     <row r="6" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="15"/>
       <c r="B6" s="15"/>
-      <c r="C6" s="243" t="s">
+      <c r="C6" s="274" t="s">
         <v>27</v>
       </c>
-      <c r="D6" s="243" t="s">
+      <c r="D6" s="274" t="s">
         <v>60</v>
       </c>
-      <c r="E6" s="243" t="s">
+      <c r="E6" s="274" t="s">
         <v>44</v>
       </c>
-      <c r="F6" s="243" t="s">
+      <c r="F6" s="274" t="s">
         <v>45</v>
       </c>
-      <c r="G6" s="243" t="s">
+      <c r="G6" s="274" t="s">
         <v>28</v>
       </c>
-      <c r="H6" s="243" t="s">
+      <c r="H6" s="274" t="s">
         <v>29</v>
       </c>
       <c r="I6" s="302" t="s">
@@ -13788,13 +13797,13 @@
       <c r="J6" s="302" t="s">
         <v>51</v>
       </c>
-      <c r="K6" s="243" t="s">
+      <c r="K6" s="274" t="s">
         <v>31</v>
       </c>
-      <c r="L6" s="243" t="s">
+      <c r="L6" s="274" t="s">
         <v>30</v>
       </c>
-      <c r="M6" s="243" t="s">
+      <c r="M6" s="274" t="s">
         <v>33</v>
       </c>
       <c r="N6" s="75" t="s">
@@ -13809,17 +13818,17 @@
     <row r="7" spans="1:18" ht="15.75" x14ac:dyDescent="0.15">
       <c r="A7" s="15"/>
       <c r="B7" s="15"/>
-      <c r="C7" s="243"/>
-      <c r="D7" s="243"/>
-      <c r="E7" s="243"/>
-      <c r="F7" s="243"/>
-      <c r="G7" s="243"/>
-      <c r="H7" s="243"/>
+      <c r="C7" s="274"/>
+      <c r="D7" s="274"/>
+      <c r="E7" s="274"/>
+      <c r="F7" s="274"/>
+      <c r="G7" s="274"/>
+      <c r="H7" s="274"/>
       <c r="I7" s="302"/>
       <c r="J7" s="302"/>
-      <c r="K7" s="243"/>
-      <c r="L7" s="243"/>
-      <c r="M7" s="243"/>
+      <c r="K7" s="274"/>
+      <c r="L7" s="274"/>
+      <c r="M7" s="274"/>
       <c r="N7" s="43" t="s">
         <v>83</v>
       </c>
@@ -13886,7 +13895,7 @@
         <v>62</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>493</v>
+        <v>489</v>
       </c>
       <c r="F9" s="7" t="s">
         <v>141</v>
@@ -14030,22 +14039,22 @@
     <row r="14" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="15"/>
       <c r="B14" s="15"/>
-      <c r="C14" s="243" t="s">
+      <c r="C14" s="274" t="s">
         <v>27</v>
       </c>
-      <c r="D14" s="243" t="s">
+      <c r="D14" s="274" t="s">
         <v>60</v>
       </c>
-      <c r="E14" s="243" t="s">
+      <c r="E14" s="274" t="s">
         <v>44</v>
       </c>
-      <c r="F14" s="243" t="s">
+      <c r="F14" s="274" t="s">
         <v>45</v>
       </c>
-      <c r="G14" s="243" t="s">
+      <c r="G14" s="274" t="s">
         <v>28</v>
       </c>
-      <c r="H14" s="243" t="s">
+      <c r="H14" s="274" t="s">
         <v>29</v>
       </c>
       <c r="I14" s="303" t="s">
@@ -14054,13 +14063,13 @@
       <c r="J14" s="302" t="s">
         <v>51</v>
       </c>
-      <c r="K14" s="243" t="s">
+      <c r="K14" s="274" t="s">
         <v>31</v>
       </c>
-      <c r="L14" s="243" t="s">
+      <c r="L14" s="274" t="s">
         <v>30</v>
       </c>
-      <c r="M14" s="243" t="s">
+      <c r="M14" s="274" t="s">
         <v>33</v>
       </c>
       <c r="N14" s="75" t="s">
@@ -14075,17 +14084,17 @@
     <row r="15" spans="1:18" ht="15.75" x14ac:dyDescent="0.15">
       <c r="A15" s="15"/>
       <c r="B15" s="15"/>
-      <c r="C15" s="243"/>
-      <c r="D15" s="243"/>
-      <c r="E15" s="243"/>
-      <c r="F15" s="243"/>
-      <c r="G15" s="243"/>
-      <c r="H15" s="243"/>
+      <c r="C15" s="274"/>
+      <c r="D15" s="274"/>
+      <c r="E15" s="274"/>
+      <c r="F15" s="274"/>
+      <c r="G15" s="274"/>
+      <c r="H15" s="274"/>
       <c r="I15" s="304"/>
       <c r="J15" s="302"/>
-      <c r="K15" s="243"/>
-      <c r="L15" s="243"/>
-      <c r="M15" s="243"/>
+      <c r="K15" s="274"/>
+      <c r="L15" s="274"/>
+      <c r="M15" s="274"/>
       <c r="N15" s="43" t="s">
         <v>83</v>
       </c>
@@ -14107,10 +14116,10 @@
         <v>65</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>481</v>
+      </c>
+      <c r="F16" s="7" t="s">
         <v>485</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>489</v>
       </c>
       <c r="G16" s="16" t="s">
         <v>116</v>
@@ -14134,7 +14143,7 @@
         <v>234</v>
       </c>
       <c r="N16" s="229" t="s">
-        <v>492</v>
+        <v>488</v>
       </c>
       <c r="O16" s="44" t="s">
         <v>34</v>
@@ -14143,7 +14152,7 @@
         <v>34</v>
       </c>
       <c r="Q16" s="8" t="s">
-        <v>490</v>
+        <v>486</v>
       </c>
     </row>
     <row r="17" spans="1:17" ht="28.5" x14ac:dyDescent="0.15">
@@ -14192,7 +14201,7 @@
         <v>34</v>
       </c>
       <c r="Q17" s="8" t="s">
-        <v>491</v>
+        <v>487</v>
       </c>
     </row>
     <row r="18" spans="1:17" ht="57" x14ac:dyDescent="0.15">
@@ -14359,22 +14368,22 @@
     </row>
     <row r="24" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B24" s="118"/>
-      <c r="C24" s="243" t="s">
+      <c r="C24" s="274" t="s">
         <v>27</v>
       </c>
-      <c r="D24" s="243" t="s">
+      <c r="D24" s="274" t="s">
         <v>60</v>
       </c>
-      <c r="E24" s="243" t="s">
+      <c r="E24" s="274" t="s">
         <v>44</v>
       </c>
-      <c r="F24" s="243" t="s">
+      <c r="F24" s="274" t="s">
         <v>45</v>
       </c>
-      <c r="G24" s="243" t="s">
+      <c r="G24" s="274" t="s">
         <v>28</v>
       </c>
-      <c r="H24" s="243" t="s">
+      <c r="H24" s="274" t="s">
         <v>29</v>
       </c>
       <c r="I24" s="302" t="s">
@@ -14383,13 +14392,13 @@
       <c r="J24" s="302" t="s">
         <v>51</v>
       </c>
-      <c r="K24" s="243" t="s">
+      <c r="K24" s="274" t="s">
         <v>31</v>
       </c>
-      <c r="L24" s="243" t="s">
+      <c r="L24" s="274" t="s">
         <v>30</v>
       </c>
-      <c r="M24" s="243" t="s">
+      <c r="M24" s="274" t="s">
         <v>33</v>
       </c>
       <c r="N24" s="75" t="s">
@@ -14403,17 +14412,17 @@
     </row>
     <row r="25" spans="1:17" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B25" s="118"/>
-      <c r="C25" s="243"/>
-      <c r="D25" s="243"/>
-      <c r="E25" s="243"/>
-      <c r="F25" s="243"/>
-      <c r="G25" s="243"/>
-      <c r="H25" s="243"/>
+      <c r="C25" s="274"/>
+      <c r="D25" s="274"/>
+      <c r="E25" s="274"/>
+      <c r="F25" s="274"/>
+      <c r="G25" s="274"/>
+      <c r="H25" s="274"/>
       <c r="I25" s="302"/>
       <c r="J25" s="302"/>
-      <c r="K25" s="243"/>
-      <c r="L25" s="243"/>
-      <c r="M25" s="243"/>
+      <c r="K25" s="274"/>
+      <c r="L25" s="274"/>
+      <c r="M25" s="274"/>
       <c r="N25" s="115" t="s">
         <v>83</v>
       </c>
@@ -14556,7 +14565,7 @@
         <v>35</v>
       </c>
       <c r="P28" s="8" t="s">
-        <v>475</v>
+        <v>471</v>
       </c>
       <c r="Q28" s="8"/>
     </row>
@@ -14600,7 +14609,7 @@
         <v>35</v>
       </c>
       <c r="P29" s="8" t="s">
-        <v>474</v>
+        <v>470</v>
       </c>
       <c r="Q29" s="8"/>
     </row>
@@ -14966,22 +14975,22 @@
     </row>
     <row r="40" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B40" s="118"/>
-      <c r="C40" s="243" t="s">
+      <c r="C40" s="274" t="s">
         <v>27</v>
       </c>
-      <c r="D40" s="243" t="s">
+      <c r="D40" s="274" t="s">
         <v>60</v>
       </c>
-      <c r="E40" s="243" t="s">
+      <c r="E40" s="274" t="s">
         <v>44</v>
       </c>
-      <c r="F40" s="243" t="s">
+      <c r="F40" s="274" t="s">
         <v>45</v>
       </c>
-      <c r="G40" s="243" t="s">
+      <c r="G40" s="274" t="s">
         <v>28</v>
       </c>
-      <c r="H40" s="243" t="s">
+      <c r="H40" s="274" t="s">
         <v>29</v>
       </c>
       <c r="I40" s="302" t="s">
@@ -14990,13 +14999,13 @@
       <c r="J40" s="302" t="s">
         <v>51</v>
       </c>
-      <c r="K40" s="243" t="s">
+      <c r="K40" s="274" t="s">
         <v>31</v>
       </c>
-      <c r="L40" s="243" t="s">
+      <c r="L40" s="274" t="s">
         <v>30</v>
       </c>
-      <c r="M40" s="243" t="s">
+      <c r="M40" s="274" t="s">
         <v>33</v>
       </c>
       <c r="N40" s="75" t="s">
@@ -15010,17 +15019,17 @@
     </row>
     <row r="41" spans="1:17" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B41" s="118"/>
-      <c r="C41" s="243"/>
-      <c r="D41" s="243"/>
-      <c r="E41" s="243"/>
-      <c r="F41" s="243"/>
-      <c r="G41" s="243"/>
-      <c r="H41" s="243"/>
+      <c r="C41" s="274"/>
+      <c r="D41" s="274"/>
+      <c r="E41" s="274"/>
+      <c r="F41" s="274"/>
+      <c r="G41" s="274"/>
+      <c r="H41" s="274"/>
       <c r="I41" s="302"/>
       <c r="J41" s="302"/>
-      <c r="K41" s="243"/>
-      <c r="L41" s="243"/>
-      <c r="M41" s="243"/>
+      <c r="K41" s="274"/>
+      <c r="L41" s="274"/>
+      <c r="M41" s="274"/>
       <c r="N41" s="115" t="s">
         <v>83</v>
       </c>
@@ -15163,7 +15172,7 @@
         <v>35</v>
       </c>
       <c r="P44" s="7" t="s">
-        <v>475</v>
+        <v>471</v>
       </c>
       <c r="Q44" s="8"/>
     </row>
@@ -15251,7 +15260,7 @@
         <v>35</v>
       </c>
       <c r="P46" s="7" t="s">
-        <v>476</v>
+        <v>472</v>
       </c>
       <c r="Q46" s="8"/>
     </row>
@@ -15295,7 +15304,7 @@
         <v>35</v>
       </c>
       <c r="P47" s="8" t="s">
-        <v>477</v>
+        <v>473</v>
       </c>
       <c r="Q47" s="8"/>
     </row>
@@ -15339,7 +15348,7 @@
         <v>35</v>
       </c>
       <c r="P48" s="7" t="s">
-        <v>478</v>
+        <v>474</v>
       </c>
       <c r="Q48" s="8"/>
     </row>
@@ -15383,7 +15392,7 @@
         <v>35</v>
       </c>
       <c r="P49" s="119" t="s">
-        <v>477</v>
+        <v>473</v>
       </c>
       <c r="Q49" s="8"/>
     </row>
@@ -15427,7 +15436,7 @@
         <v>35</v>
       </c>
       <c r="P50" s="7" t="s">
-        <v>479</v>
+        <v>475</v>
       </c>
       <c r="Q50" s="8"/>
     </row>
@@ -15471,7 +15480,7 @@
         <v>35</v>
       </c>
       <c r="P51" s="8" t="s">
-        <v>479</v>
+        <v>475</v>
       </c>
       <c r="Q51" s="8"/>
     </row>
@@ -15515,7 +15524,7 @@
         <v>35</v>
       </c>
       <c r="P52" s="7" t="s">
-        <v>480</v>
+        <v>476</v>
       </c>
       <c r="Q52" s="8"/>
     </row>
@@ -15597,13 +15606,13 @@
         <v>34</v>
       </c>
       <c r="N54" s="7" t="s">
-        <v>482</v>
+        <v>478</v>
       </c>
       <c r="O54" s="7" t="s">
         <v>35</v>
       </c>
       <c r="P54" s="8" t="s">
-        <v>481</v>
+        <v>477</v>
       </c>
       <c r="Q54" s="8"/>
     </row>
@@ -15641,13 +15650,13 @@
         <v>34</v>
       </c>
       <c r="N55" s="7" t="s">
-        <v>482</v>
+        <v>478</v>
       </c>
       <c r="O55" s="7" t="s">
         <v>35</v>
       </c>
       <c r="P55" s="8" t="s">
-        <v>481</v>
+        <v>477</v>
       </c>
       <c r="Q55" s="8"/>
     </row>
@@ -15685,13 +15694,13 @@
         <v>34</v>
       </c>
       <c r="N56" s="7" t="s">
-        <v>482</v>
+        <v>478</v>
       </c>
       <c r="O56" s="7" t="s">
         <v>35</v>
       </c>
       <c r="P56" s="8" t="s">
-        <v>481</v>
+        <v>477</v>
       </c>
       <c r="Q56" s="8"/>
     </row>
@@ -15729,13 +15738,13 @@
         <v>34</v>
       </c>
       <c r="N57" s="7" t="s">
-        <v>482</v>
+        <v>478</v>
       </c>
       <c r="O57" s="7" t="s">
         <v>35</v>
       </c>
       <c r="P57" s="8" t="s">
-        <v>481</v>
+        <v>477</v>
       </c>
       <c r="Q57" s="8"/>
     </row>
@@ -15765,22 +15774,22 @@
     </row>
     <row r="60" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B60" s="118"/>
-      <c r="C60" s="243" t="s">
+      <c r="C60" s="274" t="s">
         <v>27</v>
       </c>
-      <c r="D60" s="243" t="s">
+      <c r="D60" s="274" t="s">
         <v>60</v>
       </c>
-      <c r="E60" s="243" t="s">
+      <c r="E60" s="274" t="s">
         <v>44</v>
       </c>
-      <c r="F60" s="243" t="s">
+      <c r="F60" s="274" t="s">
         <v>45</v>
       </c>
-      <c r="G60" s="243" t="s">
+      <c r="G60" s="274" t="s">
         <v>28</v>
       </c>
-      <c r="H60" s="243" t="s">
+      <c r="H60" s="274" t="s">
         <v>29</v>
       </c>
       <c r="I60" s="302" t="s">
@@ -15789,13 +15798,13 @@
       <c r="J60" s="302" t="s">
         <v>51</v>
       </c>
-      <c r="K60" s="243" t="s">
+      <c r="K60" s="274" t="s">
         <v>31</v>
       </c>
-      <c r="L60" s="243" t="s">
+      <c r="L60" s="274" t="s">
         <v>30</v>
       </c>
-      <c r="M60" s="243" t="s">
+      <c r="M60" s="274" t="s">
         <v>33</v>
       </c>
       <c r="N60" s="75" t="s">
@@ -15809,17 +15818,17 @@
     </row>
     <row r="61" spans="1:17" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B61" s="118"/>
-      <c r="C61" s="243"/>
-      <c r="D61" s="243"/>
-      <c r="E61" s="243"/>
-      <c r="F61" s="243"/>
-      <c r="G61" s="243"/>
-      <c r="H61" s="243"/>
+      <c r="C61" s="274"/>
+      <c r="D61" s="274"/>
+      <c r="E61" s="274"/>
+      <c r="F61" s="274"/>
+      <c r="G61" s="274"/>
+      <c r="H61" s="274"/>
       <c r="I61" s="302"/>
       <c r="J61" s="302"/>
-      <c r="K61" s="243"/>
-      <c r="L61" s="243"/>
-      <c r="M61" s="243"/>
+      <c r="K61" s="274"/>
+      <c r="L61" s="274"/>
+      <c r="M61" s="274"/>
       <c r="N61" s="115" t="s">
         <v>83</v>
       </c>
@@ -15962,7 +15971,7 @@
         <v>35</v>
       </c>
       <c r="P64" s="7" t="s">
-        <v>475</v>
+        <v>471</v>
       </c>
       <c r="Q64" s="8"/>
     </row>
@@ -16094,7 +16103,7 @@
         <v>35</v>
       </c>
       <c r="P67" s="7" t="s">
-        <v>484</v>
+        <v>480</v>
       </c>
       <c r="Q67" s="8"/>
     </row>
@@ -16132,7 +16141,7 @@
         <v>34</v>
       </c>
       <c r="N68" s="7" t="s">
-        <v>483</v>
+        <v>479</v>
       </c>
       <c r="O68" s="7" t="s">
         <v>35</v>
@@ -16176,13 +16185,13 @@
         <v>34</v>
       </c>
       <c r="N69" s="7" t="s">
-        <v>483</v>
+        <v>479</v>
       </c>
       <c r="O69" s="7" t="s">
         <v>35</v>
       </c>
       <c r="P69" s="8" t="s">
-        <v>479</v>
+        <v>475</v>
       </c>
       <c r="Q69" s="8"/>
     </row>
@@ -16220,7 +16229,7 @@
         <v>34</v>
       </c>
       <c r="N70" s="7" t="s">
-        <v>483</v>
+        <v>479</v>
       </c>
       <c r="O70" s="7" t="s">
         <v>35</v>
@@ -16308,7 +16317,7 @@
         <v>34</v>
       </c>
       <c r="N72" s="7" t="s">
-        <v>483</v>
+        <v>479</v>
       </c>
       <c r="O72" s="7" t="s">
         <v>35</v>
@@ -16352,7 +16361,7 @@
         <v>34</v>
       </c>
       <c r="N73" s="7" t="s">
-        <v>483</v>
+        <v>479</v>
       </c>
       <c r="O73" s="7" t="s">
         <v>35</v>
@@ -16411,38 +16420,26 @@
     </row>
   </sheetData>
   <mergeCells count="60">
-    <mergeCell ref="M60:M61"/>
-    <mergeCell ref="Q60:Q61"/>
-    <mergeCell ref="H60:H61"/>
-    <mergeCell ref="I60:I61"/>
-    <mergeCell ref="J60:J61"/>
-    <mergeCell ref="K60:K61"/>
-    <mergeCell ref="L60:L61"/>
-    <mergeCell ref="C60:C61"/>
-    <mergeCell ref="D60:D61"/>
-    <mergeCell ref="E60:E61"/>
-    <mergeCell ref="F60:F61"/>
-    <mergeCell ref="G60:G61"/>
-    <mergeCell ref="H40:H41"/>
-    <mergeCell ref="I40:I41"/>
-    <mergeCell ref="J40:J41"/>
-    <mergeCell ref="K40:K41"/>
-    <mergeCell ref="L40:L41"/>
-    <mergeCell ref="C40:C41"/>
-    <mergeCell ref="D40:D41"/>
-    <mergeCell ref="E40:E41"/>
-    <mergeCell ref="F40:F41"/>
-    <mergeCell ref="G40:G41"/>
-    <mergeCell ref="H24:H25"/>
-    <mergeCell ref="I24:I25"/>
-    <mergeCell ref="J24:J25"/>
-    <mergeCell ref="K24:K25"/>
-    <mergeCell ref="L24:L25"/>
-    <mergeCell ref="C24:C25"/>
-    <mergeCell ref="D24:D25"/>
-    <mergeCell ref="E24:E25"/>
-    <mergeCell ref="F24:F25"/>
-    <mergeCell ref="G24:G25"/>
+    <mergeCell ref="K14:K15"/>
+    <mergeCell ref="M24:M25"/>
+    <mergeCell ref="Q24:Q25"/>
+    <mergeCell ref="M40:M41"/>
+    <mergeCell ref="Q40:Q41"/>
+    <mergeCell ref="Q6:Q7"/>
+    <mergeCell ref="Q14:Q15"/>
+    <mergeCell ref="M6:M7"/>
+    <mergeCell ref="M14:M15"/>
+    <mergeCell ref="L14:L15"/>
+    <mergeCell ref="J6:J7"/>
+    <mergeCell ref="D6:D7"/>
+    <mergeCell ref="I6:I7"/>
+    <mergeCell ref="L6:L7"/>
+    <mergeCell ref="K6:K7"/>
+    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="E6:E7"/>
+    <mergeCell ref="G6:G7"/>
+    <mergeCell ref="H6:H7"/>
+    <mergeCell ref="F6:F7"/>
     <mergeCell ref="I14:I15"/>
     <mergeCell ref="J14:J15"/>
     <mergeCell ref="C14:C15"/>
@@ -16451,26 +16448,38 @@
     <mergeCell ref="G14:G15"/>
     <mergeCell ref="H14:H15"/>
     <mergeCell ref="D14:D15"/>
-    <mergeCell ref="C6:C7"/>
-    <mergeCell ref="E6:E7"/>
-    <mergeCell ref="G6:G7"/>
-    <mergeCell ref="H6:H7"/>
-    <mergeCell ref="F6:F7"/>
-    <mergeCell ref="J6:J7"/>
-    <mergeCell ref="D6:D7"/>
-    <mergeCell ref="I6:I7"/>
-    <mergeCell ref="L6:L7"/>
-    <mergeCell ref="K6:K7"/>
-    <mergeCell ref="Q6:Q7"/>
-    <mergeCell ref="Q14:Q15"/>
-    <mergeCell ref="M6:M7"/>
-    <mergeCell ref="M14:M15"/>
-    <mergeCell ref="L14:L15"/>
-    <mergeCell ref="K14:K15"/>
-    <mergeCell ref="M24:M25"/>
-    <mergeCell ref="Q24:Q25"/>
-    <mergeCell ref="M40:M41"/>
-    <mergeCell ref="Q40:Q41"/>
+    <mergeCell ref="C24:C25"/>
+    <mergeCell ref="D24:D25"/>
+    <mergeCell ref="E24:E25"/>
+    <mergeCell ref="F24:F25"/>
+    <mergeCell ref="G24:G25"/>
+    <mergeCell ref="H24:H25"/>
+    <mergeCell ref="I24:I25"/>
+    <mergeCell ref="J24:J25"/>
+    <mergeCell ref="K24:K25"/>
+    <mergeCell ref="L24:L25"/>
+    <mergeCell ref="C40:C41"/>
+    <mergeCell ref="D40:D41"/>
+    <mergeCell ref="E40:E41"/>
+    <mergeCell ref="F40:F41"/>
+    <mergeCell ref="G40:G41"/>
+    <mergeCell ref="H40:H41"/>
+    <mergeCell ref="I40:I41"/>
+    <mergeCell ref="J40:J41"/>
+    <mergeCell ref="K40:K41"/>
+    <mergeCell ref="L40:L41"/>
+    <mergeCell ref="C60:C61"/>
+    <mergeCell ref="D60:D61"/>
+    <mergeCell ref="E60:E61"/>
+    <mergeCell ref="F60:F61"/>
+    <mergeCell ref="G60:G61"/>
+    <mergeCell ref="M60:M61"/>
+    <mergeCell ref="Q60:Q61"/>
+    <mergeCell ref="H60:H61"/>
+    <mergeCell ref="I60:I61"/>
+    <mergeCell ref="J60:J61"/>
+    <mergeCell ref="K60:K61"/>
+    <mergeCell ref="L60:L61"/>
   </mergeCells>
   <phoneticPr fontId="4"/>
   <pageMargins left="0.62992125984251968" right="0.62992125984251968" top="0.78740157480314965" bottom="0.78740157480314965" header="0.39370078740157483" footer="0.39370078740157483"/>
@@ -17137,7 +17146,7 @@
       <c r="J14" s="222"/>
       <c r="K14" s="228"/>
       <c r="L14" s="222" t="s">
-        <v>542</v>
+        <v>538</v>
       </c>
       <c r="M14" s="231"/>
       <c r="N14" s="231"/>
@@ -17243,7 +17252,7 @@
       <c r="L16" s="225"/>
       <c r="M16" s="225"/>
       <c r="N16" s="225" t="s">
-        <v>517</v>
+        <v>513</v>
       </c>
       <c r="O16" s="225"/>
       <c r="P16" s="225"/>
@@ -17294,7 +17303,7 @@
       <c r="L17" s="225"/>
       <c r="M17" s="225"/>
       <c r="N17" s="225" t="s">
-        <v>511</v>
+        <v>507</v>
       </c>
       <c r="O17" s="225"/>
       <c r="P17" s="225"/>
@@ -17345,7 +17354,7 @@
       <c r="L18" s="225"/>
       <c r="M18" s="225"/>
       <c r="N18" s="225" t="s">
-        <v>527</v>
+        <v>523</v>
       </c>
       <c r="O18" s="225"/>
       <c r="P18" s="225"/>
@@ -18444,7 +18453,7 @@
       <c r="L39" s="225"/>
       <c r="M39" s="225"/>
       <c r="N39" s="225" t="s">
-        <v>503</v>
+        <v>499</v>
       </c>
       <c r="O39" s="225"/>
       <c r="P39" s="225"/>
@@ -18499,7 +18508,7 @@
       <c r="L40" s="225"/>
       <c r="M40" s="225"/>
       <c r="N40" s="225" t="s">
-        <v>501</v>
+        <v>497</v>
       </c>
       <c r="O40" s="225"/>
       <c r="P40" s="225"/>
@@ -18660,7 +18669,7 @@
       <c r="L43" s="225"/>
       <c r="M43" s="225"/>
       <c r="N43" s="225" t="s">
-        <v>518</v>
+        <v>514</v>
       </c>
       <c r="O43" s="225"/>
       <c r="P43" s="225"/>
@@ -18711,7 +18720,7 @@
       <c r="L44" s="225"/>
       <c r="M44" s="225"/>
       <c r="N44" s="225" t="s">
-        <v>494</v>
+        <v>490</v>
       </c>
       <c r="O44" s="225"/>
       <c r="P44" s="225"/>
@@ -18986,7 +18995,7 @@
       <c r="L49" s="225"/>
       <c r="M49" s="225"/>
       <c r="N49" s="225" t="s">
-        <v>519</v>
+        <v>515</v>
       </c>
       <c r="O49" s="225"/>
       <c r="P49" s="225"/>
@@ -19037,7 +19046,7 @@
       <c r="L50" s="225"/>
       <c r="M50" s="225"/>
       <c r="N50" s="225" t="s">
-        <v>494</v>
+        <v>490</v>
       </c>
       <c r="O50" s="225"/>
       <c r="P50" s="225"/>
@@ -19055,7 +19064,7 @@
         <v>228</v>
       </c>
       <c r="AB50" s="225" t="s">
-        <v>512</v>
+        <v>508</v>
       </c>
       <c r="AC50" s="225"/>
       <c r="AD50" s="225"/>
@@ -19110,7 +19119,7 @@
         <v>228</v>
       </c>
       <c r="AB51" s="225" t="s">
-        <v>513</v>
+        <v>509</v>
       </c>
       <c r="AC51" s="225"/>
       <c r="AD51" s="225"/>
@@ -19165,7 +19174,7 @@
         <v>228</v>
       </c>
       <c r="AB52" s="225" t="s">
-        <v>514</v>
+        <v>510</v>
       </c>
       <c r="AC52" s="225"/>
       <c r="AD52" s="225"/>
@@ -19220,7 +19229,7 @@
         <v>228</v>
       </c>
       <c r="AB53" s="225" t="s">
-        <v>515</v>
+        <v>511</v>
       </c>
       <c r="AC53" s="225"/>
       <c r="AD53" s="225"/>
@@ -19275,7 +19284,7 @@
         <v>228</v>
       </c>
       <c r="AB54" s="225" t="s">
-        <v>516</v>
+        <v>512</v>
       </c>
       <c r="AC54" s="225"/>
       <c r="AD54" s="225"/>
@@ -19312,7 +19321,7 @@
       <c r="L55" s="225"/>
       <c r="M55" s="225"/>
       <c r="N55" s="225" t="s">
-        <v>520</v>
+        <v>516</v>
       </c>
       <c r="O55" s="225"/>
       <c r="P55" s="225"/>
@@ -19363,7 +19372,7 @@
       <c r="L56" s="225"/>
       <c r="M56" s="225"/>
       <c r="N56" s="225" t="s">
-        <v>502</v>
+        <v>498</v>
       </c>
       <c r="O56" s="225"/>
       <c r="P56" s="225"/>
@@ -19418,7 +19427,7 @@
       <c r="L57" s="225"/>
       <c r="M57" s="225"/>
       <c r="N57" s="225" t="s">
-        <v>500</v>
+        <v>496</v>
       </c>
       <c r="O57" s="225"/>
       <c r="P57" s="225"/>
@@ -19436,7 +19445,7 @@
         <v>228</v>
       </c>
       <c r="AB57" s="225" t="s">
-        <v>495</v>
+        <v>491</v>
       </c>
       <c r="AC57" s="225"/>
       <c r="AD57" s="225"/>
@@ -19473,7 +19482,7 @@
       <c r="L58" s="225"/>
       <c r="M58" s="225"/>
       <c r="N58" s="225" t="s">
-        <v>521</v>
+        <v>517</v>
       </c>
       <c r="O58" s="225"/>
       <c r="P58" s="225"/>
@@ -19854,7 +19863,7 @@
       <c r="L65" s="225"/>
       <c r="M65" s="225"/>
       <c r="N65" s="225" t="s">
-        <v>508</v>
+        <v>504</v>
       </c>
       <c r="O65" s="225"/>
       <c r="P65" s="225"/>
@@ -19909,7 +19918,7 @@
       <c r="L66" s="225"/>
       <c r="M66" s="225"/>
       <c r="N66" s="225" t="s">
-        <v>509</v>
+        <v>505</v>
       </c>
       <c r="O66" s="225"/>
       <c r="P66" s="225"/>
@@ -19962,7 +19971,7 @@
       <c r="L67" s="225"/>
       <c r="M67" s="225"/>
       <c r="N67" s="225" t="s">
-        <v>522</v>
+        <v>518</v>
       </c>
       <c r="O67" s="225"/>
       <c r="P67" s="225"/>
@@ -20343,7 +20352,7 @@
       <c r="L74" s="225"/>
       <c r="M74" s="225"/>
       <c r="N74" s="225" t="s">
-        <v>508</v>
+        <v>504</v>
       </c>
       <c r="O74" s="225"/>
       <c r="P74" s="225"/>
@@ -20398,7 +20407,7 @@
       <c r="L75" s="225"/>
       <c r="M75" s="225"/>
       <c r="N75" s="225" t="s">
-        <v>510</v>
+        <v>506</v>
       </c>
       <c r="O75" s="225"/>
       <c r="P75" s="225"/>
@@ -20557,7 +20566,7 @@
       <c r="L78" s="225"/>
       <c r="M78" s="225"/>
       <c r="N78" s="225" t="s">
-        <v>488</v>
+        <v>484</v>
       </c>
       <c r="O78" s="225"/>
       <c r="P78" s="225"/>
@@ -20614,7 +20623,7 @@
       <c r="L79" s="225"/>
       <c r="M79" s="225"/>
       <c r="N79" s="225" t="s">
-        <v>504</v>
+        <v>500</v>
       </c>
       <c r="O79" s="225"/>
       <c r="P79" s="225"/>
@@ -20728,7 +20737,7 @@
       <c r="L81" s="225"/>
       <c r="M81" s="225"/>
       <c r="N81" s="225" t="s">
-        <v>507</v>
+        <v>503</v>
       </c>
       <c r="O81" s="225"/>
       <c r="P81" s="225"/>
@@ -20785,7 +20794,7 @@
       <c r="L82" s="225"/>
       <c r="M82" s="225"/>
       <c r="N82" s="225" t="s">
-        <v>505</v>
+        <v>501</v>
       </c>
       <c r="O82" s="225"/>
       <c r="P82" s="225"/>
@@ -20893,7 +20902,7 @@
       <c r="L84" s="225"/>
       <c r="M84" s="225"/>
       <c r="N84" s="225" t="s">
-        <v>517</v>
+        <v>513</v>
       </c>
       <c r="O84" s="225"/>
       <c r="P84" s="225"/>
@@ -20944,7 +20953,7 @@
       <c r="L85" s="225"/>
       <c r="M85" s="225"/>
       <c r="N85" s="225" t="s">
-        <v>511</v>
+        <v>507</v>
       </c>
       <c r="O85" s="225"/>
       <c r="P85" s="225"/>
@@ -20995,7 +21004,7 @@
       <c r="L86" s="225"/>
       <c r="M86" s="225"/>
       <c r="N86" s="225" t="s">
-        <v>529</v>
+        <v>525</v>
       </c>
       <c r="O86" s="225"/>
       <c r="P86" s="225"/>
@@ -21097,7 +21106,7 @@
       <c r="L88" s="225"/>
       <c r="M88" s="233"/>
       <c r="N88" s="225" t="s">
-        <v>517</v>
+        <v>513</v>
       </c>
       <c r="O88" s="225"/>
       <c r="P88" s="225"/>
@@ -21148,7 +21157,7 @@
       <c r="L89" s="225"/>
       <c r="M89" s="233"/>
       <c r="N89" s="225" t="s">
-        <v>511</v>
+        <v>507</v>
       </c>
       <c r="O89" s="225"/>
       <c r="P89" s="225"/>
@@ -21199,7 +21208,7 @@
       <c r="L90" s="225"/>
       <c r="M90" s="233"/>
       <c r="N90" s="225" t="s">
-        <v>528</v>
+        <v>524</v>
       </c>
       <c r="O90" s="225"/>
       <c r="P90" s="225"/>
@@ -21250,7 +21259,7 @@
       <c r="J91" s="222"/>
       <c r="K91" s="228"/>
       <c r="L91" s="222" t="s">
-        <v>542</v>
+        <v>538</v>
       </c>
       <c r="M91" s="231"/>
       <c r="N91" s="231"/>
@@ -21356,7 +21365,7 @@
       <c r="L93" s="225"/>
       <c r="M93" s="225"/>
       <c r="N93" s="225" t="s">
-        <v>517</v>
+        <v>513</v>
       </c>
       <c r="O93" s="225"/>
       <c r="P93" s="225"/>
@@ -22965,7 +22974,7 @@
       <c r="L124" s="225"/>
       <c r="M124" s="225"/>
       <c r="N124" s="225" t="s">
-        <v>532</v>
+        <v>528</v>
       </c>
       <c r="O124" s="225"/>
       <c r="P124" s="225"/>
@@ -23020,7 +23029,7 @@
       <c r="L125" s="225"/>
       <c r="M125" s="225"/>
       <c r="N125" s="225" t="s">
-        <v>518</v>
+        <v>514</v>
       </c>
       <c r="O125" s="225"/>
       <c r="P125" s="225"/>
@@ -23071,7 +23080,7 @@
       <c r="L126" s="225"/>
       <c r="M126" s="225"/>
       <c r="N126" s="225" t="s">
-        <v>494</v>
+        <v>490</v>
       </c>
       <c r="O126" s="225"/>
       <c r="P126" s="225"/>
@@ -23346,7 +23355,7 @@
       <c r="L131" s="225"/>
       <c r="M131" s="225"/>
       <c r="N131" s="225" t="s">
-        <v>519</v>
+        <v>515</v>
       </c>
       <c r="O131" s="225"/>
       <c r="P131" s="225"/>
@@ -23397,7 +23406,7 @@
       <c r="L132" s="225"/>
       <c r="M132" s="225"/>
       <c r="N132" s="225" t="s">
-        <v>494</v>
+        <v>490</v>
       </c>
       <c r="O132" s="225"/>
       <c r="P132" s="225"/>
@@ -23415,7 +23424,7 @@
         <v>228</v>
       </c>
       <c r="AB132" s="225" t="s">
-        <v>512</v>
+        <v>508</v>
       </c>
       <c r="AC132" s="225"/>
       <c r="AD132" s="225"/>
@@ -23470,7 +23479,7 @@
         <v>228</v>
       </c>
       <c r="AB133" s="225" t="s">
-        <v>513</v>
+        <v>509</v>
       </c>
       <c r="AC133" s="225"/>
       <c r="AD133" s="225"/>
@@ -23525,7 +23534,7 @@
         <v>228</v>
       </c>
       <c r="AB134" s="225" t="s">
-        <v>514</v>
+        <v>510</v>
       </c>
       <c r="AC134" s="225"/>
       <c r="AD134" s="225"/>
@@ -23580,7 +23589,7 @@
         <v>228</v>
       </c>
       <c r="AB135" s="225" t="s">
-        <v>515</v>
+        <v>511</v>
       </c>
       <c r="AC135" s="225"/>
       <c r="AD135" s="225"/>
@@ -23635,7 +23644,7 @@
         <v>228</v>
       </c>
       <c r="AB136" s="225" t="s">
-        <v>516</v>
+        <v>512</v>
       </c>
       <c r="AC136" s="225"/>
       <c r="AD136" s="225"/>
@@ -23672,7 +23681,7 @@
       <c r="L137" s="225"/>
       <c r="M137" s="225"/>
       <c r="N137" s="225" t="s">
-        <v>523</v>
+        <v>519</v>
       </c>
       <c r="O137" s="225"/>
       <c r="P137" s="225"/>
@@ -23778,7 +23787,7 @@
       <c r="L139" s="225"/>
       <c r="M139" s="225"/>
       <c r="N139" s="225" t="s">
-        <v>533</v>
+        <v>529</v>
       </c>
       <c r="O139" s="225"/>
       <c r="P139" s="225"/>
@@ -23833,7 +23842,7 @@
       <c r="L140" s="225"/>
       <c r="M140" s="225"/>
       <c r="N140" s="225" t="s">
-        <v>534</v>
+        <v>530</v>
       </c>
       <c r="O140" s="225"/>
       <c r="P140" s="225"/>
@@ -23888,7 +23897,7 @@
       <c r="L141" s="225"/>
       <c r="M141" s="225"/>
       <c r="N141" s="225" t="s">
-        <v>535</v>
+        <v>531</v>
       </c>
       <c r="O141" s="225"/>
       <c r="P141" s="225"/>
@@ -23906,7 +23915,7 @@
         <v>228</v>
       </c>
       <c r="AB141" s="235" t="s">
-        <v>496</v>
+        <v>492</v>
       </c>
       <c r="AC141" s="225"/>
       <c r="AD141" s="225"/>
@@ -23943,7 +23952,7 @@
       <c r="L142" s="225"/>
       <c r="M142" s="225"/>
       <c r="N142" s="225" t="s">
-        <v>524</v>
+        <v>520</v>
       </c>
       <c r="O142" s="225"/>
       <c r="P142" s="225"/>
@@ -24049,7 +24058,7 @@
       <c r="L144" s="225"/>
       <c r="M144" s="225"/>
       <c r="N144" s="225" t="s">
-        <v>533</v>
+        <v>529</v>
       </c>
       <c r="O144" s="225"/>
       <c r="P144" s="225"/>
@@ -24104,7 +24113,7 @@
       <c r="L145" s="225"/>
       <c r="M145" s="225"/>
       <c r="N145" s="225" t="s">
-        <v>536</v>
+        <v>532</v>
       </c>
       <c r="O145" s="225"/>
       <c r="P145" s="225"/>
@@ -24159,7 +24168,7 @@
       <c r="L146" s="225"/>
       <c r="M146" s="225"/>
       <c r="N146" s="225" t="s">
-        <v>537</v>
+        <v>533</v>
       </c>
       <c r="O146" s="225"/>
       <c r="P146" s="225"/>
@@ -24177,7 +24186,7 @@
         <v>228</v>
       </c>
       <c r="AB146" s="235" t="s">
-        <v>497</v>
+        <v>493</v>
       </c>
       <c r="AC146" s="225"/>
       <c r="AD146" s="225"/>
@@ -24214,7 +24223,7 @@
       <c r="L147" s="225"/>
       <c r="M147" s="225"/>
       <c r="N147" s="225" t="s">
-        <v>525</v>
+        <v>521</v>
       </c>
       <c r="O147" s="225"/>
       <c r="P147" s="225"/>
@@ -24320,7 +24329,7 @@
       <c r="L149" s="225"/>
       <c r="M149" s="225"/>
       <c r="N149" s="225" t="s">
-        <v>533</v>
+        <v>529</v>
       </c>
       <c r="O149" s="225"/>
       <c r="P149" s="225"/>
@@ -24375,7 +24384,7 @@
       <c r="L150" s="225"/>
       <c r="M150" s="225"/>
       <c r="N150" s="225" t="s">
-        <v>538</v>
+        <v>534</v>
       </c>
       <c r="O150" s="225"/>
       <c r="P150" s="225"/>
@@ -24430,7 +24439,7 @@
       <c r="L151" s="225"/>
       <c r="M151" s="225"/>
       <c r="N151" s="225" t="s">
-        <v>539</v>
+        <v>535</v>
       </c>
       <c r="O151" s="225"/>
       <c r="P151" s="225"/>
@@ -24448,7 +24457,7 @@
         <v>228</v>
       </c>
       <c r="AB151" s="235" t="s">
-        <v>498</v>
+        <v>494</v>
       </c>
       <c r="AC151" s="225"/>
       <c r="AD151" s="225"/>
@@ -24485,7 +24494,7 @@
       <c r="L152" s="225"/>
       <c r="M152" s="225"/>
       <c r="N152" s="225" t="s">
-        <v>526</v>
+        <v>522</v>
       </c>
       <c r="O152" s="225"/>
       <c r="P152" s="225"/>
@@ -24591,7 +24600,7 @@
       <c r="L154" s="225"/>
       <c r="M154" s="225"/>
       <c r="N154" s="225" t="s">
-        <v>533</v>
+        <v>529</v>
       </c>
       <c r="O154" s="225"/>
       <c r="P154" s="225"/>
@@ -24646,7 +24655,7 @@
       <c r="L155" s="225"/>
       <c r="M155" s="225"/>
       <c r="N155" s="225" t="s">
-        <v>540</v>
+        <v>536</v>
       </c>
       <c r="O155" s="225"/>
       <c r="P155" s="225"/>
@@ -24701,7 +24710,7 @@
       <c r="L156" s="225"/>
       <c r="M156" s="225"/>
       <c r="N156" s="225" t="s">
-        <v>541</v>
+        <v>537</v>
       </c>
       <c r="O156" s="225"/>
       <c r="P156" s="225"/>
@@ -24719,7 +24728,7 @@
         <v>228</v>
       </c>
       <c r="AB156" s="235" t="s">
-        <v>499</v>
+        <v>495</v>
       </c>
       <c r="AC156" s="225"/>
       <c r="AD156" s="225"/>
@@ -24862,7 +24871,7 @@
       <c r="L159" s="225"/>
       <c r="M159" s="225"/>
       <c r="N159" s="225" t="s">
-        <v>488</v>
+        <v>484</v>
       </c>
       <c r="O159" s="225"/>
       <c r="P159" s="225"/>
@@ -24919,7 +24928,7 @@
       <c r="L160" s="225"/>
       <c r="M160" s="225"/>
       <c r="N160" s="225" t="s">
-        <v>530</v>
+        <v>526</v>
       </c>
       <c r="O160" s="225"/>
       <c r="P160" s="225"/>
@@ -25033,7 +25042,7 @@
       <c r="L162" s="225"/>
       <c r="M162" s="225"/>
       <c r="N162" s="225" t="s">
-        <v>507</v>
+        <v>503</v>
       </c>
       <c r="O162" s="225"/>
       <c r="P162" s="225"/>
@@ -25090,7 +25099,7 @@
       <c r="L163" s="225"/>
       <c r="M163" s="225"/>
       <c r="N163" s="225" t="s">
-        <v>531</v>
+        <v>527</v>
       </c>
       <c r="O163" s="225"/>
       <c r="P163" s="225"/>
@@ -25198,7 +25207,7 @@
       <c r="L165" s="225"/>
       <c r="M165" s="225"/>
       <c r="N165" s="225" t="s">
-        <v>517</v>
+        <v>513</v>
       </c>
       <c r="O165" s="225"/>
       <c r="P165" s="225"/>
@@ -25300,7 +25309,7 @@
       <c r="L167" s="225"/>
       <c r="M167" s="233"/>
       <c r="N167" s="225" t="s">
-        <v>517</v>
+        <v>513</v>
       </c>
       <c r="O167" s="225"/>
       <c r="P167" s="225"/>
@@ -25400,7 +25409,7 @@
       <c r="J169" s="222"/>
       <c r="K169" s="228"/>
       <c r="L169" s="222" t="s">
-        <v>542</v>
+        <v>538</v>
       </c>
       <c r="M169" s="231"/>
       <c r="N169" s="231"/>
@@ -25506,7 +25515,7 @@
       <c r="L171" s="225"/>
       <c r="M171" s="225"/>
       <c r="N171" s="225" t="s">
-        <v>517</v>
+        <v>513</v>
       </c>
       <c r="O171" s="225"/>
       <c r="P171" s="225"/>
@@ -26707,7 +26716,7 @@
       <c r="L194" s="225"/>
       <c r="M194" s="225"/>
       <c r="N194" s="225" t="s">
-        <v>503</v>
+        <v>499</v>
       </c>
       <c r="O194" s="225"/>
       <c r="P194" s="225"/>
@@ -26762,7 +26771,7 @@
       <c r="L195" s="225"/>
       <c r="M195" s="225"/>
       <c r="N195" s="225" t="s">
-        <v>518</v>
+        <v>514</v>
       </c>
       <c r="O195" s="225"/>
       <c r="P195" s="225"/>
@@ -26813,7 +26822,7 @@
       <c r="L196" s="225"/>
       <c r="M196" s="225"/>
       <c r="N196" s="225" t="s">
-        <v>494</v>
+        <v>490</v>
       </c>
       <c r="O196" s="225"/>
       <c r="P196" s="225"/>
@@ -27088,7 +27097,7 @@
       <c r="L201" s="225"/>
       <c r="M201" s="225"/>
       <c r="N201" s="225" t="s">
-        <v>519</v>
+        <v>515</v>
       </c>
       <c r="O201" s="225"/>
       <c r="P201" s="225"/>
@@ -27139,7 +27148,7 @@
       <c r="L202" s="225"/>
       <c r="M202" s="225"/>
       <c r="N202" s="225" t="s">
-        <v>494</v>
+        <v>490</v>
       </c>
       <c r="O202" s="225"/>
       <c r="P202" s="225"/>
@@ -27157,7 +27166,7 @@
         <v>228</v>
       </c>
       <c r="AB202" s="225" t="s">
-        <v>512</v>
+        <v>508</v>
       </c>
       <c r="AC202" s="225"/>
       <c r="AD202" s="225"/>
@@ -27212,7 +27221,7 @@
         <v>228</v>
       </c>
       <c r="AB203" s="225" t="s">
-        <v>513</v>
+        <v>509</v>
       </c>
       <c r="AC203" s="225"/>
       <c r="AD203" s="225"/>
@@ -27267,7 +27276,7 @@
         <v>228</v>
       </c>
       <c r="AB204" s="225" t="s">
-        <v>514</v>
+        <v>510</v>
       </c>
       <c r="AC204" s="225"/>
       <c r="AD204" s="225"/>
@@ -27322,7 +27331,7 @@
         <v>228</v>
       </c>
       <c r="AB205" s="225" t="s">
-        <v>515</v>
+        <v>511</v>
       </c>
       <c r="AC205" s="225"/>
       <c r="AD205" s="225"/>
@@ -27377,7 +27386,7 @@
         <v>228</v>
       </c>
       <c r="AB206" s="225" t="s">
-        <v>516</v>
+        <v>512</v>
       </c>
       <c r="AC206" s="225"/>
       <c r="AD206" s="225"/>
@@ -27414,7 +27423,7 @@
       <c r="L207" s="225"/>
       <c r="M207" s="225"/>
       <c r="N207" s="225" t="s">
-        <v>521</v>
+        <v>517</v>
       </c>
       <c r="O207" s="225"/>
       <c r="P207" s="225"/>
@@ -27850,7 +27859,7 @@
       <c r="L215" s="225"/>
       <c r="M215" s="225"/>
       <c r="N215" s="225" t="s">
-        <v>509</v>
+        <v>505</v>
       </c>
       <c r="O215" s="225"/>
       <c r="P215" s="225"/>
@@ -27903,7 +27912,7 @@
       <c r="L216" s="225"/>
       <c r="M216" s="225"/>
       <c r="N216" s="225" t="s">
-        <v>522</v>
+        <v>518</v>
       </c>
       <c r="O216" s="225"/>
       <c r="P216" s="225"/>
@@ -28339,7 +28348,7 @@
       <c r="L224" s="225"/>
       <c r="M224" s="225"/>
       <c r="N224" s="225" t="s">
-        <v>510</v>
+        <v>506</v>
       </c>
       <c r="O224" s="225"/>
       <c r="P224" s="225"/>
@@ -28498,7 +28507,7 @@
       <c r="L227" s="225"/>
       <c r="M227" s="225"/>
       <c r="N227" s="225" t="s">
-        <v>488</v>
+        <v>484</v>
       </c>
       <c r="O227" s="225"/>
       <c r="P227" s="225"/>
@@ -28555,7 +28564,7 @@
       <c r="L228" s="225"/>
       <c r="M228" s="225"/>
       <c r="N228" s="225" t="s">
-        <v>530</v>
+        <v>526</v>
       </c>
       <c r="O228" s="225"/>
       <c r="P228" s="225"/>
@@ -28669,7 +28678,7 @@
       <c r="L230" s="225"/>
       <c r="M230" s="225"/>
       <c r="N230" s="225" t="s">
-        <v>506</v>
+        <v>502</v>
       </c>
       <c r="O230" s="225"/>
       <c r="P230" s="225"/>
@@ -28726,7 +28735,7 @@
       <c r="L231" s="225"/>
       <c r="M231" s="225"/>
       <c r="N231" s="225" t="s">
-        <v>531</v>
+        <v>527</v>
       </c>
       <c r="O231" s="225"/>
       <c r="P231" s="225"/>
@@ -28834,7 +28843,7 @@
       <c r="L233" s="225"/>
       <c r="M233" s="225"/>
       <c r="N233" s="225" t="s">
-        <v>517</v>
+        <v>513</v>
       </c>
       <c r="O233" s="225"/>
       <c r="P233" s="225"/>
@@ -28987,7 +28996,7 @@
       <c r="L236" s="225"/>
       <c r="M236" s="233"/>
       <c r="N236" s="225" t="s">
-        <v>517</v>
+        <v>513</v>
       </c>
       <c r="O236" s="225"/>
       <c r="P236" s="225"/>
@@ -42556,12 +42565,12 @@
       <c r="M9" s="308" t="s">
         <v>244</v>
       </c>
-      <c r="N9" s="312"/>
+      <c r="N9" s="316"/>
       <c r="O9" s="309"/>
-      <c r="P9" s="314" t="s">
+      <c r="P9" s="312" t="s">
         <v>239</v>
       </c>
-      <c r="Q9" s="315"/>
+      <c r="Q9" s="313"/>
       <c r="R9" s="53"/>
       <c r="S9" s="53"/>
       <c r="T9" s="53"/>
@@ -42621,10 +42630,10 @@
       <c r="K10" s="310"/>
       <c r="L10" s="311"/>
       <c r="M10" s="310"/>
-      <c r="N10" s="313"/>
+      <c r="N10" s="317"/>
       <c r="O10" s="311"/>
-      <c r="P10" s="316"/>
-      <c r="Q10" s="317"/>
+      <c r="P10" s="314"/>
+      <c r="Q10" s="315"/>
       <c r="R10" s="53"/>
       <c r="S10" s="53"/>
       <c r="T10" s="53"/>
@@ -43415,7 +43424,7 @@
       <c r="M22" s="308">
         <v>1</v>
       </c>
-      <c r="N22" s="315"/>
+      <c r="N22" s="313"/>
       <c r="O22" s="53"/>
       <c r="P22" s="53"/>
       <c r="Q22" s="53"/>
@@ -43477,8 +43486,8 @@
       <c r="J23" s="67"/>
       <c r="K23" s="310"/>
       <c r="L23" s="311"/>
-      <c r="M23" s="316"/>
-      <c r="N23" s="317"/>
+      <c r="M23" s="314"/>
+      <c r="N23" s="315"/>
       <c r="O23" s="53"/>
       <c r="P23" s="53"/>
       <c r="Q23" s="53"/>
@@ -43904,12 +43913,12 @@
       <c r="M30" s="308" t="s">
         <v>244</v>
       </c>
-      <c r="N30" s="312"/>
+      <c r="N30" s="316"/>
       <c r="O30" s="309"/>
-      <c r="P30" s="314" t="s">
+      <c r="P30" s="312" t="s">
         <v>239</v>
       </c>
-      <c r="Q30" s="315"/>
+      <c r="Q30" s="313"/>
       <c r="R30" s="53"/>
       <c r="S30" s="53"/>
       <c r="T30" s="53"/>
@@ -43969,10 +43978,10 @@
       <c r="K31" s="310"/>
       <c r="L31" s="311"/>
       <c r="M31" s="310"/>
-      <c r="N31" s="313"/>
+      <c r="N31" s="317"/>
       <c r="O31" s="311"/>
-      <c r="P31" s="316"/>
-      <c r="Q31" s="317"/>
+      <c r="P31" s="314"/>
+      <c r="Q31" s="315"/>
       <c r="R31" s="53"/>
       <c r="S31" s="53"/>
       <c r="T31" s="53"/>
@@ -55454,6 +55463,11 @@
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="K30:L31"/>
+    <mergeCell ref="M30:O31"/>
+    <mergeCell ref="P30:Q31"/>
+    <mergeCell ref="K22:L23"/>
+    <mergeCell ref="M22:N23"/>
     <mergeCell ref="AT1:AZ1"/>
     <mergeCell ref="S2:AD2"/>
     <mergeCell ref="AI2:AM2"/>
@@ -55462,11 +55476,6 @@
     <mergeCell ref="P9:Q10"/>
     <mergeCell ref="AI1:AM1"/>
     <mergeCell ref="M9:O10"/>
-    <mergeCell ref="K30:L31"/>
-    <mergeCell ref="M30:O31"/>
-    <mergeCell ref="P30:Q31"/>
-    <mergeCell ref="K22:L23"/>
-    <mergeCell ref="M22:N23"/>
   </mergeCells>
   <phoneticPr fontId="17"/>
   <pageMargins left="0.78740157480314965" right="0.39370078740157483" top="0.78740157480314965" bottom="0.39370078740157483" header="0.39370078740157483" footer="0.19685039370078741"/>
@@ -56760,7 +56769,7 @@
       <c r="B14" s="149"/>
       <c r="C14" s="150"/>
       <c r="D14" s="155" t="s">
-        <v>487</v>
+        <v>483</v>
       </c>
       <c r="E14" s="156"/>
       <c r="F14" s="156"/>
@@ -56873,7 +56882,7 @@
       <c r="B15" s="149"/>
       <c r="C15" s="150"/>
       <c r="D15" s="156" t="s">
-        <v>486</v>
+        <v>482</v>
       </c>
       <c r="E15" s="156"/>
       <c r="F15" s="156"/>
@@ -61358,7 +61367,7 @@
       <c r="B59" s="149"/>
       <c r="C59" s="150"/>
       <c r="D59" s="155" t="s">
-        <v>487</v>
+        <v>483</v>
       </c>
       <c r="E59" s="156"/>
       <c r="F59" s="156"/>
@@ -61471,7 +61480,7 @@
       <c r="B60" s="149"/>
       <c r="C60" s="150"/>
       <c r="D60" s="156" t="s">
-        <v>486</v>
+        <v>482</v>
       </c>
       <c r="E60" s="156"/>
       <c r="F60" s="156"/>
@@ -65988,7 +65997,7 @@
       <c r="B104" s="149"/>
       <c r="C104" s="150"/>
       <c r="D104" s="155" t="s">
-        <v>487</v>
+        <v>483</v>
       </c>
       <c r="E104" s="156"/>
       <c r="F104" s="156"/>
@@ -66101,7 +66110,7 @@
       <c r="B105" s="149"/>
       <c r="C105" s="150"/>
       <c r="D105" s="156" t="s">
-        <v>486</v>
+        <v>482</v>
       </c>
       <c r="E105" s="156"/>
       <c r="F105" s="156"/>
@@ -69352,9 +69361,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -69516,26 +69528,15 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7B96F246-76A3-4A27-8547-17CD1E715E86}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7CA02E59-26EF-42FD-ADE3-8B1F7DDCD7B9}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="72c70d25-b9e8-475b-ae7b-39931ca24b85"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -69559,9 +69560,17 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7CA02E59-26EF-42FD-ADE3-8B1F7DDCD7B9}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7B96F246-76A3-4A27-8547-17CD1E715E86}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="72c70d25-b9e8-475b-ae7b-39931ca24b85"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/01_基本設計書/20200220リリース/SC-K13_当日実績参照.xlsx
+++ b/01_基本設計書/20200220リリース/SC-K13_当日実績参照.xlsx
@@ -9,7 +9,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ローカル作業_Wang\GitHub\backdoor\01_基本設計書\20200220リリース\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03312EBC-A727-44A8-BAE1-EE52B3140E63}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58FA9BE4-2C50-414D-B280-0674AA93B0F4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="703" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -5020,91 +5020,6 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="16" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -5131,6 +5046,91 @@
     </xf>
     <xf numFmtId="0" fontId="20" fillId="3" borderId="7" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="16" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="8" xfId="13" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -5225,6 +5225,12 @@
     <xf numFmtId="0" fontId="16" fillId="5" borderId="7" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="4" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="2" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="16" fillId="5" borderId="3" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -5236,12 +5242,6 @@
     </xf>
     <xf numFmtId="0" fontId="16" fillId="5" borderId="7" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="5" borderId="4" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="5" borderId="2" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="37" fillId="10" borderId="3" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -6085,7 +6085,7 @@
               <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
               <a:extLst>
                 <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="参照用レイアウト!$B$2:$CX$44" spid="_x0000_s3683"/>
+                  <a14:cameraTool cellRange="参照用レイアウト!$B$2:$CX$44" spid="_x0000_s3689"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPicPr>
@@ -6150,7 +6150,7 @@
               <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
               <a:extLst>
                 <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="参照用レイアウト!$B$47:$CX$89" spid="_x0000_s3684"/>
+                  <a14:cameraTool cellRange="参照用レイアウト!$B$47:$CX$89" spid="_x0000_s3690"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPicPr>
@@ -6215,7 +6215,7 @@
               <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
               <a:extLst>
                 <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="参照用レイアウト!$B$92:$CX$134" spid="_x0000_s3685"/>
+                  <a14:cameraTool cellRange="参照用レイアウト!$B$92:$CX$134" spid="_x0000_s3691"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPicPr>
@@ -8332,1779 +8332,1994 @@
   <sheetData>
     <row r="1" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="56"/>
-      <c r="B1" s="272" t="s">
+      <c r="B1" s="241" t="s">
         <v>6</v>
       </c>
-      <c r="C1" s="272"/>
-      <c r="D1" s="272"/>
-      <c r="E1" s="272"/>
-      <c r="F1" s="272"/>
-      <c r="G1" s="272"/>
-      <c r="H1" s="272"/>
-      <c r="I1" s="272"/>
-      <c r="J1" s="272"/>
-      <c r="K1" s="272"/>
-      <c r="L1" s="272"/>
-      <c r="M1" s="272"/>
-      <c r="N1" s="272"/>
-      <c r="O1" s="272"/>
-      <c r="P1" s="272"/>
-      <c r="Q1" s="272"/>
-      <c r="R1" s="272"/>
-      <c r="S1" s="272"/>
-      <c r="T1" s="272"/>
-      <c r="U1" s="272"/>
-      <c r="V1" s="272"/>
-      <c r="W1" s="272"/>
-      <c r="X1" s="272"/>
-      <c r="Y1" s="272"/>
-      <c r="Z1" s="272"/>
-      <c r="AA1" s="272"/>
-      <c r="AB1" s="272"/>
-      <c r="AC1" s="272"/>
-      <c r="AD1" s="272"/>
-      <c r="AE1" s="272"/>
-      <c r="AF1" s="272"/>
-      <c r="AG1" s="272"/>
-      <c r="AH1" s="272"/>
-      <c r="AI1" s="272"/>
-      <c r="AJ1" s="272"/>
-      <c r="AK1" s="272"/>
-      <c r="AL1" s="272"/>
-      <c r="AM1" s="272"/>
-      <c r="AN1" s="272"/>
-      <c r="AO1" s="272"/>
-      <c r="AP1" s="272"/>
-      <c r="AQ1" s="272"/>
-      <c r="AR1" s="272"/>
-      <c r="AS1" s="272"/>
-      <c r="AT1" s="272"/>
-      <c r="AU1" s="272"/>
-      <c r="AV1" s="272"/>
-      <c r="AW1" s="272"/>
+      <c r="C1" s="241"/>
+      <c r="D1" s="241"/>
+      <c r="E1" s="241"/>
+      <c r="F1" s="241"/>
+      <c r="G1" s="241"/>
+      <c r="H1" s="241"/>
+      <c r="I1" s="241"/>
+      <c r="J1" s="241"/>
+      <c r="K1" s="241"/>
+      <c r="L1" s="241"/>
+      <c r="M1" s="241"/>
+      <c r="N1" s="241"/>
+      <c r="O1" s="241"/>
+      <c r="P1" s="241"/>
+      <c r="Q1" s="241"/>
+      <c r="R1" s="241"/>
+      <c r="S1" s="241"/>
+      <c r="T1" s="241"/>
+      <c r="U1" s="241"/>
+      <c r="V1" s="241"/>
+      <c r="W1" s="241"/>
+      <c r="X1" s="241"/>
+      <c r="Y1" s="241"/>
+      <c r="Z1" s="241"/>
+      <c r="AA1" s="241"/>
+      <c r="AB1" s="241"/>
+      <c r="AC1" s="241"/>
+      <c r="AD1" s="241"/>
+      <c r="AE1" s="241"/>
+      <c r="AF1" s="241"/>
+      <c r="AG1" s="241"/>
+      <c r="AH1" s="241"/>
+      <c r="AI1" s="241"/>
+      <c r="AJ1" s="241"/>
+      <c r="AK1" s="241"/>
+      <c r="AL1" s="241"/>
+      <c r="AM1" s="241"/>
+      <c r="AN1" s="241"/>
+      <c r="AO1" s="241"/>
+      <c r="AP1" s="241"/>
+      <c r="AQ1" s="241"/>
+      <c r="AR1" s="241"/>
+      <c r="AS1" s="241"/>
+      <c r="AT1" s="241"/>
+      <c r="AU1" s="241"/>
+      <c r="AV1" s="241"/>
+      <c r="AW1" s="241"/>
     </row>
     <row r="2" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="56"/>
-      <c r="B2" s="273"/>
-      <c r="C2" s="273"/>
-      <c r="D2" s="273"/>
-      <c r="E2" s="273"/>
-      <c r="F2" s="273"/>
-      <c r="G2" s="273"/>
-      <c r="H2" s="273"/>
-      <c r="I2" s="273"/>
-      <c r="J2" s="273"/>
-      <c r="K2" s="273"/>
-      <c r="L2" s="273"/>
-      <c r="M2" s="273"/>
-      <c r="N2" s="273"/>
-      <c r="O2" s="273"/>
-      <c r="P2" s="273"/>
-      <c r="Q2" s="273"/>
-      <c r="R2" s="273"/>
-      <c r="S2" s="273"/>
-      <c r="T2" s="273"/>
-      <c r="U2" s="273"/>
-      <c r="V2" s="273"/>
-      <c r="W2" s="273"/>
-      <c r="X2" s="273"/>
-      <c r="Y2" s="273"/>
-      <c r="Z2" s="273"/>
-      <c r="AA2" s="273"/>
-      <c r="AB2" s="273"/>
-      <c r="AC2" s="273"/>
-      <c r="AD2" s="273"/>
-      <c r="AE2" s="273"/>
-      <c r="AF2" s="273"/>
-      <c r="AG2" s="273"/>
-      <c r="AH2" s="273"/>
-      <c r="AI2" s="273"/>
-      <c r="AJ2" s="273"/>
-      <c r="AK2" s="273"/>
-      <c r="AL2" s="273"/>
-      <c r="AM2" s="273"/>
-      <c r="AN2" s="273"/>
-      <c r="AO2" s="273"/>
-      <c r="AP2" s="273"/>
-      <c r="AQ2" s="273"/>
-      <c r="AR2" s="273"/>
-      <c r="AS2" s="273"/>
-      <c r="AT2" s="273"/>
-      <c r="AU2" s="273"/>
-      <c r="AV2" s="273"/>
-      <c r="AW2" s="273"/>
+      <c r="B2" s="242"/>
+      <c r="C2" s="242"/>
+      <c r="D2" s="242"/>
+      <c r="E2" s="242"/>
+      <c r="F2" s="242"/>
+      <c r="G2" s="242"/>
+      <c r="H2" s="242"/>
+      <c r="I2" s="242"/>
+      <c r="J2" s="242"/>
+      <c r="K2" s="242"/>
+      <c r="L2" s="242"/>
+      <c r="M2" s="242"/>
+      <c r="N2" s="242"/>
+      <c r="O2" s="242"/>
+      <c r="P2" s="242"/>
+      <c r="Q2" s="242"/>
+      <c r="R2" s="242"/>
+      <c r="S2" s="242"/>
+      <c r="T2" s="242"/>
+      <c r="U2" s="242"/>
+      <c r="V2" s="242"/>
+      <c r="W2" s="242"/>
+      <c r="X2" s="242"/>
+      <c r="Y2" s="242"/>
+      <c r="Z2" s="242"/>
+      <c r="AA2" s="242"/>
+      <c r="AB2" s="242"/>
+      <c r="AC2" s="242"/>
+      <c r="AD2" s="242"/>
+      <c r="AE2" s="242"/>
+      <c r="AF2" s="242"/>
+      <c r="AG2" s="242"/>
+      <c r="AH2" s="242"/>
+      <c r="AI2" s="242"/>
+      <c r="AJ2" s="242"/>
+      <c r="AK2" s="242"/>
+      <c r="AL2" s="242"/>
+      <c r="AM2" s="242"/>
+      <c r="AN2" s="242"/>
+      <c r="AO2" s="242"/>
+      <c r="AP2" s="242"/>
+      <c r="AQ2" s="242"/>
+      <c r="AR2" s="242"/>
+      <c r="AS2" s="242"/>
+      <c r="AT2" s="242"/>
+      <c r="AU2" s="242"/>
+      <c r="AV2" s="242"/>
+      <c r="AW2" s="242"/>
     </row>
     <row r="3" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="56"/>
-      <c r="B3" s="274" t="s">
+      <c r="B3" s="243" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="274"/>
-      <c r="D3" s="274"/>
-      <c r="E3" s="274" t="s">
+      <c r="C3" s="243"/>
+      <c r="D3" s="243"/>
+      <c r="E3" s="243" t="s">
         <v>8</v>
       </c>
-      <c r="F3" s="274"/>
-      <c r="G3" s="274"/>
-      <c r="H3" s="274"/>
-      <c r="I3" s="274"/>
-      <c r="J3" s="275" t="s">
+      <c r="F3" s="243"/>
+      <c r="G3" s="243"/>
+      <c r="H3" s="243"/>
+      <c r="I3" s="243"/>
+      <c r="J3" s="244" t="s">
         <v>9</v>
       </c>
-      <c r="K3" s="276"/>
-      <c r="L3" s="277"/>
-      <c r="M3" s="275" t="s">
+      <c r="K3" s="245"/>
+      <c r="L3" s="246"/>
+      <c r="M3" s="244" t="s">
         <v>10</v>
       </c>
-      <c r="N3" s="276"/>
-      <c r="O3" s="276"/>
-      <c r="P3" s="276"/>
-      <c r="Q3" s="276"/>
-      <c r="R3" s="277"/>
-      <c r="S3" s="274" t="s">
+      <c r="N3" s="245"/>
+      <c r="O3" s="245"/>
+      <c r="P3" s="245"/>
+      <c r="Q3" s="245"/>
+      <c r="R3" s="246"/>
+      <c r="S3" s="243" t="s">
         <v>11</v>
       </c>
-      <c r="T3" s="274"/>
-      <c r="U3" s="274"/>
-      <c r="V3" s="274" t="s">
+      <c r="T3" s="243"/>
+      <c r="U3" s="243"/>
+      <c r="V3" s="243" t="s">
         <v>12</v>
       </c>
-      <c r="W3" s="274"/>
-      <c r="X3" s="274"/>
-      <c r="Y3" s="274"/>
-      <c r="Z3" s="274"/>
-      <c r="AA3" s="274"/>
-      <c r="AB3" s="274"/>
-      <c r="AC3" s="274"/>
-      <c r="AD3" s="274"/>
-      <c r="AE3" s="274"/>
-      <c r="AF3" s="274"/>
-      <c r="AG3" s="274"/>
-      <c r="AH3" s="274"/>
-      <c r="AI3" s="274"/>
-      <c r="AJ3" s="274"/>
-      <c r="AK3" s="274"/>
-      <c r="AL3" s="274"/>
-      <c r="AM3" s="274"/>
-      <c r="AN3" s="274" t="s">
+      <c r="W3" s="243"/>
+      <c r="X3" s="243"/>
+      <c r="Y3" s="243"/>
+      <c r="Z3" s="243"/>
+      <c r="AA3" s="243"/>
+      <c r="AB3" s="243"/>
+      <c r="AC3" s="243"/>
+      <c r="AD3" s="243"/>
+      <c r="AE3" s="243"/>
+      <c r="AF3" s="243"/>
+      <c r="AG3" s="243"/>
+      <c r="AH3" s="243"/>
+      <c r="AI3" s="243"/>
+      <c r="AJ3" s="243"/>
+      <c r="AK3" s="243"/>
+      <c r="AL3" s="243"/>
+      <c r="AM3" s="243"/>
+      <c r="AN3" s="243" t="s">
         <v>13</v>
       </c>
-      <c r="AO3" s="274"/>
-      <c r="AP3" s="274"/>
-      <c r="AQ3" s="274"/>
-      <c r="AR3" s="274"/>
-      <c r="AS3" s="274" t="s">
+      <c r="AO3" s="243"/>
+      <c r="AP3" s="243"/>
+      <c r="AQ3" s="243"/>
+      <c r="AR3" s="243"/>
+      <c r="AS3" s="243" t="s">
         <v>14</v>
       </c>
-      <c r="AT3" s="274"/>
-      <c r="AU3" s="274"/>
-      <c r="AV3" s="274"/>
-      <c r="AW3" s="274"/>
+      <c r="AT3" s="243"/>
+      <c r="AU3" s="243"/>
+      <c r="AV3" s="243"/>
+      <c r="AW3" s="243"/>
     </row>
     <row r="4" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="56"/>
-      <c r="B4" s="274"/>
-      <c r="C4" s="274"/>
-      <c r="D4" s="274"/>
-      <c r="E4" s="274"/>
-      <c r="F4" s="274"/>
-      <c r="G4" s="274"/>
-      <c r="H4" s="274"/>
-      <c r="I4" s="274"/>
-      <c r="J4" s="278"/>
-      <c r="K4" s="279"/>
-      <c r="L4" s="280"/>
-      <c r="M4" s="278"/>
-      <c r="N4" s="279"/>
-      <c r="O4" s="279"/>
-      <c r="P4" s="279"/>
-      <c r="Q4" s="279"/>
-      <c r="R4" s="280"/>
-      <c r="S4" s="274"/>
-      <c r="T4" s="274"/>
-      <c r="U4" s="274"/>
-      <c r="V4" s="274"/>
-      <c r="W4" s="274"/>
-      <c r="X4" s="274"/>
-      <c r="Y4" s="274"/>
-      <c r="Z4" s="274"/>
-      <c r="AA4" s="274"/>
-      <c r="AB4" s="274"/>
-      <c r="AC4" s="274"/>
-      <c r="AD4" s="274"/>
-      <c r="AE4" s="274"/>
-      <c r="AF4" s="274"/>
-      <c r="AG4" s="274"/>
-      <c r="AH4" s="274"/>
-      <c r="AI4" s="274"/>
-      <c r="AJ4" s="274"/>
-      <c r="AK4" s="274"/>
-      <c r="AL4" s="274"/>
-      <c r="AM4" s="274"/>
-      <c r="AN4" s="274"/>
-      <c r="AO4" s="274"/>
-      <c r="AP4" s="274"/>
-      <c r="AQ4" s="274"/>
-      <c r="AR4" s="274"/>
-      <c r="AS4" s="274"/>
-      <c r="AT4" s="274"/>
-      <c r="AU4" s="274"/>
-      <c r="AV4" s="274"/>
-      <c r="AW4" s="274"/>
+      <c r="B4" s="243"/>
+      <c r="C4" s="243"/>
+      <c r="D4" s="243"/>
+      <c r="E4" s="243"/>
+      <c r="F4" s="243"/>
+      <c r="G4" s="243"/>
+      <c r="H4" s="243"/>
+      <c r="I4" s="243"/>
+      <c r="J4" s="247"/>
+      <c r="K4" s="248"/>
+      <c r="L4" s="249"/>
+      <c r="M4" s="247"/>
+      <c r="N4" s="248"/>
+      <c r="O4" s="248"/>
+      <c r="P4" s="248"/>
+      <c r="Q4" s="248"/>
+      <c r="R4" s="249"/>
+      <c r="S4" s="243"/>
+      <c r="T4" s="243"/>
+      <c r="U4" s="243"/>
+      <c r="V4" s="243"/>
+      <c r="W4" s="243"/>
+      <c r="X4" s="243"/>
+      <c r="Y4" s="243"/>
+      <c r="Z4" s="243"/>
+      <c r="AA4" s="243"/>
+      <c r="AB4" s="243"/>
+      <c r="AC4" s="243"/>
+      <c r="AD4" s="243"/>
+      <c r="AE4" s="243"/>
+      <c r="AF4" s="243"/>
+      <c r="AG4" s="243"/>
+      <c r="AH4" s="243"/>
+      <c r="AI4" s="243"/>
+      <c r="AJ4" s="243"/>
+      <c r="AK4" s="243"/>
+      <c r="AL4" s="243"/>
+      <c r="AM4" s="243"/>
+      <c r="AN4" s="243"/>
+      <c r="AO4" s="243"/>
+      <c r="AP4" s="243"/>
+      <c r="AQ4" s="243"/>
+      <c r="AR4" s="243"/>
+      <c r="AS4" s="243"/>
+      <c r="AT4" s="243"/>
+      <c r="AU4" s="243"/>
+      <c r="AV4" s="243"/>
+      <c r="AW4" s="243"/>
     </row>
     <row r="5" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A5" s="58"/>
-      <c r="B5" s="266">
+      <c r="B5" s="251">
         <v>1</v>
       </c>
-      <c r="C5" s="266"/>
-      <c r="D5" s="266"/>
-      <c r="E5" s="247">
+      <c r="C5" s="251"/>
+      <c r="D5" s="251"/>
+      <c r="E5" s="252">
         <v>43711</v>
       </c>
-      <c r="F5" s="247"/>
-      <c r="G5" s="247"/>
-      <c r="H5" s="247"/>
-      <c r="I5" s="247"/>
-      <c r="J5" s="248" t="s">
+      <c r="F5" s="252"/>
+      <c r="G5" s="252"/>
+      <c r="H5" s="252"/>
+      <c r="I5" s="252"/>
+      <c r="J5" s="253" t="s">
         <v>15</v>
       </c>
-      <c r="K5" s="249"/>
-      <c r="L5" s="250"/>
-      <c r="M5" s="248" t="s">
+      <c r="K5" s="254"/>
+      <c r="L5" s="255"/>
+      <c r="M5" s="253" t="s">
         <v>16</v>
       </c>
-      <c r="N5" s="249"/>
-      <c r="O5" s="249"/>
-      <c r="P5" s="249"/>
-      <c r="Q5" s="249"/>
-      <c r="R5" s="250"/>
-      <c r="S5" s="254" t="s">
+      <c r="N5" s="254"/>
+      <c r="O5" s="254"/>
+      <c r="P5" s="254"/>
+      <c r="Q5" s="254"/>
+      <c r="R5" s="255"/>
+      <c r="S5" s="250" t="s">
         <v>17</v>
       </c>
-      <c r="T5" s="254"/>
-      <c r="U5" s="254"/>
-      <c r="V5" s="265" t="s">
+      <c r="T5" s="250"/>
+      <c r="U5" s="250"/>
+      <c r="V5" s="259" t="s">
         <v>18</v>
       </c>
-      <c r="W5" s="265"/>
-      <c r="X5" s="265"/>
-      <c r="Y5" s="265"/>
-      <c r="Z5" s="265"/>
-      <c r="AA5" s="265"/>
-      <c r="AB5" s="265"/>
-      <c r="AC5" s="265"/>
-      <c r="AD5" s="265"/>
-      <c r="AE5" s="265"/>
-      <c r="AF5" s="265"/>
-      <c r="AG5" s="265"/>
-      <c r="AH5" s="265"/>
-      <c r="AI5" s="265"/>
-      <c r="AJ5" s="265"/>
-      <c r="AK5" s="265"/>
-      <c r="AL5" s="265"/>
-      <c r="AM5" s="265"/>
-      <c r="AN5" s="254" t="s">
+      <c r="W5" s="259"/>
+      <c r="X5" s="259"/>
+      <c r="Y5" s="259"/>
+      <c r="Z5" s="259"/>
+      <c r="AA5" s="259"/>
+      <c r="AB5" s="259"/>
+      <c r="AC5" s="259"/>
+      <c r="AD5" s="259"/>
+      <c r="AE5" s="259"/>
+      <c r="AF5" s="259"/>
+      <c r="AG5" s="259"/>
+      <c r="AH5" s="259"/>
+      <c r="AI5" s="259"/>
+      <c r="AJ5" s="259"/>
+      <c r="AK5" s="259"/>
+      <c r="AL5" s="259"/>
+      <c r="AM5" s="259"/>
+      <c r="AN5" s="250" t="s">
         <v>128</v>
       </c>
-      <c r="AO5" s="254"/>
-      <c r="AP5" s="254"/>
-      <c r="AQ5" s="254"/>
-      <c r="AR5" s="254"/>
-      <c r="AS5" s="254"/>
-      <c r="AT5" s="254"/>
-      <c r="AU5" s="254"/>
-      <c r="AV5" s="254"/>
-      <c r="AW5" s="254"/>
+      <c r="AO5" s="250"/>
+      <c r="AP5" s="250"/>
+      <c r="AQ5" s="250"/>
+      <c r="AR5" s="250"/>
+      <c r="AS5" s="250"/>
+      <c r="AT5" s="250"/>
+      <c r="AU5" s="250"/>
+      <c r="AV5" s="250"/>
+      <c r="AW5" s="250"/>
     </row>
     <row r="6" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A6" s="58"/>
-      <c r="B6" s="266"/>
-      <c r="C6" s="266"/>
-      <c r="D6" s="266"/>
-      <c r="E6" s="247"/>
-      <c r="F6" s="247"/>
-      <c r="G6" s="247"/>
-      <c r="H6" s="247"/>
-      <c r="I6" s="247"/>
-      <c r="J6" s="248"/>
-      <c r="K6" s="249"/>
-      <c r="L6" s="250"/>
-      <c r="M6" s="269"/>
-      <c r="N6" s="270"/>
-      <c r="O6" s="270"/>
-      <c r="P6" s="270"/>
-      <c r="Q6" s="270"/>
-      <c r="R6" s="271"/>
-      <c r="S6" s="254"/>
-      <c r="T6" s="254"/>
-      <c r="U6" s="254"/>
-      <c r="V6" s="265"/>
-      <c r="W6" s="265"/>
-      <c r="X6" s="265"/>
-      <c r="Y6" s="265"/>
-      <c r="Z6" s="265"/>
-      <c r="AA6" s="265"/>
-      <c r="AB6" s="265"/>
-      <c r="AC6" s="265"/>
-      <c r="AD6" s="265"/>
-      <c r="AE6" s="265"/>
-      <c r="AF6" s="265"/>
-      <c r="AG6" s="265"/>
-      <c r="AH6" s="265"/>
-      <c r="AI6" s="265"/>
-      <c r="AJ6" s="265"/>
-      <c r="AK6" s="265"/>
-      <c r="AL6" s="265"/>
-      <c r="AM6" s="265"/>
-      <c r="AN6" s="254"/>
-      <c r="AO6" s="254"/>
-      <c r="AP6" s="254"/>
-      <c r="AQ6" s="254"/>
-      <c r="AR6" s="254"/>
-      <c r="AS6" s="254"/>
-      <c r="AT6" s="254"/>
-      <c r="AU6" s="254"/>
-      <c r="AV6" s="254"/>
-      <c r="AW6" s="254"/>
+      <c r="B6" s="251"/>
+      <c r="C6" s="251"/>
+      <c r="D6" s="251"/>
+      <c r="E6" s="252"/>
+      <c r="F6" s="252"/>
+      <c r="G6" s="252"/>
+      <c r="H6" s="252"/>
+      <c r="I6" s="252"/>
+      <c r="J6" s="253"/>
+      <c r="K6" s="254"/>
+      <c r="L6" s="255"/>
+      <c r="M6" s="256"/>
+      <c r="N6" s="257"/>
+      <c r="O6" s="257"/>
+      <c r="P6" s="257"/>
+      <c r="Q6" s="257"/>
+      <c r="R6" s="258"/>
+      <c r="S6" s="250"/>
+      <c r="T6" s="250"/>
+      <c r="U6" s="250"/>
+      <c r="V6" s="259"/>
+      <c r="W6" s="259"/>
+      <c r="X6" s="259"/>
+      <c r="Y6" s="259"/>
+      <c r="Z6" s="259"/>
+      <c r="AA6" s="259"/>
+      <c r="AB6" s="259"/>
+      <c r="AC6" s="259"/>
+      <c r="AD6" s="259"/>
+      <c r="AE6" s="259"/>
+      <c r="AF6" s="259"/>
+      <c r="AG6" s="259"/>
+      <c r="AH6" s="259"/>
+      <c r="AI6" s="259"/>
+      <c r="AJ6" s="259"/>
+      <c r="AK6" s="259"/>
+      <c r="AL6" s="259"/>
+      <c r="AM6" s="259"/>
+      <c r="AN6" s="250"/>
+      <c r="AO6" s="250"/>
+      <c r="AP6" s="250"/>
+      <c r="AQ6" s="250"/>
+      <c r="AR6" s="250"/>
+      <c r="AS6" s="250"/>
+      <c r="AT6" s="250"/>
+      <c r="AU6" s="250"/>
+      <c r="AV6" s="250"/>
+      <c r="AW6" s="250"/>
     </row>
     <row r="7" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A7" s="58"/>
-      <c r="B7" s="266"/>
-      <c r="C7" s="266"/>
-      <c r="D7" s="266"/>
-      <c r="E7" s="247"/>
-      <c r="F7" s="247"/>
-      <c r="G7" s="247"/>
-      <c r="H7" s="247"/>
-      <c r="I7" s="247"/>
-      <c r="J7" s="248"/>
-      <c r="K7" s="249"/>
-      <c r="L7" s="250"/>
-      <c r="M7" s="269"/>
-      <c r="N7" s="270"/>
-      <c r="O7" s="270"/>
-      <c r="P7" s="270"/>
-      <c r="Q7" s="270"/>
-      <c r="R7" s="271"/>
-      <c r="S7" s="254"/>
-      <c r="T7" s="254"/>
-      <c r="U7" s="254"/>
-      <c r="V7" s="265"/>
-      <c r="W7" s="265"/>
-      <c r="X7" s="265"/>
-      <c r="Y7" s="265"/>
-      <c r="Z7" s="265"/>
-      <c r="AA7" s="265"/>
-      <c r="AB7" s="265"/>
-      <c r="AC7" s="265"/>
-      <c r="AD7" s="265"/>
-      <c r="AE7" s="265"/>
-      <c r="AF7" s="265"/>
-      <c r="AG7" s="265"/>
-      <c r="AH7" s="265"/>
-      <c r="AI7" s="265"/>
-      <c r="AJ7" s="265"/>
-      <c r="AK7" s="265"/>
-      <c r="AL7" s="265"/>
-      <c r="AM7" s="265"/>
-      <c r="AN7" s="254"/>
-      <c r="AO7" s="254"/>
-      <c r="AP7" s="254"/>
-      <c r="AQ7" s="254"/>
-      <c r="AR7" s="254"/>
-      <c r="AS7" s="254"/>
-      <c r="AT7" s="254"/>
-      <c r="AU7" s="254"/>
-      <c r="AV7" s="254"/>
-      <c r="AW7" s="254"/>
+      <c r="B7" s="251"/>
+      <c r="C7" s="251"/>
+      <c r="D7" s="251"/>
+      <c r="E7" s="252"/>
+      <c r="F7" s="252"/>
+      <c r="G7" s="252"/>
+      <c r="H7" s="252"/>
+      <c r="I7" s="252"/>
+      <c r="J7" s="253"/>
+      <c r="K7" s="254"/>
+      <c r="L7" s="255"/>
+      <c r="M7" s="256"/>
+      <c r="N7" s="257"/>
+      <c r="O7" s="257"/>
+      <c r="P7" s="257"/>
+      <c r="Q7" s="257"/>
+      <c r="R7" s="258"/>
+      <c r="S7" s="250"/>
+      <c r="T7" s="250"/>
+      <c r="U7" s="250"/>
+      <c r="V7" s="259"/>
+      <c r="W7" s="259"/>
+      <c r="X7" s="259"/>
+      <c r="Y7" s="259"/>
+      <c r="Z7" s="259"/>
+      <c r="AA7" s="259"/>
+      <c r="AB7" s="259"/>
+      <c r="AC7" s="259"/>
+      <c r="AD7" s="259"/>
+      <c r="AE7" s="259"/>
+      <c r="AF7" s="259"/>
+      <c r="AG7" s="259"/>
+      <c r="AH7" s="259"/>
+      <c r="AI7" s="259"/>
+      <c r="AJ7" s="259"/>
+      <c r="AK7" s="259"/>
+      <c r="AL7" s="259"/>
+      <c r="AM7" s="259"/>
+      <c r="AN7" s="250"/>
+      <c r="AO7" s="250"/>
+      <c r="AP7" s="250"/>
+      <c r="AQ7" s="250"/>
+      <c r="AR7" s="250"/>
+      <c r="AS7" s="250"/>
+      <c r="AT7" s="250"/>
+      <c r="AU7" s="250"/>
+      <c r="AV7" s="250"/>
+      <c r="AW7" s="250"/>
     </row>
     <row r="8" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A8" s="58"/>
-      <c r="B8" s="266"/>
-      <c r="C8" s="266"/>
-      <c r="D8" s="266"/>
-      <c r="E8" s="247"/>
-      <c r="F8" s="247"/>
-      <c r="G8" s="247"/>
-      <c r="H8" s="247"/>
-      <c r="I8" s="247"/>
-      <c r="J8" s="248"/>
-      <c r="K8" s="249"/>
-      <c r="L8" s="250"/>
-      <c r="M8" s="269"/>
-      <c r="N8" s="270"/>
-      <c r="O8" s="270"/>
-      <c r="P8" s="270"/>
-      <c r="Q8" s="270"/>
-      <c r="R8" s="271"/>
-      <c r="S8" s="254"/>
-      <c r="T8" s="254"/>
-      <c r="U8" s="254"/>
-      <c r="V8" s="265"/>
-      <c r="W8" s="265"/>
-      <c r="X8" s="265"/>
-      <c r="Y8" s="265"/>
-      <c r="Z8" s="265"/>
-      <c r="AA8" s="265"/>
-      <c r="AB8" s="265"/>
-      <c r="AC8" s="265"/>
-      <c r="AD8" s="265"/>
-      <c r="AE8" s="265"/>
-      <c r="AF8" s="265"/>
-      <c r="AG8" s="265"/>
-      <c r="AH8" s="265"/>
-      <c r="AI8" s="265"/>
-      <c r="AJ8" s="265"/>
-      <c r="AK8" s="265"/>
-      <c r="AL8" s="265"/>
-      <c r="AM8" s="265"/>
-      <c r="AN8" s="254"/>
-      <c r="AO8" s="254"/>
-      <c r="AP8" s="254"/>
-      <c r="AQ8" s="254"/>
-      <c r="AR8" s="254"/>
-      <c r="AS8" s="254"/>
-      <c r="AT8" s="254"/>
-      <c r="AU8" s="254"/>
-      <c r="AV8" s="254"/>
-      <c r="AW8" s="254"/>
+      <c r="B8" s="251"/>
+      <c r="C8" s="251"/>
+      <c r="D8" s="251"/>
+      <c r="E8" s="252"/>
+      <c r="F8" s="252"/>
+      <c r="G8" s="252"/>
+      <c r="H8" s="252"/>
+      <c r="I8" s="252"/>
+      <c r="J8" s="253"/>
+      <c r="K8" s="254"/>
+      <c r="L8" s="255"/>
+      <c r="M8" s="256"/>
+      <c r="N8" s="257"/>
+      <c r="O8" s="257"/>
+      <c r="P8" s="257"/>
+      <c r="Q8" s="257"/>
+      <c r="R8" s="258"/>
+      <c r="S8" s="250"/>
+      <c r="T8" s="250"/>
+      <c r="U8" s="250"/>
+      <c r="V8" s="259"/>
+      <c r="W8" s="259"/>
+      <c r="X8" s="259"/>
+      <c r="Y8" s="259"/>
+      <c r="Z8" s="259"/>
+      <c r="AA8" s="259"/>
+      <c r="AB8" s="259"/>
+      <c r="AC8" s="259"/>
+      <c r="AD8" s="259"/>
+      <c r="AE8" s="259"/>
+      <c r="AF8" s="259"/>
+      <c r="AG8" s="259"/>
+      <c r="AH8" s="259"/>
+      <c r="AI8" s="259"/>
+      <c r="AJ8" s="259"/>
+      <c r="AK8" s="259"/>
+      <c r="AL8" s="259"/>
+      <c r="AM8" s="259"/>
+      <c r="AN8" s="250"/>
+      <c r="AO8" s="250"/>
+      <c r="AP8" s="250"/>
+      <c r="AQ8" s="250"/>
+      <c r="AR8" s="250"/>
+      <c r="AS8" s="250"/>
+      <c r="AT8" s="250"/>
+      <c r="AU8" s="250"/>
+      <c r="AV8" s="250"/>
+      <c r="AW8" s="250"/>
     </row>
     <row r="9" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A9" s="58"/>
-      <c r="B9" s="266"/>
-      <c r="C9" s="266"/>
-      <c r="D9" s="266"/>
-      <c r="E9" s="247"/>
-      <c r="F9" s="247"/>
-      <c r="G9" s="247"/>
-      <c r="H9" s="247"/>
-      <c r="I9" s="247"/>
-      <c r="J9" s="248"/>
-      <c r="K9" s="249"/>
-      <c r="L9" s="250"/>
-      <c r="M9" s="269"/>
-      <c r="N9" s="270"/>
-      <c r="O9" s="270"/>
-      <c r="P9" s="270"/>
-      <c r="Q9" s="270"/>
-      <c r="R9" s="271"/>
-      <c r="S9" s="254"/>
-      <c r="T9" s="254"/>
-      <c r="U9" s="254"/>
-      <c r="V9" s="265"/>
-      <c r="W9" s="265"/>
-      <c r="X9" s="265"/>
-      <c r="Y9" s="265"/>
-      <c r="Z9" s="265"/>
-      <c r="AA9" s="265"/>
-      <c r="AB9" s="265"/>
-      <c r="AC9" s="265"/>
-      <c r="AD9" s="265"/>
-      <c r="AE9" s="265"/>
-      <c r="AF9" s="265"/>
-      <c r="AG9" s="265"/>
-      <c r="AH9" s="265"/>
-      <c r="AI9" s="265"/>
-      <c r="AJ9" s="265"/>
-      <c r="AK9" s="265"/>
-      <c r="AL9" s="265"/>
-      <c r="AM9" s="265"/>
-      <c r="AN9" s="254"/>
-      <c r="AO9" s="254"/>
-      <c r="AP9" s="254"/>
-      <c r="AQ9" s="254"/>
-      <c r="AR9" s="254"/>
-      <c r="AS9" s="254"/>
-      <c r="AT9" s="254"/>
-      <c r="AU9" s="254"/>
-      <c r="AV9" s="254"/>
-      <c r="AW9" s="254"/>
+      <c r="B9" s="251"/>
+      <c r="C9" s="251"/>
+      <c r="D9" s="251"/>
+      <c r="E9" s="252"/>
+      <c r="F9" s="252"/>
+      <c r="G9" s="252"/>
+      <c r="H9" s="252"/>
+      <c r="I9" s="252"/>
+      <c r="J9" s="253"/>
+      <c r="K9" s="254"/>
+      <c r="L9" s="255"/>
+      <c r="M9" s="256"/>
+      <c r="N9" s="257"/>
+      <c r="O9" s="257"/>
+      <c r="P9" s="257"/>
+      <c r="Q9" s="257"/>
+      <c r="R9" s="258"/>
+      <c r="S9" s="250"/>
+      <c r="T9" s="250"/>
+      <c r="U9" s="250"/>
+      <c r="V9" s="259"/>
+      <c r="W9" s="259"/>
+      <c r="X9" s="259"/>
+      <c r="Y9" s="259"/>
+      <c r="Z9" s="259"/>
+      <c r="AA9" s="259"/>
+      <c r="AB9" s="259"/>
+      <c r="AC9" s="259"/>
+      <c r="AD9" s="259"/>
+      <c r="AE9" s="259"/>
+      <c r="AF9" s="259"/>
+      <c r="AG9" s="259"/>
+      <c r="AH9" s="259"/>
+      <c r="AI9" s="259"/>
+      <c r="AJ9" s="259"/>
+      <c r="AK9" s="259"/>
+      <c r="AL9" s="259"/>
+      <c r="AM9" s="259"/>
+      <c r="AN9" s="250"/>
+      <c r="AO9" s="250"/>
+      <c r="AP9" s="250"/>
+      <c r="AQ9" s="250"/>
+      <c r="AR9" s="250"/>
+      <c r="AS9" s="250"/>
+      <c r="AT9" s="250"/>
+      <c r="AU9" s="250"/>
+      <c r="AV9" s="250"/>
+      <c r="AW9" s="250"/>
     </row>
     <row r="10" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A10" s="58"/>
-      <c r="B10" s="266"/>
-      <c r="C10" s="266"/>
-      <c r="D10" s="266"/>
-      <c r="E10" s="247"/>
-      <c r="F10" s="247"/>
-      <c r="G10" s="247"/>
-      <c r="H10" s="247"/>
-      <c r="I10" s="247"/>
-      <c r="J10" s="248"/>
-      <c r="K10" s="249"/>
-      <c r="L10" s="250"/>
-      <c r="M10" s="269"/>
-      <c r="N10" s="270"/>
-      <c r="O10" s="270"/>
-      <c r="P10" s="270"/>
-      <c r="Q10" s="270"/>
-      <c r="R10" s="271"/>
-      <c r="S10" s="254"/>
-      <c r="T10" s="254"/>
-      <c r="U10" s="254"/>
-      <c r="V10" s="265"/>
-      <c r="W10" s="265"/>
-      <c r="X10" s="265"/>
-      <c r="Y10" s="265"/>
-      <c r="Z10" s="265"/>
-      <c r="AA10" s="265"/>
-      <c r="AB10" s="265"/>
-      <c r="AC10" s="265"/>
-      <c r="AD10" s="265"/>
-      <c r="AE10" s="265"/>
-      <c r="AF10" s="265"/>
-      <c r="AG10" s="265"/>
-      <c r="AH10" s="265"/>
-      <c r="AI10" s="265"/>
-      <c r="AJ10" s="265"/>
-      <c r="AK10" s="265"/>
-      <c r="AL10" s="265"/>
-      <c r="AM10" s="265"/>
-      <c r="AN10" s="254"/>
-      <c r="AO10" s="254"/>
-      <c r="AP10" s="254"/>
-      <c r="AQ10" s="254"/>
-      <c r="AR10" s="254"/>
-      <c r="AS10" s="254"/>
-      <c r="AT10" s="254"/>
-      <c r="AU10" s="254"/>
-      <c r="AV10" s="254"/>
-      <c r="AW10" s="254"/>
+      <c r="B10" s="251"/>
+      <c r="C10" s="251"/>
+      <c r="D10" s="251"/>
+      <c r="E10" s="252"/>
+      <c r="F10" s="252"/>
+      <c r="G10" s="252"/>
+      <c r="H10" s="252"/>
+      <c r="I10" s="252"/>
+      <c r="J10" s="253"/>
+      <c r="K10" s="254"/>
+      <c r="L10" s="255"/>
+      <c r="M10" s="256"/>
+      <c r="N10" s="257"/>
+      <c r="O10" s="257"/>
+      <c r="P10" s="257"/>
+      <c r="Q10" s="257"/>
+      <c r="R10" s="258"/>
+      <c r="S10" s="250"/>
+      <c r="T10" s="250"/>
+      <c r="U10" s="250"/>
+      <c r="V10" s="259"/>
+      <c r="W10" s="259"/>
+      <c r="X10" s="259"/>
+      <c r="Y10" s="259"/>
+      <c r="Z10" s="259"/>
+      <c r="AA10" s="259"/>
+      <c r="AB10" s="259"/>
+      <c r="AC10" s="259"/>
+      <c r="AD10" s="259"/>
+      <c r="AE10" s="259"/>
+      <c r="AF10" s="259"/>
+      <c r="AG10" s="259"/>
+      <c r="AH10" s="259"/>
+      <c r="AI10" s="259"/>
+      <c r="AJ10" s="259"/>
+      <c r="AK10" s="259"/>
+      <c r="AL10" s="259"/>
+      <c r="AM10" s="259"/>
+      <c r="AN10" s="250"/>
+      <c r="AO10" s="250"/>
+      <c r="AP10" s="250"/>
+      <c r="AQ10" s="250"/>
+      <c r="AR10" s="250"/>
+      <c r="AS10" s="250"/>
+      <c r="AT10" s="250"/>
+      <c r="AU10" s="250"/>
+      <c r="AV10" s="250"/>
+      <c r="AW10" s="250"/>
     </row>
     <row r="11" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A11" s="58"/>
-      <c r="B11" s="266"/>
-      <c r="C11" s="266"/>
-      <c r="D11" s="266"/>
-      <c r="E11" s="247"/>
-      <c r="F11" s="247"/>
-      <c r="G11" s="247"/>
-      <c r="H11" s="247"/>
-      <c r="I11" s="247"/>
-      <c r="J11" s="248"/>
-      <c r="K11" s="249"/>
-      <c r="L11" s="250"/>
-      <c r="M11" s="261"/>
-      <c r="N11" s="259"/>
-      <c r="O11" s="259"/>
-      <c r="P11" s="259"/>
-      <c r="Q11" s="259"/>
-      <c r="R11" s="260"/>
-      <c r="S11" s="254"/>
-      <c r="T11" s="254"/>
-      <c r="U11" s="254"/>
-      <c r="V11" s="255"/>
-      <c r="W11" s="267"/>
-      <c r="X11" s="267"/>
-      <c r="Y11" s="267"/>
-      <c r="Z11" s="267"/>
-      <c r="AA11" s="267"/>
-      <c r="AB11" s="267"/>
-      <c r="AC11" s="267"/>
-      <c r="AD11" s="267"/>
-      <c r="AE11" s="267"/>
-      <c r="AF11" s="267"/>
-      <c r="AG11" s="267"/>
-      <c r="AH11" s="267"/>
-      <c r="AI11" s="267"/>
-      <c r="AJ11" s="267"/>
-      <c r="AK11" s="267"/>
-      <c r="AL11" s="267"/>
-      <c r="AM11" s="268"/>
-      <c r="AN11" s="254"/>
-      <c r="AO11" s="254"/>
-      <c r="AP11" s="254"/>
-      <c r="AQ11" s="254"/>
-      <c r="AR11" s="254"/>
-      <c r="AS11" s="254"/>
-      <c r="AT11" s="254"/>
-      <c r="AU11" s="254"/>
-      <c r="AV11" s="254"/>
-      <c r="AW11" s="254"/>
+      <c r="B11" s="251"/>
+      <c r="C11" s="251"/>
+      <c r="D11" s="251"/>
+      <c r="E11" s="252"/>
+      <c r="F11" s="252"/>
+      <c r="G11" s="252"/>
+      <c r="H11" s="252"/>
+      <c r="I11" s="252"/>
+      <c r="J11" s="253"/>
+      <c r="K11" s="254"/>
+      <c r="L11" s="255"/>
+      <c r="M11" s="263"/>
+      <c r="N11" s="264"/>
+      <c r="O11" s="264"/>
+      <c r="P11" s="264"/>
+      <c r="Q11" s="264"/>
+      <c r="R11" s="265"/>
+      <c r="S11" s="250"/>
+      <c r="T11" s="250"/>
+      <c r="U11" s="250"/>
+      <c r="V11" s="266"/>
+      <c r="W11" s="272"/>
+      <c r="X11" s="272"/>
+      <c r="Y11" s="272"/>
+      <c r="Z11" s="272"/>
+      <c r="AA11" s="272"/>
+      <c r="AB11" s="272"/>
+      <c r="AC11" s="272"/>
+      <c r="AD11" s="272"/>
+      <c r="AE11" s="272"/>
+      <c r="AF11" s="272"/>
+      <c r="AG11" s="272"/>
+      <c r="AH11" s="272"/>
+      <c r="AI11" s="272"/>
+      <c r="AJ11" s="272"/>
+      <c r="AK11" s="272"/>
+      <c r="AL11" s="272"/>
+      <c r="AM11" s="273"/>
+      <c r="AN11" s="250"/>
+      <c r="AO11" s="250"/>
+      <c r="AP11" s="250"/>
+      <c r="AQ11" s="250"/>
+      <c r="AR11" s="250"/>
+      <c r="AS11" s="250"/>
+      <c r="AT11" s="250"/>
+      <c r="AU11" s="250"/>
+      <c r="AV11" s="250"/>
+      <c r="AW11" s="250"/>
     </row>
     <row r="12" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A12" s="58"/>
-      <c r="B12" s="244"/>
-      <c r="C12" s="245"/>
-      <c r="D12" s="246"/>
-      <c r="E12" s="247"/>
-      <c r="F12" s="247"/>
-      <c r="G12" s="247"/>
-      <c r="H12" s="247"/>
-      <c r="I12" s="247"/>
-      <c r="J12" s="248"/>
-      <c r="K12" s="249"/>
-      <c r="L12" s="250"/>
-      <c r="M12" s="261"/>
-      <c r="N12" s="259"/>
-      <c r="O12" s="259"/>
-      <c r="P12" s="259"/>
-      <c r="Q12" s="259"/>
-      <c r="R12" s="260"/>
-      <c r="S12" s="254"/>
-      <c r="T12" s="254"/>
-      <c r="U12" s="254"/>
-      <c r="V12" s="255"/>
-      <c r="W12" s="256"/>
-      <c r="X12" s="256"/>
-      <c r="Y12" s="256"/>
-      <c r="Z12" s="256"/>
-      <c r="AA12" s="256"/>
-      <c r="AB12" s="256"/>
-      <c r="AC12" s="256"/>
-      <c r="AD12" s="256"/>
-      <c r="AE12" s="256"/>
-      <c r="AF12" s="256"/>
-      <c r="AG12" s="256"/>
-      <c r="AH12" s="256"/>
-      <c r="AI12" s="256"/>
-      <c r="AJ12" s="256"/>
-      <c r="AK12" s="256"/>
-      <c r="AL12" s="256"/>
-      <c r="AM12" s="257"/>
-      <c r="AN12" s="241"/>
-      <c r="AO12" s="242"/>
-      <c r="AP12" s="242"/>
-      <c r="AQ12" s="242"/>
-      <c r="AR12" s="243"/>
-      <c r="AS12" s="241"/>
-      <c r="AT12" s="242"/>
-      <c r="AU12" s="242"/>
-      <c r="AV12" s="242"/>
-      <c r="AW12" s="243"/>
+      <c r="B12" s="260"/>
+      <c r="C12" s="261"/>
+      <c r="D12" s="262"/>
+      <c r="E12" s="252"/>
+      <c r="F12" s="252"/>
+      <c r="G12" s="252"/>
+      <c r="H12" s="252"/>
+      <c r="I12" s="252"/>
+      <c r="J12" s="253"/>
+      <c r="K12" s="254"/>
+      <c r="L12" s="255"/>
+      <c r="M12" s="263"/>
+      <c r="N12" s="264"/>
+      <c r="O12" s="264"/>
+      <c r="P12" s="264"/>
+      <c r="Q12" s="264"/>
+      <c r="R12" s="265"/>
+      <c r="S12" s="250"/>
+      <c r="T12" s="250"/>
+      <c r="U12" s="250"/>
+      <c r="V12" s="266"/>
+      <c r="W12" s="267"/>
+      <c r="X12" s="267"/>
+      <c r="Y12" s="267"/>
+      <c r="Z12" s="267"/>
+      <c r="AA12" s="267"/>
+      <c r="AB12" s="267"/>
+      <c r="AC12" s="267"/>
+      <c r="AD12" s="267"/>
+      <c r="AE12" s="267"/>
+      <c r="AF12" s="267"/>
+      <c r="AG12" s="267"/>
+      <c r="AH12" s="267"/>
+      <c r="AI12" s="267"/>
+      <c r="AJ12" s="267"/>
+      <c r="AK12" s="267"/>
+      <c r="AL12" s="267"/>
+      <c r="AM12" s="268"/>
+      <c r="AN12" s="269"/>
+      <c r="AO12" s="270"/>
+      <c r="AP12" s="270"/>
+      <c r="AQ12" s="270"/>
+      <c r="AR12" s="271"/>
+      <c r="AS12" s="269"/>
+      <c r="AT12" s="270"/>
+      <c r="AU12" s="270"/>
+      <c r="AV12" s="270"/>
+      <c r="AW12" s="271"/>
     </row>
     <row r="13" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A13" s="58"/>
-      <c r="B13" s="244"/>
-      <c r="C13" s="245"/>
-      <c r="D13" s="246"/>
-      <c r="E13" s="247"/>
-      <c r="F13" s="247"/>
-      <c r="G13" s="247"/>
-      <c r="H13" s="247"/>
-      <c r="I13" s="247"/>
-      <c r="J13" s="248"/>
-      <c r="K13" s="249"/>
-      <c r="L13" s="250"/>
-      <c r="M13" s="258"/>
-      <c r="N13" s="259"/>
-      <c r="O13" s="259"/>
-      <c r="P13" s="259"/>
-      <c r="Q13" s="259"/>
-      <c r="R13" s="260"/>
-      <c r="S13" s="254"/>
-      <c r="T13" s="254"/>
-      <c r="U13" s="254"/>
-      <c r="V13" s="255"/>
-      <c r="W13" s="256"/>
-      <c r="X13" s="256"/>
-      <c r="Y13" s="256"/>
-      <c r="Z13" s="256"/>
-      <c r="AA13" s="256"/>
-      <c r="AB13" s="256"/>
-      <c r="AC13" s="256"/>
-      <c r="AD13" s="256"/>
-      <c r="AE13" s="256"/>
-      <c r="AF13" s="256"/>
-      <c r="AG13" s="256"/>
-      <c r="AH13" s="256"/>
-      <c r="AI13" s="256"/>
-      <c r="AJ13" s="256"/>
-      <c r="AK13" s="256"/>
-      <c r="AL13" s="256"/>
-      <c r="AM13" s="257"/>
-      <c r="AN13" s="241"/>
-      <c r="AO13" s="242"/>
-      <c r="AP13" s="242"/>
-      <c r="AQ13" s="242"/>
-      <c r="AR13" s="243"/>
-      <c r="AS13" s="241"/>
-      <c r="AT13" s="242"/>
-      <c r="AU13" s="242"/>
-      <c r="AV13" s="242"/>
-      <c r="AW13" s="243"/>
+      <c r="B13" s="260"/>
+      <c r="C13" s="261"/>
+      <c r="D13" s="262"/>
+      <c r="E13" s="252"/>
+      <c r="F13" s="252"/>
+      <c r="G13" s="252"/>
+      <c r="H13" s="252"/>
+      <c r="I13" s="252"/>
+      <c r="J13" s="253"/>
+      <c r="K13" s="254"/>
+      <c r="L13" s="255"/>
+      <c r="M13" s="274"/>
+      <c r="N13" s="264"/>
+      <c r="O13" s="264"/>
+      <c r="P13" s="264"/>
+      <c r="Q13" s="264"/>
+      <c r="R13" s="265"/>
+      <c r="S13" s="250"/>
+      <c r="T13" s="250"/>
+      <c r="U13" s="250"/>
+      <c r="V13" s="266"/>
+      <c r="W13" s="267"/>
+      <c r="X13" s="267"/>
+      <c r="Y13" s="267"/>
+      <c r="Z13" s="267"/>
+      <c r="AA13" s="267"/>
+      <c r="AB13" s="267"/>
+      <c r="AC13" s="267"/>
+      <c r="AD13" s="267"/>
+      <c r="AE13" s="267"/>
+      <c r="AF13" s="267"/>
+      <c r="AG13" s="267"/>
+      <c r="AH13" s="267"/>
+      <c r="AI13" s="267"/>
+      <c r="AJ13" s="267"/>
+      <c r="AK13" s="267"/>
+      <c r="AL13" s="267"/>
+      <c r="AM13" s="268"/>
+      <c r="AN13" s="269"/>
+      <c r="AO13" s="270"/>
+      <c r="AP13" s="270"/>
+      <c r="AQ13" s="270"/>
+      <c r="AR13" s="271"/>
+      <c r="AS13" s="269"/>
+      <c r="AT13" s="270"/>
+      <c r="AU13" s="270"/>
+      <c r="AV13" s="270"/>
+      <c r="AW13" s="271"/>
     </row>
     <row r="14" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A14" s="58"/>
-      <c r="B14" s="244"/>
-      <c r="C14" s="245"/>
-      <c r="D14" s="246"/>
-      <c r="E14" s="247"/>
-      <c r="F14" s="247"/>
-      <c r="G14" s="247"/>
-      <c r="H14" s="247"/>
-      <c r="I14" s="247"/>
-      <c r="J14" s="248"/>
-      <c r="K14" s="249"/>
-      <c r="L14" s="250"/>
-      <c r="M14" s="258"/>
-      <c r="N14" s="259"/>
-      <c r="O14" s="259"/>
-      <c r="P14" s="259"/>
-      <c r="Q14" s="259"/>
-      <c r="R14" s="260"/>
-      <c r="S14" s="254"/>
-      <c r="T14" s="254"/>
-      <c r="U14" s="254"/>
-      <c r="V14" s="264"/>
-      <c r="W14" s="265"/>
-      <c r="X14" s="265"/>
-      <c r="Y14" s="265"/>
-      <c r="Z14" s="265"/>
-      <c r="AA14" s="265"/>
-      <c r="AB14" s="265"/>
-      <c r="AC14" s="265"/>
-      <c r="AD14" s="265"/>
-      <c r="AE14" s="265"/>
-      <c r="AF14" s="265"/>
-      <c r="AG14" s="265"/>
-      <c r="AH14" s="265"/>
-      <c r="AI14" s="265"/>
-      <c r="AJ14" s="265"/>
-      <c r="AK14" s="265"/>
-      <c r="AL14" s="265"/>
-      <c r="AM14" s="265"/>
-      <c r="AN14" s="254"/>
-      <c r="AO14" s="254"/>
-      <c r="AP14" s="254"/>
-      <c r="AQ14" s="254"/>
-      <c r="AR14" s="254"/>
-      <c r="AS14" s="241"/>
-      <c r="AT14" s="242"/>
-      <c r="AU14" s="242"/>
-      <c r="AV14" s="242"/>
-      <c r="AW14" s="243"/>
+      <c r="B14" s="260"/>
+      <c r="C14" s="261"/>
+      <c r="D14" s="262"/>
+      <c r="E14" s="252"/>
+      <c r="F14" s="252"/>
+      <c r="G14" s="252"/>
+      <c r="H14" s="252"/>
+      <c r="I14" s="252"/>
+      <c r="J14" s="253"/>
+      <c r="K14" s="254"/>
+      <c r="L14" s="255"/>
+      <c r="M14" s="274"/>
+      <c r="N14" s="264"/>
+      <c r="O14" s="264"/>
+      <c r="P14" s="264"/>
+      <c r="Q14" s="264"/>
+      <c r="R14" s="265"/>
+      <c r="S14" s="250"/>
+      <c r="T14" s="250"/>
+      <c r="U14" s="250"/>
+      <c r="V14" s="275"/>
+      <c r="W14" s="259"/>
+      <c r="X14" s="259"/>
+      <c r="Y14" s="259"/>
+      <c r="Z14" s="259"/>
+      <c r="AA14" s="259"/>
+      <c r="AB14" s="259"/>
+      <c r="AC14" s="259"/>
+      <c r="AD14" s="259"/>
+      <c r="AE14" s="259"/>
+      <c r="AF14" s="259"/>
+      <c r="AG14" s="259"/>
+      <c r="AH14" s="259"/>
+      <c r="AI14" s="259"/>
+      <c r="AJ14" s="259"/>
+      <c r="AK14" s="259"/>
+      <c r="AL14" s="259"/>
+      <c r="AM14" s="259"/>
+      <c r="AN14" s="250"/>
+      <c r="AO14" s="250"/>
+      <c r="AP14" s="250"/>
+      <c r="AQ14" s="250"/>
+      <c r="AR14" s="250"/>
+      <c r="AS14" s="269"/>
+      <c r="AT14" s="270"/>
+      <c r="AU14" s="270"/>
+      <c r="AV14" s="270"/>
+      <c r="AW14" s="271"/>
     </row>
     <row r="15" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A15" s="58"/>
-      <c r="B15" s="244"/>
-      <c r="C15" s="245"/>
-      <c r="D15" s="246"/>
-      <c r="E15" s="247"/>
-      <c r="F15" s="247"/>
-      <c r="G15" s="247"/>
-      <c r="H15" s="247"/>
-      <c r="I15" s="247"/>
-      <c r="J15" s="248"/>
-      <c r="K15" s="249"/>
-      <c r="L15" s="250"/>
-      <c r="M15" s="261"/>
-      <c r="N15" s="259"/>
-      <c r="O15" s="259"/>
-      <c r="P15" s="259"/>
-      <c r="Q15" s="259"/>
-      <c r="R15" s="260"/>
-      <c r="S15" s="254"/>
-      <c r="T15" s="254"/>
-      <c r="U15" s="254"/>
-      <c r="V15" s="255"/>
-      <c r="W15" s="256"/>
-      <c r="X15" s="256"/>
-      <c r="Y15" s="256"/>
-      <c r="Z15" s="256"/>
-      <c r="AA15" s="256"/>
-      <c r="AB15" s="256"/>
-      <c r="AC15" s="256"/>
-      <c r="AD15" s="256"/>
-      <c r="AE15" s="256"/>
-      <c r="AF15" s="256"/>
-      <c r="AG15" s="256"/>
-      <c r="AH15" s="256"/>
-      <c r="AI15" s="256"/>
-      <c r="AJ15" s="256"/>
-      <c r="AK15" s="256"/>
-      <c r="AL15" s="256"/>
-      <c r="AM15" s="257"/>
-      <c r="AN15" s="241"/>
-      <c r="AO15" s="242"/>
-      <c r="AP15" s="242"/>
-      <c r="AQ15" s="242"/>
-      <c r="AR15" s="243"/>
-      <c r="AS15" s="241"/>
-      <c r="AT15" s="242"/>
-      <c r="AU15" s="242"/>
-      <c r="AV15" s="242"/>
-      <c r="AW15" s="243"/>
+      <c r="B15" s="260"/>
+      <c r="C15" s="261"/>
+      <c r="D15" s="262"/>
+      <c r="E15" s="252"/>
+      <c r="F15" s="252"/>
+      <c r="G15" s="252"/>
+      <c r="H15" s="252"/>
+      <c r="I15" s="252"/>
+      <c r="J15" s="253"/>
+      <c r="K15" s="254"/>
+      <c r="L15" s="255"/>
+      <c r="M15" s="263"/>
+      <c r="N15" s="264"/>
+      <c r="O15" s="264"/>
+      <c r="P15" s="264"/>
+      <c r="Q15" s="264"/>
+      <c r="R15" s="265"/>
+      <c r="S15" s="250"/>
+      <c r="T15" s="250"/>
+      <c r="U15" s="250"/>
+      <c r="V15" s="266"/>
+      <c r="W15" s="267"/>
+      <c r="X15" s="267"/>
+      <c r="Y15" s="267"/>
+      <c r="Z15" s="267"/>
+      <c r="AA15" s="267"/>
+      <c r="AB15" s="267"/>
+      <c r="AC15" s="267"/>
+      <c r="AD15" s="267"/>
+      <c r="AE15" s="267"/>
+      <c r="AF15" s="267"/>
+      <c r="AG15" s="267"/>
+      <c r="AH15" s="267"/>
+      <c r="AI15" s="267"/>
+      <c r="AJ15" s="267"/>
+      <c r="AK15" s="267"/>
+      <c r="AL15" s="267"/>
+      <c r="AM15" s="268"/>
+      <c r="AN15" s="269"/>
+      <c r="AO15" s="270"/>
+      <c r="AP15" s="270"/>
+      <c r="AQ15" s="270"/>
+      <c r="AR15" s="271"/>
+      <c r="AS15" s="269"/>
+      <c r="AT15" s="270"/>
+      <c r="AU15" s="270"/>
+      <c r="AV15" s="270"/>
+      <c r="AW15" s="271"/>
     </row>
     <row r="16" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A16" s="58"/>
-      <c r="B16" s="244"/>
-      <c r="C16" s="245"/>
-      <c r="D16" s="246"/>
-      <c r="E16" s="247"/>
-      <c r="F16" s="247"/>
-      <c r="G16" s="247"/>
-      <c r="H16" s="247"/>
-      <c r="I16" s="247"/>
-      <c r="J16" s="248"/>
-      <c r="K16" s="249"/>
-      <c r="L16" s="250"/>
-      <c r="M16" s="261"/>
-      <c r="N16" s="259"/>
-      <c r="O16" s="259"/>
-      <c r="P16" s="259"/>
-      <c r="Q16" s="259"/>
-      <c r="R16" s="260"/>
-      <c r="S16" s="254"/>
-      <c r="T16" s="254"/>
-      <c r="U16" s="254"/>
-      <c r="V16" s="255"/>
-      <c r="W16" s="256"/>
-      <c r="X16" s="256"/>
-      <c r="Y16" s="256"/>
-      <c r="Z16" s="256"/>
-      <c r="AA16" s="256"/>
-      <c r="AB16" s="256"/>
-      <c r="AC16" s="256"/>
-      <c r="AD16" s="256"/>
-      <c r="AE16" s="256"/>
-      <c r="AF16" s="256"/>
-      <c r="AG16" s="256"/>
-      <c r="AH16" s="256"/>
-      <c r="AI16" s="256"/>
-      <c r="AJ16" s="256"/>
-      <c r="AK16" s="256"/>
-      <c r="AL16" s="256"/>
-      <c r="AM16" s="257"/>
-      <c r="AN16" s="241"/>
-      <c r="AO16" s="242"/>
-      <c r="AP16" s="242"/>
-      <c r="AQ16" s="242"/>
-      <c r="AR16" s="243"/>
-      <c r="AS16" s="241"/>
-      <c r="AT16" s="242"/>
-      <c r="AU16" s="242"/>
-      <c r="AV16" s="242"/>
-      <c r="AW16" s="243"/>
+      <c r="B16" s="260"/>
+      <c r="C16" s="261"/>
+      <c r="D16" s="262"/>
+      <c r="E16" s="252"/>
+      <c r="F16" s="252"/>
+      <c r="G16" s="252"/>
+      <c r="H16" s="252"/>
+      <c r="I16" s="252"/>
+      <c r="J16" s="253"/>
+      <c r="K16" s="254"/>
+      <c r="L16" s="255"/>
+      <c r="M16" s="263"/>
+      <c r="N16" s="264"/>
+      <c r="O16" s="264"/>
+      <c r="P16" s="264"/>
+      <c r="Q16" s="264"/>
+      <c r="R16" s="265"/>
+      <c r="S16" s="250"/>
+      <c r="T16" s="250"/>
+      <c r="U16" s="250"/>
+      <c r="V16" s="266"/>
+      <c r="W16" s="267"/>
+      <c r="X16" s="267"/>
+      <c r="Y16" s="267"/>
+      <c r="Z16" s="267"/>
+      <c r="AA16" s="267"/>
+      <c r="AB16" s="267"/>
+      <c r="AC16" s="267"/>
+      <c r="AD16" s="267"/>
+      <c r="AE16" s="267"/>
+      <c r="AF16" s="267"/>
+      <c r="AG16" s="267"/>
+      <c r="AH16" s="267"/>
+      <c r="AI16" s="267"/>
+      <c r="AJ16" s="267"/>
+      <c r="AK16" s="267"/>
+      <c r="AL16" s="267"/>
+      <c r="AM16" s="268"/>
+      <c r="AN16" s="269"/>
+      <c r="AO16" s="270"/>
+      <c r="AP16" s="270"/>
+      <c r="AQ16" s="270"/>
+      <c r="AR16" s="271"/>
+      <c r="AS16" s="269"/>
+      <c r="AT16" s="270"/>
+      <c r="AU16" s="270"/>
+      <c r="AV16" s="270"/>
+      <c r="AW16" s="271"/>
     </row>
     <row r="17" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A17" s="58"/>
-      <c r="B17" s="244"/>
-      <c r="C17" s="245"/>
-      <c r="D17" s="246"/>
-      <c r="E17" s="247"/>
-      <c r="F17" s="247"/>
-      <c r="G17" s="247"/>
-      <c r="H17" s="247"/>
-      <c r="I17" s="247"/>
-      <c r="J17" s="248"/>
-      <c r="K17" s="249"/>
-      <c r="L17" s="250"/>
-      <c r="M17" s="261"/>
-      <c r="N17" s="259"/>
-      <c r="O17" s="259"/>
-      <c r="P17" s="259"/>
-      <c r="Q17" s="259"/>
-      <c r="R17" s="262"/>
-      <c r="S17" s="263"/>
-      <c r="T17" s="263"/>
-      <c r="U17" s="263"/>
-      <c r="V17" s="255"/>
-      <c r="W17" s="256"/>
-      <c r="X17" s="256"/>
-      <c r="Y17" s="256"/>
-      <c r="Z17" s="256"/>
-      <c r="AA17" s="256"/>
-      <c r="AB17" s="256"/>
-      <c r="AC17" s="256"/>
-      <c r="AD17" s="256"/>
-      <c r="AE17" s="256"/>
-      <c r="AF17" s="256"/>
-      <c r="AG17" s="256"/>
-      <c r="AH17" s="256"/>
-      <c r="AI17" s="256"/>
-      <c r="AJ17" s="256"/>
-      <c r="AK17" s="256"/>
-      <c r="AL17" s="256"/>
-      <c r="AM17" s="257"/>
-      <c r="AN17" s="241"/>
-      <c r="AO17" s="242"/>
-      <c r="AP17" s="242"/>
-      <c r="AQ17" s="242"/>
-      <c r="AR17" s="243"/>
-      <c r="AS17" s="241"/>
-      <c r="AT17" s="242"/>
-      <c r="AU17" s="242"/>
-      <c r="AV17" s="242"/>
-      <c r="AW17" s="243"/>
+      <c r="B17" s="260"/>
+      <c r="C17" s="261"/>
+      <c r="D17" s="262"/>
+      <c r="E17" s="252"/>
+      <c r="F17" s="252"/>
+      <c r="G17" s="252"/>
+      <c r="H17" s="252"/>
+      <c r="I17" s="252"/>
+      <c r="J17" s="253"/>
+      <c r="K17" s="254"/>
+      <c r="L17" s="255"/>
+      <c r="M17" s="263"/>
+      <c r="N17" s="264"/>
+      <c r="O17" s="264"/>
+      <c r="P17" s="264"/>
+      <c r="Q17" s="264"/>
+      <c r="R17" s="276"/>
+      <c r="S17" s="277"/>
+      <c r="T17" s="277"/>
+      <c r="U17" s="277"/>
+      <c r="V17" s="266"/>
+      <c r="W17" s="267"/>
+      <c r="X17" s="267"/>
+      <c r="Y17" s="267"/>
+      <c r="Z17" s="267"/>
+      <c r="AA17" s="267"/>
+      <c r="AB17" s="267"/>
+      <c r="AC17" s="267"/>
+      <c r="AD17" s="267"/>
+      <c r="AE17" s="267"/>
+      <c r="AF17" s="267"/>
+      <c r="AG17" s="267"/>
+      <c r="AH17" s="267"/>
+      <c r="AI17" s="267"/>
+      <c r="AJ17" s="267"/>
+      <c r="AK17" s="267"/>
+      <c r="AL17" s="267"/>
+      <c r="AM17" s="268"/>
+      <c r="AN17" s="269"/>
+      <c r="AO17" s="270"/>
+      <c r="AP17" s="270"/>
+      <c r="AQ17" s="270"/>
+      <c r="AR17" s="271"/>
+      <c r="AS17" s="269"/>
+      <c r="AT17" s="270"/>
+      <c r="AU17" s="270"/>
+      <c r="AV17" s="270"/>
+      <c r="AW17" s="271"/>
     </row>
     <row r="18" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A18" s="58"/>
-      <c r="B18" s="244"/>
-      <c r="C18" s="245"/>
-      <c r="D18" s="246"/>
-      <c r="E18" s="247"/>
-      <c r="F18" s="247"/>
-      <c r="G18" s="247"/>
-      <c r="H18" s="247"/>
-      <c r="I18" s="247"/>
-      <c r="J18" s="248"/>
-      <c r="K18" s="249"/>
-      <c r="L18" s="250"/>
-      <c r="M18" s="258"/>
-      <c r="N18" s="259"/>
-      <c r="O18" s="259"/>
-      <c r="P18" s="259"/>
-      <c r="Q18" s="259"/>
-      <c r="R18" s="260"/>
-      <c r="S18" s="254"/>
-      <c r="T18" s="254"/>
-      <c r="U18" s="254"/>
-      <c r="V18" s="255"/>
-      <c r="W18" s="256"/>
-      <c r="X18" s="256"/>
-      <c r="Y18" s="256"/>
-      <c r="Z18" s="256"/>
-      <c r="AA18" s="256"/>
-      <c r="AB18" s="256"/>
-      <c r="AC18" s="256"/>
-      <c r="AD18" s="256"/>
-      <c r="AE18" s="256"/>
-      <c r="AF18" s="256"/>
-      <c r="AG18" s="256"/>
-      <c r="AH18" s="256"/>
-      <c r="AI18" s="256"/>
-      <c r="AJ18" s="256"/>
-      <c r="AK18" s="256"/>
-      <c r="AL18" s="256"/>
-      <c r="AM18" s="257"/>
-      <c r="AN18" s="241"/>
-      <c r="AO18" s="242"/>
-      <c r="AP18" s="242"/>
-      <c r="AQ18" s="242"/>
-      <c r="AR18" s="243"/>
-      <c r="AS18" s="241"/>
-      <c r="AT18" s="242"/>
-      <c r="AU18" s="242"/>
-      <c r="AV18" s="242"/>
-      <c r="AW18" s="243"/>
+      <c r="B18" s="260"/>
+      <c r="C18" s="261"/>
+      <c r="D18" s="262"/>
+      <c r="E18" s="252"/>
+      <c r="F18" s="252"/>
+      <c r="G18" s="252"/>
+      <c r="H18" s="252"/>
+      <c r="I18" s="252"/>
+      <c r="J18" s="253"/>
+      <c r="K18" s="254"/>
+      <c r="L18" s="255"/>
+      <c r="M18" s="274"/>
+      <c r="N18" s="264"/>
+      <c r="O18" s="264"/>
+      <c r="P18" s="264"/>
+      <c r="Q18" s="264"/>
+      <c r="R18" s="265"/>
+      <c r="S18" s="250"/>
+      <c r="T18" s="250"/>
+      <c r="U18" s="250"/>
+      <c r="V18" s="266"/>
+      <c r="W18" s="267"/>
+      <c r="X18" s="267"/>
+      <c r="Y18" s="267"/>
+      <c r="Z18" s="267"/>
+      <c r="AA18" s="267"/>
+      <c r="AB18" s="267"/>
+      <c r="AC18" s="267"/>
+      <c r="AD18" s="267"/>
+      <c r="AE18" s="267"/>
+      <c r="AF18" s="267"/>
+      <c r="AG18" s="267"/>
+      <c r="AH18" s="267"/>
+      <c r="AI18" s="267"/>
+      <c r="AJ18" s="267"/>
+      <c r="AK18" s="267"/>
+      <c r="AL18" s="267"/>
+      <c r="AM18" s="268"/>
+      <c r="AN18" s="269"/>
+      <c r="AO18" s="270"/>
+      <c r="AP18" s="270"/>
+      <c r="AQ18" s="270"/>
+      <c r="AR18" s="271"/>
+      <c r="AS18" s="269"/>
+      <c r="AT18" s="270"/>
+      <c r="AU18" s="270"/>
+      <c r="AV18" s="270"/>
+      <c r="AW18" s="271"/>
     </row>
     <row r="19" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A19" s="58"/>
-      <c r="B19" s="244"/>
-      <c r="C19" s="245"/>
-      <c r="D19" s="246"/>
-      <c r="E19" s="247"/>
-      <c r="F19" s="247"/>
-      <c r="G19" s="247"/>
-      <c r="H19" s="247"/>
-      <c r="I19" s="247"/>
-      <c r="J19" s="248"/>
-      <c r="K19" s="249"/>
-      <c r="L19" s="250"/>
-      <c r="M19" s="261"/>
-      <c r="N19" s="259"/>
-      <c r="O19" s="259"/>
-      <c r="P19" s="259"/>
-      <c r="Q19" s="259"/>
-      <c r="R19" s="260"/>
-      <c r="S19" s="254"/>
-      <c r="T19" s="254"/>
-      <c r="U19" s="254"/>
-      <c r="V19" s="255"/>
-      <c r="W19" s="256"/>
-      <c r="X19" s="256"/>
-      <c r="Y19" s="256"/>
-      <c r="Z19" s="256"/>
-      <c r="AA19" s="256"/>
-      <c r="AB19" s="256"/>
-      <c r="AC19" s="256"/>
-      <c r="AD19" s="256"/>
-      <c r="AE19" s="256"/>
-      <c r="AF19" s="256"/>
-      <c r="AG19" s="256"/>
-      <c r="AH19" s="256"/>
-      <c r="AI19" s="256"/>
-      <c r="AJ19" s="256"/>
-      <c r="AK19" s="256"/>
-      <c r="AL19" s="256"/>
-      <c r="AM19" s="257"/>
-      <c r="AN19" s="254"/>
-      <c r="AO19" s="254"/>
-      <c r="AP19" s="254"/>
-      <c r="AQ19" s="254"/>
-      <c r="AR19" s="254"/>
-      <c r="AS19" s="241"/>
-      <c r="AT19" s="242"/>
-      <c r="AU19" s="242"/>
-      <c r="AV19" s="242"/>
-      <c r="AW19" s="243"/>
+      <c r="B19" s="260"/>
+      <c r="C19" s="261"/>
+      <c r="D19" s="262"/>
+      <c r="E19" s="252"/>
+      <c r="F19" s="252"/>
+      <c r="G19" s="252"/>
+      <c r="H19" s="252"/>
+      <c r="I19" s="252"/>
+      <c r="J19" s="253"/>
+      <c r="K19" s="254"/>
+      <c r="L19" s="255"/>
+      <c r="M19" s="263"/>
+      <c r="N19" s="264"/>
+      <c r="O19" s="264"/>
+      <c r="P19" s="264"/>
+      <c r="Q19" s="264"/>
+      <c r="R19" s="265"/>
+      <c r="S19" s="250"/>
+      <c r="T19" s="250"/>
+      <c r="U19" s="250"/>
+      <c r="V19" s="266"/>
+      <c r="W19" s="267"/>
+      <c r="X19" s="267"/>
+      <c r="Y19" s="267"/>
+      <c r="Z19" s="267"/>
+      <c r="AA19" s="267"/>
+      <c r="AB19" s="267"/>
+      <c r="AC19" s="267"/>
+      <c r="AD19" s="267"/>
+      <c r="AE19" s="267"/>
+      <c r="AF19" s="267"/>
+      <c r="AG19" s="267"/>
+      <c r="AH19" s="267"/>
+      <c r="AI19" s="267"/>
+      <c r="AJ19" s="267"/>
+      <c r="AK19" s="267"/>
+      <c r="AL19" s="267"/>
+      <c r="AM19" s="268"/>
+      <c r="AN19" s="250"/>
+      <c r="AO19" s="250"/>
+      <c r="AP19" s="250"/>
+      <c r="AQ19" s="250"/>
+      <c r="AR19" s="250"/>
+      <c r="AS19" s="269"/>
+      <c r="AT19" s="270"/>
+      <c r="AU19" s="270"/>
+      <c r="AV19" s="270"/>
+      <c r="AW19" s="271"/>
     </row>
     <row r="20" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A20" s="58"/>
-      <c r="B20" s="244"/>
-      <c r="C20" s="245"/>
-      <c r="D20" s="246"/>
-      <c r="E20" s="247"/>
-      <c r="F20" s="247"/>
-      <c r="G20" s="247"/>
-      <c r="H20" s="247"/>
-      <c r="I20" s="247"/>
-      <c r="J20" s="248"/>
-      <c r="K20" s="249"/>
-      <c r="L20" s="250"/>
-      <c r="M20" s="261"/>
-      <c r="N20" s="259"/>
-      <c r="O20" s="259"/>
-      <c r="P20" s="259"/>
-      <c r="Q20" s="259"/>
-      <c r="R20" s="260"/>
-      <c r="S20" s="241"/>
-      <c r="T20" s="242"/>
-      <c r="U20" s="243"/>
-      <c r="V20" s="255"/>
-      <c r="W20" s="256"/>
-      <c r="X20" s="256"/>
-      <c r="Y20" s="256"/>
-      <c r="Z20" s="256"/>
-      <c r="AA20" s="256"/>
-      <c r="AB20" s="256"/>
-      <c r="AC20" s="256"/>
-      <c r="AD20" s="256"/>
-      <c r="AE20" s="256"/>
-      <c r="AF20" s="256"/>
-      <c r="AG20" s="256"/>
-      <c r="AH20" s="256"/>
-      <c r="AI20" s="256"/>
-      <c r="AJ20" s="256"/>
-      <c r="AK20" s="256"/>
-      <c r="AL20" s="256"/>
-      <c r="AM20" s="257"/>
-      <c r="AN20" s="241"/>
-      <c r="AO20" s="242"/>
-      <c r="AP20" s="242"/>
-      <c r="AQ20" s="242"/>
-      <c r="AR20" s="243"/>
-      <c r="AS20" s="241"/>
-      <c r="AT20" s="242"/>
-      <c r="AU20" s="242"/>
-      <c r="AV20" s="242"/>
-      <c r="AW20" s="243"/>
+      <c r="B20" s="260"/>
+      <c r="C20" s="261"/>
+      <c r="D20" s="262"/>
+      <c r="E20" s="252"/>
+      <c r="F20" s="252"/>
+      <c r="G20" s="252"/>
+      <c r="H20" s="252"/>
+      <c r="I20" s="252"/>
+      <c r="J20" s="253"/>
+      <c r="K20" s="254"/>
+      <c r="L20" s="255"/>
+      <c r="M20" s="263"/>
+      <c r="N20" s="264"/>
+      <c r="O20" s="264"/>
+      <c r="P20" s="264"/>
+      <c r="Q20" s="264"/>
+      <c r="R20" s="265"/>
+      <c r="S20" s="269"/>
+      <c r="T20" s="270"/>
+      <c r="U20" s="271"/>
+      <c r="V20" s="266"/>
+      <c r="W20" s="267"/>
+      <c r="X20" s="267"/>
+      <c r="Y20" s="267"/>
+      <c r="Z20" s="267"/>
+      <c r="AA20" s="267"/>
+      <c r="AB20" s="267"/>
+      <c r="AC20" s="267"/>
+      <c r="AD20" s="267"/>
+      <c r="AE20" s="267"/>
+      <c r="AF20" s="267"/>
+      <c r="AG20" s="267"/>
+      <c r="AH20" s="267"/>
+      <c r="AI20" s="267"/>
+      <c r="AJ20" s="267"/>
+      <c r="AK20" s="267"/>
+      <c r="AL20" s="267"/>
+      <c r="AM20" s="268"/>
+      <c r="AN20" s="269"/>
+      <c r="AO20" s="270"/>
+      <c r="AP20" s="270"/>
+      <c r="AQ20" s="270"/>
+      <c r="AR20" s="271"/>
+      <c r="AS20" s="269"/>
+      <c r="AT20" s="270"/>
+      <c r="AU20" s="270"/>
+      <c r="AV20" s="270"/>
+      <c r="AW20" s="271"/>
     </row>
     <row r="21" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A21" s="58"/>
-      <c r="B21" s="244"/>
-      <c r="C21" s="245"/>
-      <c r="D21" s="246"/>
-      <c r="E21" s="247"/>
-      <c r="F21" s="247"/>
-      <c r="G21" s="247"/>
-      <c r="H21" s="247"/>
-      <c r="I21" s="247"/>
-      <c r="J21" s="248"/>
-      <c r="K21" s="249"/>
-      <c r="L21" s="250"/>
-      <c r="M21" s="261"/>
-      <c r="N21" s="259"/>
-      <c r="O21" s="259"/>
-      <c r="P21" s="259"/>
-      <c r="Q21" s="259"/>
-      <c r="R21" s="260"/>
-      <c r="S21" s="254"/>
-      <c r="T21" s="254"/>
-      <c r="U21" s="254"/>
-      <c r="V21" s="255"/>
-      <c r="W21" s="256"/>
-      <c r="X21" s="256"/>
-      <c r="Y21" s="256"/>
-      <c r="Z21" s="256"/>
-      <c r="AA21" s="256"/>
-      <c r="AB21" s="256"/>
-      <c r="AC21" s="256"/>
-      <c r="AD21" s="256"/>
-      <c r="AE21" s="256"/>
-      <c r="AF21" s="256"/>
-      <c r="AG21" s="256"/>
-      <c r="AH21" s="256"/>
-      <c r="AI21" s="256"/>
-      <c r="AJ21" s="256"/>
-      <c r="AK21" s="256"/>
-      <c r="AL21" s="256"/>
-      <c r="AM21" s="257"/>
-      <c r="AN21" s="241"/>
-      <c r="AO21" s="242"/>
-      <c r="AP21" s="242"/>
-      <c r="AQ21" s="242"/>
-      <c r="AR21" s="243"/>
-      <c r="AS21" s="241"/>
-      <c r="AT21" s="242"/>
-      <c r="AU21" s="242"/>
-      <c r="AV21" s="242"/>
-      <c r="AW21" s="243"/>
+      <c r="B21" s="260"/>
+      <c r="C21" s="261"/>
+      <c r="D21" s="262"/>
+      <c r="E21" s="252"/>
+      <c r="F21" s="252"/>
+      <c r="G21" s="252"/>
+      <c r="H21" s="252"/>
+      <c r="I21" s="252"/>
+      <c r="J21" s="253"/>
+      <c r="K21" s="254"/>
+      <c r="L21" s="255"/>
+      <c r="M21" s="263"/>
+      <c r="N21" s="264"/>
+      <c r="O21" s="264"/>
+      <c r="P21" s="264"/>
+      <c r="Q21" s="264"/>
+      <c r="R21" s="265"/>
+      <c r="S21" s="250"/>
+      <c r="T21" s="250"/>
+      <c r="U21" s="250"/>
+      <c r="V21" s="266"/>
+      <c r="W21" s="267"/>
+      <c r="X21" s="267"/>
+      <c r="Y21" s="267"/>
+      <c r="Z21" s="267"/>
+      <c r="AA21" s="267"/>
+      <c r="AB21" s="267"/>
+      <c r="AC21" s="267"/>
+      <c r="AD21" s="267"/>
+      <c r="AE21" s="267"/>
+      <c r="AF21" s="267"/>
+      <c r="AG21" s="267"/>
+      <c r="AH21" s="267"/>
+      <c r="AI21" s="267"/>
+      <c r="AJ21" s="267"/>
+      <c r="AK21" s="267"/>
+      <c r="AL21" s="267"/>
+      <c r="AM21" s="268"/>
+      <c r="AN21" s="269"/>
+      <c r="AO21" s="270"/>
+      <c r="AP21" s="270"/>
+      <c r="AQ21" s="270"/>
+      <c r="AR21" s="271"/>
+      <c r="AS21" s="269"/>
+      <c r="AT21" s="270"/>
+      <c r="AU21" s="270"/>
+      <c r="AV21" s="270"/>
+      <c r="AW21" s="271"/>
     </row>
     <row r="22" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A22" s="58"/>
-      <c r="B22" s="244"/>
-      <c r="C22" s="245"/>
-      <c r="D22" s="246"/>
-      <c r="E22" s="247"/>
-      <c r="F22" s="247"/>
-      <c r="G22" s="247"/>
-      <c r="H22" s="247"/>
-      <c r="I22" s="247"/>
-      <c r="J22" s="248"/>
-      <c r="K22" s="249"/>
-      <c r="L22" s="250"/>
-      <c r="M22" s="261"/>
-      <c r="N22" s="259"/>
-      <c r="O22" s="259"/>
-      <c r="P22" s="259"/>
-      <c r="Q22" s="259"/>
-      <c r="R22" s="260"/>
-      <c r="S22" s="254"/>
-      <c r="T22" s="254"/>
-      <c r="U22" s="254"/>
-      <c r="V22" s="255"/>
-      <c r="W22" s="256"/>
-      <c r="X22" s="256"/>
-      <c r="Y22" s="256"/>
-      <c r="Z22" s="256"/>
-      <c r="AA22" s="256"/>
-      <c r="AB22" s="256"/>
-      <c r="AC22" s="256"/>
-      <c r="AD22" s="256"/>
-      <c r="AE22" s="256"/>
-      <c r="AF22" s="256"/>
-      <c r="AG22" s="256"/>
-      <c r="AH22" s="256"/>
-      <c r="AI22" s="256"/>
-      <c r="AJ22" s="256"/>
-      <c r="AK22" s="256"/>
-      <c r="AL22" s="256"/>
-      <c r="AM22" s="257"/>
-      <c r="AN22" s="241"/>
-      <c r="AO22" s="242"/>
-      <c r="AP22" s="242"/>
-      <c r="AQ22" s="242"/>
-      <c r="AR22" s="243"/>
-      <c r="AS22" s="241"/>
-      <c r="AT22" s="242"/>
-      <c r="AU22" s="242"/>
-      <c r="AV22" s="242"/>
-      <c r="AW22" s="243"/>
+      <c r="B22" s="260"/>
+      <c r="C22" s="261"/>
+      <c r="D22" s="262"/>
+      <c r="E22" s="252"/>
+      <c r="F22" s="252"/>
+      <c r="G22" s="252"/>
+      <c r="H22" s="252"/>
+      <c r="I22" s="252"/>
+      <c r="J22" s="253"/>
+      <c r="K22" s="254"/>
+      <c r="L22" s="255"/>
+      <c r="M22" s="263"/>
+      <c r="N22" s="264"/>
+      <c r="O22" s="264"/>
+      <c r="P22" s="264"/>
+      <c r="Q22" s="264"/>
+      <c r="R22" s="265"/>
+      <c r="S22" s="250"/>
+      <c r="T22" s="250"/>
+      <c r="U22" s="250"/>
+      <c r="V22" s="266"/>
+      <c r="W22" s="267"/>
+      <c r="X22" s="267"/>
+      <c r="Y22" s="267"/>
+      <c r="Z22" s="267"/>
+      <c r="AA22" s="267"/>
+      <c r="AB22" s="267"/>
+      <c r="AC22" s="267"/>
+      <c r="AD22" s="267"/>
+      <c r="AE22" s="267"/>
+      <c r="AF22" s="267"/>
+      <c r="AG22" s="267"/>
+      <c r="AH22" s="267"/>
+      <c r="AI22" s="267"/>
+      <c r="AJ22" s="267"/>
+      <c r="AK22" s="267"/>
+      <c r="AL22" s="267"/>
+      <c r="AM22" s="268"/>
+      <c r="AN22" s="269"/>
+      <c r="AO22" s="270"/>
+      <c r="AP22" s="270"/>
+      <c r="AQ22" s="270"/>
+      <c r="AR22" s="271"/>
+      <c r="AS22" s="269"/>
+      <c r="AT22" s="270"/>
+      <c r="AU22" s="270"/>
+      <c r="AV22" s="270"/>
+      <c r="AW22" s="271"/>
     </row>
     <row r="23" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A23" s="56"/>
-      <c r="B23" s="244"/>
-      <c r="C23" s="245"/>
-      <c r="D23" s="246"/>
-      <c r="E23" s="247"/>
-      <c r="F23" s="247"/>
-      <c r="G23" s="247"/>
-      <c r="H23" s="247"/>
-      <c r="I23" s="247"/>
-      <c r="J23" s="248"/>
-      <c r="K23" s="249"/>
-      <c r="L23" s="250"/>
-      <c r="M23" s="261"/>
-      <c r="N23" s="259"/>
-      <c r="O23" s="259"/>
-      <c r="P23" s="259"/>
-      <c r="Q23" s="259"/>
-      <c r="R23" s="260"/>
-      <c r="S23" s="254"/>
-      <c r="T23" s="254"/>
-      <c r="U23" s="254"/>
-      <c r="V23" s="255"/>
-      <c r="W23" s="256"/>
-      <c r="X23" s="256"/>
-      <c r="Y23" s="256"/>
-      <c r="Z23" s="256"/>
-      <c r="AA23" s="256"/>
-      <c r="AB23" s="256"/>
-      <c r="AC23" s="256"/>
-      <c r="AD23" s="256"/>
-      <c r="AE23" s="256"/>
-      <c r="AF23" s="256"/>
-      <c r="AG23" s="256"/>
-      <c r="AH23" s="256"/>
-      <c r="AI23" s="256"/>
-      <c r="AJ23" s="256"/>
-      <c r="AK23" s="256"/>
-      <c r="AL23" s="256"/>
-      <c r="AM23" s="257"/>
-      <c r="AN23" s="241"/>
-      <c r="AO23" s="242"/>
-      <c r="AP23" s="242"/>
-      <c r="AQ23" s="242"/>
-      <c r="AR23" s="243"/>
-      <c r="AS23" s="241"/>
-      <c r="AT23" s="242"/>
-      <c r="AU23" s="242"/>
-      <c r="AV23" s="242"/>
-      <c r="AW23" s="243"/>
+      <c r="B23" s="260"/>
+      <c r="C23" s="261"/>
+      <c r="D23" s="262"/>
+      <c r="E23" s="252"/>
+      <c r="F23" s="252"/>
+      <c r="G23" s="252"/>
+      <c r="H23" s="252"/>
+      <c r="I23" s="252"/>
+      <c r="J23" s="253"/>
+      <c r="K23" s="254"/>
+      <c r="L23" s="255"/>
+      <c r="M23" s="263"/>
+      <c r="N23" s="264"/>
+      <c r="O23" s="264"/>
+      <c r="P23" s="264"/>
+      <c r="Q23" s="264"/>
+      <c r="R23" s="265"/>
+      <c r="S23" s="250"/>
+      <c r="T23" s="250"/>
+      <c r="U23" s="250"/>
+      <c r="V23" s="266"/>
+      <c r="W23" s="267"/>
+      <c r="X23" s="267"/>
+      <c r="Y23" s="267"/>
+      <c r="Z23" s="267"/>
+      <c r="AA23" s="267"/>
+      <c r="AB23" s="267"/>
+      <c r="AC23" s="267"/>
+      <c r="AD23" s="267"/>
+      <c r="AE23" s="267"/>
+      <c r="AF23" s="267"/>
+      <c r="AG23" s="267"/>
+      <c r="AH23" s="267"/>
+      <c r="AI23" s="267"/>
+      <c r="AJ23" s="267"/>
+      <c r="AK23" s="267"/>
+      <c r="AL23" s="267"/>
+      <c r="AM23" s="268"/>
+      <c r="AN23" s="269"/>
+      <c r="AO23" s="270"/>
+      <c r="AP23" s="270"/>
+      <c r="AQ23" s="270"/>
+      <c r="AR23" s="271"/>
+      <c r="AS23" s="269"/>
+      <c r="AT23" s="270"/>
+      <c r="AU23" s="270"/>
+      <c r="AV23" s="270"/>
+      <c r="AW23" s="271"/>
     </row>
     <row r="24" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A24" s="56"/>
-      <c r="B24" s="244"/>
-      <c r="C24" s="245"/>
-      <c r="D24" s="246"/>
-      <c r="E24" s="247"/>
-      <c r="F24" s="247"/>
-      <c r="G24" s="247"/>
-      <c r="H24" s="247"/>
-      <c r="I24" s="247"/>
-      <c r="J24" s="248"/>
-      <c r="K24" s="249"/>
-      <c r="L24" s="250"/>
-      <c r="M24" s="261"/>
-      <c r="N24" s="259"/>
-      <c r="O24" s="259"/>
-      <c r="P24" s="259"/>
-      <c r="Q24" s="259"/>
-      <c r="R24" s="260"/>
-      <c r="S24" s="254"/>
-      <c r="T24" s="254"/>
-      <c r="U24" s="254"/>
-      <c r="V24" s="255"/>
-      <c r="W24" s="256"/>
-      <c r="X24" s="256"/>
-      <c r="Y24" s="256"/>
-      <c r="Z24" s="256"/>
-      <c r="AA24" s="256"/>
-      <c r="AB24" s="256"/>
-      <c r="AC24" s="256"/>
-      <c r="AD24" s="256"/>
-      <c r="AE24" s="256"/>
-      <c r="AF24" s="256"/>
-      <c r="AG24" s="256"/>
-      <c r="AH24" s="256"/>
-      <c r="AI24" s="256"/>
-      <c r="AJ24" s="256"/>
-      <c r="AK24" s="256"/>
-      <c r="AL24" s="256"/>
-      <c r="AM24" s="257"/>
-      <c r="AN24" s="241"/>
-      <c r="AO24" s="242"/>
-      <c r="AP24" s="242"/>
-      <c r="AQ24" s="242"/>
-      <c r="AR24" s="243"/>
-      <c r="AS24" s="241"/>
-      <c r="AT24" s="242"/>
-      <c r="AU24" s="242"/>
-      <c r="AV24" s="242"/>
-      <c r="AW24" s="243"/>
+      <c r="B24" s="260"/>
+      <c r="C24" s="261"/>
+      <c r="D24" s="262"/>
+      <c r="E24" s="252"/>
+      <c r="F24" s="252"/>
+      <c r="G24" s="252"/>
+      <c r="H24" s="252"/>
+      <c r="I24" s="252"/>
+      <c r="J24" s="253"/>
+      <c r="K24" s="254"/>
+      <c r="L24" s="255"/>
+      <c r="M24" s="263"/>
+      <c r="N24" s="264"/>
+      <c r="O24" s="264"/>
+      <c r="P24" s="264"/>
+      <c r="Q24" s="264"/>
+      <c r="R24" s="265"/>
+      <c r="S24" s="250"/>
+      <c r="T24" s="250"/>
+      <c r="U24" s="250"/>
+      <c r="V24" s="266"/>
+      <c r="W24" s="267"/>
+      <c r="X24" s="267"/>
+      <c r="Y24" s="267"/>
+      <c r="Z24" s="267"/>
+      <c r="AA24" s="267"/>
+      <c r="AB24" s="267"/>
+      <c r="AC24" s="267"/>
+      <c r="AD24" s="267"/>
+      <c r="AE24" s="267"/>
+      <c r="AF24" s="267"/>
+      <c r="AG24" s="267"/>
+      <c r="AH24" s="267"/>
+      <c r="AI24" s="267"/>
+      <c r="AJ24" s="267"/>
+      <c r="AK24" s="267"/>
+      <c r="AL24" s="267"/>
+      <c r="AM24" s="268"/>
+      <c r="AN24" s="269"/>
+      <c r="AO24" s="270"/>
+      <c r="AP24" s="270"/>
+      <c r="AQ24" s="270"/>
+      <c r="AR24" s="271"/>
+      <c r="AS24" s="269"/>
+      <c r="AT24" s="270"/>
+      <c r="AU24" s="270"/>
+      <c r="AV24" s="270"/>
+      <c r="AW24" s="271"/>
     </row>
     <row r="25" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A25" s="56"/>
-      <c r="B25" s="244"/>
-      <c r="C25" s="245"/>
-      <c r="D25" s="246"/>
-      <c r="E25" s="247"/>
-      <c r="F25" s="247"/>
-      <c r="G25" s="247"/>
-      <c r="H25" s="247"/>
-      <c r="I25" s="247"/>
-      <c r="J25" s="248"/>
-      <c r="K25" s="249"/>
-      <c r="L25" s="250"/>
-      <c r="M25" s="258"/>
-      <c r="N25" s="259"/>
-      <c r="O25" s="259"/>
-      <c r="P25" s="259"/>
-      <c r="Q25" s="259"/>
-      <c r="R25" s="260"/>
-      <c r="S25" s="254"/>
-      <c r="T25" s="254"/>
-      <c r="U25" s="254"/>
-      <c r="V25" s="255"/>
-      <c r="W25" s="256"/>
-      <c r="X25" s="256"/>
-      <c r="Y25" s="256"/>
-      <c r="Z25" s="256"/>
-      <c r="AA25" s="256"/>
-      <c r="AB25" s="256"/>
-      <c r="AC25" s="256"/>
-      <c r="AD25" s="256"/>
-      <c r="AE25" s="256"/>
-      <c r="AF25" s="256"/>
-      <c r="AG25" s="256"/>
-      <c r="AH25" s="256"/>
-      <c r="AI25" s="256"/>
-      <c r="AJ25" s="256"/>
-      <c r="AK25" s="256"/>
-      <c r="AL25" s="256"/>
-      <c r="AM25" s="257"/>
-      <c r="AN25" s="241"/>
-      <c r="AO25" s="242"/>
-      <c r="AP25" s="242"/>
-      <c r="AQ25" s="242"/>
-      <c r="AR25" s="243"/>
-      <c r="AS25" s="241"/>
-      <c r="AT25" s="242"/>
-      <c r="AU25" s="242"/>
-      <c r="AV25" s="242"/>
-      <c r="AW25" s="243"/>
+      <c r="B25" s="260"/>
+      <c r="C25" s="261"/>
+      <c r="D25" s="262"/>
+      <c r="E25" s="252"/>
+      <c r="F25" s="252"/>
+      <c r="G25" s="252"/>
+      <c r="H25" s="252"/>
+      <c r="I25" s="252"/>
+      <c r="J25" s="253"/>
+      <c r="K25" s="254"/>
+      <c r="L25" s="255"/>
+      <c r="M25" s="274"/>
+      <c r="N25" s="264"/>
+      <c r="O25" s="264"/>
+      <c r="P25" s="264"/>
+      <c r="Q25" s="264"/>
+      <c r="R25" s="265"/>
+      <c r="S25" s="250"/>
+      <c r="T25" s="250"/>
+      <c r="U25" s="250"/>
+      <c r="V25" s="266"/>
+      <c r="W25" s="267"/>
+      <c r="X25" s="267"/>
+      <c r="Y25" s="267"/>
+      <c r="Z25" s="267"/>
+      <c r="AA25" s="267"/>
+      <c r="AB25" s="267"/>
+      <c r="AC25" s="267"/>
+      <c r="AD25" s="267"/>
+      <c r="AE25" s="267"/>
+      <c r="AF25" s="267"/>
+      <c r="AG25" s="267"/>
+      <c r="AH25" s="267"/>
+      <c r="AI25" s="267"/>
+      <c r="AJ25" s="267"/>
+      <c r="AK25" s="267"/>
+      <c r="AL25" s="267"/>
+      <c r="AM25" s="268"/>
+      <c r="AN25" s="269"/>
+      <c r="AO25" s="270"/>
+      <c r="AP25" s="270"/>
+      <c r="AQ25" s="270"/>
+      <c r="AR25" s="271"/>
+      <c r="AS25" s="269"/>
+      <c r="AT25" s="270"/>
+      <c r="AU25" s="270"/>
+      <c r="AV25" s="270"/>
+      <c r="AW25" s="271"/>
     </row>
     <row r="26" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A26" s="56"/>
-      <c r="B26" s="244"/>
-      <c r="C26" s="245"/>
-      <c r="D26" s="246"/>
-      <c r="E26" s="247"/>
-      <c r="F26" s="247"/>
-      <c r="G26" s="247"/>
-      <c r="H26" s="247"/>
-      <c r="I26" s="247"/>
-      <c r="J26" s="248"/>
-      <c r="K26" s="249"/>
-      <c r="L26" s="250"/>
-      <c r="M26" s="258"/>
-      <c r="N26" s="259"/>
-      <c r="O26" s="259"/>
-      <c r="P26" s="259"/>
-      <c r="Q26" s="259"/>
-      <c r="R26" s="260"/>
-      <c r="S26" s="254"/>
-      <c r="T26" s="254"/>
-      <c r="U26" s="254"/>
-      <c r="V26" s="255"/>
-      <c r="W26" s="256"/>
-      <c r="X26" s="256"/>
-      <c r="Y26" s="256"/>
-      <c r="Z26" s="256"/>
-      <c r="AA26" s="256"/>
-      <c r="AB26" s="256"/>
-      <c r="AC26" s="256"/>
-      <c r="AD26" s="256"/>
-      <c r="AE26" s="256"/>
-      <c r="AF26" s="256"/>
-      <c r="AG26" s="256"/>
-      <c r="AH26" s="256"/>
-      <c r="AI26" s="256"/>
-      <c r="AJ26" s="256"/>
-      <c r="AK26" s="256"/>
-      <c r="AL26" s="256"/>
-      <c r="AM26" s="257"/>
-      <c r="AN26" s="241"/>
-      <c r="AO26" s="242"/>
-      <c r="AP26" s="242"/>
-      <c r="AQ26" s="242"/>
-      <c r="AR26" s="243"/>
-      <c r="AS26" s="241"/>
-      <c r="AT26" s="242"/>
-      <c r="AU26" s="242"/>
-      <c r="AV26" s="242"/>
-      <c r="AW26" s="243"/>
+      <c r="B26" s="260"/>
+      <c r="C26" s="261"/>
+      <c r="D26" s="262"/>
+      <c r="E26" s="252"/>
+      <c r="F26" s="252"/>
+      <c r="G26" s="252"/>
+      <c r="H26" s="252"/>
+      <c r="I26" s="252"/>
+      <c r="J26" s="253"/>
+      <c r="K26" s="254"/>
+      <c r="L26" s="255"/>
+      <c r="M26" s="274"/>
+      <c r="N26" s="264"/>
+      <c r="O26" s="264"/>
+      <c r="P26" s="264"/>
+      <c r="Q26" s="264"/>
+      <c r="R26" s="265"/>
+      <c r="S26" s="250"/>
+      <c r="T26" s="250"/>
+      <c r="U26" s="250"/>
+      <c r="V26" s="266"/>
+      <c r="W26" s="267"/>
+      <c r="X26" s="267"/>
+      <c r="Y26" s="267"/>
+      <c r="Z26" s="267"/>
+      <c r="AA26" s="267"/>
+      <c r="AB26" s="267"/>
+      <c r="AC26" s="267"/>
+      <c r="AD26" s="267"/>
+      <c r="AE26" s="267"/>
+      <c r="AF26" s="267"/>
+      <c r="AG26" s="267"/>
+      <c r="AH26" s="267"/>
+      <c r="AI26" s="267"/>
+      <c r="AJ26" s="267"/>
+      <c r="AK26" s="267"/>
+      <c r="AL26" s="267"/>
+      <c r="AM26" s="268"/>
+      <c r="AN26" s="269"/>
+      <c r="AO26" s="270"/>
+      <c r="AP26" s="270"/>
+      <c r="AQ26" s="270"/>
+      <c r="AR26" s="271"/>
+      <c r="AS26" s="269"/>
+      <c r="AT26" s="270"/>
+      <c r="AU26" s="270"/>
+      <c r="AV26" s="270"/>
+      <c r="AW26" s="271"/>
     </row>
     <row r="27" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A27" s="56"/>
-      <c r="B27" s="244"/>
-      <c r="C27" s="245"/>
-      <c r="D27" s="246"/>
-      <c r="E27" s="247"/>
-      <c r="F27" s="247"/>
-      <c r="G27" s="247"/>
-      <c r="H27" s="247"/>
-      <c r="I27" s="247"/>
-      <c r="J27" s="248"/>
-      <c r="K27" s="249"/>
-      <c r="L27" s="250"/>
-      <c r="M27" s="258"/>
-      <c r="N27" s="259"/>
-      <c r="O27" s="259"/>
-      <c r="P27" s="259"/>
-      <c r="Q27" s="259"/>
-      <c r="R27" s="260"/>
-      <c r="S27" s="254"/>
-      <c r="T27" s="254"/>
-      <c r="U27" s="254"/>
-      <c r="V27" s="255"/>
-      <c r="W27" s="256"/>
-      <c r="X27" s="256"/>
-      <c r="Y27" s="256"/>
-      <c r="Z27" s="256"/>
-      <c r="AA27" s="256"/>
-      <c r="AB27" s="256"/>
-      <c r="AC27" s="256"/>
-      <c r="AD27" s="256"/>
-      <c r="AE27" s="256"/>
-      <c r="AF27" s="256"/>
-      <c r="AG27" s="256"/>
-      <c r="AH27" s="256"/>
-      <c r="AI27" s="256"/>
-      <c r="AJ27" s="256"/>
-      <c r="AK27" s="256"/>
-      <c r="AL27" s="256"/>
-      <c r="AM27" s="257"/>
-      <c r="AN27" s="241"/>
-      <c r="AO27" s="242"/>
-      <c r="AP27" s="242"/>
-      <c r="AQ27" s="242"/>
-      <c r="AR27" s="243"/>
-      <c r="AS27" s="241"/>
-      <c r="AT27" s="242"/>
-      <c r="AU27" s="242"/>
-      <c r="AV27" s="242"/>
-      <c r="AW27" s="243"/>
+      <c r="B27" s="260"/>
+      <c r="C27" s="261"/>
+      <c r="D27" s="262"/>
+      <c r="E27" s="252"/>
+      <c r="F27" s="252"/>
+      <c r="G27" s="252"/>
+      <c r="H27" s="252"/>
+      <c r="I27" s="252"/>
+      <c r="J27" s="253"/>
+      <c r="K27" s="254"/>
+      <c r="L27" s="255"/>
+      <c r="M27" s="274"/>
+      <c r="N27" s="264"/>
+      <c r="O27" s="264"/>
+      <c r="P27" s="264"/>
+      <c r="Q27" s="264"/>
+      <c r="R27" s="265"/>
+      <c r="S27" s="250"/>
+      <c r="T27" s="250"/>
+      <c r="U27" s="250"/>
+      <c r="V27" s="266"/>
+      <c r="W27" s="267"/>
+      <c r="X27" s="267"/>
+      <c r="Y27" s="267"/>
+      <c r="Z27" s="267"/>
+      <c r="AA27" s="267"/>
+      <c r="AB27" s="267"/>
+      <c r="AC27" s="267"/>
+      <c r="AD27" s="267"/>
+      <c r="AE27" s="267"/>
+      <c r="AF27" s="267"/>
+      <c r="AG27" s="267"/>
+      <c r="AH27" s="267"/>
+      <c r="AI27" s="267"/>
+      <c r="AJ27" s="267"/>
+      <c r="AK27" s="267"/>
+      <c r="AL27" s="267"/>
+      <c r="AM27" s="268"/>
+      <c r="AN27" s="269"/>
+      <c r="AO27" s="270"/>
+      <c r="AP27" s="270"/>
+      <c r="AQ27" s="270"/>
+      <c r="AR27" s="271"/>
+      <c r="AS27" s="269"/>
+      <c r="AT27" s="270"/>
+      <c r="AU27" s="270"/>
+      <c r="AV27" s="270"/>
+      <c r="AW27" s="271"/>
     </row>
     <row r="28" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A28" s="56"/>
-      <c r="B28" s="244"/>
-      <c r="C28" s="245"/>
-      <c r="D28" s="246"/>
-      <c r="E28" s="247"/>
-      <c r="F28" s="247"/>
-      <c r="G28" s="247"/>
-      <c r="H28" s="247"/>
-      <c r="I28" s="247"/>
-      <c r="J28" s="248"/>
-      <c r="K28" s="249"/>
-      <c r="L28" s="250"/>
-      <c r="M28" s="261"/>
-      <c r="N28" s="259"/>
-      <c r="O28" s="259"/>
-      <c r="P28" s="259"/>
-      <c r="Q28" s="259"/>
-      <c r="R28" s="260"/>
-      <c r="S28" s="254"/>
-      <c r="T28" s="254"/>
-      <c r="U28" s="254"/>
-      <c r="V28" s="255"/>
-      <c r="W28" s="256"/>
-      <c r="X28" s="256"/>
-      <c r="Y28" s="256"/>
-      <c r="Z28" s="256"/>
-      <c r="AA28" s="256"/>
-      <c r="AB28" s="256"/>
-      <c r="AC28" s="256"/>
-      <c r="AD28" s="256"/>
-      <c r="AE28" s="256"/>
-      <c r="AF28" s="256"/>
-      <c r="AG28" s="256"/>
-      <c r="AH28" s="256"/>
-      <c r="AI28" s="256"/>
-      <c r="AJ28" s="256"/>
-      <c r="AK28" s="256"/>
-      <c r="AL28" s="256"/>
-      <c r="AM28" s="257"/>
-      <c r="AN28" s="241"/>
-      <c r="AO28" s="242"/>
-      <c r="AP28" s="242"/>
-      <c r="AQ28" s="242"/>
-      <c r="AR28" s="243"/>
-      <c r="AS28" s="241"/>
-      <c r="AT28" s="242"/>
-      <c r="AU28" s="242"/>
-      <c r="AV28" s="242"/>
-      <c r="AW28" s="243"/>
+      <c r="B28" s="260"/>
+      <c r="C28" s="261"/>
+      <c r="D28" s="262"/>
+      <c r="E28" s="252"/>
+      <c r="F28" s="252"/>
+      <c r="G28" s="252"/>
+      <c r="H28" s="252"/>
+      <c r="I28" s="252"/>
+      <c r="J28" s="253"/>
+      <c r="K28" s="254"/>
+      <c r="L28" s="255"/>
+      <c r="M28" s="263"/>
+      <c r="N28" s="264"/>
+      <c r="O28" s="264"/>
+      <c r="P28" s="264"/>
+      <c r="Q28" s="264"/>
+      <c r="R28" s="265"/>
+      <c r="S28" s="250"/>
+      <c r="T28" s="250"/>
+      <c r="U28" s="250"/>
+      <c r="V28" s="266"/>
+      <c r="W28" s="267"/>
+      <c r="X28" s="267"/>
+      <c r="Y28" s="267"/>
+      <c r="Z28" s="267"/>
+      <c r="AA28" s="267"/>
+      <c r="AB28" s="267"/>
+      <c r="AC28" s="267"/>
+      <c r="AD28" s="267"/>
+      <c r="AE28" s="267"/>
+      <c r="AF28" s="267"/>
+      <c r="AG28" s="267"/>
+      <c r="AH28" s="267"/>
+      <c r="AI28" s="267"/>
+      <c r="AJ28" s="267"/>
+      <c r="AK28" s="267"/>
+      <c r="AL28" s="267"/>
+      <c r="AM28" s="268"/>
+      <c r="AN28" s="269"/>
+      <c r="AO28" s="270"/>
+      <c r="AP28" s="270"/>
+      <c r="AQ28" s="270"/>
+      <c r="AR28" s="271"/>
+      <c r="AS28" s="269"/>
+      <c r="AT28" s="270"/>
+      <c r="AU28" s="270"/>
+      <c r="AV28" s="270"/>
+      <c r="AW28" s="271"/>
     </row>
     <row r="29" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A29" s="56"/>
-      <c r="B29" s="244"/>
-      <c r="C29" s="245"/>
-      <c r="D29" s="246"/>
-      <c r="E29" s="247"/>
-      <c r="F29" s="247"/>
-      <c r="G29" s="247"/>
-      <c r="H29" s="247"/>
-      <c r="I29" s="247"/>
-      <c r="J29" s="248"/>
-      <c r="K29" s="249"/>
-      <c r="L29" s="250"/>
-      <c r="M29" s="261"/>
-      <c r="N29" s="259"/>
-      <c r="O29" s="259"/>
-      <c r="P29" s="259"/>
-      <c r="Q29" s="259"/>
-      <c r="R29" s="260"/>
-      <c r="S29" s="254"/>
-      <c r="T29" s="254"/>
-      <c r="U29" s="254"/>
-      <c r="V29" s="255"/>
-      <c r="W29" s="256"/>
-      <c r="X29" s="256"/>
-      <c r="Y29" s="256"/>
-      <c r="Z29" s="256"/>
-      <c r="AA29" s="256"/>
-      <c r="AB29" s="256"/>
-      <c r="AC29" s="256"/>
-      <c r="AD29" s="256"/>
-      <c r="AE29" s="256"/>
-      <c r="AF29" s="256"/>
-      <c r="AG29" s="256"/>
-      <c r="AH29" s="256"/>
-      <c r="AI29" s="256"/>
-      <c r="AJ29" s="256"/>
-      <c r="AK29" s="256"/>
-      <c r="AL29" s="256"/>
-      <c r="AM29" s="257"/>
-      <c r="AN29" s="241"/>
-      <c r="AO29" s="242"/>
-      <c r="AP29" s="242"/>
-      <c r="AQ29" s="242"/>
-      <c r="AR29" s="243"/>
-      <c r="AS29" s="241"/>
-      <c r="AT29" s="242"/>
-      <c r="AU29" s="242"/>
-      <c r="AV29" s="242"/>
-      <c r="AW29" s="243"/>
+      <c r="B29" s="260"/>
+      <c r="C29" s="261"/>
+      <c r="D29" s="262"/>
+      <c r="E29" s="252"/>
+      <c r="F29" s="252"/>
+      <c r="G29" s="252"/>
+      <c r="H29" s="252"/>
+      <c r="I29" s="252"/>
+      <c r="J29" s="253"/>
+      <c r="K29" s="254"/>
+      <c r="L29" s="255"/>
+      <c r="M29" s="263"/>
+      <c r="N29" s="264"/>
+      <c r="O29" s="264"/>
+      <c r="P29" s="264"/>
+      <c r="Q29" s="264"/>
+      <c r="R29" s="265"/>
+      <c r="S29" s="250"/>
+      <c r="T29" s="250"/>
+      <c r="U29" s="250"/>
+      <c r="V29" s="266"/>
+      <c r="W29" s="267"/>
+      <c r="X29" s="267"/>
+      <c r="Y29" s="267"/>
+      <c r="Z29" s="267"/>
+      <c r="AA29" s="267"/>
+      <c r="AB29" s="267"/>
+      <c r="AC29" s="267"/>
+      <c r="AD29" s="267"/>
+      <c r="AE29" s="267"/>
+      <c r="AF29" s="267"/>
+      <c r="AG29" s="267"/>
+      <c r="AH29" s="267"/>
+      <c r="AI29" s="267"/>
+      <c r="AJ29" s="267"/>
+      <c r="AK29" s="267"/>
+      <c r="AL29" s="267"/>
+      <c r="AM29" s="268"/>
+      <c r="AN29" s="269"/>
+      <c r="AO29" s="270"/>
+      <c r="AP29" s="270"/>
+      <c r="AQ29" s="270"/>
+      <c r="AR29" s="271"/>
+      <c r="AS29" s="269"/>
+      <c r="AT29" s="270"/>
+      <c r="AU29" s="270"/>
+      <c r="AV29" s="270"/>
+      <c r="AW29" s="271"/>
     </row>
     <row r="30" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A30" s="56"/>
-      <c r="B30" s="244"/>
-      <c r="C30" s="245"/>
-      <c r="D30" s="246"/>
-      <c r="E30" s="247"/>
-      <c r="F30" s="247"/>
-      <c r="G30" s="247"/>
-      <c r="H30" s="247"/>
-      <c r="I30" s="247"/>
-      <c r="J30" s="248"/>
-      <c r="K30" s="249"/>
-      <c r="L30" s="250"/>
-      <c r="M30" s="258"/>
-      <c r="N30" s="259"/>
-      <c r="O30" s="259"/>
-      <c r="P30" s="259"/>
-      <c r="Q30" s="259"/>
-      <c r="R30" s="260"/>
-      <c r="S30" s="254"/>
-      <c r="T30" s="254"/>
-      <c r="U30" s="254"/>
-      <c r="V30" s="255"/>
-      <c r="W30" s="256"/>
-      <c r="X30" s="256"/>
-      <c r="Y30" s="256"/>
-      <c r="Z30" s="256"/>
-      <c r="AA30" s="256"/>
-      <c r="AB30" s="256"/>
-      <c r="AC30" s="256"/>
-      <c r="AD30" s="256"/>
-      <c r="AE30" s="256"/>
-      <c r="AF30" s="256"/>
-      <c r="AG30" s="256"/>
-      <c r="AH30" s="256"/>
-      <c r="AI30" s="256"/>
-      <c r="AJ30" s="256"/>
-      <c r="AK30" s="256"/>
-      <c r="AL30" s="256"/>
-      <c r="AM30" s="257"/>
-      <c r="AN30" s="241"/>
-      <c r="AO30" s="242"/>
-      <c r="AP30" s="242"/>
-      <c r="AQ30" s="242"/>
-      <c r="AR30" s="243"/>
-      <c r="AS30" s="241"/>
-      <c r="AT30" s="242"/>
-      <c r="AU30" s="242"/>
-      <c r="AV30" s="242"/>
-      <c r="AW30" s="243"/>
+      <c r="B30" s="260"/>
+      <c r="C30" s="261"/>
+      <c r="D30" s="262"/>
+      <c r="E30" s="252"/>
+      <c r="F30" s="252"/>
+      <c r="G30" s="252"/>
+      <c r="H30" s="252"/>
+      <c r="I30" s="252"/>
+      <c r="J30" s="253"/>
+      <c r="K30" s="254"/>
+      <c r="L30" s="255"/>
+      <c r="M30" s="274"/>
+      <c r="N30" s="264"/>
+      <c r="O30" s="264"/>
+      <c r="P30" s="264"/>
+      <c r="Q30" s="264"/>
+      <c r="R30" s="265"/>
+      <c r="S30" s="250"/>
+      <c r="T30" s="250"/>
+      <c r="U30" s="250"/>
+      <c r="V30" s="266"/>
+      <c r="W30" s="267"/>
+      <c r="X30" s="267"/>
+      <c r="Y30" s="267"/>
+      <c r="Z30" s="267"/>
+      <c r="AA30" s="267"/>
+      <c r="AB30" s="267"/>
+      <c r="AC30" s="267"/>
+      <c r="AD30" s="267"/>
+      <c r="AE30" s="267"/>
+      <c r="AF30" s="267"/>
+      <c r="AG30" s="267"/>
+      <c r="AH30" s="267"/>
+      <c r="AI30" s="267"/>
+      <c r="AJ30" s="267"/>
+      <c r="AK30" s="267"/>
+      <c r="AL30" s="267"/>
+      <c r="AM30" s="268"/>
+      <c r="AN30" s="269"/>
+      <c r="AO30" s="270"/>
+      <c r="AP30" s="270"/>
+      <c r="AQ30" s="270"/>
+      <c r="AR30" s="271"/>
+      <c r="AS30" s="269"/>
+      <c r="AT30" s="270"/>
+      <c r="AU30" s="270"/>
+      <c r="AV30" s="270"/>
+      <c r="AW30" s="271"/>
     </row>
     <row r="31" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A31" s="56"/>
-      <c r="B31" s="244"/>
-      <c r="C31" s="245"/>
-      <c r="D31" s="246"/>
-      <c r="E31" s="247"/>
-      <c r="F31" s="247"/>
-      <c r="G31" s="247"/>
-      <c r="H31" s="247"/>
-      <c r="I31" s="247"/>
-      <c r="J31" s="248"/>
-      <c r="K31" s="249"/>
-      <c r="L31" s="250"/>
-      <c r="M31" s="258"/>
-      <c r="N31" s="259"/>
-      <c r="O31" s="259"/>
-      <c r="P31" s="259"/>
-      <c r="Q31" s="259"/>
-      <c r="R31" s="260"/>
-      <c r="S31" s="254"/>
-      <c r="T31" s="254"/>
-      <c r="U31" s="254"/>
-      <c r="V31" s="255"/>
-      <c r="W31" s="256"/>
-      <c r="X31" s="256"/>
-      <c r="Y31" s="256"/>
-      <c r="Z31" s="256"/>
-      <c r="AA31" s="256"/>
-      <c r="AB31" s="256"/>
-      <c r="AC31" s="256"/>
-      <c r="AD31" s="256"/>
-      <c r="AE31" s="256"/>
-      <c r="AF31" s="256"/>
-      <c r="AG31" s="256"/>
-      <c r="AH31" s="256"/>
-      <c r="AI31" s="256"/>
-      <c r="AJ31" s="256"/>
-      <c r="AK31" s="256"/>
-      <c r="AL31" s="256"/>
-      <c r="AM31" s="257"/>
-      <c r="AN31" s="241"/>
-      <c r="AO31" s="242"/>
-      <c r="AP31" s="242"/>
-      <c r="AQ31" s="242"/>
-      <c r="AR31" s="243"/>
-      <c r="AS31" s="241"/>
-      <c r="AT31" s="242"/>
-      <c r="AU31" s="242"/>
-      <c r="AV31" s="242"/>
-      <c r="AW31" s="243"/>
+      <c r="B31" s="260"/>
+      <c r="C31" s="261"/>
+      <c r="D31" s="262"/>
+      <c r="E31" s="252"/>
+      <c r="F31" s="252"/>
+      <c r="G31" s="252"/>
+      <c r="H31" s="252"/>
+      <c r="I31" s="252"/>
+      <c r="J31" s="253"/>
+      <c r="K31" s="254"/>
+      <c r="L31" s="255"/>
+      <c r="M31" s="274"/>
+      <c r="N31" s="264"/>
+      <c r="O31" s="264"/>
+      <c r="P31" s="264"/>
+      <c r="Q31" s="264"/>
+      <c r="R31" s="265"/>
+      <c r="S31" s="250"/>
+      <c r="T31" s="250"/>
+      <c r="U31" s="250"/>
+      <c r="V31" s="266"/>
+      <c r="W31" s="267"/>
+      <c r="X31" s="267"/>
+      <c r="Y31" s="267"/>
+      <c r="Z31" s="267"/>
+      <c r="AA31" s="267"/>
+      <c r="AB31" s="267"/>
+      <c r="AC31" s="267"/>
+      <c r="AD31" s="267"/>
+      <c r="AE31" s="267"/>
+      <c r="AF31" s="267"/>
+      <c r="AG31" s="267"/>
+      <c r="AH31" s="267"/>
+      <c r="AI31" s="267"/>
+      <c r="AJ31" s="267"/>
+      <c r="AK31" s="267"/>
+      <c r="AL31" s="267"/>
+      <c r="AM31" s="268"/>
+      <c r="AN31" s="269"/>
+      <c r="AO31" s="270"/>
+      <c r="AP31" s="270"/>
+      <c r="AQ31" s="270"/>
+      <c r="AR31" s="271"/>
+      <c r="AS31" s="269"/>
+      <c r="AT31" s="270"/>
+      <c r="AU31" s="270"/>
+      <c r="AV31" s="270"/>
+      <c r="AW31" s="271"/>
     </row>
     <row r="32" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A32" s="56"/>
-      <c r="B32" s="244"/>
-      <c r="C32" s="245"/>
-      <c r="D32" s="246"/>
-      <c r="E32" s="247"/>
-      <c r="F32" s="247"/>
-      <c r="G32" s="247"/>
-      <c r="H32" s="247"/>
-      <c r="I32" s="247"/>
-      <c r="J32" s="248"/>
-      <c r="K32" s="249"/>
-      <c r="L32" s="250"/>
-      <c r="M32" s="258"/>
-      <c r="N32" s="259"/>
-      <c r="O32" s="259"/>
-      <c r="P32" s="259"/>
-      <c r="Q32" s="259"/>
-      <c r="R32" s="260"/>
-      <c r="S32" s="254"/>
-      <c r="T32" s="254"/>
-      <c r="U32" s="254"/>
-      <c r="V32" s="255"/>
-      <c r="W32" s="256"/>
-      <c r="X32" s="256"/>
-      <c r="Y32" s="256"/>
-      <c r="Z32" s="256"/>
-      <c r="AA32" s="256"/>
-      <c r="AB32" s="256"/>
-      <c r="AC32" s="256"/>
-      <c r="AD32" s="256"/>
-      <c r="AE32" s="256"/>
-      <c r="AF32" s="256"/>
-      <c r="AG32" s="256"/>
-      <c r="AH32" s="256"/>
-      <c r="AI32" s="256"/>
-      <c r="AJ32" s="256"/>
-      <c r="AK32" s="256"/>
-      <c r="AL32" s="256"/>
-      <c r="AM32" s="257"/>
-      <c r="AN32" s="241"/>
-      <c r="AO32" s="242"/>
-      <c r="AP32" s="242"/>
-      <c r="AQ32" s="242"/>
-      <c r="AR32" s="243"/>
-      <c r="AS32" s="241"/>
-      <c r="AT32" s="242"/>
-      <c r="AU32" s="242"/>
-      <c r="AV32" s="242"/>
-      <c r="AW32" s="243"/>
+      <c r="B32" s="260"/>
+      <c r="C32" s="261"/>
+      <c r="D32" s="262"/>
+      <c r="E32" s="252"/>
+      <c r="F32" s="252"/>
+      <c r="G32" s="252"/>
+      <c r="H32" s="252"/>
+      <c r="I32" s="252"/>
+      <c r="J32" s="253"/>
+      <c r="K32" s="254"/>
+      <c r="L32" s="255"/>
+      <c r="M32" s="274"/>
+      <c r="N32" s="264"/>
+      <c r="O32" s="264"/>
+      <c r="P32" s="264"/>
+      <c r="Q32" s="264"/>
+      <c r="R32" s="265"/>
+      <c r="S32" s="250"/>
+      <c r="T32" s="250"/>
+      <c r="U32" s="250"/>
+      <c r="V32" s="266"/>
+      <c r="W32" s="267"/>
+      <c r="X32" s="267"/>
+      <c r="Y32" s="267"/>
+      <c r="Z32" s="267"/>
+      <c r="AA32" s="267"/>
+      <c r="AB32" s="267"/>
+      <c r="AC32" s="267"/>
+      <c r="AD32" s="267"/>
+      <c r="AE32" s="267"/>
+      <c r="AF32" s="267"/>
+      <c r="AG32" s="267"/>
+      <c r="AH32" s="267"/>
+      <c r="AI32" s="267"/>
+      <c r="AJ32" s="267"/>
+      <c r="AK32" s="267"/>
+      <c r="AL32" s="267"/>
+      <c r="AM32" s="268"/>
+      <c r="AN32" s="269"/>
+      <c r="AO32" s="270"/>
+      <c r="AP32" s="270"/>
+      <c r="AQ32" s="270"/>
+      <c r="AR32" s="271"/>
+      <c r="AS32" s="269"/>
+      <c r="AT32" s="270"/>
+      <c r="AU32" s="270"/>
+      <c r="AV32" s="270"/>
+      <c r="AW32" s="271"/>
     </row>
     <row r="33" spans="2:49" x14ac:dyDescent="0.25">
-      <c r="B33" s="244"/>
-      <c r="C33" s="245"/>
-      <c r="D33" s="246"/>
-      <c r="E33" s="247"/>
-      <c r="F33" s="247"/>
-      <c r="G33" s="247"/>
-      <c r="H33" s="247"/>
-      <c r="I33" s="247"/>
-      <c r="J33" s="248"/>
-      <c r="K33" s="249"/>
-      <c r="L33" s="250"/>
-      <c r="M33" s="258"/>
-      <c r="N33" s="259"/>
-      <c r="O33" s="259"/>
-      <c r="P33" s="259"/>
-      <c r="Q33" s="259"/>
-      <c r="R33" s="260"/>
-      <c r="S33" s="254"/>
-      <c r="T33" s="254"/>
-      <c r="U33" s="254"/>
-      <c r="V33" s="255"/>
-      <c r="W33" s="256"/>
-      <c r="X33" s="256"/>
-      <c r="Y33" s="256"/>
-      <c r="Z33" s="256"/>
-      <c r="AA33" s="256"/>
-      <c r="AB33" s="256"/>
-      <c r="AC33" s="256"/>
-      <c r="AD33" s="256"/>
-      <c r="AE33" s="256"/>
-      <c r="AF33" s="256"/>
-      <c r="AG33" s="256"/>
-      <c r="AH33" s="256"/>
-      <c r="AI33" s="256"/>
-      <c r="AJ33" s="256"/>
-      <c r="AK33" s="256"/>
-      <c r="AL33" s="256"/>
-      <c r="AM33" s="257"/>
-      <c r="AN33" s="241"/>
-      <c r="AO33" s="242"/>
-      <c r="AP33" s="242"/>
-      <c r="AQ33" s="242"/>
-      <c r="AR33" s="243"/>
-      <c r="AS33" s="241"/>
-      <c r="AT33" s="242"/>
-      <c r="AU33" s="242"/>
-      <c r="AV33" s="242"/>
-      <c r="AW33" s="243"/>
+      <c r="B33" s="260"/>
+      <c r="C33" s="261"/>
+      <c r="D33" s="262"/>
+      <c r="E33" s="252"/>
+      <c r="F33" s="252"/>
+      <c r="G33" s="252"/>
+      <c r="H33" s="252"/>
+      <c r="I33" s="252"/>
+      <c r="J33" s="253"/>
+      <c r="K33" s="254"/>
+      <c r="L33" s="255"/>
+      <c r="M33" s="274"/>
+      <c r="N33" s="264"/>
+      <c r="O33" s="264"/>
+      <c r="P33" s="264"/>
+      <c r="Q33" s="264"/>
+      <c r="R33" s="265"/>
+      <c r="S33" s="250"/>
+      <c r="T33" s="250"/>
+      <c r="U33" s="250"/>
+      <c r="V33" s="266"/>
+      <c r="W33" s="267"/>
+      <c r="X33" s="267"/>
+      <c r="Y33" s="267"/>
+      <c r="Z33" s="267"/>
+      <c r="AA33" s="267"/>
+      <c r="AB33" s="267"/>
+      <c r="AC33" s="267"/>
+      <c r="AD33" s="267"/>
+      <c r="AE33" s="267"/>
+      <c r="AF33" s="267"/>
+      <c r="AG33" s="267"/>
+      <c r="AH33" s="267"/>
+      <c r="AI33" s="267"/>
+      <c r="AJ33" s="267"/>
+      <c r="AK33" s="267"/>
+      <c r="AL33" s="267"/>
+      <c r="AM33" s="268"/>
+      <c r="AN33" s="269"/>
+      <c r="AO33" s="270"/>
+      <c r="AP33" s="270"/>
+      <c r="AQ33" s="270"/>
+      <c r="AR33" s="271"/>
+      <c r="AS33" s="269"/>
+      <c r="AT33" s="270"/>
+      <c r="AU33" s="270"/>
+      <c r="AV33" s="270"/>
+      <c r="AW33" s="271"/>
     </row>
     <row r="34" spans="2:49" x14ac:dyDescent="0.25">
-      <c r="B34" s="244"/>
-      <c r="C34" s="245"/>
-      <c r="D34" s="246"/>
-      <c r="E34" s="247"/>
-      <c r="F34" s="247"/>
-      <c r="G34" s="247"/>
-      <c r="H34" s="247"/>
-      <c r="I34" s="247"/>
-      <c r="J34" s="248"/>
-      <c r="K34" s="249"/>
-      <c r="L34" s="250"/>
-      <c r="M34" s="251"/>
-      <c r="N34" s="252"/>
-      <c r="O34" s="252"/>
-      <c r="P34" s="252"/>
-      <c r="Q34" s="252"/>
-      <c r="R34" s="253"/>
-      <c r="S34" s="254"/>
-      <c r="T34" s="254"/>
-      <c r="U34" s="254"/>
-      <c r="V34" s="255"/>
-      <c r="W34" s="256"/>
-      <c r="X34" s="256"/>
-      <c r="Y34" s="256"/>
-      <c r="Z34" s="256"/>
-      <c r="AA34" s="256"/>
-      <c r="AB34" s="256"/>
-      <c r="AC34" s="256"/>
-      <c r="AD34" s="256"/>
-      <c r="AE34" s="256"/>
-      <c r="AF34" s="256"/>
-      <c r="AG34" s="256"/>
-      <c r="AH34" s="256"/>
-      <c r="AI34" s="256"/>
-      <c r="AJ34" s="256"/>
-      <c r="AK34" s="256"/>
-      <c r="AL34" s="256"/>
-      <c r="AM34" s="257"/>
-      <c r="AN34" s="241"/>
-      <c r="AO34" s="242"/>
-      <c r="AP34" s="242"/>
-      <c r="AQ34" s="242"/>
-      <c r="AR34" s="243"/>
-      <c r="AS34" s="241"/>
-      <c r="AT34" s="242"/>
-      <c r="AU34" s="242"/>
-      <c r="AV34" s="242"/>
-      <c r="AW34" s="243"/>
+      <c r="B34" s="260"/>
+      <c r="C34" s="261"/>
+      <c r="D34" s="262"/>
+      <c r="E34" s="252"/>
+      <c r="F34" s="252"/>
+      <c r="G34" s="252"/>
+      <c r="H34" s="252"/>
+      <c r="I34" s="252"/>
+      <c r="J34" s="253"/>
+      <c r="K34" s="254"/>
+      <c r="L34" s="255"/>
+      <c r="M34" s="278"/>
+      <c r="N34" s="279"/>
+      <c r="O34" s="279"/>
+      <c r="P34" s="279"/>
+      <c r="Q34" s="279"/>
+      <c r="R34" s="280"/>
+      <c r="S34" s="250"/>
+      <c r="T34" s="250"/>
+      <c r="U34" s="250"/>
+      <c r="V34" s="266"/>
+      <c r="W34" s="267"/>
+      <c r="X34" s="267"/>
+      <c r="Y34" s="267"/>
+      <c r="Z34" s="267"/>
+      <c r="AA34" s="267"/>
+      <c r="AB34" s="267"/>
+      <c r="AC34" s="267"/>
+      <c r="AD34" s="267"/>
+      <c r="AE34" s="267"/>
+      <c r="AF34" s="267"/>
+      <c r="AG34" s="267"/>
+      <c r="AH34" s="267"/>
+      <c r="AI34" s="267"/>
+      <c r="AJ34" s="267"/>
+      <c r="AK34" s="267"/>
+      <c r="AL34" s="267"/>
+      <c r="AM34" s="268"/>
+      <c r="AN34" s="269"/>
+      <c r="AO34" s="270"/>
+      <c r="AP34" s="270"/>
+      <c r="AQ34" s="270"/>
+      <c r="AR34" s="271"/>
+      <c r="AS34" s="269"/>
+      <c r="AT34" s="270"/>
+      <c r="AU34" s="270"/>
+      <c r="AV34" s="270"/>
+      <c r="AW34" s="271"/>
     </row>
   </sheetData>
   <mergeCells count="249">
-    <mergeCell ref="B1:AW2"/>
-    <mergeCell ref="B3:D4"/>
-    <mergeCell ref="E3:I4"/>
-    <mergeCell ref="J3:L4"/>
-    <mergeCell ref="M3:R4"/>
-    <mergeCell ref="S3:U4"/>
-    <mergeCell ref="V3:AM4"/>
-    <mergeCell ref="AN3:AR4"/>
-    <mergeCell ref="AS3:AW4"/>
+    <mergeCell ref="AN33:AR33"/>
+    <mergeCell ref="AS33:AW33"/>
+    <mergeCell ref="B34:D34"/>
+    <mergeCell ref="E34:I34"/>
+    <mergeCell ref="J34:L34"/>
+    <mergeCell ref="M34:R34"/>
+    <mergeCell ref="S34:U34"/>
+    <mergeCell ref="V34:AM34"/>
+    <mergeCell ref="AN34:AR34"/>
+    <mergeCell ref="AS34:AW34"/>
+    <mergeCell ref="B33:D33"/>
+    <mergeCell ref="E33:I33"/>
+    <mergeCell ref="J33:L33"/>
+    <mergeCell ref="M33:R33"/>
+    <mergeCell ref="S33:U33"/>
+    <mergeCell ref="V33:AM33"/>
+    <mergeCell ref="AN31:AR31"/>
+    <mergeCell ref="AS31:AW31"/>
+    <mergeCell ref="B32:D32"/>
+    <mergeCell ref="E32:I32"/>
+    <mergeCell ref="J32:L32"/>
+    <mergeCell ref="M32:R32"/>
+    <mergeCell ref="S32:U32"/>
+    <mergeCell ref="V32:AM32"/>
+    <mergeCell ref="AN32:AR32"/>
+    <mergeCell ref="AS32:AW32"/>
+    <mergeCell ref="B31:D31"/>
+    <mergeCell ref="E31:I31"/>
+    <mergeCell ref="J31:L31"/>
+    <mergeCell ref="M31:R31"/>
+    <mergeCell ref="S31:U31"/>
+    <mergeCell ref="V31:AM31"/>
+    <mergeCell ref="AN29:AR29"/>
+    <mergeCell ref="AS29:AW29"/>
+    <mergeCell ref="B30:D30"/>
+    <mergeCell ref="E30:I30"/>
+    <mergeCell ref="J30:L30"/>
+    <mergeCell ref="M30:R30"/>
+    <mergeCell ref="S30:U30"/>
+    <mergeCell ref="V30:AM30"/>
+    <mergeCell ref="AN30:AR30"/>
+    <mergeCell ref="AS30:AW30"/>
+    <mergeCell ref="B29:D29"/>
+    <mergeCell ref="E29:I29"/>
+    <mergeCell ref="J29:L29"/>
+    <mergeCell ref="M29:R29"/>
+    <mergeCell ref="S29:U29"/>
+    <mergeCell ref="V29:AM29"/>
+    <mergeCell ref="AN27:AR27"/>
+    <mergeCell ref="AS27:AW27"/>
+    <mergeCell ref="B28:D28"/>
+    <mergeCell ref="E28:I28"/>
+    <mergeCell ref="J28:L28"/>
+    <mergeCell ref="M28:R28"/>
+    <mergeCell ref="S28:U28"/>
+    <mergeCell ref="V28:AM28"/>
+    <mergeCell ref="AN28:AR28"/>
+    <mergeCell ref="AS28:AW28"/>
+    <mergeCell ref="B27:D27"/>
+    <mergeCell ref="E27:I27"/>
+    <mergeCell ref="J27:L27"/>
+    <mergeCell ref="M27:R27"/>
+    <mergeCell ref="S27:U27"/>
+    <mergeCell ref="V27:AM27"/>
+    <mergeCell ref="AN25:AR25"/>
+    <mergeCell ref="AS25:AW25"/>
+    <mergeCell ref="B26:D26"/>
+    <mergeCell ref="E26:I26"/>
+    <mergeCell ref="J26:L26"/>
+    <mergeCell ref="M26:R26"/>
+    <mergeCell ref="S26:U26"/>
+    <mergeCell ref="V26:AM26"/>
+    <mergeCell ref="AN26:AR26"/>
+    <mergeCell ref="AS26:AW26"/>
+    <mergeCell ref="B25:D25"/>
+    <mergeCell ref="E25:I25"/>
+    <mergeCell ref="J25:L25"/>
+    <mergeCell ref="M25:R25"/>
+    <mergeCell ref="S25:U25"/>
+    <mergeCell ref="V25:AM25"/>
+    <mergeCell ref="AN23:AR23"/>
+    <mergeCell ref="AS23:AW23"/>
+    <mergeCell ref="B24:D24"/>
+    <mergeCell ref="E24:I24"/>
+    <mergeCell ref="J24:L24"/>
+    <mergeCell ref="M24:R24"/>
+    <mergeCell ref="S24:U24"/>
+    <mergeCell ref="V24:AM24"/>
+    <mergeCell ref="AN24:AR24"/>
+    <mergeCell ref="AS24:AW24"/>
+    <mergeCell ref="B23:D23"/>
+    <mergeCell ref="E23:I23"/>
+    <mergeCell ref="J23:L23"/>
+    <mergeCell ref="M23:R23"/>
+    <mergeCell ref="S23:U23"/>
+    <mergeCell ref="V23:AM23"/>
+    <mergeCell ref="AN21:AR21"/>
+    <mergeCell ref="AS21:AW21"/>
+    <mergeCell ref="B22:D22"/>
+    <mergeCell ref="E22:I22"/>
+    <mergeCell ref="J22:L22"/>
+    <mergeCell ref="M22:R22"/>
+    <mergeCell ref="S22:U22"/>
+    <mergeCell ref="V22:AM22"/>
+    <mergeCell ref="AN22:AR22"/>
+    <mergeCell ref="AS22:AW22"/>
+    <mergeCell ref="B21:D21"/>
+    <mergeCell ref="E21:I21"/>
+    <mergeCell ref="J21:L21"/>
+    <mergeCell ref="M21:R21"/>
+    <mergeCell ref="S21:U21"/>
+    <mergeCell ref="V21:AM21"/>
+    <mergeCell ref="AN19:AR19"/>
+    <mergeCell ref="AS19:AW19"/>
+    <mergeCell ref="B20:D20"/>
+    <mergeCell ref="E20:I20"/>
+    <mergeCell ref="J20:L20"/>
+    <mergeCell ref="M20:R20"/>
+    <mergeCell ref="S20:U20"/>
+    <mergeCell ref="V20:AM20"/>
+    <mergeCell ref="AN20:AR20"/>
+    <mergeCell ref="AS20:AW20"/>
+    <mergeCell ref="B19:D19"/>
+    <mergeCell ref="E19:I19"/>
+    <mergeCell ref="J19:L19"/>
+    <mergeCell ref="M19:R19"/>
+    <mergeCell ref="S19:U19"/>
+    <mergeCell ref="V19:AM19"/>
+    <mergeCell ref="AN17:AR17"/>
+    <mergeCell ref="AS17:AW17"/>
+    <mergeCell ref="B18:D18"/>
+    <mergeCell ref="E18:I18"/>
+    <mergeCell ref="J18:L18"/>
+    <mergeCell ref="M18:R18"/>
+    <mergeCell ref="S18:U18"/>
+    <mergeCell ref="V18:AM18"/>
+    <mergeCell ref="AN18:AR18"/>
+    <mergeCell ref="AS18:AW18"/>
+    <mergeCell ref="B17:D17"/>
+    <mergeCell ref="E17:I17"/>
+    <mergeCell ref="J17:L17"/>
+    <mergeCell ref="M17:R17"/>
+    <mergeCell ref="S17:U17"/>
+    <mergeCell ref="V17:AM17"/>
+    <mergeCell ref="AN15:AR15"/>
+    <mergeCell ref="AS15:AW15"/>
+    <mergeCell ref="B16:D16"/>
+    <mergeCell ref="E16:I16"/>
+    <mergeCell ref="J16:L16"/>
+    <mergeCell ref="M16:R16"/>
+    <mergeCell ref="S16:U16"/>
+    <mergeCell ref="V16:AM16"/>
+    <mergeCell ref="AN16:AR16"/>
+    <mergeCell ref="AS16:AW16"/>
+    <mergeCell ref="B15:D15"/>
+    <mergeCell ref="E15:I15"/>
+    <mergeCell ref="J15:L15"/>
+    <mergeCell ref="M15:R15"/>
+    <mergeCell ref="S15:U15"/>
+    <mergeCell ref="V15:AM15"/>
+    <mergeCell ref="AN13:AR13"/>
+    <mergeCell ref="AS13:AW13"/>
+    <mergeCell ref="B14:D14"/>
+    <mergeCell ref="E14:I14"/>
+    <mergeCell ref="J14:L14"/>
+    <mergeCell ref="M14:R14"/>
+    <mergeCell ref="S14:U14"/>
+    <mergeCell ref="V14:AM14"/>
+    <mergeCell ref="AN14:AR14"/>
+    <mergeCell ref="AS14:AW14"/>
+    <mergeCell ref="B13:D13"/>
+    <mergeCell ref="E13:I13"/>
+    <mergeCell ref="J13:L13"/>
+    <mergeCell ref="M13:R13"/>
+    <mergeCell ref="S13:U13"/>
+    <mergeCell ref="V13:AM13"/>
+    <mergeCell ref="AN11:AR11"/>
+    <mergeCell ref="AS11:AW11"/>
+    <mergeCell ref="B12:D12"/>
+    <mergeCell ref="E12:I12"/>
+    <mergeCell ref="J12:L12"/>
+    <mergeCell ref="M12:R12"/>
+    <mergeCell ref="S12:U12"/>
+    <mergeCell ref="V12:AM12"/>
+    <mergeCell ref="AN12:AR12"/>
+    <mergeCell ref="AS12:AW12"/>
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="E11:I11"/>
+    <mergeCell ref="J11:L11"/>
+    <mergeCell ref="M11:R11"/>
+    <mergeCell ref="S11:U11"/>
+    <mergeCell ref="V11:AM11"/>
+    <mergeCell ref="AN9:AR9"/>
+    <mergeCell ref="AS9:AW9"/>
+    <mergeCell ref="B10:D10"/>
+    <mergeCell ref="E10:I10"/>
+    <mergeCell ref="J10:L10"/>
+    <mergeCell ref="M10:R10"/>
+    <mergeCell ref="S10:U10"/>
+    <mergeCell ref="V10:AM10"/>
+    <mergeCell ref="AN10:AR10"/>
+    <mergeCell ref="AS10:AW10"/>
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="E9:I9"/>
+    <mergeCell ref="J9:L9"/>
+    <mergeCell ref="M9:R9"/>
+    <mergeCell ref="S9:U9"/>
+    <mergeCell ref="V9:AM9"/>
+    <mergeCell ref="AN7:AR7"/>
+    <mergeCell ref="AS7:AW7"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="E8:I8"/>
+    <mergeCell ref="J8:L8"/>
+    <mergeCell ref="M8:R8"/>
+    <mergeCell ref="S8:U8"/>
+    <mergeCell ref="V8:AM8"/>
+    <mergeCell ref="AN8:AR8"/>
+    <mergeCell ref="AS8:AW8"/>
+    <mergeCell ref="B7:D7"/>
+    <mergeCell ref="E7:I7"/>
+    <mergeCell ref="J7:L7"/>
+    <mergeCell ref="M7:R7"/>
+    <mergeCell ref="S7:U7"/>
+    <mergeCell ref="V7:AM7"/>
     <mergeCell ref="AN5:AR5"/>
     <mergeCell ref="AS5:AW5"/>
     <mergeCell ref="B6:D6"/>
@@ -10121,230 +10336,15 @@
     <mergeCell ref="M5:R5"/>
     <mergeCell ref="S5:U5"/>
     <mergeCell ref="V5:AM5"/>
-    <mergeCell ref="AN7:AR7"/>
-    <mergeCell ref="AS7:AW7"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="E8:I8"/>
-    <mergeCell ref="J8:L8"/>
-    <mergeCell ref="M8:R8"/>
-    <mergeCell ref="S8:U8"/>
-    <mergeCell ref="V8:AM8"/>
-    <mergeCell ref="AN8:AR8"/>
-    <mergeCell ref="AS8:AW8"/>
-    <mergeCell ref="B7:D7"/>
-    <mergeCell ref="E7:I7"/>
-    <mergeCell ref="J7:L7"/>
-    <mergeCell ref="M7:R7"/>
-    <mergeCell ref="S7:U7"/>
-    <mergeCell ref="V7:AM7"/>
-    <mergeCell ref="AN9:AR9"/>
-    <mergeCell ref="AS9:AW9"/>
-    <mergeCell ref="B10:D10"/>
-    <mergeCell ref="E10:I10"/>
-    <mergeCell ref="J10:L10"/>
-    <mergeCell ref="M10:R10"/>
-    <mergeCell ref="S10:U10"/>
-    <mergeCell ref="V10:AM10"/>
-    <mergeCell ref="AN10:AR10"/>
-    <mergeCell ref="AS10:AW10"/>
-    <mergeCell ref="B9:D9"/>
-    <mergeCell ref="E9:I9"/>
-    <mergeCell ref="J9:L9"/>
-    <mergeCell ref="M9:R9"/>
-    <mergeCell ref="S9:U9"/>
-    <mergeCell ref="V9:AM9"/>
-    <mergeCell ref="AN11:AR11"/>
-    <mergeCell ref="AS11:AW11"/>
-    <mergeCell ref="B12:D12"/>
-    <mergeCell ref="E12:I12"/>
-    <mergeCell ref="J12:L12"/>
-    <mergeCell ref="M12:R12"/>
-    <mergeCell ref="S12:U12"/>
-    <mergeCell ref="V12:AM12"/>
-    <mergeCell ref="AN12:AR12"/>
-    <mergeCell ref="AS12:AW12"/>
-    <mergeCell ref="B11:D11"/>
-    <mergeCell ref="E11:I11"/>
-    <mergeCell ref="J11:L11"/>
-    <mergeCell ref="M11:R11"/>
-    <mergeCell ref="S11:U11"/>
-    <mergeCell ref="V11:AM11"/>
-    <mergeCell ref="AN13:AR13"/>
-    <mergeCell ref="AS13:AW13"/>
-    <mergeCell ref="B14:D14"/>
-    <mergeCell ref="E14:I14"/>
-    <mergeCell ref="J14:L14"/>
-    <mergeCell ref="M14:R14"/>
-    <mergeCell ref="S14:U14"/>
-    <mergeCell ref="V14:AM14"/>
-    <mergeCell ref="AN14:AR14"/>
-    <mergeCell ref="AS14:AW14"/>
-    <mergeCell ref="B13:D13"/>
-    <mergeCell ref="E13:I13"/>
-    <mergeCell ref="J13:L13"/>
-    <mergeCell ref="M13:R13"/>
-    <mergeCell ref="S13:U13"/>
-    <mergeCell ref="V13:AM13"/>
-    <mergeCell ref="AN15:AR15"/>
-    <mergeCell ref="AS15:AW15"/>
-    <mergeCell ref="B16:D16"/>
-    <mergeCell ref="E16:I16"/>
-    <mergeCell ref="J16:L16"/>
-    <mergeCell ref="M16:R16"/>
-    <mergeCell ref="S16:U16"/>
-    <mergeCell ref="V16:AM16"/>
-    <mergeCell ref="AN16:AR16"/>
-    <mergeCell ref="AS16:AW16"/>
-    <mergeCell ref="B15:D15"/>
-    <mergeCell ref="E15:I15"/>
-    <mergeCell ref="J15:L15"/>
-    <mergeCell ref="M15:R15"/>
-    <mergeCell ref="S15:U15"/>
-    <mergeCell ref="V15:AM15"/>
-    <mergeCell ref="AN17:AR17"/>
-    <mergeCell ref="AS17:AW17"/>
-    <mergeCell ref="B18:D18"/>
-    <mergeCell ref="E18:I18"/>
-    <mergeCell ref="J18:L18"/>
-    <mergeCell ref="M18:R18"/>
-    <mergeCell ref="S18:U18"/>
-    <mergeCell ref="V18:AM18"/>
-    <mergeCell ref="AN18:AR18"/>
-    <mergeCell ref="AS18:AW18"/>
-    <mergeCell ref="B17:D17"/>
-    <mergeCell ref="E17:I17"/>
-    <mergeCell ref="J17:L17"/>
-    <mergeCell ref="M17:R17"/>
-    <mergeCell ref="S17:U17"/>
-    <mergeCell ref="V17:AM17"/>
-    <mergeCell ref="AN19:AR19"/>
-    <mergeCell ref="AS19:AW19"/>
-    <mergeCell ref="B20:D20"/>
-    <mergeCell ref="E20:I20"/>
-    <mergeCell ref="J20:L20"/>
-    <mergeCell ref="M20:R20"/>
-    <mergeCell ref="S20:U20"/>
-    <mergeCell ref="V20:AM20"/>
-    <mergeCell ref="AN20:AR20"/>
-    <mergeCell ref="AS20:AW20"/>
-    <mergeCell ref="B19:D19"/>
-    <mergeCell ref="E19:I19"/>
-    <mergeCell ref="J19:L19"/>
-    <mergeCell ref="M19:R19"/>
-    <mergeCell ref="S19:U19"/>
-    <mergeCell ref="V19:AM19"/>
-    <mergeCell ref="AN21:AR21"/>
-    <mergeCell ref="AS21:AW21"/>
-    <mergeCell ref="B22:D22"/>
-    <mergeCell ref="E22:I22"/>
-    <mergeCell ref="J22:L22"/>
-    <mergeCell ref="M22:R22"/>
-    <mergeCell ref="S22:U22"/>
-    <mergeCell ref="V22:AM22"/>
-    <mergeCell ref="AN22:AR22"/>
-    <mergeCell ref="AS22:AW22"/>
-    <mergeCell ref="B21:D21"/>
-    <mergeCell ref="E21:I21"/>
-    <mergeCell ref="J21:L21"/>
-    <mergeCell ref="M21:R21"/>
-    <mergeCell ref="S21:U21"/>
-    <mergeCell ref="V21:AM21"/>
-    <mergeCell ref="AN23:AR23"/>
-    <mergeCell ref="AS23:AW23"/>
-    <mergeCell ref="B24:D24"/>
-    <mergeCell ref="E24:I24"/>
-    <mergeCell ref="J24:L24"/>
-    <mergeCell ref="M24:R24"/>
-    <mergeCell ref="S24:U24"/>
-    <mergeCell ref="V24:AM24"/>
-    <mergeCell ref="AN24:AR24"/>
-    <mergeCell ref="AS24:AW24"/>
-    <mergeCell ref="B23:D23"/>
-    <mergeCell ref="E23:I23"/>
-    <mergeCell ref="J23:L23"/>
-    <mergeCell ref="M23:R23"/>
-    <mergeCell ref="S23:U23"/>
-    <mergeCell ref="V23:AM23"/>
-    <mergeCell ref="AN25:AR25"/>
-    <mergeCell ref="AS25:AW25"/>
-    <mergeCell ref="B26:D26"/>
-    <mergeCell ref="E26:I26"/>
-    <mergeCell ref="J26:L26"/>
-    <mergeCell ref="M26:R26"/>
-    <mergeCell ref="S26:U26"/>
-    <mergeCell ref="V26:AM26"/>
-    <mergeCell ref="AN26:AR26"/>
-    <mergeCell ref="AS26:AW26"/>
-    <mergeCell ref="B25:D25"/>
-    <mergeCell ref="E25:I25"/>
-    <mergeCell ref="J25:L25"/>
-    <mergeCell ref="M25:R25"/>
-    <mergeCell ref="S25:U25"/>
-    <mergeCell ref="V25:AM25"/>
-    <mergeCell ref="AN27:AR27"/>
-    <mergeCell ref="AS27:AW27"/>
-    <mergeCell ref="B28:D28"/>
-    <mergeCell ref="E28:I28"/>
-    <mergeCell ref="J28:L28"/>
-    <mergeCell ref="M28:R28"/>
-    <mergeCell ref="S28:U28"/>
-    <mergeCell ref="V28:AM28"/>
-    <mergeCell ref="AN28:AR28"/>
-    <mergeCell ref="AS28:AW28"/>
-    <mergeCell ref="B27:D27"/>
-    <mergeCell ref="E27:I27"/>
-    <mergeCell ref="J27:L27"/>
-    <mergeCell ref="M27:R27"/>
-    <mergeCell ref="S27:U27"/>
-    <mergeCell ref="V27:AM27"/>
-    <mergeCell ref="AN29:AR29"/>
-    <mergeCell ref="AS29:AW29"/>
-    <mergeCell ref="B30:D30"/>
-    <mergeCell ref="E30:I30"/>
-    <mergeCell ref="J30:L30"/>
-    <mergeCell ref="M30:R30"/>
-    <mergeCell ref="S30:U30"/>
-    <mergeCell ref="V30:AM30"/>
-    <mergeCell ref="AN30:AR30"/>
-    <mergeCell ref="AS30:AW30"/>
-    <mergeCell ref="B29:D29"/>
-    <mergeCell ref="E29:I29"/>
-    <mergeCell ref="J29:L29"/>
-    <mergeCell ref="M29:R29"/>
-    <mergeCell ref="S29:U29"/>
-    <mergeCell ref="V29:AM29"/>
-    <mergeCell ref="AN31:AR31"/>
-    <mergeCell ref="AS31:AW31"/>
-    <mergeCell ref="B32:D32"/>
-    <mergeCell ref="E32:I32"/>
-    <mergeCell ref="J32:L32"/>
-    <mergeCell ref="M32:R32"/>
-    <mergeCell ref="S32:U32"/>
-    <mergeCell ref="V32:AM32"/>
-    <mergeCell ref="AN32:AR32"/>
-    <mergeCell ref="AS32:AW32"/>
-    <mergeCell ref="B31:D31"/>
-    <mergeCell ref="E31:I31"/>
-    <mergeCell ref="J31:L31"/>
-    <mergeCell ref="M31:R31"/>
-    <mergeCell ref="S31:U31"/>
-    <mergeCell ref="V31:AM31"/>
-    <mergeCell ref="AN33:AR33"/>
-    <mergeCell ref="AS33:AW33"/>
-    <mergeCell ref="B34:D34"/>
-    <mergeCell ref="E34:I34"/>
-    <mergeCell ref="J34:L34"/>
-    <mergeCell ref="M34:R34"/>
-    <mergeCell ref="S34:U34"/>
-    <mergeCell ref="V34:AM34"/>
-    <mergeCell ref="AN34:AR34"/>
-    <mergeCell ref="AS34:AW34"/>
-    <mergeCell ref="B33:D33"/>
-    <mergeCell ref="E33:I33"/>
-    <mergeCell ref="J33:L33"/>
-    <mergeCell ref="M33:R33"/>
-    <mergeCell ref="S33:U33"/>
-    <mergeCell ref="V33:AM33"/>
+    <mergeCell ref="B1:AW2"/>
+    <mergeCell ref="B3:D4"/>
+    <mergeCell ref="E3:I4"/>
+    <mergeCell ref="J3:L4"/>
+    <mergeCell ref="M3:R4"/>
+    <mergeCell ref="S3:U4"/>
+    <mergeCell ref="V3:AM4"/>
+    <mergeCell ref="AN3:AR4"/>
+    <mergeCell ref="AS3:AW4"/>
   </mergeCells>
   <phoneticPr fontId="4"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -13222,20 +13222,34 @@
     </row>
   </sheetData>
   <mergeCells count="58">
-    <mergeCell ref="B60:C60"/>
-    <mergeCell ref="AE60:AF60"/>
-    <mergeCell ref="B58:C58"/>
-    <mergeCell ref="AK58:AL58"/>
-    <mergeCell ref="B59:C59"/>
-    <mergeCell ref="AE59:AF59"/>
-    <mergeCell ref="AG59:AH59"/>
-    <mergeCell ref="AI59:AJ59"/>
-    <mergeCell ref="AK59:AL59"/>
-    <mergeCell ref="AK55:AL55"/>
-    <mergeCell ref="AI55:AJ55"/>
-    <mergeCell ref="AG60:AH60"/>
-    <mergeCell ref="AI60:AJ60"/>
-    <mergeCell ref="AK60:AL60"/>
+    <mergeCell ref="B61:C61"/>
+    <mergeCell ref="AE61:AF61"/>
+    <mergeCell ref="AG61:AH61"/>
+    <mergeCell ref="AI61:AJ61"/>
+    <mergeCell ref="AK61:AL61"/>
+    <mergeCell ref="AO2:AS2"/>
+    <mergeCell ref="AZ2:BG2"/>
+    <mergeCell ref="B50:C50"/>
+    <mergeCell ref="B52:C52"/>
+    <mergeCell ref="B53:C53"/>
+    <mergeCell ref="AG51:AH51"/>
+    <mergeCell ref="AK51:AL51"/>
+    <mergeCell ref="AE51:AF51"/>
+    <mergeCell ref="B51:C51"/>
+    <mergeCell ref="AI51:AJ51"/>
+    <mergeCell ref="AI52:AJ52"/>
+    <mergeCell ref="AK52:AL52"/>
+    <mergeCell ref="AK53:AL53"/>
+    <mergeCell ref="AI53:AJ53"/>
+    <mergeCell ref="AE52:AF52"/>
+    <mergeCell ref="AE53:AF53"/>
+    <mergeCell ref="AG53:AH53"/>
+    <mergeCell ref="AG54:AH54"/>
+    <mergeCell ref="AG52:AH52"/>
+    <mergeCell ref="AI57:AJ57"/>
+    <mergeCell ref="AG58:AH58"/>
+    <mergeCell ref="AI58:AJ58"/>
+    <mergeCell ref="AG55:AH55"/>
     <mergeCell ref="B54:C54"/>
     <mergeCell ref="AI54:AJ54"/>
     <mergeCell ref="AE58:AF58"/>
@@ -13252,34 +13266,20 @@
     <mergeCell ref="AE54:AF54"/>
     <mergeCell ref="B55:C55"/>
     <mergeCell ref="AE55:AF55"/>
-    <mergeCell ref="AG53:AH53"/>
-    <mergeCell ref="AG54:AH54"/>
-    <mergeCell ref="AG52:AH52"/>
-    <mergeCell ref="AI57:AJ57"/>
-    <mergeCell ref="AG58:AH58"/>
-    <mergeCell ref="AI58:AJ58"/>
-    <mergeCell ref="AG55:AH55"/>
-    <mergeCell ref="AO2:AS2"/>
-    <mergeCell ref="AZ2:BG2"/>
-    <mergeCell ref="B50:C50"/>
-    <mergeCell ref="B52:C52"/>
-    <mergeCell ref="B53:C53"/>
-    <mergeCell ref="AG51:AH51"/>
-    <mergeCell ref="AK51:AL51"/>
-    <mergeCell ref="AE51:AF51"/>
-    <mergeCell ref="B51:C51"/>
-    <mergeCell ref="AI51:AJ51"/>
-    <mergeCell ref="AI52:AJ52"/>
-    <mergeCell ref="AK52:AL52"/>
-    <mergeCell ref="AK53:AL53"/>
-    <mergeCell ref="AI53:AJ53"/>
-    <mergeCell ref="AE52:AF52"/>
-    <mergeCell ref="AE53:AF53"/>
-    <mergeCell ref="B61:C61"/>
-    <mergeCell ref="AE61:AF61"/>
-    <mergeCell ref="AG61:AH61"/>
-    <mergeCell ref="AI61:AJ61"/>
-    <mergeCell ref="AK61:AL61"/>
+    <mergeCell ref="AK55:AL55"/>
+    <mergeCell ref="AI55:AJ55"/>
+    <mergeCell ref="AG60:AH60"/>
+    <mergeCell ref="AI60:AJ60"/>
+    <mergeCell ref="AK60:AL60"/>
+    <mergeCell ref="B60:C60"/>
+    <mergeCell ref="AE60:AF60"/>
+    <mergeCell ref="B58:C58"/>
+    <mergeCell ref="AK58:AL58"/>
+    <mergeCell ref="B59:C59"/>
+    <mergeCell ref="AE59:AF59"/>
+    <mergeCell ref="AG59:AH59"/>
+    <mergeCell ref="AI59:AJ59"/>
+    <mergeCell ref="AK59:AL59"/>
   </mergeCells>
   <phoneticPr fontId="4"/>
   <printOptions horizontalCentered="1"/>
@@ -13773,22 +13773,22 @@
     <row r="6" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="15"/>
       <c r="B6" s="15"/>
-      <c r="C6" s="274" t="s">
+      <c r="C6" s="243" t="s">
         <v>27</v>
       </c>
-      <c r="D6" s="274" t="s">
+      <c r="D6" s="243" t="s">
         <v>60</v>
       </c>
-      <c r="E6" s="274" t="s">
+      <c r="E6" s="243" t="s">
         <v>44</v>
       </c>
-      <c r="F6" s="274" t="s">
+      <c r="F6" s="243" t="s">
         <v>45</v>
       </c>
-      <c r="G6" s="274" t="s">
+      <c r="G6" s="243" t="s">
         <v>28</v>
       </c>
-      <c r="H6" s="274" t="s">
+      <c r="H6" s="243" t="s">
         <v>29</v>
       </c>
       <c r="I6" s="302" t="s">
@@ -13797,13 +13797,13 @@
       <c r="J6" s="302" t="s">
         <v>51</v>
       </c>
-      <c r="K6" s="274" t="s">
+      <c r="K6" s="243" t="s">
         <v>31</v>
       </c>
-      <c r="L6" s="274" t="s">
+      <c r="L6" s="243" t="s">
         <v>30</v>
       </c>
-      <c r="M6" s="274" t="s">
+      <c r="M6" s="243" t="s">
         <v>33</v>
       </c>
       <c r="N6" s="75" t="s">
@@ -13818,17 +13818,17 @@
     <row r="7" spans="1:18" ht="15.75" x14ac:dyDescent="0.15">
       <c r="A7" s="15"/>
       <c r="B7" s="15"/>
-      <c r="C7" s="274"/>
-      <c r="D7" s="274"/>
-      <c r="E7" s="274"/>
-      <c r="F7" s="274"/>
-      <c r="G7" s="274"/>
-      <c r="H7" s="274"/>
+      <c r="C7" s="243"/>
+      <c r="D7" s="243"/>
+      <c r="E7" s="243"/>
+      <c r="F7" s="243"/>
+      <c r="G7" s="243"/>
+      <c r="H7" s="243"/>
       <c r="I7" s="302"/>
       <c r="J7" s="302"/>
-      <c r="K7" s="274"/>
-      <c r="L7" s="274"/>
-      <c r="M7" s="274"/>
+      <c r="K7" s="243"/>
+      <c r="L7" s="243"/>
+      <c r="M7" s="243"/>
       <c r="N7" s="43" t="s">
         <v>83</v>
       </c>
@@ -14039,22 +14039,22 @@
     <row r="14" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="15"/>
       <c r="B14" s="15"/>
-      <c r="C14" s="274" t="s">
+      <c r="C14" s="243" t="s">
         <v>27</v>
       </c>
-      <c r="D14" s="274" t="s">
+      <c r="D14" s="243" t="s">
         <v>60</v>
       </c>
-      <c r="E14" s="274" t="s">
+      <c r="E14" s="243" t="s">
         <v>44</v>
       </c>
-      <c r="F14" s="274" t="s">
+      <c r="F14" s="243" t="s">
         <v>45</v>
       </c>
-      <c r="G14" s="274" t="s">
+      <c r="G14" s="243" t="s">
         <v>28</v>
       </c>
-      <c r="H14" s="274" t="s">
+      <c r="H14" s="243" t="s">
         <v>29</v>
       </c>
       <c r="I14" s="303" t="s">
@@ -14063,13 +14063,13 @@
       <c r="J14" s="302" t="s">
         <v>51</v>
       </c>
-      <c r="K14" s="274" t="s">
+      <c r="K14" s="243" t="s">
         <v>31</v>
       </c>
-      <c r="L14" s="274" t="s">
+      <c r="L14" s="243" t="s">
         <v>30</v>
       </c>
-      <c r="M14" s="274" t="s">
+      <c r="M14" s="243" t="s">
         <v>33</v>
       </c>
       <c r="N14" s="75" t="s">
@@ -14084,17 +14084,17 @@
     <row r="15" spans="1:18" ht="15.75" x14ac:dyDescent="0.15">
       <c r="A15" s="15"/>
       <c r="B15" s="15"/>
-      <c r="C15" s="274"/>
-      <c r="D15" s="274"/>
-      <c r="E15" s="274"/>
-      <c r="F15" s="274"/>
-      <c r="G15" s="274"/>
-      <c r="H15" s="274"/>
+      <c r="C15" s="243"/>
+      <c r="D15" s="243"/>
+      <c r="E15" s="243"/>
+      <c r="F15" s="243"/>
+      <c r="G15" s="243"/>
+      <c r="H15" s="243"/>
       <c r="I15" s="304"/>
       <c r="J15" s="302"/>
-      <c r="K15" s="274"/>
-      <c r="L15" s="274"/>
-      <c r="M15" s="274"/>
+      <c r="K15" s="243"/>
+      <c r="L15" s="243"/>
+      <c r="M15" s="243"/>
       <c r="N15" s="43" t="s">
         <v>83</v>
       </c>
@@ -14368,22 +14368,22 @@
     </row>
     <row r="24" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B24" s="118"/>
-      <c r="C24" s="274" t="s">
+      <c r="C24" s="243" t="s">
         <v>27</v>
       </c>
-      <c r="D24" s="274" t="s">
+      <c r="D24" s="243" t="s">
         <v>60</v>
       </c>
-      <c r="E24" s="274" t="s">
+      <c r="E24" s="243" t="s">
         <v>44</v>
       </c>
-      <c r="F24" s="274" t="s">
+      <c r="F24" s="243" t="s">
         <v>45</v>
       </c>
-      <c r="G24" s="274" t="s">
+      <c r="G24" s="243" t="s">
         <v>28</v>
       </c>
-      <c r="H24" s="274" t="s">
+      <c r="H24" s="243" t="s">
         <v>29</v>
       </c>
       <c r="I24" s="302" t="s">
@@ -14392,13 +14392,13 @@
       <c r="J24" s="302" t="s">
         <v>51</v>
       </c>
-      <c r="K24" s="274" t="s">
+      <c r="K24" s="243" t="s">
         <v>31</v>
       </c>
-      <c r="L24" s="274" t="s">
+      <c r="L24" s="243" t="s">
         <v>30</v>
       </c>
-      <c r="M24" s="274" t="s">
+      <c r="M24" s="243" t="s">
         <v>33</v>
       </c>
       <c r="N24" s="75" t="s">
@@ -14412,17 +14412,17 @@
     </row>
     <row r="25" spans="1:17" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B25" s="118"/>
-      <c r="C25" s="274"/>
-      <c r="D25" s="274"/>
-      <c r="E25" s="274"/>
-      <c r="F25" s="274"/>
-      <c r="G25" s="274"/>
-      <c r="H25" s="274"/>
+      <c r="C25" s="243"/>
+      <c r="D25" s="243"/>
+      <c r="E25" s="243"/>
+      <c r="F25" s="243"/>
+      <c r="G25" s="243"/>
+      <c r="H25" s="243"/>
       <c r="I25" s="302"/>
       <c r="J25" s="302"/>
-      <c r="K25" s="274"/>
-      <c r="L25" s="274"/>
-      <c r="M25" s="274"/>
+      <c r="K25" s="243"/>
+      <c r="L25" s="243"/>
+      <c r="M25" s="243"/>
       <c r="N25" s="115" t="s">
         <v>83</v>
       </c>
@@ -14975,22 +14975,22 @@
     </row>
     <row r="40" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B40" s="118"/>
-      <c r="C40" s="274" t="s">
+      <c r="C40" s="243" t="s">
         <v>27</v>
       </c>
-      <c r="D40" s="274" t="s">
+      <c r="D40" s="243" t="s">
         <v>60</v>
       </c>
-      <c r="E40" s="274" t="s">
+      <c r="E40" s="243" t="s">
         <v>44</v>
       </c>
-      <c r="F40" s="274" t="s">
+      <c r="F40" s="243" t="s">
         <v>45</v>
       </c>
-      <c r="G40" s="274" t="s">
+      <c r="G40" s="243" t="s">
         <v>28</v>
       </c>
-      <c r="H40" s="274" t="s">
+      <c r="H40" s="243" t="s">
         <v>29</v>
       </c>
       <c r="I40" s="302" t="s">
@@ -14999,13 +14999,13 @@
       <c r="J40" s="302" t="s">
         <v>51</v>
       </c>
-      <c r="K40" s="274" t="s">
+      <c r="K40" s="243" t="s">
         <v>31</v>
       </c>
-      <c r="L40" s="274" t="s">
+      <c r="L40" s="243" t="s">
         <v>30</v>
       </c>
-      <c r="M40" s="274" t="s">
+      <c r="M40" s="243" t="s">
         <v>33</v>
       </c>
       <c r="N40" s="75" t="s">
@@ -15019,17 +15019,17 @@
     </row>
     <row r="41" spans="1:17" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B41" s="118"/>
-      <c r="C41" s="274"/>
-      <c r="D41" s="274"/>
-      <c r="E41" s="274"/>
-      <c r="F41" s="274"/>
-      <c r="G41" s="274"/>
-      <c r="H41" s="274"/>
+      <c r="C41" s="243"/>
+      <c r="D41" s="243"/>
+      <c r="E41" s="243"/>
+      <c r="F41" s="243"/>
+      <c r="G41" s="243"/>
+      <c r="H41" s="243"/>
       <c r="I41" s="302"/>
       <c r="J41" s="302"/>
-      <c r="K41" s="274"/>
-      <c r="L41" s="274"/>
-      <c r="M41" s="274"/>
+      <c r="K41" s="243"/>
+      <c r="L41" s="243"/>
+      <c r="M41" s="243"/>
       <c r="N41" s="115" t="s">
         <v>83</v>
       </c>
@@ -15774,22 +15774,22 @@
     </row>
     <row r="60" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B60" s="118"/>
-      <c r="C60" s="274" t="s">
+      <c r="C60" s="243" t="s">
         <v>27</v>
       </c>
-      <c r="D60" s="274" t="s">
+      <c r="D60" s="243" t="s">
         <v>60</v>
       </c>
-      <c r="E60" s="274" t="s">
+      <c r="E60" s="243" t="s">
         <v>44</v>
       </c>
-      <c r="F60" s="274" t="s">
+      <c r="F60" s="243" t="s">
         <v>45</v>
       </c>
-      <c r="G60" s="274" t="s">
+      <c r="G60" s="243" t="s">
         <v>28</v>
       </c>
-      <c r="H60" s="274" t="s">
+      <c r="H60" s="243" t="s">
         <v>29</v>
       </c>
       <c r="I60" s="302" t="s">
@@ -15798,13 +15798,13 @@
       <c r="J60" s="302" t="s">
         <v>51</v>
       </c>
-      <c r="K60" s="274" t="s">
+      <c r="K60" s="243" t="s">
         <v>31</v>
       </c>
-      <c r="L60" s="274" t="s">
+      <c r="L60" s="243" t="s">
         <v>30</v>
       </c>
-      <c r="M60" s="274" t="s">
+      <c r="M60" s="243" t="s">
         <v>33</v>
       </c>
       <c r="N60" s="75" t="s">
@@ -15818,17 +15818,17 @@
     </row>
     <row r="61" spans="1:17" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B61" s="118"/>
-      <c r="C61" s="274"/>
-      <c r="D61" s="274"/>
-      <c r="E61" s="274"/>
-      <c r="F61" s="274"/>
-      <c r="G61" s="274"/>
-      <c r="H61" s="274"/>
+      <c r="C61" s="243"/>
+      <c r="D61" s="243"/>
+      <c r="E61" s="243"/>
+      <c r="F61" s="243"/>
+      <c r="G61" s="243"/>
+      <c r="H61" s="243"/>
       <c r="I61" s="302"/>
       <c r="J61" s="302"/>
-      <c r="K61" s="274"/>
-      <c r="L61" s="274"/>
-      <c r="M61" s="274"/>
+      <c r="K61" s="243"/>
+      <c r="L61" s="243"/>
+      <c r="M61" s="243"/>
       <c r="N61" s="115" t="s">
         <v>83</v>
       </c>
@@ -16420,26 +16420,38 @@
     </row>
   </sheetData>
   <mergeCells count="60">
-    <mergeCell ref="K14:K15"/>
-    <mergeCell ref="M24:M25"/>
-    <mergeCell ref="Q24:Q25"/>
-    <mergeCell ref="M40:M41"/>
-    <mergeCell ref="Q40:Q41"/>
-    <mergeCell ref="Q6:Q7"/>
-    <mergeCell ref="Q14:Q15"/>
-    <mergeCell ref="M6:M7"/>
-    <mergeCell ref="M14:M15"/>
-    <mergeCell ref="L14:L15"/>
-    <mergeCell ref="J6:J7"/>
-    <mergeCell ref="D6:D7"/>
-    <mergeCell ref="I6:I7"/>
-    <mergeCell ref="L6:L7"/>
-    <mergeCell ref="K6:K7"/>
-    <mergeCell ref="C6:C7"/>
-    <mergeCell ref="E6:E7"/>
-    <mergeCell ref="G6:G7"/>
-    <mergeCell ref="H6:H7"/>
-    <mergeCell ref="F6:F7"/>
+    <mergeCell ref="M60:M61"/>
+    <mergeCell ref="Q60:Q61"/>
+    <mergeCell ref="H60:H61"/>
+    <mergeCell ref="I60:I61"/>
+    <mergeCell ref="J60:J61"/>
+    <mergeCell ref="K60:K61"/>
+    <mergeCell ref="L60:L61"/>
+    <mergeCell ref="C60:C61"/>
+    <mergeCell ref="D60:D61"/>
+    <mergeCell ref="E60:E61"/>
+    <mergeCell ref="F60:F61"/>
+    <mergeCell ref="G60:G61"/>
+    <mergeCell ref="H40:H41"/>
+    <mergeCell ref="I40:I41"/>
+    <mergeCell ref="J40:J41"/>
+    <mergeCell ref="K40:K41"/>
+    <mergeCell ref="L40:L41"/>
+    <mergeCell ref="C40:C41"/>
+    <mergeCell ref="D40:D41"/>
+    <mergeCell ref="E40:E41"/>
+    <mergeCell ref="F40:F41"/>
+    <mergeCell ref="G40:G41"/>
+    <mergeCell ref="H24:H25"/>
+    <mergeCell ref="I24:I25"/>
+    <mergeCell ref="J24:J25"/>
+    <mergeCell ref="K24:K25"/>
+    <mergeCell ref="L24:L25"/>
+    <mergeCell ref="C24:C25"/>
+    <mergeCell ref="D24:D25"/>
+    <mergeCell ref="E24:E25"/>
+    <mergeCell ref="F24:F25"/>
+    <mergeCell ref="G24:G25"/>
     <mergeCell ref="I14:I15"/>
     <mergeCell ref="J14:J15"/>
     <mergeCell ref="C14:C15"/>
@@ -16448,38 +16460,26 @@
     <mergeCell ref="G14:G15"/>
     <mergeCell ref="H14:H15"/>
     <mergeCell ref="D14:D15"/>
-    <mergeCell ref="C24:C25"/>
-    <mergeCell ref="D24:D25"/>
-    <mergeCell ref="E24:E25"/>
-    <mergeCell ref="F24:F25"/>
-    <mergeCell ref="G24:G25"/>
-    <mergeCell ref="H24:H25"/>
-    <mergeCell ref="I24:I25"/>
-    <mergeCell ref="J24:J25"/>
-    <mergeCell ref="K24:K25"/>
-    <mergeCell ref="L24:L25"/>
-    <mergeCell ref="C40:C41"/>
-    <mergeCell ref="D40:D41"/>
-    <mergeCell ref="E40:E41"/>
-    <mergeCell ref="F40:F41"/>
-    <mergeCell ref="G40:G41"/>
-    <mergeCell ref="H40:H41"/>
-    <mergeCell ref="I40:I41"/>
-    <mergeCell ref="J40:J41"/>
-    <mergeCell ref="K40:K41"/>
-    <mergeCell ref="L40:L41"/>
-    <mergeCell ref="C60:C61"/>
-    <mergeCell ref="D60:D61"/>
-    <mergeCell ref="E60:E61"/>
-    <mergeCell ref="F60:F61"/>
-    <mergeCell ref="G60:G61"/>
-    <mergeCell ref="M60:M61"/>
-    <mergeCell ref="Q60:Q61"/>
-    <mergeCell ref="H60:H61"/>
-    <mergeCell ref="I60:I61"/>
-    <mergeCell ref="J60:J61"/>
-    <mergeCell ref="K60:K61"/>
-    <mergeCell ref="L60:L61"/>
+    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="E6:E7"/>
+    <mergeCell ref="G6:G7"/>
+    <mergeCell ref="H6:H7"/>
+    <mergeCell ref="F6:F7"/>
+    <mergeCell ref="J6:J7"/>
+    <mergeCell ref="D6:D7"/>
+    <mergeCell ref="I6:I7"/>
+    <mergeCell ref="L6:L7"/>
+    <mergeCell ref="K6:K7"/>
+    <mergeCell ref="Q6:Q7"/>
+    <mergeCell ref="Q14:Q15"/>
+    <mergeCell ref="M6:M7"/>
+    <mergeCell ref="M14:M15"/>
+    <mergeCell ref="L14:L15"/>
+    <mergeCell ref="K14:K15"/>
+    <mergeCell ref="M24:M25"/>
+    <mergeCell ref="Q24:Q25"/>
+    <mergeCell ref="M40:M41"/>
+    <mergeCell ref="Q40:Q41"/>
   </mergeCells>
   <phoneticPr fontId="4"/>
   <pageMargins left="0.62992125984251968" right="0.62992125984251968" top="0.78740157480314965" bottom="0.78740157480314965" header="0.39370078740157483" footer="0.39370078740157483"/>
@@ -18067,10 +18067,10 @@
       <c r="K32" s="227"/>
       <c r="L32" s="225"/>
       <c r="M32" s="225"/>
-      <c r="N32" s="225" t="s">
+      <c r="N32" s="225"/>
+      <c r="O32" s="225" t="s">
         <v>416</v>
       </c>
-      <c r="O32" s="225"/>
       <c r="P32" s="225"/>
       <c r="Q32" s="225"/>
       <c r="R32" s="225"/>
@@ -18122,10 +18122,10 @@
       <c r="K33" s="227"/>
       <c r="L33" s="225"/>
       <c r="M33" s="225"/>
-      <c r="N33" s="225" t="s">
+      <c r="N33" s="225"/>
+      <c r="O33" s="225" t="s">
         <v>406</v>
       </c>
-      <c r="O33" s="225"/>
       <c r="P33" s="225"/>
       <c r="Q33" s="225"/>
       <c r="R33" s="225"/>
@@ -18177,10 +18177,10 @@
       <c r="K34" s="227"/>
       <c r="L34" s="225"/>
       <c r="M34" s="225"/>
-      <c r="N34" s="225" t="s">
+      <c r="N34" s="225"/>
+      <c r="O34" s="225" t="s">
         <v>417</v>
       </c>
-      <c r="O34" s="225"/>
       <c r="P34" s="225"/>
       <c r="Q34" s="225"/>
       <c r="R34" s="225"/>
@@ -18232,10 +18232,10 @@
       <c r="K35" s="227"/>
       <c r="L35" s="225"/>
       <c r="M35" s="225"/>
-      <c r="N35" s="225" t="s">
+      <c r="N35" s="225"/>
+      <c r="O35" s="225" t="s">
         <v>418</v>
       </c>
-      <c r="O35" s="225"/>
       <c r="P35" s="225"/>
       <c r="Q35" s="225"/>
       <c r="R35" s="225"/>
@@ -18287,10 +18287,10 @@
       <c r="K36" s="227"/>
       <c r="L36" s="225"/>
       <c r="M36" s="225"/>
-      <c r="N36" s="225" t="s">
+      <c r="N36" s="225"/>
+      <c r="O36" s="225" t="s">
         <v>419</v>
       </c>
-      <c r="O36" s="225"/>
       <c r="P36" s="225"/>
       <c r="Q36" s="225"/>
       <c r="R36" s="225"/>
@@ -18342,10 +18342,10 @@
       <c r="K37" s="227"/>
       <c r="L37" s="225"/>
       <c r="M37" s="225"/>
-      <c r="N37" s="225" t="s">
+      <c r="N37" s="225"/>
+      <c r="O37" s="225" t="s">
         <v>420</v>
       </c>
-      <c r="O37" s="225"/>
       <c r="P37" s="225"/>
       <c r="Q37" s="225"/>
       <c r="R37" s="225"/>
@@ -18397,10 +18397,10 @@
       <c r="K38" s="227"/>
       <c r="L38" s="225"/>
       <c r="M38" s="225"/>
-      <c r="N38" s="225" t="s">
+      <c r="N38" s="225"/>
+      <c r="O38" s="225" t="s">
         <v>421</v>
       </c>
-      <c r="O38" s="225"/>
       <c r="P38" s="225"/>
       <c r="Q38" s="225"/>
       <c r="R38" s="225"/>
@@ -18452,10 +18452,10 @@
       <c r="K39" s="227"/>
       <c r="L39" s="225"/>
       <c r="M39" s="225"/>
-      <c r="N39" s="225" t="s">
+      <c r="N39" s="225"/>
+      <c r="O39" s="225" t="s">
         <v>499</v>
       </c>
-      <c r="O39" s="225"/>
       <c r="P39" s="225"/>
       <c r="Q39" s="225"/>
       <c r="R39" s="225"/>
@@ -18558,10 +18558,10 @@
       <c r="K41" s="227"/>
       <c r="L41" s="225"/>
       <c r="M41" s="225"/>
-      <c r="N41" s="225" t="s">
+      <c r="N41" s="225"/>
+      <c r="O41" s="225" t="s">
         <v>405</v>
       </c>
-      <c r="O41" s="225"/>
       <c r="P41" s="225"/>
       <c r="Q41" s="225"/>
       <c r="R41" s="225"/>
@@ -18613,10 +18613,10 @@
       <c r="K42" s="227"/>
       <c r="L42" s="225"/>
       <c r="M42" s="225"/>
-      <c r="N42" s="225" t="s">
+      <c r="N42" s="225"/>
+      <c r="O42" s="225" t="s">
         <v>406</v>
       </c>
-      <c r="O42" s="225"/>
       <c r="P42" s="225"/>
       <c r="Q42" s="225"/>
       <c r="R42" s="225"/>
@@ -18719,10 +18719,10 @@
       <c r="K44" s="227"/>
       <c r="L44" s="225"/>
       <c r="M44" s="225"/>
-      <c r="N44" s="225" t="s">
+      <c r="N44" s="225"/>
+      <c r="O44" s="225" t="s">
         <v>490</v>
       </c>
-      <c r="O44" s="225"/>
       <c r="P44" s="225"/>
       <c r="Q44" s="225"/>
       <c r="R44" s="225"/>
@@ -18774,10 +18774,10 @@
       <c r="K45" s="227"/>
       <c r="L45" s="225"/>
       <c r="M45" s="225"/>
-      <c r="N45" s="225" t="s">
+      <c r="N45" s="225"/>
+      <c r="O45" s="225" t="s">
         <v>418</v>
       </c>
-      <c r="O45" s="225"/>
       <c r="P45" s="225"/>
       <c r="Q45" s="225"/>
       <c r="R45" s="225"/>
@@ -18829,10 +18829,10 @@
       <c r="K46" s="227"/>
       <c r="L46" s="225"/>
       <c r="M46" s="225"/>
-      <c r="N46" s="225" t="s">
+      <c r="N46" s="225"/>
+      <c r="O46" s="225" t="s">
         <v>419</v>
       </c>
-      <c r="O46" s="225"/>
       <c r="P46" s="225"/>
       <c r="Q46" s="225"/>
       <c r="R46" s="225"/>
@@ -18884,10 +18884,10 @@
       <c r="K47" s="227"/>
       <c r="L47" s="225"/>
       <c r="M47" s="225"/>
-      <c r="N47" s="225" t="s">
+      <c r="N47" s="225"/>
+      <c r="O47" s="225" t="s">
         <v>420</v>
       </c>
-      <c r="O47" s="225"/>
       <c r="P47" s="225"/>
       <c r="Q47" s="225"/>
       <c r="R47" s="225"/>
@@ -18939,10 +18939,10 @@
       <c r="K48" s="227"/>
       <c r="L48" s="225"/>
       <c r="M48" s="225"/>
-      <c r="N48" s="225" t="s">
+      <c r="N48" s="225"/>
+      <c r="O48" s="225" t="s">
         <v>421</v>
       </c>
-      <c r="O48" s="225"/>
       <c r="P48" s="225"/>
       <c r="Q48" s="225"/>
       <c r="R48" s="225"/>
@@ -19045,10 +19045,10 @@
       <c r="K50" s="227"/>
       <c r="L50" s="225"/>
       <c r="M50" s="225"/>
-      <c r="N50" s="225" t="s">
+      <c r="N50" s="225"/>
+      <c r="O50" s="225" t="s">
         <v>490</v>
       </c>
-      <c r="O50" s="225"/>
       <c r="P50" s="225"/>
       <c r="Q50" s="225"/>
       <c r="R50" s="225"/>
@@ -19100,10 +19100,10 @@
       <c r="K51" s="227"/>
       <c r="L51" s="225"/>
       <c r="M51" s="225"/>
-      <c r="N51" s="225" t="s">
+      <c r="N51" s="225"/>
+      <c r="O51" s="225" t="s">
         <v>418</v>
       </c>
-      <c r="O51" s="225"/>
       <c r="P51" s="225"/>
       <c r="Q51" s="225"/>
       <c r="R51" s="225"/>
@@ -19155,10 +19155,10 @@
       <c r="K52" s="227"/>
       <c r="L52" s="225"/>
       <c r="M52" s="225"/>
-      <c r="N52" s="225" t="s">
+      <c r="N52" s="225"/>
+      <c r="O52" s="225" t="s">
         <v>419</v>
       </c>
-      <c r="O52" s="225"/>
       <c r="P52" s="225"/>
       <c r="Q52" s="225"/>
       <c r="R52" s="225"/>
@@ -19210,10 +19210,10 @@
       <c r="K53" s="227"/>
       <c r="L53" s="225"/>
       <c r="M53" s="225"/>
-      <c r="N53" s="225" t="s">
+      <c r="N53" s="225"/>
+      <c r="O53" s="225" t="s">
         <v>420</v>
       </c>
-      <c r="O53" s="225"/>
       <c r="P53" s="225"/>
       <c r="Q53" s="225"/>
       <c r="R53" s="225"/>
@@ -19265,10 +19265,10 @@
       <c r="K54" s="227"/>
       <c r="L54" s="225"/>
       <c r="M54" s="225"/>
-      <c r="N54" s="225" t="s">
+      <c r="N54" s="225"/>
+      <c r="O54" s="225" t="s">
         <v>421</v>
       </c>
-      <c r="O54" s="225"/>
       <c r="P54" s="225"/>
       <c r="Q54" s="225"/>
       <c r="R54" s="225"/>
@@ -19371,10 +19371,10 @@
       <c r="K56" s="227"/>
       <c r="L56" s="225"/>
       <c r="M56" s="225"/>
-      <c r="N56" s="225" t="s">
+      <c r="N56" s="225"/>
+      <c r="O56" s="225" t="s">
         <v>498</v>
       </c>
-      <c r="O56" s="225"/>
       <c r="P56" s="225"/>
       <c r="Q56" s="225"/>
       <c r="R56" s="225"/>
@@ -19426,10 +19426,10 @@
       <c r="K57" s="227"/>
       <c r="L57" s="225"/>
       <c r="M57" s="225"/>
-      <c r="N57" s="225" t="s">
+      <c r="N57" s="225"/>
+      <c r="O57" s="225" t="s">
         <v>496</v>
       </c>
-      <c r="O57" s="225"/>
       <c r="P57" s="225"/>
       <c r="Q57" s="225"/>
       <c r="R57" s="225"/>
@@ -19532,10 +19532,10 @@
       <c r="K59" s="227"/>
       <c r="L59" s="225"/>
       <c r="M59" s="225"/>
-      <c r="N59" s="225" t="s">
+      <c r="N59" s="225"/>
+      <c r="O59" s="225" t="s">
         <v>416</v>
       </c>
-      <c r="O59" s="225"/>
       <c r="P59" s="225"/>
       <c r="Q59" s="225"/>
       <c r="R59" s="225"/>
@@ -19587,10 +19587,10 @@
       <c r="K60" s="227"/>
       <c r="L60" s="225"/>
       <c r="M60" s="225"/>
-      <c r="N60" s="225" t="s">
+      <c r="N60" s="225"/>
+      <c r="O60" s="225" t="s">
         <v>406</v>
       </c>
-      <c r="O60" s="225"/>
       <c r="P60" s="225"/>
       <c r="Q60" s="225"/>
       <c r="R60" s="225"/>
@@ -19642,10 +19642,10 @@
       <c r="K61" s="227"/>
       <c r="L61" s="225"/>
       <c r="M61" s="225"/>
-      <c r="N61" s="225" t="s">
+      <c r="N61" s="225"/>
+      <c r="O61" s="225" t="s">
         <v>417</v>
       </c>
-      <c r="O61" s="225"/>
       <c r="P61" s="225"/>
       <c r="Q61" s="225"/>
       <c r="R61" s="225"/>
@@ -19697,10 +19697,10 @@
       <c r="K62" s="227"/>
       <c r="L62" s="225"/>
       <c r="M62" s="225"/>
-      <c r="N62" s="225" t="s">
+      <c r="N62" s="225"/>
+      <c r="O62" s="225" t="s">
         <v>418</v>
       </c>
-      <c r="O62" s="225"/>
       <c r="P62" s="225"/>
       <c r="Q62" s="225"/>
       <c r="R62" s="225"/>
@@ -19752,10 +19752,10 @@
       <c r="K63" s="227"/>
       <c r="L63" s="225"/>
       <c r="M63" s="225"/>
-      <c r="N63" s="225" t="s">
+      <c r="N63" s="225"/>
+      <c r="O63" s="225" t="s">
         <v>419</v>
       </c>
-      <c r="O63" s="225"/>
       <c r="P63" s="225"/>
       <c r="Q63" s="225"/>
       <c r="R63" s="225"/>
@@ -19807,10 +19807,10 @@
       <c r="K64" s="227"/>
       <c r="L64" s="225"/>
       <c r="M64" s="225"/>
-      <c r="N64" s="225" t="s">
+      <c r="N64" s="225"/>
+      <c r="O64" s="225" t="s">
         <v>420</v>
       </c>
-      <c r="O64" s="225"/>
       <c r="P64" s="225"/>
       <c r="Q64" s="225"/>
       <c r="R64" s="225"/>
@@ -19862,10 +19862,10 @@
       <c r="K65" s="227"/>
       <c r="L65" s="225"/>
       <c r="M65" s="225"/>
-      <c r="N65" s="225" t="s">
+      <c r="N65" s="225"/>
+      <c r="O65" s="225" t="s">
         <v>504</v>
       </c>
-      <c r="O65" s="225"/>
       <c r="P65" s="225"/>
       <c r="Q65" s="225"/>
       <c r="R65" s="225"/>
@@ -19917,10 +19917,10 @@
       <c r="K66" s="227"/>
       <c r="L66" s="225"/>
       <c r="M66" s="225"/>
-      <c r="N66" s="225" t="s">
+      <c r="N66" s="225"/>
+      <c r="O66" s="225" t="s">
         <v>505</v>
       </c>
-      <c r="O66" s="225"/>
       <c r="P66" s="225"/>
       <c r="Q66" s="225"/>
       <c r="R66" s="225"/>
@@ -20021,10 +20021,10 @@
       <c r="K68" s="227"/>
       <c r="L68" s="225"/>
       <c r="M68" s="225"/>
-      <c r="N68" s="225" t="s">
+      <c r="N68" s="225"/>
+      <c r="O68" s="225" t="s">
         <v>416</v>
       </c>
-      <c r="O68" s="225"/>
       <c r="P68" s="225"/>
       <c r="Q68" s="225"/>
       <c r="R68" s="225"/>
@@ -20076,10 +20076,10 @@
       <c r="K69" s="227"/>
       <c r="L69" s="225"/>
       <c r="M69" s="225"/>
-      <c r="N69" s="225" t="s">
+      <c r="N69" s="225"/>
+      <c r="O69" s="225" t="s">
         <v>406</v>
       </c>
-      <c r="O69" s="225"/>
       <c r="P69" s="225"/>
       <c r="Q69" s="225"/>
       <c r="R69" s="225"/>
@@ -20131,10 +20131,10 @@
       <c r="K70" s="227"/>
       <c r="L70" s="225"/>
       <c r="M70" s="225"/>
-      <c r="N70" s="225" t="s">
+      <c r="N70" s="225"/>
+      <c r="O70" s="225" t="s">
         <v>417</v>
       </c>
-      <c r="O70" s="225"/>
       <c r="P70" s="225"/>
       <c r="Q70" s="225"/>
       <c r="R70" s="225"/>
@@ -20186,10 +20186,10 @@
       <c r="K71" s="227"/>
       <c r="L71" s="225"/>
       <c r="M71" s="225"/>
-      <c r="N71" s="225" t="s">
+      <c r="N71" s="225"/>
+      <c r="O71" s="225" t="s">
         <v>418</v>
       </c>
-      <c r="O71" s="225"/>
       <c r="P71" s="225"/>
       <c r="Q71" s="225"/>
       <c r="R71" s="225"/>
@@ -20241,10 +20241,10 @@
       <c r="K72" s="227"/>
       <c r="L72" s="225"/>
       <c r="M72" s="225"/>
-      <c r="N72" s="225" t="s">
+      <c r="N72" s="225"/>
+      <c r="O72" s="225" t="s">
         <v>419</v>
       </c>
-      <c r="O72" s="225"/>
       <c r="P72" s="225"/>
       <c r="Q72" s="225"/>
       <c r="R72" s="225"/>
@@ -20296,10 +20296,10 @@
       <c r="K73" s="227"/>
       <c r="L73" s="225"/>
       <c r="M73" s="225"/>
-      <c r="N73" s="225" t="s">
+      <c r="N73" s="225"/>
+      <c r="O73" s="225" t="s">
         <v>420</v>
       </c>
-      <c r="O73" s="225"/>
       <c r="P73" s="225"/>
       <c r="Q73" s="225"/>
       <c r="R73" s="225"/>
@@ -20351,10 +20351,10 @@
       <c r="K74" s="227"/>
       <c r="L74" s="225"/>
       <c r="M74" s="225"/>
-      <c r="N74" s="225" t="s">
+      <c r="N74" s="225"/>
+      <c r="O74" s="225" t="s">
         <v>504</v>
       </c>
-      <c r="O74" s="225"/>
       <c r="P74" s="225"/>
       <c r="Q74" s="225"/>
       <c r="R74" s="225"/>
@@ -20406,10 +20406,10 @@
       <c r="K75" s="227"/>
       <c r="L75" s="225"/>
       <c r="M75" s="225"/>
-      <c r="N75" s="225" t="s">
+      <c r="N75" s="225"/>
+      <c r="O75" s="225" t="s">
         <v>506</v>
       </c>
-      <c r="O75" s="225"/>
       <c r="P75" s="225"/>
       <c r="Q75" s="225"/>
       <c r="R75" s="225"/>
@@ -22588,10 +22588,10 @@
       <c r="K117" s="227"/>
       <c r="L117" s="225"/>
       <c r="M117" s="225"/>
-      <c r="N117" s="225" t="s">
+      <c r="N117" s="225"/>
+      <c r="O117" s="225" t="s">
         <v>416</v>
       </c>
-      <c r="O117" s="225"/>
       <c r="P117" s="225"/>
       <c r="Q117" s="225"/>
       <c r="R117" s="225"/>
@@ -22643,10 +22643,10 @@
       <c r="K118" s="227"/>
       <c r="L118" s="225"/>
       <c r="M118" s="225"/>
-      <c r="N118" s="225" t="s">
+      <c r="N118" s="225"/>
+      <c r="O118" s="225" t="s">
         <v>406</v>
       </c>
-      <c r="O118" s="225"/>
       <c r="P118" s="225"/>
       <c r="Q118" s="225"/>
       <c r="R118" s="225"/>
@@ -22698,10 +22698,10 @@
       <c r="K119" s="227"/>
       <c r="L119" s="225"/>
       <c r="M119" s="225"/>
-      <c r="N119" s="225" t="s">
+      <c r="N119" s="225"/>
+      <c r="O119" s="225" t="s">
         <v>417</v>
       </c>
-      <c r="O119" s="225"/>
       <c r="P119" s="225"/>
       <c r="Q119" s="225"/>
       <c r="R119" s="225"/>
@@ -22753,10 +22753,10 @@
       <c r="K120" s="227"/>
       <c r="L120" s="225"/>
       <c r="M120" s="225"/>
-      <c r="N120" s="225" t="s">
+      <c r="N120" s="225"/>
+      <c r="O120" s="225" t="s">
         <v>418</v>
       </c>
-      <c r="O120" s="225"/>
       <c r="P120" s="225"/>
       <c r="Q120" s="225"/>
       <c r="R120" s="225"/>
@@ -22808,10 +22808,10 @@
       <c r="K121" s="227"/>
       <c r="L121" s="225"/>
       <c r="M121" s="225"/>
-      <c r="N121" s="225" t="s">
+      <c r="N121" s="225"/>
+      <c r="O121" s="225" t="s">
         <v>419</v>
       </c>
-      <c r="O121" s="225"/>
       <c r="P121" s="225"/>
       <c r="Q121" s="225"/>
       <c r="R121" s="225"/>
@@ -22863,10 +22863,10 @@
       <c r="K122" s="227"/>
       <c r="L122" s="225"/>
       <c r="M122" s="225"/>
-      <c r="N122" s="225" t="s">
+      <c r="N122" s="225"/>
+      <c r="O122" s="225" t="s">
         <v>420</v>
       </c>
-      <c r="O122" s="225"/>
       <c r="P122" s="225"/>
       <c r="Q122" s="225"/>
       <c r="R122" s="225"/>
@@ -22918,10 +22918,10 @@
       <c r="K123" s="227"/>
       <c r="L123" s="225"/>
       <c r="M123" s="225"/>
-      <c r="N123" s="225" t="s">
+      <c r="N123" s="225"/>
+      <c r="O123" s="225" t="s">
         <v>421</v>
       </c>
-      <c r="O123" s="225"/>
       <c r="P123" s="225"/>
       <c r="Q123" s="225"/>
       <c r="R123" s="225"/>
@@ -22973,10 +22973,10 @@
       <c r="K124" s="227"/>
       <c r="L124" s="225"/>
       <c r="M124" s="225"/>
-      <c r="N124" s="225" t="s">
+      <c r="N124" s="225"/>
+      <c r="O124" s="225" t="s">
         <v>528</v>
       </c>
-      <c r="O124" s="225"/>
       <c r="P124" s="225"/>
       <c r="Q124" s="225"/>
       <c r="R124" s="225"/>
@@ -23079,10 +23079,10 @@
       <c r="K126" s="227"/>
       <c r="L126" s="225"/>
       <c r="M126" s="225"/>
-      <c r="N126" s="225" t="s">
+      <c r="N126" s="225"/>
+      <c r="O126" s="225" t="s">
         <v>490</v>
       </c>
-      <c r="O126" s="225"/>
       <c r="P126" s="225"/>
       <c r="Q126" s="225"/>
       <c r="R126" s="225"/>
@@ -23134,10 +23134,10 @@
       <c r="K127" s="227"/>
       <c r="L127" s="225"/>
       <c r="M127" s="225"/>
-      <c r="N127" s="225" t="s">
+      <c r="N127" s="225"/>
+      <c r="O127" s="225" t="s">
         <v>418</v>
       </c>
-      <c r="O127" s="225"/>
       <c r="P127" s="225"/>
       <c r="Q127" s="225"/>
       <c r="R127" s="225"/>
@@ -23189,10 +23189,10 @@
       <c r="K128" s="227"/>
       <c r="L128" s="225"/>
       <c r="M128" s="225"/>
-      <c r="N128" s="225" t="s">
+      <c r="N128" s="225"/>
+      <c r="O128" s="225" t="s">
         <v>419</v>
       </c>
-      <c r="O128" s="225"/>
       <c r="P128" s="225"/>
       <c r="Q128" s="225"/>
       <c r="R128" s="225"/>
@@ -23244,10 +23244,10 @@
       <c r="K129" s="227"/>
       <c r="L129" s="225"/>
       <c r="M129" s="225"/>
-      <c r="N129" s="225" t="s">
+      <c r="N129" s="225"/>
+      <c r="O129" s="225" t="s">
         <v>420</v>
       </c>
-      <c r="O129" s="225"/>
       <c r="P129" s="225"/>
       <c r="Q129" s="225"/>
       <c r="R129" s="225"/>
@@ -23299,10 +23299,10 @@
       <c r="K130" s="227"/>
       <c r="L130" s="225"/>
       <c r="M130" s="225"/>
-      <c r="N130" s="225" t="s">
+      <c r="N130" s="225"/>
+      <c r="O130" s="225" t="s">
         <v>421</v>
       </c>
-      <c r="O130" s="225"/>
       <c r="P130" s="225"/>
       <c r="Q130" s="225"/>
       <c r="R130" s="225"/>
@@ -23405,10 +23405,10 @@
       <c r="K132" s="227"/>
       <c r="L132" s="225"/>
       <c r="M132" s="225"/>
-      <c r="N132" s="225" t="s">
+      <c r="N132" s="225"/>
+      <c r="O132" s="225" t="s">
         <v>490</v>
       </c>
-      <c r="O132" s="225"/>
       <c r="P132" s="225"/>
       <c r="Q132" s="225"/>
       <c r="R132" s="225"/>
@@ -23460,10 +23460,10 @@
       <c r="K133" s="227"/>
       <c r="L133" s="225"/>
       <c r="M133" s="225"/>
-      <c r="N133" s="225" t="s">
+      <c r="N133" s="225"/>
+      <c r="O133" s="225" t="s">
         <v>418</v>
       </c>
-      <c r="O133" s="225"/>
       <c r="P133" s="225"/>
       <c r="Q133" s="225"/>
       <c r="R133" s="225"/>
@@ -23515,10 +23515,10 @@
       <c r="K134" s="227"/>
       <c r="L134" s="225"/>
       <c r="M134" s="225"/>
-      <c r="N134" s="225" t="s">
+      <c r="N134" s="225"/>
+      <c r="O134" s="225" t="s">
         <v>419</v>
       </c>
-      <c r="O134" s="225"/>
       <c r="P134" s="225"/>
       <c r="Q134" s="225"/>
       <c r="R134" s="225"/>
@@ -23570,10 +23570,10 @@
       <c r="K135" s="227"/>
       <c r="L135" s="225"/>
       <c r="M135" s="225"/>
-      <c r="N135" s="225" t="s">
+      <c r="N135" s="225"/>
+      <c r="O135" s="225" t="s">
         <v>420</v>
       </c>
-      <c r="O135" s="225"/>
       <c r="P135" s="225"/>
       <c r="Q135" s="225"/>
       <c r="R135" s="225"/>
@@ -23625,10 +23625,10 @@
       <c r="K136" s="227"/>
       <c r="L136" s="225"/>
       <c r="M136" s="225"/>
-      <c r="N136" s="225" t="s">
+      <c r="N136" s="225"/>
+      <c r="O136" s="225" t="s">
         <v>421</v>
       </c>
-      <c r="O136" s="225"/>
       <c r="P136" s="225"/>
       <c r="Q136" s="225"/>
       <c r="R136" s="225"/>
@@ -23731,10 +23731,10 @@
       <c r="K138" s="227"/>
       <c r="L138" s="225"/>
       <c r="M138" s="225"/>
-      <c r="N138" s="225" t="s">
+      <c r="N138" s="225"/>
+      <c r="O138" s="225" t="s">
         <v>416</v>
       </c>
-      <c r="O138" s="225"/>
       <c r="P138" s="225"/>
       <c r="Q138" s="225"/>
       <c r="R138" s="225"/>
@@ -23786,10 +23786,10 @@
       <c r="K139" s="227"/>
       <c r="L139" s="225"/>
       <c r="M139" s="225"/>
-      <c r="N139" s="225" t="s">
+      <c r="N139" s="225"/>
+      <c r="O139" s="225" t="s">
         <v>529</v>
       </c>
-      <c r="O139" s="225"/>
       <c r="P139" s="225"/>
       <c r="Q139" s="225"/>
       <c r="R139" s="225"/>
@@ -23841,10 +23841,10 @@
       <c r="K140" s="227"/>
       <c r="L140" s="225"/>
       <c r="M140" s="225"/>
-      <c r="N140" s="225" t="s">
+      <c r="N140" s="225"/>
+      <c r="O140" s="225" t="s">
         <v>530</v>
       </c>
-      <c r="O140" s="225"/>
       <c r="P140" s="225"/>
       <c r="Q140" s="225"/>
       <c r="R140" s="225"/>
@@ -23896,10 +23896,10 @@
       <c r="K141" s="227"/>
       <c r="L141" s="225"/>
       <c r="M141" s="225"/>
-      <c r="N141" s="225" t="s">
+      <c r="N141" s="225"/>
+      <c r="O141" s="225" t="s">
         <v>531</v>
       </c>
-      <c r="O141" s="225"/>
       <c r="P141" s="225"/>
       <c r="Q141" s="225"/>
       <c r="R141" s="225"/>
@@ -24002,10 +24002,10 @@
       <c r="K143" s="227"/>
       <c r="L143" s="225"/>
       <c r="M143" s="225"/>
-      <c r="N143" s="225" t="s">
+      <c r="N143" s="225"/>
+      <c r="O143" s="225" t="s">
         <v>416</v>
       </c>
-      <c r="O143" s="225"/>
       <c r="P143" s="225"/>
       <c r="Q143" s="225"/>
       <c r="R143" s="225"/>
@@ -24057,10 +24057,10 @@
       <c r="K144" s="227"/>
       <c r="L144" s="225"/>
       <c r="M144" s="225"/>
-      <c r="N144" s="225" t="s">
+      <c r="N144" s="225"/>
+      <c r="O144" s="225" t="s">
         <v>529</v>
       </c>
-      <c r="O144" s="225"/>
       <c r="P144" s="225"/>
       <c r="Q144" s="225"/>
       <c r="R144" s="225"/>
@@ -24112,10 +24112,10 @@
       <c r="K145" s="227"/>
       <c r="L145" s="225"/>
       <c r="M145" s="225"/>
-      <c r="N145" s="225" t="s">
+      <c r="N145" s="225"/>
+      <c r="O145" s="225" t="s">
         <v>532</v>
       </c>
-      <c r="O145" s="225"/>
       <c r="P145" s="225"/>
       <c r="Q145" s="225"/>
       <c r="R145" s="225"/>
@@ -24167,10 +24167,10 @@
       <c r="K146" s="227"/>
       <c r="L146" s="225"/>
       <c r="M146" s="225"/>
-      <c r="N146" s="225" t="s">
+      <c r="N146" s="225"/>
+      <c r="O146" s="225" t="s">
         <v>533</v>
       </c>
-      <c r="O146" s="225"/>
       <c r="P146" s="225"/>
       <c r="Q146" s="225"/>
       <c r="R146" s="225"/>
@@ -24273,10 +24273,10 @@
       <c r="K148" s="227"/>
       <c r="L148" s="225"/>
       <c r="M148" s="225"/>
-      <c r="N148" s="225" t="s">
+      <c r="N148" s="225"/>
+      <c r="O148" s="225" t="s">
         <v>416</v>
       </c>
-      <c r="O148" s="225"/>
       <c r="P148" s="225"/>
       <c r="Q148" s="225"/>
       <c r="R148" s="225"/>
@@ -24328,10 +24328,10 @@
       <c r="K149" s="227"/>
       <c r="L149" s="225"/>
       <c r="M149" s="225"/>
-      <c r="N149" s="225" t="s">
+      <c r="N149" s="225"/>
+      <c r="O149" s="225" t="s">
         <v>529</v>
       </c>
-      <c r="O149" s="225"/>
       <c r="P149" s="225"/>
       <c r="Q149" s="225"/>
       <c r="R149" s="225"/>
@@ -24383,10 +24383,10 @@
       <c r="K150" s="227"/>
       <c r="L150" s="225"/>
       <c r="M150" s="225"/>
-      <c r="N150" s="225" t="s">
+      <c r="N150" s="225"/>
+      <c r="O150" s="225" t="s">
         <v>534</v>
       </c>
-      <c r="O150" s="225"/>
       <c r="P150" s="225"/>
       <c r="Q150" s="225"/>
       <c r="R150" s="225"/>
@@ -24438,10 +24438,10 @@
       <c r="K151" s="227"/>
       <c r="L151" s="225"/>
       <c r="M151" s="225"/>
-      <c r="N151" s="225" t="s">
+      <c r="N151" s="225"/>
+      <c r="O151" s="225" t="s">
         <v>535</v>
       </c>
-      <c r="O151" s="225"/>
       <c r="P151" s="225"/>
       <c r="Q151" s="225"/>
       <c r="R151" s="225"/>
@@ -24544,10 +24544,10 @@
       <c r="K153" s="227"/>
       <c r="L153" s="225"/>
       <c r="M153" s="225"/>
-      <c r="N153" s="225" t="s">
+      <c r="N153" s="225"/>
+      <c r="O153" s="225" t="s">
         <v>416</v>
       </c>
-      <c r="O153" s="225"/>
       <c r="P153" s="225"/>
       <c r="Q153" s="225"/>
       <c r="R153" s="225"/>
@@ -24599,10 +24599,10 @@
       <c r="K154" s="227"/>
       <c r="L154" s="225"/>
       <c r="M154" s="225"/>
-      <c r="N154" s="225" t="s">
+      <c r="N154" s="225"/>
+      <c r="O154" s="225" t="s">
         <v>529</v>
       </c>
-      <c r="O154" s="225"/>
       <c r="P154" s="225"/>
       <c r="Q154" s="225"/>
       <c r="R154" s="225"/>
@@ -24654,10 +24654,10 @@
       <c r="K155" s="227"/>
       <c r="L155" s="225"/>
       <c r="M155" s="225"/>
-      <c r="N155" s="225" t="s">
+      <c r="N155" s="225"/>
+      <c r="O155" s="225" t="s">
         <v>536</v>
       </c>
-      <c r="O155" s="225"/>
       <c r="P155" s="225"/>
       <c r="Q155" s="225"/>
       <c r="R155" s="225"/>
@@ -24709,10 +24709,10 @@
       <c r="K156" s="227"/>
       <c r="L156" s="225"/>
       <c r="M156" s="225"/>
-      <c r="N156" s="225" t="s">
+      <c r="N156" s="225"/>
+      <c r="O156" s="225" t="s">
         <v>537</v>
       </c>
-      <c r="O156" s="225"/>
       <c r="P156" s="225"/>
       <c r="Q156" s="225"/>
       <c r="R156" s="225"/>
@@ -26330,10 +26330,10 @@
       <c r="K187" s="227"/>
       <c r="L187" s="225"/>
       <c r="M187" s="225"/>
-      <c r="N187" s="225" t="s">
+      <c r="N187" s="225"/>
+      <c r="O187" s="225" t="s">
         <v>416</v>
       </c>
-      <c r="O187" s="225"/>
       <c r="P187" s="225"/>
       <c r="Q187" s="225"/>
       <c r="R187" s="225"/>
@@ -26385,10 +26385,10 @@
       <c r="K188" s="227"/>
       <c r="L188" s="225"/>
       <c r="M188" s="225"/>
-      <c r="N188" s="225" t="s">
+      <c r="N188" s="225"/>
+      <c r="O188" s="225" t="s">
         <v>406</v>
       </c>
-      <c r="O188" s="225"/>
       <c r="P188" s="225"/>
       <c r="Q188" s="225"/>
       <c r="R188" s="225"/>
@@ -26440,10 +26440,10 @@
       <c r="K189" s="227"/>
       <c r="L189" s="225"/>
       <c r="M189" s="225"/>
-      <c r="N189" s="225" t="s">
+      <c r="N189" s="225"/>
+      <c r="O189" s="225" t="s">
         <v>417</v>
       </c>
-      <c r="O189" s="225"/>
       <c r="P189" s="225"/>
       <c r="Q189" s="225"/>
       <c r="R189" s="225"/>
@@ -26495,10 +26495,10 @@
       <c r="K190" s="227"/>
       <c r="L190" s="225"/>
       <c r="M190" s="225"/>
-      <c r="N190" s="225" t="s">
+      <c r="N190" s="225"/>
+      <c r="O190" s="225" t="s">
         <v>418</v>
       </c>
-      <c r="O190" s="225"/>
       <c r="P190" s="225"/>
       <c r="Q190" s="225"/>
       <c r="R190" s="225"/>
@@ -26550,10 +26550,10 @@
       <c r="K191" s="227"/>
       <c r="L191" s="225"/>
       <c r="M191" s="225"/>
-      <c r="N191" s="225" t="s">
+      <c r="N191" s="225"/>
+      <c r="O191" s="225" t="s">
         <v>419</v>
       </c>
-      <c r="O191" s="225"/>
       <c r="P191" s="225"/>
       <c r="Q191" s="225"/>
       <c r="R191" s="225"/>
@@ -26605,10 +26605,10 @@
       <c r="K192" s="227"/>
       <c r="L192" s="225"/>
       <c r="M192" s="225"/>
-      <c r="N192" s="225" t="s">
+      <c r="N192" s="225"/>
+      <c r="O192" s="225" t="s">
         <v>420</v>
       </c>
-      <c r="O192" s="225"/>
       <c r="P192" s="225"/>
       <c r="Q192" s="225"/>
       <c r="R192" s="225"/>
@@ -26660,10 +26660,10 @@
       <c r="K193" s="227"/>
       <c r="L193" s="225"/>
       <c r="M193" s="225"/>
-      <c r="N193" s="225" t="s">
+      <c r="N193" s="225"/>
+      <c r="O193" s="225" t="s">
         <v>421</v>
       </c>
-      <c r="O193" s="225"/>
       <c r="P193" s="225"/>
       <c r="Q193" s="225"/>
       <c r="R193" s="225"/>
@@ -26715,10 +26715,10 @@
       <c r="K194" s="227"/>
       <c r="L194" s="225"/>
       <c r="M194" s="225"/>
-      <c r="N194" s="225" t="s">
+      <c r="N194" s="225"/>
+      <c r="O194" s="225" t="s">
         <v>499</v>
       </c>
-      <c r="O194" s="225"/>
       <c r="P194" s="225"/>
       <c r="Q194" s="225"/>
       <c r="R194" s="225"/>
@@ -26821,10 +26821,10 @@
       <c r="K196" s="227"/>
       <c r="L196" s="225"/>
       <c r="M196" s="225"/>
-      <c r="N196" s="225" t="s">
+      <c r="N196" s="225"/>
+      <c r="O196" s="225" t="s">
         <v>490</v>
       </c>
-      <c r="O196" s="225"/>
       <c r="P196" s="225"/>
       <c r="Q196" s="225"/>
       <c r="R196" s="225"/>
@@ -26876,10 +26876,10 @@
       <c r="K197" s="227"/>
       <c r="L197" s="225"/>
       <c r="M197" s="225"/>
-      <c r="N197" s="225" t="s">
+      <c r="N197" s="225"/>
+      <c r="O197" s="225" t="s">
         <v>418</v>
       </c>
-      <c r="O197" s="225"/>
       <c r="P197" s="225"/>
       <c r="Q197" s="225"/>
       <c r="R197" s="225"/>
@@ -26931,10 +26931,10 @@
       <c r="K198" s="227"/>
       <c r="L198" s="225"/>
       <c r="M198" s="225"/>
-      <c r="N198" s="225" t="s">
+      <c r="N198" s="225"/>
+      <c r="O198" s="225" t="s">
         <v>419</v>
       </c>
-      <c r="O198" s="225"/>
       <c r="P198" s="225"/>
       <c r="Q198" s="225"/>
       <c r="R198" s="225"/>
@@ -26986,10 +26986,10 @@
       <c r="K199" s="227"/>
       <c r="L199" s="225"/>
       <c r="M199" s="225"/>
-      <c r="N199" s="225" t="s">
+      <c r="N199" s="225"/>
+      <c r="O199" s="225" t="s">
         <v>420</v>
       </c>
-      <c r="O199" s="225"/>
       <c r="P199" s="225"/>
       <c r="Q199" s="225"/>
       <c r="R199" s="225"/>
@@ -27041,10 +27041,10 @@
       <c r="K200" s="227"/>
       <c r="L200" s="225"/>
       <c r="M200" s="225"/>
-      <c r="N200" s="225" t="s">
+      <c r="N200" s="225"/>
+      <c r="O200" s="225" t="s">
         <v>421</v>
       </c>
-      <c r="O200" s="225"/>
       <c r="P200" s="225"/>
       <c r="Q200" s="225"/>
       <c r="R200" s="225"/>
@@ -27147,10 +27147,10 @@
       <c r="K202" s="227"/>
       <c r="L202" s="225"/>
       <c r="M202" s="225"/>
-      <c r="N202" s="225" t="s">
+      <c r="N202" s="225"/>
+      <c r="O202" s="225" t="s">
         <v>490</v>
       </c>
-      <c r="O202" s="225"/>
       <c r="P202" s="225"/>
       <c r="Q202" s="225"/>
       <c r="R202" s="225"/>
@@ -27202,10 +27202,10 @@
       <c r="K203" s="227"/>
       <c r="L203" s="225"/>
       <c r="M203" s="225"/>
-      <c r="N203" s="225" t="s">
+      <c r="N203" s="225"/>
+      <c r="O203" s="225" t="s">
         <v>418</v>
       </c>
-      <c r="O203" s="225"/>
       <c r="P203" s="225"/>
       <c r="Q203" s="225"/>
       <c r="R203" s="225"/>
@@ -27257,10 +27257,10 @@
       <c r="K204" s="227"/>
       <c r="L204" s="225"/>
       <c r="M204" s="225"/>
-      <c r="N204" s="225" t="s">
+      <c r="N204" s="225"/>
+      <c r="O204" s="225" t="s">
         <v>419</v>
       </c>
-      <c r="O204" s="225"/>
       <c r="P204" s="225"/>
       <c r="Q204" s="225"/>
       <c r="R204" s="225"/>
@@ -27312,10 +27312,10 @@
       <c r="K205" s="227"/>
       <c r="L205" s="225"/>
       <c r="M205" s="225"/>
-      <c r="N205" s="225" t="s">
+      <c r="N205" s="225"/>
+      <c r="O205" s="225" t="s">
         <v>420</v>
       </c>
-      <c r="O205" s="225"/>
       <c r="P205" s="225"/>
       <c r="Q205" s="225"/>
       <c r="R205" s="225"/>
@@ -27367,10 +27367,10 @@
       <c r="K206" s="227"/>
       <c r="L206" s="225"/>
       <c r="M206" s="225"/>
-      <c r="N206" s="225" t="s">
+      <c r="N206" s="225"/>
+      <c r="O206" s="225" t="s">
         <v>421</v>
       </c>
-      <c r="O206" s="225"/>
       <c r="P206" s="225"/>
       <c r="Q206" s="225"/>
       <c r="R206" s="225"/>
@@ -27473,10 +27473,10 @@
       <c r="K208" s="227"/>
       <c r="L208" s="225"/>
       <c r="M208" s="225"/>
-      <c r="N208" s="225" t="s">
+      <c r="N208" s="225"/>
+      <c r="O208" s="225" t="s">
         <v>416</v>
       </c>
-      <c r="O208" s="225"/>
       <c r="P208" s="225"/>
       <c r="Q208" s="225"/>
       <c r="R208" s="225"/>
@@ -27528,10 +27528,10 @@
       <c r="K209" s="227"/>
       <c r="L209" s="225"/>
       <c r="M209" s="225"/>
-      <c r="N209" s="225" t="s">
+      <c r="N209" s="225"/>
+      <c r="O209" s="225" t="s">
         <v>406</v>
       </c>
-      <c r="O209" s="225"/>
       <c r="P209" s="225"/>
       <c r="Q209" s="225"/>
       <c r="R209" s="225"/>
@@ -27583,10 +27583,10 @@
       <c r="K210" s="227"/>
       <c r="L210" s="225"/>
       <c r="M210" s="225"/>
-      <c r="N210" s="225" t="s">
+      <c r="N210" s="225"/>
+      <c r="O210" s="225" t="s">
         <v>417</v>
       </c>
-      <c r="O210" s="225"/>
       <c r="P210" s="225"/>
       <c r="Q210" s="225"/>
       <c r="R210" s="225"/>
@@ -27638,10 +27638,10 @@
       <c r="K211" s="227"/>
       <c r="L211" s="225"/>
       <c r="M211" s="225"/>
-      <c r="N211" s="225" t="s">
+      <c r="N211" s="225"/>
+      <c r="O211" s="225" t="s">
         <v>418</v>
       </c>
-      <c r="O211" s="225"/>
       <c r="P211" s="225"/>
       <c r="Q211" s="225"/>
       <c r="R211" s="225"/>
@@ -27693,10 +27693,10 @@
       <c r="K212" s="227"/>
       <c r="L212" s="225"/>
       <c r="M212" s="225"/>
-      <c r="N212" s="225" t="s">
+      <c r="N212" s="225"/>
+      <c r="O212" s="225" t="s">
         <v>419</v>
       </c>
-      <c r="O212" s="225"/>
       <c r="P212" s="225"/>
       <c r="Q212" s="225"/>
       <c r="R212" s="225"/>
@@ -27748,10 +27748,10 @@
       <c r="K213" s="227"/>
       <c r="L213" s="225"/>
       <c r="M213" s="225"/>
-      <c r="N213" s="225" t="s">
+      <c r="N213" s="225"/>
+      <c r="O213" s="225" t="s">
         <v>420</v>
       </c>
-      <c r="O213" s="225"/>
       <c r="P213" s="225"/>
       <c r="Q213" s="225"/>
       <c r="R213" s="225"/>
@@ -27803,10 +27803,10 @@
       <c r="K214" s="227"/>
       <c r="L214" s="225"/>
       <c r="M214" s="225"/>
-      <c r="N214" s="225" t="s">
+      <c r="N214" s="225"/>
+      <c r="O214" s="225" t="s">
         <v>421</v>
       </c>
-      <c r="O214" s="225"/>
       <c r="P214" s="225"/>
       <c r="Q214" s="225"/>
       <c r="R214" s="225"/>
@@ -27858,10 +27858,10 @@
       <c r="K215" s="227"/>
       <c r="L215" s="225"/>
       <c r="M215" s="225"/>
-      <c r="N215" s="225" t="s">
+      <c r="N215" s="225"/>
+      <c r="O215" s="225" t="s">
         <v>505</v>
       </c>
-      <c r="O215" s="225"/>
       <c r="P215" s="225"/>
       <c r="Q215" s="225"/>
       <c r="R215" s="225"/>
@@ -27962,10 +27962,10 @@
       <c r="K217" s="227"/>
       <c r="L217" s="225"/>
       <c r="M217" s="225"/>
-      <c r="N217" s="225" t="s">
+      <c r="N217" s="225"/>
+      <c r="O217" s="225" t="s">
         <v>416</v>
       </c>
-      <c r="O217" s="225"/>
       <c r="P217" s="225"/>
       <c r="Q217" s="225"/>
       <c r="R217" s="225"/>
@@ -28017,10 +28017,10 @@
       <c r="K218" s="227"/>
       <c r="L218" s="225"/>
       <c r="M218" s="225"/>
-      <c r="N218" s="225" t="s">
+      <c r="N218" s="225"/>
+      <c r="O218" s="225" t="s">
         <v>406</v>
       </c>
-      <c r="O218" s="225"/>
       <c r="P218" s="225"/>
       <c r="Q218" s="225"/>
       <c r="R218" s="225"/>
@@ -28072,10 +28072,10 @@
       <c r="K219" s="227"/>
       <c r="L219" s="225"/>
       <c r="M219" s="225"/>
-      <c r="N219" s="225" t="s">
+      <c r="N219" s="225"/>
+      <c r="O219" s="225" t="s">
         <v>417</v>
       </c>
-      <c r="O219" s="225"/>
       <c r="P219" s="225"/>
       <c r="Q219" s="225"/>
       <c r="R219" s="225"/>
@@ -28127,10 +28127,10 @@
       <c r="K220" s="227"/>
       <c r="L220" s="225"/>
       <c r="M220" s="225"/>
-      <c r="N220" s="225" t="s">
+      <c r="N220" s="225"/>
+      <c r="O220" s="225" t="s">
         <v>418</v>
       </c>
-      <c r="O220" s="225"/>
       <c r="P220" s="225"/>
       <c r="Q220" s="225"/>
       <c r="R220" s="225"/>
@@ -28182,10 +28182,10 @@
       <c r="K221" s="227"/>
       <c r="L221" s="225"/>
       <c r="M221" s="225"/>
-      <c r="N221" s="225" t="s">
+      <c r="N221" s="225"/>
+      <c r="O221" s="225" t="s">
         <v>419</v>
       </c>
-      <c r="O221" s="225"/>
       <c r="P221" s="225"/>
       <c r="Q221" s="225"/>
       <c r="R221" s="225"/>
@@ -28237,10 +28237,10 @@
       <c r="K222" s="227"/>
       <c r="L222" s="225"/>
       <c r="M222" s="225"/>
-      <c r="N222" s="225" t="s">
+      <c r="N222" s="225"/>
+      <c r="O222" s="225" t="s">
         <v>420</v>
       </c>
-      <c r="O222" s="225"/>
       <c r="P222" s="225"/>
       <c r="Q222" s="225"/>
       <c r="R222" s="225"/>
@@ -28292,10 +28292,10 @@
       <c r="K223" s="227"/>
       <c r="L223" s="225"/>
       <c r="M223" s="225"/>
-      <c r="N223" s="225" t="s">
+      <c r="N223" s="225"/>
+      <c r="O223" s="225" t="s">
         <v>421</v>
       </c>
-      <c r="O223" s="225"/>
       <c r="P223" s="225"/>
       <c r="Q223" s="225"/>
       <c r="R223" s="225"/>
@@ -28347,10 +28347,10 @@
       <c r="K224" s="227"/>
       <c r="L224" s="225"/>
       <c r="M224" s="225"/>
-      <c r="N224" s="225" t="s">
+      <c r="N224" s="225"/>
+      <c r="O224" s="225" t="s">
         <v>506</v>
       </c>
-      <c r="O224" s="225"/>
       <c r="P224" s="225"/>
       <c r="Q224" s="225"/>
       <c r="R224" s="225"/>
@@ -42565,12 +42565,12 @@
       <c r="M9" s="308" t="s">
         <v>244</v>
       </c>
-      <c r="N9" s="316"/>
+      <c r="N9" s="312"/>
       <c r="O9" s="309"/>
-      <c r="P9" s="312" t="s">
+      <c r="P9" s="314" t="s">
         <v>239</v>
       </c>
-      <c r="Q9" s="313"/>
+      <c r="Q9" s="315"/>
       <c r="R9" s="53"/>
       <c r="S9" s="53"/>
       <c r="T9" s="53"/>
@@ -42630,10 +42630,10 @@
       <c r="K10" s="310"/>
       <c r="L10" s="311"/>
       <c r="M10" s="310"/>
-      <c r="N10" s="317"/>
+      <c r="N10" s="313"/>
       <c r="O10" s="311"/>
-      <c r="P10" s="314"/>
-      <c r="Q10" s="315"/>
+      <c r="P10" s="316"/>
+      <c r="Q10" s="317"/>
       <c r="R10" s="53"/>
       <c r="S10" s="53"/>
       <c r="T10" s="53"/>
@@ -43424,7 +43424,7 @@
       <c r="M22" s="308">
         <v>1</v>
       </c>
-      <c r="N22" s="313"/>
+      <c r="N22" s="315"/>
       <c r="O22" s="53"/>
       <c r="P22" s="53"/>
       <c r="Q22" s="53"/>
@@ -43486,8 +43486,8 @@
       <c r="J23" s="67"/>
       <c r="K23" s="310"/>
       <c r="L23" s="311"/>
-      <c r="M23" s="314"/>
-      <c r="N23" s="315"/>
+      <c r="M23" s="316"/>
+      <c r="N23" s="317"/>
       <c r="O23" s="53"/>
       <c r="P23" s="53"/>
       <c r="Q23" s="53"/>
@@ -43913,12 +43913,12 @@
       <c r="M30" s="308" t="s">
         <v>244</v>
       </c>
-      <c r="N30" s="316"/>
+      <c r="N30" s="312"/>
       <c r="O30" s="309"/>
-      <c r="P30" s="312" t="s">
+      <c r="P30" s="314" t="s">
         <v>239</v>
       </c>
-      <c r="Q30" s="313"/>
+      <c r="Q30" s="315"/>
       <c r="R30" s="53"/>
       <c r="S30" s="53"/>
       <c r="T30" s="53"/>
@@ -43978,10 +43978,10 @@
       <c r="K31" s="310"/>
       <c r="L31" s="311"/>
       <c r="M31" s="310"/>
-      <c r="N31" s="317"/>
+      <c r="N31" s="313"/>
       <c r="O31" s="311"/>
-      <c r="P31" s="314"/>
-      <c r="Q31" s="315"/>
+      <c r="P31" s="316"/>
+      <c r="Q31" s="317"/>
       <c r="R31" s="53"/>
       <c r="S31" s="53"/>
       <c r="T31" s="53"/>
@@ -55463,11 +55463,6 @@
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="K30:L31"/>
-    <mergeCell ref="M30:O31"/>
-    <mergeCell ref="P30:Q31"/>
-    <mergeCell ref="K22:L23"/>
-    <mergeCell ref="M22:N23"/>
     <mergeCell ref="AT1:AZ1"/>
     <mergeCell ref="S2:AD2"/>
     <mergeCell ref="AI2:AM2"/>
@@ -55476,6 +55471,11 @@
     <mergeCell ref="P9:Q10"/>
     <mergeCell ref="AI1:AM1"/>
     <mergeCell ref="M9:O10"/>
+    <mergeCell ref="K30:L31"/>
+    <mergeCell ref="M30:O31"/>
+    <mergeCell ref="P30:Q31"/>
+    <mergeCell ref="K22:L23"/>
+    <mergeCell ref="M22:N23"/>
   </mergeCells>
   <phoneticPr fontId="17"/>
   <pageMargins left="0.78740157480314965" right="0.39370078740157483" top="0.78740157480314965" bottom="0.39370078740157483" header="0.39370078740157483" footer="0.19685039370078741"/>
@@ -69361,15 +69361,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x0101005B3AFDF1A27EF4448B30400A700269C9" ma:contentTypeVersion="7" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="af1e50296a73b747a155d4c5a148cd8b">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="72c70d25-b9e8-475b-ae7b-39931ca24b85" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="d7c374c4e1cfeff0cf58497e8c642c22" ns2:_="">
     <xsd:import namespace="72c70d25-b9e8-475b-ae7b-39931ca24b85"/>
@@ -69527,6 +69518,15 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement/>
@@ -69534,14 +69534,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7CA02E59-26EF-42FD-ADE3-8B1F7DDCD7B9}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1F39FE47-ED8B-411A-AD54-8C8E5636C88B}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -69555,6 +69547,14 @@
     <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7CA02E59-26EF-42FD-ADE3-8B1F7DDCD7B9}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/01_基本設計書/20200220リリース/SC-K13_当日実績参照.xlsx
+++ b/01_基本設計書/20200220リリース/SC-K13_当日実績参照.xlsx
@@ -9,7 +9,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ローカル作業_Wang\GitHub\backdoor\01_基本設計書\20200220リリース\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58FA9BE4-2C50-414D-B280-0674AA93B0F4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D88ACD10-ABB0-423D-9199-FF4A81C14B98}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="703" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -3299,10 +3299,6 @@
     <phoneticPr fontId="4"/>
   </si>
   <si>
-    <t>INNER JOIN 作業計画データ</t>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
     <t>ON   作業計画データ.金型番号</t>
     <rPh sb="13" eb="14">
       <t>カネ</t>
@@ -3608,6 +3604,10 @@
   </si>
   <si>
     <t>作業計画データ</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>LEFT JOIN 作業計画データ</t>
     <phoneticPr fontId="4"/>
   </si>
 </sst>
@@ -5020,6 +5020,91 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="16" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -5046,91 +5131,6 @@
     </xf>
     <xf numFmtId="0" fontId="20" fillId="3" borderId="7" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="16" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="8" xfId="13" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -5225,12 +5225,6 @@
     <xf numFmtId="0" fontId="16" fillId="5" borderId="7" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="5" borderId="4" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="5" borderId="2" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="16" fillId="5" borderId="3" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -5242,6 +5236,12 @@
     </xf>
     <xf numFmtId="0" fontId="16" fillId="5" borderId="7" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="4" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="2" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="37" fillId="10" borderId="3" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -6085,7 +6085,7 @@
               <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
               <a:extLst>
                 <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="参照用レイアウト!$B$2:$CX$44" spid="_x0000_s3689"/>
+                  <a14:cameraTool cellRange="参照用レイアウト!$B$2:$CX$44" spid="_x0000_s3695"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPicPr>
@@ -6150,7 +6150,7 @@
               <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
               <a:extLst>
                 <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="参照用レイアウト!$B$47:$CX$89" spid="_x0000_s3690"/>
+                  <a14:cameraTool cellRange="参照用レイアウト!$B$47:$CX$89" spid="_x0000_s3696"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPicPr>
@@ -6215,7 +6215,7 @@
               <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
               <a:extLst>
                 <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="参照用レイアウト!$B$92:$CX$134" spid="_x0000_s3691"/>
+                  <a14:cameraTool cellRange="参照用レイアウト!$B$92:$CX$134" spid="_x0000_s3697"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPicPr>
@@ -8332,1770 +8332,2003 @@
   <sheetData>
     <row r="1" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="56"/>
-      <c r="B1" s="241" t="s">
+      <c r="B1" s="272" t="s">
         <v>6</v>
       </c>
-      <c r="C1" s="241"/>
-      <c r="D1" s="241"/>
-      <c r="E1" s="241"/>
-      <c r="F1" s="241"/>
-      <c r="G1" s="241"/>
-      <c r="H1" s="241"/>
-      <c r="I1" s="241"/>
-      <c r="J1" s="241"/>
-      <c r="K1" s="241"/>
-      <c r="L1" s="241"/>
-      <c r="M1" s="241"/>
-      <c r="N1" s="241"/>
-      <c r="O1" s="241"/>
-      <c r="P1" s="241"/>
-      <c r="Q1" s="241"/>
-      <c r="R1" s="241"/>
-      <c r="S1" s="241"/>
-      <c r="T1" s="241"/>
-      <c r="U1" s="241"/>
-      <c r="V1" s="241"/>
-      <c r="W1" s="241"/>
-      <c r="X1" s="241"/>
-      <c r="Y1" s="241"/>
-      <c r="Z1" s="241"/>
-      <c r="AA1" s="241"/>
-      <c r="AB1" s="241"/>
-      <c r="AC1" s="241"/>
-      <c r="AD1" s="241"/>
-      <c r="AE1" s="241"/>
-      <c r="AF1" s="241"/>
-      <c r="AG1" s="241"/>
-      <c r="AH1" s="241"/>
-      <c r="AI1" s="241"/>
-      <c r="AJ1" s="241"/>
-      <c r="AK1" s="241"/>
-      <c r="AL1" s="241"/>
-      <c r="AM1" s="241"/>
-      <c r="AN1" s="241"/>
-      <c r="AO1" s="241"/>
-      <c r="AP1" s="241"/>
-      <c r="AQ1" s="241"/>
-      <c r="AR1" s="241"/>
-      <c r="AS1" s="241"/>
-      <c r="AT1" s="241"/>
-      <c r="AU1" s="241"/>
-      <c r="AV1" s="241"/>
-      <c r="AW1" s="241"/>
+      <c r="C1" s="272"/>
+      <c r="D1" s="272"/>
+      <c r="E1" s="272"/>
+      <c r="F1" s="272"/>
+      <c r="G1" s="272"/>
+      <c r="H1" s="272"/>
+      <c r="I1" s="272"/>
+      <c r="J1" s="272"/>
+      <c r="K1" s="272"/>
+      <c r="L1" s="272"/>
+      <c r="M1" s="272"/>
+      <c r="N1" s="272"/>
+      <c r="O1" s="272"/>
+      <c r="P1" s="272"/>
+      <c r="Q1" s="272"/>
+      <c r="R1" s="272"/>
+      <c r="S1" s="272"/>
+      <c r="T1" s="272"/>
+      <c r="U1" s="272"/>
+      <c r="V1" s="272"/>
+      <c r="W1" s="272"/>
+      <c r="X1" s="272"/>
+      <c r="Y1" s="272"/>
+      <c r="Z1" s="272"/>
+      <c r="AA1" s="272"/>
+      <c r="AB1" s="272"/>
+      <c r="AC1" s="272"/>
+      <c r="AD1" s="272"/>
+      <c r="AE1" s="272"/>
+      <c r="AF1" s="272"/>
+      <c r="AG1" s="272"/>
+      <c r="AH1" s="272"/>
+      <c r="AI1" s="272"/>
+      <c r="AJ1" s="272"/>
+      <c r="AK1" s="272"/>
+      <c r="AL1" s="272"/>
+      <c r="AM1" s="272"/>
+      <c r="AN1" s="272"/>
+      <c r="AO1" s="272"/>
+      <c r="AP1" s="272"/>
+      <c r="AQ1" s="272"/>
+      <c r="AR1" s="272"/>
+      <c r="AS1" s="272"/>
+      <c r="AT1" s="272"/>
+      <c r="AU1" s="272"/>
+      <c r="AV1" s="272"/>
+      <c r="AW1" s="272"/>
     </row>
     <row r="2" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="56"/>
-      <c r="B2" s="242"/>
-      <c r="C2" s="242"/>
-      <c r="D2" s="242"/>
-      <c r="E2" s="242"/>
-      <c r="F2" s="242"/>
-      <c r="G2" s="242"/>
-      <c r="H2" s="242"/>
-      <c r="I2" s="242"/>
-      <c r="J2" s="242"/>
-      <c r="K2" s="242"/>
-      <c r="L2" s="242"/>
-      <c r="M2" s="242"/>
-      <c r="N2" s="242"/>
-      <c r="O2" s="242"/>
-      <c r="P2" s="242"/>
-      <c r="Q2" s="242"/>
-      <c r="R2" s="242"/>
-      <c r="S2" s="242"/>
-      <c r="T2" s="242"/>
-      <c r="U2" s="242"/>
-      <c r="V2" s="242"/>
-      <c r="W2" s="242"/>
-      <c r="X2" s="242"/>
-      <c r="Y2" s="242"/>
-      <c r="Z2" s="242"/>
-      <c r="AA2" s="242"/>
-      <c r="AB2" s="242"/>
-      <c r="AC2" s="242"/>
-      <c r="AD2" s="242"/>
-      <c r="AE2" s="242"/>
-      <c r="AF2" s="242"/>
-      <c r="AG2" s="242"/>
-      <c r="AH2" s="242"/>
-      <c r="AI2" s="242"/>
-      <c r="AJ2" s="242"/>
-      <c r="AK2" s="242"/>
-      <c r="AL2" s="242"/>
-      <c r="AM2" s="242"/>
-      <c r="AN2" s="242"/>
-      <c r="AO2" s="242"/>
-      <c r="AP2" s="242"/>
-      <c r="AQ2" s="242"/>
-      <c r="AR2" s="242"/>
-      <c r="AS2" s="242"/>
-      <c r="AT2" s="242"/>
-      <c r="AU2" s="242"/>
-      <c r="AV2" s="242"/>
-      <c r="AW2" s="242"/>
+      <c r="B2" s="273"/>
+      <c r="C2" s="273"/>
+      <c r="D2" s="273"/>
+      <c r="E2" s="273"/>
+      <c r="F2" s="273"/>
+      <c r="G2" s="273"/>
+      <c r="H2" s="273"/>
+      <c r="I2" s="273"/>
+      <c r="J2" s="273"/>
+      <c r="K2" s="273"/>
+      <c r="L2" s="273"/>
+      <c r="M2" s="273"/>
+      <c r="N2" s="273"/>
+      <c r="O2" s="273"/>
+      <c r="P2" s="273"/>
+      <c r="Q2" s="273"/>
+      <c r="R2" s="273"/>
+      <c r="S2" s="273"/>
+      <c r="T2" s="273"/>
+      <c r="U2" s="273"/>
+      <c r="V2" s="273"/>
+      <c r="W2" s="273"/>
+      <c r="X2" s="273"/>
+      <c r="Y2" s="273"/>
+      <c r="Z2" s="273"/>
+      <c r="AA2" s="273"/>
+      <c r="AB2" s="273"/>
+      <c r="AC2" s="273"/>
+      <c r="AD2" s="273"/>
+      <c r="AE2" s="273"/>
+      <c r="AF2" s="273"/>
+      <c r="AG2" s="273"/>
+      <c r="AH2" s="273"/>
+      <c r="AI2" s="273"/>
+      <c r="AJ2" s="273"/>
+      <c r="AK2" s="273"/>
+      <c r="AL2" s="273"/>
+      <c r="AM2" s="273"/>
+      <c r="AN2" s="273"/>
+      <c r="AO2" s="273"/>
+      <c r="AP2" s="273"/>
+      <c r="AQ2" s="273"/>
+      <c r="AR2" s="273"/>
+      <c r="AS2" s="273"/>
+      <c r="AT2" s="273"/>
+      <c r="AU2" s="273"/>
+      <c r="AV2" s="273"/>
+      <c r="AW2" s="273"/>
     </row>
     <row r="3" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="56"/>
-      <c r="B3" s="243" t="s">
+      <c r="B3" s="274" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="243"/>
-      <c r="D3" s="243"/>
-      <c r="E3" s="243" t="s">
+      <c r="C3" s="274"/>
+      <c r="D3" s="274"/>
+      <c r="E3" s="274" t="s">
         <v>8</v>
       </c>
-      <c r="F3" s="243"/>
-      <c r="G3" s="243"/>
-      <c r="H3" s="243"/>
-      <c r="I3" s="243"/>
-      <c r="J3" s="244" t="s">
+      <c r="F3" s="274"/>
+      <c r="G3" s="274"/>
+      <c r="H3" s="274"/>
+      <c r="I3" s="274"/>
+      <c r="J3" s="275" t="s">
         <v>9</v>
       </c>
-      <c r="K3" s="245"/>
-      <c r="L3" s="246"/>
-      <c r="M3" s="244" t="s">
+      <c r="K3" s="276"/>
+      <c r="L3" s="277"/>
+      <c r="M3" s="275" t="s">
         <v>10</v>
       </c>
-      <c r="N3" s="245"/>
-      <c r="O3" s="245"/>
-      <c r="P3" s="245"/>
-      <c r="Q3" s="245"/>
-      <c r="R3" s="246"/>
-      <c r="S3" s="243" t="s">
+      <c r="N3" s="276"/>
+      <c r="O3" s="276"/>
+      <c r="P3" s="276"/>
+      <c r="Q3" s="276"/>
+      <c r="R3" s="277"/>
+      <c r="S3" s="274" t="s">
         <v>11</v>
       </c>
-      <c r="T3" s="243"/>
-      <c r="U3" s="243"/>
-      <c r="V3" s="243" t="s">
+      <c r="T3" s="274"/>
+      <c r="U3" s="274"/>
+      <c r="V3" s="274" t="s">
         <v>12</v>
       </c>
-      <c r="W3" s="243"/>
-      <c r="X3" s="243"/>
-      <c r="Y3" s="243"/>
-      <c r="Z3" s="243"/>
-      <c r="AA3" s="243"/>
-      <c r="AB3" s="243"/>
-      <c r="AC3" s="243"/>
-      <c r="AD3" s="243"/>
-      <c r="AE3" s="243"/>
-      <c r="AF3" s="243"/>
-      <c r="AG3" s="243"/>
-      <c r="AH3" s="243"/>
-      <c r="AI3" s="243"/>
-      <c r="AJ3" s="243"/>
-      <c r="AK3" s="243"/>
-      <c r="AL3" s="243"/>
-      <c r="AM3" s="243"/>
-      <c r="AN3" s="243" t="s">
+      <c r="W3" s="274"/>
+      <c r="X3" s="274"/>
+      <c r="Y3" s="274"/>
+      <c r="Z3" s="274"/>
+      <c r="AA3" s="274"/>
+      <c r="AB3" s="274"/>
+      <c r="AC3" s="274"/>
+      <c r="AD3" s="274"/>
+      <c r="AE3" s="274"/>
+      <c r="AF3" s="274"/>
+      <c r="AG3" s="274"/>
+      <c r="AH3" s="274"/>
+      <c r="AI3" s="274"/>
+      <c r="AJ3" s="274"/>
+      <c r="AK3" s="274"/>
+      <c r="AL3" s="274"/>
+      <c r="AM3" s="274"/>
+      <c r="AN3" s="274" t="s">
         <v>13</v>
       </c>
-      <c r="AO3" s="243"/>
-      <c r="AP3" s="243"/>
-      <c r="AQ3" s="243"/>
-      <c r="AR3" s="243"/>
-      <c r="AS3" s="243" t="s">
+      <c r="AO3" s="274"/>
+      <c r="AP3" s="274"/>
+      <c r="AQ3" s="274"/>
+      <c r="AR3" s="274"/>
+      <c r="AS3" s="274" t="s">
         <v>14</v>
       </c>
-      <c r="AT3" s="243"/>
-      <c r="AU3" s="243"/>
-      <c r="AV3" s="243"/>
-      <c r="AW3" s="243"/>
+      <c r="AT3" s="274"/>
+      <c r="AU3" s="274"/>
+      <c r="AV3" s="274"/>
+      <c r="AW3" s="274"/>
     </row>
     <row r="4" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="56"/>
-      <c r="B4" s="243"/>
-      <c r="C4" s="243"/>
-      <c r="D4" s="243"/>
-      <c r="E4" s="243"/>
-      <c r="F4" s="243"/>
-      <c r="G4" s="243"/>
-      <c r="H4" s="243"/>
-      <c r="I4" s="243"/>
-      <c r="J4" s="247"/>
-      <c r="K4" s="248"/>
-      <c r="L4" s="249"/>
-      <c r="M4" s="247"/>
-      <c r="N4" s="248"/>
-      <c r="O4" s="248"/>
-      <c r="P4" s="248"/>
-      <c r="Q4" s="248"/>
-      <c r="R4" s="249"/>
-      <c r="S4" s="243"/>
-      <c r="T4" s="243"/>
-      <c r="U4" s="243"/>
-      <c r="V4" s="243"/>
-      <c r="W4" s="243"/>
-      <c r="X4" s="243"/>
-      <c r="Y4" s="243"/>
-      <c r="Z4" s="243"/>
-      <c r="AA4" s="243"/>
-      <c r="AB4" s="243"/>
-      <c r="AC4" s="243"/>
-      <c r="AD4" s="243"/>
-      <c r="AE4" s="243"/>
-      <c r="AF4" s="243"/>
-      <c r="AG4" s="243"/>
-      <c r="AH4" s="243"/>
-      <c r="AI4" s="243"/>
-      <c r="AJ4" s="243"/>
-      <c r="AK4" s="243"/>
-      <c r="AL4" s="243"/>
-      <c r="AM4" s="243"/>
-      <c r="AN4" s="243"/>
-      <c r="AO4" s="243"/>
-      <c r="AP4" s="243"/>
-      <c r="AQ4" s="243"/>
-      <c r="AR4" s="243"/>
-      <c r="AS4" s="243"/>
-      <c r="AT4" s="243"/>
-      <c r="AU4" s="243"/>
-      <c r="AV4" s="243"/>
-      <c r="AW4" s="243"/>
+      <c r="B4" s="274"/>
+      <c r="C4" s="274"/>
+      <c r="D4" s="274"/>
+      <c r="E4" s="274"/>
+      <c r="F4" s="274"/>
+      <c r="G4" s="274"/>
+      <c r="H4" s="274"/>
+      <c r="I4" s="274"/>
+      <c r="J4" s="278"/>
+      <c r="K4" s="279"/>
+      <c r="L4" s="280"/>
+      <c r="M4" s="278"/>
+      <c r="N4" s="279"/>
+      <c r="O4" s="279"/>
+      <c r="P4" s="279"/>
+      <c r="Q4" s="279"/>
+      <c r="R4" s="280"/>
+      <c r="S4" s="274"/>
+      <c r="T4" s="274"/>
+      <c r="U4" s="274"/>
+      <c r="V4" s="274"/>
+      <c r="W4" s="274"/>
+      <c r="X4" s="274"/>
+      <c r="Y4" s="274"/>
+      <c r="Z4" s="274"/>
+      <c r="AA4" s="274"/>
+      <c r="AB4" s="274"/>
+      <c r="AC4" s="274"/>
+      <c r="AD4" s="274"/>
+      <c r="AE4" s="274"/>
+      <c r="AF4" s="274"/>
+      <c r="AG4" s="274"/>
+      <c r="AH4" s="274"/>
+      <c r="AI4" s="274"/>
+      <c r="AJ4" s="274"/>
+      <c r="AK4" s="274"/>
+      <c r="AL4" s="274"/>
+      <c r="AM4" s="274"/>
+      <c r="AN4" s="274"/>
+      <c r="AO4" s="274"/>
+      <c r="AP4" s="274"/>
+      <c r="AQ4" s="274"/>
+      <c r="AR4" s="274"/>
+      <c r="AS4" s="274"/>
+      <c r="AT4" s="274"/>
+      <c r="AU4" s="274"/>
+      <c r="AV4" s="274"/>
+      <c r="AW4" s="274"/>
     </row>
     <row r="5" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A5" s="58"/>
-      <c r="B5" s="251">
+      <c r="B5" s="266">
         <v>1</v>
       </c>
-      <c r="C5" s="251"/>
-      <c r="D5" s="251"/>
-      <c r="E5" s="252">
+      <c r="C5" s="266"/>
+      <c r="D5" s="266"/>
+      <c r="E5" s="247">
         <v>43711</v>
       </c>
-      <c r="F5" s="252"/>
-      <c r="G5" s="252"/>
-      <c r="H5" s="252"/>
-      <c r="I5" s="252"/>
-      <c r="J5" s="253" t="s">
+      <c r="F5" s="247"/>
+      <c r="G5" s="247"/>
+      <c r="H5" s="247"/>
+      <c r="I5" s="247"/>
+      <c r="J5" s="248" t="s">
         <v>15</v>
       </c>
-      <c r="K5" s="254"/>
-      <c r="L5" s="255"/>
-      <c r="M5" s="253" t="s">
+      <c r="K5" s="249"/>
+      <c r="L5" s="250"/>
+      <c r="M5" s="248" t="s">
         <v>16</v>
       </c>
-      <c r="N5" s="254"/>
-      <c r="O5" s="254"/>
-      <c r="P5" s="254"/>
-      <c r="Q5" s="254"/>
-      <c r="R5" s="255"/>
-      <c r="S5" s="250" t="s">
+      <c r="N5" s="249"/>
+      <c r="O5" s="249"/>
+      <c r="P5" s="249"/>
+      <c r="Q5" s="249"/>
+      <c r="R5" s="250"/>
+      <c r="S5" s="254" t="s">
         <v>17</v>
       </c>
-      <c r="T5" s="250"/>
-      <c r="U5" s="250"/>
-      <c r="V5" s="259" t="s">
+      <c r="T5" s="254"/>
+      <c r="U5" s="254"/>
+      <c r="V5" s="265" t="s">
         <v>18</v>
       </c>
-      <c r="W5" s="259"/>
-      <c r="X5" s="259"/>
-      <c r="Y5" s="259"/>
-      <c r="Z5" s="259"/>
-      <c r="AA5" s="259"/>
-      <c r="AB5" s="259"/>
-      <c r="AC5" s="259"/>
-      <c r="AD5" s="259"/>
-      <c r="AE5" s="259"/>
-      <c r="AF5" s="259"/>
-      <c r="AG5" s="259"/>
-      <c r="AH5" s="259"/>
-      <c r="AI5" s="259"/>
-      <c r="AJ5" s="259"/>
-      <c r="AK5" s="259"/>
-      <c r="AL5" s="259"/>
-      <c r="AM5" s="259"/>
-      <c r="AN5" s="250" t="s">
+      <c r="W5" s="265"/>
+      <c r="X5" s="265"/>
+      <c r="Y5" s="265"/>
+      <c r="Z5" s="265"/>
+      <c r="AA5" s="265"/>
+      <c r="AB5" s="265"/>
+      <c r="AC5" s="265"/>
+      <c r="AD5" s="265"/>
+      <c r="AE5" s="265"/>
+      <c r="AF5" s="265"/>
+      <c r="AG5" s="265"/>
+      <c r="AH5" s="265"/>
+      <c r="AI5" s="265"/>
+      <c r="AJ5" s="265"/>
+      <c r="AK5" s="265"/>
+      <c r="AL5" s="265"/>
+      <c r="AM5" s="265"/>
+      <c r="AN5" s="254" t="s">
         <v>128</v>
       </c>
-      <c r="AO5" s="250"/>
-      <c r="AP5" s="250"/>
-      <c r="AQ5" s="250"/>
-      <c r="AR5" s="250"/>
-      <c r="AS5" s="250"/>
-      <c r="AT5" s="250"/>
-      <c r="AU5" s="250"/>
-      <c r="AV5" s="250"/>
-      <c r="AW5" s="250"/>
+      <c r="AO5" s="254"/>
+      <c r="AP5" s="254"/>
+      <c r="AQ5" s="254"/>
+      <c r="AR5" s="254"/>
+      <c r="AS5" s="254"/>
+      <c r="AT5" s="254"/>
+      <c r="AU5" s="254"/>
+      <c r="AV5" s="254"/>
+      <c r="AW5" s="254"/>
     </row>
     <row r="6" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A6" s="58"/>
-      <c r="B6" s="251"/>
-      <c r="C6" s="251"/>
-      <c r="D6" s="251"/>
-      <c r="E6" s="252"/>
-      <c r="F6" s="252"/>
-      <c r="G6" s="252"/>
-      <c r="H6" s="252"/>
-      <c r="I6" s="252"/>
-      <c r="J6" s="253"/>
-      <c r="K6" s="254"/>
-      <c r="L6" s="255"/>
-      <c r="M6" s="256"/>
-      <c r="N6" s="257"/>
-      <c r="O6" s="257"/>
-      <c r="P6" s="257"/>
-      <c r="Q6" s="257"/>
-      <c r="R6" s="258"/>
-      <c r="S6" s="250"/>
-      <c r="T6" s="250"/>
-      <c r="U6" s="250"/>
-      <c r="V6" s="259"/>
-      <c r="W6" s="259"/>
-      <c r="X6" s="259"/>
-      <c r="Y6" s="259"/>
-      <c r="Z6" s="259"/>
-      <c r="AA6" s="259"/>
-      <c r="AB6" s="259"/>
-      <c r="AC6" s="259"/>
-      <c r="AD6" s="259"/>
-      <c r="AE6" s="259"/>
-      <c r="AF6" s="259"/>
-      <c r="AG6" s="259"/>
-      <c r="AH6" s="259"/>
-      <c r="AI6" s="259"/>
-      <c r="AJ6" s="259"/>
-      <c r="AK6" s="259"/>
-      <c r="AL6" s="259"/>
-      <c r="AM6" s="259"/>
-      <c r="AN6" s="250"/>
-      <c r="AO6" s="250"/>
-      <c r="AP6" s="250"/>
-      <c r="AQ6" s="250"/>
-      <c r="AR6" s="250"/>
-      <c r="AS6" s="250"/>
-      <c r="AT6" s="250"/>
-      <c r="AU6" s="250"/>
-      <c r="AV6" s="250"/>
-      <c r="AW6" s="250"/>
+      <c r="B6" s="266"/>
+      <c r="C6" s="266"/>
+      <c r="D6" s="266"/>
+      <c r="E6" s="247"/>
+      <c r="F6" s="247"/>
+      <c r="G6" s="247"/>
+      <c r="H6" s="247"/>
+      <c r="I6" s="247"/>
+      <c r="J6" s="248"/>
+      <c r="K6" s="249"/>
+      <c r="L6" s="250"/>
+      <c r="M6" s="269"/>
+      <c r="N6" s="270"/>
+      <c r="O6" s="270"/>
+      <c r="P6" s="270"/>
+      <c r="Q6" s="270"/>
+      <c r="R6" s="271"/>
+      <c r="S6" s="254"/>
+      <c r="T6" s="254"/>
+      <c r="U6" s="254"/>
+      <c r="V6" s="265"/>
+      <c r="W6" s="265"/>
+      <c r="X6" s="265"/>
+      <c r="Y6" s="265"/>
+      <c r="Z6" s="265"/>
+      <c r="AA6" s="265"/>
+      <c r="AB6" s="265"/>
+      <c r="AC6" s="265"/>
+      <c r="AD6" s="265"/>
+      <c r="AE6" s="265"/>
+      <c r="AF6" s="265"/>
+      <c r="AG6" s="265"/>
+      <c r="AH6" s="265"/>
+      <c r="AI6" s="265"/>
+      <c r="AJ6" s="265"/>
+      <c r="AK6" s="265"/>
+      <c r="AL6" s="265"/>
+      <c r="AM6" s="265"/>
+      <c r="AN6" s="254"/>
+      <c r="AO6" s="254"/>
+      <c r="AP6" s="254"/>
+      <c r="AQ6" s="254"/>
+      <c r="AR6" s="254"/>
+      <c r="AS6" s="254"/>
+      <c r="AT6" s="254"/>
+      <c r="AU6" s="254"/>
+      <c r="AV6" s="254"/>
+      <c r="AW6" s="254"/>
     </row>
     <row r="7" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A7" s="58"/>
-      <c r="B7" s="251"/>
-      <c r="C7" s="251"/>
-      <c r="D7" s="251"/>
-      <c r="E7" s="252"/>
-      <c r="F7" s="252"/>
-      <c r="G7" s="252"/>
-      <c r="H7" s="252"/>
-      <c r="I7" s="252"/>
-      <c r="J7" s="253"/>
-      <c r="K7" s="254"/>
-      <c r="L7" s="255"/>
-      <c r="M7" s="256"/>
-      <c r="N7" s="257"/>
-      <c r="O7" s="257"/>
-      <c r="P7" s="257"/>
-      <c r="Q7" s="257"/>
-      <c r="R7" s="258"/>
-      <c r="S7" s="250"/>
-      <c r="T7" s="250"/>
-      <c r="U7" s="250"/>
-      <c r="V7" s="259"/>
-      <c r="W7" s="259"/>
-      <c r="X7" s="259"/>
-      <c r="Y7" s="259"/>
-      <c r="Z7" s="259"/>
-      <c r="AA7" s="259"/>
-      <c r="AB7" s="259"/>
-      <c r="AC7" s="259"/>
-      <c r="AD7" s="259"/>
-      <c r="AE7" s="259"/>
-      <c r="AF7" s="259"/>
-      <c r="AG7" s="259"/>
-      <c r="AH7" s="259"/>
-      <c r="AI7" s="259"/>
-      <c r="AJ7" s="259"/>
-      <c r="AK7" s="259"/>
-      <c r="AL7" s="259"/>
-      <c r="AM7" s="259"/>
-      <c r="AN7" s="250"/>
-      <c r="AO7" s="250"/>
-      <c r="AP7" s="250"/>
-      <c r="AQ7" s="250"/>
-      <c r="AR7" s="250"/>
-      <c r="AS7" s="250"/>
-      <c r="AT7" s="250"/>
-      <c r="AU7" s="250"/>
-      <c r="AV7" s="250"/>
-      <c r="AW7" s="250"/>
+      <c r="B7" s="266"/>
+      <c r="C7" s="266"/>
+      <c r="D7" s="266"/>
+      <c r="E7" s="247"/>
+      <c r="F7" s="247"/>
+      <c r="G7" s="247"/>
+      <c r="H7" s="247"/>
+      <c r="I7" s="247"/>
+      <c r="J7" s="248"/>
+      <c r="K7" s="249"/>
+      <c r="L7" s="250"/>
+      <c r="M7" s="269"/>
+      <c r="N7" s="270"/>
+      <c r="O7" s="270"/>
+      <c r="P7" s="270"/>
+      <c r="Q7" s="270"/>
+      <c r="R7" s="271"/>
+      <c r="S7" s="254"/>
+      <c r="T7" s="254"/>
+      <c r="U7" s="254"/>
+      <c r="V7" s="265"/>
+      <c r="W7" s="265"/>
+      <c r="X7" s="265"/>
+      <c r="Y7" s="265"/>
+      <c r="Z7" s="265"/>
+      <c r="AA7" s="265"/>
+      <c r="AB7" s="265"/>
+      <c r="AC7" s="265"/>
+      <c r="AD7" s="265"/>
+      <c r="AE7" s="265"/>
+      <c r="AF7" s="265"/>
+      <c r="AG7" s="265"/>
+      <c r="AH7" s="265"/>
+      <c r="AI7" s="265"/>
+      <c r="AJ7" s="265"/>
+      <c r="AK7" s="265"/>
+      <c r="AL7" s="265"/>
+      <c r="AM7" s="265"/>
+      <c r="AN7" s="254"/>
+      <c r="AO7" s="254"/>
+      <c r="AP7" s="254"/>
+      <c r="AQ7" s="254"/>
+      <c r="AR7" s="254"/>
+      <c r="AS7" s="254"/>
+      <c r="AT7" s="254"/>
+      <c r="AU7" s="254"/>
+      <c r="AV7" s="254"/>
+      <c r="AW7" s="254"/>
     </row>
     <row r="8" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A8" s="58"/>
-      <c r="B8" s="251"/>
-      <c r="C8" s="251"/>
-      <c r="D8" s="251"/>
-      <c r="E8" s="252"/>
-      <c r="F8" s="252"/>
-      <c r="G8" s="252"/>
-      <c r="H8" s="252"/>
-      <c r="I8" s="252"/>
-      <c r="J8" s="253"/>
-      <c r="K8" s="254"/>
-      <c r="L8" s="255"/>
-      <c r="M8" s="256"/>
-      <c r="N8" s="257"/>
-      <c r="O8" s="257"/>
-      <c r="P8" s="257"/>
-      <c r="Q8" s="257"/>
-      <c r="R8" s="258"/>
-      <c r="S8" s="250"/>
-      <c r="T8" s="250"/>
-      <c r="U8" s="250"/>
-      <c r="V8" s="259"/>
-      <c r="W8" s="259"/>
-      <c r="X8" s="259"/>
-      <c r="Y8" s="259"/>
-      <c r="Z8" s="259"/>
-      <c r="AA8" s="259"/>
-      <c r="AB8" s="259"/>
-      <c r="AC8" s="259"/>
-      <c r="AD8" s="259"/>
-      <c r="AE8" s="259"/>
-      <c r="AF8" s="259"/>
-      <c r="AG8" s="259"/>
-      <c r="AH8" s="259"/>
-      <c r="AI8" s="259"/>
-      <c r="AJ8" s="259"/>
-      <c r="AK8" s="259"/>
-      <c r="AL8" s="259"/>
-      <c r="AM8" s="259"/>
-      <c r="AN8" s="250"/>
-      <c r="AO8" s="250"/>
-      <c r="AP8" s="250"/>
-      <c r="AQ8" s="250"/>
-      <c r="AR8" s="250"/>
-      <c r="AS8" s="250"/>
-      <c r="AT8" s="250"/>
-      <c r="AU8" s="250"/>
-      <c r="AV8" s="250"/>
-      <c r="AW8" s="250"/>
+      <c r="B8" s="266"/>
+      <c r="C8" s="266"/>
+      <c r="D8" s="266"/>
+      <c r="E8" s="247"/>
+      <c r="F8" s="247"/>
+      <c r="G8" s="247"/>
+      <c r="H8" s="247"/>
+      <c r="I8" s="247"/>
+      <c r="J8" s="248"/>
+      <c r="K8" s="249"/>
+      <c r="L8" s="250"/>
+      <c r="M8" s="269"/>
+      <c r="N8" s="270"/>
+      <c r="O8" s="270"/>
+      <c r="P8" s="270"/>
+      <c r="Q8" s="270"/>
+      <c r="R8" s="271"/>
+      <c r="S8" s="254"/>
+      <c r="T8" s="254"/>
+      <c r="U8" s="254"/>
+      <c r="V8" s="265"/>
+      <c r="W8" s="265"/>
+      <c r="X8" s="265"/>
+      <c r="Y8" s="265"/>
+      <c r="Z8" s="265"/>
+      <c r="AA8" s="265"/>
+      <c r="AB8" s="265"/>
+      <c r="AC8" s="265"/>
+      <c r="AD8" s="265"/>
+      <c r="AE8" s="265"/>
+      <c r="AF8" s="265"/>
+      <c r="AG8" s="265"/>
+      <c r="AH8" s="265"/>
+      <c r="AI8" s="265"/>
+      <c r="AJ8" s="265"/>
+      <c r="AK8" s="265"/>
+      <c r="AL8" s="265"/>
+      <c r="AM8" s="265"/>
+      <c r="AN8" s="254"/>
+      <c r="AO8" s="254"/>
+      <c r="AP8" s="254"/>
+      <c r="AQ8" s="254"/>
+      <c r="AR8" s="254"/>
+      <c r="AS8" s="254"/>
+      <c r="AT8" s="254"/>
+      <c r="AU8" s="254"/>
+      <c r="AV8" s="254"/>
+      <c r="AW8" s="254"/>
     </row>
     <row r="9" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A9" s="58"/>
-      <c r="B9" s="251"/>
-      <c r="C9" s="251"/>
-      <c r="D9" s="251"/>
-      <c r="E9" s="252"/>
-      <c r="F9" s="252"/>
-      <c r="G9" s="252"/>
-      <c r="H9" s="252"/>
-      <c r="I9" s="252"/>
-      <c r="J9" s="253"/>
-      <c r="K9" s="254"/>
-      <c r="L9" s="255"/>
-      <c r="M9" s="256"/>
-      <c r="N9" s="257"/>
-      <c r="O9" s="257"/>
-      <c r="P9" s="257"/>
-      <c r="Q9" s="257"/>
-      <c r="R9" s="258"/>
-      <c r="S9" s="250"/>
-      <c r="T9" s="250"/>
-      <c r="U9" s="250"/>
-      <c r="V9" s="259"/>
-      <c r="W9" s="259"/>
-      <c r="X9" s="259"/>
-      <c r="Y9" s="259"/>
-      <c r="Z9" s="259"/>
-      <c r="AA9" s="259"/>
-      <c r="AB9" s="259"/>
-      <c r="AC9" s="259"/>
-      <c r="AD9" s="259"/>
-      <c r="AE9" s="259"/>
-      <c r="AF9" s="259"/>
-      <c r="AG9" s="259"/>
-      <c r="AH9" s="259"/>
-      <c r="AI9" s="259"/>
-      <c r="AJ9" s="259"/>
-      <c r="AK9" s="259"/>
-      <c r="AL9" s="259"/>
-      <c r="AM9" s="259"/>
-      <c r="AN9" s="250"/>
-      <c r="AO9" s="250"/>
-      <c r="AP9" s="250"/>
-      <c r="AQ9" s="250"/>
-      <c r="AR9" s="250"/>
-      <c r="AS9" s="250"/>
-      <c r="AT9" s="250"/>
-      <c r="AU9" s="250"/>
-      <c r="AV9" s="250"/>
-      <c r="AW9" s="250"/>
+      <c r="B9" s="266"/>
+      <c r="C9" s="266"/>
+      <c r="D9" s="266"/>
+      <c r="E9" s="247"/>
+      <c r="F9" s="247"/>
+      <c r="G9" s="247"/>
+      <c r="H9" s="247"/>
+      <c r="I9" s="247"/>
+      <c r="J9" s="248"/>
+      <c r="K9" s="249"/>
+      <c r="L9" s="250"/>
+      <c r="M9" s="269"/>
+      <c r="N9" s="270"/>
+      <c r="O9" s="270"/>
+      <c r="P9" s="270"/>
+      <c r="Q9" s="270"/>
+      <c r="R9" s="271"/>
+      <c r="S9" s="254"/>
+      <c r="T9" s="254"/>
+      <c r="U9" s="254"/>
+      <c r="V9" s="265"/>
+      <c r="W9" s="265"/>
+      <c r="X9" s="265"/>
+      <c r="Y9" s="265"/>
+      <c r="Z9" s="265"/>
+      <c r="AA9" s="265"/>
+      <c r="AB9" s="265"/>
+      <c r="AC9" s="265"/>
+      <c r="AD9" s="265"/>
+      <c r="AE9" s="265"/>
+      <c r="AF9" s="265"/>
+      <c r="AG9" s="265"/>
+      <c r="AH9" s="265"/>
+      <c r="AI9" s="265"/>
+      <c r="AJ9" s="265"/>
+      <c r="AK9" s="265"/>
+      <c r="AL9" s="265"/>
+      <c r="AM9" s="265"/>
+      <c r="AN9" s="254"/>
+      <c r="AO9" s="254"/>
+      <c r="AP9" s="254"/>
+      <c r="AQ9" s="254"/>
+      <c r="AR9" s="254"/>
+      <c r="AS9" s="254"/>
+      <c r="AT9" s="254"/>
+      <c r="AU9" s="254"/>
+      <c r="AV9" s="254"/>
+      <c r="AW9" s="254"/>
     </row>
     <row r="10" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A10" s="58"/>
-      <c r="B10" s="251"/>
-      <c r="C10" s="251"/>
-      <c r="D10" s="251"/>
-      <c r="E10" s="252"/>
-      <c r="F10" s="252"/>
-      <c r="G10" s="252"/>
-      <c r="H10" s="252"/>
-      <c r="I10" s="252"/>
-      <c r="J10" s="253"/>
-      <c r="K10" s="254"/>
-      <c r="L10" s="255"/>
-      <c r="M10" s="256"/>
-      <c r="N10" s="257"/>
-      <c r="O10" s="257"/>
-      <c r="P10" s="257"/>
-      <c r="Q10" s="257"/>
-      <c r="R10" s="258"/>
-      <c r="S10" s="250"/>
-      <c r="T10" s="250"/>
-      <c r="U10" s="250"/>
-      <c r="V10" s="259"/>
-      <c r="W10" s="259"/>
-      <c r="X10" s="259"/>
-      <c r="Y10" s="259"/>
-      <c r="Z10" s="259"/>
-      <c r="AA10" s="259"/>
-      <c r="AB10" s="259"/>
-      <c r="AC10" s="259"/>
-      <c r="AD10" s="259"/>
-      <c r="AE10" s="259"/>
-      <c r="AF10" s="259"/>
-      <c r="AG10" s="259"/>
-      <c r="AH10" s="259"/>
-      <c r="AI10" s="259"/>
-      <c r="AJ10" s="259"/>
-      <c r="AK10" s="259"/>
-      <c r="AL10" s="259"/>
-      <c r="AM10" s="259"/>
-      <c r="AN10" s="250"/>
-      <c r="AO10" s="250"/>
-      <c r="AP10" s="250"/>
-      <c r="AQ10" s="250"/>
-      <c r="AR10" s="250"/>
-      <c r="AS10" s="250"/>
-      <c r="AT10" s="250"/>
-      <c r="AU10" s="250"/>
-      <c r="AV10" s="250"/>
-      <c r="AW10" s="250"/>
+      <c r="B10" s="266"/>
+      <c r="C10" s="266"/>
+      <c r="D10" s="266"/>
+      <c r="E10" s="247"/>
+      <c r="F10" s="247"/>
+      <c r="G10" s="247"/>
+      <c r="H10" s="247"/>
+      <c r="I10" s="247"/>
+      <c r="J10" s="248"/>
+      <c r="K10" s="249"/>
+      <c r="L10" s="250"/>
+      <c r="M10" s="269"/>
+      <c r="N10" s="270"/>
+      <c r="O10" s="270"/>
+      <c r="P10" s="270"/>
+      <c r="Q10" s="270"/>
+      <c r="R10" s="271"/>
+      <c r="S10" s="254"/>
+      <c r="T10" s="254"/>
+      <c r="U10" s="254"/>
+      <c r="V10" s="265"/>
+      <c r="W10" s="265"/>
+      <c r="X10" s="265"/>
+      <c r="Y10" s="265"/>
+      <c r="Z10" s="265"/>
+      <c r="AA10" s="265"/>
+      <c r="AB10" s="265"/>
+      <c r="AC10" s="265"/>
+      <c r="AD10" s="265"/>
+      <c r="AE10" s="265"/>
+      <c r="AF10" s="265"/>
+      <c r="AG10" s="265"/>
+      <c r="AH10" s="265"/>
+      <c r="AI10" s="265"/>
+      <c r="AJ10" s="265"/>
+      <c r="AK10" s="265"/>
+      <c r="AL10" s="265"/>
+      <c r="AM10" s="265"/>
+      <c r="AN10" s="254"/>
+      <c r="AO10" s="254"/>
+      <c r="AP10" s="254"/>
+      <c r="AQ10" s="254"/>
+      <c r="AR10" s="254"/>
+      <c r="AS10" s="254"/>
+      <c r="AT10" s="254"/>
+      <c r="AU10" s="254"/>
+      <c r="AV10" s="254"/>
+      <c r="AW10" s="254"/>
     </row>
     <row r="11" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A11" s="58"/>
-      <c r="B11" s="251"/>
-      <c r="C11" s="251"/>
-      <c r="D11" s="251"/>
-      <c r="E11" s="252"/>
-      <c r="F11" s="252"/>
-      <c r="G11" s="252"/>
-      <c r="H11" s="252"/>
-      <c r="I11" s="252"/>
-      <c r="J11" s="253"/>
-      <c r="K11" s="254"/>
-      <c r="L11" s="255"/>
-      <c r="M11" s="263"/>
-      <c r="N11" s="264"/>
-      <c r="O11" s="264"/>
-      <c r="P11" s="264"/>
-      <c r="Q11" s="264"/>
-      <c r="R11" s="265"/>
-      <c r="S11" s="250"/>
-      <c r="T11" s="250"/>
-      <c r="U11" s="250"/>
-      <c r="V11" s="266"/>
-      <c r="W11" s="272"/>
-      <c r="X11" s="272"/>
-      <c r="Y11" s="272"/>
-      <c r="Z11" s="272"/>
-      <c r="AA11" s="272"/>
-      <c r="AB11" s="272"/>
-      <c r="AC11" s="272"/>
-      <c r="AD11" s="272"/>
-      <c r="AE11" s="272"/>
-      <c r="AF11" s="272"/>
-      <c r="AG11" s="272"/>
-      <c r="AH11" s="272"/>
-      <c r="AI11" s="272"/>
-      <c r="AJ11" s="272"/>
-      <c r="AK11" s="272"/>
-      <c r="AL11" s="272"/>
-      <c r="AM11" s="273"/>
-      <c r="AN11" s="250"/>
-      <c r="AO11" s="250"/>
-      <c r="AP11" s="250"/>
-      <c r="AQ11" s="250"/>
-      <c r="AR11" s="250"/>
-      <c r="AS11" s="250"/>
-      <c r="AT11" s="250"/>
-      <c r="AU11" s="250"/>
-      <c r="AV11" s="250"/>
-      <c r="AW11" s="250"/>
+      <c r="B11" s="266"/>
+      <c r="C11" s="266"/>
+      <c r="D11" s="266"/>
+      <c r="E11" s="247"/>
+      <c r="F11" s="247"/>
+      <c r="G11" s="247"/>
+      <c r="H11" s="247"/>
+      <c r="I11" s="247"/>
+      <c r="J11" s="248"/>
+      <c r="K11" s="249"/>
+      <c r="L11" s="250"/>
+      <c r="M11" s="261"/>
+      <c r="N11" s="259"/>
+      <c r="O11" s="259"/>
+      <c r="P11" s="259"/>
+      <c r="Q11" s="259"/>
+      <c r="R11" s="260"/>
+      <c r="S11" s="254"/>
+      <c r="T11" s="254"/>
+      <c r="U11" s="254"/>
+      <c r="V11" s="255"/>
+      <c r="W11" s="267"/>
+      <c r="X11" s="267"/>
+      <c r="Y11" s="267"/>
+      <c r="Z11" s="267"/>
+      <c r="AA11" s="267"/>
+      <c r="AB11" s="267"/>
+      <c r="AC11" s="267"/>
+      <c r="AD11" s="267"/>
+      <c r="AE11" s="267"/>
+      <c r="AF11" s="267"/>
+      <c r="AG11" s="267"/>
+      <c r="AH11" s="267"/>
+      <c r="AI11" s="267"/>
+      <c r="AJ11" s="267"/>
+      <c r="AK11" s="267"/>
+      <c r="AL11" s="267"/>
+      <c r="AM11" s="268"/>
+      <c r="AN11" s="254"/>
+      <c r="AO11" s="254"/>
+      <c r="AP11" s="254"/>
+      <c r="AQ11" s="254"/>
+      <c r="AR11" s="254"/>
+      <c r="AS11" s="254"/>
+      <c r="AT11" s="254"/>
+      <c r="AU11" s="254"/>
+      <c r="AV11" s="254"/>
+      <c r="AW11" s="254"/>
     </row>
     <row r="12" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A12" s="58"/>
-      <c r="B12" s="260"/>
-      <c r="C12" s="261"/>
-      <c r="D12" s="262"/>
-      <c r="E12" s="252"/>
-      <c r="F12" s="252"/>
-      <c r="G12" s="252"/>
-      <c r="H12" s="252"/>
-      <c r="I12" s="252"/>
-      <c r="J12" s="253"/>
-      <c r="K12" s="254"/>
-      <c r="L12" s="255"/>
-      <c r="M12" s="263"/>
-      <c r="N12" s="264"/>
-      <c r="O12" s="264"/>
-      <c r="P12" s="264"/>
-      <c r="Q12" s="264"/>
-      <c r="R12" s="265"/>
-      <c r="S12" s="250"/>
-      <c r="T12" s="250"/>
-      <c r="U12" s="250"/>
-      <c r="V12" s="266"/>
-      <c r="W12" s="267"/>
-      <c r="X12" s="267"/>
-      <c r="Y12" s="267"/>
-      <c r="Z12" s="267"/>
-      <c r="AA12" s="267"/>
-      <c r="AB12" s="267"/>
-      <c r="AC12" s="267"/>
-      <c r="AD12" s="267"/>
-      <c r="AE12" s="267"/>
-      <c r="AF12" s="267"/>
-      <c r="AG12" s="267"/>
-      <c r="AH12" s="267"/>
-      <c r="AI12" s="267"/>
-      <c r="AJ12" s="267"/>
-      <c r="AK12" s="267"/>
-      <c r="AL12" s="267"/>
-      <c r="AM12" s="268"/>
-      <c r="AN12" s="269"/>
-      <c r="AO12" s="270"/>
-      <c r="AP12" s="270"/>
-      <c r="AQ12" s="270"/>
-      <c r="AR12" s="271"/>
-      <c r="AS12" s="269"/>
-      <c r="AT12" s="270"/>
-      <c r="AU12" s="270"/>
-      <c r="AV12" s="270"/>
-      <c r="AW12" s="271"/>
+      <c r="B12" s="244"/>
+      <c r="C12" s="245"/>
+      <c r="D12" s="246"/>
+      <c r="E12" s="247"/>
+      <c r="F12" s="247"/>
+      <c r="G12" s="247"/>
+      <c r="H12" s="247"/>
+      <c r="I12" s="247"/>
+      <c r="J12" s="248"/>
+      <c r="K12" s="249"/>
+      <c r="L12" s="250"/>
+      <c r="M12" s="261"/>
+      <c r="N12" s="259"/>
+      <c r="O12" s="259"/>
+      <c r="P12" s="259"/>
+      <c r="Q12" s="259"/>
+      <c r="R12" s="260"/>
+      <c r="S12" s="254"/>
+      <c r="T12" s="254"/>
+      <c r="U12" s="254"/>
+      <c r="V12" s="255"/>
+      <c r="W12" s="256"/>
+      <c r="X12" s="256"/>
+      <c r="Y12" s="256"/>
+      <c r="Z12" s="256"/>
+      <c r="AA12" s="256"/>
+      <c r="AB12" s="256"/>
+      <c r="AC12" s="256"/>
+      <c r="AD12" s="256"/>
+      <c r="AE12" s="256"/>
+      <c r="AF12" s="256"/>
+      <c r="AG12" s="256"/>
+      <c r="AH12" s="256"/>
+      <c r="AI12" s="256"/>
+      <c r="AJ12" s="256"/>
+      <c r="AK12" s="256"/>
+      <c r="AL12" s="256"/>
+      <c r="AM12" s="257"/>
+      <c r="AN12" s="241"/>
+      <c r="AO12" s="242"/>
+      <c r="AP12" s="242"/>
+      <c r="AQ12" s="242"/>
+      <c r="AR12" s="243"/>
+      <c r="AS12" s="241"/>
+      <c r="AT12" s="242"/>
+      <c r="AU12" s="242"/>
+      <c r="AV12" s="242"/>
+      <c r="AW12" s="243"/>
     </row>
     <row r="13" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A13" s="58"/>
-      <c r="B13" s="260"/>
-      <c r="C13" s="261"/>
-      <c r="D13" s="262"/>
-      <c r="E13" s="252"/>
-      <c r="F13" s="252"/>
-      <c r="G13" s="252"/>
-      <c r="H13" s="252"/>
-      <c r="I13" s="252"/>
-      <c r="J13" s="253"/>
-      <c r="K13" s="254"/>
-      <c r="L13" s="255"/>
-      <c r="M13" s="274"/>
-      <c r="N13" s="264"/>
-      <c r="O13" s="264"/>
-      <c r="P13" s="264"/>
-      <c r="Q13" s="264"/>
-      <c r="R13" s="265"/>
-      <c r="S13" s="250"/>
-      <c r="T13" s="250"/>
-      <c r="U13" s="250"/>
-      <c r="V13" s="266"/>
-      <c r="W13" s="267"/>
-      <c r="X13" s="267"/>
-      <c r="Y13" s="267"/>
-      <c r="Z13" s="267"/>
-      <c r="AA13" s="267"/>
-      <c r="AB13" s="267"/>
-      <c r="AC13" s="267"/>
-      <c r="AD13" s="267"/>
-      <c r="AE13" s="267"/>
-      <c r="AF13" s="267"/>
-      <c r="AG13" s="267"/>
-      <c r="AH13" s="267"/>
-      <c r="AI13" s="267"/>
-      <c r="AJ13" s="267"/>
-      <c r="AK13" s="267"/>
-      <c r="AL13" s="267"/>
-      <c r="AM13" s="268"/>
-      <c r="AN13" s="269"/>
-      <c r="AO13" s="270"/>
-      <c r="AP13" s="270"/>
-      <c r="AQ13" s="270"/>
-      <c r="AR13" s="271"/>
-      <c r="AS13" s="269"/>
-      <c r="AT13" s="270"/>
-      <c r="AU13" s="270"/>
-      <c r="AV13" s="270"/>
-      <c r="AW13" s="271"/>
+      <c r="B13" s="244"/>
+      <c r="C13" s="245"/>
+      <c r="D13" s="246"/>
+      <c r="E13" s="247"/>
+      <c r="F13" s="247"/>
+      <c r="G13" s="247"/>
+      <c r="H13" s="247"/>
+      <c r="I13" s="247"/>
+      <c r="J13" s="248"/>
+      <c r="K13" s="249"/>
+      <c r="L13" s="250"/>
+      <c r="M13" s="258"/>
+      <c r="N13" s="259"/>
+      <c r="O13" s="259"/>
+      <c r="P13" s="259"/>
+      <c r="Q13" s="259"/>
+      <c r="R13" s="260"/>
+      <c r="S13" s="254"/>
+      <c r="T13" s="254"/>
+      <c r="U13" s="254"/>
+      <c r="V13" s="255"/>
+      <c r="W13" s="256"/>
+      <c r="X13" s="256"/>
+      <c r="Y13" s="256"/>
+      <c r="Z13" s="256"/>
+      <c r="AA13" s="256"/>
+      <c r="AB13" s="256"/>
+      <c r="AC13" s="256"/>
+      <c r="AD13" s="256"/>
+      <c r="AE13" s="256"/>
+      <c r="AF13" s="256"/>
+      <c r="AG13" s="256"/>
+      <c r="AH13" s="256"/>
+      <c r="AI13" s="256"/>
+      <c r="AJ13" s="256"/>
+      <c r="AK13" s="256"/>
+      <c r="AL13" s="256"/>
+      <c r="AM13" s="257"/>
+      <c r="AN13" s="241"/>
+      <c r="AO13" s="242"/>
+      <c r="AP13" s="242"/>
+      <c r="AQ13" s="242"/>
+      <c r="AR13" s="243"/>
+      <c r="AS13" s="241"/>
+      <c r="AT13" s="242"/>
+      <c r="AU13" s="242"/>
+      <c r="AV13" s="242"/>
+      <c r="AW13" s="243"/>
     </row>
     <row r="14" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A14" s="58"/>
-      <c r="B14" s="260"/>
-      <c r="C14" s="261"/>
-      <c r="D14" s="262"/>
-      <c r="E14" s="252"/>
-      <c r="F14" s="252"/>
-      <c r="G14" s="252"/>
-      <c r="H14" s="252"/>
-      <c r="I14" s="252"/>
-      <c r="J14" s="253"/>
-      <c r="K14" s="254"/>
-      <c r="L14" s="255"/>
-      <c r="M14" s="274"/>
-      <c r="N14" s="264"/>
-      <c r="O14" s="264"/>
-      <c r="P14" s="264"/>
-      <c r="Q14" s="264"/>
-      <c r="R14" s="265"/>
-      <c r="S14" s="250"/>
-      <c r="T14" s="250"/>
-      <c r="U14" s="250"/>
-      <c r="V14" s="275"/>
-      <c r="W14" s="259"/>
-      <c r="X14" s="259"/>
-      <c r="Y14" s="259"/>
-      <c r="Z14" s="259"/>
-      <c r="AA14" s="259"/>
-      <c r="AB14" s="259"/>
-      <c r="AC14" s="259"/>
-      <c r="AD14" s="259"/>
-      <c r="AE14" s="259"/>
-      <c r="AF14" s="259"/>
-      <c r="AG14" s="259"/>
-      <c r="AH14" s="259"/>
-      <c r="AI14" s="259"/>
-      <c r="AJ14" s="259"/>
-      <c r="AK14" s="259"/>
-      <c r="AL14" s="259"/>
-      <c r="AM14" s="259"/>
-      <c r="AN14" s="250"/>
-      <c r="AO14" s="250"/>
-      <c r="AP14" s="250"/>
-      <c r="AQ14" s="250"/>
-      <c r="AR14" s="250"/>
-      <c r="AS14" s="269"/>
-      <c r="AT14" s="270"/>
-      <c r="AU14" s="270"/>
-      <c r="AV14" s="270"/>
-      <c r="AW14" s="271"/>
+      <c r="B14" s="244"/>
+      <c r="C14" s="245"/>
+      <c r="D14" s="246"/>
+      <c r="E14" s="247"/>
+      <c r="F14" s="247"/>
+      <c r="G14" s="247"/>
+      <c r="H14" s="247"/>
+      <c r="I14" s="247"/>
+      <c r="J14" s="248"/>
+      <c r="K14" s="249"/>
+      <c r="L14" s="250"/>
+      <c r="M14" s="258"/>
+      <c r="N14" s="259"/>
+      <c r="O14" s="259"/>
+      <c r="P14" s="259"/>
+      <c r="Q14" s="259"/>
+      <c r="R14" s="260"/>
+      <c r="S14" s="254"/>
+      <c r="T14" s="254"/>
+      <c r="U14" s="254"/>
+      <c r="V14" s="264"/>
+      <c r="W14" s="265"/>
+      <c r="X14" s="265"/>
+      <c r="Y14" s="265"/>
+      <c r="Z14" s="265"/>
+      <c r="AA14" s="265"/>
+      <c r="AB14" s="265"/>
+      <c r="AC14" s="265"/>
+      <c r="AD14" s="265"/>
+      <c r="AE14" s="265"/>
+      <c r="AF14" s="265"/>
+      <c r="AG14" s="265"/>
+      <c r="AH14" s="265"/>
+      <c r="AI14" s="265"/>
+      <c r="AJ14" s="265"/>
+      <c r="AK14" s="265"/>
+      <c r="AL14" s="265"/>
+      <c r="AM14" s="265"/>
+      <c r="AN14" s="254"/>
+      <c r="AO14" s="254"/>
+      <c r="AP14" s="254"/>
+      <c r="AQ14" s="254"/>
+      <c r="AR14" s="254"/>
+      <c r="AS14" s="241"/>
+      <c r="AT14" s="242"/>
+      <c r="AU14" s="242"/>
+      <c r="AV14" s="242"/>
+      <c r="AW14" s="243"/>
     </row>
     <row r="15" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A15" s="58"/>
-      <c r="B15" s="260"/>
-      <c r="C15" s="261"/>
-      <c r="D15" s="262"/>
-      <c r="E15" s="252"/>
-      <c r="F15" s="252"/>
-      <c r="G15" s="252"/>
-      <c r="H15" s="252"/>
-      <c r="I15" s="252"/>
-      <c r="J15" s="253"/>
-      <c r="K15" s="254"/>
-      <c r="L15" s="255"/>
-      <c r="M15" s="263"/>
-      <c r="N15" s="264"/>
-      <c r="O15" s="264"/>
-      <c r="P15" s="264"/>
-      <c r="Q15" s="264"/>
-      <c r="R15" s="265"/>
-      <c r="S15" s="250"/>
-      <c r="T15" s="250"/>
-      <c r="U15" s="250"/>
-      <c r="V15" s="266"/>
-      <c r="W15" s="267"/>
-      <c r="X15" s="267"/>
-      <c r="Y15" s="267"/>
-      <c r="Z15" s="267"/>
-      <c r="AA15" s="267"/>
-      <c r="AB15" s="267"/>
-      <c r="AC15" s="267"/>
-      <c r="AD15" s="267"/>
-      <c r="AE15" s="267"/>
-      <c r="AF15" s="267"/>
-      <c r="AG15" s="267"/>
-      <c r="AH15" s="267"/>
-      <c r="AI15" s="267"/>
-      <c r="AJ15" s="267"/>
-      <c r="AK15" s="267"/>
-      <c r="AL15" s="267"/>
-      <c r="AM15" s="268"/>
-      <c r="AN15" s="269"/>
-      <c r="AO15" s="270"/>
-      <c r="AP15" s="270"/>
-      <c r="AQ15" s="270"/>
-      <c r="AR15" s="271"/>
-      <c r="AS15" s="269"/>
-      <c r="AT15" s="270"/>
-      <c r="AU15" s="270"/>
-      <c r="AV15" s="270"/>
-      <c r="AW15" s="271"/>
+      <c r="B15" s="244"/>
+      <c r="C15" s="245"/>
+      <c r="D15" s="246"/>
+      <c r="E15" s="247"/>
+      <c r="F15" s="247"/>
+      <c r="G15" s="247"/>
+      <c r="H15" s="247"/>
+      <c r="I15" s="247"/>
+      <c r="J15" s="248"/>
+      <c r="K15" s="249"/>
+      <c r="L15" s="250"/>
+      <c r="M15" s="261"/>
+      <c r="N15" s="259"/>
+      <c r="O15" s="259"/>
+      <c r="P15" s="259"/>
+      <c r="Q15" s="259"/>
+      <c r="R15" s="260"/>
+      <c r="S15" s="254"/>
+      <c r="T15" s="254"/>
+      <c r="U15" s="254"/>
+      <c r="V15" s="255"/>
+      <c r="W15" s="256"/>
+      <c r="X15" s="256"/>
+      <c r="Y15" s="256"/>
+      <c r="Z15" s="256"/>
+      <c r="AA15" s="256"/>
+      <c r="AB15" s="256"/>
+      <c r="AC15" s="256"/>
+      <c r="AD15" s="256"/>
+      <c r="AE15" s="256"/>
+      <c r="AF15" s="256"/>
+      <c r="AG15" s="256"/>
+      <c r="AH15" s="256"/>
+      <c r="AI15" s="256"/>
+      <c r="AJ15" s="256"/>
+      <c r="AK15" s="256"/>
+      <c r="AL15" s="256"/>
+      <c r="AM15" s="257"/>
+      <c r="AN15" s="241"/>
+      <c r="AO15" s="242"/>
+      <c r="AP15" s="242"/>
+      <c r="AQ15" s="242"/>
+      <c r="AR15" s="243"/>
+      <c r="AS15" s="241"/>
+      <c r="AT15" s="242"/>
+      <c r="AU15" s="242"/>
+      <c r="AV15" s="242"/>
+      <c r="AW15" s="243"/>
     </row>
     <row r="16" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A16" s="58"/>
-      <c r="B16" s="260"/>
-      <c r="C16" s="261"/>
-      <c r="D16" s="262"/>
-      <c r="E16" s="252"/>
-      <c r="F16" s="252"/>
-      <c r="G16" s="252"/>
-      <c r="H16" s="252"/>
-      <c r="I16" s="252"/>
-      <c r="J16" s="253"/>
-      <c r="K16" s="254"/>
-      <c r="L16" s="255"/>
-      <c r="M16" s="263"/>
-      <c r="N16" s="264"/>
-      <c r="O16" s="264"/>
-      <c r="P16" s="264"/>
-      <c r="Q16" s="264"/>
-      <c r="R16" s="265"/>
-      <c r="S16" s="250"/>
-      <c r="T16" s="250"/>
-      <c r="U16" s="250"/>
-      <c r="V16" s="266"/>
-      <c r="W16" s="267"/>
-      <c r="X16" s="267"/>
-      <c r="Y16" s="267"/>
-      <c r="Z16" s="267"/>
-      <c r="AA16" s="267"/>
-      <c r="AB16" s="267"/>
-      <c r="AC16" s="267"/>
-      <c r="AD16" s="267"/>
-      <c r="AE16" s="267"/>
-      <c r="AF16" s="267"/>
-      <c r="AG16" s="267"/>
-      <c r="AH16" s="267"/>
-      <c r="AI16" s="267"/>
-      <c r="AJ16" s="267"/>
-      <c r="AK16" s="267"/>
-      <c r="AL16" s="267"/>
-      <c r="AM16" s="268"/>
-      <c r="AN16" s="269"/>
-      <c r="AO16" s="270"/>
-      <c r="AP16" s="270"/>
-      <c r="AQ16" s="270"/>
-      <c r="AR16" s="271"/>
-      <c r="AS16" s="269"/>
-      <c r="AT16" s="270"/>
-      <c r="AU16" s="270"/>
-      <c r="AV16" s="270"/>
-      <c r="AW16" s="271"/>
+      <c r="B16" s="244"/>
+      <c r="C16" s="245"/>
+      <c r="D16" s="246"/>
+      <c r="E16" s="247"/>
+      <c r="F16" s="247"/>
+      <c r="G16" s="247"/>
+      <c r="H16" s="247"/>
+      <c r="I16" s="247"/>
+      <c r="J16" s="248"/>
+      <c r="K16" s="249"/>
+      <c r="L16" s="250"/>
+      <c r="M16" s="261"/>
+      <c r="N16" s="259"/>
+      <c r="O16" s="259"/>
+      <c r="P16" s="259"/>
+      <c r="Q16" s="259"/>
+      <c r="R16" s="260"/>
+      <c r="S16" s="254"/>
+      <c r="T16" s="254"/>
+      <c r="U16" s="254"/>
+      <c r="V16" s="255"/>
+      <c r="W16" s="256"/>
+      <c r="X16" s="256"/>
+      <c r="Y16" s="256"/>
+      <c r="Z16" s="256"/>
+      <c r="AA16" s="256"/>
+      <c r="AB16" s="256"/>
+      <c r="AC16" s="256"/>
+      <c r="AD16" s="256"/>
+      <c r="AE16" s="256"/>
+      <c r="AF16" s="256"/>
+      <c r="AG16" s="256"/>
+      <c r="AH16" s="256"/>
+      <c r="AI16" s="256"/>
+      <c r="AJ16" s="256"/>
+      <c r="AK16" s="256"/>
+      <c r="AL16" s="256"/>
+      <c r="AM16" s="257"/>
+      <c r="AN16" s="241"/>
+      <c r="AO16" s="242"/>
+      <c r="AP16" s="242"/>
+      <c r="AQ16" s="242"/>
+      <c r="AR16" s="243"/>
+      <c r="AS16" s="241"/>
+      <c r="AT16" s="242"/>
+      <c r="AU16" s="242"/>
+      <c r="AV16" s="242"/>
+      <c r="AW16" s="243"/>
     </row>
     <row r="17" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A17" s="58"/>
-      <c r="B17" s="260"/>
-      <c r="C17" s="261"/>
-      <c r="D17" s="262"/>
-      <c r="E17" s="252"/>
-      <c r="F17" s="252"/>
-      <c r="G17" s="252"/>
-      <c r="H17" s="252"/>
-      <c r="I17" s="252"/>
-      <c r="J17" s="253"/>
-      <c r="K17" s="254"/>
-      <c r="L17" s="255"/>
-      <c r="M17" s="263"/>
-      <c r="N17" s="264"/>
-      <c r="O17" s="264"/>
-      <c r="P17" s="264"/>
-      <c r="Q17" s="264"/>
-      <c r="R17" s="276"/>
-      <c r="S17" s="277"/>
-      <c r="T17" s="277"/>
-      <c r="U17" s="277"/>
-      <c r="V17" s="266"/>
-      <c r="W17" s="267"/>
-      <c r="X17" s="267"/>
-      <c r="Y17" s="267"/>
-      <c r="Z17" s="267"/>
-      <c r="AA17" s="267"/>
-      <c r="AB17" s="267"/>
-      <c r="AC17" s="267"/>
-      <c r="AD17" s="267"/>
-      <c r="AE17" s="267"/>
-      <c r="AF17" s="267"/>
-      <c r="AG17" s="267"/>
-      <c r="AH17" s="267"/>
-      <c r="AI17" s="267"/>
-      <c r="AJ17" s="267"/>
-      <c r="AK17" s="267"/>
-      <c r="AL17" s="267"/>
-      <c r="AM17" s="268"/>
-      <c r="AN17" s="269"/>
-      <c r="AO17" s="270"/>
-      <c r="AP17" s="270"/>
-      <c r="AQ17" s="270"/>
-      <c r="AR17" s="271"/>
-      <c r="AS17" s="269"/>
-      <c r="AT17" s="270"/>
-      <c r="AU17" s="270"/>
-      <c r="AV17" s="270"/>
-      <c r="AW17" s="271"/>
+      <c r="B17" s="244"/>
+      <c r="C17" s="245"/>
+      <c r="D17" s="246"/>
+      <c r="E17" s="247"/>
+      <c r="F17" s="247"/>
+      <c r="G17" s="247"/>
+      <c r="H17" s="247"/>
+      <c r="I17" s="247"/>
+      <c r="J17" s="248"/>
+      <c r="K17" s="249"/>
+      <c r="L17" s="250"/>
+      <c r="M17" s="261"/>
+      <c r="N17" s="259"/>
+      <c r="O17" s="259"/>
+      <c r="P17" s="259"/>
+      <c r="Q17" s="259"/>
+      <c r="R17" s="262"/>
+      <c r="S17" s="263"/>
+      <c r="T17" s="263"/>
+      <c r="U17" s="263"/>
+      <c r="V17" s="255"/>
+      <c r="W17" s="256"/>
+      <c r="X17" s="256"/>
+      <c r="Y17" s="256"/>
+      <c r="Z17" s="256"/>
+      <c r="AA17" s="256"/>
+      <c r="AB17" s="256"/>
+      <c r="AC17" s="256"/>
+      <c r="AD17" s="256"/>
+      <c r="AE17" s="256"/>
+      <c r="AF17" s="256"/>
+      <c r="AG17" s="256"/>
+      <c r="AH17" s="256"/>
+      <c r="AI17" s="256"/>
+      <c r="AJ17" s="256"/>
+      <c r="AK17" s="256"/>
+      <c r="AL17" s="256"/>
+      <c r="AM17" s="257"/>
+      <c r="AN17" s="241"/>
+      <c r="AO17" s="242"/>
+      <c r="AP17" s="242"/>
+      <c r="AQ17" s="242"/>
+      <c r="AR17" s="243"/>
+      <c r="AS17" s="241"/>
+      <c r="AT17" s="242"/>
+      <c r="AU17" s="242"/>
+      <c r="AV17" s="242"/>
+      <c r="AW17" s="243"/>
     </row>
     <row r="18" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A18" s="58"/>
-      <c r="B18" s="260"/>
-      <c r="C18" s="261"/>
-      <c r="D18" s="262"/>
-      <c r="E18" s="252"/>
-      <c r="F18" s="252"/>
-      <c r="G18" s="252"/>
-      <c r="H18" s="252"/>
-      <c r="I18" s="252"/>
-      <c r="J18" s="253"/>
-      <c r="K18" s="254"/>
-      <c r="L18" s="255"/>
-      <c r="M18" s="274"/>
-      <c r="N18" s="264"/>
-      <c r="O18" s="264"/>
-      <c r="P18" s="264"/>
-      <c r="Q18" s="264"/>
-      <c r="R18" s="265"/>
-      <c r="S18" s="250"/>
-      <c r="T18" s="250"/>
-      <c r="U18" s="250"/>
-      <c r="V18" s="266"/>
-      <c r="W18" s="267"/>
-      <c r="X18" s="267"/>
-      <c r="Y18" s="267"/>
-      <c r="Z18" s="267"/>
-      <c r="AA18" s="267"/>
-      <c r="AB18" s="267"/>
-      <c r="AC18" s="267"/>
-      <c r="AD18" s="267"/>
-      <c r="AE18" s="267"/>
-      <c r="AF18" s="267"/>
-      <c r="AG18" s="267"/>
-      <c r="AH18" s="267"/>
-      <c r="AI18" s="267"/>
-      <c r="AJ18" s="267"/>
-      <c r="AK18" s="267"/>
-      <c r="AL18" s="267"/>
-      <c r="AM18" s="268"/>
-      <c r="AN18" s="269"/>
-      <c r="AO18" s="270"/>
-      <c r="AP18" s="270"/>
-      <c r="AQ18" s="270"/>
-      <c r="AR18" s="271"/>
-      <c r="AS18" s="269"/>
-      <c r="AT18" s="270"/>
-      <c r="AU18" s="270"/>
-      <c r="AV18" s="270"/>
-      <c r="AW18" s="271"/>
+      <c r="B18" s="244"/>
+      <c r="C18" s="245"/>
+      <c r="D18" s="246"/>
+      <c r="E18" s="247"/>
+      <c r="F18" s="247"/>
+      <c r="G18" s="247"/>
+      <c r="H18" s="247"/>
+      <c r="I18" s="247"/>
+      <c r="J18" s="248"/>
+      <c r="K18" s="249"/>
+      <c r="L18" s="250"/>
+      <c r="M18" s="258"/>
+      <c r="N18" s="259"/>
+      <c r="O18" s="259"/>
+      <c r="P18" s="259"/>
+      <c r="Q18" s="259"/>
+      <c r="R18" s="260"/>
+      <c r="S18" s="254"/>
+      <c r="T18" s="254"/>
+      <c r="U18" s="254"/>
+      <c r="V18" s="255"/>
+      <c r="W18" s="256"/>
+      <c r="X18" s="256"/>
+      <c r="Y18" s="256"/>
+      <c r="Z18" s="256"/>
+      <c r="AA18" s="256"/>
+      <c r="AB18" s="256"/>
+      <c r="AC18" s="256"/>
+      <c r="AD18" s="256"/>
+      <c r="AE18" s="256"/>
+      <c r="AF18" s="256"/>
+      <c r="AG18" s="256"/>
+      <c r="AH18" s="256"/>
+      <c r="AI18" s="256"/>
+      <c r="AJ18" s="256"/>
+      <c r="AK18" s="256"/>
+      <c r="AL18" s="256"/>
+      <c r="AM18" s="257"/>
+      <c r="AN18" s="241"/>
+      <c r="AO18" s="242"/>
+      <c r="AP18" s="242"/>
+      <c r="AQ18" s="242"/>
+      <c r="AR18" s="243"/>
+      <c r="AS18" s="241"/>
+      <c r="AT18" s="242"/>
+      <c r="AU18" s="242"/>
+      <c r="AV18" s="242"/>
+      <c r="AW18" s="243"/>
     </row>
     <row r="19" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A19" s="58"/>
-      <c r="B19" s="260"/>
-      <c r="C19" s="261"/>
-      <c r="D19" s="262"/>
-      <c r="E19" s="252"/>
-      <c r="F19" s="252"/>
-      <c r="G19" s="252"/>
-      <c r="H19" s="252"/>
-      <c r="I19" s="252"/>
-      <c r="J19" s="253"/>
-      <c r="K19" s="254"/>
-      <c r="L19" s="255"/>
-      <c r="M19" s="263"/>
-      <c r="N19" s="264"/>
-      <c r="O19" s="264"/>
-      <c r="P19" s="264"/>
-      <c r="Q19" s="264"/>
-      <c r="R19" s="265"/>
-      <c r="S19" s="250"/>
-      <c r="T19" s="250"/>
-      <c r="U19" s="250"/>
-      <c r="V19" s="266"/>
-      <c r="W19" s="267"/>
-      <c r="X19" s="267"/>
-      <c r="Y19" s="267"/>
-      <c r="Z19" s="267"/>
-      <c r="AA19" s="267"/>
-      <c r="AB19" s="267"/>
-      <c r="AC19" s="267"/>
-      <c r="AD19" s="267"/>
-      <c r="AE19" s="267"/>
-      <c r="AF19" s="267"/>
-      <c r="AG19" s="267"/>
-      <c r="AH19" s="267"/>
-      <c r="AI19" s="267"/>
-      <c r="AJ19" s="267"/>
-      <c r="AK19" s="267"/>
-      <c r="AL19" s="267"/>
-      <c r="AM19" s="268"/>
-      <c r="AN19" s="250"/>
-      <c r="AO19" s="250"/>
-      <c r="AP19" s="250"/>
-      <c r="AQ19" s="250"/>
-      <c r="AR19" s="250"/>
-      <c r="AS19" s="269"/>
-      <c r="AT19" s="270"/>
-      <c r="AU19" s="270"/>
-      <c r="AV19" s="270"/>
-      <c r="AW19" s="271"/>
+      <c r="B19" s="244"/>
+      <c r="C19" s="245"/>
+      <c r="D19" s="246"/>
+      <c r="E19" s="247"/>
+      <c r="F19" s="247"/>
+      <c r="G19" s="247"/>
+      <c r="H19" s="247"/>
+      <c r="I19" s="247"/>
+      <c r="J19" s="248"/>
+      <c r="K19" s="249"/>
+      <c r="L19" s="250"/>
+      <c r="M19" s="261"/>
+      <c r="N19" s="259"/>
+      <c r="O19" s="259"/>
+      <c r="P19" s="259"/>
+      <c r="Q19" s="259"/>
+      <c r="R19" s="260"/>
+      <c r="S19" s="254"/>
+      <c r="T19" s="254"/>
+      <c r="U19" s="254"/>
+      <c r="V19" s="255"/>
+      <c r="W19" s="256"/>
+      <c r="X19" s="256"/>
+      <c r="Y19" s="256"/>
+      <c r="Z19" s="256"/>
+      <c r="AA19" s="256"/>
+      <c r="AB19" s="256"/>
+      <c r="AC19" s="256"/>
+      <c r="AD19" s="256"/>
+      <c r="AE19" s="256"/>
+      <c r="AF19" s="256"/>
+      <c r="AG19" s="256"/>
+      <c r="AH19" s="256"/>
+      <c r="AI19" s="256"/>
+      <c r="AJ19" s="256"/>
+      <c r="AK19" s="256"/>
+      <c r="AL19" s="256"/>
+      <c r="AM19" s="257"/>
+      <c r="AN19" s="254"/>
+      <c r="AO19" s="254"/>
+      <c r="AP19" s="254"/>
+      <c r="AQ19" s="254"/>
+      <c r="AR19" s="254"/>
+      <c r="AS19" s="241"/>
+      <c r="AT19" s="242"/>
+      <c r="AU19" s="242"/>
+      <c r="AV19" s="242"/>
+      <c r="AW19" s="243"/>
     </row>
     <row r="20" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A20" s="58"/>
-      <c r="B20" s="260"/>
-      <c r="C20" s="261"/>
-      <c r="D20" s="262"/>
-      <c r="E20" s="252"/>
-      <c r="F20" s="252"/>
-      <c r="G20" s="252"/>
-      <c r="H20" s="252"/>
-      <c r="I20" s="252"/>
-      <c r="J20" s="253"/>
-      <c r="K20" s="254"/>
-      <c r="L20" s="255"/>
-      <c r="M20" s="263"/>
-      <c r="N20" s="264"/>
-      <c r="O20" s="264"/>
-      <c r="P20" s="264"/>
-      <c r="Q20" s="264"/>
-      <c r="R20" s="265"/>
-      <c r="S20" s="269"/>
-      <c r="T20" s="270"/>
-      <c r="U20" s="271"/>
-      <c r="V20" s="266"/>
-      <c r="W20" s="267"/>
-      <c r="X20" s="267"/>
-      <c r="Y20" s="267"/>
-      <c r="Z20" s="267"/>
-      <c r="AA20" s="267"/>
-      <c r="AB20" s="267"/>
-      <c r="AC20" s="267"/>
-      <c r="AD20" s="267"/>
-      <c r="AE20" s="267"/>
-      <c r="AF20" s="267"/>
-      <c r="AG20" s="267"/>
-      <c r="AH20" s="267"/>
-      <c r="AI20" s="267"/>
-      <c r="AJ20" s="267"/>
-      <c r="AK20" s="267"/>
-      <c r="AL20" s="267"/>
-      <c r="AM20" s="268"/>
-      <c r="AN20" s="269"/>
-      <c r="AO20" s="270"/>
-      <c r="AP20" s="270"/>
-      <c r="AQ20" s="270"/>
-      <c r="AR20" s="271"/>
-      <c r="AS20" s="269"/>
-      <c r="AT20" s="270"/>
-      <c r="AU20" s="270"/>
-      <c r="AV20" s="270"/>
-      <c r="AW20" s="271"/>
+      <c r="B20" s="244"/>
+      <c r="C20" s="245"/>
+      <c r="D20" s="246"/>
+      <c r="E20" s="247"/>
+      <c r="F20" s="247"/>
+      <c r="G20" s="247"/>
+      <c r="H20" s="247"/>
+      <c r="I20" s="247"/>
+      <c r="J20" s="248"/>
+      <c r="K20" s="249"/>
+      <c r="L20" s="250"/>
+      <c r="M20" s="261"/>
+      <c r="N20" s="259"/>
+      <c r="O20" s="259"/>
+      <c r="P20" s="259"/>
+      <c r="Q20" s="259"/>
+      <c r="R20" s="260"/>
+      <c r="S20" s="241"/>
+      <c r="T20" s="242"/>
+      <c r="U20" s="243"/>
+      <c r="V20" s="255"/>
+      <c r="W20" s="256"/>
+      <c r="X20" s="256"/>
+      <c r="Y20" s="256"/>
+      <c r="Z20" s="256"/>
+      <c r="AA20" s="256"/>
+      <c r="AB20" s="256"/>
+      <c r="AC20" s="256"/>
+      <c r="AD20" s="256"/>
+      <c r="AE20" s="256"/>
+      <c r="AF20" s="256"/>
+      <c r="AG20" s="256"/>
+      <c r="AH20" s="256"/>
+      <c r="AI20" s="256"/>
+      <c r="AJ20" s="256"/>
+      <c r="AK20" s="256"/>
+      <c r="AL20" s="256"/>
+      <c r="AM20" s="257"/>
+      <c r="AN20" s="241"/>
+      <c r="AO20" s="242"/>
+      <c r="AP20" s="242"/>
+      <c r="AQ20" s="242"/>
+      <c r="AR20" s="243"/>
+      <c r="AS20" s="241"/>
+      <c r="AT20" s="242"/>
+      <c r="AU20" s="242"/>
+      <c r="AV20" s="242"/>
+      <c r="AW20" s="243"/>
     </row>
     <row r="21" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A21" s="58"/>
-      <c r="B21" s="260"/>
-      <c r="C21" s="261"/>
-      <c r="D21" s="262"/>
-      <c r="E21" s="252"/>
-      <c r="F21" s="252"/>
-      <c r="G21" s="252"/>
-      <c r="H21" s="252"/>
-      <c r="I21" s="252"/>
-      <c r="J21" s="253"/>
-      <c r="K21" s="254"/>
-      <c r="L21" s="255"/>
-      <c r="M21" s="263"/>
-      <c r="N21" s="264"/>
-      <c r="O21" s="264"/>
-      <c r="P21" s="264"/>
-      <c r="Q21" s="264"/>
-      <c r="R21" s="265"/>
-      <c r="S21" s="250"/>
-      <c r="T21" s="250"/>
-      <c r="U21" s="250"/>
-      <c r="V21" s="266"/>
-      <c r="W21" s="267"/>
-      <c r="X21" s="267"/>
-      <c r="Y21" s="267"/>
-      <c r="Z21" s="267"/>
-      <c r="AA21" s="267"/>
-      <c r="AB21" s="267"/>
-      <c r="AC21" s="267"/>
-      <c r="AD21" s="267"/>
-      <c r="AE21" s="267"/>
-      <c r="AF21" s="267"/>
-      <c r="AG21" s="267"/>
-      <c r="AH21" s="267"/>
-      <c r="AI21" s="267"/>
-      <c r="AJ21" s="267"/>
-      <c r="AK21" s="267"/>
-      <c r="AL21" s="267"/>
-      <c r="AM21" s="268"/>
-      <c r="AN21" s="269"/>
-      <c r="AO21" s="270"/>
-      <c r="AP21" s="270"/>
-      <c r="AQ21" s="270"/>
-      <c r="AR21" s="271"/>
-      <c r="AS21" s="269"/>
-      <c r="AT21" s="270"/>
-      <c r="AU21" s="270"/>
-      <c r="AV21" s="270"/>
-      <c r="AW21" s="271"/>
+      <c r="B21" s="244"/>
+      <c r="C21" s="245"/>
+      <c r="D21" s="246"/>
+      <c r="E21" s="247"/>
+      <c r="F21" s="247"/>
+      <c r="G21" s="247"/>
+      <c r="H21" s="247"/>
+      <c r="I21" s="247"/>
+      <c r="J21" s="248"/>
+      <c r="K21" s="249"/>
+      <c r="L21" s="250"/>
+      <c r="M21" s="261"/>
+      <c r="N21" s="259"/>
+      <c r="O21" s="259"/>
+      <c r="P21" s="259"/>
+      <c r="Q21" s="259"/>
+      <c r="R21" s="260"/>
+      <c r="S21" s="254"/>
+      <c r="T21" s="254"/>
+      <c r="U21" s="254"/>
+      <c r="V21" s="255"/>
+      <c r="W21" s="256"/>
+      <c r="X21" s="256"/>
+      <c r="Y21" s="256"/>
+      <c r="Z21" s="256"/>
+      <c r="AA21" s="256"/>
+      <c r="AB21" s="256"/>
+      <c r="AC21" s="256"/>
+      <c r="AD21" s="256"/>
+      <c r="AE21" s="256"/>
+      <c r="AF21" s="256"/>
+      <c r="AG21" s="256"/>
+      <c r="AH21" s="256"/>
+      <c r="AI21" s="256"/>
+      <c r="AJ21" s="256"/>
+      <c r="AK21" s="256"/>
+      <c r="AL21" s="256"/>
+      <c r="AM21" s="257"/>
+      <c r="AN21" s="241"/>
+      <c r="AO21" s="242"/>
+      <c r="AP21" s="242"/>
+      <c r="AQ21" s="242"/>
+      <c r="AR21" s="243"/>
+      <c r="AS21" s="241"/>
+      <c r="AT21" s="242"/>
+      <c r="AU21" s="242"/>
+      <c r="AV21" s="242"/>
+      <c r="AW21" s="243"/>
     </row>
     <row r="22" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A22" s="58"/>
-      <c r="B22" s="260"/>
-      <c r="C22" s="261"/>
-      <c r="D22" s="262"/>
-      <c r="E22" s="252"/>
-      <c r="F22" s="252"/>
-      <c r="G22" s="252"/>
-      <c r="H22" s="252"/>
-      <c r="I22" s="252"/>
-      <c r="J22" s="253"/>
-      <c r="K22" s="254"/>
-      <c r="L22" s="255"/>
-      <c r="M22" s="263"/>
-      <c r="N22" s="264"/>
-      <c r="O22" s="264"/>
-      <c r="P22" s="264"/>
-      <c r="Q22" s="264"/>
-      <c r="R22" s="265"/>
-      <c r="S22" s="250"/>
-      <c r="T22" s="250"/>
-      <c r="U22" s="250"/>
-      <c r="V22" s="266"/>
-      <c r="W22" s="267"/>
-      <c r="X22" s="267"/>
-      <c r="Y22" s="267"/>
-      <c r="Z22" s="267"/>
-      <c r="AA22" s="267"/>
-      <c r="AB22" s="267"/>
-      <c r="AC22" s="267"/>
-      <c r="AD22" s="267"/>
-      <c r="AE22" s="267"/>
-      <c r="AF22" s="267"/>
-      <c r="AG22" s="267"/>
-      <c r="AH22" s="267"/>
-      <c r="AI22" s="267"/>
-      <c r="AJ22" s="267"/>
-      <c r="AK22" s="267"/>
-      <c r="AL22" s="267"/>
-      <c r="AM22" s="268"/>
-      <c r="AN22" s="269"/>
-      <c r="AO22" s="270"/>
-      <c r="AP22" s="270"/>
-      <c r="AQ22" s="270"/>
-      <c r="AR22" s="271"/>
-      <c r="AS22" s="269"/>
-      <c r="AT22" s="270"/>
-      <c r="AU22" s="270"/>
-      <c r="AV22" s="270"/>
-      <c r="AW22" s="271"/>
+      <c r="B22" s="244"/>
+      <c r="C22" s="245"/>
+      <c r="D22" s="246"/>
+      <c r="E22" s="247"/>
+      <c r="F22" s="247"/>
+      <c r="G22" s="247"/>
+      <c r="H22" s="247"/>
+      <c r="I22" s="247"/>
+      <c r="J22" s="248"/>
+      <c r="K22" s="249"/>
+      <c r="L22" s="250"/>
+      <c r="M22" s="261"/>
+      <c r="N22" s="259"/>
+      <c r="O22" s="259"/>
+      <c r="P22" s="259"/>
+      <c r="Q22" s="259"/>
+      <c r="R22" s="260"/>
+      <c r="S22" s="254"/>
+      <c r="T22" s="254"/>
+      <c r="U22" s="254"/>
+      <c r="V22" s="255"/>
+      <c r="W22" s="256"/>
+      <c r="X22" s="256"/>
+      <c r="Y22" s="256"/>
+      <c r="Z22" s="256"/>
+      <c r="AA22" s="256"/>
+      <c r="AB22" s="256"/>
+      <c r="AC22" s="256"/>
+      <c r="AD22" s="256"/>
+      <c r="AE22" s="256"/>
+      <c r="AF22" s="256"/>
+      <c r="AG22" s="256"/>
+      <c r="AH22" s="256"/>
+      <c r="AI22" s="256"/>
+      <c r="AJ22" s="256"/>
+      <c r="AK22" s="256"/>
+      <c r="AL22" s="256"/>
+      <c r="AM22" s="257"/>
+      <c r="AN22" s="241"/>
+      <c r="AO22" s="242"/>
+      <c r="AP22" s="242"/>
+      <c r="AQ22" s="242"/>
+      <c r="AR22" s="243"/>
+      <c r="AS22" s="241"/>
+      <c r="AT22" s="242"/>
+      <c r="AU22" s="242"/>
+      <c r="AV22" s="242"/>
+      <c r="AW22" s="243"/>
     </row>
     <row r="23" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A23" s="56"/>
-      <c r="B23" s="260"/>
-      <c r="C23" s="261"/>
-      <c r="D23" s="262"/>
-      <c r="E23" s="252"/>
-      <c r="F23" s="252"/>
-      <c r="G23" s="252"/>
-      <c r="H23" s="252"/>
-      <c r="I23" s="252"/>
-      <c r="J23" s="253"/>
-      <c r="K23" s="254"/>
-      <c r="L23" s="255"/>
-      <c r="M23" s="263"/>
-      <c r="N23" s="264"/>
-      <c r="O23" s="264"/>
-      <c r="P23" s="264"/>
-      <c r="Q23" s="264"/>
-      <c r="R23" s="265"/>
-      <c r="S23" s="250"/>
-      <c r="T23" s="250"/>
-      <c r="U23" s="250"/>
-      <c r="V23" s="266"/>
-      <c r="W23" s="267"/>
-      <c r="X23" s="267"/>
-      <c r="Y23" s="267"/>
-      <c r="Z23" s="267"/>
-      <c r="AA23" s="267"/>
-      <c r="AB23" s="267"/>
-      <c r="AC23" s="267"/>
-      <c r="AD23" s="267"/>
-      <c r="AE23" s="267"/>
-      <c r="AF23" s="267"/>
-      <c r="AG23" s="267"/>
-      <c r="AH23" s="267"/>
-      <c r="AI23" s="267"/>
-      <c r="AJ23" s="267"/>
-      <c r="AK23" s="267"/>
-      <c r="AL23" s="267"/>
-      <c r="AM23" s="268"/>
-      <c r="AN23" s="269"/>
-      <c r="AO23" s="270"/>
-      <c r="AP23" s="270"/>
-      <c r="AQ23" s="270"/>
-      <c r="AR23" s="271"/>
-      <c r="AS23" s="269"/>
-      <c r="AT23" s="270"/>
-      <c r="AU23" s="270"/>
-      <c r="AV23" s="270"/>
-      <c r="AW23" s="271"/>
+      <c r="B23" s="244"/>
+      <c r="C23" s="245"/>
+      <c r="D23" s="246"/>
+      <c r="E23" s="247"/>
+      <c r="F23" s="247"/>
+      <c r="G23" s="247"/>
+      <c r="H23" s="247"/>
+      <c r="I23" s="247"/>
+      <c r="J23" s="248"/>
+      <c r="K23" s="249"/>
+      <c r="L23" s="250"/>
+      <c r="M23" s="261"/>
+      <c r="N23" s="259"/>
+      <c r="O23" s="259"/>
+      <c r="P23" s="259"/>
+      <c r="Q23" s="259"/>
+      <c r="R23" s="260"/>
+      <c r="S23" s="254"/>
+      <c r="T23" s="254"/>
+      <c r="U23" s="254"/>
+      <c r="V23" s="255"/>
+      <c r="W23" s="256"/>
+      <c r="X23" s="256"/>
+      <c r="Y23" s="256"/>
+      <c r="Z23" s="256"/>
+      <c r="AA23" s="256"/>
+      <c r="AB23" s="256"/>
+      <c r="AC23" s="256"/>
+      <c r="AD23" s="256"/>
+      <c r="AE23" s="256"/>
+      <c r="AF23" s="256"/>
+      <c r="AG23" s="256"/>
+      <c r="AH23" s="256"/>
+      <c r="AI23" s="256"/>
+      <c r="AJ23" s="256"/>
+      <c r="AK23" s="256"/>
+      <c r="AL23" s="256"/>
+      <c r="AM23" s="257"/>
+      <c r="AN23" s="241"/>
+      <c r="AO23" s="242"/>
+      <c r="AP23" s="242"/>
+      <c r="AQ23" s="242"/>
+      <c r="AR23" s="243"/>
+      <c r="AS23" s="241"/>
+      <c r="AT23" s="242"/>
+      <c r="AU23" s="242"/>
+      <c r="AV23" s="242"/>
+      <c r="AW23" s="243"/>
     </row>
     <row r="24" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A24" s="56"/>
-      <c r="B24" s="260"/>
-      <c r="C24" s="261"/>
-      <c r="D24" s="262"/>
-      <c r="E24" s="252"/>
-      <c r="F24" s="252"/>
-      <c r="G24" s="252"/>
-      <c r="H24" s="252"/>
-      <c r="I24" s="252"/>
-      <c r="J24" s="253"/>
-      <c r="K24" s="254"/>
-      <c r="L24" s="255"/>
-      <c r="M24" s="263"/>
-      <c r="N24" s="264"/>
-      <c r="O24" s="264"/>
-      <c r="P24" s="264"/>
-      <c r="Q24" s="264"/>
-      <c r="R24" s="265"/>
-      <c r="S24" s="250"/>
-      <c r="T24" s="250"/>
-      <c r="U24" s="250"/>
-      <c r="V24" s="266"/>
-      <c r="W24" s="267"/>
-      <c r="X24" s="267"/>
-      <c r="Y24" s="267"/>
-      <c r="Z24" s="267"/>
-      <c r="AA24" s="267"/>
-      <c r="AB24" s="267"/>
-      <c r="AC24" s="267"/>
-      <c r="AD24" s="267"/>
-      <c r="AE24" s="267"/>
-      <c r="AF24" s="267"/>
-      <c r="AG24" s="267"/>
-      <c r="AH24" s="267"/>
-      <c r="AI24" s="267"/>
-      <c r="AJ24" s="267"/>
-      <c r="AK24" s="267"/>
-      <c r="AL24" s="267"/>
-      <c r="AM24" s="268"/>
-      <c r="AN24" s="269"/>
-      <c r="AO24" s="270"/>
-      <c r="AP24" s="270"/>
-      <c r="AQ24" s="270"/>
-      <c r="AR24" s="271"/>
-      <c r="AS24" s="269"/>
-      <c r="AT24" s="270"/>
-      <c r="AU24" s="270"/>
-      <c r="AV24" s="270"/>
-      <c r="AW24" s="271"/>
+      <c r="B24" s="244"/>
+      <c r="C24" s="245"/>
+      <c r="D24" s="246"/>
+      <c r="E24" s="247"/>
+      <c r="F24" s="247"/>
+      <c r="G24" s="247"/>
+      <c r="H24" s="247"/>
+      <c r="I24" s="247"/>
+      <c r="J24" s="248"/>
+      <c r="K24" s="249"/>
+      <c r="L24" s="250"/>
+      <c r="M24" s="261"/>
+      <c r="N24" s="259"/>
+      <c r="O24" s="259"/>
+      <c r="P24" s="259"/>
+      <c r="Q24" s="259"/>
+      <c r="R24" s="260"/>
+      <c r="S24" s="254"/>
+      <c r="T24" s="254"/>
+      <c r="U24" s="254"/>
+      <c r="V24" s="255"/>
+      <c r="W24" s="256"/>
+      <c r="X24" s="256"/>
+      <c r="Y24" s="256"/>
+      <c r="Z24" s="256"/>
+      <c r="AA24" s="256"/>
+      <c r="AB24" s="256"/>
+      <c r="AC24" s="256"/>
+      <c r="AD24" s="256"/>
+      <c r="AE24" s="256"/>
+      <c r="AF24" s="256"/>
+      <c r="AG24" s="256"/>
+      <c r="AH24" s="256"/>
+      <c r="AI24" s="256"/>
+      <c r="AJ24" s="256"/>
+      <c r="AK24" s="256"/>
+      <c r="AL24" s="256"/>
+      <c r="AM24" s="257"/>
+      <c r="AN24" s="241"/>
+      <c r="AO24" s="242"/>
+      <c r="AP24" s="242"/>
+      <c r="AQ24" s="242"/>
+      <c r="AR24" s="243"/>
+      <c r="AS24" s="241"/>
+      <c r="AT24" s="242"/>
+      <c r="AU24" s="242"/>
+      <c r="AV24" s="242"/>
+      <c r="AW24" s="243"/>
     </row>
     <row r="25" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A25" s="56"/>
-      <c r="B25" s="260"/>
-      <c r="C25" s="261"/>
-      <c r="D25" s="262"/>
-      <c r="E25" s="252"/>
-      <c r="F25" s="252"/>
-      <c r="G25" s="252"/>
-      <c r="H25" s="252"/>
-      <c r="I25" s="252"/>
-      <c r="J25" s="253"/>
-      <c r="K25" s="254"/>
-      <c r="L25" s="255"/>
-      <c r="M25" s="274"/>
-      <c r="N25" s="264"/>
-      <c r="O25" s="264"/>
-      <c r="P25" s="264"/>
-      <c r="Q25" s="264"/>
-      <c r="R25" s="265"/>
-      <c r="S25" s="250"/>
-      <c r="T25" s="250"/>
-      <c r="U25" s="250"/>
-      <c r="V25" s="266"/>
-      <c r="W25" s="267"/>
-      <c r="X25" s="267"/>
-      <c r="Y25" s="267"/>
-      <c r="Z25" s="267"/>
-      <c r="AA25" s="267"/>
-      <c r="AB25" s="267"/>
-      <c r="AC25" s="267"/>
-      <c r="AD25" s="267"/>
-      <c r="AE25" s="267"/>
-      <c r="AF25" s="267"/>
-      <c r="AG25" s="267"/>
-      <c r="AH25" s="267"/>
-      <c r="AI25" s="267"/>
-      <c r="AJ25" s="267"/>
-      <c r="AK25" s="267"/>
-      <c r="AL25" s="267"/>
-      <c r="AM25" s="268"/>
-      <c r="AN25" s="269"/>
-      <c r="AO25" s="270"/>
-      <c r="AP25" s="270"/>
-      <c r="AQ25" s="270"/>
-      <c r="AR25" s="271"/>
-      <c r="AS25" s="269"/>
-      <c r="AT25" s="270"/>
-      <c r="AU25" s="270"/>
-      <c r="AV25" s="270"/>
-      <c r="AW25" s="271"/>
+      <c r="B25" s="244"/>
+      <c r="C25" s="245"/>
+      <c r="D25" s="246"/>
+      <c r="E25" s="247"/>
+      <c r="F25" s="247"/>
+      <c r="G25" s="247"/>
+      <c r="H25" s="247"/>
+      <c r="I25" s="247"/>
+      <c r="J25" s="248"/>
+      <c r="K25" s="249"/>
+      <c r="L25" s="250"/>
+      <c r="M25" s="258"/>
+      <c r="N25" s="259"/>
+      <c r="O25" s="259"/>
+      <c r="P25" s="259"/>
+      <c r="Q25" s="259"/>
+      <c r="R25" s="260"/>
+      <c r="S25" s="254"/>
+      <c r="T25" s="254"/>
+      <c r="U25" s="254"/>
+      <c r="V25" s="255"/>
+      <c r="W25" s="256"/>
+      <c r="X25" s="256"/>
+      <c r="Y25" s="256"/>
+      <c r="Z25" s="256"/>
+      <c r="AA25" s="256"/>
+      <c r="AB25" s="256"/>
+      <c r="AC25" s="256"/>
+      <c r="AD25" s="256"/>
+      <c r="AE25" s="256"/>
+      <c r="AF25" s="256"/>
+      <c r="AG25" s="256"/>
+      <c r="AH25" s="256"/>
+      <c r="AI25" s="256"/>
+      <c r="AJ25" s="256"/>
+      <c r="AK25" s="256"/>
+      <c r="AL25" s="256"/>
+      <c r="AM25" s="257"/>
+      <c r="AN25" s="241"/>
+      <c r="AO25" s="242"/>
+      <c r="AP25" s="242"/>
+      <c r="AQ25" s="242"/>
+      <c r="AR25" s="243"/>
+      <c r="AS25" s="241"/>
+      <c r="AT25" s="242"/>
+      <c r="AU25" s="242"/>
+      <c r="AV25" s="242"/>
+      <c r="AW25" s="243"/>
     </row>
     <row r="26" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A26" s="56"/>
-      <c r="B26" s="260"/>
-      <c r="C26" s="261"/>
-      <c r="D26" s="262"/>
-      <c r="E26" s="252"/>
-      <c r="F26" s="252"/>
-      <c r="G26" s="252"/>
-      <c r="H26" s="252"/>
-      <c r="I26" s="252"/>
-      <c r="J26" s="253"/>
-      <c r="K26" s="254"/>
-      <c r="L26" s="255"/>
-      <c r="M26" s="274"/>
-      <c r="N26" s="264"/>
-      <c r="O26" s="264"/>
-      <c r="P26" s="264"/>
-      <c r="Q26" s="264"/>
-      <c r="R26" s="265"/>
-      <c r="S26" s="250"/>
-      <c r="T26" s="250"/>
-      <c r="U26" s="250"/>
-      <c r="V26" s="266"/>
-      <c r="W26" s="267"/>
-      <c r="X26" s="267"/>
-      <c r="Y26" s="267"/>
-      <c r="Z26" s="267"/>
-      <c r="AA26" s="267"/>
-      <c r="AB26" s="267"/>
-      <c r="AC26" s="267"/>
-      <c r="AD26" s="267"/>
-      <c r="AE26" s="267"/>
-      <c r="AF26" s="267"/>
-      <c r="AG26" s="267"/>
-      <c r="AH26" s="267"/>
-      <c r="AI26" s="267"/>
-      <c r="AJ26" s="267"/>
-      <c r="AK26" s="267"/>
-      <c r="AL26" s="267"/>
-      <c r="AM26" s="268"/>
-      <c r="AN26" s="269"/>
-      <c r="AO26" s="270"/>
-      <c r="AP26" s="270"/>
-      <c r="AQ26" s="270"/>
-      <c r="AR26" s="271"/>
-      <c r="AS26" s="269"/>
-      <c r="AT26" s="270"/>
-      <c r="AU26" s="270"/>
-      <c r="AV26" s="270"/>
-      <c r="AW26" s="271"/>
+      <c r="B26" s="244"/>
+      <c r="C26" s="245"/>
+      <c r="D26" s="246"/>
+      <c r="E26" s="247"/>
+      <c r="F26" s="247"/>
+      <c r="G26" s="247"/>
+      <c r="H26" s="247"/>
+      <c r="I26" s="247"/>
+      <c r="J26" s="248"/>
+      <c r="K26" s="249"/>
+      <c r="L26" s="250"/>
+      <c r="M26" s="258"/>
+      <c r="N26" s="259"/>
+      <c r="O26" s="259"/>
+      <c r="P26" s="259"/>
+      <c r="Q26" s="259"/>
+      <c r="R26" s="260"/>
+      <c r="S26" s="254"/>
+      <c r="T26" s="254"/>
+      <c r="U26" s="254"/>
+      <c r="V26" s="255"/>
+      <c r="W26" s="256"/>
+      <c r="X26" s="256"/>
+      <c r="Y26" s="256"/>
+      <c r="Z26" s="256"/>
+      <c r="AA26" s="256"/>
+      <c r="AB26" s="256"/>
+      <c r="AC26" s="256"/>
+      <c r="AD26" s="256"/>
+      <c r="AE26" s="256"/>
+      <c r="AF26" s="256"/>
+      <c r="AG26" s="256"/>
+      <c r="AH26" s="256"/>
+      <c r="AI26" s="256"/>
+      <c r="AJ26" s="256"/>
+      <c r="AK26" s="256"/>
+      <c r="AL26" s="256"/>
+      <c r="AM26" s="257"/>
+      <c r="AN26" s="241"/>
+      <c r="AO26" s="242"/>
+      <c r="AP26" s="242"/>
+      <c r="AQ26" s="242"/>
+      <c r="AR26" s="243"/>
+      <c r="AS26" s="241"/>
+      <c r="AT26" s="242"/>
+      <c r="AU26" s="242"/>
+      <c r="AV26" s="242"/>
+      <c r="AW26" s="243"/>
     </row>
     <row r="27" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A27" s="56"/>
-      <c r="B27" s="260"/>
-      <c r="C27" s="261"/>
-      <c r="D27" s="262"/>
-      <c r="E27" s="252"/>
-      <c r="F27" s="252"/>
-      <c r="G27" s="252"/>
-      <c r="H27" s="252"/>
-      <c r="I27" s="252"/>
-      <c r="J27" s="253"/>
-      <c r="K27" s="254"/>
-      <c r="L27" s="255"/>
-      <c r="M27" s="274"/>
-      <c r="N27" s="264"/>
-      <c r="O27" s="264"/>
-      <c r="P27" s="264"/>
-      <c r="Q27" s="264"/>
-      <c r="R27" s="265"/>
-      <c r="S27" s="250"/>
-      <c r="T27" s="250"/>
-      <c r="U27" s="250"/>
-      <c r="V27" s="266"/>
-      <c r="W27" s="267"/>
-      <c r="X27" s="267"/>
-      <c r="Y27" s="267"/>
-      <c r="Z27" s="267"/>
-      <c r="AA27" s="267"/>
-      <c r="AB27" s="267"/>
-      <c r="AC27" s="267"/>
-      <c r="AD27" s="267"/>
-      <c r="AE27" s="267"/>
-      <c r="AF27" s="267"/>
-      <c r="AG27" s="267"/>
-      <c r="AH27" s="267"/>
-      <c r="AI27" s="267"/>
-      <c r="AJ27" s="267"/>
-      <c r="AK27" s="267"/>
-      <c r="AL27" s="267"/>
-      <c r="AM27" s="268"/>
-      <c r="AN27" s="269"/>
-      <c r="AO27" s="270"/>
-      <c r="AP27" s="270"/>
-      <c r="AQ27" s="270"/>
-      <c r="AR27" s="271"/>
-      <c r="AS27" s="269"/>
-      <c r="AT27" s="270"/>
-      <c r="AU27" s="270"/>
-      <c r="AV27" s="270"/>
-      <c r="AW27" s="271"/>
+      <c r="B27" s="244"/>
+      <c r="C27" s="245"/>
+      <c r="D27" s="246"/>
+      <c r="E27" s="247"/>
+      <c r="F27" s="247"/>
+      <c r="G27" s="247"/>
+      <c r="H27" s="247"/>
+      <c r="I27" s="247"/>
+      <c r="J27" s="248"/>
+      <c r="K27" s="249"/>
+      <c r="L27" s="250"/>
+      <c r="M27" s="258"/>
+      <c r="N27" s="259"/>
+      <c r="O27" s="259"/>
+      <c r="P27" s="259"/>
+      <c r="Q27" s="259"/>
+      <c r="R27" s="260"/>
+      <c r="S27" s="254"/>
+      <c r="T27" s="254"/>
+      <c r="U27" s="254"/>
+      <c r="V27" s="255"/>
+      <c r="W27" s="256"/>
+      <c r="X27" s="256"/>
+      <c r="Y27" s="256"/>
+      <c r="Z27" s="256"/>
+      <c r="AA27" s="256"/>
+      <c r="AB27" s="256"/>
+      <c r="AC27" s="256"/>
+      <c r="AD27" s="256"/>
+      <c r="AE27" s="256"/>
+      <c r="AF27" s="256"/>
+      <c r="AG27" s="256"/>
+      <c r="AH27" s="256"/>
+      <c r="AI27" s="256"/>
+      <c r="AJ27" s="256"/>
+      <c r="AK27" s="256"/>
+      <c r="AL27" s="256"/>
+      <c r="AM27" s="257"/>
+      <c r="AN27" s="241"/>
+      <c r="AO27" s="242"/>
+      <c r="AP27" s="242"/>
+      <c r="AQ27" s="242"/>
+      <c r="AR27" s="243"/>
+      <c r="AS27" s="241"/>
+      <c r="AT27" s="242"/>
+      <c r="AU27" s="242"/>
+      <c r="AV27" s="242"/>
+      <c r="AW27" s="243"/>
     </row>
     <row r="28" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A28" s="56"/>
-      <c r="B28" s="260"/>
-      <c r="C28" s="261"/>
-      <c r="D28" s="262"/>
-      <c r="E28" s="252"/>
-      <c r="F28" s="252"/>
-      <c r="G28" s="252"/>
-      <c r="H28" s="252"/>
-      <c r="I28" s="252"/>
-      <c r="J28" s="253"/>
-      <c r="K28" s="254"/>
-      <c r="L28" s="255"/>
-      <c r="M28" s="263"/>
-      <c r="N28" s="264"/>
-      <c r="O28" s="264"/>
-      <c r="P28" s="264"/>
-      <c r="Q28" s="264"/>
-      <c r="R28" s="265"/>
-      <c r="S28" s="250"/>
-      <c r="T28" s="250"/>
-      <c r="U28" s="250"/>
-      <c r="V28" s="266"/>
-      <c r="W28" s="267"/>
-      <c r="X28" s="267"/>
-      <c r="Y28" s="267"/>
-      <c r="Z28" s="267"/>
-      <c r="AA28" s="267"/>
-      <c r="AB28" s="267"/>
-      <c r="AC28" s="267"/>
-      <c r="AD28" s="267"/>
-      <c r="AE28" s="267"/>
-      <c r="AF28" s="267"/>
-      <c r="AG28" s="267"/>
-      <c r="AH28" s="267"/>
-      <c r="AI28" s="267"/>
-      <c r="AJ28" s="267"/>
-      <c r="AK28" s="267"/>
-      <c r="AL28" s="267"/>
-      <c r="AM28" s="268"/>
-      <c r="AN28" s="269"/>
-      <c r="AO28" s="270"/>
-      <c r="AP28" s="270"/>
-      <c r="AQ28" s="270"/>
-      <c r="AR28" s="271"/>
-      <c r="AS28" s="269"/>
-      <c r="AT28" s="270"/>
-      <c r="AU28" s="270"/>
-      <c r="AV28" s="270"/>
-      <c r="AW28" s="271"/>
+      <c r="B28" s="244"/>
+      <c r="C28" s="245"/>
+      <c r="D28" s="246"/>
+      <c r="E28" s="247"/>
+      <c r="F28" s="247"/>
+      <c r="G28" s="247"/>
+      <c r="H28" s="247"/>
+      <c r="I28" s="247"/>
+      <c r="J28" s="248"/>
+      <c r="K28" s="249"/>
+      <c r="L28" s="250"/>
+      <c r="M28" s="261"/>
+      <c r="N28" s="259"/>
+      <c r="O28" s="259"/>
+      <c r="P28" s="259"/>
+      <c r="Q28" s="259"/>
+      <c r="R28" s="260"/>
+      <c r="S28" s="254"/>
+      <c r="T28" s="254"/>
+      <c r="U28" s="254"/>
+      <c r="V28" s="255"/>
+      <c r="W28" s="256"/>
+      <c r="X28" s="256"/>
+      <c r="Y28" s="256"/>
+      <c r="Z28" s="256"/>
+      <c r="AA28" s="256"/>
+      <c r="AB28" s="256"/>
+      <c r="AC28" s="256"/>
+      <c r="AD28" s="256"/>
+      <c r="AE28" s="256"/>
+      <c r="AF28" s="256"/>
+      <c r="AG28" s="256"/>
+      <c r="AH28" s="256"/>
+      <c r="AI28" s="256"/>
+      <c r="AJ28" s="256"/>
+      <c r="AK28" s="256"/>
+      <c r="AL28" s="256"/>
+      <c r="AM28" s="257"/>
+      <c r="AN28" s="241"/>
+      <c r="AO28" s="242"/>
+      <c r="AP28" s="242"/>
+      <c r="AQ28" s="242"/>
+      <c r="AR28" s="243"/>
+      <c r="AS28" s="241"/>
+      <c r="AT28" s="242"/>
+      <c r="AU28" s="242"/>
+      <c r="AV28" s="242"/>
+      <c r="AW28" s="243"/>
     </row>
     <row r="29" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A29" s="56"/>
-      <c r="B29" s="260"/>
-      <c r="C29" s="261"/>
-      <c r="D29" s="262"/>
-      <c r="E29" s="252"/>
-      <c r="F29" s="252"/>
-      <c r="G29" s="252"/>
-      <c r="H29" s="252"/>
-      <c r="I29" s="252"/>
-      <c r="J29" s="253"/>
-      <c r="K29" s="254"/>
-      <c r="L29" s="255"/>
-      <c r="M29" s="263"/>
-      <c r="N29" s="264"/>
-      <c r="O29" s="264"/>
-      <c r="P29" s="264"/>
-      <c r="Q29" s="264"/>
-      <c r="R29" s="265"/>
-      <c r="S29" s="250"/>
-      <c r="T29" s="250"/>
-      <c r="U29" s="250"/>
-      <c r="V29" s="266"/>
-      <c r="W29" s="267"/>
-      <c r="X29" s="267"/>
-      <c r="Y29" s="267"/>
-      <c r="Z29" s="267"/>
-      <c r="AA29" s="267"/>
-      <c r="AB29" s="267"/>
-      <c r="AC29" s="267"/>
-      <c r="AD29" s="267"/>
-      <c r="AE29" s="267"/>
-      <c r="AF29" s="267"/>
-      <c r="AG29" s="267"/>
-      <c r="AH29" s="267"/>
-      <c r="AI29" s="267"/>
-      <c r="AJ29" s="267"/>
-      <c r="AK29" s="267"/>
-      <c r="AL29" s="267"/>
-      <c r="AM29" s="268"/>
-      <c r="AN29" s="269"/>
-      <c r="AO29" s="270"/>
-      <c r="AP29" s="270"/>
-      <c r="AQ29" s="270"/>
-      <c r="AR29" s="271"/>
-      <c r="AS29" s="269"/>
-      <c r="AT29" s="270"/>
-      <c r="AU29" s="270"/>
-      <c r="AV29" s="270"/>
-      <c r="AW29" s="271"/>
+      <c r="B29" s="244"/>
+      <c r="C29" s="245"/>
+      <c r="D29" s="246"/>
+      <c r="E29" s="247"/>
+      <c r="F29" s="247"/>
+      <c r="G29" s="247"/>
+      <c r="H29" s="247"/>
+      <c r="I29" s="247"/>
+      <c r="J29" s="248"/>
+      <c r="K29" s="249"/>
+      <c r="L29" s="250"/>
+      <c r="M29" s="261"/>
+      <c r="N29" s="259"/>
+      <c r="O29" s="259"/>
+      <c r="P29" s="259"/>
+      <c r="Q29" s="259"/>
+      <c r="R29" s="260"/>
+      <c r="S29" s="254"/>
+      <c r="T29" s="254"/>
+      <c r="U29" s="254"/>
+      <c r="V29" s="255"/>
+      <c r="W29" s="256"/>
+      <c r="X29" s="256"/>
+      <c r="Y29" s="256"/>
+      <c r="Z29" s="256"/>
+      <c r="AA29" s="256"/>
+      <c r="AB29" s="256"/>
+      <c r="AC29" s="256"/>
+      <c r="AD29" s="256"/>
+      <c r="AE29" s="256"/>
+      <c r="AF29" s="256"/>
+      <c r="AG29" s="256"/>
+      <c r="AH29" s="256"/>
+      <c r="AI29" s="256"/>
+      <c r="AJ29" s="256"/>
+      <c r="AK29" s="256"/>
+      <c r="AL29" s="256"/>
+      <c r="AM29" s="257"/>
+      <c r="AN29" s="241"/>
+      <c r="AO29" s="242"/>
+      <c r="AP29" s="242"/>
+      <c r="AQ29" s="242"/>
+      <c r="AR29" s="243"/>
+      <c r="AS29" s="241"/>
+      <c r="AT29" s="242"/>
+      <c r="AU29" s="242"/>
+      <c r="AV29" s="242"/>
+      <c r="AW29" s="243"/>
     </row>
     <row r="30" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A30" s="56"/>
-      <c r="B30" s="260"/>
-      <c r="C30" s="261"/>
-      <c r="D30" s="262"/>
-      <c r="E30" s="252"/>
-      <c r="F30" s="252"/>
-      <c r="G30" s="252"/>
-      <c r="H30" s="252"/>
-      <c r="I30" s="252"/>
-      <c r="J30" s="253"/>
-      <c r="K30" s="254"/>
-      <c r="L30" s="255"/>
-      <c r="M30" s="274"/>
-      <c r="N30" s="264"/>
-      <c r="O30" s="264"/>
-      <c r="P30" s="264"/>
-      <c r="Q30" s="264"/>
-      <c r="R30" s="265"/>
-      <c r="S30" s="250"/>
-      <c r="T30" s="250"/>
-      <c r="U30" s="250"/>
-      <c r="V30" s="266"/>
-      <c r="W30" s="267"/>
-      <c r="X30" s="267"/>
-      <c r="Y30" s="267"/>
-      <c r="Z30" s="267"/>
-      <c r="AA30" s="267"/>
-      <c r="AB30" s="267"/>
-      <c r="AC30" s="267"/>
-      <c r="AD30" s="267"/>
-      <c r="AE30" s="267"/>
-      <c r="AF30" s="267"/>
-      <c r="AG30" s="267"/>
-      <c r="AH30" s="267"/>
-      <c r="AI30" s="267"/>
-      <c r="AJ30" s="267"/>
-      <c r="AK30" s="267"/>
-      <c r="AL30" s="267"/>
-      <c r="AM30" s="268"/>
-      <c r="AN30" s="269"/>
-      <c r="AO30" s="270"/>
-      <c r="AP30" s="270"/>
-      <c r="AQ30" s="270"/>
-      <c r="AR30" s="271"/>
-      <c r="AS30" s="269"/>
-      <c r="AT30" s="270"/>
-      <c r="AU30" s="270"/>
-      <c r="AV30" s="270"/>
-      <c r="AW30" s="271"/>
+      <c r="B30" s="244"/>
+      <c r="C30" s="245"/>
+      <c r="D30" s="246"/>
+      <c r="E30" s="247"/>
+      <c r="F30" s="247"/>
+      <c r="G30" s="247"/>
+      <c r="H30" s="247"/>
+      <c r="I30" s="247"/>
+      <c r="J30" s="248"/>
+      <c r="K30" s="249"/>
+      <c r="L30" s="250"/>
+      <c r="M30" s="258"/>
+      <c r="N30" s="259"/>
+      <c r="O30" s="259"/>
+      <c r="P30" s="259"/>
+      <c r="Q30" s="259"/>
+      <c r="R30" s="260"/>
+      <c r="S30" s="254"/>
+      <c r="T30" s="254"/>
+      <c r="U30" s="254"/>
+      <c r="V30" s="255"/>
+      <c r="W30" s="256"/>
+      <c r="X30" s="256"/>
+      <c r="Y30" s="256"/>
+      <c r="Z30" s="256"/>
+      <c r="AA30" s="256"/>
+      <c r="AB30" s="256"/>
+      <c r="AC30" s="256"/>
+      <c r="AD30" s="256"/>
+      <c r="AE30" s="256"/>
+      <c r="AF30" s="256"/>
+      <c r="AG30" s="256"/>
+      <c r="AH30" s="256"/>
+      <c r="AI30" s="256"/>
+      <c r="AJ30" s="256"/>
+      <c r="AK30" s="256"/>
+      <c r="AL30" s="256"/>
+      <c r="AM30" s="257"/>
+      <c r="AN30" s="241"/>
+      <c r="AO30" s="242"/>
+      <c r="AP30" s="242"/>
+      <c r="AQ30" s="242"/>
+      <c r="AR30" s="243"/>
+      <c r="AS30" s="241"/>
+      <c r="AT30" s="242"/>
+      <c r="AU30" s="242"/>
+      <c r="AV30" s="242"/>
+      <c r="AW30" s="243"/>
     </row>
     <row r="31" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A31" s="56"/>
-      <c r="B31" s="260"/>
-      <c r="C31" s="261"/>
-      <c r="D31" s="262"/>
-      <c r="E31" s="252"/>
-      <c r="F31" s="252"/>
-      <c r="G31" s="252"/>
-      <c r="H31" s="252"/>
-      <c r="I31" s="252"/>
-      <c r="J31" s="253"/>
-      <c r="K31" s="254"/>
-      <c r="L31" s="255"/>
-      <c r="M31" s="274"/>
-      <c r="N31" s="264"/>
-      <c r="O31" s="264"/>
-      <c r="P31" s="264"/>
-      <c r="Q31" s="264"/>
-      <c r="R31" s="265"/>
-      <c r="S31" s="250"/>
-      <c r="T31" s="250"/>
-      <c r="U31" s="250"/>
-      <c r="V31" s="266"/>
-      <c r="W31" s="267"/>
-      <c r="X31" s="267"/>
-      <c r="Y31" s="267"/>
-      <c r="Z31" s="267"/>
-      <c r="AA31" s="267"/>
-      <c r="AB31" s="267"/>
-      <c r="AC31" s="267"/>
-      <c r="AD31" s="267"/>
-      <c r="AE31" s="267"/>
-      <c r="AF31" s="267"/>
-      <c r="AG31" s="267"/>
-      <c r="AH31" s="267"/>
-      <c r="AI31" s="267"/>
-      <c r="AJ31" s="267"/>
-      <c r="AK31" s="267"/>
-      <c r="AL31" s="267"/>
-      <c r="AM31" s="268"/>
-      <c r="AN31" s="269"/>
-      <c r="AO31" s="270"/>
-      <c r="AP31" s="270"/>
-      <c r="AQ31" s="270"/>
-      <c r="AR31" s="271"/>
-      <c r="AS31" s="269"/>
-      <c r="AT31" s="270"/>
-      <c r="AU31" s="270"/>
-      <c r="AV31" s="270"/>
-      <c r="AW31" s="271"/>
+      <c r="B31" s="244"/>
+      <c r="C31" s="245"/>
+      <c r="D31" s="246"/>
+      <c r="E31" s="247"/>
+      <c r="F31" s="247"/>
+      <c r="G31" s="247"/>
+      <c r="H31" s="247"/>
+      <c r="I31" s="247"/>
+      <c r="J31" s="248"/>
+      <c r="K31" s="249"/>
+      <c r="L31" s="250"/>
+      <c r="M31" s="258"/>
+      <c r="N31" s="259"/>
+      <c r="O31" s="259"/>
+      <c r="P31" s="259"/>
+      <c r="Q31" s="259"/>
+      <c r="R31" s="260"/>
+      <c r="S31" s="254"/>
+      <c r="T31" s="254"/>
+      <c r="U31" s="254"/>
+      <c r="V31" s="255"/>
+      <c r="W31" s="256"/>
+      <c r="X31" s="256"/>
+      <c r="Y31" s="256"/>
+      <c r="Z31" s="256"/>
+      <c r="AA31" s="256"/>
+      <c r="AB31" s="256"/>
+      <c r="AC31" s="256"/>
+      <c r="AD31" s="256"/>
+      <c r="AE31" s="256"/>
+      <c r="AF31" s="256"/>
+      <c r="AG31" s="256"/>
+      <c r="AH31" s="256"/>
+      <c r="AI31" s="256"/>
+      <c r="AJ31" s="256"/>
+      <c r="AK31" s="256"/>
+      <c r="AL31" s="256"/>
+      <c r="AM31" s="257"/>
+      <c r="AN31" s="241"/>
+      <c r="AO31" s="242"/>
+      <c r="AP31" s="242"/>
+      <c r="AQ31" s="242"/>
+      <c r="AR31" s="243"/>
+      <c r="AS31" s="241"/>
+      <c r="AT31" s="242"/>
+      <c r="AU31" s="242"/>
+      <c r="AV31" s="242"/>
+      <c r="AW31" s="243"/>
     </row>
     <row r="32" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A32" s="56"/>
-      <c r="B32" s="260"/>
-      <c r="C32" s="261"/>
-      <c r="D32" s="262"/>
-      <c r="E32" s="252"/>
-      <c r="F32" s="252"/>
-      <c r="G32" s="252"/>
-      <c r="H32" s="252"/>
-      <c r="I32" s="252"/>
-      <c r="J32" s="253"/>
-      <c r="K32" s="254"/>
-      <c r="L32" s="255"/>
-      <c r="M32" s="274"/>
-      <c r="N32" s="264"/>
-      <c r="O32" s="264"/>
-      <c r="P32" s="264"/>
-      <c r="Q32" s="264"/>
-      <c r="R32" s="265"/>
-      <c r="S32" s="250"/>
-      <c r="T32" s="250"/>
-      <c r="U32" s="250"/>
-      <c r="V32" s="266"/>
-      <c r="W32" s="267"/>
-      <c r="X32" s="267"/>
-      <c r="Y32" s="267"/>
-      <c r="Z32" s="267"/>
-      <c r="AA32" s="267"/>
-      <c r="AB32" s="267"/>
-      <c r="AC32" s="267"/>
-      <c r="AD32" s="267"/>
-      <c r="AE32" s="267"/>
-      <c r="AF32" s="267"/>
-      <c r="AG32" s="267"/>
-      <c r="AH32" s="267"/>
-      <c r="AI32" s="267"/>
-      <c r="AJ32" s="267"/>
-      <c r="AK32" s="267"/>
-      <c r="AL32" s="267"/>
-      <c r="AM32" s="268"/>
-      <c r="AN32" s="269"/>
-      <c r="AO32" s="270"/>
-      <c r="AP32" s="270"/>
-      <c r="AQ32" s="270"/>
-      <c r="AR32" s="271"/>
-      <c r="AS32" s="269"/>
-      <c r="AT32" s="270"/>
-      <c r="AU32" s="270"/>
-      <c r="AV32" s="270"/>
-      <c r="AW32" s="271"/>
+      <c r="B32" s="244"/>
+      <c r="C32" s="245"/>
+      <c r="D32" s="246"/>
+      <c r="E32" s="247"/>
+      <c r="F32" s="247"/>
+      <c r="G32" s="247"/>
+      <c r="H32" s="247"/>
+      <c r="I32" s="247"/>
+      <c r="J32" s="248"/>
+      <c r="K32" s="249"/>
+      <c r="L32" s="250"/>
+      <c r="M32" s="258"/>
+      <c r="N32" s="259"/>
+      <c r="O32" s="259"/>
+      <c r="P32" s="259"/>
+      <c r="Q32" s="259"/>
+      <c r="R32" s="260"/>
+      <c r="S32" s="254"/>
+      <c r="T32" s="254"/>
+      <c r="U32" s="254"/>
+      <c r="V32" s="255"/>
+      <c r="W32" s="256"/>
+      <c r="X32" s="256"/>
+      <c r="Y32" s="256"/>
+      <c r="Z32" s="256"/>
+      <c r="AA32" s="256"/>
+      <c r="AB32" s="256"/>
+      <c r="AC32" s="256"/>
+      <c r="AD32" s="256"/>
+      <c r="AE32" s="256"/>
+      <c r="AF32" s="256"/>
+      <c r="AG32" s="256"/>
+      <c r="AH32" s="256"/>
+      <c r="AI32" s="256"/>
+      <c r="AJ32" s="256"/>
+      <c r="AK32" s="256"/>
+      <c r="AL32" s="256"/>
+      <c r="AM32" s="257"/>
+      <c r="AN32" s="241"/>
+      <c r="AO32" s="242"/>
+      <c r="AP32" s="242"/>
+      <c r="AQ32" s="242"/>
+      <c r="AR32" s="243"/>
+      <c r="AS32" s="241"/>
+      <c r="AT32" s="242"/>
+      <c r="AU32" s="242"/>
+      <c r="AV32" s="242"/>
+      <c r="AW32" s="243"/>
     </row>
     <row r="33" spans="2:49" x14ac:dyDescent="0.25">
-      <c r="B33" s="260"/>
-      <c r="C33" s="261"/>
-      <c r="D33" s="262"/>
-      <c r="E33" s="252"/>
-      <c r="F33" s="252"/>
-      <c r="G33" s="252"/>
-      <c r="H33" s="252"/>
-      <c r="I33" s="252"/>
-      <c r="J33" s="253"/>
-      <c r="K33" s="254"/>
-      <c r="L33" s="255"/>
-      <c r="M33" s="274"/>
-      <c r="N33" s="264"/>
-      <c r="O33" s="264"/>
-      <c r="P33" s="264"/>
-      <c r="Q33" s="264"/>
-      <c r="R33" s="265"/>
-      <c r="S33" s="250"/>
-      <c r="T33" s="250"/>
-      <c r="U33" s="250"/>
-      <c r="V33" s="266"/>
-      <c r="W33" s="267"/>
-      <c r="X33" s="267"/>
-      <c r="Y33" s="267"/>
-      <c r="Z33" s="267"/>
-      <c r="AA33" s="267"/>
-      <c r="AB33" s="267"/>
-      <c r="AC33" s="267"/>
-      <c r="AD33" s="267"/>
-      <c r="AE33" s="267"/>
-      <c r="AF33" s="267"/>
-      <c r="AG33" s="267"/>
-      <c r="AH33" s="267"/>
-      <c r="AI33" s="267"/>
-      <c r="AJ33" s="267"/>
-      <c r="AK33" s="267"/>
-      <c r="AL33" s="267"/>
-      <c r="AM33" s="268"/>
-      <c r="AN33" s="269"/>
-      <c r="AO33" s="270"/>
-      <c r="AP33" s="270"/>
-      <c r="AQ33" s="270"/>
-      <c r="AR33" s="271"/>
-      <c r="AS33" s="269"/>
-      <c r="AT33" s="270"/>
-      <c r="AU33" s="270"/>
-      <c r="AV33" s="270"/>
-      <c r="AW33" s="271"/>
+      <c r="B33" s="244"/>
+      <c r="C33" s="245"/>
+      <c r="D33" s="246"/>
+      <c r="E33" s="247"/>
+      <c r="F33" s="247"/>
+      <c r="G33" s="247"/>
+      <c r="H33" s="247"/>
+      <c r="I33" s="247"/>
+      <c r="J33" s="248"/>
+      <c r="K33" s="249"/>
+      <c r="L33" s="250"/>
+      <c r="M33" s="258"/>
+      <c r="N33" s="259"/>
+      <c r="O33" s="259"/>
+      <c r="P33" s="259"/>
+      <c r="Q33" s="259"/>
+      <c r="R33" s="260"/>
+      <c r="S33" s="254"/>
+      <c r="T33" s="254"/>
+      <c r="U33" s="254"/>
+      <c r="V33" s="255"/>
+      <c r="W33" s="256"/>
+      <c r="X33" s="256"/>
+      <c r="Y33" s="256"/>
+      <c r="Z33" s="256"/>
+      <c r="AA33" s="256"/>
+      <c r="AB33" s="256"/>
+      <c r="AC33" s="256"/>
+      <c r="AD33" s="256"/>
+      <c r="AE33" s="256"/>
+      <c r="AF33" s="256"/>
+      <c r="AG33" s="256"/>
+      <c r="AH33" s="256"/>
+      <c r="AI33" s="256"/>
+      <c r="AJ33" s="256"/>
+      <c r="AK33" s="256"/>
+      <c r="AL33" s="256"/>
+      <c r="AM33" s="257"/>
+      <c r="AN33" s="241"/>
+      <c r="AO33" s="242"/>
+      <c r="AP33" s="242"/>
+      <c r="AQ33" s="242"/>
+      <c r="AR33" s="243"/>
+      <c r="AS33" s="241"/>
+      <c r="AT33" s="242"/>
+      <c r="AU33" s="242"/>
+      <c r="AV33" s="242"/>
+      <c r="AW33" s="243"/>
     </row>
     <row r="34" spans="2:49" x14ac:dyDescent="0.25">
-      <c r="B34" s="260"/>
-      <c r="C34" s="261"/>
-      <c r="D34" s="262"/>
-      <c r="E34" s="252"/>
-      <c r="F34" s="252"/>
-      <c r="G34" s="252"/>
-      <c r="H34" s="252"/>
-      <c r="I34" s="252"/>
-      <c r="J34" s="253"/>
-      <c r="K34" s="254"/>
-      <c r="L34" s="255"/>
-      <c r="M34" s="278"/>
-      <c r="N34" s="279"/>
-      <c r="O34" s="279"/>
-      <c r="P34" s="279"/>
-      <c r="Q34" s="279"/>
-      <c r="R34" s="280"/>
-      <c r="S34" s="250"/>
-      <c r="T34" s="250"/>
-      <c r="U34" s="250"/>
-      <c r="V34" s="266"/>
-      <c r="W34" s="267"/>
-      <c r="X34" s="267"/>
-      <c r="Y34" s="267"/>
-      <c r="Z34" s="267"/>
-      <c r="AA34" s="267"/>
-      <c r="AB34" s="267"/>
-      <c r="AC34" s="267"/>
-      <c r="AD34" s="267"/>
-      <c r="AE34" s="267"/>
-      <c r="AF34" s="267"/>
-      <c r="AG34" s="267"/>
-      <c r="AH34" s="267"/>
-      <c r="AI34" s="267"/>
-      <c r="AJ34" s="267"/>
-      <c r="AK34" s="267"/>
-      <c r="AL34" s="267"/>
-      <c r="AM34" s="268"/>
-      <c r="AN34" s="269"/>
-      <c r="AO34" s="270"/>
-      <c r="AP34" s="270"/>
-      <c r="AQ34" s="270"/>
-      <c r="AR34" s="271"/>
-      <c r="AS34" s="269"/>
-      <c r="AT34" s="270"/>
-      <c r="AU34" s="270"/>
-      <c r="AV34" s="270"/>
-      <c r="AW34" s="271"/>
+      <c r="B34" s="244"/>
+      <c r="C34" s="245"/>
+      <c r="D34" s="246"/>
+      <c r="E34" s="247"/>
+      <c r="F34" s="247"/>
+      <c r="G34" s="247"/>
+      <c r="H34" s="247"/>
+      <c r="I34" s="247"/>
+      <c r="J34" s="248"/>
+      <c r="K34" s="249"/>
+      <c r="L34" s="250"/>
+      <c r="M34" s="251"/>
+      <c r="N34" s="252"/>
+      <c r="O34" s="252"/>
+      <c r="P34" s="252"/>
+      <c r="Q34" s="252"/>
+      <c r="R34" s="253"/>
+      <c r="S34" s="254"/>
+      <c r="T34" s="254"/>
+      <c r="U34" s="254"/>
+      <c r="V34" s="255"/>
+      <c r="W34" s="256"/>
+      <c r="X34" s="256"/>
+      <c r="Y34" s="256"/>
+      <c r="Z34" s="256"/>
+      <c r="AA34" s="256"/>
+      <c r="AB34" s="256"/>
+      <c r="AC34" s="256"/>
+      <c r="AD34" s="256"/>
+      <c r="AE34" s="256"/>
+      <c r="AF34" s="256"/>
+      <c r="AG34" s="256"/>
+      <c r="AH34" s="256"/>
+      <c r="AI34" s="256"/>
+      <c r="AJ34" s="256"/>
+      <c r="AK34" s="256"/>
+      <c r="AL34" s="256"/>
+      <c r="AM34" s="257"/>
+      <c r="AN34" s="241"/>
+      <c r="AO34" s="242"/>
+      <c r="AP34" s="242"/>
+      <c r="AQ34" s="242"/>
+      <c r="AR34" s="243"/>
+      <c r="AS34" s="241"/>
+      <c r="AT34" s="242"/>
+      <c r="AU34" s="242"/>
+      <c r="AV34" s="242"/>
+      <c r="AW34" s="243"/>
     </row>
   </sheetData>
   <mergeCells count="249">
+    <mergeCell ref="B1:AW2"/>
+    <mergeCell ref="B3:D4"/>
+    <mergeCell ref="E3:I4"/>
+    <mergeCell ref="J3:L4"/>
+    <mergeCell ref="M3:R4"/>
+    <mergeCell ref="S3:U4"/>
+    <mergeCell ref="V3:AM4"/>
+    <mergeCell ref="AN3:AR4"/>
+    <mergeCell ref="AS3:AW4"/>
+    <mergeCell ref="AN5:AR5"/>
+    <mergeCell ref="AS5:AW5"/>
+    <mergeCell ref="B6:D6"/>
+    <mergeCell ref="E6:I6"/>
+    <mergeCell ref="J6:L6"/>
+    <mergeCell ref="M6:R6"/>
+    <mergeCell ref="S6:U6"/>
+    <mergeCell ref="V6:AM6"/>
+    <mergeCell ref="AN6:AR6"/>
+    <mergeCell ref="AS6:AW6"/>
+    <mergeCell ref="B5:D5"/>
+    <mergeCell ref="E5:I5"/>
+    <mergeCell ref="J5:L5"/>
+    <mergeCell ref="M5:R5"/>
+    <mergeCell ref="S5:U5"/>
+    <mergeCell ref="V5:AM5"/>
+    <mergeCell ref="AN7:AR7"/>
+    <mergeCell ref="AS7:AW7"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="E8:I8"/>
+    <mergeCell ref="J8:L8"/>
+    <mergeCell ref="M8:R8"/>
+    <mergeCell ref="S8:U8"/>
+    <mergeCell ref="V8:AM8"/>
+    <mergeCell ref="AN8:AR8"/>
+    <mergeCell ref="AS8:AW8"/>
+    <mergeCell ref="B7:D7"/>
+    <mergeCell ref="E7:I7"/>
+    <mergeCell ref="J7:L7"/>
+    <mergeCell ref="M7:R7"/>
+    <mergeCell ref="S7:U7"/>
+    <mergeCell ref="V7:AM7"/>
+    <mergeCell ref="AN9:AR9"/>
+    <mergeCell ref="AS9:AW9"/>
+    <mergeCell ref="B10:D10"/>
+    <mergeCell ref="E10:I10"/>
+    <mergeCell ref="J10:L10"/>
+    <mergeCell ref="M10:R10"/>
+    <mergeCell ref="S10:U10"/>
+    <mergeCell ref="V10:AM10"/>
+    <mergeCell ref="AN10:AR10"/>
+    <mergeCell ref="AS10:AW10"/>
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="E9:I9"/>
+    <mergeCell ref="J9:L9"/>
+    <mergeCell ref="M9:R9"/>
+    <mergeCell ref="S9:U9"/>
+    <mergeCell ref="V9:AM9"/>
+    <mergeCell ref="AN11:AR11"/>
+    <mergeCell ref="AS11:AW11"/>
+    <mergeCell ref="B12:D12"/>
+    <mergeCell ref="E12:I12"/>
+    <mergeCell ref="J12:L12"/>
+    <mergeCell ref="M12:R12"/>
+    <mergeCell ref="S12:U12"/>
+    <mergeCell ref="V12:AM12"/>
+    <mergeCell ref="AN12:AR12"/>
+    <mergeCell ref="AS12:AW12"/>
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="E11:I11"/>
+    <mergeCell ref="J11:L11"/>
+    <mergeCell ref="M11:R11"/>
+    <mergeCell ref="S11:U11"/>
+    <mergeCell ref="V11:AM11"/>
+    <mergeCell ref="AN13:AR13"/>
+    <mergeCell ref="AS13:AW13"/>
+    <mergeCell ref="B14:D14"/>
+    <mergeCell ref="E14:I14"/>
+    <mergeCell ref="J14:L14"/>
+    <mergeCell ref="M14:R14"/>
+    <mergeCell ref="S14:U14"/>
+    <mergeCell ref="V14:AM14"/>
+    <mergeCell ref="AN14:AR14"/>
+    <mergeCell ref="AS14:AW14"/>
+    <mergeCell ref="B13:D13"/>
+    <mergeCell ref="E13:I13"/>
+    <mergeCell ref="J13:L13"/>
+    <mergeCell ref="M13:R13"/>
+    <mergeCell ref="S13:U13"/>
+    <mergeCell ref="V13:AM13"/>
+    <mergeCell ref="AN15:AR15"/>
+    <mergeCell ref="AS15:AW15"/>
+    <mergeCell ref="B16:D16"/>
+    <mergeCell ref="E16:I16"/>
+    <mergeCell ref="J16:L16"/>
+    <mergeCell ref="M16:R16"/>
+    <mergeCell ref="S16:U16"/>
+    <mergeCell ref="V16:AM16"/>
+    <mergeCell ref="AN16:AR16"/>
+    <mergeCell ref="AS16:AW16"/>
+    <mergeCell ref="B15:D15"/>
+    <mergeCell ref="E15:I15"/>
+    <mergeCell ref="J15:L15"/>
+    <mergeCell ref="M15:R15"/>
+    <mergeCell ref="S15:U15"/>
+    <mergeCell ref="V15:AM15"/>
+    <mergeCell ref="AN17:AR17"/>
+    <mergeCell ref="AS17:AW17"/>
+    <mergeCell ref="B18:D18"/>
+    <mergeCell ref="E18:I18"/>
+    <mergeCell ref="J18:L18"/>
+    <mergeCell ref="M18:R18"/>
+    <mergeCell ref="S18:U18"/>
+    <mergeCell ref="V18:AM18"/>
+    <mergeCell ref="AN18:AR18"/>
+    <mergeCell ref="AS18:AW18"/>
+    <mergeCell ref="B17:D17"/>
+    <mergeCell ref="E17:I17"/>
+    <mergeCell ref="J17:L17"/>
+    <mergeCell ref="M17:R17"/>
+    <mergeCell ref="S17:U17"/>
+    <mergeCell ref="V17:AM17"/>
+    <mergeCell ref="AN19:AR19"/>
+    <mergeCell ref="AS19:AW19"/>
+    <mergeCell ref="B20:D20"/>
+    <mergeCell ref="E20:I20"/>
+    <mergeCell ref="J20:L20"/>
+    <mergeCell ref="M20:R20"/>
+    <mergeCell ref="S20:U20"/>
+    <mergeCell ref="V20:AM20"/>
+    <mergeCell ref="AN20:AR20"/>
+    <mergeCell ref="AS20:AW20"/>
+    <mergeCell ref="B19:D19"/>
+    <mergeCell ref="E19:I19"/>
+    <mergeCell ref="J19:L19"/>
+    <mergeCell ref="M19:R19"/>
+    <mergeCell ref="S19:U19"/>
+    <mergeCell ref="V19:AM19"/>
+    <mergeCell ref="AN21:AR21"/>
+    <mergeCell ref="AS21:AW21"/>
+    <mergeCell ref="B22:D22"/>
+    <mergeCell ref="E22:I22"/>
+    <mergeCell ref="J22:L22"/>
+    <mergeCell ref="M22:R22"/>
+    <mergeCell ref="S22:U22"/>
+    <mergeCell ref="V22:AM22"/>
+    <mergeCell ref="AN22:AR22"/>
+    <mergeCell ref="AS22:AW22"/>
+    <mergeCell ref="B21:D21"/>
+    <mergeCell ref="E21:I21"/>
+    <mergeCell ref="J21:L21"/>
+    <mergeCell ref="M21:R21"/>
+    <mergeCell ref="S21:U21"/>
+    <mergeCell ref="V21:AM21"/>
+    <mergeCell ref="AN23:AR23"/>
+    <mergeCell ref="AS23:AW23"/>
+    <mergeCell ref="B24:D24"/>
+    <mergeCell ref="E24:I24"/>
+    <mergeCell ref="J24:L24"/>
+    <mergeCell ref="M24:R24"/>
+    <mergeCell ref="S24:U24"/>
+    <mergeCell ref="V24:AM24"/>
+    <mergeCell ref="AN24:AR24"/>
+    <mergeCell ref="AS24:AW24"/>
+    <mergeCell ref="B23:D23"/>
+    <mergeCell ref="E23:I23"/>
+    <mergeCell ref="J23:L23"/>
+    <mergeCell ref="M23:R23"/>
+    <mergeCell ref="S23:U23"/>
+    <mergeCell ref="V23:AM23"/>
+    <mergeCell ref="AN25:AR25"/>
+    <mergeCell ref="AS25:AW25"/>
+    <mergeCell ref="B26:D26"/>
+    <mergeCell ref="E26:I26"/>
+    <mergeCell ref="J26:L26"/>
+    <mergeCell ref="M26:R26"/>
+    <mergeCell ref="S26:U26"/>
+    <mergeCell ref="V26:AM26"/>
+    <mergeCell ref="AN26:AR26"/>
+    <mergeCell ref="AS26:AW26"/>
+    <mergeCell ref="B25:D25"/>
+    <mergeCell ref="E25:I25"/>
+    <mergeCell ref="J25:L25"/>
+    <mergeCell ref="M25:R25"/>
+    <mergeCell ref="S25:U25"/>
+    <mergeCell ref="V25:AM25"/>
+    <mergeCell ref="AN27:AR27"/>
+    <mergeCell ref="AS27:AW27"/>
+    <mergeCell ref="B28:D28"/>
+    <mergeCell ref="E28:I28"/>
+    <mergeCell ref="J28:L28"/>
+    <mergeCell ref="M28:R28"/>
+    <mergeCell ref="S28:U28"/>
+    <mergeCell ref="V28:AM28"/>
+    <mergeCell ref="AN28:AR28"/>
+    <mergeCell ref="AS28:AW28"/>
+    <mergeCell ref="B27:D27"/>
+    <mergeCell ref="E27:I27"/>
+    <mergeCell ref="J27:L27"/>
+    <mergeCell ref="M27:R27"/>
+    <mergeCell ref="S27:U27"/>
+    <mergeCell ref="V27:AM27"/>
+    <mergeCell ref="AN29:AR29"/>
+    <mergeCell ref="AS29:AW29"/>
+    <mergeCell ref="B30:D30"/>
+    <mergeCell ref="E30:I30"/>
+    <mergeCell ref="J30:L30"/>
+    <mergeCell ref="M30:R30"/>
+    <mergeCell ref="S30:U30"/>
+    <mergeCell ref="V30:AM30"/>
+    <mergeCell ref="AN30:AR30"/>
+    <mergeCell ref="AS30:AW30"/>
+    <mergeCell ref="B29:D29"/>
+    <mergeCell ref="E29:I29"/>
+    <mergeCell ref="J29:L29"/>
+    <mergeCell ref="M29:R29"/>
+    <mergeCell ref="S29:U29"/>
+    <mergeCell ref="V29:AM29"/>
+    <mergeCell ref="AN31:AR31"/>
+    <mergeCell ref="AS31:AW31"/>
+    <mergeCell ref="B32:D32"/>
+    <mergeCell ref="E32:I32"/>
+    <mergeCell ref="J32:L32"/>
+    <mergeCell ref="M32:R32"/>
+    <mergeCell ref="S32:U32"/>
+    <mergeCell ref="V32:AM32"/>
+    <mergeCell ref="AN32:AR32"/>
+    <mergeCell ref="AS32:AW32"/>
+    <mergeCell ref="B31:D31"/>
+    <mergeCell ref="E31:I31"/>
+    <mergeCell ref="J31:L31"/>
+    <mergeCell ref="M31:R31"/>
+    <mergeCell ref="S31:U31"/>
+    <mergeCell ref="V31:AM31"/>
     <mergeCell ref="AN33:AR33"/>
     <mergeCell ref="AS33:AW33"/>
     <mergeCell ref="B34:D34"/>
@@ -10112,239 +10345,6 @@
     <mergeCell ref="M33:R33"/>
     <mergeCell ref="S33:U33"/>
     <mergeCell ref="V33:AM33"/>
-    <mergeCell ref="AN31:AR31"/>
-    <mergeCell ref="AS31:AW31"/>
-    <mergeCell ref="B32:D32"/>
-    <mergeCell ref="E32:I32"/>
-    <mergeCell ref="J32:L32"/>
-    <mergeCell ref="M32:R32"/>
-    <mergeCell ref="S32:U32"/>
-    <mergeCell ref="V32:AM32"/>
-    <mergeCell ref="AN32:AR32"/>
-    <mergeCell ref="AS32:AW32"/>
-    <mergeCell ref="B31:D31"/>
-    <mergeCell ref="E31:I31"/>
-    <mergeCell ref="J31:L31"/>
-    <mergeCell ref="M31:R31"/>
-    <mergeCell ref="S31:U31"/>
-    <mergeCell ref="V31:AM31"/>
-    <mergeCell ref="AN29:AR29"/>
-    <mergeCell ref="AS29:AW29"/>
-    <mergeCell ref="B30:D30"/>
-    <mergeCell ref="E30:I30"/>
-    <mergeCell ref="J30:L30"/>
-    <mergeCell ref="M30:R30"/>
-    <mergeCell ref="S30:U30"/>
-    <mergeCell ref="V30:AM30"/>
-    <mergeCell ref="AN30:AR30"/>
-    <mergeCell ref="AS30:AW30"/>
-    <mergeCell ref="B29:D29"/>
-    <mergeCell ref="E29:I29"/>
-    <mergeCell ref="J29:L29"/>
-    <mergeCell ref="M29:R29"/>
-    <mergeCell ref="S29:U29"/>
-    <mergeCell ref="V29:AM29"/>
-    <mergeCell ref="AN27:AR27"/>
-    <mergeCell ref="AS27:AW27"/>
-    <mergeCell ref="B28:D28"/>
-    <mergeCell ref="E28:I28"/>
-    <mergeCell ref="J28:L28"/>
-    <mergeCell ref="M28:R28"/>
-    <mergeCell ref="S28:U28"/>
-    <mergeCell ref="V28:AM28"/>
-    <mergeCell ref="AN28:AR28"/>
-    <mergeCell ref="AS28:AW28"/>
-    <mergeCell ref="B27:D27"/>
-    <mergeCell ref="E27:I27"/>
-    <mergeCell ref="J27:L27"/>
-    <mergeCell ref="M27:R27"/>
-    <mergeCell ref="S27:U27"/>
-    <mergeCell ref="V27:AM27"/>
-    <mergeCell ref="AN25:AR25"/>
-    <mergeCell ref="AS25:AW25"/>
-    <mergeCell ref="B26:D26"/>
-    <mergeCell ref="E26:I26"/>
-    <mergeCell ref="J26:L26"/>
-    <mergeCell ref="M26:R26"/>
-    <mergeCell ref="S26:U26"/>
-    <mergeCell ref="V26:AM26"/>
-    <mergeCell ref="AN26:AR26"/>
-    <mergeCell ref="AS26:AW26"/>
-    <mergeCell ref="B25:D25"/>
-    <mergeCell ref="E25:I25"/>
-    <mergeCell ref="J25:L25"/>
-    <mergeCell ref="M25:R25"/>
-    <mergeCell ref="S25:U25"/>
-    <mergeCell ref="V25:AM25"/>
-    <mergeCell ref="AN23:AR23"/>
-    <mergeCell ref="AS23:AW23"/>
-    <mergeCell ref="B24:D24"/>
-    <mergeCell ref="E24:I24"/>
-    <mergeCell ref="J24:L24"/>
-    <mergeCell ref="M24:R24"/>
-    <mergeCell ref="S24:U24"/>
-    <mergeCell ref="V24:AM24"/>
-    <mergeCell ref="AN24:AR24"/>
-    <mergeCell ref="AS24:AW24"/>
-    <mergeCell ref="B23:D23"/>
-    <mergeCell ref="E23:I23"/>
-    <mergeCell ref="J23:L23"/>
-    <mergeCell ref="M23:R23"/>
-    <mergeCell ref="S23:U23"/>
-    <mergeCell ref="V23:AM23"/>
-    <mergeCell ref="AN21:AR21"/>
-    <mergeCell ref="AS21:AW21"/>
-    <mergeCell ref="B22:D22"/>
-    <mergeCell ref="E22:I22"/>
-    <mergeCell ref="J22:L22"/>
-    <mergeCell ref="M22:R22"/>
-    <mergeCell ref="S22:U22"/>
-    <mergeCell ref="V22:AM22"/>
-    <mergeCell ref="AN22:AR22"/>
-    <mergeCell ref="AS22:AW22"/>
-    <mergeCell ref="B21:D21"/>
-    <mergeCell ref="E21:I21"/>
-    <mergeCell ref="J21:L21"/>
-    <mergeCell ref="M21:R21"/>
-    <mergeCell ref="S21:U21"/>
-    <mergeCell ref="V21:AM21"/>
-    <mergeCell ref="AN19:AR19"/>
-    <mergeCell ref="AS19:AW19"/>
-    <mergeCell ref="B20:D20"/>
-    <mergeCell ref="E20:I20"/>
-    <mergeCell ref="J20:L20"/>
-    <mergeCell ref="M20:R20"/>
-    <mergeCell ref="S20:U20"/>
-    <mergeCell ref="V20:AM20"/>
-    <mergeCell ref="AN20:AR20"/>
-    <mergeCell ref="AS20:AW20"/>
-    <mergeCell ref="B19:D19"/>
-    <mergeCell ref="E19:I19"/>
-    <mergeCell ref="J19:L19"/>
-    <mergeCell ref="M19:R19"/>
-    <mergeCell ref="S19:U19"/>
-    <mergeCell ref="V19:AM19"/>
-    <mergeCell ref="AN17:AR17"/>
-    <mergeCell ref="AS17:AW17"/>
-    <mergeCell ref="B18:D18"/>
-    <mergeCell ref="E18:I18"/>
-    <mergeCell ref="J18:L18"/>
-    <mergeCell ref="M18:R18"/>
-    <mergeCell ref="S18:U18"/>
-    <mergeCell ref="V18:AM18"/>
-    <mergeCell ref="AN18:AR18"/>
-    <mergeCell ref="AS18:AW18"/>
-    <mergeCell ref="B17:D17"/>
-    <mergeCell ref="E17:I17"/>
-    <mergeCell ref="J17:L17"/>
-    <mergeCell ref="M17:R17"/>
-    <mergeCell ref="S17:U17"/>
-    <mergeCell ref="V17:AM17"/>
-    <mergeCell ref="AN15:AR15"/>
-    <mergeCell ref="AS15:AW15"/>
-    <mergeCell ref="B16:D16"/>
-    <mergeCell ref="E16:I16"/>
-    <mergeCell ref="J16:L16"/>
-    <mergeCell ref="M16:R16"/>
-    <mergeCell ref="S16:U16"/>
-    <mergeCell ref="V16:AM16"/>
-    <mergeCell ref="AN16:AR16"/>
-    <mergeCell ref="AS16:AW16"/>
-    <mergeCell ref="B15:D15"/>
-    <mergeCell ref="E15:I15"/>
-    <mergeCell ref="J15:L15"/>
-    <mergeCell ref="M15:R15"/>
-    <mergeCell ref="S15:U15"/>
-    <mergeCell ref="V15:AM15"/>
-    <mergeCell ref="AN13:AR13"/>
-    <mergeCell ref="AS13:AW13"/>
-    <mergeCell ref="B14:D14"/>
-    <mergeCell ref="E14:I14"/>
-    <mergeCell ref="J14:L14"/>
-    <mergeCell ref="M14:R14"/>
-    <mergeCell ref="S14:U14"/>
-    <mergeCell ref="V14:AM14"/>
-    <mergeCell ref="AN14:AR14"/>
-    <mergeCell ref="AS14:AW14"/>
-    <mergeCell ref="B13:D13"/>
-    <mergeCell ref="E13:I13"/>
-    <mergeCell ref="J13:L13"/>
-    <mergeCell ref="M13:R13"/>
-    <mergeCell ref="S13:U13"/>
-    <mergeCell ref="V13:AM13"/>
-    <mergeCell ref="AN11:AR11"/>
-    <mergeCell ref="AS11:AW11"/>
-    <mergeCell ref="B12:D12"/>
-    <mergeCell ref="E12:I12"/>
-    <mergeCell ref="J12:L12"/>
-    <mergeCell ref="M12:R12"/>
-    <mergeCell ref="S12:U12"/>
-    <mergeCell ref="V12:AM12"/>
-    <mergeCell ref="AN12:AR12"/>
-    <mergeCell ref="AS12:AW12"/>
-    <mergeCell ref="B11:D11"/>
-    <mergeCell ref="E11:I11"/>
-    <mergeCell ref="J11:L11"/>
-    <mergeCell ref="M11:R11"/>
-    <mergeCell ref="S11:U11"/>
-    <mergeCell ref="V11:AM11"/>
-    <mergeCell ref="AN9:AR9"/>
-    <mergeCell ref="AS9:AW9"/>
-    <mergeCell ref="B10:D10"/>
-    <mergeCell ref="E10:I10"/>
-    <mergeCell ref="J10:L10"/>
-    <mergeCell ref="M10:R10"/>
-    <mergeCell ref="S10:U10"/>
-    <mergeCell ref="V10:AM10"/>
-    <mergeCell ref="AN10:AR10"/>
-    <mergeCell ref="AS10:AW10"/>
-    <mergeCell ref="B9:D9"/>
-    <mergeCell ref="E9:I9"/>
-    <mergeCell ref="J9:L9"/>
-    <mergeCell ref="M9:R9"/>
-    <mergeCell ref="S9:U9"/>
-    <mergeCell ref="V9:AM9"/>
-    <mergeCell ref="AN7:AR7"/>
-    <mergeCell ref="AS7:AW7"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="E8:I8"/>
-    <mergeCell ref="J8:L8"/>
-    <mergeCell ref="M8:R8"/>
-    <mergeCell ref="S8:U8"/>
-    <mergeCell ref="V8:AM8"/>
-    <mergeCell ref="AN8:AR8"/>
-    <mergeCell ref="AS8:AW8"/>
-    <mergeCell ref="B7:D7"/>
-    <mergeCell ref="E7:I7"/>
-    <mergeCell ref="J7:L7"/>
-    <mergeCell ref="M7:R7"/>
-    <mergeCell ref="S7:U7"/>
-    <mergeCell ref="V7:AM7"/>
-    <mergeCell ref="AN5:AR5"/>
-    <mergeCell ref="AS5:AW5"/>
-    <mergeCell ref="B6:D6"/>
-    <mergeCell ref="E6:I6"/>
-    <mergeCell ref="J6:L6"/>
-    <mergeCell ref="M6:R6"/>
-    <mergeCell ref="S6:U6"/>
-    <mergeCell ref="V6:AM6"/>
-    <mergeCell ref="AN6:AR6"/>
-    <mergeCell ref="AS6:AW6"/>
-    <mergeCell ref="B5:D5"/>
-    <mergeCell ref="E5:I5"/>
-    <mergeCell ref="J5:L5"/>
-    <mergeCell ref="M5:R5"/>
-    <mergeCell ref="S5:U5"/>
-    <mergeCell ref="V5:AM5"/>
-    <mergeCell ref="B1:AW2"/>
-    <mergeCell ref="B3:D4"/>
-    <mergeCell ref="E3:I4"/>
-    <mergeCell ref="J3:L4"/>
-    <mergeCell ref="M3:R4"/>
-    <mergeCell ref="S3:U4"/>
-    <mergeCell ref="V3:AM4"/>
-    <mergeCell ref="AN3:AR4"/>
-    <mergeCell ref="AS3:AW4"/>
   </mergeCells>
   <phoneticPr fontId="4"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -12373,7 +12373,7 @@
       <c r="I51" s="84"/>
       <c r="J51" s="224"/>
       <c r="K51" s="223" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="L51" s="84"/>
       <c r="M51" s="84"/>
@@ -12405,7 +12405,7 @@
       <c r="AK51" s="283"/>
       <c r="AL51" s="284"/>
       <c r="AM51" s="81" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="AN51" s="82"/>
       <c r="AO51" s="82"/>
@@ -12607,7 +12607,7 @@
       <c r="I54" s="84"/>
       <c r="J54" s="224"/>
       <c r="K54" s="223" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="L54" s="84"/>
       <c r="M54" s="84"/>
@@ -12919,7 +12919,7 @@
       <c r="I58" s="84"/>
       <c r="J58" s="224"/>
       <c r="K58" s="223" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="L58" s="84"/>
       <c r="M58" s="84"/>
@@ -13222,11 +13222,43 @@
     </row>
   </sheetData>
   <mergeCells count="58">
-    <mergeCell ref="B61:C61"/>
-    <mergeCell ref="AE61:AF61"/>
-    <mergeCell ref="AG61:AH61"/>
-    <mergeCell ref="AI61:AJ61"/>
-    <mergeCell ref="AK61:AL61"/>
+    <mergeCell ref="B60:C60"/>
+    <mergeCell ref="AE60:AF60"/>
+    <mergeCell ref="B58:C58"/>
+    <mergeCell ref="AK58:AL58"/>
+    <mergeCell ref="B59:C59"/>
+    <mergeCell ref="AE59:AF59"/>
+    <mergeCell ref="AG59:AH59"/>
+    <mergeCell ref="AI59:AJ59"/>
+    <mergeCell ref="AK59:AL59"/>
+    <mergeCell ref="AK55:AL55"/>
+    <mergeCell ref="AI55:AJ55"/>
+    <mergeCell ref="AG60:AH60"/>
+    <mergeCell ref="AI60:AJ60"/>
+    <mergeCell ref="AK60:AL60"/>
+    <mergeCell ref="B54:C54"/>
+    <mergeCell ref="AI54:AJ54"/>
+    <mergeCell ref="AE58:AF58"/>
+    <mergeCell ref="AK54:AL54"/>
+    <mergeCell ref="AK57:AL57"/>
+    <mergeCell ref="B56:C56"/>
+    <mergeCell ref="AE56:AF56"/>
+    <mergeCell ref="AG56:AH56"/>
+    <mergeCell ref="AI56:AJ56"/>
+    <mergeCell ref="AK56:AL56"/>
+    <mergeCell ref="B57:C57"/>
+    <mergeCell ref="AE57:AF57"/>
+    <mergeCell ref="AG57:AH57"/>
+    <mergeCell ref="AE54:AF54"/>
+    <mergeCell ref="B55:C55"/>
+    <mergeCell ref="AE55:AF55"/>
+    <mergeCell ref="AG53:AH53"/>
+    <mergeCell ref="AG54:AH54"/>
+    <mergeCell ref="AG52:AH52"/>
+    <mergeCell ref="AI57:AJ57"/>
+    <mergeCell ref="AG58:AH58"/>
+    <mergeCell ref="AI58:AJ58"/>
+    <mergeCell ref="AG55:AH55"/>
     <mergeCell ref="AO2:AS2"/>
     <mergeCell ref="AZ2:BG2"/>
     <mergeCell ref="B50:C50"/>
@@ -13243,43 +13275,11 @@
     <mergeCell ref="AI53:AJ53"/>
     <mergeCell ref="AE52:AF52"/>
     <mergeCell ref="AE53:AF53"/>
-    <mergeCell ref="AG53:AH53"/>
-    <mergeCell ref="AG54:AH54"/>
-    <mergeCell ref="AG52:AH52"/>
-    <mergeCell ref="AI57:AJ57"/>
-    <mergeCell ref="AG58:AH58"/>
-    <mergeCell ref="AI58:AJ58"/>
-    <mergeCell ref="AG55:AH55"/>
-    <mergeCell ref="B54:C54"/>
-    <mergeCell ref="AI54:AJ54"/>
-    <mergeCell ref="AE58:AF58"/>
-    <mergeCell ref="AK54:AL54"/>
-    <mergeCell ref="AK57:AL57"/>
-    <mergeCell ref="B56:C56"/>
-    <mergeCell ref="AE56:AF56"/>
-    <mergeCell ref="AG56:AH56"/>
-    <mergeCell ref="AI56:AJ56"/>
-    <mergeCell ref="AK56:AL56"/>
-    <mergeCell ref="B57:C57"/>
-    <mergeCell ref="AE57:AF57"/>
-    <mergeCell ref="AG57:AH57"/>
-    <mergeCell ref="AE54:AF54"/>
-    <mergeCell ref="B55:C55"/>
-    <mergeCell ref="AE55:AF55"/>
-    <mergeCell ref="AK55:AL55"/>
-    <mergeCell ref="AI55:AJ55"/>
-    <mergeCell ref="AG60:AH60"/>
-    <mergeCell ref="AI60:AJ60"/>
-    <mergeCell ref="AK60:AL60"/>
-    <mergeCell ref="B60:C60"/>
-    <mergeCell ref="AE60:AF60"/>
-    <mergeCell ref="B58:C58"/>
-    <mergeCell ref="AK58:AL58"/>
-    <mergeCell ref="B59:C59"/>
-    <mergeCell ref="AE59:AF59"/>
-    <mergeCell ref="AG59:AH59"/>
-    <mergeCell ref="AI59:AJ59"/>
-    <mergeCell ref="AK59:AL59"/>
+    <mergeCell ref="B61:C61"/>
+    <mergeCell ref="AE61:AF61"/>
+    <mergeCell ref="AG61:AH61"/>
+    <mergeCell ref="AI61:AJ61"/>
+    <mergeCell ref="AK61:AL61"/>
   </mergeCells>
   <phoneticPr fontId="4"/>
   <printOptions horizontalCentered="1"/>
@@ -13773,22 +13773,22 @@
     <row r="6" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="15"/>
       <c r="B6" s="15"/>
-      <c r="C6" s="243" t="s">
+      <c r="C6" s="274" t="s">
         <v>27</v>
       </c>
-      <c r="D6" s="243" t="s">
+      <c r="D6" s="274" t="s">
         <v>60</v>
       </c>
-      <c r="E6" s="243" t="s">
+      <c r="E6" s="274" t="s">
         <v>44</v>
       </c>
-      <c r="F6" s="243" t="s">
+      <c r="F6" s="274" t="s">
         <v>45</v>
       </c>
-      <c r="G6" s="243" t="s">
+      <c r="G6" s="274" t="s">
         <v>28</v>
       </c>
-      <c r="H6" s="243" t="s">
+      <c r="H6" s="274" t="s">
         <v>29</v>
       </c>
       <c r="I6" s="302" t="s">
@@ -13797,13 +13797,13 @@
       <c r="J6" s="302" t="s">
         <v>51</v>
       </c>
-      <c r="K6" s="243" t="s">
+      <c r="K6" s="274" t="s">
         <v>31</v>
       </c>
-      <c r="L6" s="243" t="s">
+      <c r="L6" s="274" t="s">
         <v>30</v>
       </c>
-      <c r="M6" s="243" t="s">
+      <c r="M6" s="274" t="s">
         <v>33</v>
       </c>
       <c r="N6" s="75" t="s">
@@ -13818,17 +13818,17 @@
     <row r="7" spans="1:18" ht="15.75" x14ac:dyDescent="0.15">
       <c r="A7" s="15"/>
       <c r="B7" s="15"/>
-      <c r="C7" s="243"/>
-      <c r="D7" s="243"/>
-      <c r="E7" s="243"/>
-      <c r="F7" s="243"/>
-      <c r="G7" s="243"/>
-      <c r="H7" s="243"/>
+      <c r="C7" s="274"/>
+      <c r="D7" s="274"/>
+      <c r="E7" s="274"/>
+      <c r="F7" s="274"/>
+      <c r="G7" s="274"/>
+      <c r="H7" s="274"/>
       <c r="I7" s="302"/>
       <c r="J7" s="302"/>
-      <c r="K7" s="243"/>
-      <c r="L7" s="243"/>
-      <c r="M7" s="243"/>
+      <c r="K7" s="274"/>
+      <c r="L7" s="274"/>
+      <c r="M7" s="274"/>
       <c r="N7" s="43" t="s">
         <v>83</v>
       </c>
@@ -14039,22 +14039,22 @@
     <row r="14" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="15"/>
       <c r="B14" s="15"/>
-      <c r="C14" s="243" t="s">
+      <c r="C14" s="274" t="s">
         <v>27</v>
       </c>
-      <c r="D14" s="243" t="s">
+      <c r="D14" s="274" t="s">
         <v>60</v>
       </c>
-      <c r="E14" s="243" t="s">
+      <c r="E14" s="274" t="s">
         <v>44</v>
       </c>
-      <c r="F14" s="243" t="s">
+      <c r="F14" s="274" t="s">
         <v>45</v>
       </c>
-      <c r="G14" s="243" t="s">
+      <c r="G14" s="274" t="s">
         <v>28</v>
       </c>
-      <c r="H14" s="243" t="s">
+      <c r="H14" s="274" t="s">
         <v>29</v>
       </c>
       <c r="I14" s="303" t="s">
@@ -14063,13 +14063,13 @@
       <c r="J14" s="302" t="s">
         <v>51</v>
       </c>
-      <c r="K14" s="243" t="s">
+      <c r="K14" s="274" t="s">
         <v>31</v>
       </c>
-      <c r="L14" s="243" t="s">
+      <c r="L14" s="274" t="s">
         <v>30</v>
       </c>
-      <c r="M14" s="243" t="s">
+      <c r="M14" s="274" t="s">
         <v>33</v>
       </c>
       <c r="N14" s="75" t="s">
@@ -14084,17 +14084,17 @@
     <row r="15" spans="1:18" ht="15.75" x14ac:dyDescent="0.15">
       <c r="A15" s="15"/>
       <c r="B15" s="15"/>
-      <c r="C15" s="243"/>
-      <c r="D15" s="243"/>
-      <c r="E15" s="243"/>
-      <c r="F15" s="243"/>
-      <c r="G15" s="243"/>
-      <c r="H15" s="243"/>
+      <c r="C15" s="274"/>
+      <c r="D15" s="274"/>
+      <c r="E15" s="274"/>
+      <c r="F15" s="274"/>
+      <c r="G15" s="274"/>
+      <c r="H15" s="274"/>
       <c r="I15" s="304"/>
       <c r="J15" s="302"/>
-      <c r="K15" s="243"/>
-      <c r="L15" s="243"/>
-      <c r="M15" s="243"/>
+      <c r="K15" s="274"/>
+      <c r="L15" s="274"/>
+      <c r="M15" s="274"/>
       <c r="N15" s="43" t="s">
         <v>83</v>
       </c>
@@ -14368,22 +14368,22 @@
     </row>
     <row r="24" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B24" s="118"/>
-      <c r="C24" s="243" t="s">
+      <c r="C24" s="274" t="s">
         <v>27</v>
       </c>
-      <c r="D24" s="243" t="s">
+      <c r="D24" s="274" t="s">
         <v>60</v>
       </c>
-      <c r="E24" s="243" t="s">
+      <c r="E24" s="274" t="s">
         <v>44</v>
       </c>
-      <c r="F24" s="243" t="s">
+      <c r="F24" s="274" t="s">
         <v>45</v>
       </c>
-      <c r="G24" s="243" t="s">
+      <c r="G24" s="274" t="s">
         <v>28</v>
       </c>
-      <c r="H24" s="243" t="s">
+      <c r="H24" s="274" t="s">
         <v>29</v>
       </c>
       <c r="I24" s="302" t="s">
@@ -14392,13 +14392,13 @@
       <c r="J24" s="302" t="s">
         <v>51</v>
       </c>
-      <c r="K24" s="243" t="s">
+      <c r="K24" s="274" t="s">
         <v>31</v>
       </c>
-      <c r="L24" s="243" t="s">
+      <c r="L24" s="274" t="s">
         <v>30</v>
       </c>
-      <c r="M24" s="243" t="s">
+      <c r="M24" s="274" t="s">
         <v>33</v>
       </c>
       <c r="N24" s="75" t="s">
@@ -14412,17 +14412,17 @@
     </row>
     <row r="25" spans="1:17" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B25" s="118"/>
-      <c r="C25" s="243"/>
-      <c r="D25" s="243"/>
-      <c r="E25" s="243"/>
-      <c r="F25" s="243"/>
-      <c r="G25" s="243"/>
-      <c r="H25" s="243"/>
+      <c r="C25" s="274"/>
+      <c r="D25" s="274"/>
+      <c r="E25" s="274"/>
+      <c r="F25" s="274"/>
+      <c r="G25" s="274"/>
+      <c r="H25" s="274"/>
       <c r="I25" s="302"/>
       <c r="J25" s="302"/>
-      <c r="K25" s="243"/>
-      <c r="L25" s="243"/>
-      <c r="M25" s="243"/>
+      <c r="K25" s="274"/>
+      <c r="L25" s="274"/>
+      <c r="M25" s="274"/>
       <c r="N25" s="115" t="s">
         <v>83</v>
       </c>
@@ -14975,22 +14975,22 @@
     </row>
     <row r="40" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B40" s="118"/>
-      <c r="C40" s="243" t="s">
+      <c r="C40" s="274" t="s">
         <v>27</v>
       </c>
-      <c r="D40" s="243" t="s">
+      <c r="D40" s="274" t="s">
         <v>60</v>
       </c>
-      <c r="E40" s="243" t="s">
+      <c r="E40" s="274" t="s">
         <v>44</v>
       </c>
-      <c r="F40" s="243" t="s">
+      <c r="F40" s="274" t="s">
         <v>45</v>
       </c>
-      <c r="G40" s="243" t="s">
+      <c r="G40" s="274" t="s">
         <v>28</v>
       </c>
-      <c r="H40" s="243" t="s">
+      <c r="H40" s="274" t="s">
         <v>29</v>
       </c>
       <c r="I40" s="302" t="s">
@@ -14999,13 +14999,13 @@
       <c r="J40" s="302" t="s">
         <v>51</v>
       </c>
-      <c r="K40" s="243" t="s">
+      <c r="K40" s="274" t="s">
         <v>31</v>
       </c>
-      <c r="L40" s="243" t="s">
+      <c r="L40" s="274" t="s">
         <v>30</v>
       </c>
-      <c r="M40" s="243" t="s">
+      <c r="M40" s="274" t="s">
         <v>33</v>
       </c>
       <c r="N40" s="75" t="s">
@@ -15019,17 +15019,17 @@
     </row>
     <row r="41" spans="1:17" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B41" s="118"/>
-      <c r="C41" s="243"/>
-      <c r="D41" s="243"/>
-      <c r="E41" s="243"/>
-      <c r="F41" s="243"/>
-      <c r="G41" s="243"/>
-      <c r="H41" s="243"/>
+      <c r="C41" s="274"/>
+      <c r="D41" s="274"/>
+      <c r="E41" s="274"/>
+      <c r="F41" s="274"/>
+      <c r="G41" s="274"/>
+      <c r="H41" s="274"/>
       <c r="I41" s="302"/>
       <c r="J41" s="302"/>
-      <c r="K41" s="243"/>
-      <c r="L41" s="243"/>
-      <c r="M41" s="243"/>
+      <c r="K41" s="274"/>
+      <c r="L41" s="274"/>
+      <c r="M41" s="274"/>
       <c r="N41" s="115" t="s">
         <v>83</v>
       </c>
@@ -15774,22 +15774,22 @@
     </row>
     <row r="60" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B60" s="118"/>
-      <c r="C60" s="243" t="s">
+      <c r="C60" s="274" t="s">
         <v>27</v>
       </c>
-      <c r="D60" s="243" t="s">
+      <c r="D60" s="274" t="s">
         <v>60</v>
       </c>
-      <c r="E60" s="243" t="s">
+      <c r="E60" s="274" t="s">
         <v>44</v>
       </c>
-      <c r="F60" s="243" t="s">
+      <c r="F60" s="274" t="s">
         <v>45</v>
       </c>
-      <c r="G60" s="243" t="s">
+      <c r="G60" s="274" t="s">
         <v>28</v>
       </c>
-      <c r="H60" s="243" t="s">
+      <c r="H60" s="274" t="s">
         <v>29</v>
       </c>
       <c r="I60" s="302" t="s">
@@ -15798,13 +15798,13 @@
       <c r="J60" s="302" t="s">
         <v>51</v>
       </c>
-      <c r="K60" s="243" t="s">
+      <c r="K60" s="274" t="s">
         <v>31</v>
       </c>
-      <c r="L60" s="243" t="s">
+      <c r="L60" s="274" t="s">
         <v>30</v>
       </c>
-      <c r="M60" s="243" t="s">
+      <c r="M60" s="274" t="s">
         <v>33</v>
       </c>
       <c r="N60" s="75" t="s">
@@ -15818,17 +15818,17 @@
     </row>
     <row r="61" spans="1:17" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B61" s="118"/>
-      <c r="C61" s="243"/>
-      <c r="D61" s="243"/>
-      <c r="E61" s="243"/>
-      <c r="F61" s="243"/>
-      <c r="G61" s="243"/>
-      <c r="H61" s="243"/>
+      <c r="C61" s="274"/>
+      <c r="D61" s="274"/>
+      <c r="E61" s="274"/>
+      <c r="F61" s="274"/>
+      <c r="G61" s="274"/>
+      <c r="H61" s="274"/>
       <c r="I61" s="302"/>
       <c r="J61" s="302"/>
-      <c r="K61" s="243"/>
-      <c r="L61" s="243"/>
-      <c r="M61" s="243"/>
+      <c r="K61" s="274"/>
+      <c r="L61" s="274"/>
+      <c r="M61" s="274"/>
       <c r="N61" s="115" t="s">
         <v>83</v>
       </c>
@@ -16420,38 +16420,26 @@
     </row>
   </sheetData>
   <mergeCells count="60">
-    <mergeCell ref="M60:M61"/>
-    <mergeCell ref="Q60:Q61"/>
-    <mergeCell ref="H60:H61"/>
-    <mergeCell ref="I60:I61"/>
-    <mergeCell ref="J60:J61"/>
-    <mergeCell ref="K60:K61"/>
-    <mergeCell ref="L60:L61"/>
-    <mergeCell ref="C60:C61"/>
-    <mergeCell ref="D60:D61"/>
-    <mergeCell ref="E60:E61"/>
-    <mergeCell ref="F60:F61"/>
-    <mergeCell ref="G60:G61"/>
-    <mergeCell ref="H40:H41"/>
-    <mergeCell ref="I40:I41"/>
-    <mergeCell ref="J40:J41"/>
-    <mergeCell ref="K40:K41"/>
-    <mergeCell ref="L40:L41"/>
-    <mergeCell ref="C40:C41"/>
-    <mergeCell ref="D40:D41"/>
-    <mergeCell ref="E40:E41"/>
-    <mergeCell ref="F40:F41"/>
-    <mergeCell ref="G40:G41"/>
-    <mergeCell ref="H24:H25"/>
-    <mergeCell ref="I24:I25"/>
-    <mergeCell ref="J24:J25"/>
-    <mergeCell ref="K24:K25"/>
-    <mergeCell ref="L24:L25"/>
-    <mergeCell ref="C24:C25"/>
-    <mergeCell ref="D24:D25"/>
-    <mergeCell ref="E24:E25"/>
-    <mergeCell ref="F24:F25"/>
-    <mergeCell ref="G24:G25"/>
+    <mergeCell ref="K14:K15"/>
+    <mergeCell ref="M24:M25"/>
+    <mergeCell ref="Q24:Q25"/>
+    <mergeCell ref="M40:M41"/>
+    <mergeCell ref="Q40:Q41"/>
+    <mergeCell ref="Q6:Q7"/>
+    <mergeCell ref="Q14:Q15"/>
+    <mergeCell ref="M6:M7"/>
+    <mergeCell ref="M14:M15"/>
+    <mergeCell ref="L14:L15"/>
+    <mergeCell ref="J6:J7"/>
+    <mergeCell ref="D6:D7"/>
+    <mergeCell ref="I6:I7"/>
+    <mergeCell ref="L6:L7"/>
+    <mergeCell ref="K6:K7"/>
+    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="E6:E7"/>
+    <mergeCell ref="G6:G7"/>
+    <mergeCell ref="H6:H7"/>
+    <mergeCell ref="F6:F7"/>
     <mergeCell ref="I14:I15"/>
     <mergeCell ref="J14:J15"/>
     <mergeCell ref="C14:C15"/>
@@ -16460,26 +16448,38 @@
     <mergeCell ref="G14:G15"/>
     <mergeCell ref="H14:H15"/>
     <mergeCell ref="D14:D15"/>
-    <mergeCell ref="C6:C7"/>
-    <mergeCell ref="E6:E7"/>
-    <mergeCell ref="G6:G7"/>
-    <mergeCell ref="H6:H7"/>
-    <mergeCell ref="F6:F7"/>
-    <mergeCell ref="J6:J7"/>
-    <mergeCell ref="D6:D7"/>
-    <mergeCell ref="I6:I7"/>
-    <mergeCell ref="L6:L7"/>
-    <mergeCell ref="K6:K7"/>
-    <mergeCell ref="Q6:Q7"/>
-    <mergeCell ref="Q14:Q15"/>
-    <mergeCell ref="M6:M7"/>
-    <mergeCell ref="M14:M15"/>
-    <mergeCell ref="L14:L15"/>
-    <mergeCell ref="K14:K15"/>
-    <mergeCell ref="M24:M25"/>
-    <mergeCell ref="Q24:Q25"/>
-    <mergeCell ref="M40:M41"/>
-    <mergeCell ref="Q40:Q41"/>
+    <mergeCell ref="C24:C25"/>
+    <mergeCell ref="D24:D25"/>
+    <mergeCell ref="E24:E25"/>
+    <mergeCell ref="F24:F25"/>
+    <mergeCell ref="G24:G25"/>
+    <mergeCell ref="H24:H25"/>
+    <mergeCell ref="I24:I25"/>
+    <mergeCell ref="J24:J25"/>
+    <mergeCell ref="K24:K25"/>
+    <mergeCell ref="L24:L25"/>
+    <mergeCell ref="C40:C41"/>
+    <mergeCell ref="D40:D41"/>
+    <mergeCell ref="E40:E41"/>
+    <mergeCell ref="F40:F41"/>
+    <mergeCell ref="G40:G41"/>
+    <mergeCell ref="H40:H41"/>
+    <mergeCell ref="I40:I41"/>
+    <mergeCell ref="J40:J41"/>
+    <mergeCell ref="K40:K41"/>
+    <mergeCell ref="L40:L41"/>
+    <mergeCell ref="C60:C61"/>
+    <mergeCell ref="D60:D61"/>
+    <mergeCell ref="E60:E61"/>
+    <mergeCell ref="F60:F61"/>
+    <mergeCell ref="G60:G61"/>
+    <mergeCell ref="M60:M61"/>
+    <mergeCell ref="Q60:Q61"/>
+    <mergeCell ref="H60:H61"/>
+    <mergeCell ref="I60:I61"/>
+    <mergeCell ref="J60:J61"/>
+    <mergeCell ref="K60:K61"/>
+    <mergeCell ref="L60:L61"/>
   </mergeCells>
   <phoneticPr fontId="4"/>
   <pageMargins left="0.62992125984251968" right="0.62992125984251968" top="0.78740157480314965" bottom="0.78740157480314965" header="0.39370078740157483" footer="0.39370078740157483"/>
@@ -17146,7 +17146,7 @@
       <c r="J14" s="222"/>
       <c r="K14" s="228"/>
       <c r="L14" s="222" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="M14" s="231"/>
       <c r="N14" s="231"/>
@@ -17252,7 +17252,7 @@
       <c r="L16" s="225"/>
       <c r="M16" s="225"/>
       <c r="N16" s="225" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="O16" s="225"/>
       <c r="P16" s="225"/>
@@ -17303,7 +17303,7 @@
       <c r="L17" s="225"/>
       <c r="M17" s="225"/>
       <c r="N17" s="225" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="O17" s="225"/>
       <c r="P17" s="225"/>
@@ -17354,7 +17354,7 @@
       <c r="L18" s="225"/>
       <c r="M18" s="225"/>
       <c r="N18" s="225" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="O18" s="225"/>
       <c r="P18" s="225"/>
@@ -18454,7 +18454,7 @@
       <c r="M39" s="225"/>
       <c r="N39" s="225"/>
       <c r="O39" s="225" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="P39" s="225"/>
       <c r="Q39" s="225"/>
@@ -18508,7 +18508,7 @@
       <c r="L40" s="225"/>
       <c r="M40" s="225"/>
       <c r="N40" s="225" t="s">
-        <v>497</v>
+        <v>542</v>
       </c>
       <c r="O40" s="225"/>
       <c r="P40" s="225"/>
@@ -18669,7 +18669,7 @@
       <c r="L43" s="225"/>
       <c r="M43" s="225"/>
       <c r="N43" s="225" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="O43" s="225"/>
       <c r="P43" s="225"/>
@@ -18995,7 +18995,7 @@
       <c r="L49" s="225"/>
       <c r="M49" s="225"/>
       <c r="N49" s="225" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="O49" s="225"/>
       <c r="P49" s="225"/>
@@ -19064,7 +19064,7 @@
         <v>228</v>
       </c>
       <c r="AB50" s="225" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="AC50" s="225"/>
       <c r="AD50" s="225"/>
@@ -19119,7 +19119,7 @@
         <v>228</v>
       </c>
       <c r="AB51" s="225" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="AC51" s="225"/>
       <c r="AD51" s="225"/>
@@ -19174,7 +19174,7 @@
         <v>228</v>
       </c>
       <c r="AB52" s="225" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="AC52" s="225"/>
       <c r="AD52" s="225"/>
@@ -19229,7 +19229,7 @@
         <v>228</v>
       </c>
       <c r="AB53" s="225" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="AC53" s="225"/>
       <c r="AD53" s="225"/>
@@ -19284,7 +19284,7 @@
         <v>228</v>
       </c>
       <c r="AB54" s="225" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="AC54" s="225"/>
       <c r="AD54" s="225"/>
@@ -19321,7 +19321,7 @@
       <c r="L55" s="225"/>
       <c r="M55" s="225"/>
       <c r="N55" s="225" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="O55" s="225"/>
       <c r="P55" s="225"/>
@@ -19373,7 +19373,7 @@
       <c r="M56" s="225"/>
       <c r="N56" s="225"/>
       <c r="O56" s="225" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="P56" s="225"/>
       <c r="Q56" s="225"/>
@@ -19482,7 +19482,7 @@
       <c r="L58" s="225"/>
       <c r="M58" s="225"/>
       <c r="N58" s="225" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="O58" s="225"/>
       <c r="P58" s="225"/>
@@ -19864,7 +19864,7 @@
       <c r="M65" s="225"/>
       <c r="N65" s="225"/>
       <c r="O65" s="225" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="P65" s="225"/>
       <c r="Q65" s="225"/>
@@ -19919,7 +19919,7 @@
       <c r="M66" s="225"/>
       <c r="N66" s="225"/>
       <c r="O66" s="225" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="P66" s="225"/>
       <c r="Q66" s="225"/>
@@ -19971,7 +19971,7 @@
       <c r="L67" s="225"/>
       <c r="M67" s="225"/>
       <c r="N67" s="225" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="O67" s="225"/>
       <c r="P67" s="225"/>
@@ -20353,7 +20353,7 @@
       <c r="M74" s="225"/>
       <c r="N74" s="225"/>
       <c r="O74" s="225" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="P74" s="225"/>
       <c r="Q74" s="225"/>
@@ -20408,7 +20408,7 @@
       <c r="M75" s="225"/>
       <c r="N75" s="225"/>
       <c r="O75" s="225" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="P75" s="225"/>
       <c r="Q75" s="225"/>
@@ -20623,7 +20623,7 @@
       <c r="L79" s="225"/>
       <c r="M79" s="225"/>
       <c r="N79" s="225" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="O79" s="225"/>
       <c r="P79" s="225"/>
@@ -20737,7 +20737,7 @@
       <c r="L81" s="225"/>
       <c r="M81" s="225"/>
       <c r="N81" s="225" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="O81" s="225"/>
       <c r="P81" s="225"/>
@@ -20794,7 +20794,7 @@
       <c r="L82" s="225"/>
       <c r="M82" s="225"/>
       <c r="N82" s="225" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="O82" s="225"/>
       <c r="P82" s="225"/>
@@ -20902,7 +20902,7 @@
       <c r="L84" s="225"/>
       <c r="M84" s="225"/>
       <c r="N84" s="225" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="O84" s="225"/>
       <c r="P84" s="225"/>
@@ -20953,7 +20953,7 @@
       <c r="L85" s="225"/>
       <c r="M85" s="225"/>
       <c r="N85" s="225" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="O85" s="225"/>
       <c r="P85" s="225"/>
@@ -21004,7 +21004,7 @@
       <c r="L86" s="225"/>
       <c r="M86" s="225"/>
       <c r="N86" s="225" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="O86" s="225"/>
       <c r="P86" s="225"/>
@@ -21106,7 +21106,7 @@
       <c r="L88" s="225"/>
       <c r="M88" s="233"/>
       <c r="N88" s="225" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="O88" s="225"/>
       <c r="P88" s="225"/>
@@ -21157,7 +21157,7 @@
       <c r="L89" s="225"/>
       <c r="M89" s="233"/>
       <c r="N89" s="225" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="O89" s="225"/>
       <c r="P89" s="225"/>
@@ -21208,7 +21208,7 @@
       <c r="L90" s="225"/>
       <c r="M90" s="233"/>
       <c r="N90" s="225" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="O90" s="225"/>
       <c r="P90" s="225"/>
@@ -21259,7 +21259,7 @@
       <c r="J91" s="222"/>
       <c r="K91" s="228"/>
       <c r="L91" s="222" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="M91" s="231"/>
       <c r="N91" s="231"/>
@@ -21365,7 +21365,7 @@
       <c r="L93" s="225"/>
       <c r="M93" s="225"/>
       <c r="N93" s="225" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="O93" s="225"/>
       <c r="P93" s="225"/>
@@ -22975,7 +22975,7 @@
       <c r="M124" s="225"/>
       <c r="N124" s="225"/>
       <c r="O124" s="225" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="P124" s="225"/>
       <c r="Q124" s="225"/>
@@ -23029,7 +23029,7 @@
       <c r="L125" s="225"/>
       <c r="M125" s="225"/>
       <c r="N125" s="225" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="O125" s="225"/>
       <c r="P125" s="225"/>
@@ -23355,7 +23355,7 @@
       <c r="L131" s="225"/>
       <c r="M131" s="225"/>
       <c r="N131" s="225" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="O131" s="225"/>
       <c r="P131" s="225"/>
@@ -23424,7 +23424,7 @@
         <v>228</v>
       </c>
       <c r="AB132" s="225" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="AC132" s="225"/>
       <c r="AD132" s="225"/>
@@ -23479,7 +23479,7 @@
         <v>228</v>
       </c>
       <c r="AB133" s="225" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="AC133" s="225"/>
       <c r="AD133" s="225"/>
@@ -23534,7 +23534,7 @@
         <v>228</v>
       </c>
       <c r="AB134" s="225" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="AC134" s="225"/>
       <c r="AD134" s="225"/>
@@ -23589,7 +23589,7 @@
         <v>228</v>
       </c>
       <c r="AB135" s="225" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="AC135" s="225"/>
       <c r="AD135" s="225"/>
@@ -23644,7 +23644,7 @@
         <v>228</v>
       </c>
       <c r="AB136" s="225" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="AC136" s="225"/>
       <c r="AD136" s="225"/>
@@ -23681,7 +23681,7 @@
       <c r="L137" s="225"/>
       <c r="M137" s="225"/>
       <c r="N137" s="225" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="O137" s="225"/>
       <c r="P137" s="225"/>
@@ -23788,7 +23788,7 @@
       <c r="M139" s="225"/>
       <c r="N139" s="225"/>
       <c r="O139" s="225" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="P139" s="225"/>
       <c r="Q139" s="225"/>
@@ -23843,7 +23843,7 @@
       <c r="M140" s="225"/>
       <c r="N140" s="225"/>
       <c r="O140" s="225" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="P140" s="225"/>
       <c r="Q140" s="225"/>
@@ -23898,7 +23898,7 @@
       <c r="M141" s="225"/>
       <c r="N141" s="225"/>
       <c r="O141" s="225" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="P141" s="225"/>
       <c r="Q141" s="225"/>
@@ -23952,7 +23952,7 @@
       <c r="L142" s="225"/>
       <c r="M142" s="225"/>
       <c r="N142" s="225" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="O142" s="225"/>
       <c r="P142" s="225"/>
@@ -24059,7 +24059,7 @@
       <c r="M144" s="225"/>
       <c r="N144" s="225"/>
       <c r="O144" s="225" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="P144" s="225"/>
       <c r="Q144" s="225"/>
@@ -24114,7 +24114,7 @@
       <c r="M145" s="225"/>
       <c r="N145" s="225"/>
       <c r="O145" s="225" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="P145" s="225"/>
       <c r="Q145" s="225"/>
@@ -24169,7 +24169,7 @@
       <c r="M146" s="225"/>
       <c r="N146" s="225"/>
       <c r="O146" s="225" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="P146" s="225"/>
       <c r="Q146" s="225"/>
@@ -24223,7 +24223,7 @@
       <c r="L147" s="225"/>
       <c r="M147" s="225"/>
       <c r="N147" s="225" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="O147" s="225"/>
       <c r="P147" s="225"/>
@@ -24330,7 +24330,7 @@
       <c r="M149" s="225"/>
       <c r="N149" s="225"/>
       <c r="O149" s="225" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="P149" s="225"/>
       <c r="Q149" s="225"/>
@@ -24385,7 +24385,7 @@
       <c r="M150" s="225"/>
       <c r="N150" s="225"/>
       <c r="O150" s="225" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="P150" s="225"/>
       <c r="Q150" s="225"/>
@@ -24440,7 +24440,7 @@
       <c r="M151" s="225"/>
       <c r="N151" s="225"/>
       <c r="O151" s="225" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="P151" s="225"/>
       <c r="Q151" s="225"/>
@@ -24494,7 +24494,7 @@
       <c r="L152" s="225"/>
       <c r="M152" s="225"/>
       <c r="N152" s="225" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="O152" s="225"/>
       <c r="P152" s="225"/>
@@ -24601,7 +24601,7 @@
       <c r="M154" s="225"/>
       <c r="N154" s="225"/>
       <c r="O154" s="225" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="P154" s="225"/>
       <c r="Q154" s="225"/>
@@ -24656,7 +24656,7 @@
       <c r="M155" s="225"/>
       <c r="N155" s="225"/>
       <c r="O155" s="225" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="P155" s="225"/>
       <c r="Q155" s="225"/>
@@ -24711,7 +24711,7 @@
       <c r="M156" s="225"/>
       <c r="N156" s="225"/>
       <c r="O156" s="225" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="P156" s="225"/>
       <c r="Q156" s="225"/>
@@ -24928,7 +24928,7 @@
       <c r="L160" s="225"/>
       <c r="M160" s="225"/>
       <c r="N160" s="225" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="O160" s="225"/>
       <c r="P160" s="225"/>
@@ -25042,7 +25042,7 @@
       <c r="L162" s="225"/>
       <c r="M162" s="225"/>
       <c r="N162" s="225" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="O162" s="225"/>
       <c r="P162" s="225"/>
@@ -25099,7 +25099,7 @@
       <c r="L163" s="225"/>
       <c r="M163" s="225"/>
       <c r="N163" s="225" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="O163" s="225"/>
       <c r="P163" s="225"/>
@@ -25207,7 +25207,7 @@
       <c r="L165" s="225"/>
       <c r="M165" s="225"/>
       <c r="N165" s="225" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="O165" s="225"/>
       <c r="P165" s="225"/>
@@ -25309,7 +25309,7 @@
       <c r="L167" s="225"/>
       <c r="M167" s="233"/>
       <c r="N167" s="225" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="O167" s="225"/>
       <c r="P167" s="225"/>
@@ -25409,7 +25409,7 @@
       <c r="J169" s="222"/>
       <c r="K169" s="228"/>
       <c r="L169" s="222" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="M169" s="231"/>
       <c r="N169" s="231"/>
@@ -25515,7 +25515,7 @@
       <c r="L171" s="225"/>
       <c r="M171" s="225"/>
       <c r="N171" s="225" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="O171" s="225"/>
       <c r="P171" s="225"/>
@@ -26717,7 +26717,7 @@
       <c r="M194" s="225"/>
       <c r="N194" s="225"/>
       <c r="O194" s="225" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="P194" s="225"/>
       <c r="Q194" s="225"/>
@@ -26771,7 +26771,7 @@
       <c r="L195" s="225"/>
       <c r="M195" s="225"/>
       <c r="N195" s="225" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="O195" s="225"/>
       <c r="P195" s="225"/>
@@ -27097,7 +27097,7 @@
       <c r="L201" s="225"/>
       <c r="M201" s="225"/>
       <c r="N201" s="225" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="O201" s="225"/>
       <c r="P201" s="225"/>
@@ -27166,7 +27166,7 @@
         <v>228</v>
       </c>
       <c r="AB202" s="225" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="AC202" s="225"/>
       <c r="AD202" s="225"/>
@@ -27221,7 +27221,7 @@
         <v>228</v>
       </c>
       <c r="AB203" s="225" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="AC203" s="225"/>
       <c r="AD203" s="225"/>
@@ -27276,7 +27276,7 @@
         <v>228</v>
       </c>
       <c r="AB204" s="225" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="AC204" s="225"/>
       <c r="AD204" s="225"/>
@@ -27331,7 +27331,7 @@
         <v>228</v>
       </c>
       <c r="AB205" s="225" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="AC205" s="225"/>
       <c r="AD205" s="225"/>
@@ -27386,7 +27386,7 @@
         <v>228</v>
       </c>
       <c r="AB206" s="225" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="AC206" s="225"/>
       <c r="AD206" s="225"/>
@@ -27423,7 +27423,7 @@
       <c r="L207" s="225"/>
       <c r="M207" s="225"/>
       <c r="N207" s="225" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="O207" s="225"/>
       <c r="P207" s="225"/>
@@ -27860,7 +27860,7 @@
       <c r="M215" s="225"/>
       <c r="N215" s="225"/>
       <c r="O215" s="225" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="P215" s="225"/>
       <c r="Q215" s="225"/>
@@ -27912,7 +27912,7 @@
       <c r="L216" s="225"/>
       <c r="M216" s="225"/>
       <c r="N216" s="225" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="O216" s="225"/>
       <c r="P216" s="225"/>
@@ -28349,7 +28349,7 @@
       <c r="M224" s="225"/>
       <c r="N224" s="225"/>
       <c r="O224" s="225" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="P224" s="225"/>
       <c r="Q224" s="225"/>
@@ -28564,7 +28564,7 @@
       <c r="L228" s="225"/>
       <c r="M228" s="225"/>
       <c r="N228" s="225" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="O228" s="225"/>
       <c r="P228" s="225"/>
@@ -28678,7 +28678,7 @@
       <c r="L230" s="225"/>
       <c r="M230" s="225"/>
       <c r="N230" s="225" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="O230" s="225"/>
       <c r="P230" s="225"/>
@@ -28735,7 +28735,7 @@
       <c r="L231" s="225"/>
       <c r="M231" s="225"/>
       <c r="N231" s="225" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="O231" s="225"/>
       <c r="P231" s="225"/>
@@ -28843,7 +28843,7 @@
       <c r="L233" s="225"/>
       <c r="M233" s="225"/>
       <c r="N233" s="225" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="O233" s="225"/>
       <c r="P233" s="225"/>
@@ -28996,7 +28996,7 @@
       <c r="L236" s="225"/>
       <c r="M236" s="233"/>
       <c r="N236" s="225" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="O236" s="225"/>
       <c r="P236" s="225"/>
@@ -42565,12 +42565,12 @@
       <c r="M9" s="308" t="s">
         <v>244</v>
       </c>
-      <c r="N9" s="312"/>
+      <c r="N9" s="316"/>
       <c r="O9" s="309"/>
-      <c r="P9" s="314" t="s">
+      <c r="P9" s="312" t="s">
         <v>239</v>
       </c>
-      <c r="Q9" s="315"/>
+      <c r="Q9" s="313"/>
       <c r="R9" s="53"/>
       <c r="S9" s="53"/>
       <c r="T9" s="53"/>
@@ -42630,10 +42630,10 @@
       <c r="K10" s="310"/>
       <c r="L10" s="311"/>
       <c r="M10" s="310"/>
-      <c r="N10" s="313"/>
+      <c r="N10" s="317"/>
       <c r="O10" s="311"/>
-      <c r="P10" s="316"/>
-      <c r="Q10" s="317"/>
+      <c r="P10" s="314"/>
+      <c r="Q10" s="315"/>
       <c r="R10" s="53"/>
       <c r="S10" s="53"/>
       <c r="T10" s="53"/>
@@ -43424,7 +43424,7 @@
       <c r="M22" s="308">
         <v>1</v>
       </c>
-      <c r="N22" s="315"/>
+      <c r="N22" s="313"/>
       <c r="O22" s="53"/>
       <c r="P22" s="53"/>
       <c r="Q22" s="53"/>
@@ -43486,8 +43486,8 @@
       <c r="J23" s="67"/>
       <c r="K23" s="310"/>
       <c r="L23" s="311"/>
-      <c r="M23" s="316"/>
-      <c r="N23" s="317"/>
+      <c r="M23" s="314"/>
+      <c r="N23" s="315"/>
       <c r="O23" s="53"/>
       <c r="P23" s="53"/>
       <c r="Q23" s="53"/>
@@ -43913,12 +43913,12 @@
       <c r="M30" s="308" t="s">
         <v>244</v>
       </c>
-      <c r="N30" s="312"/>
+      <c r="N30" s="316"/>
       <c r="O30" s="309"/>
-      <c r="P30" s="314" t="s">
+      <c r="P30" s="312" t="s">
         <v>239</v>
       </c>
-      <c r="Q30" s="315"/>
+      <c r="Q30" s="313"/>
       <c r="R30" s="53"/>
       <c r="S30" s="53"/>
       <c r="T30" s="53"/>
@@ -43978,10 +43978,10 @@
       <c r="K31" s="310"/>
       <c r="L31" s="311"/>
       <c r="M31" s="310"/>
-      <c r="N31" s="313"/>
+      <c r="N31" s="317"/>
       <c r="O31" s="311"/>
-      <c r="P31" s="316"/>
-      <c r="Q31" s="317"/>
+      <c r="P31" s="314"/>
+      <c r="Q31" s="315"/>
       <c r="R31" s="53"/>
       <c r="S31" s="53"/>
       <c r="T31" s="53"/>
@@ -55463,6 +55463,11 @@
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="K30:L31"/>
+    <mergeCell ref="M30:O31"/>
+    <mergeCell ref="P30:Q31"/>
+    <mergeCell ref="K22:L23"/>
+    <mergeCell ref="M22:N23"/>
     <mergeCell ref="AT1:AZ1"/>
     <mergeCell ref="S2:AD2"/>
     <mergeCell ref="AI2:AM2"/>
@@ -55471,11 +55476,6 @@
     <mergeCell ref="P9:Q10"/>
     <mergeCell ref="AI1:AM1"/>
     <mergeCell ref="M9:O10"/>
-    <mergeCell ref="K30:L31"/>
-    <mergeCell ref="M30:O31"/>
-    <mergeCell ref="P30:Q31"/>
-    <mergeCell ref="K22:L23"/>
-    <mergeCell ref="M22:N23"/>
   </mergeCells>
   <phoneticPr fontId="17"/>
   <pageMargins left="0.78740157480314965" right="0.39370078740157483" top="0.78740157480314965" bottom="0.39370078740157483" header="0.39370078740157483" footer="0.19685039370078741"/>
@@ -69361,6 +69361,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x0101005B3AFDF1A27EF4448B30400A700269C9" ma:contentTypeVersion="7" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="af1e50296a73b747a155d4c5a148cd8b">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="72c70d25-b9e8-475b-ae7b-39931ca24b85" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="d7c374c4e1cfeff0cf58497e8c642c22" ns2:_="">
     <xsd:import namespace="72c70d25-b9e8-475b-ae7b-39931ca24b85"/>
@@ -69518,15 +69527,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement/>
@@ -69534,6 +69534,14 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7CA02E59-26EF-42FD-ADE3-8B1F7DDCD7B9}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1F39FE47-ED8B-411A-AD54-8C8E5636C88B}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -69547,14 +69555,6 @@
     <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7CA02E59-26EF-42FD-ADE3-8B1F7DDCD7B9}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/01_基本設計書/20200220リリース/SC-K13_当日実績参照.xlsx
+++ b/01_基本設計書/20200220リリース/SC-K13_当日実績参照.xlsx
@@ -1,17 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22130"/>
   <fileSharing readOnlyRecommended="1"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\l-zhan\仕事\201911\test\11\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ローカル作業_Wang\GitHub\backdoor\01_基本設計書\20200220リリース\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{233C2719-30C9-4A26-9005-F3E2D413A747}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5D627EB-7C80-4CD1-AE67-52596BA70F9E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="420" yWindow="810" windowWidth="20490" windowHeight="10230" tabRatio="703" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="703" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="表紙" sheetId="3" r:id="rId1"/>
@@ -22,7 +22,7 @@
     <sheet name="４．イベント仕様" sheetId="17" r:id="rId6"/>
     <sheet name="５．メッセージ仕様" sheetId="18" r:id="rId7"/>
     <sheet name="６．補足事項" sheetId="16" r:id="rId8"/>
-    <sheet name="参照用レイアウト" sheetId="20" r:id="rId9"/>
+    <sheet name="参照用レイアウト" sheetId="20" state="hidden" r:id="rId9"/>
   </sheets>
   <externalReferences>
     <externalReference r:id="rId10"/>
@@ -130,14 +130,12 @@
     <definedName name="振分けポリシー">#REF!</definedName>
     <definedName name="非営業日">[1]休日!$B$16:$C$27</definedName>
   </definedNames>
-  <calcPr calcId="191029" concurrentManualCount="2"/>
+  <calcPr calcId="181029" concurrentManualCount="2"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -145,7 +143,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1887" uniqueCount="542">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1889" uniqueCount="544">
   <si>
     <t>プロジェクト名</t>
     <rPh sb="6" eb="7">
@@ -3442,16 +3440,6 @@
     <phoneticPr fontId="4"/>
   </si>
   <si>
-    <t>20：成形仕上</t>
-    <rPh sb="3" eb="5">
-      <t>セイケイ</t>
-    </rPh>
-    <rPh sb="5" eb="7">
-      <t>シアゲ</t>
-    </rPh>
-    <phoneticPr fontId="17"/>
-  </si>
-  <si>
     <t>30：塗装</t>
     <rPh sb="3" eb="5">
       <t>トソウ</t>
@@ -3541,6 +3529,40 @@
   <si>
     <t>K-13</t>
     <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>成形の場合：</t>
+    <rPh sb="0" eb="2">
+      <t>セイケイ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>バアイ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>大工程 = '10'の場合</t>
+    <rPh sb="0" eb="1">
+      <t>ダイ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>バアイ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>10：成形
+20：成形仕上</t>
+    <rPh sb="3" eb="5">
+      <t>セイケイ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>セイケイ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>シアゲ</t>
+    </rPh>
+    <phoneticPr fontId="17"/>
   </si>
 </sst>
 </file>
@@ -6044,7 +6066,7 @@
               <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
               <a:extLst>
                 <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="参照用レイアウト!$B$2:$CX$44" spid="_x0000_s3734"/>
+                  <a14:cameraTool cellRange="参照用レイアウト!$B$2:$CX$44" spid="_x0000_s3746"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPicPr>
@@ -6109,7 +6131,7 @@
               <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
               <a:extLst>
                 <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="参照用レイアウト!$B$47:$CX$89" spid="_x0000_s3735"/>
+                  <a14:cameraTool cellRange="参照用レイアウト!$B$47:$CX$89" spid="_x0000_s3747"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPicPr>
@@ -6174,7 +6196,7 @@
               <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
               <a:extLst>
                 <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="参照用レイアウト!$B$92:$CX$134" spid="_x0000_s3736"/>
+                  <a14:cameraTool cellRange="参照用レイアウト!$B$92:$CX$134" spid="_x0000_s3748"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPicPr>
@@ -10446,7 +10468,7 @@
       <c r="P2" s="38"/>
       <c r="Q2" s="39"/>
       <c r="R2" s="110" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="S2" s="111"/>
       <c r="T2" s="111"/>
@@ -13254,7 +13276,7 @@
   <phoneticPr fontId="4"/>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.62992125984251968" right="0.62992125984251968" top="0.78740157480314965" bottom="0.78740157480314965" header="0.39370078740157483" footer="0.39370078740157483"/>
-  <pageSetup paperSize="9" scale="73" fitToHeight="0" orientation="landscape" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="74" fitToHeight="0" orientation="landscape" r:id="rId1"/>
   <headerFooter>
     <oddFooter>&amp;C&amp;P</oddFooter>
   </headerFooter>
@@ -13962,7 +13984,7 @@
         <v>48</v>
       </c>
       <c r="F11" s="238" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="G11" s="16" t="s">
         <v>46</v>
@@ -14086,10 +14108,10 @@
         <v>65</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>537</v>
+      </c>
+      <c r="F16" s="7" t="s">
         <v>538</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>539</v>
       </c>
       <c r="G16" s="16" t="s">
         <v>116</v>
@@ -14504,7 +14526,7 @@
         <v>68</v>
       </c>
       <c r="E28" s="239" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="F28" s="238" t="s">
         <v>35</v>
@@ -14537,7 +14559,7 @@
         <v>35</v>
       </c>
       <c r="P28" s="241" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="Q28" s="241"/>
     </row>
@@ -14550,7 +14572,7 @@
         <v>178</v>
       </c>
       <c r="E29" s="239" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="F29" s="238" t="s">
         <v>35</v>
@@ -14596,7 +14618,7 @@
         <v>179</v>
       </c>
       <c r="E30" s="239" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="F30" s="238" t="s">
         <v>35</v>
@@ -14629,7 +14651,7 @@
         <v>35</v>
       </c>
       <c r="P30" s="241" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="Q30" s="241"/>
     </row>
@@ -14642,7 +14664,7 @@
         <v>180</v>
       </c>
       <c r="E31" s="239" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="F31" s="238" t="s">
         <v>35</v>
@@ -14675,7 +14697,7 @@
         <v>35</v>
       </c>
       <c r="P31" s="241" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="Q31" s="241"/>
     </row>
@@ -14688,7 +14710,7 @@
         <v>181</v>
       </c>
       <c r="E32" s="239" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="F32" s="238" t="s">
         <v>35</v>
@@ -14721,7 +14743,7 @@
         <v>35</v>
       </c>
       <c r="P32" s="241" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="Q32" s="241"/>
     </row>
@@ -14765,7 +14787,7 @@
         <v>35</v>
       </c>
       <c r="P33" s="241" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="Q33" s="8"/>
     </row>
@@ -15297,7 +15319,7 @@
         <v>68</v>
       </c>
       <c r="E48" s="239" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="F48" s="238" t="s">
         <v>35</v>
@@ -15330,7 +15352,7 @@
         <v>35</v>
       </c>
       <c r="P48" s="241" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="Q48" s="241"/>
     </row>
@@ -15343,7 +15365,7 @@
         <v>178</v>
       </c>
       <c r="E49" s="239" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="F49" s="238" t="s">
         <v>35</v>
@@ -15389,7 +15411,7 @@
         <v>179</v>
       </c>
       <c r="E50" s="239" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="F50" s="238" t="s">
         <v>35</v>
@@ -15422,7 +15444,7 @@
         <v>35</v>
       </c>
       <c r="P50" s="241" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="Q50" s="241"/>
     </row>
@@ -15435,7 +15457,7 @@
         <v>180</v>
       </c>
       <c r="E51" s="239" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="F51" s="238" t="s">
         <v>35</v>
@@ -15468,7 +15490,7 @@
         <v>35</v>
       </c>
       <c r="P51" s="241" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="Q51" s="241"/>
     </row>
@@ -15481,7 +15503,7 @@
         <v>181</v>
       </c>
       <c r="E52" s="239" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="F52" s="238" t="s">
         <v>35</v>
@@ -15514,7 +15536,7 @@
         <v>35</v>
       </c>
       <c r="P52" s="241" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="Q52" s="241"/>
     </row>
@@ -15558,7 +15580,7 @@
         <v>35</v>
       </c>
       <c r="P53" s="241" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="Q53" s="8"/>
     </row>
@@ -15920,7 +15942,7 @@
         <v>17</v>
       </c>
       <c r="D62" s="7" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="E62" s="16" t="s">
         <v>192</v>
@@ -15964,7 +15986,7 @@
         <v>18</v>
       </c>
       <c r="D63" s="7" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="E63" s="16" t="s">
         <v>193</v>
@@ -16008,7 +16030,7 @@
         <v>19</v>
       </c>
       <c r="D64" s="7" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="E64" s="16" t="s">
         <v>194</v>
@@ -16052,7 +16074,7 @@
         <v>20</v>
       </c>
       <c r="D65" s="7" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="E65" s="16" t="s">
         <v>195</v>
@@ -16282,7 +16304,7 @@
         <v>68</v>
       </c>
       <c r="E72" s="239" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="F72" s="238" t="s">
         <v>35</v>
@@ -16315,7 +16337,7 @@
         <v>35</v>
       </c>
       <c r="P72" s="241" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="Q72" s="241"/>
     </row>
@@ -16328,7 +16350,7 @@
         <v>178</v>
       </c>
       <c r="E73" s="239" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="F73" s="238" t="s">
         <v>35</v>
@@ -16374,7 +16396,7 @@
         <v>179</v>
       </c>
       <c r="E74" s="239" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="F74" s="238" t="s">
         <v>35</v>
@@ -16407,7 +16429,7 @@
         <v>35</v>
       </c>
       <c r="P74" s="241" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="Q74" s="241"/>
     </row>
@@ -16420,7 +16442,7 @@
         <v>180</v>
       </c>
       <c r="E75" s="239" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="F75" s="238" t="s">
         <v>35</v>
@@ -16453,7 +16475,7 @@
         <v>35</v>
       </c>
       <c r="P75" s="241" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="Q75" s="241"/>
     </row>
@@ -16466,7 +16488,7 @@
         <v>181</v>
       </c>
       <c r="E76" s="239" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="F76" s="238" t="s">
         <v>35</v>
@@ -16499,7 +16521,7 @@
         <v>35</v>
       </c>
       <c r="P76" s="241" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="Q76" s="241"/>
     </row>
@@ -16543,7 +16565,7 @@
         <v>35</v>
       </c>
       <c r="P77" s="241" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="Q77" s="8"/>
     </row>
@@ -17667,7 +17689,7 @@
       <c r="E14" s="223"/>
       <c r="F14" s="225"/>
       <c r="G14" s="219" t="s">
-        <v>341</v>
+        <v>541</v>
       </c>
       <c r="H14" s="220"/>
       <c r="I14" s="220"/>
@@ -17720,7 +17742,7 @@
       <c r="E15" s="223"/>
       <c r="F15" s="225"/>
       <c r="G15" s="224" t="s">
-        <v>415</v>
+        <v>542</v>
       </c>
       <c r="H15" s="223"/>
       <c r="I15" s="223"/>
@@ -17772,7 +17794,9 @@
       <c r="D16" s="223"/>
       <c r="E16" s="223"/>
       <c r="F16" s="225"/>
-      <c r="G16" s="224"/>
+      <c r="G16" s="224" t="s">
+        <v>341</v>
+      </c>
       <c r="H16" s="223"/>
       <c r="I16" s="223"/>
       <c r="J16" s="223"/>
@@ -17823,7 +17847,9 @@
       <c r="D17" s="223"/>
       <c r="E17" s="223"/>
       <c r="F17" s="225"/>
-      <c r="G17" s="224"/>
+      <c r="G17" s="224" t="s">
+        <v>415</v>
+      </c>
       <c r="H17" s="223"/>
       <c r="I17" s="223"/>
       <c r="J17" s="223"/>
@@ -43087,16 +43113,16 @@
         <v>234</v>
       </c>
       <c r="K9" s="312" t="s">
-        <v>520</v>
+        <v>543</v>
       </c>
       <c r="L9" s="313"/>
       <c r="M9" s="314"/>
       <c r="N9" s="312" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="O9" s="314"/>
       <c r="P9" s="321" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="Q9" s="318"/>
       <c r="R9" s="53"/>
@@ -56243,7 +56269,7 @@
       <c r="B14" s="147"/>
       <c r="C14" s="148"/>
       <c r="D14" s="153" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="E14" s="154"/>
       <c r="F14" s="154"/>
@@ -56356,7 +56382,7 @@
       <c r="B15" s="147"/>
       <c r="C15" s="148"/>
       <c r="D15" s="154" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="E15" s="154"/>
       <c r="F15" s="154"/>
@@ -68835,21 +68861,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement/>
 </p:properties>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x0101005B3AFDF1A27EF4448B30400A700269C9" ma:contentTypeVersion="7" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="af1e50296a73b747a155d4c5a148cd8b">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="72c70d25-b9e8-475b-ae7b-39931ca24b85" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="d7c374c4e1cfeff0cf58497e8c642c22" ns2:_="">
     <xsd:import namespace="72c70d25-b9e8-475b-ae7b-39931ca24b85"/>
@@ -69007,15 +69024,16 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7CA02E59-26EF-42FD-ADE3-8B1F7DDCD7B9}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7B96F246-76A3-4A27-8547-17CD1E715E86}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
@@ -69031,7 +69049,7 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1F39FE47-ED8B-411A-AD54-8C8E5636C88B}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -69047,4 +69065,12 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7CA02E59-26EF-42FD-ADE3-8B1F7DDCD7B9}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/01_基本設計書/20200220リリース/SC-K13_当日実績参照.xlsx
+++ b/01_基本設計書/20200220リリース/SC-K13_当日実績参照.xlsx
@@ -1,17 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21328"/>
   <fileSharing readOnlyRecommended="1"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ローカル作業_Wang\GitHub\backdoor\01_基本設計書\20200220リリース\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ローカル作業_Wang\backdoor\GitHub\backdoor\01_基本設計書\20200220リリース\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5D627EB-7C80-4CD1-AE67-52596BA70F9E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE6A01AC-EF2E-4CFA-8963-1B30A07070B6}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="703" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="703" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="表紙" sheetId="3" r:id="rId1"/>
@@ -130,20 +130,12 @@
     <definedName name="振分けポリシー">#REF!</definedName>
     <definedName name="非営業日">[1]休日!$B$16:$C$27</definedName>
   </definedNames>
-  <calcPr calcId="181029" concurrentManualCount="2"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="191029" concurrentManualCount="2"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1889" uniqueCount="544">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1889" uniqueCount="547">
   <si>
     <t>プロジェクト名</t>
     <rPh sb="6" eb="7">
@@ -3564,6 +3556,27 @@
     </rPh>
     <phoneticPr fontId="17"/>
   </si>
+  <si>
+    <t>生産品名マスタ.製品半製品区分</t>
+    <rPh sb="8" eb="10">
+      <t>セイヒン</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>ハン</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>セイヒン</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>・実績管理データ.事業所コード</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>・実績管理データ.設備NO</t>
+    <phoneticPr fontId="4"/>
+  </si>
 </sst>
 </file>
 
@@ -5001,6 +5014,91 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="16" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -5027,91 +5125,6 @@
     </xf>
     <xf numFmtId="0" fontId="20" fillId="3" borderId="7" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="16" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="8" xfId="13" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -6066,7 +6079,7 @@
               <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
               <a:extLst>
                 <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="参照用レイアウト!$B$2:$CX$44" spid="_x0000_s3746"/>
+                  <a14:cameraTool cellRange="参照用レイアウト!$B$2:$CX$44" spid="_x0000_s3764"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPicPr>
@@ -6131,7 +6144,7 @@
               <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
               <a:extLst>
                 <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="参照用レイアウト!$B$47:$CX$89" spid="_x0000_s3747"/>
+                  <a14:cameraTool cellRange="参照用レイアウト!$B$47:$CX$89" spid="_x0000_s3765"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPicPr>
@@ -6196,7 +6209,7 @@
               <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
               <a:extLst>
                 <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="参照用レイアウト!$B$92:$CX$134" spid="_x0000_s3748"/>
+                  <a14:cameraTool cellRange="参照用レイアウト!$B$92:$CX$134" spid="_x0000_s3766"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPicPr>
@@ -8324,1770 +8337,2003 @@
   <sheetData>
     <row r="1" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="56"/>
-      <c r="B1" s="245" t="s">
+      <c r="B1" s="276" t="s">
         <v>6</v>
       </c>
-      <c r="C1" s="245"/>
-      <c r="D1" s="245"/>
-      <c r="E1" s="245"/>
-      <c r="F1" s="245"/>
-      <c r="G1" s="245"/>
-      <c r="H1" s="245"/>
-      <c r="I1" s="245"/>
-      <c r="J1" s="245"/>
-      <c r="K1" s="245"/>
-      <c r="L1" s="245"/>
-      <c r="M1" s="245"/>
-      <c r="N1" s="245"/>
-      <c r="O1" s="245"/>
-      <c r="P1" s="245"/>
-      <c r="Q1" s="245"/>
-      <c r="R1" s="245"/>
-      <c r="S1" s="245"/>
-      <c r="T1" s="245"/>
-      <c r="U1" s="245"/>
-      <c r="V1" s="245"/>
-      <c r="W1" s="245"/>
-      <c r="X1" s="245"/>
-      <c r="Y1" s="245"/>
-      <c r="Z1" s="245"/>
-      <c r="AA1" s="245"/>
-      <c r="AB1" s="245"/>
-      <c r="AC1" s="245"/>
-      <c r="AD1" s="245"/>
-      <c r="AE1" s="245"/>
-      <c r="AF1" s="245"/>
-      <c r="AG1" s="245"/>
-      <c r="AH1" s="245"/>
-      <c r="AI1" s="245"/>
-      <c r="AJ1" s="245"/>
-      <c r="AK1" s="245"/>
-      <c r="AL1" s="245"/>
-      <c r="AM1" s="245"/>
-      <c r="AN1" s="245"/>
-      <c r="AO1" s="245"/>
-      <c r="AP1" s="245"/>
-      <c r="AQ1" s="245"/>
-      <c r="AR1" s="245"/>
-      <c r="AS1" s="245"/>
-      <c r="AT1" s="245"/>
-      <c r="AU1" s="245"/>
-      <c r="AV1" s="245"/>
-      <c r="AW1" s="245"/>
+      <c r="C1" s="276"/>
+      <c r="D1" s="276"/>
+      <c r="E1" s="276"/>
+      <c r="F1" s="276"/>
+      <c r="G1" s="276"/>
+      <c r="H1" s="276"/>
+      <c r="I1" s="276"/>
+      <c r="J1" s="276"/>
+      <c r="K1" s="276"/>
+      <c r="L1" s="276"/>
+      <c r="M1" s="276"/>
+      <c r="N1" s="276"/>
+      <c r="O1" s="276"/>
+      <c r="P1" s="276"/>
+      <c r="Q1" s="276"/>
+      <c r="R1" s="276"/>
+      <c r="S1" s="276"/>
+      <c r="T1" s="276"/>
+      <c r="U1" s="276"/>
+      <c r="V1" s="276"/>
+      <c r="W1" s="276"/>
+      <c r="X1" s="276"/>
+      <c r="Y1" s="276"/>
+      <c r="Z1" s="276"/>
+      <c r="AA1" s="276"/>
+      <c r="AB1" s="276"/>
+      <c r="AC1" s="276"/>
+      <c r="AD1" s="276"/>
+      <c r="AE1" s="276"/>
+      <c r="AF1" s="276"/>
+      <c r="AG1" s="276"/>
+      <c r="AH1" s="276"/>
+      <c r="AI1" s="276"/>
+      <c r="AJ1" s="276"/>
+      <c r="AK1" s="276"/>
+      <c r="AL1" s="276"/>
+      <c r="AM1" s="276"/>
+      <c r="AN1" s="276"/>
+      <c r="AO1" s="276"/>
+      <c r="AP1" s="276"/>
+      <c r="AQ1" s="276"/>
+      <c r="AR1" s="276"/>
+      <c r="AS1" s="276"/>
+      <c r="AT1" s="276"/>
+      <c r="AU1" s="276"/>
+      <c r="AV1" s="276"/>
+      <c r="AW1" s="276"/>
     </row>
     <row r="2" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="56"/>
-      <c r="B2" s="246"/>
-      <c r="C2" s="246"/>
-      <c r="D2" s="246"/>
-      <c r="E2" s="246"/>
-      <c r="F2" s="246"/>
-      <c r="G2" s="246"/>
-      <c r="H2" s="246"/>
-      <c r="I2" s="246"/>
-      <c r="J2" s="246"/>
-      <c r="K2" s="246"/>
-      <c r="L2" s="246"/>
-      <c r="M2" s="246"/>
-      <c r="N2" s="246"/>
-      <c r="O2" s="246"/>
-      <c r="P2" s="246"/>
-      <c r="Q2" s="246"/>
-      <c r="R2" s="246"/>
-      <c r="S2" s="246"/>
-      <c r="T2" s="246"/>
-      <c r="U2" s="246"/>
-      <c r="V2" s="246"/>
-      <c r="W2" s="246"/>
-      <c r="X2" s="246"/>
-      <c r="Y2" s="246"/>
-      <c r="Z2" s="246"/>
-      <c r="AA2" s="246"/>
-      <c r="AB2" s="246"/>
-      <c r="AC2" s="246"/>
-      <c r="AD2" s="246"/>
-      <c r="AE2" s="246"/>
-      <c r="AF2" s="246"/>
-      <c r="AG2" s="246"/>
-      <c r="AH2" s="246"/>
-      <c r="AI2" s="246"/>
-      <c r="AJ2" s="246"/>
-      <c r="AK2" s="246"/>
-      <c r="AL2" s="246"/>
-      <c r="AM2" s="246"/>
-      <c r="AN2" s="246"/>
-      <c r="AO2" s="246"/>
-      <c r="AP2" s="246"/>
-      <c r="AQ2" s="246"/>
-      <c r="AR2" s="246"/>
-      <c r="AS2" s="246"/>
-      <c r="AT2" s="246"/>
-      <c r="AU2" s="246"/>
-      <c r="AV2" s="246"/>
-      <c r="AW2" s="246"/>
+      <c r="B2" s="277"/>
+      <c r="C2" s="277"/>
+      <c r="D2" s="277"/>
+      <c r="E2" s="277"/>
+      <c r="F2" s="277"/>
+      <c r="G2" s="277"/>
+      <c r="H2" s="277"/>
+      <c r="I2" s="277"/>
+      <c r="J2" s="277"/>
+      <c r="K2" s="277"/>
+      <c r="L2" s="277"/>
+      <c r="M2" s="277"/>
+      <c r="N2" s="277"/>
+      <c r="O2" s="277"/>
+      <c r="P2" s="277"/>
+      <c r="Q2" s="277"/>
+      <c r="R2" s="277"/>
+      <c r="S2" s="277"/>
+      <c r="T2" s="277"/>
+      <c r="U2" s="277"/>
+      <c r="V2" s="277"/>
+      <c r="W2" s="277"/>
+      <c r="X2" s="277"/>
+      <c r="Y2" s="277"/>
+      <c r="Z2" s="277"/>
+      <c r="AA2" s="277"/>
+      <c r="AB2" s="277"/>
+      <c r="AC2" s="277"/>
+      <c r="AD2" s="277"/>
+      <c r="AE2" s="277"/>
+      <c r="AF2" s="277"/>
+      <c r="AG2" s="277"/>
+      <c r="AH2" s="277"/>
+      <c r="AI2" s="277"/>
+      <c r="AJ2" s="277"/>
+      <c r="AK2" s="277"/>
+      <c r="AL2" s="277"/>
+      <c r="AM2" s="277"/>
+      <c r="AN2" s="277"/>
+      <c r="AO2" s="277"/>
+      <c r="AP2" s="277"/>
+      <c r="AQ2" s="277"/>
+      <c r="AR2" s="277"/>
+      <c r="AS2" s="277"/>
+      <c r="AT2" s="277"/>
+      <c r="AU2" s="277"/>
+      <c r="AV2" s="277"/>
+      <c r="AW2" s="277"/>
     </row>
     <row r="3" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="56"/>
-      <c r="B3" s="247" t="s">
+      <c r="B3" s="278" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="247"/>
-      <c r="D3" s="247"/>
-      <c r="E3" s="247" t="s">
+      <c r="C3" s="278"/>
+      <c r="D3" s="278"/>
+      <c r="E3" s="278" t="s">
         <v>8</v>
       </c>
-      <c r="F3" s="247"/>
-      <c r="G3" s="247"/>
-      <c r="H3" s="247"/>
-      <c r="I3" s="247"/>
-      <c r="J3" s="248" t="s">
+      <c r="F3" s="278"/>
+      <c r="G3" s="278"/>
+      <c r="H3" s="278"/>
+      <c r="I3" s="278"/>
+      <c r="J3" s="279" t="s">
         <v>9</v>
       </c>
-      <c r="K3" s="249"/>
-      <c r="L3" s="250"/>
-      <c r="M3" s="248" t="s">
+      <c r="K3" s="280"/>
+      <c r="L3" s="281"/>
+      <c r="M3" s="279" t="s">
         <v>10</v>
       </c>
-      <c r="N3" s="249"/>
-      <c r="O3" s="249"/>
-      <c r="P3" s="249"/>
-      <c r="Q3" s="249"/>
-      <c r="R3" s="250"/>
-      <c r="S3" s="247" t="s">
+      <c r="N3" s="280"/>
+      <c r="O3" s="280"/>
+      <c r="P3" s="280"/>
+      <c r="Q3" s="280"/>
+      <c r="R3" s="281"/>
+      <c r="S3" s="278" t="s">
         <v>11</v>
       </c>
-      <c r="T3" s="247"/>
-      <c r="U3" s="247"/>
-      <c r="V3" s="247" t="s">
+      <c r="T3" s="278"/>
+      <c r="U3" s="278"/>
+      <c r="V3" s="278" t="s">
         <v>12</v>
       </c>
-      <c r="W3" s="247"/>
-      <c r="X3" s="247"/>
-      <c r="Y3" s="247"/>
-      <c r="Z3" s="247"/>
-      <c r="AA3" s="247"/>
-      <c r="AB3" s="247"/>
-      <c r="AC3" s="247"/>
-      <c r="AD3" s="247"/>
-      <c r="AE3" s="247"/>
-      <c r="AF3" s="247"/>
-      <c r="AG3" s="247"/>
-      <c r="AH3" s="247"/>
-      <c r="AI3" s="247"/>
-      <c r="AJ3" s="247"/>
-      <c r="AK3" s="247"/>
-      <c r="AL3" s="247"/>
-      <c r="AM3" s="247"/>
-      <c r="AN3" s="247" t="s">
+      <c r="W3" s="278"/>
+      <c r="X3" s="278"/>
+      <c r="Y3" s="278"/>
+      <c r="Z3" s="278"/>
+      <c r="AA3" s="278"/>
+      <c r="AB3" s="278"/>
+      <c r="AC3" s="278"/>
+      <c r="AD3" s="278"/>
+      <c r="AE3" s="278"/>
+      <c r="AF3" s="278"/>
+      <c r="AG3" s="278"/>
+      <c r="AH3" s="278"/>
+      <c r="AI3" s="278"/>
+      <c r="AJ3" s="278"/>
+      <c r="AK3" s="278"/>
+      <c r="AL3" s="278"/>
+      <c r="AM3" s="278"/>
+      <c r="AN3" s="278" t="s">
         <v>13</v>
       </c>
-      <c r="AO3" s="247"/>
-      <c r="AP3" s="247"/>
-      <c r="AQ3" s="247"/>
-      <c r="AR3" s="247"/>
-      <c r="AS3" s="247" t="s">
+      <c r="AO3" s="278"/>
+      <c r="AP3" s="278"/>
+      <c r="AQ3" s="278"/>
+      <c r="AR3" s="278"/>
+      <c r="AS3" s="278" t="s">
         <v>14</v>
       </c>
-      <c r="AT3" s="247"/>
-      <c r="AU3" s="247"/>
-      <c r="AV3" s="247"/>
-      <c r="AW3" s="247"/>
+      <c r="AT3" s="278"/>
+      <c r="AU3" s="278"/>
+      <c r="AV3" s="278"/>
+      <c r="AW3" s="278"/>
     </row>
     <row r="4" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="56"/>
-      <c r="B4" s="247"/>
-      <c r="C4" s="247"/>
-      <c r="D4" s="247"/>
-      <c r="E4" s="247"/>
-      <c r="F4" s="247"/>
-      <c r="G4" s="247"/>
-      <c r="H4" s="247"/>
-      <c r="I4" s="247"/>
-      <c r="J4" s="251"/>
-      <c r="K4" s="252"/>
-      <c r="L4" s="253"/>
-      <c r="M4" s="251"/>
-      <c r="N4" s="252"/>
-      <c r="O4" s="252"/>
-      <c r="P4" s="252"/>
-      <c r="Q4" s="252"/>
-      <c r="R4" s="253"/>
-      <c r="S4" s="247"/>
-      <c r="T4" s="247"/>
-      <c r="U4" s="247"/>
-      <c r="V4" s="247"/>
-      <c r="W4" s="247"/>
-      <c r="X4" s="247"/>
-      <c r="Y4" s="247"/>
-      <c r="Z4" s="247"/>
-      <c r="AA4" s="247"/>
-      <c r="AB4" s="247"/>
-      <c r="AC4" s="247"/>
-      <c r="AD4" s="247"/>
-      <c r="AE4" s="247"/>
-      <c r="AF4" s="247"/>
-      <c r="AG4" s="247"/>
-      <c r="AH4" s="247"/>
-      <c r="AI4" s="247"/>
-      <c r="AJ4" s="247"/>
-      <c r="AK4" s="247"/>
-      <c r="AL4" s="247"/>
-      <c r="AM4" s="247"/>
-      <c r="AN4" s="247"/>
-      <c r="AO4" s="247"/>
-      <c r="AP4" s="247"/>
-      <c r="AQ4" s="247"/>
-      <c r="AR4" s="247"/>
-      <c r="AS4" s="247"/>
-      <c r="AT4" s="247"/>
-      <c r="AU4" s="247"/>
-      <c r="AV4" s="247"/>
-      <c r="AW4" s="247"/>
+      <c r="B4" s="278"/>
+      <c r="C4" s="278"/>
+      <c r="D4" s="278"/>
+      <c r="E4" s="278"/>
+      <c r="F4" s="278"/>
+      <c r="G4" s="278"/>
+      <c r="H4" s="278"/>
+      <c r="I4" s="278"/>
+      <c r="J4" s="282"/>
+      <c r="K4" s="283"/>
+      <c r="L4" s="284"/>
+      <c r="M4" s="282"/>
+      <c r="N4" s="283"/>
+      <c r="O4" s="283"/>
+      <c r="P4" s="283"/>
+      <c r="Q4" s="283"/>
+      <c r="R4" s="284"/>
+      <c r="S4" s="278"/>
+      <c r="T4" s="278"/>
+      <c r="U4" s="278"/>
+      <c r="V4" s="278"/>
+      <c r="W4" s="278"/>
+      <c r="X4" s="278"/>
+      <c r="Y4" s="278"/>
+      <c r="Z4" s="278"/>
+      <c r="AA4" s="278"/>
+      <c r="AB4" s="278"/>
+      <c r="AC4" s="278"/>
+      <c r="AD4" s="278"/>
+      <c r="AE4" s="278"/>
+      <c r="AF4" s="278"/>
+      <c r="AG4" s="278"/>
+      <c r="AH4" s="278"/>
+      <c r="AI4" s="278"/>
+      <c r="AJ4" s="278"/>
+      <c r="AK4" s="278"/>
+      <c r="AL4" s="278"/>
+      <c r="AM4" s="278"/>
+      <c r="AN4" s="278"/>
+      <c r="AO4" s="278"/>
+      <c r="AP4" s="278"/>
+      <c r="AQ4" s="278"/>
+      <c r="AR4" s="278"/>
+      <c r="AS4" s="278"/>
+      <c r="AT4" s="278"/>
+      <c r="AU4" s="278"/>
+      <c r="AV4" s="278"/>
+      <c r="AW4" s="278"/>
     </row>
     <row r="5" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A5" s="58"/>
-      <c r="B5" s="255">
+      <c r="B5" s="270">
         <v>1</v>
       </c>
-      <c r="C5" s="255"/>
-      <c r="D5" s="255"/>
-      <c r="E5" s="256">
+      <c r="C5" s="270"/>
+      <c r="D5" s="270"/>
+      <c r="E5" s="251">
         <v>43711</v>
       </c>
-      <c r="F5" s="256"/>
-      <c r="G5" s="256"/>
-      <c r="H5" s="256"/>
-      <c r="I5" s="256"/>
-      <c r="J5" s="257" t="s">
+      <c r="F5" s="251"/>
+      <c r="G5" s="251"/>
+      <c r="H5" s="251"/>
+      <c r="I5" s="251"/>
+      <c r="J5" s="252" t="s">
         <v>15</v>
       </c>
-      <c r="K5" s="258"/>
-      <c r="L5" s="259"/>
-      <c r="M5" s="257" t="s">
+      <c r="K5" s="253"/>
+      <c r="L5" s="254"/>
+      <c r="M5" s="252" t="s">
         <v>16</v>
       </c>
-      <c r="N5" s="258"/>
-      <c r="O5" s="258"/>
-      <c r="P5" s="258"/>
-      <c r="Q5" s="258"/>
-      <c r="R5" s="259"/>
-      <c r="S5" s="254" t="s">
+      <c r="N5" s="253"/>
+      <c r="O5" s="253"/>
+      <c r="P5" s="253"/>
+      <c r="Q5" s="253"/>
+      <c r="R5" s="254"/>
+      <c r="S5" s="258" t="s">
         <v>17</v>
       </c>
-      <c r="T5" s="254"/>
-      <c r="U5" s="254"/>
-      <c r="V5" s="263" t="s">
+      <c r="T5" s="258"/>
+      <c r="U5" s="258"/>
+      <c r="V5" s="269" t="s">
         <v>18</v>
       </c>
-      <c r="W5" s="263"/>
-      <c r="X5" s="263"/>
-      <c r="Y5" s="263"/>
-      <c r="Z5" s="263"/>
-      <c r="AA5" s="263"/>
-      <c r="AB5" s="263"/>
-      <c r="AC5" s="263"/>
-      <c r="AD5" s="263"/>
-      <c r="AE5" s="263"/>
-      <c r="AF5" s="263"/>
-      <c r="AG5" s="263"/>
-      <c r="AH5" s="263"/>
-      <c r="AI5" s="263"/>
-      <c r="AJ5" s="263"/>
-      <c r="AK5" s="263"/>
-      <c r="AL5" s="263"/>
-      <c r="AM5" s="263"/>
-      <c r="AN5" s="254" t="s">
+      <c r="W5" s="269"/>
+      <c r="X5" s="269"/>
+      <c r="Y5" s="269"/>
+      <c r="Z5" s="269"/>
+      <c r="AA5" s="269"/>
+      <c r="AB5" s="269"/>
+      <c r="AC5" s="269"/>
+      <c r="AD5" s="269"/>
+      <c r="AE5" s="269"/>
+      <c r="AF5" s="269"/>
+      <c r="AG5" s="269"/>
+      <c r="AH5" s="269"/>
+      <c r="AI5" s="269"/>
+      <c r="AJ5" s="269"/>
+      <c r="AK5" s="269"/>
+      <c r="AL5" s="269"/>
+      <c r="AM5" s="269"/>
+      <c r="AN5" s="258" t="s">
         <v>128</v>
       </c>
-      <c r="AO5" s="254"/>
-      <c r="AP5" s="254"/>
-      <c r="AQ5" s="254"/>
-      <c r="AR5" s="254"/>
-      <c r="AS5" s="254"/>
-      <c r="AT5" s="254"/>
-      <c r="AU5" s="254"/>
-      <c r="AV5" s="254"/>
-      <c r="AW5" s="254"/>
+      <c r="AO5" s="258"/>
+      <c r="AP5" s="258"/>
+      <c r="AQ5" s="258"/>
+      <c r="AR5" s="258"/>
+      <c r="AS5" s="258"/>
+      <c r="AT5" s="258"/>
+      <c r="AU5" s="258"/>
+      <c r="AV5" s="258"/>
+      <c r="AW5" s="258"/>
     </row>
     <row r="6" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A6" s="58"/>
-      <c r="B6" s="255"/>
-      <c r="C6" s="255"/>
-      <c r="D6" s="255"/>
-      <c r="E6" s="256"/>
-      <c r="F6" s="256"/>
-      <c r="G6" s="256"/>
-      <c r="H6" s="256"/>
-      <c r="I6" s="256"/>
-      <c r="J6" s="257"/>
-      <c r="K6" s="258"/>
-      <c r="L6" s="259"/>
-      <c r="M6" s="260"/>
-      <c r="N6" s="261"/>
-      <c r="O6" s="261"/>
-      <c r="P6" s="261"/>
-      <c r="Q6" s="261"/>
-      <c r="R6" s="262"/>
-      <c r="S6" s="254"/>
-      <c r="T6" s="254"/>
-      <c r="U6" s="254"/>
-      <c r="V6" s="263"/>
-      <c r="W6" s="263"/>
-      <c r="X6" s="263"/>
-      <c r="Y6" s="263"/>
-      <c r="Z6" s="263"/>
-      <c r="AA6" s="263"/>
-      <c r="AB6" s="263"/>
-      <c r="AC6" s="263"/>
-      <c r="AD6" s="263"/>
-      <c r="AE6" s="263"/>
-      <c r="AF6" s="263"/>
-      <c r="AG6" s="263"/>
-      <c r="AH6" s="263"/>
-      <c r="AI6" s="263"/>
-      <c r="AJ6" s="263"/>
-      <c r="AK6" s="263"/>
-      <c r="AL6" s="263"/>
-      <c r="AM6" s="263"/>
-      <c r="AN6" s="254"/>
-      <c r="AO6" s="254"/>
-      <c r="AP6" s="254"/>
-      <c r="AQ6" s="254"/>
-      <c r="AR6" s="254"/>
-      <c r="AS6" s="254"/>
-      <c r="AT6" s="254"/>
-      <c r="AU6" s="254"/>
-      <c r="AV6" s="254"/>
-      <c r="AW6" s="254"/>
+      <c r="B6" s="270"/>
+      <c r="C6" s="270"/>
+      <c r="D6" s="270"/>
+      <c r="E6" s="251"/>
+      <c r="F6" s="251"/>
+      <c r="G6" s="251"/>
+      <c r="H6" s="251"/>
+      <c r="I6" s="251"/>
+      <c r="J6" s="252"/>
+      <c r="K6" s="253"/>
+      <c r="L6" s="254"/>
+      <c r="M6" s="273"/>
+      <c r="N6" s="274"/>
+      <c r="O6" s="274"/>
+      <c r="P6" s="274"/>
+      <c r="Q6" s="274"/>
+      <c r="R6" s="275"/>
+      <c r="S6" s="258"/>
+      <c r="T6" s="258"/>
+      <c r="U6" s="258"/>
+      <c r="V6" s="269"/>
+      <c r="W6" s="269"/>
+      <c r="X6" s="269"/>
+      <c r="Y6" s="269"/>
+      <c r="Z6" s="269"/>
+      <c r="AA6" s="269"/>
+      <c r="AB6" s="269"/>
+      <c r="AC6" s="269"/>
+      <c r="AD6" s="269"/>
+      <c r="AE6" s="269"/>
+      <c r="AF6" s="269"/>
+      <c r="AG6" s="269"/>
+      <c r="AH6" s="269"/>
+      <c r="AI6" s="269"/>
+      <c r="AJ6" s="269"/>
+      <c r="AK6" s="269"/>
+      <c r="AL6" s="269"/>
+      <c r="AM6" s="269"/>
+      <c r="AN6" s="258"/>
+      <c r="AO6" s="258"/>
+      <c r="AP6" s="258"/>
+      <c r="AQ6" s="258"/>
+      <c r="AR6" s="258"/>
+      <c r="AS6" s="258"/>
+      <c r="AT6" s="258"/>
+      <c r="AU6" s="258"/>
+      <c r="AV6" s="258"/>
+      <c r="AW6" s="258"/>
     </row>
     <row r="7" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A7" s="58"/>
-      <c r="B7" s="255"/>
-      <c r="C7" s="255"/>
-      <c r="D7" s="255"/>
-      <c r="E7" s="256"/>
-      <c r="F7" s="256"/>
-      <c r="G7" s="256"/>
-      <c r="H7" s="256"/>
-      <c r="I7" s="256"/>
-      <c r="J7" s="257"/>
-      <c r="K7" s="258"/>
-      <c r="L7" s="259"/>
-      <c r="M7" s="260"/>
-      <c r="N7" s="261"/>
-      <c r="O7" s="261"/>
-      <c r="P7" s="261"/>
-      <c r="Q7" s="261"/>
-      <c r="R7" s="262"/>
-      <c r="S7" s="254"/>
-      <c r="T7" s="254"/>
-      <c r="U7" s="254"/>
-      <c r="V7" s="263"/>
-      <c r="W7" s="263"/>
-      <c r="X7" s="263"/>
-      <c r="Y7" s="263"/>
-      <c r="Z7" s="263"/>
-      <c r="AA7" s="263"/>
-      <c r="AB7" s="263"/>
-      <c r="AC7" s="263"/>
-      <c r="AD7" s="263"/>
-      <c r="AE7" s="263"/>
-      <c r="AF7" s="263"/>
-      <c r="AG7" s="263"/>
-      <c r="AH7" s="263"/>
-      <c r="AI7" s="263"/>
-      <c r="AJ7" s="263"/>
-      <c r="AK7" s="263"/>
-      <c r="AL7" s="263"/>
-      <c r="AM7" s="263"/>
-      <c r="AN7" s="254"/>
-      <c r="AO7" s="254"/>
-      <c r="AP7" s="254"/>
-      <c r="AQ7" s="254"/>
-      <c r="AR7" s="254"/>
-      <c r="AS7" s="254"/>
-      <c r="AT7" s="254"/>
-      <c r="AU7" s="254"/>
-      <c r="AV7" s="254"/>
-      <c r="AW7" s="254"/>
+      <c r="B7" s="270"/>
+      <c r="C7" s="270"/>
+      <c r="D7" s="270"/>
+      <c r="E7" s="251"/>
+      <c r="F7" s="251"/>
+      <c r="G7" s="251"/>
+      <c r="H7" s="251"/>
+      <c r="I7" s="251"/>
+      <c r="J7" s="252"/>
+      <c r="K7" s="253"/>
+      <c r="L7" s="254"/>
+      <c r="M7" s="273"/>
+      <c r="N7" s="274"/>
+      <c r="O7" s="274"/>
+      <c r="P7" s="274"/>
+      <c r="Q7" s="274"/>
+      <c r="R7" s="275"/>
+      <c r="S7" s="258"/>
+      <c r="T7" s="258"/>
+      <c r="U7" s="258"/>
+      <c r="V7" s="269"/>
+      <c r="W7" s="269"/>
+      <c r="X7" s="269"/>
+      <c r="Y7" s="269"/>
+      <c r="Z7" s="269"/>
+      <c r="AA7" s="269"/>
+      <c r="AB7" s="269"/>
+      <c r="AC7" s="269"/>
+      <c r="AD7" s="269"/>
+      <c r="AE7" s="269"/>
+      <c r="AF7" s="269"/>
+      <c r="AG7" s="269"/>
+      <c r="AH7" s="269"/>
+      <c r="AI7" s="269"/>
+      <c r="AJ7" s="269"/>
+      <c r="AK7" s="269"/>
+      <c r="AL7" s="269"/>
+      <c r="AM7" s="269"/>
+      <c r="AN7" s="258"/>
+      <c r="AO7" s="258"/>
+      <c r="AP7" s="258"/>
+      <c r="AQ7" s="258"/>
+      <c r="AR7" s="258"/>
+      <c r="AS7" s="258"/>
+      <c r="AT7" s="258"/>
+      <c r="AU7" s="258"/>
+      <c r="AV7" s="258"/>
+      <c r="AW7" s="258"/>
     </row>
     <row r="8" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A8" s="58"/>
-      <c r="B8" s="255"/>
-      <c r="C8" s="255"/>
-      <c r="D8" s="255"/>
-      <c r="E8" s="256"/>
-      <c r="F8" s="256"/>
-      <c r="G8" s="256"/>
-      <c r="H8" s="256"/>
-      <c r="I8" s="256"/>
-      <c r="J8" s="257"/>
-      <c r="K8" s="258"/>
-      <c r="L8" s="259"/>
-      <c r="M8" s="260"/>
-      <c r="N8" s="261"/>
-      <c r="O8" s="261"/>
-      <c r="P8" s="261"/>
-      <c r="Q8" s="261"/>
-      <c r="R8" s="262"/>
-      <c r="S8" s="254"/>
-      <c r="T8" s="254"/>
-      <c r="U8" s="254"/>
-      <c r="V8" s="263"/>
-      <c r="W8" s="263"/>
-      <c r="X8" s="263"/>
-      <c r="Y8" s="263"/>
-      <c r="Z8" s="263"/>
-      <c r="AA8" s="263"/>
-      <c r="AB8" s="263"/>
-      <c r="AC8" s="263"/>
-      <c r="AD8" s="263"/>
-      <c r="AE8" s="263"/>
-      <c r="AF8" s="263"/>
-      <c r="AG8" s="263"/>
-      <c r="AH8" s="263"/>
-      <c r="AI8" s="263"/>
-      <c r="AJ8" s="263"/>
-      <c r="AK8" s="263"/>
-      <c r="AL8" s="263"/>
-      <c r="AM8" s="263"/>
-      <c r="AN8" s="254"/>
-      <c r="AO8" s="254"/>
-      <c r="AP8" s="254"/>
-      <c r="AQ8" s="254"/>
-      <c r="AR8" s="254"/>
-      <c r="AS8" s="254"/>
-      <c r="AT8" s="254"/>
-      <c r="AU8" s="254"/>
-      <c r="AV8" s="254"/>
-      <c r="AW8" s="254"/>
+      <c r="B8" s="270"/>
+      <c r="C8" s="270"/>
+      <c r="D8" s="270"/>
+      <c r="E8" s="251"/>
+      <c r="F8" s="251"/>
+      <c r="G8" s="251"/>
+      <c r="H8" s="251"/>
+      <c r="I8" s="251"/>
+      <c r="J8" s="252"/>
+      <c r="K8" s="253"/>
+      <c r="L8" s="254"/>
+      <c r="M8" s="273"/>
+      <c r="N8" s="274"/>
+      <c r="O8" s="274"/>
+      <c r="P8" s="274"/>
+      <c r="Q8" s="274"/>
+      <c r="R8" s="275"/>
+      <c r="S8" s="258"/>
+      <c r="T8" s="258"/>
+      <c r="U8" s="258"/>
+      <c r="V8" s="269"/>
+      <c r="W8" s="269"/>
+      <c r="X8" s="269"/>
+      <c r="Y8" s="269"/>
+      <c r="Z8" s="269"/>
+      <c r="AA8" s="269"/>
+      <c r="AB8" s="269"/>
+      <c r="AC8" s="269"/>
+      <c r="AD8" s="269"/>
+      <c r="AE8" s="269"/>
+      <c r="AF8" s="269"/>
+      <c r="AG8" s="269"/>
+      <c r="AH8" s="269"/>
+      <c r="AI8" s="269"/>
+      <c r="AJ8" s="269"/>
+      <c r="AK8" s="269"/>
+      <c r="AL8" s="269"/>
+      <c r="AM8" s="269"/>
+      <c r="AN8" s="258"/>
+      <c r="AO8" s="258"/>
+      <c r="AP8" s="258"/>
+      <c r="AQ8" s="258"/>
+      <c r="AR8" s="258"/>
+      <c r="AS8" s="258"/>
+      <c r="AT8" s="258"/>
+      <c r="AU8" s="258"/>
+      <c r="AV8" s="258"/>
+      <c r="AW8" s="258"/>
     </row>
     <row r="9" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A9" s="58"/>
-      <c r="B9" s="255"/>
-      <c r="C9" s="255"/>
-      <c r="D9" s="255"/>
-      <c r="E9" s="256"/>
-      <c r="F9" s="256"/>
-      <c r="G9" s="256"/>
-      <c r="H9" s="256"/>
-      <c r="I9" s="256"/>
-      <c r="J9" s="257"/>
-      <c r="K9" s="258"/>
-      <c r="L9" s="259"/>
-      <c r="M9" s="260"/>
-      <c r="N9" s="261"/>
-      <c r="O9" s="261"/>
-      <c r="P9" s="261"/>
-      <c r="Q9" s="261"/>
-      <c r="R9" s="262"/>
-      <c r="S9" s="254"/>
-      <c r="T9" s="254"/>
-      <c r="U9" s="254"/>
-      <c r="V9" s="263"/>
-      <c r="W9" s="263"/>
-      <c r="X9" s="263"/>
-      <c r="Y9" s="263"/>
-      <c r="Z9" s="263"/>
-      <c r="AA9" s="263"/>
-      <c r="AB9" s="263"/>
-      <c r="AC9" s="263"/>
-      <c r="AD9" s="263"/>
-      <c r="AE9" s="263"/>
-      <c r="AF9" s="263"/>
-      <c r="AG9" s="263"/>
-      <c r="AH9" s="263"/>
-      <c r="AI9" s="263"/>
-      <c r="AJ9" s="263"/>
-      <c r="AK9" s="263"/>
-      <c r="AL9" s="263"/>
-      <c r="AM9" s="263"/>
-      <c r="AN9" s="254"/>
-      <c r="AO9" s="254"/>
-      <c r="AP9" s="254"/>
-      <c r="AQ9" s="254"/>
-      <c r="AR9" s="254"/>
-      <c r="AS9" s="254"/>
-      <c r="AT9" s="254"/>
-      <c r="AU9" s="254"/>
-      <c r="AV9" s="254"/>
-      <c r="AW9" s="254"/>
+      <c r="B9" s="270"/>
+      <c r="C9" s="270"/>
+      <c r="D9" s="270"/>
+      <c r="E9" s="251"/>
+      <c r="F9" s="251"/>
+      <c r="G9" s="251"/>
+      <c r="H9" s="251"/>
+      <c r="I9" s="251"/>
+      <c r="J9" s="252"/>
+      <c r="K9" s="253"/>
+      <c r="L9" s="254"/>
+      <c r="M9" s="273"/>
+      <c r="N9" s="274"/>
+      <c r="O9" s="274"/>
+      <c r="P9" s="274"/>
+      <c r="Q9" s="274"/>
+      <c r="R9" s="275"/>
+      <c r="S9" s="258"/>
+      <c r="T9" s="258"/>
+      <c r="U9" s="258"/>
+      <c r="V9" s="269"/>
+      <c r="W9" s="269"/>
+      <c r="X9" s="269"/>
+      <c r="Y9" s="269"/>
+      <c r="Z9" s="269"/>
+      <c r="AA9" s="269"/>
+      <c r="AB9" s="269"/>
+      <c r="AC9" s="269"/>
+      <c r="AD9" s="269"/>
+      <c r="AE9" s="269"/>
+      <c r="AF9" s="269"/>
+      <c r="AG9" s="269"/>
+      <c r="AH9" s="269"/>
+      <c r="AI9" s="269"/>
+      <c r="AJ9" s="269"/>
+      <c r="AK9" s="269"/>
+      <c r="AL9" s="269"/>
+      <c r="AM9" s="269"/>
+      <c r="AN9" s="258"/>
+      <c r="AO9" s="258"/>
+      <c r="AP9" s="258"/>
+      <c r="AQ9" s="258"/>
+      <c r="AR9" s="258"/>
+      <c r="AS9" s="258"/>
+      <c r="AT9" s="258"/>
+      <c r="AU9" s="258"/>
+      <c r="AV9" s="258"/>
+      <c r="AW9" s="258"/>
     </row>
     <row r="10" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A10" s="58"/>
-      <c r="B10" s="255"/>
-      <c r="C10" s="255"/>
-      <c r="D10" s="255"/>
-      <c r="E10" s="256"/>
-      <c r="F10" s="256"/>
-      <c r="G10" s="256"/>
-      <c r="H10" s="256"/>
-      <c r="I10" s="256"/>
-      <c r="J10" s="257"/>
-      <c r="K10" s="258"/>
-      <c r="L10" s="259"/>
-      <c r="M10" s="260"/>
-      <c r="N10" s="261"/>
-      <c r="O10" s="261"/>
-      <c r="P10" s="261"/>
-      <c r="Q10" s="261"/>
-      <c r="R10" s="262"/>
-      <c r="S10" s="254"/>
-      <c r="T10" s="254"/>
-      <c r="U10" s="254"/>
-      <c r="V10" s="263"/>
-      <c r="W10" s="263"/>
-      <c r="X10" s="263"/>
-      <c r="Y10" s="263"/>
-      <c r="Z10" s="263"/>
-      <c r="AA10" s="263"/>
-      <c r="AB10" s="263"/>
-      <c r="AC10" s="263"/>
-      <c r="AD10" s="263"/>
-      <c r="AE10" s="263"/>
-      <c r="AF10" s="263"/>
-      <c r="AG10" s="263"/>
-      <c r="AH10" s="263"/>
-      <c r="AI10" s="263"/>
-      <c r="AJ10" s="263"/>
-      <c r="AK10" s="263"/>
-      <c r="AL10" s="263"/>
-      <c r="AM10" s="263"/>
-      <c r="AN10" s="254"/>
-      <c r="AO10" s="254"/>
-      <c r="AP10" s="254"/>
-      <c r="AQ10" s="254"/>
-      <c r="AR10" s="254"/>
-      <c r="AS10" s="254"/>
-      <c r="AT10" s="254"/>
-      <c r="AU10" s="254"/>
-      <c r="AV10" s="254"/>
-      <c r="AW10" s="254"/>
+      <c r="B10" s="270"/>
+      <c r="C10" s="270"/>
+      <c r="D10" s="270"/>
+      <c r="E10" s="251"/>
+      <c r="F10" s="251"/>
+      <c r="G10" s="251"/>
+      <c r="H10" s="251"/>
+      <c r="I10" s="251"/>
+      <c r="J10" s="252"/>
+      <c r="K10" s="253"/>
+      <c r="L10" s="254"/>
+      <c r="M10" s="273"/>
+      <c r="N10" s="274"/>
+      <c r="O10" s="274"/>
+      <c r="P10" s="274"/>
+      <c r="Q10" s="274"/>
+      <c r="R10" s="275"/>
+      <c r="S10" s="258"/>
+      <c r="T10" s="258"/>
+      <c r="U10" s="258"/>
+      <c r="V10" s="269"/>
+      <c r="W10" s="269"/>
+      <c r="X10" s="269"/>
+      <c r="Y10" s="269"/>
+      <c r="Z10" s="269"/>
+      <c r="AA10" s="269"/>
+      <c r="AB10" s="269"/>
+      <c r="AC10" s="269"/>
+      <c r="AD10" s="269"/>
+      <c r="AE10" s="269"/>
+      <c r="AF10" s="269"/>
+      <c r="AG10" s="269"/>
+      <c r="AH10" s="269"/>
+      <c r="AI10" s="269"/>
+      <c r="AJ10" s="269"/>
+      <c r="AK10" s="269"/>
+      <c r="AL10" s="269"/>
+      <c r="AM10" s="269"/>
+      <c r="AN10" s="258"/>
+      <c r="AO10" s="258"/>
+      <c r="AP10" s="258"/>
+      <c r="AQ10" s="258"/>
+      <c r="AR10" s="258"/>
+      <c r="AS10" s="258"/>
+      <c r="AT10" s="258"/>
+      <c r="AU10" s="258"/>
+      <c r="AV10" s="258"/>
+      <c r="AW10" s="258"/>
     </row>
     <row r="11" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A11" s="58"/>
-      <c r="B11" s="255"/>
-      <c r="C11" s="255"/>
-      <c r="D11" s="255"/>
-      <c r="E11" s="256"/>
-      <c r="F11" s="256"/>
-      <c r="G11" s="256"/>
-      <c r="H11" s="256"/>
-      <c r="I11" s="256"/>
-      <c r="J11" s="257"/>
-      <c r="K11" s="258"/>
-      <c r="L11" s="259"/>
-      <c r="M11" s="267"/>
-      <c r="N11" s="268"/>
-      <c r="O11" s="268"/>
-      <c r="P11" s="268"/>
-      <c r="Q11" s="268"/>
-      <c r="R11" s="269"/>
-      <c r="S11" s="254"/>
-      <c r="T11" s="254"/>
-      <c r="U11" s="254"/>
-      <c r="V11" s="270"/>
-      <c r="W11" s="276"/>
-      <c r="X11" s="276"/>
-      <c r="Y11" s="276"/>
-      <c r="Z11" s="276"/>
-      <c r="AA11" s="276"/>
-      <c r="AB11" s="276"/>
-      <c r="AC11" s="276"/>
-      <c r="AD11" s="276"/>
-      <c r="AE11" s="276"/>
-      <c r="AF11" s="276"/>
-      <c r="AG11" s="276"/>
-      <c r="AH11" s="276"/>
-      <c r="AI11" s="276"/>
-      <c r="AJ11" s="276"/>
-      <c r="AK11" s="276"/>
-      <c r="AL11" s="276"/>
-      <c r="AM11" s="277"/>
-      <c r="AN11" s="254"/>
-      <c r="AO11" s="254"/>
-      <c r="AP11" s="254"/>
-      <c r="AQ11" s="254"/>
-      <c r="AR11" s="254"/>
-      <c r="AS11" s="254"/>
-      <c r="AT11" s="254"/>
-      <c r="AU11" s="254"/>
-      <c r="AV11" s="254"/>
-      <c r="AW11" s="254"/>
+      <c r="B11" s="270"/>
+      <c r="C11" s="270"/>
+      <c r="D11" s="270"/>
+      <c r="E11" s="251"/>
+      <c r="F11" s="251"/>
+      <c r="G11" s="251"/>
+      <c r="H11" s="251"/>
+      <c r="I11" s="251"/>
+      <c r="J11" s="252"/>
+      <c r="K11" s="253"/>
+      <c r="L11" s="254"/>
+      <c r="M11" s="265"/>
+      <c r="N11" s="263"/>
+      <c r="O11" s="263"/>
+      <c r="P11" s="263"/>
+      <c r="Q11" s="263"/>
+      <c r="R11" s="264"/>
+      <c r="S11" s="258"/>
+      <c r="T11" s="258"/>
+      <c r="U11" s="258"/>
+      <c r="V11" s="259"/>
+      <c r="W11" s="271"/>
+      <c r="X11" s="271"/>
+      <c r="Y11" s="271"/>
+      <c r="Z11" s="271"/>
+      <c r="AA11" s="271"/>
+      <c r="AB11" s="271"/>
+      <c r="AC11" s="271"/>
+      <c r="AD11" s="271"/>
+      <c r="AE11" s="271"/>
+      <c r="AF11" s="271"/>
+      <c r="AG11" s="271"/>
+      <c r="AH11" s="271"/>
+      <c r="AI11" s="271"/>
+      <c r="AJ11" s="271"/>
+      <c r="AK11" s="271"/>
+      <c r="AL11" s="271"/>
+      <c r="AM11" s="272"/>
+      <c r="AN11" s="258"/>
+      <c r="AO11" s="258"/>
+      <c r="AP11" s="258"/>
+      <c r="AQ11" s="258"/>
+      <c r="AR11" s="258"/>
+      <c r="AS11" s="258"/>
+      <c r="AT11" s="258"/>
+      <c r="AU11" s="258"/>
+      <c r="AV11" s="258"/>
+      <c r="AW11" s="258"/>
     </row>
     <row r="12" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A12" s="58"/>
-      <c r="B12" s="264"/>
-      <c r="C12" s="265"/>
-      <c r="D12" s="266"/>
-      <c r="E12" s="256"/>
-      <c r="F12" s="256"/>
-      <c r="G12" s="256"/>
-      <c r="H12" s="256"/>
-      <c r="I12" s="256"/>
-      <c r="J12" s="257"/>
-      <c r="K12" s="258"/>
-      <c r="L12" s="259"/>
-      <c r="M12" s="267"/>
-      <c r="N12" s="268"/>
-      <c r="O12" s="268"/>
-      <c r="P12" s="268"/>
-      <c r="Q12" s="268"/>
-      <c r="R12" s="269"/>
-      <c r="S12" s="254"/>
-      <c r="T12" s="254"/>
-      <c r="U12" s="254"/>
-      <c r="V12" s="270"/>
-      <c r="W12" s="271"/>
-      <c r="X12" s="271"/>
-      <c r="Y12" s="271"/>
-      <c r="Z12" s="271"/>
-      <c r="AA12" s="271"/>
-      <c r="AB12" s="271"/>
-      <c r="AC12" s="271"/>
-      <c r="AD12" s="271"/>
-      <c r="AE12" s="271"/>
-      <c r="AF12" s="271"/>
-      <c r="AG12" s="271"/>
-      <c r="AH12" s="271"/>
-      <c r="AI12" s="271"/>
-      <c r="AJ12" s="271"/>
-      <c r="AK12" s="271"/>
-      <c r="AL12" s="271"/>
-      <c r="AM12" s="272"/>
-      <c r="AN12" s="273"/>
-      <c r="AO12" s="274"/>
-      <c r="AP12" s="274"/>
-      <c r="AQ12" s="274"/>
-      <c r="AR12" s="275"/>
-      <c r="AS12" s="273"/>
-      <c r="AT12" s="274"/>
-      <c r="AU12" s="274"/>
-      <c r="AV12" s="274"/>
-      <c r="AW12" s="275"/>
+      <c r="B12" s="248"/>
+      <c r="C12" s="249"/>
+      <c r="D12" s="250"/>
+      <c r="E12" s="251"/>
+      <c r="F12" s="251"/>
+      <c r="G12" s="251"/>
+      <c r="H12" s="251"/>
+      <c r="I12" s="251"/>
+      <c r="J12" s="252"/>
+      <c r="K12" s="253"/>
+      <c r="L12" s="254"/>
+      <c r="M12" s="265"/>
+      <c r="N12" s="263"/>
+      <c r="O12" s="263"/>
+      <c r="P12" s="263"/>
+      <c r="Q12" s="263"/>
+      <c r="R12" s="264"/>
+      <c r="S12" s="258"/>
+      <c r="T12" s="258"/>
+      <c r="U12" s="258"/>
+      <c r="V12" s="259"/>
+      <c r="W12" s="260"/>
+      <c r="X12" s="260"/>
+      <c r="Y12" s="260"/>
+      <c r="Z12" s="260"/>
+      <c r="AA12" s="260"/>
+      <c r="AB12" s="260"/>
+      <c r="AC12" s="260"/>
+      <c r="AD12" s="260"/>
+      <c r="AE12" s="260"/>
+      <c r="AF12" s="260"/>
+      <c r="AG12" s="260"/>
+      <c r="AH12" s="260"/>
+      <c r="AI12" s="260"/>
+      <c r="AJ12" s="260"/>
+      <c r="AK12" s="260"/>
+      <c r="AL12" s="260"/>
+      <c r="AM12" s="261"/>
+      <c r="AN12" s="245"/>
+      <c r="AO12" s="246"/>
+      <c r="AP12" s="246"/>
+      <c r="AQ12" s="246"/>
+      <c r="AR12" s="247"/>
+      <c r="AS12" s="245"/>
+      <c r="AT12" s="246"/>
+      <c r="AU12" s="246"/>
+      <c r="AV12" s="246"/>
+      <c r="AW12" s="247"/>
     </row>
     <row r="13" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A13" s="58"/>
-      <c r="B13" s="264"/>
-      <c r="C13" s="265"/>
-      <c r="D13" s="266"/>
-      <c r="E13" s="256"/>
-      <c r="F13" s="256"/>
-      <c r="G13" s="256"/>
-      <c r="H13" s="256"/>
-      <c r="I13" s="256"/>
-      <c r="J13" s="257"/>
-      <c r="K13" s="258"/>
-      <c r="L13" s="259"/>
-      <c r="M13" s="278"/>
-      <c r="N13" s="268"/>
-      <c r="O13" s="268"/>
-      <c r="P13" s="268"/>
-      <c r="Q13" s="268"/>
-      <c r="R13" s="269"/>
-      <c r="S13" s="254"/>
-      <c r="T13" s="254"/>
-      <c r="U13" s="254"/>
-      <c r="V13" s="270"/>
-      <c r="W13" s="271"/>
-      <c r="X13" s="271"/>
-      <c r="Y13" s="271"/>
-      <c r="Z13" s="271"/>
-      <c r="AA13" s="271"/>
-      <c r="AB13" s="271"/>
-      <c r="AC13" s="271"/>
-      <c r="AD13" s="271"/>
-      <c r="AE13" s="271"/>
-      <c r="AF13" s="271"/>
-      <c r="AG13" s="271"/>
-      <c r="AH13" s="271"/>
-      <c r="AI13" s="271"/>
-      <c r="AJ13" s="271"/>
-      <c r="AK13" s="271"/>
-      <c r="AL13" s="271"/>
-      <c r="AM13" s="272"/>
-      <c r="AN13" s="273"/>
-      <c r="AO13" s="274"/>
-      <c r="AP13" s="274"/>
-      <c r="AQ13" s="274"/>
-      <c r="AR13" s="275"/>
-      <c r="AS13" s="273"/>
-      <c r="AT13" s="274"/>
-      <c r="AU13" s="274"/>
-      <c r="AV13" s="274"/>
-      <c r="AW13" s="275"/>
+      <c r="B13" s="248"/>
+      <c r="C13" s="249"/>
+      <c r="D13" s="250"/>
+      <c r="E13" s="251"/>
+      <c r="F13" s="251"/>
+      <c r="G13" s="251"/>
+      <c r="H13" s="251"/>
+      <c r="I13" s="251"/>
+      <c r="J13" s="252"/>
+      <c r="K13" s="253"/>
+      <c r="L13" s="254"/>
+      <c r="M13" s="262"/>
+      <c r="N13" s="263"/>
+      <c r="O13" s="263"/>
+      <c r="P13" s="263"/>
+      <c r="Q13" s="263"/>
+      <c r="R13" s="264"/>
+      <c r="S13" s="258"/>
+      <c r="T13" s="258"/>
+      <c r="U13" s="258"/>
+      <c r="V13" s="259"/>
+      <c r="W13" s="260"/>
+      <c r="X13" s="260"/>
+      <c r="Y13" s="260"/>
+      <c r="Z13" s="260"/>
+      <c r="AA13" s="260"/>
+      <c r="AB13" s="260"/>
+      <c r="AC13" s="260"/>
+      <c r="AD13" s="260"/>
+      <c r="AE13" s="260"/>
+      <c r="AF13" s="260"/>
+      <c r="AG13" s="260"/>
+      <c r="AH13" s="260"/>
+      <c r="AI13" s="260"/>
+      <c r="AJ13" s="260"/>
+      <c r="AK13" s="260"/>
+      <c r="AL13" s="260"/>
+      <c r="AM13" s="261"/>
+      <c r="AN13" s="245"/>
+      <c r="AO13" s="246"/>
+      <c r="AP13" s="246"/>
+      <c r="AQ13" s="246"/>
+      <c r="AR13" s="247"/>
+      <c r="AS13" s="245"/>
+      <c r="AT13" s="246"/>
+      <c r="AU13" s="246"/>
+      <c r="AV13" s="246"/>
+      <c r="AW13" s="247"/>
     </row>
     <row r="14" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A14" s="58"/>
-      <c r="B14" s="264"/>
-      <c r="C14" s="265"/>
-      <c r="D14" s="266"/>
-      <c r="E14" s="256"/>
-      <c r="F14" s="256"/>
-      <c r="G14" s="256"/>
-      <c r="H14" s="256"/>
-      <c r="I14" s="256"/>
-      <c r="J14" s="257"/>
-      <c r="K14" s="258"/>
-      <c r="L14" s="259"/>
-      <c r="M14" s="278"/>
-      <c r="N14" s="268"/>
-      <c r="O14" s="268"/>
-      <c r="P14" s="268"/>
-      <c r="Q14" s="268"/>
-      <c r="R14" s="269"/>
-      <c r="S14" s="254"/>
-      <c r="T14" s="254"/>
-      <c r="U14" s="254"/>
-      <c r="V14" s="279"/>
-      <c r="W14" s="263"/>
-      <c r="X14" s="263"/>
-      <c r="Y14" s="263"/>
-      <c r="Z14" s="263"/>
-      <c r="AA14" s="263"/>
-      <c r="AB14" s="263"/>
-      <c r="AC14" s="263"/>
-      <c r="AD14" s="263"/>
-      <c r="AE14" s="263"/>
-      <c r="AF14" s="263"/>
-      <c r="AG14" s="263"/>
-      <c r="AH14" s="263"/>
-      <c r="AI14" s="263"/>
-      <c r="AJ14" s="263"/>
-      <c r="AK14" s="263"/>
-      <c r="AL14" s="263"/>
-      <c r="AM14" s="263"/>
-      <c r="AN14" s="254"/>
-      <c r="AO14" s="254"/>
-      <c r="AP14" s="254"/>
-      <c r="AQ14" s="254"/>
-      <c r="AR14" s="254"/>
-      <c r="AS14" s="273"/>
-      <c r="AT14" s="274"/>
-      <c r="AU14" s="274"/>
-      <c r="AV14" s="274"/>
-      <c r="AW14" s="275"/>
+      <c r="B14" s="248"/>
+      <c r="C14" s="249"/>
+      <c r="D14" s="250"/>
+      <c r="E14" s="251"/>
+      <c r="F14" s="251"/>
+      <c r="G14" s="251"/>
+      <c r="H14" s="251"/>
+      <c r="I14" s="251"/>
+      <c r="J14" s="252"/>
+      <c r="K14" s="253"/>
+      <c r="L14" s="254"/>
+      <c r="M14" s="262"/>
+      <c r="N14" s="263"/>
+      <c r="O14" s="263"/>
+      <c r="P14" s="263"/>
+      <c r="Q14" s="263"/>
+      <c r="R14" s="264"/>
+      <c r="S14" s="258"/>
+      <c r="T14" s="258"/>
+      <c r="U14" s="258"/>
+      <c r="V14" s="268"/>
+      <c r="W14" s="269"/>
+      <c r="X14" s="269"/>
+      <c r="Y14" s="269"/>
+      <c r="Z14" s="269"/>
+      <c r="AA14" s="269"/>
+      <c r="AB14" s="269"/>
+      <c r="AC14" s="269"/>
+      <c r="AD14" s="269"/>
+      <c r="AE14" s="269"/>
+      <c r="AF14" s="269"/>
+      <c r="AG14" s="269"/>
+      <c r="AH14" s="269"/>
+      <c r="AI14" s="269"/>
+      <c r="AJ14" s="269"/>
+      <c r="AK14" s="269"/>
+      <c r="AL14" s="269"/>
+      <c r="AM14" s="269"/>
+      <c r="AN14" s="258"/>
+      <c r="AO14" s="258"/>
+      <c r="AP14" s="258"/>
+      <c r="AQ14" s="258"/>
+      <c r="AR14" s="258"/>
+      <c r="AS14" s="245"/>
+      <c r="AT14" s="246"/>
+      <c r="AU14" s="246"/>
+      <c r="AV14" s="246"/>
+      <c r="AW14" s="247"/>
     </row>
     <row r="15" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A15" s="58"/>
-      <c r="B15" s="264"/>
-      <c r="C15" s="265"/>
-      <c r="D15" s="266"/>
-      <c r="E15" s="256"/>
-      <c r="F15" s="256"/>
-      <c r="G15" s="256"/>
-      <c r="H15" s="256"/>
-      <c r="I15" s="256"/>
-      <c r="J15" s="257"/>
-      <c r="K15" s="258"/>
-      <c r="L15" s="259"/>
-      <c r="M15" s="267"/>
-      <c r="N15" s="268"/>
-      <c r="O15" s="268"/>
-      <c r="P15" s="268"/>
-      <c r="Q15" s="268"/>
-      <c r="R15" s="269"/>
-      <c r="S15" s="254"/>
-      <c r="T15" s="254"/>
-      <c r="U15" s="254"/>
-      <c r="V15" s="270"/>
-      <c r="W15" s="271"/>
-      <c r="X15" s="271"/>
-      <c r="Y15" s="271"/>
-      <c r="Z15" s="271"/>
-      <c r="AA15" s="271"/>
-      <c r="AB15" s="271"/>
-      <c r="AC15" s="271"/>
-      <c r="AD15" s="271"/>
-      <c r="AE15" s="271"/>
-      <c r="AF15" s="271"/>
-      <c r="AG15" s="271"/>
-      <c r="AH15" s="271"/>
-      <c r="AI15" s="271"/>
-      <c r="AJ15" s="271"/>
-      <c r="AK15" s="271"/>
-      <c r="AL15" s="271"/>
-      <c r="AM15" s="272"/>
-      <c r="AN15" s="273"/>
-      <c r="AO15" s="274"/>
-      <c r="AP15" s="274"/>
-      <c r="AQ15" s="274"/>
-      <c r="AR15" s="275"/>
-      <c r="AS15" s="273"/>
-      <c r="AT15" s="274"/>
-      <c r="AU15" s="274"/>
-      <c r="AV15" s="274"/>
-      <c r="AW15" s="275"/>
+      <c r="B15" s="248"/>
+      <c r="C15" s="249"/>
+      <c r="D15" s="250"/>
+      <c r="E15" s="251"/>
+      <c r="F15" s="251"/>
+      <c r="G15" s="251"/>
+      <c r="H15" s="251"/>
+      <c r="I15" s="251"/>
+      <c r="J15" s="252"/>
+      <c r="K15" s="253"/>
+      <c r="L15" s="254"/>
+      <c r="M15" s="265"/>
+      <c r="N15" s="263"/>
+      <c r="O15" s="263"/>
+      <c r="P15" s="263"/>
+      <c r="Q15" s="263"/>
+      <c r="R15" s="264"/>
+      <c r="S15" s="258"/>
+      <c r="T15" s="258"/>
+      <c r="U15" s="258"/>
+      <c r="V15" s="259"/>
+      <c r="W15" s="260"/>
+      <c r="X15" s="260"/>
+      <c r="Y15" s="260"/>
+      <c r="Z15" s="260"/>
+      <c r="AA15" s="260"/>
+      <c r="AB15" s="260"/>
+      <c r="AC15" s="260"/>
+      <c r="AD15" s="260"/>
+      <c r="AE15" s="260"/>
+      <c r="AF15" s="260"/>
+      <c r="AG15" s="260"/>
+      <c r="AH15" s="260"/>
+      <c r="AI15" s="260"/>
+      <c r="AJ15" s="260"/>
+      <c r="AK15" s="260"/>
+      <c r="AL15" s="260"/>
+      <c r="AM15" s="261"/>
+      <c r="AN15" s="245"/>
+      <c r="AO15" s="246"/>
+      <c r="AP15" s="246"/>
+      <c r="AQ15" s="246"/>
+      <c r="AR15" s="247"/>
+      <c r="AS15" s="245"/>
+      <c r="AT15" s="246"/>
+      <c r="AU15" s="246"/>
+      <c r="AV15" s="246"/>
+      <c r="AW15" s="247"/>
     </row>
     <row r="16" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A16" s="58"/>
-      <c r="B16" s="264"/>
-      <c r="C16" s="265"/>
-      <c r="D16" s="266"/>
-      <c r="E16" s="256"/>
-      <c r="F16" s="256"/>
-      <c r="G16" s="256"/>
-      <c r="H16" s="256"/>
-      <c r="I16" s="256"/>
-      <c r="J16" s="257"/>
-      <c r="K16" s="258"/>
-      <c r="L16" s="259"/>
-      <c r="M16" s="267"/>
-      <c r="N16" s="268"/>
-      <c r="O16" s="268"/>
-      <c r="P16" s="268"/>
-      <c r="Q16" s="268"/>
-      <c r="R16" s="269"/>
-      <c r="S16" s="254"/>
-      <c r="T16" s="254"/>
-      <c r="U16" s="254"/>
-      <c r="V16" s="270"/>
-      <c r="W16" s="271"/>
-      <c r="X16" s="271"/>
-      <c r="Y16" s="271"/>
-      <c r="Z16" s="271"/>
-      <c r="AA16" s="271"/>
-      <c r="AB16" s="271"/>
-      <c r="AC16" s="271"/>
-      <c r="AD16" s="271"/>
-      <c r="AE16" s="271"/>
-      <c r="AF16" s="271"/>
-      <c r="AG16" s="271"/>
-      <c r="AH16" s="271"/>
-      <c r="AI16" s="271"/>
-      <c r="AJ16" s="271"/>
-      <c r="AK16" s="271"/>
-      <c r="AL16" s="271"/>
-      <c r="AM16" s="272"/>
-      <c r="AN16" s="273"/>
-      <c r="AO16" s="274"/>
-      <c r="AP16" s="274"/>
-      <c r="AQ16" s="274"/>
-      <c r="AR16" s="275"/>
-      <c r="AS16" s="273"/>
-      <c r="AT16" s="274"/>
-      <c r="AU16" s="274"/>
-      <c r="AV16" s="274"/>
-      <c r="AW16" s="275"/>
+      <c r="B16" s="248"/>
+      <c r="C16" s="249"/>
+      <c r="D16" s="250"/>
+      <c r="E16" s="251"/>
+      <c r="F16" s="251"/>
+      <c r="G16" s="251"/>
+      <c r="H16" s="251"/>
+      <c r="I16" s="251"/>
+      <c r="J16" s="252"/>
+      <c r="K16" s="253"/>
+      <c r="L16" s="254"/>
+      <c r="M16" s="265"/>
+      <c r="N16" s="263"/>
+      <c r="O16" s="263"/>
+      <c r="P16" s="263"/>
+      <c r="Q16" s="263"/>
+      <c r="R16" s="264"/>
+      <c r="S16" s="258"/>
+      <c r="T16" s="258"/>
+      <c r="U16" s="258"/>
+      <c r="V16" s="259"/>
+      <c r="W16" s="260"/>
+      <c r="X16" s="260"/>
+      <c r="Y16" s="260"/>
+      <c r="Z16" s="260"/>
+      <c r="AA16" s="260"/>
+      <c r="AB16" s="260"/>
+      <c r="AC16" s="260"/>
+      <c r="AD16" s="260"/>
+      <c r="AE16" s="260"/>
+      <c r="AF16" s="260"/>
+      <c r="AG16" s="260"/>
+      <c r="AH16" s="260"/>
+      <c r="AI16" s="260"/>
+      <c r="AJ16" s="260"/>
+      <c r="AK16" s="260"/>
+      <c r="AL16" s="260"/>
+      <c r="AM16" s="261"/>
+      <c r="AN16" s="245"/>
+      <c r="AO16" s="246"/>
+      <c r="AP16" s="246"/>
+      <c r="AQ16" s="246"/>
+      <c r="AR16" s="247"/>
+      <c r="AS16" s="245"/>
+      <c r="AT16" s="246"/>
+      <c r="AU16" s="246"/>
+      <c r="AV16" s="246"/>
+      <c r="AW16" s="247"/>
     </row>
     <row r="17" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A17" s="58"/>
-      <c r="B17" s="264"/>
-      <c r="C17" s="265"/>
-      <c r="D17" s="266"/>
-      <c r="E17" s="256"/>
-      <c r="F17" s="256"/>
-      <c r="G17" s="256"/>
-      <c r="H17" s="256"/>
-      <c r="I17" s="256"/>
-      <c r="J17" s="257"/>
-      <c r="K17" s="258"/>
-      <c r="L17" s="259"/>
-      <c r="M17" s="267"/>
-      <c r="N17" s="268"/>
-      <c r="O17" s="268"/>
-      <c r="P17" s="268"/>
-      <c r="Q17" s="268"/>
-      <c r="R17" s="280"/>
-      <c r="S17" s="281"/>
-      <c r="T17" s="281"/>
-      <c r="U17" s="281"/>
-      <c r="V17" s="270"/>
-      <c r="W17" s="271"/>
-      <c r="X17" s="271"/>
-      <c r="Y17" s="271"/>
-      <c r="Z17" s="271"/>
-      <c r="AA17" s="271"/>
-      <c r="AB17" s="271"/>
-      <c r="AC17" s="271"/>
-      <c r="AD17" s="271"/>
-      <c r="AE17" s="271"/>
-      <c r="AF17" s="271"/>
-      <c r="AG17" s="271"/>
-      <c r="AH17" s="271"/>
-      <c r="AI17" s="271"/>
-      <c r="AJ17" s="271"/>
-      <c r="AK17" s="271"/>
-      <c r="AL17" s="271"/>
-      <c r="AM17" s="272"/>
-      <c r="AN17" s="273"/>
-      <c r="AO17" s="274"/>
-      <c r="AP17" s="274"/>
-      <c r="AQ17" s="274"/>
-      <c r="AR17" s="275"/>
-      <c r="AS17" s="273"/>
-      <c r="AT17" s="274"/>
-      <c r="AU17" s="274"/>
-      <c r="AV17" s="274"/>
-      <c r="AW17" s="275"/>
+      <c r="B17" s="248"/>
+      <c r="C17" s="249"/>
+      <c r="D17" s="250"/>
+      <c r="E17" s="251"/>
+      <c r="F17" s="251"/>
+      <c r="G17" s="251"/>
+      <c r="H17" s="251"/>
+      <c r="I17" s="251"/>
+      <c r="J17" s="252"/>
+      <c r="K17" s="253"/>
+      <c r="L17" s="254"/>
+      <c r="M17" s="265"/>
+      <c r="N17" s="263"/>
+      <c r="O17" s="263"/>
+      <c r="P17" s="263"/>
+      <c r="Q17" s="263"/>
+      <c r="R17" s="266"/>
+      <c r="S17" s="267"/>
+      <c r="T17" s="267"/>
+      <c r="U17" s="267"/>
+      <c r="V17" s="259"/>
+      <c r="W17" s="260"/>
+      <c r="X17" s="260"/>
+      <c r="Y17" s="260"/>
+      <c r="Z17" s="260"/>
+      <c r="AA17" s="260"/>
+      <c r="AB17" s="260"/>
+      <c r="AC17" s="260"/>
+      <c r="AD17" s="260"/>
+      <c r="AE17" s="260"/>
+      <c r="AF17" s="260"/>
+      <c r="AG17" s="260"/>
+      <c r="AH17" s="260"/>
+      <c r="AI17" s="260"/>
+      <c r="AJ17" s="260"/>
+      <c r="AK17" s="260"/>
+      <c r="AL17" s="260"/>
+      <c r="AM17" s="261"/>
+      <c r="AN17" s="245"/>
+      <c r="AO17" s="246"/>
+      <c r="AP17" s="246"/>
+      <c r="AQ17" s="246"/>
+      <c r="AR17" s="247"/>
+      <c r="AS17" s="245"/>
+      <c r="AT17" s="246"/>
+      <c r="AU17" s="246"/>
+      <c r="AV17" s="246"/>
+      <c r="AW17" s="247"/>
     </row>
     <row r="18" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A18" s="58"/>
-      <c r="B18" s="264"/>
-      <c r="C18" s="265"/>
-      <c r="D18" s="266"/>
-      <c r="E18" s="256"/>
-      <c r="F18" s="256"/>
-      <c r="G18" s="256"/>
-      <c r="H18" s="256"/>
-      <c r="I18" s="256"/>
-      <c r="J18" s="257"/>
-      <c r="K18" s="258"/>
-      <c r="L18" s="259"/>
-      <c r="M18" s="278"/>
-      <c r="N18" s="268"/>
-      <c r="O18" s="268"/>
-      <c r="P18" s="268"/>
-      <c r="Q18" s="268"/>
-      <c r="R18" s="269"/>
-      <c r="S18" s="254"/>
-      <c r="T18" s="254"/>
-      <c r="U18" s="254"/>
-      <c r="V18" s="270"/>
-      <c r="W18" s="271"/>
-      <c r="X18" s="271"/>
-      <c r="Y18" s="271"/>
-      <c r="Z18" s="271"/>
-      <c r="AA18" s="271"/>
-      <c r="AB18" s="271"/>
-      <c r="AC18" s="271"/>
-      <c r="AD18" s="271"/>
-      <c r="AE18" s="271"/>
-      <c r="AF18" s="271"/>
-      <c r="AG18" s="271"/>
-      <c r="AH18" s="271"/>
-      <c r="AI18" s="271"/>
-      <c r="AJ18" s="271"/>
-      <c r="AK18" s="271"/>
-      <c r="AL18" s="271"/>
-      <c r="AM18" s="272"/>
-      <c r="AN18" s="273"/>
-      <c r="AO18" s="274"/>
-      <c r="AP18" s="274"/>
-      <c r="AQ18" s="274"/>
-      <c r="AR18" s="275"/>
-      <c r="AS18" s="273"/>
-      <c r="AT18" s="274"/>
-      <c r="AU18" s="274"/>
-      <c r="AV18" s="274"/>
-      <c r="AW18" s="275"/>
+      <c r="B18" s="248"/>
+      <c r="C18" s="249"/>
+      <c r="D18" s="250"/>
+      <c r="E18" s="251"/>
+      <c r="F18" s="251"/>
+      <c r="G18" s="251"/>
+      <c r="H18" s="251"/>
+      <c r="I18" s="251"/>
+      <c r="J18" s="252"/>
+      <c r="K18" s="253"/>
+      <c r="L18" s="254"/>
+      <c r="M18" s="262"/>
+      <c r="N18" s="263"/>
+      <c r="O18" s="263"/>
+      <c r="P18" s="263"/>
+      <c r="Q18" s="263"/>
+      <c r="R18" s="264"/>
+      <c r="S18" s="258"/>
+      <c r="T18" s="258"/>
+      <c r="U18" s="258"/>
+      <c r="V18" s="259"/>
+      <c r="W18" s="260"/>
+      <c r="X18" s="260"/>
+      <c r="Y18" s="260"/>
+      <c r="Z18" s="260"/>
+      <c r="AA18" s="260"/>
+      <c r="AB18" s="260"/>
+      <c r="AC18" s="260"/>
+      <c r="AD18" s="260"/>
+      <c r="AE18" s="260"/>
+      <c r="AF18" s="260"/>
+      <c r="AG18" s="260"/>
+      <c r="AH18" s="260"/>
+      <c r="AI18" s="260"/>
+      <c r="AJ18" s="260"/>
+      <c r="AK18" s="260"/>
+      <c r="AL18" s="260"/>
+      <c r="AM18" s="261"/>
+      <c r="AN18" s="245"/>
+      <c r="AO18" s="246"/>
+      <c r="AP18" s="246"/>
+      <c r="AQ18" s="246"/>
+      <c r="AR18" s="247"/>
+      <c r="AS18" s="245"/>
+      <c r="AT18" s="246"/>
+      <c r="AU18" s="246"/>
+      <c r="AV18" s="246"/>
+      <c r="AW18" s="247"/>
     </row>
     <row r="19" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A19" s="58"/>
-      <c r="B19" s="264"/>
-      <c r="C19" s="265"/>
-      <c r="D19" s="266"/>
-      <c r="E19" s="256"/>
-      <c r="F19" s="256"/>
-      <c r="G19" s="256"/>
-      <c r="H19" s="256"/>
-      <c r="I19" s="256"/>
-      <c r="J19" s="257"/>
-      <c r="K19" s="258"/>
-      <c r="L19" s="259"/>
-      <c r="M19" s="267"/>
-      <c r="N19" s="268"/>
-      <c r="O19" s="268"/>
-      <c r="P19" s="268"/>
-      <c r="Q19" s="268"/>
-      <c r="R19" s="269"/>
-      <c r="S19" s="254"/>
-      <c r="T19" s="254"/>
-      <c r="U19" s="254"/>
-      <c r="V19" s="270"/>
-      <c r="W19" s="271"/>
-      <c r="X19" s="271"/>
-      <c r="Y19" s="271"/>
-      <c r="Z19" s="271"/>
-      <c r="AA19" s="271"/>
-      <c r="AB19" s="271"/>
-      <c r="AC19" s="271"/>
-      <c r="AD19" s="271"/>
-      <c r="AE19" s="271"/>
-      <c r="AF19" s="271"/>
-      <c r="AG19" s="271"/>
-      <c r="AH19" s="271"/>
-      <c r="AI19" s="271"/>
-      <c r="AJ19" s="271"/>
-      <c r="AK19" s="271"/>
-      <c r="AL19" s="271"/>
-      <c r="AM19" s="272"/>
-      <c r="AN19" s="254"/>
-      <c r="AO19" s="254"/>
-      <c r="AP19" s="254"/>
-      <c r="AQ19" s="254"/>
-      <c r="AR19" s="254"/>
-      <c r="AS19" s="273"/>
-      <c r="AT19" s="274"/>
-      <c r="AU19" s="274"/>
-      <c r="AV19" s="274"/>
-      <c r="AW19" s="275"/>
+      <c r="B19" s="248"/>
+      <c r="C19" s="249"/>
+      <c r="D19" s="250"/>
+      <c r="E19" s="251"/>
+      <c r="F19" s="251"/>
+      <c r="G19" s="251"/>
+      <c r="H19" s="251"/>
+      <c r="I19" s="251"/>
+      <c r="J19" s="252"/>
+      <c r="K19" s="253"/>
+      <c r="L19" s="254"/>
+      <c r="M19" s="265"/>
+      <c r="N19" s="263"/>
+      <c r="O19" s="263"/>
+      <c r="P19" s="263"/>
+      <c r="Q19" s="263"/>
+      <c r="R19" s="264"/>
+      <c r="S19" s="258"/>
+      <c r="T19" s="258"/>
+      <c r="U19" s="258"/>
+      <c r="V19" s="259"/>
+      <c r="W19" s="260"/>
+      <c r="X19" s="260"/>
+      <c r="Y19" s="260"/>
+      <c r="Z19" s="260"/>
+      <c r="AA19" s="260"/>
+      <c r="AB19" s="260"/>
+      <c r="AC19" s="260"/>
+      <c r="AD19" s="260"/>
+      <c r="AE19" s="260"/>
+      <c r="AF19" s="260"/>
+      <c r="AG19" s="260"/>
+      <c r="AH19" s="260"/>
+      <c r="AI19" s="260"/>
+      <c r="AJ19" s="260"/>
+      <c r="AK19" s="260"/>
+      <c r="AL19" s="260"/>
+      <c r="AM19" s="261"/>
+      <c r="AN19" s="258"/>
+      <c r="AO19" s="258"/>
+      <c r="AP19" s="258"/>
+      <c r="AQ19" s="258"/>
+      <c r="AR19" s="258"/>
+      <c r="AS19" s="245"/>
+      <c r="AT19" s="246"/>
+      <c r="AU19" s="246"/>
+      <c r="AV19" s="246"/>
+      <c r="AW19" s="247"/>
     </row>
     <row r="20" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A20" s="58"/>
-      <c r="B20" s="264"/>
-      <c r="C20" s="265"/>
-      <c r="D20" s="266"/>
-      <c r="E20" s="256"/>
-      <c r="F20" s="256"/>
-      <c r="G20" s="256"/>
-      <c r="H20" s="256"/>
-      <c r="I20" s="256"/>
-      <c r="J20" s="257"/>
-      <c r="K20" s="258"/>
-      <c r="L20" s="259"/>
-      <c r="M20" s="267"/>
-      <c r="N20" s="268"/>
-      <c r="O20" s="268"/>
-      <c r="P20" s="268"/>
-      <c r="Q20" s="268"/>
-      <c r="R20" s="269"/>
-      <c r="S20" s="273"/>
-      <c r="T20" s="274"/>
-      <c r="U20" s="275"/>
-      <c r="V20" s="270"/>
-      <c r="W20" s="271"/>
-      <c r="X20" s="271"/>
-      <c r="Y20" s="271"/>
-      <c r="Z20" s="271"/>
-      <c r="AA20" s="271"/>
-      <c r="AB20" s="271"/>
-      <c r="AC20" s="271"/>
-      <c r="AD20" s="271"/>
-      <c r="AE20" s="271"/>
-      <c r="AF20" s="271"/>
-      <c r="AG20" s="271"/>
-      <c r="AH20" s="271"/>
-      <c r="AI20" s="271"/>
-      <c r="AJ20" s="271"/>
-      <c r="AK20" s="271"/>
-      <c r="AL20" s="271"/>
-      <c r="AM20" s="272"/>
-      <c r="AN20" s="273"/>
-      <c r="AO20" s="274"/>
-      <c r="AP20" s="274"/>
-      <c r="AQ20" s="274"/>
-      <c r="AR20" s="275"/>
-      <c r="AS20" s="273"/>
-      <c r="AT20" s="274"/>
-      <c r="AU20" s="274"/>
-      <c r="AV20" s="274"/>
-      <c r="AW20" s="275"/>
+      <c r="B20" s="248"/>
+      <c r="C20" s="249"/>
+      <c r="D20" s="250"/>
+      <c r="E20" s="251"/>
+      <c r="F20" s="251"/>
+      <c r="G20" s="251"/>
+      <c r="H20" s="251"/>
+      <c r="I20" s="251"/>
+      <c r="J20" s="252"/>
+      <c r="K20" s="253"/>
+      <c r="L20" s="254"/>
+      <c r="M20" s="265"/>
+      <c r="N20" s="263"/>
+      <c r="O20" s="263"/>
+      <c r="P20" s="263"/>
+      <c r="Q20" s="263"/>
+      <c r="R20" s="264"/>
+      <c r="S20" s="245"/>
+      <c r="T20" s="246"/>
+      <c r="U20" s="247"/>
+      <c r="V20" s="259"/>
+      <c r="W20" s="260"/>
+      <c r="X20" s="260"/>
+      <c r="Y20" s="260"/>
+      <c r="Z20" s="260"/>
+      <c r="AA20" s="260"/>
+      <c r="AB20" s="260"/>
+      <c r="AC20" s="260"/>
+      <c r="AD20" s="260"/>
+      <c r="AE20" s="260"/>
+      <c r="AF20" s="260"/>
+      <c r="AG20" s="260"/>
+      <c r="AH20" s="260"/>
+      <c r="AI20" s="260"/>
+      <c r="AJ20" s="260"/>
+      <c r="AK20" s="260"/>
+      <c r="AL20" s="260"/>
+      <c r="AM20" s="261"/>
+      <c r="AN20" s="245"/>
+      <c r="AO20" s="246"/>
+      <c r="AP20" s="246"/>
+      <c r="AQ20" s="246"/>
+      <c r="AR20" s="247"/>
+      <c r="AS20" s="245"/>
+      <c r="AT20" s="246"/>
+      <c r="AU20" s="246"/>
+      <c r="AV20" s="246"/>
+      <c r="AW20" s="247"/>
     </row>
     <row r="21" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A21" s="58"/>
-      <c r="B21" s="264"/>
-      <c r="C21" s="265"/>
-      <c r="D21" s="266"/>
-      <c r="E21" s="256"/>
-      <c r="F21" s="256"/>
-      <c r="G21" s="256"/>
-      <c r="H21" s="256"/>
-      <c r="I21" s="256"/>
-      <c r="J21" s="257"/>
-      <c r="K21" s="258"/>
-      <c r="L21" s="259"/>
-      <c r="M21" s="267"/>
-      <c r="N21" s="268"/>
-      <c r="O21" s="268"/>
-      <c r="P21" s="268"/>
-      <c r="Q21" s="268"/>
-      <c r="R21" s="269"/>
-      <c r="S21" s="254"/>
-      <c r="T21" s="254"/>
-      <c r="U21" s="254"/>
-      <c r="V21" s="270"/>
-      <c r="W21" s="271"/>
-      <c r="X21" s="271"/>
-      <c r="Y21" s="271"/>
-      <c r="Z21" s="271"/>
-      <c r="AA21" s="271"/>
-      <c r="AB21" s="271"/>
-      <c r="AC21" s="271"/>
-      <c r="AD21" s="271"/>
-      <c r="AE21" s="271"/>
-      <c r="AF21" s="271"/>
-      <c r="AG21" s="271"/>
-      <c r="AH21" s="271"/>
-      <c r="AI21" s="271"/>
-      <c r="AJ21" s="271"/>
-      <c r="AK21" s="271"/>
-      <c r="AL21" s="271"/>
-      <c r="AM21" s="272"/>
-      <c r="AN21" s="273"/>
-      <c r="AO21" s="274"/>
-      <c r="AP21" s="274"/>
-      <c r="AQ21" s="274"/>
-      <c r="AR21" s="275"/>
-      <c r="AS21" s="273"/>
-      <c r="AT21" s="274"/>
-      <c r="AU21" s="274"/>
-      <c r="AV21" s="274"/>
-      <c r="AW21" s="275"/>
+      <c r="B21" s="248"/>
+      <c r="C21" s="249"/>
+      <c r="D21" s="250"/>
+      <c r="E21" s="251"/>
+      <c r="F21" s="251"/>
+      <c r="G21" s="251"/>
+      <c r="H21" s="251"/>
+      <c r="I21" s="251"/>
+      <c r="J21" s="252"/>
+      <c r="K21" s="253"/>
+      <c r="L21" s="254"/>
+      <c r="M21" s="265"/>
+      <c r="N21" s="263"/>
+      <c r="O21" s="263"/>
+      <c r="P21" s="263"/>
+      <c r="Q21" s="263"/>
+      <c r="R21" s="264"/>
+      <c r="S21" s="258"/>
+      <c r="T21" s="258"/>
+      <c r="U21" s="258"/>
+      <c r="V21" s="259"/>
+      <c r="W21" s="260"/>
+      <c r="X21" s="260"/>
+      <c r="Y21" s="260"/>
+      <c r="Z21" s="260"/>
+      <c r="AA21" s="260"/>
+      <c r="AB21" s="260"/>
+      <c r="AC21" s="260"/>
+      <c r="AD21" s="260"/>
+      <c r="AE21" s="260"/>
+      <c r="AF21" s="260"/>
+      <c r="AG21" s="260"/>
+      <c r="AH21" s="260"/>
+      <c r="AI21" s="260"/>
+      <c r="AJ21" s="260"/>
+      <c r="AK21" s="260"/>
+      <c r="AL21" s="260"/>
+      <c r="AM21" s="261"/>
+      <c r="AN21" s="245"/>
+      <c r="AO21" s="246"/>
+      <c r="AP21" s="246"/>
+      <c r="AQ21" s="246"/>
+      <c r="AR21" s="247"/>
+      <c r="AS21" s="245"/>
+      <c r="AT21" s="246"/>
+      <c r="AU21" s="246"/>
+      <c r="AV21" s="246"/>
+      <c r="AW21" s="247"/>
     </row>
     <row r="22" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A22" s="58"/>
-      <c r="B22" s="264"/>
-      <c r="C22" s="265"/>
-      <c r="D22" s="266"/>
-      <c r="E22" s="256"/>
-      <c r="F22" s="256"/>
-      <c r="G22" s="256"/>
-      <c r="H22" s="256"/>
-      <c r="I22" s="256"/>
-      <c r="J22" s="257"/>
-      <c r="K22" s="258"/>
-      <c r="L22" s="259"/>
-      <c r="M22" s="267"/>
-      <c r="N22" s="268"/>
-      <c r="O22" s="268"/>
-      <c r="P22" s="268"/>
-      <c r="Q22" s="268"/>
-      <c r="R22" s="269"/>
-      <c r="S22" s="254"/>
-      <c r="T22" s="254"/>
-      <c r="U22" s="254"/>
-      <c r="V22" s="270"/>
-      <c r="W22" s="271"/>
-      <c r="X22" s="271"/>
-      <c r="Y22" s="271"/>
-      <c r="Z22" s="271"/>
-      <c r="AA22" s="271"/>
-      <c r="AB22" s="271"/>
-      <c r="AC22" s="271"/>
-      <c r="AD22" s="271"/>
-      <c r="AE22" s="271"/>
-      <c r="AF22" s="271"/>
-      <c r="AG22" s="271"/>
-      <c r="AH22" s="271"/>
-      <c r="AI22" s="271"/>
-      <c r="AJ22" s="271"/>
-      <c r="AK22" s="271"/>
-      <c r="AL22" s="271"/>
-      <c r="AM22" s="272"/>
-      <c r="AN22" s="273"/>
-      <c r="AO22" s="274"/>
-      <c r="AP22" s="274"/>
-      <c r="AQ22" s="274"/>
-      <c r="AR22" s="275"/>
-      <c r="AS22" s="273"/>
-      <c r="AT22" s="274"/>
-      <c r="AU22" s="274"/>
-      <c r="AV22" s="274"/>
-      <c r="AW22" s="275"/>
+      <c r="B22" s="248"/>
+      <c r="C22" s="249"/>
+      <c r="D22" s="250"/>
+      <c r="E22" s="251"/>
+      <c r="F22" s="251"/>
+      <c r="G22" s="251"/>
+      <c r="H22" s="251"/>
+      <c r="I22" s="251"/>
+      <c r="J22" s="252"/>
+      <c r="K22" s="253"/>
+      <c r="L22" s="254"/>
+      <c r="M22" s="265"/>
+      <c r="N22" s="263"/>
+      <c r="O22" s="263"/>
+      <c r="P22" s="263"/>
+      <c r="Q22" s="263"/>
+      <c r="R22" s="264"/>
+      <c r="S22" s="258"/>
+      <c r="T22" s="258"/>
+      <c r="U22" s="258"/>
+      <c r="V22" s="259"/>
+      <c r="W22" s="260"/>
+      <c r="X22" s="260"/>
+      <c r="Y22" s="260"/>
+      <c r="Z22" s="260"/>
+      <c r="AA22" s="260"/>
+      <c r="AB22" s="260"/>
+      <c r="AC22" s="260"/>
+      <c r="AD22" s="260"/>
+      <c r="AE22" s="260"/>
+      <c r="AF22" s="260"/>
+      <c r="AG22" s="260"/>
+      <c r="AH22" s="260"/>
+      <c r="AI22" s="260"/>
+      <c r="AJ22" s="260"/>
+      <c r="AK22" s="260"/>
+      <c r="AL22" s="260"/>
+      <c r="AM22" s="261"/>
+      <c r="AN22" s="245"/>
+      <c r="AO22" s="246"/>
+      <c r="AP22" s="246"/>
+      <c r="AQ22" s="246"/>
+      <c r="AR22" s="247"/>
+      <c r="AS22" s="245"/>
+      <c r="AT22" s="246"/>
+      <c r="AU22" s="246"/>
+      <c r="AV22" s="246"/>
+      <c r="AW22" s="247"/>
     </row>
     <row r="23" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A23" s="56"/>
-      <c r="B23" s="264"/>
-      <c r="C23" s="265"/>
-      <c r="D23" s="266"/>
-      <c r="E23" s="256"/>
-      <c r="F23" s="256"/>
-      <c r="G23" s="256"/>
-      <c r="H23" s="256"/>
-      <c r="I23" s="256"/>
-      <c r="J23" s="257"/>
-      <c r="K23" s="258"/>
-      <c r="L23" s="259"/>
-      <c r="M23" s="267"/>
-      <c r="N23" s="268"/>
-      <c r="O23" s="268"/>
-      <c r="P23" s="268"/>
-      <c r="Q23" s="268"/>
-      <c r="R23" s="269"/>
-      <c r="S23" s="254"/>
-      <c r="T23" s="254"/>
-      <c r="U23" s="254"/>
-      <c r="V23" s="270"/>
-      <c r="W23" s="271"/>
-      <c r="X23" s="271"/>
-      <c r="Y23" s="271"/>
-      <c r="Z23" s="271"/>
-      <c r="AA23" s="271"/>
-      <c r="AB23" s="271"/>
-      <c r="AC23" s="271"/>
-      <c r="AD23" s="271"/>
-      <c r="AE23" s="271"/>
-      <c r="AF23" s="271"/>
-      <c r="AG23" s="271"/>
-      <c r="AH23" s="271"/>
-      <c r="AI23" s="271"/>
-      <c r="AJ23" s="271"/>
-      <c r="AK23" s="271"/>
-      <c r="AL23" s="271"/>
-      <c r="AM23" s="272"/>
-      <c r="AN23" s="273"/>
-      <c r="AO23" s="274"/>
-      <c r="AP23" s="274"/>
-      <c r="AQ23" s="274"/>
-      <c r="AR23" s="275"/>
-      <c r="AS23" s="273"/>
-      <c r="AT23" s="274"/>
-      <c r="AU23" s="274"/>
-      <c r="AV23" s="274"/>
-      <c r="AW23" s="275"/>
+      <c r="B23" s="248"/>
+      <c r="C23" s="249"/>
+      <c r="D23" s="250"/>
+      <c r="E23" s="251"/>
+      <c r="F23" s="251"/>
+      <c r="G23" s="251"/>
+      <c r="H23" s="251"/>
+      <c r="I23" s="251"/>
+      <c r="J23" s="252"/>
+      <c r="K23" s="253"/>
+      <c r="L23" s="254"/>
+      <c r="M23" s="265"/>
+      <c r="N23" s="263"/>
+      <c r="O23" s="263"/>
+      <c r="P23" s="263"/>
+      <c r="Q23" s="263"/>
+      <c r="R23" s="264"/>
+      <c r="S23" s="258"/>
+      <c r="T23" s="258"/>
+      <c r="U23" s="258"/>
+      <c r="V23" s="259"/>
+      <c r="W23" s="260"/>
+      <c r="X23" s="260"/>
+      <c r="Y23" s="260"/>
+      <c r="Z23" s="260"/>
+      <c r="AA23" s="260"/>
+      <c r="AB23" s="260"/>
+      <c r="AC23" s="260"/>
+      <c r="AD23" s="260"/>
+      <c r="AE23" s="260"/>
+      <c r="AF23" s="260"/>
+      <c r="AG23" s="260"/>
+      <c r="AH23" s="260"/>
+      <c r="AI23" s="260"/>
+      <c r="AJ23" s="260"/>
+      <c r="AK23" s="260"/>
+      <c r="AL23" s="260"/>
+      <c r="AM23" s="261"/>
+      <c r="AN23" s="245"/>
+      <c r="AO23" s="246"/>
+      <c r="AP23" s="246"/>
+      <c r="AQ23" s="246"/>
+      <c r="AR23" s="247"/>
+      <c r="AS23" s="245"/>
+      <c r="AT23" s="246"/>
+      <c r="AU23" s="246"/>
+      <c r="AV23" s="246"/>
+      <c r="AW23" s="247"/>
     </row>
     <row r="24" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A24" s="56"/>
-      <c r="B24" s="264"/>
-      <c r="C24" s="265"/>
-      <c r="D24" s="266"/>
-      <c r="E24" s="256"/>
-      <c r="F24" s="256"/>
-      <c r="G24" s="256"/>
-      <c r="H24" s="256"/>
-      <c r="I24" s="256"/>
-      <c r="J24" s="257"/>
-      <c r="K24" s="258"/>
-      <c r="L24" s="259"/>
-      <c r="M24" s="267"/>
-      <c r="N24" s="268"/>
-      <c r="O24" s="268"/>
-      <c r="P24" s="268"/>
-      <c r="Q24" s="268"/>
-      <c r="R24" s="269"/>
-      <c r="S24" s="254"/>
-      <c r="T24" s="254"/>
-      <c r="U24" s="254"/>
-      <c r="V24" s="270"/>
-      <c r="W24" s="271"/>
-      <c r="X24" s="271"/>
-      <c r="Y24" s="271"/>
-      <c r="Z24" s="271"/>
-      <c r="AA24" s="271"/>
-      <c r="AB24" s="271"/>
-      <c r="AC24" s="271"/>
-      <c r="AD24" s="271"/>
-      <c r="AE24" s="271"/>
-      <c r="AF24" s="271"/>
-      <c r="AG24" s="271"/>
-      <c r="AH24" s="271"/>
-      <c r="AI24" s="271"/>
-      <c r="AJ24" s="271"/>
-      <c r="AK24" s="271"/>
-      <c r="AL24" s="271"/>
-      <c r="AM24" s="272"/>
-      <c r="AN24" s="273"/>
-      <c r="AO24" s="274"/>
-      <c r="AP24" s="274"/>
-      <c r="AQ24" s="274"/>
-      <c r="AR24" s="275"/>
-      <c r="AS24" s="273"/>
-      <c r="AT24" s="274"/>
-      <c r="AU24" s="274"/>
-      <c r="AV24" s="274"/>
-      <c r="AW24" s="275"/>
+      <c r="B24" s="248"/>
+      <c r="C24" s="249"/>
+      <c r="D24" s="250"/>
+      <c r="E24" s="251"/>
+      <c r="F24" s="251"/>
+      <c r="G24" s="251"/>
+      <c r="H24" s="251"/>
+      <c r="I24" s="251"/>
+      <c r="J24" s="252"/>
+      <c r="K24" s="253"/>
+      <c r="L24" s="254"/>
+      <c r="M24" s="265"/>
+      <c r="N24" s="263"/>
+      <c r="O24" s="263"/>
+      <c r="P24" s="263"/>
+      <c r="Q24" s="263"/>
+      <c r="R24" s="264"/>
+      <c r="S24" s="258"/>
+      <c r="T24" s="258"/>
+      <c r="U24" s="258"/>
+      <c r="V24" s="259"/>
+      <c r="W24" s="260"/>
+      <c r="X24" s="260"/>
+      <c r="Y24" s="260"/>
+      <c r="Z24" s="260"/>
+      <c r="AA24" s="260"/>
+      <c r="AB24" s="260"/>
+      <c r="AC24" s="260"/>
+      <c r="AD24" s="260"/>
+      <c r="AE24" s="260"/>
+      <c r="AF24" s="260"/>
+      <c r="AG24" s="260"/>
+      <c r="AH24" s="260"/>
+      <c r="AI24" s="260"/>
+      <c r="AJ24" s="260"/>
+      <c r="AK24" s="260"/>
+      <c r="AL24" s="260"/>
+      <c r="AM24" s="261"/>
+      <c r="AN24" s="245"/>
+      <c r="AO24" s="246"/>
+      <c r="AP24" s="246"/>
+      <c r="AQ24" s="246"/>
+      <c r="AR24" s="247"/>
+      <c r="AS24" s="245"/>
+      <c r="AT24" s="246"/>
+      <c r="AU24" s="246"/>
+      <c r="AV24" s="246"/>
+      <c r="AW24" s="247"/>
     </row>
     <row r="25" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A25" s="56"/>
-      <c r="B25" s="264"/>
-      <c r="C25" s="265"/>
-      <c r="D25" s="266"/>
-      <c r="E25" s="256"/>
-      <c r="F25" s="256"/>
-      <c r="G25" s="256"/>
-      <c r="H25" s="256"/>
-      <c r="I25" s="256"/>
-      <c r="J25" s="257"/>
-      <c r="K25" s="258"/>
-      <c r="L25" s="259"/>
-      <c r="M25" s="278"/>
-      <c r="N25" s="268"/>
-      <c r="O25" s="268"/>
-      <c r="P25" s="268"/>
-      <c r="Q25" s="268"/>
-      <c r="R25" s="269"/>
-      <c r="S25" s="254"/>
-      <c r="T25" s="254"/>
-      <c r="U25" s="254"/>
-      <c r="V25" s="270"/>
-      <c r="W25" s="271"/>
-      <c r="X25" s="271"/>
-      <c r="Y25" s="271"/>
-      <c r="Z25" s="271"/>
-      <c r="AA25" s="271"/>
-      <c r="AB25" s="271"/>
-      <c r="AC25" s="271"/>
-      <c r="AD25" s="271"/>
-      <c r="AE25" s="271"/>
-      <c r="AF25" s="271"/>
-      <c r="AG25" s="271"/>
-      <c r="AH25" s="271"/>
-      <c r="AI25" s="271"/>
-      <c r="AJ25" s="271"/>
-      <c r="AK25" s="271"/>
-      <c r="AL25" s="271"/>
-      <c r="AM25" s="272"/>
-      <c r="AN25" s="273"/>
-      <c r="AO25" s="274"/>
-      <c r="AP25" s="274"/>
-      <c r="AQ25" s="274"/>
-      <c r="AR25" s="275"/>
-      <c r="AS25" s="273"/>
-      <c r="AT25" s="274"/>
-      <c r="AU25" s="274"/>
-      <c r="AV25" s="274"/>
-      <c r="AW25" s="275"/>
+      <c r="B25" s="248"/>
+      <c r="C25" s="249"/>
+      <c r="D25" s="250"/>
+      <c r="E25" s="251"/>
+      <c r="F25" s="251"/>
+      <c r="G25" s="251"/>
+      <c r="H25" s="251"/>
+      <c r="I25" s="251"/>
+      <c r="J25" s="252"/>
+      <c r="K25" s="253"/>
+      <c r="L25" s="254"/>
+      <c r="M25" s="262"/>
+      <c r="N25" s="263"/>
+      <c r="O25" s="263"/>
+      <c r="P25" s="263"/>
+      <c r="Q25" s="263"/>
+      <c r="R25" s="264"/>
+      <c r="S25" s="258"/>
+      <c r="T25" s="258"/>
+      <c r="U25" s="258"/>
+      <c r="V25" s="259"/>
+      <c r="W25" s="260"/>
+      <c r="X25" s="260"/>
+      <c r="Y25" s="260"/>
+      <c r="Z25" s="260"/>
+      <c r="AA25" s="260"/>
+      <c r="AB25" s="260"/>
+      <c r="AC25" s="260"/>
+      <c r="AD25" s="260"/>
+      <c r="AE25" s="260"/>
+      <c r="AF25" s="260"/>
+      <c r="AG25" s="260"/>
+      <c r="AH25" s="260"/>
+      <c r="AI25" s="260"/>
+      <c r="AJ25" s="260"/>
+      <c r="AK25" s="260"/>
+      <c r="AL25" s="260"/>
+      <c r="AM25" s="261"/>
+      <c r="AN25" s="245"/>
+      <c r="AO25" s="246"/>
+      <c r="AP25" s="246"/>
+      <c r="AQ25" s="246"/>
+      <c r="AR25" s="247"/>
+      <c r="AS25" s="245"/>
+      <c r="AT25" s="246"/>
+      <c r="AU25" s="246"/>
+      <c r="AV25" s="246"/>
+      <c r="AW25" s="247"/>
     </row>
     <row r="26" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A26" s="56"/>
-      <c r="B26" s="264"/>
-      <c r="C26" s="265"/>
-      <c r="D26" s="266"/>
-      <c r="E26" s="256"/>
-      <c r="F26" s="256"/>
-      <c r="G26" s="256"/>
-      <c r="H26" s="256"/>
-      <c r="I26" s="256"/>
-      <c r="J26" s="257"/>
-      <c r="K26" s="258"/>
-      <c r="L26" s="259"/>
-      <c r="M26" s="278"/>
-      <c r="N26" s="268"/>
-      <c r="O26" s="268"/>
-      <c r="P26" s="268"/>
-      <c r="Q26" s="268"/>
-      <c r="R26" s="269"/>
-      <c r="S26" s="254"/>
-      <c r="T26" s="254"/>
-      <c r="U26" s="254"/>
-      <c r="V26" s="270"/>
-      <c r="W26" s="271"/>
-      <c r="X26" s="271"/>
-      <c r="Y26" s="271"/>
-      <c r="Z26" s="271"/>
-      <c r="AA26" s="271"/>
-      <c r="AB26" s="271"/>
-      <c r="AC26" s="271"/>
-      <c r="AD26" s="271"/>
-      <c r="AE26" s="271"/>
-      <c r="AF26" s="271"/>
-      <c r="AG26" s="271"/>
-      <c r="AH26" s="271"/>
-      <c r="AI26" s="271"/>
-      <c r="AJ26" s="271"/>
-      <c r="AK26" s="271"/>
-      <c r="AL26" s="271"/>
-      <c r="AM26" s="272"/>
-      <c r="AN26" s="273"/>
-      <c r="AO26" s="274"/>
-      <c r="AP26" s="274"/>
-      <c r="AQ26" s="274"/>
-      <c r="AR26" s="275"/>
-      <c r="AS26" s="273"/>
-      <c r="AT26" s="274"/>
-      <c r="AU26" s="274"/>
-      <c r="AV26" s="274"/>
-      <c r="AW26" s="275"/>
+      <c r="B26" s="248"/>
+      <c r="C26" s="249"/>
+      <c r="D26" s="250"/>
+      <c r="E26" s="251"/>
+      <c r="F26" s="251"/>
+      <c r="G26" s="251"/>
+      <c r="H26" s="251"/>
+      <c r="I26" s="251"/>
+      <c r="J26" s="252"/>
+      <c r="K26" s="253"/>
+      <c r="L26" s="254"/>
+      <c r="M26" s="262"/>
+      <c r="N26" s="263"/>
+      <c r="O26" s="263"/>
+      <c r="P26" s="263"/>
+      <c r="Q26" s="263"/>
+      <c r="R26" s="264"/>
+      <c r="S26" s="258"/>
+      <c r="T26" s="258"/>
+      <c r="U26" s="258"/>
+      <c r="V26" s="259"/>
+      <c r="W26" s="260"/>
+      <c r="X26" s="260"/>
+      <c r="Y26" s="260"/>
+      <c r="Z26" s="260"/>
+      <c r="AA26" s="260"/>
+      <c r="AB26" s="260"/>
+      <c r="AC26" s="260"/>
+      <c r="AD26" s="260"/>
+      <c r="AE26" s="260"/>
+      <c r="AF26" s="260"/>
+      <c r="AG26" s="260"/>
+      <c r="AH26" s="260"/>
+      <c r="AI26" s="260"/>
+      <c r="AJ26" s="260"/>
+      <c r="AK26" s="260"/>
+      <c r="AL26" s="260"/>
+      <c r="AM26" s="261"/>
+      <c r="AN26" s="245"/>
+      <c r="AO26" s="246"/>
+      <c r="AP26" s="246"/>
+      <c r="AQ26" s="246"/>
+      <c r="AR26" s="247"/>
+      <c r="AS26" s="245"/>
+      <c r="AT26" s="246"/>
+      <c r="AU26" s="246"/>
+      <c r="AV26" s="246"/>
+      <c r="AW26" s="247"/>
     </row>
     <row r="27" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A27" s="56"/>
-      <c r="B27" s="264"/>
-      <c r="C27" s="265"/>
-      <c r="D27" s="266"/>
-      <c r="E27" s="256"/>
-      <c r="F27" s="256"/>
-      <c r="G27" s="256"/>
-      <c r="H27" s="256"/>
-      <c r="I27" s="256"/>
-      <c r="J27" s="257"/>
-      <c r="K27" s="258"/>
-      <c r="L27" s="259"/>
-      <c r="M27" s="278"/>
-      <c r="N27" s="268"/>
-      <c r="O27" s="268"/>
-      <c r="P27" s="268"/>
-      <c r="Q27" s="268"/>
-      <c r="R27" s="269"/>
-      <c r="S27" s="254"/>
-      <c r="T27" s="254"/>
-      <c r="U27" s="254"/>
-      <c r="V27" s="270"/>
-      <c r="W27" s="271"/>
-      <c r="X27" s="271"/>
-      <c r="Y27" s="271"/>
-      <c r="Z27" s="271"/>
-      <c r="AA27" s="271"/>
-      <c r="AB27" s="271"/>
-      <c r="AC27" s="271"/>
-      <c r="AD27" s="271"/>
-      <c r="AE27" s="271"/>
-      <c r="AF27" s="271"/>
-      <c r="AG27" s="271"/>
-      <c r="AH27" s="271"/>
-      <c r="AI27" s="271"/>
-      <c r="AJ27" s="271"/>
-      <c r="AK27" s="271"/>
-      <c r="AL27" s="271"/>
-      <c r="AM27" s="272"/>
-      <c r="AN27" s="273"/>
-      <c r="AO27" s="274"/>
-      <c r="AP27" s="274"/>
-      <c r="AQ27" s="274"/>
-      <c r="AR27" s="275"/>
-      <c r="AS27" s="273"/>
-      <c r="AT27" s="274"/>
-      <c r="AU27" s="274"/>
-      <c r="AV27" s="274"/>
-      <c r="AW27" s="275"/>
+      <c r="B27" s="248"/>
+      <c r="C27" s="249"/>
+      <c r="D27" s="250"/>
+      <c r="E27" s="251"/>
+      <c r="F27" s="251"/>
+      <c r="G27" s="251"/>
+      <c r="H27" s="251"/>
+      <c r="I27" s="251"/>
+      <c r="J27" s="252"/>
+      <c r="K27" s="253"/>
+      <c r="L27" s="254"/>
+      <c r="M27" s="262"/>
+      <c r="N27" s="263"/>
+      <c r="O27" s="263"/>
+      <c r="P27" s="263"/>
+      <c r="Q27" s="263"/>
+      <c r="R27" s="264"/>
+      <c r="S27" s="258"/>
+      <c r="T27" s="258"/>
+      <c r="U27" s="258"/>
+      <c r="V27" s="259"/>
+      <c r="W27" s="260"/>
+      <c r="X27" s="260"/>
+      <c r="Y27" s="260"/>
+      <c r="Z27" s="260"/>
+      <c r="AA27" s="260"/>
+      <c r="AB27" s="260"/>
+      <c r="AC27" s="260"/>
+      <c r="AD27" s="260"/>
+      <c r="AE27" s="260"/>
+      <c r="AF27" s="260"/>
+      <c r="AG27" s="260"/>
+      <c r="AH27" s="260"/>
+      <c r="AI27" s="260"/>
+      <c r="AJ27" s="260"/>
+      <c r="AK27" s="260"/>
+      <c r="AL27" s="260"/>
+      <c r="AM27" s="261"/>
+      <c r="AN27" s="245"/>
+      <c r="AO27" s="246"/>
+      <c r="AP27" s="246"/>
+      <c r="AQ27" s="246"/>
+      <c r="AR27" s="247"/>
+      <c r="AS27" s="245"/>
+      <c r="AT27" s="246"/>
+      <c r="AU27" s="246"/>
+      <c r="AV27" s="246"/>
+      <c r="AW27" s="247"/>
     </row>
     <row r="28" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A28" s="56"/>
-      <c r="B28" s="264"/>
-      <c r="C28" s="265"/>
-      <c r="D28" s="266"/>
-      <c r="E28" s="256"/>
-      <c r="F28" s="256"/>
-      <c r="G28" s="256"/>
-      <c r="H28" s="256"/>
-      <c r="I28" s="256"/>
-      <c r="J28" s="257"/>
-      <c r="K28" s="258"/>
-      <c r="L28" s="259"/>
-      <c r="M28" s="267"/>
-      <c r="N28" s="268"/>
-      <c r="O28" s="268"/>
-      <c r="P28" s="268"/>
-      <c r="Q28" s="268"/>
-      <c r="R28" s="269"/>
-      <c r="S28" s="254"/>
-      <c r="T28" s="254"/>
-      <c r="U28" s="254"/>
-      <c r="V28" s="270"/>
-      <c r="W28" s="271"/>
-      <c r="X28" s="271"/>
-      <c r="Y28" s="271"/>
-      <c r="Z28" s="271"/>
-      <c r="AA28" s="271"/>
-      <c r="AB28" s="271"/>
-      <c r="AC28" s="271"/>
-      <c r="AD28" s="271"/>
-      <c r="AE28" s="271"/>
-      <c r="AF28" s="271"/>
-      <c r="AG28" s="271"/>
-      <c r="AH28" s="271"/>
-      <c r="AI28" s="271"/>
-      <c r="AJ28" s="271"/>
-      <c r="AK28" s="271"/>
-      <c r="AL28" s="271"/>
-      <c r="AM28" s="272"/>
-      <c r="AN28" s="273"/>
-      <c r="AO28" s="274"/>
-      <c r="AP28" s="274"/>
-      <c r="AQ28" s="274"/>
-      <c r="AR28" s="275"/>
-      <c r="AS28" s="273"/>
-      <c r="AT28" s="274"/>
-      <c r="AU28" s="274"/>
-      <c r="AV28" s="274"/>
-      <c r="AW28" s="275"/>
+      <c r="B28" s="248"/>
+      <c r="C28" s="249"/>
+      <c r="D28" s="250"/>
+      <c r="E28" s="251"/>
+      <c r="F28" s="251"/>
+      <c r="G28" s="251"/>
+      <c r="H28" s="251"/>
+      <c r="I28" s="251"/>
+      <c r="J28" s="252"/>
+      <c r="K28" s="253"/>
+      <c r="L28" s="254"/>
+      <c r="M28" s="265"/>
+      <c r="N28" s="263"/>
+      <c r="O28" s="263"/>
+      <c r="P28" s="263"/>
+      <c r="Q28" s="263"/>
+      <c r="R28" s="264"/>
+      <c r="S28" s="258"/>
+      <c r="T28" s="258"/>
+      <c r="U28" s="258"/>
+      <c r="V28" s="259"/>
+      <c r="W28" s="260"/>
+      <c r="X28" s="260"/>
+      <c r="Y28" s="260"/>
+      <c r="Z28" s="260"/>
+      <c r="AA28" s="260"/>
+      <c r="AB28" s="260"/>
+      <c r="AC28" s="260"/>
+      <c r="AD28" s="260"/>
+      <c r="AE28" s="260"/>
+      <c r="AF28" s="260"/>
+      <c r="AG28" s="260"/>
+      <c r="AH28" s="260"/>
+      <c r="AI28" s="260"/>
+      <c r="AJ28" s="260"/>
+      <c r="AK28" s="260"/>
+      <c r="AL28" s="260"/>
+      <c r="AM28" s="261"/>
+      <c r="AN28" s="245"/>
+      <c r="AO28" s="246"/>
+      <c r="AP28" s="246"/>
+      <c r="AQ28" s="246"/>
+      <c r="AR28" s="247"/>
+      <c r="AS28" s="245"/>
+      <c r="AT28" s="246"/>
+      <c r="AU28" s="246"/>
+      <c r="AV28" s="246"/>
+      <c r="AW28" s="247"/>
     </row>
     <row r="29" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A29" s="56"/>
-      <c r="B29" s="264"/>
-      <c r="C29" s="265"/>
-      <c r="D29" s="266"/>
-      <c r="E29" s="256"/>
-      <c r="F29" s="256"/>
-      <c r="G29" s="256"/>
-      <c r="H29" s="256"/>
-      <c r="I29" s="256"/>
-      <c r="J29" s="257"/>
-      <c r="K29" s="258"/>
-      <c r="L29" s="259"/>
-      <c r="M29" s="267"/>
-      <c r="N29" s="268"/>
-      <c r="O29" s="268"/>
-      <c r="P29" s="268"/>
-      <c r="Q29" s="268"/>
-      <c r="R29" s="269"/>
-      <c r="S29" s="254"/>
-      <c r="T29" s="254"/>
-      <c r="U29" s="254"/>
-      <c r="V29" s="270"/>
-      <c r="W29" s="271"/>
-      <c r="X29" s="271"/>
-      <c r="Y29" s="271"/>
-      <c r="Z29" s="271"/>
-      <c r="AA29" s="271"/>
-      <c r="AB29" s="271"/>
-      <c r="AC29" s="271"/>
-      <c r="AD29" s="271"/>
-      <c r="AE29" s="271"/>
-      <c r="AF29" s="271"/>
-      <c r="AG29" s="271"/>
-      <c r="AH29" s="271"/>
-      <c r="AI29" s="271"/>
-      <c r="AJ29" s="271"/>
-      <c r="AK29" s="271"/>
-      <c r="AL29" s="271"/>
-      <c r="AM29" s="272"/>
-      <c r="AN29" s="273"/>
-      <c r="AO29" s="274"/>
-      <c r="AP29" s="274"/>
-      <c r="AQ29" s="274"/>
-      <c r="AR29" s="275"/>
-      <c r="AS29" s="273"/>
-      <c r="AT29" s="274"/>
-      <c r="AU29" s="274"/>
-      <c r="AV29" s="274"/>
-      <c r="AW29" s="275"/>
+      <c r="B29" s="248"/>
+      <c r="C29" s="249"/>
+      <c r="D29" s="250"/>
+      <c r="E29" s="251"/>
+      <c r="F29" s="251"/>
+      <c r="G29" s="251"/>
+      <c r="H29" s="251"/>
+      <c r="I29" s="251"/>
+      <c r="J29" s="252"/>
+      <c r="K29" s="253"/>
+      <c r="L29" s="254"/>
+      <c r="M29" s="265"/>
+      <c r="N29" s="263"/>
+      <c r="O29" s="263"/>
+      <c r="P29" s="263"/>
+      <c r="Q29" s="263"/>
+      <c r="R29" s="264"/>
+      <c r="S29" s="258"/>
+      <c r="T29" s="258"/>
+      <c r="U29" s="258"/>
+      <c r="V29" s="259"/>
+      <c r="W29" s="260"/>
+      <c r="X29" s="260"/>
+      <c r="Y29" s="260"/>
+      <c r="Z29" s="260"/>
+      <c r="AA29" s="260"/>
+      <c r="AB29" s="260"/>
+      <c r="AC29" s="260"/>
+      <c r="AD29" s="260"/>
+      <c r="AE29" s="260"/>
+      <c r="AF29" s="260"/>
+      <c r="AG29" s="260"/>
+      <c r="AH29" s="260"/>
+      <c r="AI29" s="260"/>
+      <c r="AJ29" s="260"/>
+      <c r="AK29" s="260"/>
+      <c r="AL29" s="260"/>
+      <c r="AM29" s="261"/>
+      <c r="AN29" s="245"/>
+      <c r="AO29" s="246"/>
+      <c r="AP29" s="246"/>
+      <c r="AQ29" s="246"/>
+      <c r="AR29" s="247"/>
+      <c r="AS29" s="245"/>
+      <c r="AT29" s="246"/>
+      <c r="AU29" s="246"/>
+      <c r="AV29" s="246"/>
+      <c r="AW29" s="247"/>
     </row>
     <row r="30" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A30" s="56"/>
-      <c r="B30" s="264"/>
-      <c r="C30" s="265"/>
-      <c r="D30" s="266"/>
-      <c r="E30" s="256"/>
-      <c r="F30" s="256"/>
-      <c r="G30" s="256"/>
-      <c r="H30" s="256"/>
-      <c r="I30" s="256"/>
-      <c r="J30" s="257"/>
-      <c r="K30" s="258"/>
-      <c r="L30" s="259"/>
-      <c r="M30" s="278"/>
-      <c r="N30" s="268"/>
-      <c r="O30" s="268"/>
-      <c r="P30" s="268"/>
-      <c r="Q30" s="268"/>
-      <c r="R30" s="269"/>
-      <c r="S30" s="254"/>
-      <c r="T30" s="254"/>
-      <c r="U30" s="254"/>
-      <c r="V30" s="270"/>
-      <c r="W30" s="271"/>
-      <c r="X30" s="271"/>
-      <c r="Y30" s="271"/>
-      <c r="Z30" s="271"/>
-      <c r="AA30" s="271"/>
-      <c r="AB30" s="271"/>
-      <c r="AC30" s="271"/>
-      <c r="AD30" s="271"/>
-      <c r="AE30" s="271"/>
-      <c r="AF30" s="271"/>
-      <c r="AG30" s="271"/>
-      <c r="AH30" s="271"/>
-      <c r="AI30" s="271"/>
-      <c r="AJ30" s="271"/>
-      <c r="AK30" s="271"/>
-      <c r="AL30" s="271"/>
-      <c r="AM30" s="272"/>
-      <c r="AN30" s="273"/>
-      <c r="AO30" s="274"/>
-      <c r="AP30" s="274"/>
-      <c r="AQ30" s="274"/>
-      <c r="AR30" s="275"/>
-      <c r="AS30" s="273"/>
-      <c r="AT30" s="274"/>
-      <c r="AU30" s="274"/>
-      <c r="AV30" s="274"/>
-      <c r="AW30" s="275"/>
+      <c r="B30" s="248"/>
+      <c r="C30" s="249"/>
+      <c r="D30" s="250"/>
+      <c r="E30" s="251"/>
+      <c r="F30" s="251"/>
+      <c r="G30" s="251"/>
+      <c r="H30" s="251"/>
+      <c r="I30" s="251"/>
+      <c r="J30" s="252"/>
+      <c r="K30" s="253"/>
+      <c r="L30" s="254"/>
+      <c r="M30" s="262"/>
+      <c r="N30" s="263"/>
+      <c r="O30" s="263"/>
+      <c r="P30" s="263"/>
+      <c r="Q30" s="263"/>
+      <c r="R30" s="264"/>
+      <c r="S30" s="258"/>
+      <c r="T30" s="258"/>
+      <c r="U30" s="258"/>
+      <c r="V30" s="259"/>
+      <c r="W30" s="260"/>
+      <c r="X30" s="260"/>
+      <c r="Y30" s="260"/>
+      <c r="Z30" s="260"/>
+      <c r="AA30" s="260"/>
+      <c r="AB30" s="260"/>
+      <c r="AC30" s="260"/>
+      <c r="AD30" s="260"/>
+      <c r="AE30" s="260"/>
+      <c r="AF30" s="260"/>
+      <c r="AG30" s="260"/>
+      <c r="AH30" s="260"/>
+      <c r="AI30" s="260"/>
+      <c r="AJ30" s="260"/>
+      <c r="AK30" s="260"/>
+      <c r="AL30" s="260"/>
+      <c r="AM30" s="261"/>
+      <c r="AN30" s="245"/>
+      <c r="AO30" s="246"/>
+      <c r="AP30" s="246"/>
+      <c r="AQ30" s="246"/>
+      <c r="AR30" s="247"/>
+      <c r="AS30" s="245"/>
+      <c r="AT30" s="246"/>
+      <c r="AU30" s="246"/>
+      <c r="AV30" s="246"/>
+      <c r="AW30" s="247"/>
     </row>
     <row r="31" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A31" s="56"/>
-      <c r="B31" s="264"/>
-      <c r="C31" s="265"/>
-      <c r="D31" s="266"/>
-      <c r="E31" s="256"/>
-      <c r="F31" s="256"/>
-      <c r="G31" s="256"/>
-      <c r="H31" s="256"/>
-      <c r="I31" s="256"/>
-      <c r="J31" s="257"/>
-      <c r="K31" s="258"/>
-      <c r="L31" s="259"/>
-      <c r="M31" s="278"/>
-      <c r="N31" s="268"/>
-      <c r="O31" s="268"/>
-      <c r="P31" s="268"/>
-      <c r="Q31" s="268"/>
-      <c r="R31" s="269"/>
-      <c r="S31" s="254"/>
-      <c r="T31" s="254"/>
-      <c r="U31" s="254"/>
-      <c r="V31" s="270"/>
-      <c r="W31" s="271"/>
-      <c r="X31" s="271"/>
-      <c r="Y31" s="271"/>
-      <c r="Z31" s="271"/>
-      <c r="AA31" s="271"/>
-      <c r="AB31" s="271"/>
-      <c r="AC31" s="271"/>
-      <c r="AD31" s="271"/>
-      <c r="AE31" s="271"/>
-      <c r="AF31" s="271"/>
-      <c r="AG31" s="271"/>
-      <c r="AH31" s="271"/>
-      <c r="AI31" s="271"/>
-      <c r="AJ31" s="271"/>
-      <c r="AK31" s="271"/>
-      <c r="AL31" s="271"/>
-      <c r="AM31" s="272"/>
-      <c r="AN31" s="273"/>
-      <c r="AO31" s="274"/>
-      <c r="AP31" s="274"/>
-      <c r="AQ31" s="274"/>
-      <c r="AR31" s="275"/>
-      <c r="AS31" s="273"/>
-      <c r="AT31" s="274"/>
-      <c r="AU31" s="274"/>
-      <c r="AV31" s="274"/>
-      <c r="AW31" s="275"/>
+      <c r="B31" s="248"/>
+      <c r="C31" s="249"/>
+      <c r="D31" s="250"/>
+      <c r="E31" s="251"/>
+      <c r="F31" s="251"/>
+      <c r="G31" s="251"/>
+      <c r="H31" s="251"/>
+      <c r="I31" s="251"/>
+      <c r="J31" s="252"/>
+      <c r="K31" s="253"/>
+      <c r="L31" s="254"/>
+      <c r="M31" s="262"/>
+      <c r="N31" s="263"/>
+      <c r="O31" s="263"/>
+      <c r="P31" s="263"/>
+      <c r="Q31" s="263"/>
+      <c r="R31" s="264"/>
+      <c r="S31" s="258"/>
+      <c r="T31" s="258"/>
+      <c r="U31" s="258"/>
+      <c r="V31" s="259"/>
+      <c r="W31" s="260"/>
+      <c r="X31" s="260"/>
+      <c r="Y31" s="260"/>
+      <c r="Z31" s="260"/>
+      <c r="AA31" s="260"/>
+      <c r="AB31" s="260"/>
+      <c r="AC31" s="260"/>
+      <c r="AD31" s="260"/>
+      <c r="AE31" s="260"/>
+      <c r="AF31" s="260"/>
+      <c r="AG31" s="260"/>
+      <c r="AH31" s="260"/>
+      <c r="AI31" s="260"/>
+      <c r="AJ31" s="260"/>
+      <c r="AK31" s="260"/>
+      <c r="AL31" s="260"/>
+      <c r="AM31" s="261"/>
+      <c r="AN31" s="245"/>
+      <c r="AO31" s="246"/>
+      <c r="AP31" s="246"/>
+      <c r="AQ31" s="246"/>
+      <c r="AR31" s="247"/>
+      <c r="AS31" s="245"/>
+      <c r="AT31" s="246"/>
+      <c r="AU31" s="246"/>
+      <c r="AV31" s="246"/>
+      <c r="AW31" s="247"/>
     </row>
     <row r="32" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A32" s="56"/>
-      <c r="B32" s="264"/>
-      <c r="C32" s="265"/>
-      <c r="D32" s="266"/>
-      <c r="E32" s="256"/>
-      <c r="F32" s="256"/>
-      <c r="G32" s="256"/>
-      <c r="H32" s="256"/>
-      <c r="I32" s="256"/>
-      <c r="J32" s="257"/>
-      <c r="K32" s="258"/>
-      <c r="L32" s="259"/>
-      <c r="M32" s="278"/>
-      <c r="N32" s="268"/>
-      <c r="O32" s="268"/>
-      <c r="P32" s="268"/>
-      <c r="Q32" s="268"/>
-      <c r="R32" s="269"/>
-      <c r="S32" s="254"/>
-      <c r="T32" s="254"/>
-      <c r="U32" s="254"/>
-      <c r="V32" s="270"/>
-      <c r="W32" s="271"/>
-      <c r="X32" s="271"/>
-      <c r="Y32" s="271"/>
-      <c r="Z32" s="271"/>
-      <c r="AA32" s="271"/>
-      <c r="AB32" s="271"/>
-      <c r="AC32" s="271"/>
-      <c r="AD32" s="271"/>
-      <c r="AE32" s="271"/>
-      <c r="AF32" s="271"/>
-      <c r="AG32" s="271"/>
-      <c r="AH32" s="271"/>
-      <c r="AI32" s="271"/>
-      <c r="AJ32" s="271"/>
-      <c r="AK32" s="271"/>
-      <c r="AL32" s="271"/>
-      <c r="AM32" s="272"/>
-      <c r="AN32" s="273"/>
-      <c r="AO32" s="274"/>
-      <c r="AP32" s="274"/>
-      <c r="AQ32" s="274"/>
-      <c r="AR32" s="275"/>
-      <c r="AS32" s="273"/>
-      <c r="AT32" s="274"/>
-      <c r="AU32" s="274"/>
-      <c r="AV32" s="274"/>
-      <c r="AW32" s="275"/>
+      <c r="B32" s="248"/>
+      <c r="C32" s="249"/>
+      <c r="D32" s="250"/>
+      <c r="E32" s="251"/>
+      <c r="F32" s="251"/>
+      <c r="G32" s="251"/>
+      <c r="H32" s="251"/>
+      <c r="I32" s="251"/>
+      <c r="J32" s="252"/>
+      <c r="K32" s="253"/>
+      <c r="L32" s="254"/>
+      <c r="M32" s="262"/>
+      <c r="N32" s="263"/>
+      <c r="O32" s="263"/>
+      <c r="P32" s="263"/>
+      <c r="Q32" s="263"/>
+      <c r="R32" s="264"/>
+      <c r="S32" s="258"/>
+      <c r="T32" s="258"/>
+      <c r="U32" s="258"/>
+      <c r="V32" s="259"/>
+      <c r="W32" s="260"/>
+      <c r="X32" s="260"/>
+      <c r="Y32" s="260"/>
+      <c r="Z32" s="260"/>
+      <c r="AA32" s="260"/>
+      <c r="AB32" s="260"/>
+      <c r="AC32" s="260"/>
+      <c r="AD32" s="260"/>
+      <c r="AE32" s="260"/>
+      <c r="AF32" s="260"/>
+      <c r="AG32" s="260"/>
+      <c r="AH32" s="260"/>
+      <c r="AI32" s="260"/>
+      <c r="AJ32" s="260"/>
+      <c r="AK32" s="260"/>
+      <c r="AL32" s="260"/>
+      <c r="AM32" s="261"/>
+      <c r="AN32" s="245"/>
+      <c r="AO32" s="246"/>
+      <c r="AP32" s="246"/>
+      <c r="AQ32" s="246"/>
+      <c r="AR32" s="247"/>
+      <c r="AS32" s="245"/>
+      <c r="AT32" s="246"/>
+      <c r="AU32" s="246"/>
+      <c r="AV32" s="246"/>
+      <c r="AW32" s="247"/>
     </row>
     <row r="33" spans="2:49" x14ac:dyDescent="0.25">
-      <c r="B33" s="264"/>
-      <c r="C33" s="265"/>
-      <c r="D33" s="266"/>
-      <c r="E33" s="256"/>
-      <c r="F33" s="256"/>
-      <c r="G33" s="256"/>
-      <c r="H33" s="256"/>
-      <c r="I33" s="256"/>
-      <c r="J33" s="257"/>
-      <c r="K33" s="258"/>
-      <c r="L33" s="259"/>
-      <c r="M33" s="278"/>
-      <c r="N33" s="268"/>
-      <c r="O33" s="268"/>
-      <c r="P33" s="268"/>
-      <c r="Q33" s="268"/>
-      <c r="R33" s="269"/>
-      <c r="S33" s="254"/>
-      <c r="T33" s="254"/>
-      <c r="U33" s="254"/>
-      <c r="V33" s="270"/>
-      <c r="W33" s="271"/>
-      <c r="X33" s="271"/>
-      <c r="Y33" s="271"/>
-      <c r="Z33" s="271"/>
-      <c r="AA33" s="271"/>
-      <c r="AB33" s="271"/>
-      <c r="AC33" s="271"/>
-      <c r="AD33" s="271"/>
-      <c r="AE33" s="271"/>
-      <c r="AF33" s="271"/>
-      <c r="AG33" s="271"/>
-      <c r="AH33" s="271"/>
-      <c r="AI33" s="271"/>
-      <c r="AJ33" s="271"/>
-      <c r="AK33" s="271"/>
-      <c r="AL33" s="271"/>
-      <c r="AM33" s="272"/>
-      <c r="AN33" s="273"/>
-      <c r="AO33" s="274"/>
-      <c r="AP33" s="274"/>
-      <c r="AQ33" s="274"/>
-      <c r="AR33" s="275"/>
-      <c r="AS33" s="273"/>
-      <c r="AT33" s="274"/>
-      <c r="AU33" s="274"/>
-      <c r="AV33" s="274"/>
-      <c r="AW33" s="275"/>
+      <c r="B33" s="248"/>
+      <c r="C33" s="249"/>
+      <c r="D33" s="250"/>
+      <c r="E33" s="251"/>
+      <c r="F33" s="251"/>
+      <c r="G33" s="251"/>
+      <c r="H33" s="251"/>
+      <c r="I33" s="251"/>
+      <c r="J33" s="252"/>
+      <c r="K33" s="253"/>
+      <c r="L33" s="254"/>
+      <c r="M33" s="262"/>
+      <c r="N33" s="263"/>
+      <c r="O33" s="263"/>
+      <c r="P33" s="263"/>
+      <c r="Q33" s="263"/>
+      <c r="R33" s="264"/>
+      <c r="S33" s="258"/>
+      <c r="T33" s="258"/>
+      <c r="U33" s="258"/>
+      <c r="V33" s="259"/>
+      <c r="W33" s="260"/>
+      <c r="X33" s="260"/>
+      <c r="Y33" s="260"/>
+      <c r="Z33" s="260"/>
+      <c r="AA33" s="260"/>
+      <c r="AB33" s="260"/>
+      <c r="AC33" s="260"/>
+      <c r="AD33" s="260"/>
+      <c r="AE33" s="260"/>
+      <c r="AF33" s="260"/>
+      <c r="AG33" s="260"/>
+      <c r="AH33" s="260"/>
+      <c r="AI33" s="260"/>
+      <c r="AJ33" s="260"/>
+      <c r="AK33" s="260"/>
+      <c r="AL33" s="260"/>
+      <c r="AM33" s="261"/>
+      <c r="AN33" s="245"/>
+      <c r="AO33" s="246"/>
+      <c r="AP33" s="246"/>
+      <c r="AQ33" s="246"/>
+      <c r="AR33" s="247"/>
+      <c r="AS33" s="245"/>
+      <c r="AT33" s="246"/>
+      <c r="AU33" s="246"/>
+      <c r="AV33" s="246"/>
+      <c r="AW33" s="247"/>
     </row>
     <row r="34" spans="2:49" x14ac:dyDescent="0.25">
-      <c r="B34" s="264"/>
-      <c r="C34" s="265"/>
-      <c r="D34" s="266"/>
-      <c r="E34" s="256"/>
-      <c r="F34" s="256"/>
-      <c r="G34" s="256"/>
-      <c r="H34" s="256"/>
-      <c r="I34" s="256"/>
-      <c r="J34" s="257"/>
-      <c r="K34" s="258"/>
-      <c r="L34" s="259"/>
-      <c r="M34" s="282"/>
-      <c r="N34" s="283"/>
-      <c r="O34" s="283"/>
-      <c r="P34" s="283"/>
-      <c r="Q34" s="283"/>
-      <c r="R34" s="284"/>
-      <c r="S34" s="254"/>
-      <c r="T34" s="254"/>
-      <c r="U34" s="254"/>
-      <c r="V34" s="270"/>
-      <c r="W34" s="271"/>
-      <c r="X34" s="271"/>
-      <c r="Y34" s="271"/>
-      <c r="Z34" s="271"/>
-      <c r="AA34" s="271"/>
-      <c r="AB34" s="271"/>
-      <c r="AC34" s="271"/>
-      <c r="AD34" s="271"/>
-      <c r="AE34" s="271"/>
-      <c r="AF34" s="271"/>
-      <c r="AG34" s="271"/>
-      <c r="AH34" s="271"/>
-      <c r="AI34" s="271"/>
-      <c r="AJ34" s="271"/>
-      <c r="AK34" s="271"/>
-      <c r="AL34" s="271"/>
-      <c r="AM34" s="272"/>
-      <c r="AN34" s="273"/>
-      <c r="AO34" s="274"/>
-      <c r="AP34" s="274"/>
-      <c r="AQ34" s="274"/>
-      <c r="AR34" s="275"/>
-      <c r="AS34" s="273"/>
-      <c r="AT34" s="274"/>
-      <c r="AU34" s="274"/>
-      <c r="AV34" s="274"/>
-      <c r="AW34" s="275"/>
+      <c r="B34" s="248"/>
+      <c r="C34" s="249"/>
+      <c r="D34" s="250"/>
+      <c r="E34" s="251"/>
+      <c r="F34" s="251"/>
+      <c r="G34" s="251"/>
+      <c r="H34" s="251"/>
+      <c r="I34" s="251"/>
+      <c r="J34" s="252"/>
+      <c r="K34" s="253"/>
+      <c r="L34" s="254"/>
+      <c r="M34" s="255"/>
+      <c r="N34" s="256"/>
+      <c r="O34" s="256"/>
+      <c r="P34" s="256"/>
+      <c r="Q34" s="256"/>
+      <c r="R34" s="257"/>
+      <c r="S34" s="258"/>
+      <c r="T34" s="258"/>
+      <c r="U34" s="258"/>
+      <c r="V34" s="259"/>
+      <c r="W34" s="260"/>
+      <c r="X34" s="260"/>
+      <c r="Y34" s="260"/>
+      <c r="Z34" s="260"/>
+      <c r="AA34" s="260"/>
+      <c r="AB34" s="260"/>
+      <c r="AC34" s="260"/>
+      <c r="AD34" s="260"/>
+      <c r="AE34" s="260"/>
+      <c r="AF34" s="260"/>
+      <c r="AG34" s="260"/>
+      <c r="AH34" s="260"/>
+      <c r="AI34" s="260"/>
+      <c r="AJ34" s="260"/>
+      <c r="AK34" s="260"/>
+      <c r="AL34" s="260"/>
+      <c r="AM34" s="261"/>
+      <c r="AN34" s="245"/>
+      <c r="AO34" s="246"/>
+      <c r="AP34" s="246"/>
+      <c r="AQ34" s="246"/>
+      <c r="AR34" s="247"/>
+      <c r="AS34" s="245"/>
+      <c r="AT34" s="246"/>
+      <c r="AU34" s="246"/>
+      <c r="AV34" s="246"/>
+      <c r="AW34" s="247"/>
     </row>
   </sheetData>
   <mergeCells count="249">
+    <mergeCell ref="B1:AW2"/>
+    <mergeCell ref="B3:D4"/>
+    <mergeCell ref="E3:I4"/>
+    <mergeCell ref="J3:L4"/>
+    <mergeCell ref="M3:R4"/>
+    <mergeCell ref="S3:U4"/>
+    <mergeCell ref="V3:AM4"/>
+    <mergeCell ref="AN3:AR4"/>
+    <mergeCell ref="AS3:AW4"/>
+    <mergeCell ref="AN5:AR5"/>
+    <mergeCell ref="AS5:AW5"/>
+    <mergeCell ref="B6:D6"/>
+    <mergeCell ref="E6:I6"/>
+    <mergeCell ref="J6:L6"/>
+    <mergeCell ref="M6:R6"/>
+    <mergeCell ref="S6:U6"/>
+    <mergeCell ref="V6:AM6"/>
+    <mergeCell ref="AN6:AR6"/>
+    <mergeCell ref="AS6:AW6"/>
+    <mergeCell ref="B5:D5"/>
+    <mergeCell ref="E5:I5"/>
+    <mergeCell ref="J5:L5"/>
+    <mergeCell ref="M5:R5"/>
+    <mergeCell ref="S5:U5"/>
+    <mergeCell ref="V5:AM5"/>
+    <mergeCell ref="AN7:AR7"/>
+    <mergeCell ref="AS7:AW7"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="E8:I8"/>
+    <mergeCell ref="J8:L8"/>
+    <mergeCell ref="M8:R8"/>
+    <mergeCell ref="S8:U8"/>
+    <mergeCell ref="V8:AM8"/>
+    <mergeCell ref="AN8:AR8"/>
+    <mergeCell ref="AS8:AW8"/>
+    <mergeCell ref="B7:D7"/>
+    <mergeCell ref="E7:I7"/>
+    <mergeCell ref="J7:L7"/>
+    <mergeCell ref="M7:R7"/>
+    <mergeCell ref="S7:U7"/>
+    <mergeCell ref="V7:AM7"/>
+    <mergeCell ref="AN9:AR9"/>
+    <mergeCell ref="AS9:AW9"/>
+    <mergeCell ref="B10:D10"/>
+    <mergeCell ref="E10:I10"/>
+    <mergeCell ref="J10:L10"/>
+    <mergeCell ref="M10:R10"/>
+    <mergeCell ref="S10:U10"/>
+    <mergeCell ref="V10:AM10"/>
+    <mergeCell ref="AN10:AR10"/>
+    <mergeCell ref="AS10:AW10"/>
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="E9:I9"/>
+    <mergeCell ref="J9:L9"/>
+    <mergeCell ref="M9:R9"/>
+    <mergeCell ref="S9:U9"/>
+    <mergeCell ref="V9:AM9"/>
+    <mergeCell ref="AN11:AR11"/>
+    <mergeCell ref="AS11:AW11"/>
+    <mergeCell ref="B12:D12"/>
+    <mergeCell ref="E12:I12"/>
+    <mergeCell ref="J12:L12"/>
+    <mergeCell ref="M12:R12"/>
+    <mergeCell ref="S12:U12"/>
+    <mergeCell ref="V12:AM12"/>
+    <mergeCell ref="AN12:AR12"/>
+    <mergeCell ref="AS12:AW12"/>
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="E11:I11"/>
+    <mergeCell ref="J11:L11"/>
+    <mergeCell ref="M11:R11"/>
+    <mergeCell ref="S11:U11"/>
+    <mergeCell ref="V11:AM11"/>
+    <mergeCell ref="AN13:AR13"/>
+    <mergeCell ref="AS13:AW13"/>
+    <mergeCell ref="B14:D14"/>
+    <mergeCell ref="E14:I14"/>
+    <mergeCell ref="J14:L14"/>
+    <mergeCell ref="M14:R14"/>
+    <mergeCell ref="S14:U14"/>
+    <mergeCell ref="V14:AM14"/>
+    <mergeCell ref="AN14:AR14"/>
+    <mergeCell ref="AS14:AW14"/>
+    <mergeCell ref="B13:D13"/>
+    <mergeCell ref="E13:I13"/>
+    <mergeCell ref="J13:L13"/>
+    <mergeCell ref="M13:R13"/>
+    <mergeCell ref="S13:U13"/>
+    <mergeCell ref="V13:AM13"/>
+    <mergeCell ref="AN15:AR15"/>
+    <mergeCell ref="AS15:AW15"/>
+    <mergeCell ref="B16:D16"/>
+    <mergeCell ref="E16:I16"/>
+    <mergeCell ref="J16:L16"/>
+    <mergeCell ref="M16:R16"/>
+    <mergeCell ref="S16:U16"/>
+    <mergeCell ref="V16:AM16"/>
+    <mergeCell ref="AN16:AR16"/>
+    <mergeCell ref="AS16:AW16"/>
+    <mergeCell ref="B15:D15"/>
+    <mergeCell ref="E15:I15"/>
+    <mergeCell ref="J15:L15"/>
+    <mergeCell ref="M15:R15"/>
+    <mergeCell ref="S15:U15"/>
+    <mergeCell ref="V15:AM15"/>
+    <mergeCell ref="AN17:AR17"/>
+    <mergeCell ref="AS17:AW17"/>
+    <mergeCell ref="B18:D18"/>
+    <mergeCell ref="E18:I18"/>
+    <mergeCell ref="J18:L18"/>
+    <mergeCell ref="M18:R18"/>
+    <mergeCell ref="S18:U18"/>
+    <mergeCell ref="V18:AM18"/>
+    <mergeCell ref="AN18:AR18"/>
+    <mergeCell ref="AS18:AW18"/>
+    <mergeCell ref="B17:D17"/>
+    <mergeCell ref="E17:I17"/>
+    <mergeCell ref="J17:L17"/>
+    <mergeCell ref="M17:R17"/>
+    <mergeCell ref="S17:U17"/>
+    <mergeCell ref="V17:AM17"/>
+    <mergeCell ref="AN19:AR19"/>
+    <mergeCell ref="AS19:AW19"/>
+    <mergeCell ref="B20:D20"/>
+    <mergeCell ref="E20:I20"/>
+    <mergeCell ref="J20:L20"/>
+    <mergeCell ref="M20:R20"/>
+    <mergeCell ref="S20:U20"/>
+    <mergeCell ref="V20:AM20"/>
+    <mergeCell ref="AN20:AR20"/>
+    <mergeCell ref="AS20:AW20"/>
+    <mergeCell ref="B19:D19"/>
+    <mergeCell ref="E19:I19"/>
+    <mergeCell ref="J19:L19"/>
+    <mergeCell ref="M19:R19"/>
+    <mergeCell ref="S19:U19"/>
+    <mergeCell ref="V19:AM19"/>
+    <mergeCell ref="AN21:AR21"/>
+    <mergeCell ref="AS21:AW21"/>
+    <mergeCell ref="B22:D22"/>
+    <mergeCell ref="E22:I22"/>
+    <mergeCell ref="J22:L22"/>
+    <mergeCell ref="M22:R22"/>
+    <mergeCell ref="S22:U22"/>
+    <mergeCell ref="V22:AM22"/>
+    <mergeCell ref="AN22:AR22"/>
+    <mergeCell ref="AS22:AW22"/>
+    <mergeCell ref="B21:D21"/>
+    <mergeCell ref="E21:I21"/>
+    <mergeCell ref="J21:L21"/>
+    <mergeCell ref="M21:R21"/>
+    <mergeCell ref="S21:U21"/>
+    <mergeCell ref="V21:AM21"/>
+    <mergeCell ref="AN23:AR23"/>
+    <mergeCell ref="AS23:AW23"/>
+    <mergeCell ref="B24:D24"/>
+    <mergeCell ref="E24:I24"/>
+    <mergeCell ref="J24:L24"/>
+    <mergeCell ref="M24:R24"/>
+    <mergeCell ref="S24:U24"/>
+    <mergeCell ref="V24:AM24"/>
+    <mergeCell ref="AN24:AR24"/>
+    <mergeCell ref="AS24:AW24"/>
+    <mergeCell ref="B23:D23"/>
+    <mergeCell ref="E23:I23"/>
+    <mergeCell ref="J23:L23"/>
+    <mergeCell ref="M23:R23"/>
+    <mergeCell ref="S23:U23"/>
+    <mergeCell ref="V23:AM23"/>
+    <mergeCell ref="AN25:AR25"/>
+    <mergeCell ref="AS25:AW25"/>
+    <mergeCell ref="B26:D26"/>
+    <mergeCell ref="E26:I26"/>
+    <mergeCell ref="J26:L26"/>
+    <mergeCell ref="M26:R26"/>
+    <mergeCell ref="S26:U26"/>
+    <mergeCell ref="V26:AM26"/>
+    <mergeCell ref="AN26:AR26"/>
+    <mergeCell ref="AS26:AW26"/>
+    <mergeCell ref="B25:D25"/>
+    <mergeCell ref="E25:I25"/>
+    <mergeCell ref="J25:L25"/>
+    <mergeCell ref="M25:R25"/>
+    <mergeCell ref="S25:U25"/>
+    <mergeCell ref="V25:AM25"/>
+    <mergeCell ref="AN27:AR27"/>
+    <mergeCell ref="AS27:AW27"/>
+    <mergeCell ref="B28:D28"/>
+    <mergeCell ref="E28:I28"/>
+    <mergeCell ref="J28:L28"/>
+    <mergeCell ref="M28:R28"/>
+    <mergeCell ref="S28:U28"/>
+    <mergeCell ref="V28:AM28"/>
+    <mergeCell ref="AN28:AR28"/>
+    <mergeCell ref="AS28:AW28"/>
+    <mergeCell ref="B27:D27"/>
+    <mergeCell ref="E27:I27"/>
+    <mergeCell ref="J27:L27"/>
+    <mergeCell ref="M27:R27"/>
+    <mergeCell ref="S27:U27"/>
+    <mergeCell ref="V27:AM27"/>
+    <mergeCell ref="AN29:AR29"/>
+    <mergeCell ref="AS29:AW29"/>
+    <mergeCell ref="B30:D30"/>
+    <mergeCell ref="E30:I30"/>
+    <mergeCell ref="J30:L30"/>
+    <mergeCell ref="M30:R30"/>
+    <mergeCell ref="S30:U30"/>
+    <mergeCell ref="V30:AM30"/>
+    <mergeCell ref="AN30:AR30"/>
+    <mergeCell ref="AS30:AW30"/>
+    <mergeCell ref="B29:D29"/>
+    <mergeCell ref="E29:I29"/>
+    <mergeCell ref="J29:L29"/>
+    <mergeCell ref="M29:R29"/>
+    <mergeCell ref="S29:U29"/>
+    <mergeCell ref="V29:AM29"/>
+    <mergeCell ref="AN31:AR31"/>
+    <mergeCell ref="AS31:AW31"/>
+    <mergeCell ref="B32:D32"/>
+    <mergeCell ref="E32:I32"/>
+    <mergeCell ref="J32:L32"/>
+    <mergeCell ref="M32:R32"/>
+    <mergeCell ref="S32:U32"/>
+    <mergeCell ref="V32:AM32"/>
+    <mergeCell ref="AN32:AR32"/>
+    <mergeCell ref="AS32:AW32"/>
+    <mergeCell ref="B31:D31"/>
+    <mergeCell ref="E31:I31"/>
+    <mergeCell ref="J31:L31"/>
+    <mergeCell ref="M31:R31"/>
+    <mergeCell ref="S31:U31"/>
+    <mergeCell ref="V31:AM31"/>
     <mergeCell ref="AN33:AR33"/>
     <mergeCell ref="AS33:AW33"/>
     <mergeCell ref="B34:D34"/>
@@ -10104,239 +10350,6 @@
     <mergeCell ref="M33:R33"/>
     <mergeCell ref="S33:U33"/>
     <mergeCell ref="V33:AM33"/>
-    <mergeCell ref="AN31:AR31"/>
-    <mergeCell ref="AS31:AW31"/>
-    <mergeCell ref="B32:D32"/>
-    <mergeCell ref="E32:I32"/>
-    <mergeCell ref="J32:L32"/>
-    <mergeCell ref="M32:R32"/>
-    <mergeCell ref="S32:U32"/>
-    <mergeCell ref="V32:AM32"/>
-    <mergeCell ref="AN32:AR32"/>
-    <mergeCell ref="AS32:AW32"/>
-    <mergeCell ref="B31:D31"/>
-    <mergeCell ref="E31:I31"/>
-    <mergeCell ref="J31:L31"/>
-    <mergeCell ref="M31:R31"/>
-    <mergeCell ref="S31:U31"/>
-    <mergeCell ref="V31:AM31"/>
-    <mergeCell ref="AN29:AR29"/>
-    <mergeCell ref="AS29:AW29"/>
-    <mergeCell ref="B30:D30"/>
-    <mergeCell ref="E30:I30"/>
-    <mergeCell ref="J30:L30"/>
-    <mergeCell ref="M30:R30"/>
-    <mergeCell ref="S30:U30"/>
-    <mergeCell ref="V30:AM30"/>
-    <mergeCell ref="AN30:AR30"/>
-    <mergeCell ref="AS30:AW30"/>
-    <mergeCell ref="B29:D29"/>
-    <mergeCell ref="E29:I29"/>
-    <mergeCell ref="J29:L29"/>
-    <mergeCell ref="M29:R29"/>
-    <mergeCell ref="S29:U29"/>
-    <mergeCell ref="V29:AM29"/>
-    <mergeCell ref="AN27:AR27"/>
-    <mergeCell ref="AS27:AW27"/>
-    <mergeCell ref="B28:D28"/>
-    <mergeCell ref="E28:I28"/>
-    <mergeCell ref="J28:L28"/>
-    <mergeCell ref="M28:R28"/>
-    <mergeCell ref="S28:U28"/>
-    <mergeCell ref="V28:AM28"/>
-    <mergeCell ref="AN28:AR28"/>
-    <mergeCell ref="AS28:AW28"/>
-    <mergeCell ref="B27:D27"/>
-    <mergeCell ref="E27:I27"/>
-    <mergeCell ref="J27:L27"/>
-    <mergeCell ref="M27:R27"/>
-    <mergeCell ref="S27:U27"/>
-    <mergeCell ref="V27:AM27"/>
-    <mergeCell ref="AN25:AR25"/>
-    <mergeCell ref="AS25:AW25"/>
-    <mergeCell ref="B26:D26"/>
-    <mergeCell ref="E26:I26"/>
-    <mergeCell ref="J26:L26"/>
-    <mergeCell ref="M26:R26"/>
-    <mergeCell ref="S26:U26"/>
-    <mergeCell ref="V26:AM26"/>
-    <mergeCell ref="AN26:AR26"/>
-    <mergeCell ref="AS26:AW26"/>
-    <mergeCell ref="B25:D25"/>
-    <mergeCell ref="E25:I25"/>
-    <mergeCell ref="J25:L25"/>
-    <mergeCell ref="M25:R25"/>
-    <mergeCell ref="S25:U25"/>
-    <mergeCell ref="V25:AM25"/>
-    <mergeCell ref="AN23:AR23"/>
-    <mergeCell ref="AS23:AW23"/>
-    <mergeCell ref="B24:D24"/>
-    <mergeCell ref="E24:I24"/>
-    <mergeCell ref="J24:L24"/>
-    <mergeCell ref="M24:R24"/>
-    <mergeCell ref="S24:U24"/>
-    <mergeCell ref="V24:AM24"/>
-    <mergeCell ref="AN24:AR24"/>
-    <mergeCell ref="AS24:AW24"/>
-    <mergeCell ref="B23:D23"/>
-    <mergeCell ref="E23:I23"/>
-    <mergeCell ref="J23:L23"/>
-    <mergeCell ref="M23:R23"/>
-    <mergeCell ref="S23:U23"/>
-    <mergeCell ref="V23:AM23"/>
-    <mergeCell ref="AN21:AR21"/>
-    <mergeCell ref="AS21:AW21"/>
-    <mergeCell ref="B22:D22"/>
-    <mergeCell ref="E22:I22"/>
-    <mergeCell ref="J22:L22"/>
-    <mergeCell ref="M22:R22"/>
-    <mergeCell ref="S22:U22"/>
-    <mergeCell ref="V22:AM22"/>
-    <mergeCell ref="AN22:AR22"/>
-    <mergeCell ref="AS22:AW22"/>
-    <mergeCell ref="B21:D21"/>
-    <mergeCell ref="E21:I21"/>
-    <mergeCell ref="J21:L21"/>
-    <mergeCell ref="M21:R21"/>
-    <mergeCell ref="S21:U21"/>
-    <mergeCell ref="V21:AM21"/>
-    <mergeCell ref="AN19:AR19"/>
-    <mergeCell ref="AS19:AW19"/>
-    <mergeCell ref="B20:D20"/>
-    <mergeCell ref="E20:I20"/>
-    <mergeCell ref="J20:L20"/>
-    <mergeCell ref="M20:R20"/>
-    <mergeCell ref="S20:U20"/>
-    <mergeCell ref="V20:AM20"/>
-    <mergeCell ref="AN20:AR20"/>
-    <mergeCell ref="AS20:AW20"/>
-    <mergeCell ref="B19:D19"/>
-    <mergeCell ref="E19:I19"/>
-    <mergeCell ref="J19:L19"/>
-    <mergeCell ref="M19:R19"/>
-    <mergeCell ref="S19:U19"/>
-    <mergeCell ref="V19:AM19"/>
-    <mergeCell ref="AN17:AR17"/>
-    <mergeCell ref="AS17:AW17"/>
-    <mergeCell ref="B18:D18"/>
-    <mergeCell ref="E18:I18"/>
-    <mergeCell ref="J18:L18"/>
-    <mergeCell ref="M18:R18"/>
-    <mergeCell ref="S18:U18"/>
-    <mergeCell ref="V18:AM18"/>
-    <mergeCell ref="AN18:AR18"/>
-    <mergeCell ref="AS18:AW18"/>
-    <mergeCell ref="B17:D17"/>
-    <mergeCell ref="E17:I17"/>
-    <mergeCell ref="J17:L17"/>
-    <mergeCell ref="M17:R17"/>
-    <mergeCell ref="S17:U17"/>
-    <mergeCell ref="V17:AM17"/>
-    <mergeCell ref="AN15:AR15"/>
-    <mergeCell ref="AS15:AW15"/>
-    <mergeCell ref="B16:D16"/>
-    <mergeCell ref="E16:I16"/>
-    <mergeCell ref="J16:L16"/>
-    <mergeCell ref="M16:R16"/>
-    <mergeCell ref="S16:U16"/>
-    <mergeCell ref="V16:AM16"/>
-    <mergeCell ref="AN16:AR16"/>
-    <mergeCell ref="AS16:AW16"/>
-    <mergeCell ref="B15:D15"/>
-    <mergeCell ref="E15:I15"/>
-    <mergeCell ref="J15:L15"/>
-    <mergeCell ref="M15:R15"/>
-    <mergeCell ref="S15:U15"/>
-    <mergeCell ref="V15:AM15"/>
-    <mergeCell ref="AN13:AR13"/>
-    <mergeCell ref="AS13:AW13"/>
-    <mergeCell ref="B14:D14"/>
-    <mergeCell ref="E14:I14"/>
-    <mergeCell ref="J14:L14"/>
-    <mergeCell ref="M14:R14"/>
-    <mergeCell ref="S14:U14"/>
-    <mergeCell ref="V14:AM14"/>
-    <mergeCell ref="AN14:AR14"/>
-    <mergeCell ref="AS14:AW14"/>
-    <mergeCell ref="B13:D13"/>
-    <mergeCell ref="E13:I13"/>
-    <mergeCell ref="J13:L13"/>
-    <mergeCell ref="M13:R13"/>
-    <mergeCell ref="S13:U13"/>
-    <mergeCell ref="V13:AM13"/>
-    <mergeCell ref="AN11:AR11"/>
-    <mergeCell ref="AS11:AW11"/>
-    <mergeCell ref="B12:D12"/>
-    <mergeCell ref="E12:I12"/>
-    <mergeCell ref="J12:L12"/>
-    <mergeCell ref="M12:R12"/>
-    <mergeCell ref="S12:U12"/>
-    <mergeCell ref="V12:AM12"/>
-    <mergeCell ref="AN12:AR12"/>
-    <mergeCell ref="AS12:AW12"/>
-    <mergeCell ref="B11:D11"/>
-    <mergeCell ref="E11:I11"/>
-    <mergeCell ref="J11:L11"/>
-    <mergeCell ref="M11:R11"/>
-    <mergeCell ref="S11:U11"/>
-    <mergeCell ref="V11:AM11"/>
-    <mergeCell ref="AN9:AR9"/>
-    <mergeCell ref="AS9:AW9"/>
-    <mergeCell ref="B10:D10"/>
-    <mergeCell ref="E10:I10"/>
-    <mergeCell ref="J10:L10"/>
-    <mergeCell ref="M10:R10"/>
-    <mergeCell ref="S10:U10"/>
-    <mergeCell ref="V10:AM10"/>
-    <mergeCell ref="AN10:AR10"/>
-    <mergeCell ref="AS10:AW10"/>
-    <mergeCell ref="B9:D9"/>
-    <mergeCell ref="E9:I9"/>
-    <mergeCell ref="J9:L9"/>
-    <mergeCell ref="M9:R9"/>
-    <mergeCell ref="S9:U9"/>
-    <mergeCell ref="V9:AM9"/>
-    <mergeCell ref="AN7:AR7"/>
-    <mergeCell ref="AS7:AW7"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="E8:I8"/>
-    <mergeCell ref="J8:L8"/>
-    <mergeCell ref="M8:R8"/>
-    <mergeCell ref="S8:U8"/>
-    <mergeCell ref="V8:AM8"/>
-    <mergeCell ref="AN8:AR8"/>
-    <mergeCell ref="AS8:AW8"/>
-    <mergeCell ref="B7:D7"/>
-    <mergeCell ref="E7:I7"/>
-    <mergeCell ref="J7:L7"/>
-    <mergeCell ref="M7:R7"/>
-    <mergeCell ref="S7:U7"/>
-    <mergeCell ref="V7:AM7"/>
-    <mergeCell ref="AN5:AR5"/>
-    <mergeCell ref="AS5:AW5"/>
-    <mergeCell ref="B6:D6"/>
-    <mergeCell ref="E6:I6"/>
-    <mergeCell ref="J6:L6"/>
-    <mergeCell ref="M6:R6"/>
-    <mergeCell ref="S6:U6"/>
-    <mergeCell ref="V6:AM6"/>
-    <mergeCell ref="AN6:AR6"/>
-    <mergeCell ref="AS6:AW6"/>
-    <mergeCell ref="B5:D5"/>
-    <mergeCell ref="E5:I5"/>
-    <mergeCell ref="J5:L5"/>
-    <mergeCell ref="M5:R5"/>
-    <mergeCell ref="S5:U5"/>
-    <mergeCell ref="V5:AM5"/>
-    <mergeCell ref="B1:AW2"/>
-    <mergeCell ref="B3:D4"/>
-    <mergeCell ref="E3:I4"/>
-    <mergeCell ref="J3:L4"/>
-    <mergeCell ref="M3:R4"/>
-    <mergeCell ref="S3:U4"/>
-    <mergeCell ref="V3:AM4"/>
-    <mergeCell ref="AN3:AR4"/>
-    <mergeCell ref="AS3:AW4"/>
   </mergeCells>
   <phoneticPr fontId="4"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -13214,11 +13227,43 @@
     </row>
   </sheetData>
   <mergeCells count="58">
-    <mergeCell ref="B61:C61"/>
-    <mergeCell ref="AE61:AF61"/>
-    <mergeCell ref="AG61:AH61"/>
-    <mergeCell ref="AI61:AJ61"/>
-    <mergeCell ref="AK61:AL61"/>
+    <mergeCell ref="B60:C60"/>
+    <mergeCell ref="AE60:AF60"/>
+    <mergeCell ref="B58:C58"/>
+    <mergeCell ref="AK58:AL58"/>
+    <mergeCell ref="B59:C59"/>
+    <mergeCell ref="AE59:AF59"/>
+    <mergeCell ref="AG59:AH59"/>
+    <mergeCell ref="AI59:AJ59"/>
+    <mergeCell ref="AK59:AL59"/>
+    <mergeCell ref="AK55:AL55"/>
+    <mergeCell ref="AI55:AJ55"/>
+    <mergeCell ref="AG60:AH60"/>
+    <mergeCell ref="AI60:AJ60"/>
+    <mergeCell ref="AK60:AL60"/>
+    <mergeCell ref="B54:C54"/>
+    <mergeCell ref="AI54:AJ54"/>
+    <mergeCell ref="AE58:AF58"/>
+    <mergeCell ref="AK54:AL54"/>
+    <mergeCell ref="AK57:AL57"/>
+    <mergeCell ref="B56:C56"/>
+    <mergeCell ref="AE56:AF56"/>
+    <mergeCell ref="AG56:AH56"/>
+    <mergeCell ref="AI56:AJ56"/>
+    <mergeCell ref="AK56:AL56"/>
+    <mergeCell ref="B57:C57"/>
+    <mergeCell ref="AE57:AF57"/>
+    <mergeCell ref="AG57:AH57"/>
+    <mergeCell ref="AE54:AF54"/>
+    <mergeCell ref="B55:C55"/>
+    <mergeCell ref="AE55:AF55"/>
+    <mergeCell ref="AG53:AH53"/>
+    <mergeCell ref="AG54:AH54"/>
+    <mergeCell ref="AG52:AH52"/>
+    <mergeCell ref="AI57:AJ57"/>
+    <mergeCell ref="AG58:AH58"/>
+    <mergeCell ref="AI58:AJ58"/>
+    <mergeCell ref="AG55:AH55"/>
     <mergeCell ref="AO2:AS2"/>
     <mergeCell ref="AZ2:BG2"/>
     <mergeCell ref="B50:C50"/>
@@ -13235,43 +13280,11 @@
     <mergeCell ref="AI53:AJ53"/>
     <mergeCell ref="AE52:AF52"/>
     <mergeCell ref="AE53:AF53"/>
-    <mergeCell ref="AG53:AH53"/>
-    <mergeCell ref="AG54:AH54"/>
-    <mergeCell ref="AG52:AH52"/>
-    <mergeCell ref="AI57:AJ57"/>
-    <mergeCell ref="AG58:AH58"/>
-    <mergeCell ref="AI58:AJ58"/>
-    <mergeCell ref="AG55:AH55"/>
-    <mergeCell ref="B54:C54"/>
-    <mergeCell ref="AI54:AJ54"/>
-    <mergeCell ref="AE58:AF58"/>
-    <mergeCell ref="AK54:AL54"/>
-    <mergeCell ref="AK57:AL57"/>
-    <mergeCell ref="B56:C56"/>
-    <mergeCell ref="AE56:AF56"/>
-    <mergeCell ref="AG56:AH56"/>
-    <mergeCell ref="AI56:AJ56"/>
-    <mergeCell ref="AK56:AL56"/>
-    <mergeCell ref="B57:C57"/>
-    <mergeCell ref="AE57:AF57"/>
-    <mergeCell ref="AG57:AH57"/>
-    <mergeCell ref="AE54:AF54"/>
-    <mergeCell ref="B55:C55"/>
-    <mergeCell ref="AE55:AF55"/>
-    <mergeCell ref="AK55:AL55"/>
-    <mergeCell ref="AI55:AJ55"/>
-    <mergeCell ref="AG60:AH60"/>
-    <mergeCell ref="AI60:AJ60"/>
-    <mergeCell ref="AK60:AL60"/>
-    <mergeCell ref="B60:C60"/>
-    <mergeCell ref="AE60:AF60"/>
-    <mergeCell ref="B58:C58"/>
-    <mergeCell ref="AK58:AL58"/>
-    <mergeCell ref="B59:C59"/>
-    <mergeCell ref="AE59:AF59"/>
-    <mergeCell ref="AG59:AH59"/>
-    <mergeCell ref="AI59:AJ59"/>
-    <mergeCell ref="AK59:AL59"/>
+    <mergeCell ref="B61:C61"/>
+    <mergeCell ref="AE61:AF61"/>
+    <mergeCell ref="AG61:AH61"/>
+    <mergeCell ref="AI61:AJ61"/>
+    <mergeCell ref="AK61:AL61"/>
   </mergeCells>
   <phoneticPr fontId="4"/>
   <printOptions horizontalCentered="1"/>
@@ -13765,22 +13778,22 @@
     <row r="6" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="15"/>
       <c r="B6" s="15"/>
-      <c r="C6" s="247" t="s">
+      <c r="C6" s="278" t="s">
         <v>27</v>
       </c>
-      <c r="D6" s="247" t="s">
+      <c r="D6" s="278" t="s">
         <v>60</v>
       </c>
-      <c r="E6" s="247" t="s">
+      <c r="E6" s="278" t="s">
         <v>44</v>
       </c>
-      <c r="F6" s="247" t="s">
+      <c r="F6" s="278" t="s">
         <v>45</v>
       </c>
-      <c r="G6" s="247" t="s">
+      <c r="G6" s="278" t="s">
         <v>28</v>
       </c>
-      <c r="H6" s="247" t="s">
+      <c r="H6" s="278" t="s">
         <v>29</v>
       </c>
       <c r="I6" s="306" t="s">
@@ -13789,13 +13802,13 @@
       <c r="J6" s="306" t="s">
         <v>51</v>
       </c>
-      <c r="K6" s="247" t="s">
+      <c r="K6" s="278" t="s">
         <v>31</v>
       </c>
-      <c r="L6" s="247" t="s">
+      <c r="L6" s="278" t="s">
         <v>30</v>
       </c>
-      <c r="M6" s="247" t="s">
+      <c r="M6" s="278" t="s">
         <v>33</v>
       </c>
       <c r="N6" s="75" t="s">
@@ -13810,17 +13823,17 @@
     <row r="7" spans="1:18" ht="15.75" x14ac:dyDescent="0.15">
       <c r="A7" s="15"/>
       <c r="B7" s="15"/>
-      <c r="C7" s="247"/>
-      <c r="D7" s="247"/>
-      <c r="E7" s="247"/>
-      <c r="F7" s="247"/>
-      <c r="G7" s="247"/>
-      <c r="H7" s="247"/>
+      <c r="C7" s="278"/>
+      <c r="D7" s="278"/>
+      <c r="E7" s="278"/>
+      <c r="F7" s="278"/>
+      <c r="G7" s="278"/>
+      <c r="H7" s="278"/>
       <c r="I7" s="306"/>
       <c r="J7" s="306"/>
-      <c r="K7" s="247"/>
-      <c r="L7" s="247"/>
-      <c r="M7" s="247"/>
+      <c r="K7" s="278"/>
+      <c r="L7" s="278"/>
+      <c r="M7" s="278"/>
       <c r="N7" s="43" t="s">
         <v>83</v>
       </c>
@@ -14031,22 +14044,22 @@
     <row r="14" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="15"/>
       <c r="B14" s="15"/>
-      <c r="C14" s="247" t="s">
+      <c r="C14" s="278" t="s">
         <v>27</v>
       </c>
-      <c r="D14" s="247" t="s">
+      <c r="D14" s="278" t="s">
         <v>60</v>
       </c>
-      <c r="E14" s="247" t="s">
+      <c r="E14" s="278" t="s">
         <v>44</v>
       </c>
-      <c r="F14" s="247" t="s">
+      <c r="F14" s="278" t="s">
         <v>45</v>
       </c>
-      <c r="G14" s="247" t="s">
+      <c r="G14" s="278" t="s">
         <v>28</v>
       </c>
-      <c r="H14" s="247" t="s">
+      <c r="H14" s="278" t="s">
         <v>29</v>
       </c>
       <c r="I14" s="307" t="s">
@@ -14055,13 +14068,13 @@
       <c r="J14" s="306" t="s">
         <v>51</v>
       </c>
-      <c r="K14" s="247" t="s">
+      <c r="K14" s="278" t="s">
         <v>31</v>
       </c>
-      <c r="L14" s="247" t="s">
+      <c r="L14" s="278" t="s">
         <v>30</v>
       </c>
-      <c r="M14" s="247" t="s">
+      <c r="M14" s="278" t="s">
         <v>33</v>
       </c>
       <c r="N14" s="75" t="s">
@@ -14076,17 +14089,17 @@
     <row r="15" spans="1:18" ht="15.75" x14ac:dyDescent="0.15">
       <c r="A15" s="15"/>
       <c r="B15" s="15"/>
-      <c r="C15" s="247"/>
-      <c r="D15" s="247"/>
-      <c r="E15" s="247"/>
-      <c r="F15" s="247"/>
-      <c r="G15" s="247"/>
-      <c r="H15" s="247"/>
+      <c r="C15" s="278"/>
+      <c r="D15" s="278"/>
+      <c r="E15" s="278"/>
+      <c r="F15" s="278"/>
+      <c r="G15" s="278"/>
+      <c r="H15" s="278"/>
       <c r="I15" s="308"/>
       <c r="J15" s="306"/>
-      <c r="K15" s="247"/>
-      <c r="L15" s="247"/>
-      <c r="M15" s="247"/>
+      <c r="K15" s="278"/>
+      <c r="L15" s="278"/>
+      <c r="M15" s="278"/>
       <c r="N15" s="43" t="s">
         <v>83</v>
       </c>
@@ -14360,22 +14373,22 @@
     </row>
     <row r="24" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B24" s="118"/>
-      <c r="C24" s="247" t="s">
+      <c r="C24" s="278" t="s">
         <v>27</v>
       </c>
-      <c r="D24" s="247" t="s">
+      <c r="D24" s="278" t="s">
         <v>60</v>
       </c>
-      <c r="E24" s="247" t="s">
+      <c r="E24" s="278" t="s">
         <v>44</v>
       </c>
-      <c r="F24" s="247" t="s">
+      <c r="F24" s="278" t="s">
         <v>45</v>
       </c>
-      <c r="G24" s="247" t="s">
+      <c r="G24" s="278" t="s">
         <v>28</v>
       </c>
-      <c r="H24" s="247" t="s">
+      <c r="H24" s="278" t="s">
         <v>29</v>
       </c>
       <c r="I24" s="306" t="s">
@@ -14384,13 +14397,13 @@
       <c r="J24" s="306" t="s">
         <v>51</v>
       </c>
-      <c r="K24" s="247" t="s">
+      <c r="K24" s="278" t="s">
         <v>31</v>
       </c>
-      <c r="L24" s="247" t="s">
+      <c r="L24" s="278" t="s">
         <v>30</v>
       </c>
-      <c r="M24" s="247" t="s">
+      <c r="M24" s="278" t="s">
         <v>33</v>
       </c>
       <c r="N24" s="75" t="s">
@@ -14404,17 +14417,17 @@
     </row>
     <row r="25" spans="1:17" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B25" s="118"/>
-      <c r="C25" s="247"/>
-      <c r="D25" s="247"/>
-      <c r="E25" s="247"/>
-      <c r="F25" s="247"/>
-      <c r="G25" s="247"/>
-      <c r="H25" s="247"/>
+      <c r="C25" s="278"/>
+      <c r="D25" s="278"/>
+      <c r="E25" s="278"/>
+      <c r="F25" s="278"/>
+      <c r="G25" s="278"/>
+      <c r="H25" s="278"/>
       <c r="I25" s="306"/>
       <c r="J25" s="306"/>
-      <c r="K25" s="247"/>
-      <c r="L25" s="247"/>
-      <c r="M25" s="247"/>
+      <c r="K25" s="278"/>
+      <c r="L25" s="278"/>
+      <c r="M25" s="278"/>
       <c r="N25" s="115" t="s">
         <v>83</v>
       </c>
@@ -15153,22 +15166,22 @@
     </row>
     <row r="44" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B44" s="118"/>
-      <c r="C44" s="247" t="s">
+      <c r="C44" s="278" t="s">
         <v>27</v>
       </c>
-      <c r="D44" s="247" t="s">
+      <c r="D44" s="278" t="s">
         <v>60</v>
       </c>
-      <c r="E44" s="247" t="s">
+      <c r="E44" s="278" t="s">
         <v>44</v>
       </c>
-      <c r="F44" s="247" t="s">
+      <c r="F44" s="278" t="s">
         <v>45</v>
       </c>
-      <c r="G44" s="247" t="s">
+      <c r="G44" s="278" t="s">
         <v>28</v>
       </c>
-      <c r="H44" s="247" t="s">
+      <c r="H44" s="278" t="s">
         <v>29</v>
       </c>
       <c r="I44" s="306" t="s">
@@ -15177,13 +15190,13 @@
       <c r="J44" s="306" t="s">
         <v>51</v>
       </c>
-      <c r="K44" s="247" t="s">
+      <c r="K44" s="278" t="s">
         <v>31</v>
       </c>
-      <c r="L44" s="247" t="s">
+      <c r="L44" s="278" t="s">
         <v>30</v>
       </c>
-      <c r="M44" s="247" t="s">
+      <c r="M44" s="278" t="s">
         <v>33</v>
       </c>
       <c r="N44" s="75" t="s">
@@ -15197,17 +15210,17 @@
     </row>
     <row r="45" spans="1:17" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B45" s="118"/>
-      <c r="C45" s="247"/>
-      <c r="D45" s="247"/>
-      <c r="E45" s="247"/>
-      <c r="F45" s="247"/>
-      <c r="G45" s="247"/>
-      <c r="H45" s="247"/>
+      <c r="C45" s="278"/>
+      <c r="D45" s="278"/>
+      <c r="E45" s="278"/>
+      <c r="F45" s="278"/>
+      <c r="G45" s="278"/>
+      <c r="H45" s="278"/>
       <c r="I45" s="306"/>
       <c r="J45" s="306"/>
-      <c r="K45" s="247"/>
-      <c r="L45" s="247"/>
-      <c r="M45" s="247"/>
+      <c r="K45" s="278"/>
+      <c r="L45" s="278"/>
+      <c r="M45" s="278"/>
       <c r="N45" s="115" t="s">
         <v>83</v>
       </c>
@@ -16138,22 +16151,22 @@
     </row>
     <row r="68" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B68" s="118"/>
-      <c r="C68" s="247" t="s">
+      <c r="C68" s="278" t="s">
         <v>27</v>
       </c>
-      <c r="D68" s="247" t="s">
+      <c r="D68" s="278" t="s">
         <v>60</v>
       </c>
-      <c r="E68" s="247" t="s">
+      <c r="E68" s="278" t="s">
         <v>44</v>
       </c>
-      <c r="F68" s="247" t="s">
+      <c r="F68" s="278" t="s">
         <v>45</v>
       </c>
-      <c r="G68" s="247" t="s">
+      <c r="G68" s="278" t="s">
         <v>28</v>
       </c>
-      <c r="H68" s="247" t="s">
+      <c r="H68" s="278" t="s">
         <v>29</v>
       </c>
       <c r="I68" s="306" t="s">
@@ -16162,13 +16175,13 @@
       <c r="J68" s="306" t="s">
         <v>51</v>
       </c>
-      <c r="K68" s="247" t="s">
+      <c r="K68" s="278" t="s">
         <v>31</v>
       </c>
-      <c r="L68" s="247" t="s">
+      <c r="L68" s="278" t="s">
         <v>30</v>
       </c>
-      <c r="M68" s="247" t="s">
+      <c r="M68" s="278" t="s">
         <v>33</v>
       </c>
       <c r="N68" s="75" t="s">
@@ -16182,17 +16195,17 @@
     </row>
     <row r="69" spans="1:17" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B69" s="118"/>
-      <c r="C69" s="247"/>
-      <c r="D69" s="247"/>
-      <c r="E69" s="247"/>
-      <c r="F69" s="247"/>
-      <c r="G69" s="247"/>
-      <c r="H69" s="247"/>
+      <c r="C69" s="278"/>
+      <c r="D69" s="278"/>
+      <c r="E69" s="278"/>
+      <c r="F69" s="278"/>
+      <c r="G69" s="278"/>
+      <c r="H69" s="278"/>
       <c r="I69" s="306"/>
       <c r="J69" s="306"/>
-      <c r="K69" s="247"/>
-      <c r="L69" s="247"/>
-      <c r="M69" s="247"/>
+      <c r="K69" s="278"/>
+      <c r="L69" s="278"/>
+      <c r="M69" s="278"/>
       <c r="N69" s="115" t="s">
         <v>83</v>
       </c>
@@ -16970,38 +16983,26 @@
     </row>
   </sheetData>
   <mergeCells count="60">
-    <mergeCell ref="M68:M69"/>
-    <mergeCell ref="Q68:Q69"/>
-    <mergeCell ref="H68:H69"/>
-    <mergeCell ref="I68:I69"/>
-    <mergeCell ref="J68:J69"/>
-    <mergeCell ref="K68:K69"/>
-    <mergeCell ref="L68:L69"/>
-    <mergeCell ref="C68:C69"/>
-    <mergeCell ref="D68:D69"/>
-    <mergeCell ref="E68:E69"/>
-    <mergeCell ref="F68:F69"/>
-    <mergeCell ref="G68:G69"/>
-    <mergeCell ref="H44:H45"/>
-    <mergeCell ref="I44:I45"/>
-    <mergeCell ref="J44:J45"/>
-    <mergeCell ref="K44:K45"/>
-    <mergeCell ref="L44:L45"/>
-    <mergeCell ref="C44:C45"/>
-    <mergeCell ref="D44:D45"/>
-    <mergeCell ref="E44:E45"/>
-    <mergeCell ref="F44:F45"/>
-    <mergeCell ref="G44:G45"/>
-    <mergeCell ref="H24:H25"/>
-    <mergeCell ref="I24:I25"/>
-    <mergeCell ref="J24:J25"/>
-    <mergeCell ref="K24:K25"/>
-    <mergeCell ref="L24:L25"/>
-    <mergeCell ref="C24:C25"/>
-    <mergeCell ref="D24:D25"/>
-    <mergeCell ref="E24:E25"/>
-    <mergeCell ref="F24:F25"/>
-    <mergeCell ref="G24:G25"/>
+    <mergeCell ref="K14:K15"/>
+    <mergeCell ref="M24:M25"/>
+    <mergeCell ref="Q24:Q25"/>
+    <mergeCell ref="M44:M45"/>
+    <mergeCell ref="Q44:Q45"/>
+    <mergeCell ref="Q6:Q7"/>
+    <mergeCell ref="Q14:Q15"/>
+    <mergeCell ref="M6:M7"/>
+    <mergeCell ref="M14:M15"/>
+    <mergeCell ref="L14:L15"/>
+    <mergeCell ref="J6:J7"/>
+    <mergeCell ref="D6:D7"/>
+    <mergeCell ref="I6:I7"/>
+    <mergeCell ref="L6:L7"/>
+    <mergeCell ref="K6:K7"/>
+    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="E6:E7"/>
+    <mergeCell ref="G6:G7"/>
+    <mergeCell ref="H6:H7"/>
+    <mergeCell ref="F6:F7"/>
     <mergeCell ref="I14:I15"/>
     <mergeCell ref="J14:J15"/>
     <mergeCell ref="C14:C15"/>
@@ -17010,26 +17011,38 @@
     <mergeCell ref="G14:G15"/>
     <mergeCell ref="H14:H15"/>
     <mergeCell ref="D14:D15"/>
-    <mergeCell ref="C6:C7"/>
-    <mergeCell ref="E6:E7"/>
-    <mergeCell ref="G6:G7"/>
-    <mergeCell ref="H6:H7"/>
-    <mergeCell ref="F6:F7"/>
-    <mergeCell ref="J6:J7"/>
-    <mergeCell ref="D6:D7"/>
-    <mergeCell ref="I6:I7"/>
-    <mergeCell ref="L6:L7"/>
-    <mergeCell ref="K6:K7"/>
-    <mergeCell ref="Q6:Q7"/>
-    <mergeCell ref="Q14:Q15"/>
-    <mergeCell ref="M6:M7"/>
-    <mergeCell ref="M14:M15"/>
-    <mergeCell ref="L14:L15"/>
-    <mergeCell ref="K14:K15"/>
-    <mergeCell ref="M24:M25"/>
-    <mergeCell ref="Q24:Q25"/>
-    <mergeCell ref="M44:M45"/>
-    <mergeCell ref="Q44:Q45"/>
+    <mergeCell ref="C24:C25"/>
+    <mergeCell ref="D24:D25"/>
+    <mergeCell ref="E24:E25"/>
+    <mergeCell ref="F24:F25"/>
+    <mergeCell ref="G24:G25"/>
+    <mergeCell ref="H24:H25"/>
+    <mergeCell ref="I24:I25"/>
+    <mergeCell ref="J24:J25"/>
+    <mergeCell ref="K24:K25"/>
+    <mergeCell ref="L24:L25"/>
+    <mergeCell ref="C44:C45"/>
+    <mergeCell ref="D44:D45"/>
+    <mergeCell ref="E44:E45"/>
+    <mergeCell ref="F44:F45"/>
+    <mergeCell ref="G44:G45"/>
+    <mergeCell ref="H44:H45"/>
+    <mergeCell ref="I44:I45"/>
+    <mergeCell ref="J44:J45"/>
+    <mergeCell ref="K44:K45"/>
+    <mergeCell ref="L44:L45"/>
+    <mergeCell ref="C68:C69"/>
+    <mergeCell ref="D68:D69"/>
+    <mergeCell ref="E68:E69"/>
+    <mergeCell ref="F68:F69"/>
+    <mergeCell ref="G68:G69"/>
+    <mergeCell ref="M68:M69"/>
+    <mergeCell ref="Q68:Q69"/>
+    <mergeCell ref="H68:H69"/>
+    <mergeCell ref="I68:I69"/>
+    <mergeCell ref="J68:J69"/>
+    <mergeCell ref="K68:K69"/>
+    <mergeCell ref="L68:L69"/>
   </mergeCells>
   <phoneticPr fontId="4"/>
   <pageMargins left="0.62992125984251968" right="0.62992125984251968" top="0.78740157480314965" bottom="0.78740157480314965" header="0.39370078740157483" footer="0.39370078740157483"/>
@@ -19838,7 +19851,7 @@
         <v>225</v>
       </c>
       <c r="AB54" s="223" t="s">
-        <v>484</v>
+        <v>544</v>
       </c>
       <c r="AC54" s="223"/>
       <c r="AD54" s="223"/>
@@ -21065,7 +21078,7 @@
       <c r="L77" s="223"/>
       <c r="M77" s="223"/>
       <c r="N77" s="223" t="s">
-        <v>384</v>
+        <v>545</v>
       </c>
       <c r="O77" s="223"/>
       <c r="P77" s="223"/>
@@ -21234,7 +21247,7 @@
       <c r="L80" s="223"/>
       <c r="M80" s="223"/>
       <c r="N80" s="223" t="s">
-        <v>385</v>
+        <v>546</v>
       </c>
       <c r="O80" s="223"/>
       <c r="P80" s="223"/>
@@ -37471,7 +37484,7 @@
   </mergeCells>
   <phoneticPr fontId="4"/>
   <pageMargins left="0.78740157480314965" right="0.39370078740157483" top="0.78740157480314965" bottom="0.39370078740157483" header="0.39370078740157483" footer="0.19685039370078741"/>
-  <pageSetup paperSize="9" scale="63" fitToHeight="0" orientation="landscape" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="62" fitToHeight="0" orientation="landscape" r:id="rId1"/>
   <headerFooter>
     <oddFooter>&amp;C&amp;P</oddFooter>
   </headerFooter>
@@ -42602,7 +42615,7 @@
   </mergeCells>
   <phoneticPr fontId="4"/>
   <pageMargins left="0.78740157480314965" right="0.39370078740157483" top="0.78740157480314965" bottom="0.39370078740157483" header="0.39370078740157483" footer="0.19685039370078741"/>
-  <pageSetup paperSize="9" scale="63" fitToHeight="0" orientation="landscape" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="62" fitToHeight="0" orientation="landscape" r:id="rId1"/>
   <headerFooter>
     <oddFooter>&amp;C&amp;P</oddFooter>
   </headerFooter>
@@ -54979,7 +54992,7 @@
   </mergeCells>
   <phoneticPr fontId="17"/>
   <pageMargins left="0.78740157480314965" right="0.39370078740157483" top="0.78740157480314965" bottom="0.39370078740157483" header="0.39370078740157483" footer="0.19685039370078741"/>
-  <pageSetup paperSize="9" scale="63" fitToHeight="0" orientation="landscape" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="62" fitToHeight="0" orientation="landscape" r:id="rId1"/>
   <headerFooter>
     <oddFooter>&amp;C&amp;P</oddFooter>
   </headerFooter>
@@ -68867,6 +68880,15 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x0101005B3AFDF1A27EF4448B30400A700269C9" ma:contentTypeVersion="7" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="af1e50296a73b747a155d4c5a148cd8b">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="72c70d25-b9e8-475b-ae7b-39931ca24b85" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="d7c374c4e1cfeff0cf58497e8c642c22" ns2:_="">
     <xsd:import namespace="72c70d25-b9e8-475b-ae7b-39931ca24b85"/>
@@ -69024,15 +69046,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7B96F246-76A3-4A27-8547-17CD1E715E86}">
   <ds:schemaRefs>
@@ -69050,6 +69063,14 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7CA02E59-26EF-42FD-ADE3-8B1F7DDCD7B9}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1F39FE47-ED8B-411A-AD54-8C8E5636C88B}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -69065,12 +69086,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7CA02E59-26EF-42FD-ADE3-8B1F7DDCD7B9}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/01_基本設計書/20200220リリース/SC-K13_当日実績参照.xlsx
+++ b/01_基本設計書/20200220リリース/SC-K13_当日実績参照.xlsx
@@ -9,9 +9,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ローカル作業_Wang\backdoor\GitHub\backdoor\01_基本設計書\20200220リリース\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE6A01AC-EF2E-4CFA-8963-1B30A07070B6}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75FB9568-81BA-4BFD-8AD3-DCE68E317B01}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="703" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="703" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="表紙" sheetId="3" r:id="rId1"/>
@@ -135,7 +135,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1889" uniqueCount="547">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1889" uniqueCount="548">
   <si>
     <t>プロジェクト名</t>
     <rPh sb="6" eb="7">
@@ -3163,9 +3163,6 @@
     <t>生産品名マスタ.納入区分</t>
   </si>
   <si>
-    <t>生産品名マスタ.品名半品名区分</t>
-  </si>
-  <si>
     <t>生産品名マスタ.品名略称</t>
     <rPh sb="0" eb="2">
       <t>セイサン</t>
@@ -3575,6 +3572,14 @@
   </si>
   <si>
     <t>・実績管理データ.設備NO</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>生産製品マスタ.製品半製品区分</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>生産品名マスタ.製品半製品区分</t>
     <phoneticPr fontId="4"/>
   </si>
 </sst>
@@ -5014,91 +5019,6 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="16" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -5125,6 +5045,91 @@
     </xf>
     <xf numFmtId="0" fontId="20" fillId="3" borderId="7" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="16" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="8" xfId="13" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -6079,7 +6084,7 @@
               <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
               <a:extLst>
                 <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="参照用レイアウト!$B$2:$CX$44" spid="_x0000_s3764"/>
+                  <a14:cameraTool cellRange="参照用レイアウト!$B$2:$CX$44" spid="_x0000_s3809"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPicPr>
@@ -6144,7 +6149,7 @@
               <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
               <a:extLst>
                 <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="参照用レイアウト!$B$47:$CX$89" spid="_x0000_s3765"/>
+                  <a14:cameraTool cellRange="参照用レイアウト!$B$47:$CX$89" spid="_x0000_s3810"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPicPr>
@@ -6209,7 +6214,7 @@
               <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
               <a:extLst>
                 <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="参照用レイアウト!$B$92:$CX$134" spid="_x0000_s3766"/>
+                  <a14:cameraTool cellRange="参照用レイアウト!$B$92:$CX$134" spid="_x0000_s3811"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPicPr>
@@ -8337,1779 +8342,1994 @@
   <sheetData>
     <row r="1" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="56"/>
-      <c r="B1" s="276" t="s">
+      <c r="B1" s="245" t="s">
         <v>6</v>
       </c>
-      <c r="C1" s="276"/>
-      <c r="D1" s="276"/>
-      <c r="E1" s="276"/>
-      <c r="F1" s="276"/>
-      <c r="G1" s="276"/>
-      <c r="H1" s="276"/>
-      <c r="I1" s="276"/>
-      <c r="J1" s="276"/>
-      <c r="K1" s="276"/>
-      <c r="L1" s="276"/>
-      <c r="M1" s="276"/>
-      <c r="N1" s="276"/>
-      <c r="O1" s="276"/>
-      <c r="P1" s="276"/>
-      <c r="Q1" s="276"/>
-      <c r="R1" s="276"/>
-      <c r="S1" s="276"/>
-      <c r="T1" s="276"/>
-      <c r="U1" s="276"/>
-      <c r="V1" s="276"/>
-      <c r="W1" s="276"/>
-      <c r="X1" s="276"/>
-      <c r="Y1" s="276"/>
-      <c r="Z1" s="276"/>
-      <c r="AA1" s="276"/>
-      <c r="AB1" s="276"/>
-      <c r="AC1" s="276"/>
-      <c r="AD1" s="276"/>
-      <c r="AE1" s="276"/>
-      <c r="AF1" s="276"/>
-      <c r="AG1" s="276"/>
-      <c r="AH1" s="276"/>
-      <c r="AI1" s="276"/>
-      <c r="AJ1" s="276"/>
-      <c r="AK1" s="276"/>
-      <c r="AL1" s="276"/>
-      <c r="AM1" s="276"/>
-      <c r="AN1" s="276"/>
-      <c r="AO1" s="276"/>
-      <c r="AP1" s="276"/>
-      <c r="AQ1" s="276"/>
-      <c r="AR1" s="276"/>
-      <c r="AS1" s="276"/>
-      <c r="AT1" s="276"/>
-      <c r="AU1" s="276"/>
-      <c r="AV1" s="276"/>
-      <c r="AW1" s="276"/>
+      <c r="C1" s="245"/>
+      <c r="D1" s="245"/>
+      <c r="E1" s="245"/>
+      <c r="F1" s="245"/>
+      <c r="G1" s="245"/>
+      <c r="H1" s="245"/>
+      <c r="I1" s="245"/>
+      <c r="J1" s="245"/>
+      <c r="K1" s="245"/>
+      <c r="L1" s="245"/>
+      <c r="M1" s="245"/>
+      <c r="N1" s="245"/>
+      <c r="O1" s="245"/>
+      <c r="P1" s="245"/>
+      <c r="Q1" s="245"/>
+      <c r="R1" s="245"/>
+      <c r="S1" s="245"/>
+      <c r="T1" s="245"/>
+      <c r="U1" s="245"/>
+      <c r="V1" s="245"/>
+      <c r="W1" s="245"/>
+      <c r="X1" s="245"/>
+      <c r="Y1" s="245"/>
+      <c r="Z1" s="245"/>
+      <c r="AA1" s="245"/>
+      <c r="AB1" s="245"/>
+      <c r="AC1" s="245"/>
+      <c r="AD1" s="245"/>
+      <c r="AE1" s="245"/>
+      <c r="AF1" s="245"/>
+      <c r="AG1" s="245"/>
+      <c r="AH1" s="245"/>
+      <c r="AI1" s="245"/>
+      <c r="AJ1" s="245"/>
+      <c r="AK1" s="245"/>
+      <c r="AL1" s="245"/>
+      <c r="AM1" s="245"/>
+      <c r="AN1" s="245"/>
+      <c r="AO1" s="245"/>
+      <c r="AP1" s="245"/>
+      <c r="AQ1" s="245"/>
+      <c r="AR1" s="245"/>
+      <c r="AS1" s="245"/>
+      <c r="AT1" s="245"/>
+      <c r="AU1" s="245"/>
+      <c r="AV1" s="245"/>
+      <c r="AW1" s="245"/>
     </row>
     <row r="2" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="56"/>
-      <c r="B2" s="277"/>
-      <c r="C2" s="277"/>
-      <c r="D2" s="277"/>
-      <c r="E2" s="277"/>
-      <c r="F2" s="277"/>
-      <c r="G2" s="277"/>
-      <c r="H2" s="277"/>
-      <c r="I2" s="277"/>
-      <c r="J2" s="277"/>
-      <c r="K2" s="277"/>
-      <c r="L2" s="277"/>
-      <c r="M2" s="277"/>
-      <c r="N2" s="277"/>
-      <c r="O2" s="277"/>
-      <c r="P2" s="277"/>
-      <c r="Q2" s="277"/>
-      <c r="R2" s="277"/>
-      <c r="S2" s="277"/>
-      <c r="T2" s="277"/>
-      <c r="U2" s="277"/>
-      <c r="V2" s="277"/>
-      <c r="W2" s="277"/>
-      <c r="X2" s="277"/>
-      <c r="Y2" s="277"/>
-      <c r="Z2" s="277"/>
-      <c r="AA2" s="277"/>
-      <c r="AB2" s="277"/>
-      <c r="AC2" s="277"/>
-      <c r="AD2" s="277"/>
-      <c r="AE2" s="277"/>
-      <c r="AF2" s="277"/>
-      <c r="AG2" s="277"/>
-      <c r="AH2" s="277"/>
-      <c r="AI2" s="277"/>
-      <c r="AJ2" s="277"/>
-      <c r="AK2" s="277"/>
-      <c r="AL2" s="277"/>
-      <c r="AM2" s="277"/>
-      <c r="AN2" s="277"/>
-      <c r="AO2" s="277"/>
-      <c r="AP2" s="277"/>
-      <c r="AQ2" s="277"/>
-      <c r="AR2" s="277"/>
-      <c r="AS2" s="277"/>
-      <c r="AT2" s="277"/>
-      <c r="AU2" s="277"/>
-      <c r="AV2" s="277"/>
-      <c r="AW2" s="277"/>
+      <c r="B2" s="246"/>
+      <c r="C2" s="246"/>
+      <c r="D2" s="246"/>
+      <c r="E2" s="246"/>
+      <c r="F2" s="246"/>
+      <c r="G2" s="246"/>
+      <c r="H2" s="246"/>
+      <c r="I2" s="246"/>
+      <c r="J2" s="246"/>
+      <c r="K2" s="246"/>
+      <c r="L2" s="246"/>
+      <c r="M2" s="246"/>
+      <c r="N2" s="246"/>
+      <c r="O2" s="246"/>
+      <c r="P2" s="246"/>
+      <c r="Q2" s="246"/>
+      <c r="R2" s="246"/>
+      <c r="S2" s="246"/>
+      <c r="T2" s="246"/>
+      <c r="U2" s="246"/>
+      <c r="V2" s="246"/>
+      <c r="W2" s="246"/>
+      <c r="X2" s="246"/>
+      <c r="Y2" s="246"/>
+      <c r="Z2" s="246"/>
+      <c r="AA2" s="246"/>
+      <c r="AB2" s="246"/>
+      <c r="AC2" s="246"/>
+      <c r="AD2" s="246"/>
+      <c r="AE2" s="246"/>
+      <c r="AF2" s="246"/>
+      <c r="AG2" s="246"/>
+      <c r="AH2" s="246"/>
+      <c r="AI2" s="246"/>
+      <c r="AJ2" s="246"/>
+      <c r="AK2" s="246"/>
+      <c r="AL2" s="246"/>
+      <c r="AM2" s="246"/>
+      <c r="AN2" s="246"/>
+      <c r="AO2" s="246"/>
+      <c r="AP2" s="246"/>
+      <c r="AQ2" s="246"/>
+      <c r="AR2" s="246"/>
+      <c r="AS2" s="246"/>
+      <c r="AT2" s="246"/>
+      <c r="AU2" s="246"/>
+      <c r="AV2" s="246"/>
+      <c r="AW2" s="246"/>
     </row>
     <row r="3" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="56"/>
-      <c r="B3" s="278" t="s">
+      <c r="B3" s="247" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="278"/>
-      <c r="D3" s="278"/>
-      <c r="E3" s="278" t="s">
+      <c r="C3" s="247"/>
+      <c r="D3" s="247"/>
+      <c r="E3" s="247" t="s">
         <v>8</v>
       </c>
-      <c r="F3" s="278"/>
-      <c r="G3" s="278"/>
-      <c r="H3" s="278"/>
-      <c r="I3" s="278"/>
-      <c r="J3" s="279" t="s">
+      <c r="F3" s="247"/>
+      <c r="G3" s="247"/>
+      <c r="H3" s="247"/>
+      <c r="I3" s="247"/>
+      <c r="J3" s="248" t="s">
         <v>9</v>
       </c>
-      <c r="K3" s="280"/>
-      <c r="L3" s="281"/>
-      <c r="M3" s="279" t="s">
+      <c r="K3" s="249"/>
+      <c r="L3" s="250"/>
+      <c r="M3" s="248" t="s">
         <v>10</v>
       </c>
-      <c r="N3" s="280"/>
-      <c r="O3" s="280"/>
-      <c r="P3" s="280"/>
-      <c r="Q3" s="280"/>
-      <c r="R3" s="281"/>
-      <c r="S3" s="278" t="s">
+      <c r="N3" s="249"/>
+      <c r="O3" s="249"/>
+      <c r="P3" s="249"/>
+      <c r="Q3" s="249"/>
+      <c r="R3" s="250"/>
+      <c r="S3" s="247" t="s">
         <v>11</v>
       </c>
-      <c r="T3" s="278"/>
-      <c r="U3" s="278"/>
-      <c r="V3" s="278" t="s">
+      <c r="T3" s="247"/>
+      <c r="U3" s="247"/>
+      <c r="V3" s="247" t="s">
         <v>12</v>
       </c>
-      <c r="W3" s="278"/>
-      <c r="X3" s="278"/>
-      <c r="Y3" s="278"/>
-      <c r="Z3" s="278"/>
-      <c r="AA3" s="278"/>
-      <c r="AB3" s="278"/>
-      <c r="AC3" s="278"/>
-      <c r="AD3" s="278"/>
-      <c r="AE3" s="278"/>
-      <c r="AF3" s="278"/>
-      <c r="AG3" s="278"/>
-      <c r="AH3" s="278"/>
-      <c r="AI3" s="278"/>
-      <c r="AJ3" s="278"/>
-      <c r="AK3" s="278"/>
-      <c r="AL3" s="278"/>
-      <c r="AM3" s="278"/>
-      <c r="AN3" s="278" t="s">
+      <c r="W3" s="247"/>
+      <c r="X3" s="247"/>
+      <c r="Y3" s="247"/>
+      <c r="Z3" s="247"/>
+      <c r="AA3" s="247"/>
+      <c r="AB3" s="247"/>
+      <c r="AC3" s="247"/>
+      <c r="AD3" s="247"/>
+      <c r="AE3" s="247"/>
+      <c r="AF3" s="247"/>
+      <c r="AG3" s="247"/>
+      <c r="AH3" s="247"/>
+      <c r="AI3" s="247"/>
+      <c r="AJ3" s="247"/>
+      <c r="AK3" s="247"/>
+      <c r="AL3" s="247"/>
+      <c r="AM3" s="247"/>
+      <c r="AN3" s="247" t="s">
         <v>13</v>
       </c>
-      <c r="AO3" s="278"/>
-      <c r="AP3" s="278"/>
-      <c r="AQ3" s="278"/>
-      <c r="AR3" s="278"/>
-      <c r="AS3" s="278" t="s">
+      <c r="AO3" s="247"/>
+      <c r="AP3" s="247"/>
+      <c r="AQ3" s="247"/>
+      <c r="AR3" s="247"/>
+      <c r="AS3" s="247" t="s">
         <v>14</v>
       </c>
-      <c r="AT3" s="278"/>
-      <c r="AU3" s="278"/>
-      <c r="AV3" s="278"/>
-      <c r="AW3" s="278"/>
+      <c r="AT3" s="247"/>
+      <c r="AU3" s="247"/>
+      <c r="AV3" s="247"/>
+      <c r="AW3" s="247"/>
     </row>
     <row r="4" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="56"/>
-      <c r="B4" s="278"/>
-      <c r="C4" s="278"/>
-      <c r="D4" s="278"/>
-      <c r="E4" s="278"/>
-      <c r="F4" s="278"/>
-      <c r="G4" s="278"/>
-      <c r="H4" s="278"/>
-      <c r="I4" s="278"/>
-      <c r="J4" s="282"/>
-      <c r="K4" s="283"/>
-      <c r="L4" s="284"/>
-      <c r="M4" s="282"/>
-      <c r="N4" s="283"/>
-      <c r="O4" s="283"/>
-      <c r="P4" s="283"/>
-      <c r="Q4" s="283"/>
-      <c r="R4" s="284"/>
-      <c r="S4" s="278"/>
-      <c r="T4" s="278"/>
-      <c r="U4" s="278"/>
-      <c r="V4" s="278"/>
-      <c r="W4" s="278"/>
-      <c r="X4" s="278"/>
-      <c r="Y4" s="278"/>
-      <c r="Z4" s="278"/>
-      <c r="AA4" s="278"/>
-      <c r="AB4" s="278"/>
-      <c r="AC4" s="278"/>
-      <c r="AD4" s="278"/>
-      <c r="AE4" s="278"/>
-      <c r="AF4" s="278"/>
-      <c r="AG4" s="278"/>
-      <c r="AH4" s="278"/>
-      <c r="AI4" s="278"/>
-      <c r="AJ4" s="278"/>
-      <c r="AK4" s="278"/>
-      <c r="AL4" s="278"/>
-      <c r="AM4" s="278"/>
-      <c r="AN4" s="278"/>
-      <c r="AO4" s="278"/>
-      <c r="AP4" s="278"/>
-      <c r="AQ4" s="278"/>
-      <c r="AR4" s="278"/>
-      <c r="AS4" s="278"/>
-      <c r="AT4" s="278"/>
-      <c r="AU4" s="278"/>
-      <c r="AV4" s="278"/>
-      <c r="AW4" s="278"/>
+      <c r="B4" s="247"/>
+      <c r="C4" s="247"/>
+      <c r="D4" s="247"/>
+      <c r="E4" s="247"/>
+      <c r="F4" s="247"/>
+      <c r="G4" s="247"/>
+      <c r="H4" s="247"/>
+      <c r="I4" s="247"/>
+      <c r="J4" s="251"/>
+      <c r="K4" s="252"/>
+      <c r="L4" s="253"/>
+      <c r="M4" s="251"/>
+      <c r="N4" s="252"/>
+      <c r="O4" s="252"/>
+      <c r="P4" s="252"/>
+      <c r="Q4" s="252"/>
+      <c r="R4" s="253"/>
+      <c r="S4" s="247"/>
+      <c r="T4" s="247"/>
+      <c r="U4" s="247"/>
+      <c r="V4" s="247"/>
+      <c r="W4" s="247"/>
+      <c r="X4" s="247"/>
+      <c r="Y4" s="247"/>
+      <c r="Z4" s="247"/>
+      <c r="AA4" s="247"/>
+      <c r="AB4" s="247"/>
+      <c r="AC4" s="247"/>
+      <c r="AD4" s="247"/>
+      <c r="AE4" s="247"/>
+      <c r="AF4" s="247"/>
+      <c r="AG4" s="247"/>
+      <c r="AH4" s="247"/>
+      <c r="AI4" s="247"/>
+      <c r="AJ4" s="247"/>
+      <c r="AK4" s="247"/>
+      <c r="AL4" s="247"/>
+      <c r="AM4" s="247"/>
+      <c r="AN4" s="247"/>
+      <c r="AO4" s="247"/>
+      <c r="AP4" s="247"/>
+      <c r="AQ4" s="247"/>
+      <c r="AR4" s="247"/>
+      <c r="AS4" s="247"/>
+      <c r="AT4" s="247"/>
+      <c r="AU4" s="247"/>
+      <c r="AV4" s="247"/>
+      <c r="AW4" s="247"/>
     </row>
     <row r="5" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A5" s="58"/>
-      <c r="B5" s="270">
+      <c r="B5" s="255">
         <v>1</v>
       </c>
-      <c r="C5" s="270"/>
-      <c r="D5" s="270"/>
-      <c r="E5" s="251">
+      <c r="C5" s="255"/>
+      <c r="D5" s="255"/>
+      <c r="E5" s="256">
         <v>43711</v>
       </c>
-      <c r="F5" s="251"/>
-      <c r="G5" s="251"/>
-      <c r="H5" s="251"/>
-      <c r="I5" s="251"/>
-      <c r="J5" s="252" t="s">
+      <c r="F5" s="256"/>
+      <c r="G5" s="256"/>
+      <c r="H5" s="256"/>
+      <c r="I5" s="256"/>
+      <c r="J5" s="257" t="s">
         <v>15</v>
       </c>
-      <c r="K5" s="253"/>
-      <c r="L5" s="254"/>
-      <c r="M5" s="252" t="s">
+      <c r="K5" s="258"/>
+      <c r="L5" s="259"/>
+      <c r="M5" s="257" t="s">
         <v>16</v>
       </c>
-      <c r="N5" s="253"/>
-      <c r="O5" s="253"/>
-      <c r="P5" s="253"/>
-      <c r="Q5" s="253"/>
-      <c r="R5" s="254"/>
-      <c r="S5" s="258" t="s">
+      <c r="N5" s="258"/>
+      <c r="O5" s="258"/>
+      <c r="P5" s="258"/>
+      <c r="Q5" s="258"/>
+      <c r="R5" s="259"/>
+      <c r="S5" s="254" t="s">
         <v>17</v>
       </c>
-      <c r="T5" s="258"/>
-      <c r="U5" s="258"/>
-      <c r="V5" s="269" t="s">
+      <c r="T5" s="254"/>
+      <c r="U5" s="254"/>
+      <c r="V5" s="263" t="s">
         <v>18</v>
       </c>
-      <c r="W5" s="269"/>
-      <c r="X5" s="269"/>
-      <c r="Y5" s="269"/>
-      <c r="Z5" s="269"/>
-      <c r="AA5" s="269"/>
-      <c r="AB5" s="269"/>
-      <c r="AC5" s="269"/>
-      <c r="AD5" s="269"/>
-      <c r="AE5" s="269"/>
-      <c r="AF5" s="269"/>
-      <c r="AG5" s="269"/>
-      <c r="AH5" s="269"/>
-      <c r="AI5" s="269"/>
-      <c r="AJ5" s="269"/>
-      <c r="AK5" s="269"/>
-      <c r="AL5" s="269"/>
-      <c r="AM5" s="269"/>
-      <c r="AN5" s="258" t="s">
+      <c r="W5" s="263"/>
+      <c r="X5" s="263"/>
+      <c r="Y5" s="263"/>
+      <c r="Z5" s="263"/>
+      <c r="AA5" s="263"/>
+      <c r="AB5" s="263"/>
+      <c r="AC5" s="263"/>
+      <c r="AD5" s="263"/>
+      <c r="AE5" s="263"/>
+      <c r="AF5" s="263"/>
+      <c r="AG5" s="263"/>
+      <c r="AH5" s="263"/>
+      <c r="AI5" s="263"/>
+      <c r="AJ5" s="263"/>
+      <c r="AK5" s="263"/>
+      <c r="AL5" s="263"/>
+      <c r="AM5" s="263"/>
+      <c r="AN5" s="254" t="s">
         <v>128</v>
       </c>
-      <c r="AO5" s="258"/>
-      <c r="AP5" s="258"/>
-      <c r="AQ5" s="258"/>
-      <c r="AR5" s="258"/>
-      <c r="AS5" s="258"/>
-      <c r="AT5" s="258"/>
-      <c r="AU5" s="258"/>
-      <c r="AV5" s="258"/>
-      <c r="AW5" s="258"/>
+      <c r="AO5" s="254"/>
+      <c r="AP5" s="254"/>
+      <c r="AQ5" s="254"/>
+      <c r="AR5" s="254"/>
+      <c r="AS5" s="254"/>
+      <c r="AT5" s="254"/>
+      <c r="AU5" s="254"/>
+      <c r="AV5" s="254"/>
+      <c r="AW5" s="254"/>
     </row>
     <row r="6" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A6" s="58"/>
-      <c r="B6" s="270"/>
-      <c r="C6" s="270"/>
-      <c r="D6" s="270"/>
-      <c r="E6" s="251"/>
-      <c r="F6" s="251"/>
-      <c r="G6" s="251"/>
-      <c r="H6" s="251"/>
-      <c r="I6" s="251"/>
-      <c r="J6" s="252"/>
-      <c r="K6" s="253"/>
-      <c r="L6" s="254"/>
-      <c r="M6" s="273"/>
-      <c r="N6" s="274"/>
-      <c r="O6" s="274"/>
-      <c r="P6" s="274"/>
-      <c r="Q6" s="274"/>
-      <c r="R6" s="275"/>
-      <c r="S6" s="258"/>
-      <c r="T6" s="258"/>
-      <c r="U6" s="258"/>
-      <c r="V6" s="269"/>
-      <c r="W6" s="269"/>
-      <c r="X6" s="269"/>
-      <c r="Y6" s="269"/>
-      <c r="Z6" s="269"/>
-      <c r="AA6" s="269"/>
-      <c r="AB6" s="269"/>
-      <c r="AC6" s="269"/>
-      <c r="AD6" s="269"/>
-      <c r="AE6" s="269"/>
-      <c r="AF6" s="269"/>
-      <c r="AG6" s="269"/>
-      <c r="AH6" s="269"/>
-      <c r="AI6" s="269"/>
-      <c r="AJ6" s="269"/>
-      <c r="AK6" s="269"/>
-      <c r="AL6" s="269"/>
-      <c r="AM6" s="269"/>
-      <c r="AN6" s="258"/>
-      <c r="AO6" s="258"/>
-      <c r="AP6" s="258"/>
-      <c r="AQ6" s="258"/>
-      <c r="AR6" s="258"/>
-      <c r="AS6" s="258"/>
-      <c r="AT6" s="258"/>
-      <c r="AU6" s="258"/>
-      <c r="AV6" s="258"/>
-      <c r="AW6" s="258"/>
+      <c r="B6" s="255"/>
+      <c r="C6" s="255"/>
+      <c r="D6" s="255"/>
+      <c r="E6" s="256"/>
+      <c r="F6" s="256"/>
+      <c r="G6" s="256"/>
+      <c r="H6" s="256"/>
+      <c r="I6" s="256"/>
+      <c r="J6" s="257"/>
+      <c r="K6" s="258"/>
+      <c r="L6" s="259"/>
+      <c r="M6" s="260"/>
+      <c r="N6" s="261"/>
+      <c r="O6" s="261"/>
+      <c r="P6" s="261"/>
+      <c r="Q6" s="261"/>
+      <c r="R6" s="262"/>
+      <c r="S6" s="254"/>
+      <c r="T6" s="254"/>
+      <c r="U6" s="254"/>
+      <c r="V6" s="263"/>
+      <c r="W6" s="263"/>
+      <c r="X6" s="263"/>
+      <c r="Y6" s="263"/>
+      <c r="Z6" s="263"/>
+      <c r="AA6" s="263"/>
+      <c r="AB6" s="263"/>
+      <c r="AC6" s="263"/>
+      <c r="AD6" s="263"/>
+      <c r="AE6" s="263"/>
+      <c r="AF6" s="263"/>
+      <c r="AG6" s="263"/>
+      <c r="AH6" s="263"/>
+      <c r="AI6" s="263"/>
+      <c r="AJ6" s="263"/>
+      <c r="AK6" s="263"/>
+      <c r="AL6" s="263"/>
+      <c r="AM6" s="263"/>
+      <c r="AN6" s="254"/>
+      <c r="AO6" s="254"/>
+      <c r="AP6" s="254"/>
+      <c r="AQ6" s="254"/>
+      <c r="AR6" s="254"/>
+      <c r="AS6" s="254"/>
+      <c r="AT6" s="254"/>
+      <c r="AU6" s="254"/>
+      <c r="AV6" s="254"/>
+      <c r="AW6" s="254"/>
     </row>
     <row r="7" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A7" s="58"/>
-      <c r="B7" s="270"/>
-      <c r="C7" s="270"/>
-      <c r="D7" s="270"/>
-      <c r="E7" s="251"/>
-      <c r="F7" s="251"/>
-      <c r="G7" s="251"/>
-      <c r="H7" s="251"/>
-      <c r="I7" s="251"/>
-      <c r="J7" s="252"/>
-      <c r="K7" s="253"/>
-      <c r="L7" s="254"/>
-      <c r="M7" s="273"/>
-      <c r="N7" s="274"/>
-      <c r="O7" s="274"/>
-      <c r="P7" s="274"/>
-      <c r="Q7" s="274"/>
-      <c r="R7" s="275"/>
-      <c r="S7" s="258"/>
-      <c r="T7" s="258"/>
-      <c r="U7" s="258"/>
-      <c r="V7" s="269"/>
-      <c r="W7" s="269"/>
-      <c r="X7" s="269"/>
-      <c r="Y7" s="269"/>
-      <c r="Z7" s="269"/>
-      <c r="AA7" s="269"/>
-      <c r="AB7" s="269"/>
-      <c r="AC7" s="269"/>
-      <c r="AD7" s="269"/>
-      <c r="AE7" s="269"/>
-      <c r="AF7" s="269"/>
-      <c r="AG7" s="269"/>
-      <c r="AH7" s="269"/>
-      <c r="AI7" s="269"/>
-      <c r="AJ7" s="269"/>
-      <c r="AK7" s="269"/>
-      <c r="AL7" s="269"/>
-      <c r="AM7" s="269"/>
-      <c r="AN7" s="258"/>
-      <c r="AO7" s="258"/>
-      <c r="AP7" s="258"/>
-      <c r="AQ7" s="258"/>
-      <c r="AR7" s="258"/>
-      <c r="AS7" s="258"/>
-      <c r="AT7" s="258"/>
-      <c r="AU7" s="258"/>
-      <c r="AV7" s="258"/>
-      <c r="AW7" s="258"/>
+      <c r="B7" s="255"/>
+      <c r="C7" s="255"/>
+      <c r="D7" s="255"/>
+      <c r="E7" s="256"/>
+      <c r="F7" s="256"/>
+      <c r="G7" s="256"/>
+      <c r="H7" s="256"/>
+      <c r="I7" s="256"/>
+      <c r="J7" s="257"/>
+      <c r="K7" s="258"/>
+      <c r="L7" s="259"/>
+      <c r="M7" s="260"/>
+      <c r="N7" s="261"/>
+      <c r="O7" s="261"/>
+      <c r="P7" s="261"/>
+      <c r="Q7" s="261"/>
+      <c r="R7" s="262"/>
+      <c r="S7" s="254"/>
+      <c r="T7" s="254"/>
+      <c r="U7" s="254"/>
+      <c r="V7" s="263"/>
+      <c r="W7" s="263"/>
+      <c r="X7" s="263"/>
+      <c r="Y7" s="263"/>
+      <c r="Z7" s="263"/>
+      <c r="AA7" s="263"/>
+      <c r="AB7" s="263"/>
+      <c r="AC7" s="263"/>
+      <c r="AD7" s="263"/>
+      <c r="AE7" s="263"/>
+      <c r="AF7" s="263"/>
+      <c r="AG7" s="263"/>
+      <c r="AH7" s="263"/>
+      <c r="AI7" s="263"/>
+      <c r="AJ7" s="263"/>
+      <c r="AK7" s="263"/>
+      <c r="AL7" s="263"/>
+      <c r="AM7" s="263"/>
+      <c r="AN7" s="254"/>
+      <c r="AO7" s="254"/>
+      <c r="AP7" s="254"/>
+      <c r="AQ7" s="254"/>
+      <c r="AR7" s="254"/>
+      <c r="AS7" s="254"/>
+      <c r="AT7" s="254"/>
+      <c r="AU7" s="254"/>
+      <c r="AV7" s="254"/>
+      <c r="AW7" s="254"/>
     </row>
     <row r="8" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A8" s="58"/>
-      <c r="B8" s="270"/>
-      <c r="C8" s="270"/>
-      <c r="D8" s="270"/>
-      <c r="E8" s="251"/>
-      <c r="F8" s="251"/>
-      <c r="G8" s="251"/>
-      <c r="H8" s="251"/>
-      <c r="I8" s="251"/>
-      <c r="J8" s="252"/>
-      <c r="K8" s="253"/>
-      <c r="L8" s="254"/>
-      <c r="M8" s="273"/>
-      <c r="N8" s="274"/>
-      <c r="O8" s="274"/>
-      <c r="P8" s="274"/>
-      <c r="Q8" s="274"/>
-      <c r="R8" s="275"/>
-      <c r="S8" s="258"/>
-      <c r="T8" s="258"/>
-      <c r="U8" s="258"/>
-      <c r="V8" s="269"/>
-      <c r="W8" s="269"/>
-      <c r="X8" s="269"/>
-      <c r="Y8" s="269"/>
-      <c r="Z8" s="269"/>
-      <c r="AA8" s="269"/>
-      <c r="AB8" s="269"/>
-      <c r="AC8" s="269"/>
-      <c r="AD8" s="269"/>
-      <c r="AE8" s="269"/>
-      <c r="AF8" s="269"/>
-      <c r="AG8" s="269"/>
-      <c r="AH8" s="269"/>
-      <c r="AI8" s="269"/>
-      <c r="AJ8" s="269"/>
-      <c r="AK8" s="269"/>
-      <c r="AL8" s="269"/>
-      <c r="AM8" s="269"/>
-      <c r="AN8" s="258"/>
-      <c r="AO8" s="258"/>
-      <c r="AP8" s="258"/>
-      <c r="AQ8" s="258"/>
-      <c r="AR8" s="258"/>
-      <c r="AS8" s="258"/>
-      <c r="AT8" s="258"/>
-      <c r="AU8" s="258"/>
-      <c r="AV8" s="258"/>
-      <c r="AW8" s="258"/>
+      <c r="B8" s="255"/>
+      <c r="C8" s="255"/>
+      <c r="D8" s="255"/>
+      <c r="E8" s="256"/>
+      <c r="F8" s="256"/>
+      <c r="G8" s="256"/>
+      <c r="H8" s="256"/>
+      <c r="I8" s="256"/>
+      <c r="J8" s="257"/>
+      <c r="K8" s="258"/>
+      <c r="L8" s="259"/>
+      <c r="M8" s="260"/>
+      <c r="N8" s="261"/>
+      <c r="O8" s="261"/>
+      <c r="P8" s="261"/>
+      <c r="Q8" s="261"/>
+      <c r="R8" s="262"/>
+      <c r="S8" s="254"/>
+      <c r="T8" s="254"/>
+      <c r="U8" s="254"/>
+      <c r="V8" s="263"/>
+      <c r="W8" s="263"/>
+      <c r="X8" s="263"/>
+      <c r="Y8" s="263"/>
+      <c r="Z8" s="263"/>
+      <c r="AA8" s="263"/>
+      <c r="AB8" s="263"/>
+      <c r="AC8" s="263"/>
+      <c r="AD8" s="263"/>
+      <c r="AE8" s="263"/>
+      <c r="AF8" s="263"/>
+      <c r="AG8" s="263"/>
+      <c r="AH8" s="263"/>
+      <c r="AI8" s="263"/>
+      <c r="AJ8" s="263"/>
+      <c r="AK8" s="263"/>
+      <c r="AL8" s="263"/>
+      <c r="AM8" s="263"/>
+      <c r="AN8" s="254"/>
+      <c r="AO8" s="254"/>
+      <c r="AP8" s="254"/>
+      <c r="AQ8" s="254"/>
+      <c r="AR8" s="254"/>
+      <c r="AS8" s="254"/>
+      <c r="AT8" s="254"/>
+      <c r="AU8" s="254"/>
+      <c r="AV8" s="254"/>
+      <c r="AW8" s="254"/>
     </row>
     <row r="9" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A9" s="58"/>
-      <c r="B9" s="270"/>
-      <c r="C9" s="270"/>
-      <c r="D9" s="270"/>
-      <c r="E9" s="251"/>
-      <c r="F9" s="251"/>
-      <c r="G9" s="251"/>
-      <c r="H9" s="251"/>
-      <c r="I9" s="251"/>
-      <c r="J9" s="252"/>
-      <c r="K9" s="253"/>
-      <c r="L9" s="254"/>
-      <c r="M9" s="273"/>
-      <c r="N9" s="274"/>
-      <c r="O9" s="274"/>
-      <c r="P9" s="274"/>
-      <c r="Q9" s="274"/>
-      <c r="R9" s="275"/>
-      <c r="S9" s="258"/>
-      <c r="T9" s="258"/>
-      <c r="U9" s="258"/>
-      <c r="V9" s="269"/>
-      <c r="W9" s="269"/>
-      <c r="X9" s="269"/>
-      <c r="Y9" s="269"/>
-      <c r="Z9" s="269"/>
-      <c r="AA9" s="269"/>
-      <c r="AB9" s="269"/>
-      <c r="AC9" s="269"/>
-      <c r="AD9" s="269"/>
-      <c r="AE9" s="269"/>
-      <c r="AF9" s="269"/>
-      <c r="AG9" s="269"/>
-      <c r="AH9" s="269"/>
-      <c r="AI9" s="269"/>
-      <c r="AJ9" s="269"/>
-      <c r="AK9" s="269"/>
-      <c r="AL9" s="269"/>
-      <c r="AM9" s="269"/>
-      <c r="AN9" s="258"/>
-      <c r="AO9" s="258"/>
-      <c r="AP9" s="258"/>
-      <c r="AQ9" s="258"/>
-      <c r="AR9" s="258"/>
-      <c r="AS9" s="258"/>
-      <c r="AT9" s="258"/>
-      <c r="AU9" s="258"/>
-      <c r="AV9" s="258"/>
-      <c r="AW9" s="258"/>
+      <c r="B9" s="255"/>
+      <c r="C9" s="255"/>
+      <c r="D9" s="255"/>
+      <c r="E9" s="256"/>
+      <c r="F9" s="256"/>
+      <c r="G9" s="256"/>
+      <c r="H9" s="256"/>
+      <c r="I9" s="256"/>
+      <c r="J9" s="257"/>
+      <c r="K9" s="258"/>
+      <c r="L9" s="259"/>
+      <c r="M9" s="260"/>
+      <c r="N9" s="261"/>
+      <c r="O9" s="261"/>
+      <c r="P9" s="261"/>
+      <c r="Q9" s="261"/>
+      <c r="R9" s="262"/>
+      <c r="S9" s="254"/>
+      <c r="T9" s="254"/>
+      <c r="U9" s="254"/>
+      <c r="V9" s="263"/>
+      <c r="W9" s="263"/>
+      <c r="X9" s="263"/>
+      <c r="Y9" s="263"/>
+      <c r="Z9" s="263"/>
+      <c r="AA9" s="263"/>
+      <c r="AB9" s="263"/>
+      <c r="AC9" s="263"/>
+      <c r="AD9" s="263"/>
+      <c r="AE9" s="263"/>
+      <c r="AF9" s="263"/>
+      <c r="AG9" s="263"/>
+      <c r="AH9" s="263"/>
+      <c r="AI9" s="263"/>
+      <c r="AJ9" s="263"/>
+      <c r="AK9" s="263"/>
+      <c r="AL9" s="263"/>
+      <c r="AM9" s="263"/>
+      <c r="AN9" s="254"/>
+      <c r="AO9" s="254"/>
+      <c r="AP9" s="254"/>
+      <c r="AQ9" s="254"/>
+      <c r="AR9" s="254"/>
+      <c r="AS9" s="254"/>
+      <c r="AT9" s="254"/>
+      <c r="AU9" s="254"/>
+      <c r="AV9" s="254"/>
+      <c r="AW9" s="254"/>
     </row>
     <row r="10" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A10" s="58"/>
-      <c r="B10" s="270"/>
-      <c r="C10" s="270"/>
-      <c r="D10" s="270"/>
-      <c r="E10" s="251"/>
-      <c r="F10" s="251"/>
-      <c r="G10" s="251"/>
-      <c r="H10" s="251"/>
-      <c r="I10" s="251"/>
-      <c r="J10" s="252"/>
-      <c r="K10" s="253"/>
-      <c r="L10" s="254"/>
-      <c r="M10" s="273"/>
-      <c r="N10" s="274"/>
-      <c r="O10" s="274"/>
-      <c r="P10" s="274"/>
-      <c r="Q10" s="274"/>
-      <c r="R10" s="275"/>
-      <c r="S10" s="258"/>
-      <c r="T10" s="258"/>
-      <c r="U10" s="258"/>
-      <c r="V10" s="269"/>
-      <c r="W10" s="269"/>
-      <c r="X10" s="269"/>
-      <c r="Y10" s="269"/>
-      <c r="Z10" s="269"/>
-      <c r="AA10" s="269"/>
-      <c r="AB10" s="269"/>
-      <c r="AC10" s="269"/>
-      <c r="AD10" s="269"/>
-      <c r="AE10" s="269"/>
-      <c r="AF10" s="269"/>
-      <c r="AG10" s="269"/>
-      <c r="AH10" s="269"/>
-      <c r="AI10" s="269"/>
-      <c r="AJ10" s="269"/>
-      <c r="AK10" s="269"/>
-      <c r="AL10" s="269"/>
-      <c r="AM10" s="269"/>
-      <c r="AN10" s="258"/>
-      <c r="AO10" s="258"/>
-      <c r="AP10" s="258"/>
-      <c r="AQ10" s="258"/>
-      <c r="AR10" s="258"/>
-      <c r="AS10" s="258"/>
-      <c r="AT10" s="258"/>
-      <c r="AU10" s="258"/>
-      <c r="AV10" s="258"/>
-      <c r="AW10" s="258"/>
+      <c r="B10" s="255"/>
+      <c r="C10" s="255"/>
+      <c r="D10" s="255"/>
+      <c r="E10" s="256"/>
+      <c r="F10" s="256"/>
+      <c r="G10" s="256"/>
+      <c r="H10" s="256"/>
+      <c r="I10" s="256"/>
+      <c r="J10" s="257"/>
+      <c r="K10" s="258"/>
+      <c r="L10" s="259"/>
+      <c r="M10" s="260"/>
+      <c r="N10" s="261"/>
+      <c r="O10" s="261"/>
+      <c r="P10" s="261"/>
+      <c r="Q10" s="261"/>
+      <c r="R10" s="262"/>
+      <c r="S10" s="254"/>
+      <c r="T10" s="254"/>
+      <c r="U10" s="254"/>
+      <c r="V10" s="263"/>
+      <c r="W10" s="263"/>
+      <c r="X10" s="263"/>
+      <c r="Y10" s="263"/>
+      <c r="Z10" s="263"/>
+      <c r="AA10" s="263"/>
+      <c r="AB10" s="263"/>
+      <c r="AC10" s="263"/>
+      <c r="AD10" s="263"/>
+      <c r="AE10" s="263"/>
+      <c r="AF10" s="263"/>
+      <c r="AG10" s="263"/>
+      <c r="AH10" s="263"/>
+      <c r="AI10" s="263"/>
+      <c r="AJ10" s="263"/>
+      <c r="AK10" s="263"/>
+      <c r="AL10" s="263"/>
+      <c r="AM10" s="263"/>
+      <c r="AN10" s="254"/>
+      <c r="AO10" s="254"/>
+      <c r="AP10" s="254"/>
+      <c r="AQ10" s="254"/>
+      <c r="AR10" s="254"/>
+      <c r="AS10" s="254"/>
+      <c r="AT10" s="254"/>
+      <c r="AU10" s="254"/>
+      <c r="AV10" s="254"/>
+      <c r="AW10" s="254"/>
     </row>
     <row r="11" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A11" s="58"/>
-      <c r="B11" s="270"/>
-      <c r="C11" s="270"/>
-      <c r="D11" s="270"/>
-      <c r="E11" s="251"/>
-      <c r="F11" s="251"/>
-      <c r="G11" s="251"/>
-      <c r="H11" s="251"/>
-      <c r="I11" s="251"/>
-      <c r="J11" s="252"/>
-      <c r="K11" s="253"/>
-      <c r="L11" s="254"/>
-      <c r="M11" s="265"/>
-      <c r="N11" s="263"/>
-      <c r="O11" s="263"/>
-      <c r="P11" s="263"/>
-      <c r="Q11" s="263"/>
-      <c r="R11" s="264"/>
-      <c r="S11" s="258"/>
-      <c r="T11" s="258"/>
-      <c r="U11" s="258"/>
-      <c r="V11" s="259"/>
-      <c r="W11" s="271"/>
-      <c r="X11" s="271"/>
-      <c r="Y11" s="271"/>
-      <c r="Z11" s="271"/>
-      <c r="AA11" s="271"/>
-      <c r="AB11" s="271"/>
-      <c r="AC11" s="271"/>
-      <c r="AD11" s="271"/>
-      <c r="AE11" s="271"/>
-      <c r="AF11" s="271"/>
-      <c r="AG11" s="271"/>
-      <c r="AH11" s="271"/>
-      <c r="AI11" s="271"/>
-      <c r="AJ11" s="271"/>
-      <c r="AK11" s="271"/>
-      <c r="AL11" s="271"/>
-      <c r="AM11" s="272"/>
-      <c r="AN11" s="258"/>
-      <c r="AO11" s="258"/>
-      <c r="AP11" s="258"/>
-      <c r="AQ11" s="258"/>
-      <c r="AR11" s="258"/>
-      <c r="AS11" s="258"/>
-      <c r="AT11" s="258"/>
-      <c r="AU11" s="258"/>
-      <c r="AV11" s="258"/>
-      <c r="AW11" s="258"/>
+      <c r="B11" s="255"/>
+      <c r="C11" s="255"/>
+      <c r="D11" s="255"/>
+      <c r="E11" s="256"/>
+      <c r="F11" s="256"/>
+      <c r="G11" s="256"/>
+      <c r="H11" s="256"/>
+      <c r="I11" s="256"/>
+      <c r="J11" s="257"/>
+      <c r="K11" s="258"/>
+      <c r="L11" s="259"/>
+      <c r="M11" s="267"/>
+      <c r="N11" s="268"/>
+      <c r="O11" s="268"/>
+      <c r="P11" s="268"/>
+      <c r="Q11" s="268"/>
+      <c r="R11" s="269"/>
+      <c r="S11" s="254"/>
+      <c r="T11" s="254"/>
+      <c r="U11" s="254"/>
+      <c r="V11" s="270"/>
+      <c r="W11" s="276"/>
+      <c r="X11" s="276"/>
+      <c r="Y11" s="276"/>
+      <c r="Z11" s="276"/>
+      <c r="AA11" s="276"/>
+      <c r="AB11" s="276"/>
+      <c r="AC11" s="276"/>
+      <c r="AD11" s="276"/>
+      <c r="AE11" s="276"/>
+      <c r="AF11" s="276"/>
+      <c r="AG11" s="276"/>
+      <c r="AH11" s="276"/>
+      <c r="AI11" s="276"/>
+      <c r="AJ11" s="276"/>
+      <c r="AK11" s="276"/>
+      <c r="AL11" s="276"/>
+      <c r="AM11" s="277"/>
+      <c r="AN11" s="254"/>
+      <c r="AO11" s="254"/>
+      <c r="AP11" s="254"/>
+      <c r="AQ11" s="254"/>
+      <c r="AR11" s="254"/>
+      <c r="AS11" s="254"/>
+      <c r="AT11" s="254"/>
+      <c r="AU11" s="254"/>
+      <c r="AV11" s="254"/>
+      <c r="AW11" s="254"/>
     </row>
     <row r="12" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A12" s="58"/>
-      <c r="B12" s="248"/>
-      <c r="C12" s="249"/>
-      <c r="D12" s="250"/>
-      <c r="E12" s="251"/>
-      <c r="F12" s="251"/>
-      <c r="G12" s="251"/>
-      <c r="H12" s="251"/>
-      <c r="I12" s="251"/>
-      <c r="J12" s="252"/>
-      <c r="K12" s="253"/>
-      <c r="L12" s="254"/>
-      <c r="M12" s="265"/>
-      <c r="N12" s="263"/>
-      <c r="O12" s="263"/>
-      <c r="P12" s="263"/>
-      <c r="Q12" s="263"/>
-      <c r="R12" s="264"/>
-      <c r="S12" s="258"/>
-      <c r="T12" s="258"/>
-      <c r="U12" s="258"/>
-      <c r="V12" s="259"/>
-      <c r="W12" s="260"/>
-      <c r="X12" s="260"/>
-      <c r="Y12" s="260"/>
-      <c r="Z12" s="260"/>
-      <c r="AA12" s="260"/>
-      <c r="AB12" s="260"/>
-      <c r="AC12" s="260"/>
-      <c r="AD12" s="260"/>
-      <c r="AE12" s="260"/>
-      <c r="AF12" s="260"/>
-      <c r="AG12" s="260"/>
-      <c r="AH12" s="260"/>
-      <c r="AI12" s="260"/>
-      <c r="AJ12" s="260"/>
-      <c r="AK12" s="260"/>
-      <c r="AL12" s="260"/>
-      <c r="AM12" s="261"/>
-      <c r="AN12" s="245"/>
-      <c r="AO12" s="246"/>
-      <c r="AP12" s="246"/>
-      <c r="AQ12" s="246"/>
-      <c r="AR12" s="247"/>
-      <c r="AS12" s="245"/>
-      <c r="AT12" s="246"/>
-      <c r="AU12" s="246"/>
-      <c r="AV12" s="246"/>
-      <c r="AW12" s="247"/>
+      <c r="B12" s="264"/>
+      <c r="C12" s="265"/>
+      <c r="D12" s="266"/>
+      <c r="E12" s="256"/>
+      <c r="F12" s="256"/>
+      <c r="G12" s="256"/>
+      <c r="H12" s="256"/>
+      <c r="I12" s="256"/>
+      <c r="J12" s="257"/>
+      <c r="K12" s="258"/>
+      <c r="L12" s="259"/>
+      <c r="M12" s="267"/>
+      <c r="N12" s="268"/>
+      <c r="O12" s="268"/>
+      <c r="P12" s="268"/>
+      <c r="Q12" s="268"/>
+      <c r="R12" s="269"/>
+      <c r="S12" s="254"/>
+      <c r="T12" s="254"/>
+      <c r="U12" s="254"/>
+      <c r="V12" s="270"/>
+      <c r="W12" s="271"/>
+      <c r="X12" s="271"/>
+      <c r="Y12" s="271"/>
+      <c r="Z12" s="271"/>
+      <c r="AA12" s="271"/>
+      <c r="AB12" s="271"/>
+      <c r="AC12" s="271"/>
+      <c r="AD12" s="271"/>
+      <c r="AE12" s="271"/>
+      <c r="AF12" s="271"/>
+      <c r="AG12" s="271"/>
+      <c r="AH12" s="271"/>
+      <c r="AI12" s="271"/>
+      <c r="AJ12" s="271"/>
+      <c r="AK12" s="271"/>
+      <c r="AL12" s="271"/>
+      <c r="AM12" s="272"/>
+      <c r="AN12" s="273"/>
+      <c r="AO12" s="274"/>
+      <c r="AP12" s="274"/>
+      <c r="AQ12" s="274"/>
+      <c r="AR12" s="275"/>
+      <c r="AS12" s="273"/>
+      <c r="AT12" s="274"/>
+      <c r="AU12" s="274"/>
+      <c r="AV12" s="274"/>
+      <c r="AW12" s="275"/>
     </row>
     <row r="13" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A13" s="58"/>
-      <c r="B13" s="248"/>
-      <c r="C13" s="249"/>
-      <c r="D13" s="250"/>
-      <c r="E13" s="251"/>
-      <c r="F13" s="251"/>
-      <c r="G13" s="251"/>
-      <c r="H13" s="251"/>
-      <c r="I13" s="251"/>
-      <c r="J13" s="252"/>
-      <c r="K13" s="253"/>
-      <c r="L13" s="254"/>
-      <c r="M13" s="262"/>
-      <c r="N13" s="263"/>
-      <c r="O13" s="263"/>
-      <c r="P13" s="263"/>
-      <c r="Q13" s="263"/>
-      <c r="R13" s="264"/>
-      <c r="S13" s="258"/>
-      <c r="T13" s="258"/>
-      <c r="U13" s="258"/>
-      <c r="V13" s="259"/>
-      <c r="W13" s="260"/>
-      <c r="X13" s="260"/>
-      <c r="Y13" s="260"/>
-      <c r="Z13" s="260"/>
-      <c r="AA13" s="260"/>
-      <c r="AB13" s="260"/>
-      <c r="AC13" s="260"/>
-      <c r="AD13" s="260"/>
-      <c r="AE13" s="260"/>
-      <c r="AF13" s="260"/>
-      <c r="AG13" s="260"/>
-      <c r="AH13" s="260"/>
-      <c r="AI13" s="260"/>
-      <c r="AJ13" s="260"/>
-      <c r="AK13" s="260"/>
-      <c r="AL13" s="260"/>
-      <c r="AM13" s="261"/>
-      <c r="AN13" s="245"/>
-      <c r="AO13" s="246"/>
-      <c r="AP13" s="246"/>
-      <c r="AQ13" s="246"/>
-      <c r="AR13" s="247"/>
-      <c r="AS13" s="245"/>
-      <c r="AT13" s="246"/>
-      <c r="AU13" s="246"/>
-      <c r="AV13" s="246"/>
-      <c r="AW13" s="247"/>
+      <c r="B13" s="264"/>
+      <c r="C13" s="265"/>
+      <c r="D13" s="266"/>
+      <c r="E13" s="256"/>
+      <c r="F13" s="256"/>
+      <c r="G13" s="256"/>
+      <c r="H13" s="256"/>
+      <c r="I13" s="256"/>
+      <c r="J13" s="257"/>
+      <c r="K13" s="258"/>
+      <c r="L13" s="259"/>
+      <c r="M13" s="278"/>
+      <c r="N13" s="268"/>
+      <c r="O13" s="268"/>
+      <c r="P13" s="268"/>
+      <c r="Q13" s="268"/>
+      <c r="R13" s="269"/>
+      <c r="S13" s="254"/>
+      <c r="T13" s="254"/>
+      <c r="U13" s="254"/>
+      <c r="V13" s="270"/>
+      <c r="W13" s="271"/>
+      <c r="X13" s="271"/>
+      <c r="Y13" s="271"/>
+      <c r="Z13" s="271"/>
+      <c r="AA13" s="271"/>
+      <c r="AB13" s="271"/>
+      <c r="AC13" s="271"/>
+      <c r="AD13" s="271"/>
+      <c r="AE13" s="271"/>
+      <c r="AF13" s="271"/>
+      <c r="AG13" s="271"/>
+      <c r="AH13" s="271"/>
+      <c r="AI13" s="271"/>
+      <c r="AJ13" s="271"/>
+      <c r="AK13" s="271"/>
+      <c r="AL13" s="271"/>
+      <c r="AM13" s="272"/>
+      <c r="AN13" s="273"/>
+      <c r="AO13" s="274"/>
+      <c r="AP13" s="274"/>
+      <c r="AQ13" s="274"/>
+      <c r="AR13" s="275"/>
+      <c r="AS13" s="273"/>
+      <c r="AT13" s="274"/>
+      <c r="AU13" s="274"/>
+      <c r="AV13" s="274"/>
+      <c r="AW13" s="275"/>
     </row>
     <row r="14" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A14" s="58"/>
-      <c r="B14" s="248"/>
-      <c r="C14" s="249"/>
-      <c r="D14" s="250"/>
-      <c r="E14" s="251"/>
-      <c r="F14" s="251"/>
-      <c r="G14" s="251"/>
-      <c r="H14" s="251"/>
-      <c r="I14" s="251"/>
-      <c r="J14" s="252"/>
-      <c r="K14" s="253"/>
-      <c r="L14" s="254"/>
-      <c r="M14" s="262"/>
-      <c r="N14" s="263"/>
-      <c r="O14" s="263"/>
-      <c r="P14" s="263"/>
-      <c r="Q14" s="263"/>
-      <c r="R14" s="264"/>
-      <c r="S14" s="258"/>
-      <c r="T14" s="258"/>
-      <c r="U14" s="258"/>
-      <c r="V14" s="268"/>
-      <c r="W14" s="269"/>
-      <c r="X14" s="269"/>
-      <c r="Y14" s="269"/>
-      <c r="Z14" s="269"/>
-      <c r="AA14" s="269"/>
-      <c r="AB14" s="269"/>
-      <c r="AC14" s="269"/>
-      <c r="AD14" s="269"/>
-      <c r="AE14" s="269"/>
-      <c r="AF14" s="269"/>
-      <c r="AG14" s="269"/>
-      <c r="AH14" s="269"/>
-      <c r="AI14" s="269"/>
-      <c r="AJ14" s="269"/>
-      <c r="AK14" s="269"/>
-      <c r="AL14" s="269"/>
-      <c r="AM14" s="269"/>
-      <c r="AN14" s="258"/>
-      <c r="AO14" s="258"/>
-      <c r="AP14" s="258"/>
-      <c r="AQ14" s="258"/>
-      <c r="AR14" s="258"/>
-      <c r="AS14" s="245"/>
-      <c r="AT14" s="246"/>
-      <c r="AU14" s="246"/>
-      <c r="AV14" s="246"/>
-      <c r="AW14" s="247"/>
+      <c r="B14" s="264"/>
+      <c r="C14" s="265"/>
+      <c r="D14" s="266"/>
+      <c r="E14" s="256"/>
+      <c r="F14" s="256"/>
+      <c r="G14" s="256"/>
+      <c r="H14" s="256"/>
+      <c r="I14" s="256"/>
+      <c r="J14" s="257"/>
+      <c r="K14" s="258"/>
+      <c r="L14" s="259"/>
+      <c r="M14" s="278"/>
+      <c r="N14" s="268"/>
+      <c r="O14" s="268"/>
+      <c r="P14" s="268"/>
+      <c r="Q14" s="268"/>
+      <c r="R14" s="269"/>
+      <c r="S14" s="254"/>
+      <c r="T14" s="254"/>
+      <c r="U14" s="254"/>
+      <c r="V14" s="279"/>
+      <c r="W14" s="263"/>
+      <c r="X14" s="263"/>
+      <c r="Y14" s="263"/>
+      <c r="Z14" s="263"/>
+      <c r="AA14" s="263"/>
+      <c r="AB14" s="263"/>
+      <c r="AC14" s="263"/>
+      <c r="AD14" s="263"/>
+      <c r="AE14" s="263"/>
+      <c r="AF14" s="263"/>
+      <c r="AG14" s="263"/>
+      <c r="AH14" s="263"/>
+      <c r="AI14" s="263"/>
+      <c r="AJ14" s="263"/>
+      <c r="AK14" s="263"/>
+      <c r="AL14" s="263"/>
+      <c r="AM14" s="263"/>
+      <c r="AN14" s="254"/>
+      <c r="AO14" s="254"/>
+      <c r="AP14" s="254"/>
+      <c r="AQ14" s="254"/>
+      <c r="AR14" s="254"/>
+      <c r="AS14" s="273"/>
+      <c r="AT14" s="274"/>
+      <c r="AU14" s="274"/>
+      <c r="AV14" s="274"/>
+      <c r="AW14" s="275"/>
     </row>
     <row r="15" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A15" s="58"/>
-      <c r="B15" s="248"/>
-      <c r="C15" s="249"/>
-      <c r="D15" s="250"/>
-      <c r="E15" s="251"/>
-      <c r="F15" s="251"/>
-      <c r="G15" s="251"/>
-      <c r="H15" s="251"/>
-      <c r="I15" s="251"/>
-      <c r="J15" s="252"/>
-      <c r="K15" s="253"/>
-      <c r="L15" s="254"/>
-      <c r="M15" s="265"/>
-      <c r="N15" s="263"/>
-      <c r="O15" s="263"/>
-      <c r="P15" s="263"/>
-      <c r="Q15" s="263"/>
-      <c r="R15" s="264"/>
-      <c r="S15" s="258"/>
-      <c r="T15" s="258"/>
-      <c r="U15" s="258"/>
-      <c r="V15" s="259"/>
-      <c r="W15" s="260"/>
-      <c r="X15" s="260"/>
-      <c r="Y15" s="260"/>
-      <c r="Z15" s="260"/>
-      <c r="AA15" s="260"/>
-      <c r="AB15" s="260"/>
-      <c r="AC15" s="260"/>
-      <c r="AD15" s="260"/>
-      <c r="AE15" s="260"/>
-      <c r="AF15" s="260"/>
-      <c r="AG15" s="260"/>
-      <c r="AH15" s="260"/>
-      <c r="AI15" s="260"/>
-      <c r="AJ15" s="260"/>
-      <c r="AK15" s="260"/>
-      <c r="AL15" s="260"/>
-      <c r="AM15" s="261"/>
-      <c r="AN15" s="245"/>
-      <c r="AO15" s="246"/>
-      <c r="AP15" s="246"/>
-      <c r="AQ15" s="246"/>
-      <c r="AR15" s="247"/>
-      <c r="AS15" s="245"/>
-      <c r="AT15" s="246"/>
-      <c r="AU15" s="246"/>
-      <c r="AV15" s="246"/>
-      <c r="AW15" s="247"/>
+      <c r="B15" s="264"/>
+      <c r="C15" s="265"/>
+      <c r="D15" s="266"/>
+      <c r="E15" s="256"/>
+      <c r="F15" s="256"/>
+      <c r="G15" s="256"/>
+      <c r="H15" s="256"/>
+      <c r="I15" s="256"/>
+      <c r="J15" s="257"/>
+      <c r="K15" s="258"/>
+      <c r="L15" s="259"/>
+      <c r="M15" s="267"/>
+      <c r="N15" s="268"/>
+      <c r="O15" s="268"/>
+      <c r="P15" s="268"/>
+      <c r="Q15" s="268"/>
+      <c r="R15" s="269"/>
+      <c r="S15" s="254"/>
+      <c r="T15" s="254"/>
+      <c r="U15" s="254"/>
+      <c r="V15" s="270"/>
+      <c r="W15" s="271"/>
+      <c r="X15" s="271"/>
+      <c r="Y15" s="271"/>
+      <c r="Z15" s="271"/>
+      <c r="AA15" s="271"/>
+      <c r="AB15" s="271"/>
+      <c r="AC15" s="271"/>
+      <c r="AD15" s="271"/>
+      <c r="AE15" s="271"/>
+      <c r="AF15" s="271"/>
+      <c r="AG15" s="271"/>
+      <c r="AH15" s="271"/>
+      <c r="AI15" s="271"/>
+      <c r="AJ15" s="271"/>
+      <c r="AK15" s="271"/>
+      <c r="AL15" s="271"/>
+      <c r="AM15" s="272"/>
+      <c r="AN15" s="273"/>
+      <c r="AO15" s="274"/>
+      <c r="AP15" s="274"/>
+      <c r="AQ15" s="274"/>
+      <c r="AR15" s="275"/>
+      <c r="AS15" s="273"/>
+      <c r="AT15" s="274"/>
+      <c r="AU15" s="274"/>
+      <c r="AV15" s="274"/>
+      <c r="AW15" s="275"/>
     </row>
     <row r="16" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A16" s="58"/>
-      <c r="B16" s="248"/>
-      <c r="C16" s="249"/>
-      <c r="D16" s="250"/>
-      <c r="E16" s="251"/>
-      <c r="F16" s="251"/>
-      <c r="G16" s="251"/>
-      <c r="H16" s="251"/>
-      <c r="I16" s="251"/>
-      <c r="J16" s="252"/>
-      <c r="K16" s="253"/>
-      <c r="L16" s="254"/>
-      <c r="M16" s="265"/>
-      <c r="N16" s="263"/>
-      <c r="O16" s="263"/>
-      <c r="P16" s="263"/>
-      <c r="Q16" s="263"/>
-      <c r="R16" s="264"/>
-      <c r="S16" s="258"/>
-      <c r="T16" s="258"/>
-      <c r="U16" s="258"/>
-      <c r="V16" s="259"/>
-      <c r="W16" s="260"/>
-      <c r="X16" s="260"/>
-      <c r="Y16" s="260"/>
-      <c r="Z16" s="260"/>
-      <c r="AA16" s="260"/>
-      <c r="AB16" s="260"/>
-      <c r="AC16" s="260"/>
-      <c r="AD16" s="260"/>
-      <c r="AE16" s="260"/>
-      <c r="AF16" s="260"/>
-      <c r="AG16" s="260"/>
-      <c r="AH16" s="260"/>
-      <c r="AI16" s="260"/>
-      <c r="AJ16" s="260"/>
-      <c r="AK16" s="260"/>
-      <c r="AL16" s="260"/>
-      <c r="AM16" s="261"/>
-      <c r="AN16" s="245"/>
-      <c r="AO16" s="246"/>
-      <c r="AP16" s="246"/>
-      <c r="AQ16" s="246"/>
-      <c r="AR16" s="247"/>
-      <c r="AS16" s="245"/>
-      <c r="AT16" s="246"/>
-      <c r="AU16" s="246"/>
-      <c r="AV16" s="246"/>
-      <c r="AW16" s="247"/>
+      <c r="B16" s="264"/>
+      <c r="C16" s="265"/>
+      <c r="D16" s="266"/>
+      <c r="E16" s="256"/>
+      <c r="F16" s="256"/>
+      <c r="G16" s="256"/>
+      <c r="H16" s="256"/>
+      <c r="I16" s="256"/>
+      <c r="J16" s="257"/>
+      <c r="K16" s="258"/>
+      <c r="L16" s="259"/>
+      <c r="M16" s="267"/>
+      <c r="N16" s="268"/>
+      <c r="O16" s="268"/>
+      <c r="P16" s="268"/>
+      <c r="Q16" s="268"/>
+      <c r="R16" s="269"/>
+      <c r="S16" s="254"/>
+      <c r="T16" s="254"/>
+      <c r="U16" s="254"/>
+      <c r="V16" s="270"/>
+      <c r="W16" s="271"/>
+      <c r="X16" s="271"/>
+      <c r="Y16" s="271"/>
+      <c r="Z16" s="271"/>
+      <c r="AA16" s="271"/>
+      <c r="AB16" s="271"/>
+      <c r="AC16" s="271"/>
+      <c r="AD16" s="271"/>
+      <c r="AE16" s="271"/>
+      <c r="AF16" s="271"/>
+      <c r="AG16" s="271"/>
+      <c r="AH16" s="271"/>
+      <c r="AI16" s="271"/>
+      <c r="AJ16" s="271"/>
+      <c r="AK16" s="271"/>
+      <c r="AL16" s="271"/>
+      <c r="AM16" s="272"/>
+      <c r="AN16" s="273"/>
+      <c r="AO16" s="274"/>
+      <c r="AP16" s="274"/>
+      <c r="AQ16" s="274"/>
+      <c r="AR16" s="275"/>
+      <c r="AS16" s="273"/>
+      <c r="AT16" s="274"/>
+      <c r="AU16" s="274"/>
+      <c r="AV16" s="274"/>
+      <c r="AW16" s="275"/>
     </row>
     <row r="17" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A17" s="58"/>
-      <c r="B17" s="248"/>
-      <c r="C17" s="249"/>
-      <c r="D17" s="250"/>
-      <c r="E17" s="251"/>
-      <c r="F17" s="251"/>
-      <c r="G17" s="251"/>
-      <c r="H17" s="251"/>
-      <c r="I17" s="251"/>
-      <c r="J17" s="252"/>
-      <c r="K17" s="253"/>
-      <c r="L17" s="254"/>
-      <c r="M17" s="265"/>
-      <c r="N17" s="263"/>
-      <c r="O17" s="263"/>
-      <c r="P17" s="263"/>
-      <c r="Q17" s="263"/>
-      <c r="R17" s="266"/>
-      <c r="S17" s="267"/>
-      <c r="T17" s="267"/>
-      <c r="U17" s="267"/>
-      <c r="V17" s="259"/>
-      <c r="W17" s="260"/>
-      <c r="X17" s="260"/>
-      <c r="Y17" s="260"/>
-      <c r="Z17" s="260"/>
-      <c r="AA17" s="260"/>
-      <c r="AB17" s="260"/>
-      <c r="AC17" s="260"/>
-      <c r="AD17" s="260"/>
-      <c r="AE17" s="260"/>
-      <c r="AF17" s="260"/>
-      <c r="AG17" s="260"/>
-      <c r="AH17" s="260"/>
-      <c r="AI17" s="260"/>
-      <c r="AJ17" s="260"/>
-      <c r="AK17" s="260"/>
-      <c r="AL17" s="260"/>
-      <c r="AM17" s="261"/>
-      <c r="AN17" s="245"/>
-      <c r="AO17" s="246"/>
-      <c r="AP17" s="246"/>
-      <c r="AQ17" s="246"/>
-      <c r="AR17" s="247"/>
-      <c r="AS17" s="245"/>
-      <c r="AT17" s="246"/>
-      <c r="AU17" s="246"/>
-      <c r="AV17" s="246"/>
-      <c r="AW17" s="247"/>
+      <c r="B17" s="264"/>
+      <c r="C17" s="265"/>
+      <c r="D17" s="266"/>
+      <c r="E17" s="256"/>
+      <c r="F17" s="256"/>
+      <c r="G17" s="256"/>
+      <c r="H17" s="256"/>
+      <c r="I17" s="256"/>
+      <c r="J17" s="257"/>
+      <c r="K17" s="258"/>
+      <c r="L17" s="259"/>
+      <c r="M17" s="267"/>
+      <c r="N17" s="268"/>
+      <c r="O17" s="268"/>
+      <c r="P17" s="268"/>
+      <c r="Q17" s="268"/>
+      <c r="R17" s="280"/>
+      <c r="S17" s="281"/>
+      <c r="T17" s="281"/>
+      <c r="U17" s="281"/>
+      <c r="V17" s="270"/>
+      <c r="W17" s="271"/>
+      <c r="X17" s="271"/>
+      <c r="Y17" s="271"/>
+      <c r="Z17" s="271"/>
+      <c r="AA17" s="271"/>
+      <c r="AB17" s="271"/>
+      <c r="AC17" s="271"/>
+      <c r="AD17" s="271"/>
+      <c r="AE17" s="271"/>
+      <c r="AF17" s="271"/>
+      <c r="AG17" s="271"/>
+      <c r="AH17" s="271"/>
+      <c r="AI17" s="271"/>
+      <c r="AJ17" s="271"/>
+      <c r="AK17" s="271"/>
+      <c r="AL17" s="271"/>
+      <c r="AM17" s="272"/>
+      <c r="AN17" s="273"/>
+      <c r="AO17" s="274"/>
+      <c r="AP17" s="274"/>
+      <c r="AQ17" s="274"/>
+      <c r="AR17" s="275"/>
+      <c r="AS17" s="273"/>
+      <c r="AT17" s="274"/>
+      <c r="AU17" s="274"/>
+      <c r="AV17" s="274"/>
+      <c r="AW17" s="275"/>
     </row>
     <row r="18" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A18" s="58"/>
-      <c r="B18" s="248"/>
-      <c r="C18" s="249"/>
-      <c r="D18" s="250"/>
-      <c r="E18" s="251"/>
-      <c r="F18" s="251"/>
-      <c r="G18" s="251"/>
-      <c r="H18" s="251"/>
-      <c r="I18" s="251"/>
-      <c r="J18" s="252"/>
-      <c r="K18" s="253"/>
-      <c r="L18" s="254"/>
-      <c r="M18" s="262"/>
-      <c r="N18" s="263"/>
-      <c r="O18" s="263"/>
-      <c r="P18" s="263"/>
-      <c r="Q18" s="263"/>
-      <c r="R18" s="264"/>
-      <c r="S18" s="258"/>
-      <c r="T18" s="258"/>
-      <c r="U18" s="258"/>
-      <c r="V18" s="259"/>
-      <c r="W18" s="260"/>
-      <c r="X18" s="260"/>
-      <c r="Y18" s="260"/>
-      <c r="Z18" s="260"/>
-      <c r="AA18" s="260"/>
-      <c r="AB18" s="260"/>
-      <c r="AC18" s="260"/>
-      <c r="AD18" s="260"/>
-      <c r="AE18" s="260"/>
-      <c r="AF18" s="260"/>
-      <c r="AG18" s="260"/>
-      <c r="AH18" s="260"/>
-      <c r="AI18" s="260"/>
-      <c r="AJ18" s="260"/>
-      <c r="AK18" s="260"/>
-      <c r="AL18" s="260"/>
-      <c r="AM18" s="261"/>
-      <c r="AN18" s="245"/>
-      <c r="AO18" s="246"/>
-      <c r="AP18" s="246"/>
-      <c r="AQ18" s="246"/>
-      <c r="AR18" s="247"/>
-      <c r="AS18" s="245"/>
-      <c r="AT18" s="246"/>
-      <c r="AU18" s="246"/>
-      <c r="AV18" s="246"/>
-      <c r="AW18" s="247"/>
+      <c r="B18" s="264"/>
+      <c r="C18" s="265"/>
+      <c r="D18" s="266"/>
+      <c r="E18" s="256"/>
+      <c r="F18" s="256"/>
+      <c r="G18" s="256"/>
+      <c r="H18" s="256"/>
+      <c r="I18" s="256"/>
+      <c r="J18" s="257"/>
+      <c r="K18" s="258"/>
+      <c r="L18" s="259"/>
+      <c r="M18" s="278"/>
+      <c r="N18" s="268"/>
+      <c r="O18" s="268"/>
+      <c r="P18" s="268"/>
+      <c r="Q18" s="268"/>
+      <c r="R18" s="269"/>
+      <c r="S18" s="254"/>
+      <c r="T18" s="254"/>
+      <c r="U18" s="254"/>
+      <c r="V18" s="270"/>
+      <c r="W18" s="271"/>
+      <c r="X18" s="271"/>
+      <c r="Y18" s="271"/>
+      <c r="Z18" s="271"/>
+      <c r="AA18" s="271"/>
+      <c r="AB18" s="271"/>
+      <c r="AC18" s="271"/>
+      <c r="AD18" s="271"/>
+      <c r="AE18" s="271"/>
+      <c r="AF18" s="271"/>
+      <c r="AG18" s="271"/>
+      <c r="AH18" s="271"/>
+      <c r="AI18" s="271"/>
+      <c r="AJ18" s="271"/>
+      <c r="AK18" s="271"/>
+      <c r="AL18" s="271"/>
+      <c r="AM18" s="272"/>
+      <c r="AN18" s="273"/>
+      <c r="AO18" s="274"/>
+      <c r="AP18" s="274"/>
+      <c r="AQ18" s="274"/>
+      <c r="AR18" s="275"/>
+      <c r="AS18" s="273"/>
+      <c r="AT18" s="274"/>
+      <c r="AU18" s="274"/>
+      <c r="AV18" s="274"/>
+      <c r="AW18" s="275"/>
     </row>
     <row r="19" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A19" s="58"/>
-      <c r="B19" s="248"/>
-      <c r="C19" s="249"/>
-      <c r="D19" s="250"/>
-      <c r="E19" s="251"/>
-      <c r="F19" s="251"/>
-      <c r="G19" s="251"/>
-      <c r="H19" s="251"/>
-      <c r="I19" s="251"/>
-      <c r="J19" s="252"/>
-      <c r="K19" s="253"/>
-      <c r="L19" s="254"/>
-      <c r="M19" s="265"/>
-      <c r="N19" s="263"/>
-      <c r="O19" s="263"/>
-      <c r="P19" s="263"/>
-      <c r="Q19" s="263"/>
-      <c r="R19" s="264"/>
-      <c r="S19" s="258"/>
-      <c r="T19" s="258"/>
-      <c r="U19" s="258"/>
-      <c r="V19" s="259"/>
-      <c r="W19" s="260"/>
-      <c r="X19" s="260"/>
-      <c r="Y19" s="260"/>
-      <c r="Z19" s="260"/>
-      <c r="AA19" s="260"/>
-      <c r="AB19" s="260"/>
-      <c r="AC19" s="260"/>
-      <c r="AD19" s="260"/>
-      <c r="AE19" s="260"/>
-      <c r="AF19" s="260"/>
-      <c r="AG19" s="260"/>
-      <c r="AH19" s="260"/>
-      <c r="AI19" s="260"/>
-      <c r="AJ19" s="260"/>
-      <c r="AK19" s="260"/>
-      <c r="AL19" s="260"/>
-      <c r="AM19" s="261"/>
-      <c r="AN19" s="258"/>
-      <c r="AO19" s="258"/>
-      <c r="AP19" s="258"/>
-      <c r="AQ19" s="258"/>
-      <c r="AR19" s="258"/>
-      <c r="AS19" s="245"/>
-      <c r="AT19" s="246"/>
-      <c r="AU19" s="246"/>
-      <c r="AV19" s="246"/>
-      <c r="AW19" s="247"/>
+      <c r="B19" s="264"/>
+      <c r="C19" s="265"/>
+      <c r="D19" s="266"/>
+      <c r="E19" s="256"/>
+      <c r="F19" s="256"/>
+      <c r="G19" s="256"/>
+      <c r="H19" s="256"/>
+      <c r="I19" s="256"/>
+      <c r="J19" s="257"/>
+      <c r="K19" s="258"/>
+      <c r="L19" s="259"/>
+      <c r="M19" s="267"/>
+      <c r="N19" s="268"/>
+      <c r="O19" s="268"/>
+      <c r="P19" s="268"/>
+      <c r="Q19" s="268"/>
+      <c r="R19" s="269"/>
+      <c r="S19" s="254"/>
+      <c r="T19" s="254"/>
+      <c r="U19" s="254"/>
+      <c r="V19" s="270"/>
+      <c r="W19" s="271"/>
+      <c r="X19" s="271"/>
+      <c r="Y19" s="271"/>
+      <c r="Z19" s="271"/>
+      <c r="AA19" s="271"/>
+      <c r="AB19" s="271"/>
+      <c r="AC19" s="271"/>
+      <c r="AD19" s="271"/>
+      <c r="AE19" s="271"/>
+      <c r="AF19" s="271"/>
+      <c r="AG19" s="271"/>
+      <c r="AH19" s="271"/>
+      <c r="AI19" s="271"/>
+      <c r="AJ19" s="271"/>
+      <c r="AK19" s="271"/>
+      <c r="AL19" s="271"/>
+      <c r="AM19" s="272"/>
+      <c r="AN19" s="254"/>
+      <c r="AO19" s="254"/>
+      <c r="AP19" s="254"/>
+      <c r="AQ19" s="254"/>
+      <c r="AR19" s="254"/>
+      <c r="AS19" s="273"/>
+      <c r="AT19" s="274"/>
+      <c r="AU19" s="274"/>
+      <c r="AV19" s="274"/>
+      <c r="AW19" s="275"/>
     </row>
     <row r="20" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A20" s="58"/>
-      <c r="B20" s="248"/>
-      <c r="C20" s="249"/>
-      <c r="D20" s="250"/>
-      <c r="E20" s="251"/>
-      <c r="F20" s="251"/>
-      <c r="G20" s="251"/>
-      <c r="H20" s="251"/>
-      <c r="I20" s="251"/>
-      <c r="J20" s="252"/>
-      <c r="K20" s="253"/>
-      <c r="L20" s="254"/>
-      <c r="M20" s="265"/>
-      <c r="N20" s="263"/>
-      <c r="O20" s="263"/>
-      <c r="P20" s="263"/>
-      <c r="Q20" s="263"/>
-      <c r="R20" s="264"/>
-      <c r="S20" s="245"/>
-      <c r="T20" s="246"/>
-      <c r="U20" s="247"/>
-      <c r="V20" s="259"/>
-      <c r="W20" s="260"/>
-      <c r="X20" s="260"/>
-      <c r="Y20" s="260"/>
-      <c r="Z20" s="260"/>
-      <c r="AA20" s="260"/>
-      <c r="AB20" s="260"/>
-      <c r="AC20" s="260"/>
-      <c r="AD20" s="260"/>
-      <c r="AE20" s="260"/>
-      <c r="AF20" s="260"/>
-      <c r="AG20" s="260"/>
-      <c r="AH20" s="260"/>
-      <c r="AI20" s="260"/>
-      <c r="AJ20" s="260"/>
-      <c r="AK20" s="260"/>
-      <c r="AL20" s="260"/>
-      <c r="AM20" s="261"/>
-      <c r="AN20" s="245"/>
-      <c r="AO20" s="246"/>
-      <c r="AP20" s="246"/>
-      <c r="AQ20" s="246"/>
-      <c r="AR20" s="247"/>
-      <c r="AS20" s="245"/>
-      <c r="AT20" s="246"/>
-      <c r="AU20" s="246"/>
-      <c r="AV20" s="246"/>
-      <c r="AW20" s="247"/>
+      <c r="B20" s="264"/>
+      <c r="C20" s="265"/>
+      <c r="D20" s="266"/>
+      <c r="E20" s="256"/>
+      <c r="F20" s="256"/>
+      <c r="G20" s="256"/>
+      <c r="H20" s="256"/>
+      <c r="I20" s="256"/>
+      <c r="J20" s="257"/>
+      <c r="K20" s="258"/>
+      <c r="L20" s="259"/>
+      <c r="M20" s="267"/>
+      <c r="N20" s="268"/>
+      <c r="O20" s="268"/>
+      <c r="P20" s="268"/>
+      <c r="Q20" s="268"/>
+      <c r="R20" s="269"/>
+      <c r="S20" s="273"/>
+      <c r="T20" s="274"/>
+      <c r="U20" s="275"/>
+      <c r="V20" s="270"/>
+      <c r="W20" s="271"/>
+      <c r="X20" s="271"/>
+      <c r="Y20" s="271"/>
+      <c r="Z20" s="271"/>
+      <c r="AA20" s="271"/>
+      <c r="AB20" s="271"/>
+      <c r="AC20" s="271"/>
+      <c r="AD20" s="271"/>
+      <c r="AE20" s="271"/>
+      <c r="AF20" s="271"/>
+      <c r="AG20" s="271"/>
+      <c r="AH20" s="271"/>
+      <c r="AI20" s="271"/>
+      <c r="AJ20" s="271"/>
+      <c r="AK20" s="271"/>
+      <c r="AL20" s="271"/>
+      <c r="AM20" s="272"/>
+      <c r="AN20" s="273"/>
+      <c r="AO20" s="274"/>
+      <c r="AP20" s="274"/>
+      <c r="AQ20" s="274"/>
+      <c r="AR20" s="275"/>
+      <c r="AS20" s="273"/>
+      <c r="AT20" s="274"/>
+      <c r="AU20" s="274"/>
+      <c r="AV20" s="274"/>
+      <c r="AW20" s="275"/>
     </row>
     <row r="21" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A21" s="58"/>
-      <c r="B21" s="248"/>
-      <c r="C21" s="249"/>
-      <c r="D21" s="250"/>
-      <c r="E21" s="251"/>
-      <c r="F21" s="251"/>
-      <c r="G21" s="251"/>
-      <c r="H21" s="251"/>
-      <c r="I21" s="251"/>
-      <c r="J21" s="252"/>
-      <c r="K21" s="253"/>
-      <c r="L21" s="254"/>
-      <c r="M21" s="265"/>
-      <c r="N21" s="263"/>
-      <c r="O21" s="263"/>
-      <c r="P21" s="263"/>
-      <c r="Q21" s="263"/>
-      <c r="R21" s="264"/>
-      <c r="S21" s="258"/>
-      <c r="T21" s="258"/>
-      <c r="U21" s="258"/>
-      <c r="V21" s="259"/>
-      <c r="W21" s="260"/>
-      <c r="X21" s="260"/>
-      <c r="Y21" s="260"/>
-      <c r="Z21" s="260"/>
-      <c r="AA21" s="260"/>
-      <c r="AB21" s="260"/>
-      <c r="AC21" s="260"/>
-      <c r="AD21" s="260"/>
-      <c r="AE21" s="260"/>
-      <c r="AF21" s="260"/>
-      <c r="AG21" s="260"/>
-      <c r="AH21" s="260"/>
-      <c r="AI21" s="260"/>
-      <c r="AJ21" s="260"/>
-      <c r="AK21" s="260"/>
-      <c r="AL21" s="260"/>
-      <c r="AM21" s="261"/>
-      <c r="AN21" s="245"/>
-      <c r="AO21" s="246"/>
-      <c r="AP21" s="246"/>
-      <c r="AQ21" s="246"/>
-      <c r="AR21" s="247"/>
-      <c r="AS21" s="245"/>
-      <c r="AT21" s="246"/>
-      <c r="AU21" s="246"/>
-      <c r="AV21" s="246"/>
-      <c r="AW21" s="247"/>
+      <c r="B21" s="264"/>
+      <c r="C21" s="265"/>
+      <c r="D21" s="266"/>
+      <c r="E21" s="256"/>
+      <c r="F21" s="256"/>
+      <c r="G21" s="256"/>
+      <c r="H21" s="256"/>
+      <c r="I21" s="256"/>
+      <c r="J21" s="257"/>
+      <c r="K21" s="258"/>
+      <c r="L21" s="259"/>
+      <c r="M21" s="267"/>
+      <c r="N21" s="268"/>
+      <c r="O21" s="268"/>
+      <c r="P21" s="268"/>
+      <c r="Q21" s="268"/>
+      <c r="R21" s="269"/>
+      <c r="S21" s="254"/>
+      <c r="T21" s="254"/>
+      <c r="U21" s="254"/>
+      <c r="V21" s="270"/>
+      <c r="W21" s="271"/>
+      <c r="X21" s="271"/>
+      <c r="Y21" s="271"/>
+      <c r="Z21" s="271"/>
+      <c r="AA21" s="271"/>
+      <c r="AB21" s="271"/>
+      <c r="AC21" s="271"/>
+      <c r="AD21" s="271"/>
+      <c r="AE21" s="271"/>
+      <c r="AF21" s="271"/>
+      <c r="AG21" s="271"/>
+      <c r="AH21" s="271"/>
+      <c r="AI21" s="271"/>
+      <c r="AJ21" s="271"/>
+      <c r="AK21" s="271"/>
+      <c r="AL21" s="271"/>
+      <c r="AM21" s="272"/>
+      <c r="AN21" s="273"/>
+      <c r="AO21" s="274"/>
+      <c r="AP21" s="274"/>
+      <c r="AQ21" s="274"/>
+      <c r="AR21" s="275"/>
+      <c r="AS21" s="273"/>
+      <c r="AT21" s="274"/>
+      <c r="AU21" s="274"/>
+      <c r="AV21" s="274"/>
+      <c r="AW21" s="275"/>
     </row>
     <row r="22" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A22" s="58"/>
-      <c r="B22" s="248"/>
-      <c r="C22" s="249"/>
-      <c r="D22" s="250"/>
-      <c r="E22" s="251"/>
-      <c r="F22" s="251"/>
-      <c r="G22" s="251"/>
-      <c r="H22" s="251"/>
-      <c r="I22" s="251"/>
-      <c r="J22" s="252"/>
-      <c r="K22" s="253"/>
-      <c r="L22" s="254"/>
-      <c r="M22" s="265"/>
-      <c r="N22" s="263"/>
-      <c r="O22" s="263"/>
-      <c r="P22" s="263"/>
-      <c r="Q22" s="263"/>
-      <c r="R22" s="264"/>
-      <c r="S22" s="258"/>
-      <c r="T22" s="258"/>
-      <c r="U22" s="258"/>
-      <c r="V22" s="259"/>
-      <c r="W22" s="260"/>
-      <c r="X22" s="260"/>
-      <c r="Y22" s="260"/>
-      <c r="Z22" s="260"/>
-      <c r="AA22" s="260"/>
-      <c r="AB22" s="260"/>
-      <c r="AC22" s="260"/>
-      <c r="AD22" s="260"/>
-      <c r="AE22" s="260"/>
-      <c r="AF22" s="260"/>
-      <c r="AG22" s="260"/>
-      <c r="AH22" s="260"/>
-      <c r="AI22" s="260"/>
-      <c r="AJ22" s="260"/>
-      <c r="AK22" s="260"/>
-      <c r="AL22" s="260"/>
-      <c r="AM22" s="261"/>
-      <c r="AN22" s="245"/>
-      <c r="AO22" s="246"/>
-      <c r="AP22" s="246"/>
-      <c r="AQ22" s="246"/>
-      <c r="AR22" s="247"/>
-      <c r="AS22" s="245"/>
-      <c r="AT22" s="246"/>
-      <c r="AU22" s="246"/>
-      <c r="AV22" s="246"/>
-      <c r="AW22" s="247"/>
+      <c r="B22" s="264"/>
+      <c r="C22" s="265"/>
+      <c r="D22" s="266"/>
+      <c r="E22" s="256"/>
+      <c r="F22" s="256"/>
+      <c r="G22" s="256"/>
+      <c r="H22" s="256"/>
+      <c r="I22" s="256"/>
+      <c r="J22" s="257"/>
+      <c r="K22" s="258"/>
+      <c r="L22" s="259"/>
+      <c r="M22" s="267"/>
+      <c r="N22" s="268"/>
+      <c r="O22" s="268"/>
+      <c r="P22" s="268"/>
+      <c r="Q22" s="268"/>
+      <c r="R22" s="269"/>
+      <c r="S22" s="254"/>
+      <c r="T22" s="254"/>
+      <c r="U22" s="254"/>
+      <c r="V22" s="270"/>
+      <c r="W22" s="271"/>
+      <c r="X22" s="271"/>
+      <c r="Y22" s="271"/>
+      <c r="Z22" s="271"/>
+      <c r="AA22" s="271"/>
+      <c r="AB22" s="271"/>
+      <c r="AC22" s="271"/>
+      <c r="AD22" s="271"/>
+      <c r="AE22" s="271"/>
+      <c r="AF22" s="271"/>
+      <c r="AG22" s="271"/>
+      <c r="AH22" s="271"/>
+      <c r="AI22" s="271"/>
+      <c r="AJ22" s="271"/>
+      <c r="AK22" s="271"/>
+      <c r="AL22" s="271"/>
+      <c r="AM22" s="272"/>
+      <c r="AN22" s="273"/>
+      <c r="AO22" s="274"/>
+      <c r="AP22" s="274"/>
+      <c r="AQ22" s="274"/>
+      <c r="AR22" s="275"/>
+      <c r="AS22" s="273"/>
+      <c r="AT22" s="274"/>
+      <c r="AU22" s="274"/>
+      <c r="AV22" s="274"/>
+      <c r="AW22" s="275"/>
     </row>
     <row r="23" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A23" s="56"/>
-      <c r="B23" s="248"/>
-      <c r="C23" s="249"/>
-      <c r="D23" s="250"/>
-      <c r="E23" s="251"/>
-      <c r="F23" s="251"/>
-      <c r="G23" s="251"/>
-      <c r="H23" s="251"/>
-      <c r="I23" s="251"/>
-      <c r="J23" s="252"/>
-      <c r="K23" s="253"/>
-      <c r="L23" s="254"/>
-      <c r="M23" s="265"/>
-      <c r="N23" s="263"/>
-      <c r="O23" s="263"/>
-      <c r="P23" s="263"/>
-      <c r="Q23" s="263"/>
-      <c r="R23" s="264"/>
-      <c r="S23" s="258"/>
-      <c r="T23" s="258"/>
-      <c r="U23" s="258"/>
-      <c r="V23" s="259"/>
-      <c r="W23" s="260"/>
-      <c r="X23" s="260"/>
-      <c r="Y23" s="260"/>
-      <c r="Z23" s="260"/>
-      <c r="AA23" s="260"/>
-      <c r="AB23" s="260"/>
-      <c r="AC23" s="260"/>
-      <c r="AD23" s="260"/>
-      <c r="AE23" s="260"/>
-      <c r="AF23" s="260"/>
-      <c r="AG23" s="260"/>
-      <c r="AH23" s="260"/>
-      <c r="AI23" s="260"/>
-      <c r="AJ23" s="260"/>
-      <c r="AK23" s="260"/>
-      <c r="AL23" s="260"/>
-      <c r="AM23" s="261"/>
-      <c r="AN23" s="245"/>
-      <c r="AO23" s="246"/>
-      <c r="AP23" s="246"/>
-      <c r="AQ23" s="246"/>
-      <c r="AR23" s="247"/>
-      <c r="AS23" s="245"/>
-      <c r="AT23" s="246"/>
-      <c r="AU23" s="246"/>
-      <c r="AV23" s="246"/>
-      <c r="AW23" s="247"/>
+      <c r="B23" s="264"/>
+      <c r="C23" s="265"/>
+      <c r="D23" s="266"/>
+      <c r="E23" s="256"/>
+      <c r="F23" s="256"/>
+      <c r="G23" s="256"/>
+      <c r="H23" s="256"/>
+      <c r="I23" s="256"/>
+      <c r="J23" s="257"/>
+      <c r="K23" s="258"/>
+      <c r="L23" s="259"/>
+      <c r="M23" s="267"/>
+      <c r="N23" s="268"/>
+      <c r="O23" s="268"/>
+      <c r="P23" s="268"/>
+      <c r="Q23" s="268"/>
+      <c r="R23" s="269"/>
+      <c r="S23" s="254"/>
+      <c r="T23" s="254"/>
+      <c r="U23" s="254"/>
+      <c r="V23" s="270"/>
+      <c r="W23" s="271"/>
+      <c r="X23" s="271"/>
+      <c r="Y23" s="271"/>
+      <c r="Z23" s="271"/>
+      <c r="AA23" s="271"/>
+      <c r="AB23" s="271"/>
+      <c r="AC23" s="271"/>
+      <c r="AD23" s="271"/>
+      <c r="AE23" s="271"/>
+      <c r="AF23" s="271"/>
+      <c r="AG23" s="271"/>
+      <c r="AH23" s="271"/>
+      <c r="AI23" s="271"/>
+      <c r="AJ23" s="271"/>
+      <c r="AK23" s="271"/>
+      <c r="AL23" s="271"/>
+      <c r="AM23" s="272"/>
+      <c r="AN23" s="273"/>
+      <c r="AO23" s="274"/>
+      <c r="AP23" s="274"/>
+      <c r="AQ23" s="274"/>
+      <c r="AR23" s="275"/>
+      <c r="AS23" s="273"/>
+      <c r="AT23" s="274"/>
+      <c r="AU23" s="274"/>
+      <c r="AV23" s="274"/>
+      <c r="AW23" s="275"/>
     </row>
     <row r="24" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A24" s="56"/>
-      <c r="B24" s="248"/>
-      <c r="C24" s="249"/>
-      <c r="D24" s="250"/>
-      <c r="E24" s="251"/>
-      <c r="F24" s="251"/>
-      <c r="G24" s="251"/>
-      <c r="H24" s="251"/>
-      <c r="I24" s="251"/>
-      <c r="J24" s="252"/>
-      <c r="K24" s="253"/>
-      <c r="L24" s="254"/>
-      <c r="M24" s="265"/>
-      <c r="N24" s="263"/>
-      <c r="O24" s="263"/>
-      <c r="P24" s="263"/>
-      <c r="Q24" s="263"/>
-      <c r="R24" s="264"/>
-      <c r="S24" s="258"/>
-      <c r="T24" s="258"/>
-      <c r="U24" s="258"/>
-      <c r="V24" s="259"/>
-      <c r="W24" s="260"/>
-      <c r="X24" s="260"/>
-      <c r="Y24" s="260"/>
-      <c r="Z24" s="260"/>
-      <c r="AA24" s="260"/>
-      <c r="AB24" s="260"/>
-      <c r="AC24" s="260"/>
-      <c r="AD24" s="260"/>
-      <c r="AE24" s="260"/>
-      <c r="AF24" s="260"/>
-      <c r="AG24" s="260"/>
-      <c r="AH24" s="260"/>
-      <c r="AI24" s="260"/>
-      <c r="AJ24" s="260"/>
-      <c r="AK24" s="260"/>
-      <c r="AL24" s="260"/>
-      <c r="AM24" s="261"/>
-      <c r="AN24" s="245"/>
-      <c r="AO24" s="246"/>
-      <c r="AP24" s="246"/>
-      <c r="AQ24" s="246"/>
-      <c r="AR24" s="247"/>
-      <c r="AS24" s="245"/>
-      <c r="AT24" s="246"/>
-      <c r="AU24" s="246"/>
-      <c r="AV24" s="246"/>
-      <c r="AW24" s="247"/>
+      <c r="B24" s="264"/>
+      <c r="C24" s="265"/>
+      <c r="D24" s="266"/>
+      <c r="E24" s="256"/>
+      <c r="F24" s="256"/>
+      <c r="G24" s="256"/>
+      <c r="H24" s="256"/>
+      <c r="I24" s="256"/>
+      <c r="J24" s="257"/>
+      <c r="K24" s="258"/>
+      <c r="L24" s="259"/>
+      <c r="M24" s="267"/>
+      <c r="N24" s="268"/>
+      <c r="O24" s="268"/>
+      <c r="P24" s="268"/>
+      <c r="Q24" s="268"/>
+      <c r="R24" s="269"/>
+      <c r="S24" s="254"/>
+      <c r="T24" s="254"/>
+      <c r="U24" s="254"/>
+      <c r="V24" s="270"/>
+      <c r="W24" s="271"/>
+      <c r="X24" s="271"/>
+      <c r="Y24" s="271"/>
+      <c r="Z24" s="271"/>
+      <c r="AA24" s="271"/>
+      <c r="AB24" s="271"/>
+      <c r="AC24" s="271"/>
+      <c r="AD24" s="271"/>
+      <c r="AE24" s="271"/>
+      <c r="AF24" s="271"/>
+      <c r="AG24" s="271"/>
+      <c r="AH24" s="271"/>
+      <c r="AI24" s="271"/>
+      <c r="AJ24" s="271"/>
+      <c r="AK24" s="271"/>
+      <c r="AL24" s="271"/>
+      <c r="AM24" s="272"/>
+      <c r="AN24" s="273"/>
+      <c r="AO24" s="274"/>
+      <c r="AP24" s="274"/>
+      <c r="AQ24" s="274"/>
+      <c r="AR24" s="275"/>
+      <c r="AS24" s="273"/>
+      <c r="AT24" s="274"/>
+      <c r="AU24" s="274"/>
+      <c r="AV24" s="274"/>
+      <c r="AW24" s="275"/>
     </row>
     <row r="25" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A25" s="56"/>
-      <c r="B25" s="248"/>
-      <c r="C25" s="249"/>
-      <c r="D25" s="250"/>
-      <c r="E25" s="251"/>
-      <c r="F25" s="251"/>
-      <c r="G25" s="251"/>
-      <c r="H25" s="251"/>
-      <c r="I25" s="251"/>
-      <c r="J25" s="252"/>
-      <c r="K25" s="253"/>
-      <c r="L25" s="254"/>
-      <c r="M25" s="262"/>
-      <c r="N25" s="263"/>
-      <c r="O25" s="263"/>
-      <c r="P25" s="263"/>
-      <c r="Q25" s="263"/>
-      <c r="R25" s="264"/>
-      <c r="S25" s="258"/>
-      <c r="T25" s="258"/>
-      <c r="U25" s="258"/>
-      <c r="V25" s="259"/>
-      <c r="W25" s="260"/>
-      <c r="X25" s="260"/>
-      <c r="Y25" s="260"/>
-      <c r="Z25" s="260"/>
-      <c r="AA25" s="260"/>
-      <c r="AB25" s="260"/>
-      <c r="AC25" s="260"/>
-      <c r="AD25" s="260"/>
-      <c r="AE25" s="260"/>
-      <c r="AF25" s="260"/>
-      <c r="AG25" s="260"/>
-      <c r="AH25" s="260"/>
-      <c r="AI25" s="260"/>
-      <c r="AJ25" s="260"/>
-      <c r="AK25" s="260"/>
-      <c r="AL25" s="260"/>
-      <c r="AM25" s="261"/>
-      <c r="AN25" s="245"/>
-      <c r="AO25" s="246"/>
-      <c r="AP25" s="246"/>
-      <c r="AQ25" s="246"/>
-      <c r="AR25" s="247"/>
-      <c r="AS25" s="245"/>
-      <c r="AT25" s="246"/>
-      <c r="AU25" s="246"/>
-      <c r="AV25" s="246"/>
-      <c r="AW25" s="247"/>
+      <c r="B25" s="264"/>
+      <c r="C25" s="265"/>
+      <c r="D25" s="266"/>
+      <c r="E25" s="256"/>
+      <c r="F25" s="256"/>
+      <c r="G25" s="256"/>
+      <c r="H25" s="256"/>
+      <c r="I25" s="256"/>
+      <c r="J25" s="257"/>
+      <c r="K25" s="258"/>
+      <c r="L25" s="259"/>
+      <c r="M25" s="278"/>
+      <c r="N25" s="268"/>
+      <c r="O25" s="268"/>
+      <c r="P25" s="268"/>
+      <c r="Q25" s="268"/>
+      <c r="R25" s="269"/>
+      <c r="S25" s="254"/>
+      <c r="T25" s="254"/>
+      <c r="U25" s="254"/>
+      <c r="V25" s="270"/>
+      <c r="W25" s="271"/>
+      <c r="X25" s="271"/>
+      <c r="Y25" s="271"/>
+      <c r="Z25" s="271"/>
+      <c r="AA25" s="271"/>
+      <c r="AB25" s="271"/>
+      <c r="AC25" s="271"/>
+      <c r="AD25" s="271"/>
+      <c r="AE25" s="271"/>
+      <c r="AF25" s="271"/>
+      <c r="AG25" s="271"/>
+      <c r="AH25" s="271"/>
+      <c r="AI25" s="271"/>
+      <c r="AJ25" s="271"/>
+      <c r="AK25" s="271"/>
+      <c r="AL25" s="271"/>
+      <c r="AM25" s="272"/>
+      <c r="AN25" s="273"/>
+      <c r="AO25" s="274"/>
+      <c r="AP25" s="274"/>
+      <c r="AQ25" s="274"/>
+      <c r="AR25" s="275"/>
+      <c r="AS25" s="273"/>
+      <c r="AT25" s="274"/>
+      <c r="AU25" s="274"/>
+      <c r="AV25" s="274"/>
+      <c r="AW25" s="275"/>
     </row>
     <row r="26" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A26" s="56"/>
-      <c r="B26" s="248"/>
-      <c r="C26" s="249"/>
-      <c r="D26" s="250"/>
-      <c r="E26" s="251"/>
-      <c r="F26" s="251"/>
-      <c r="G26" s="251"/>
-      <c r="H26" s="251"/>
-      <c r="I26" s="251"/>
-      <c r="J26" s="252"/>
-      <c r="K26" s="253"/>
-      <c r="L26" s="254"/>
-      <c r="M26" s="262"/>
-      <c r="N26" s="263"/>
-      <c r="O26" s="263"/>
-      <c r="P26" s="263"/>
-      <c r="Q26" s="263"/>
-      <c r="R26" s="264"/>
-      <c r="S26" s="258"/>
-      <c r="T26" s="258"/>
-      <c r="U26" s="258"/>
-      <c r="V26" s="259"/>
-      <c r="W26" s="260"/>
-      <c r="X26" s="260"/>
-      <c r="Y26" s="260"/>
-      <c r="Z26" s="260"/>
-      <c r="AA26" s="260"/>
-      <c r="AB26" s="260"/>
-      <c r="AC26" s="260"/>
-      <c r="AD26" s="260"/>
-      <c r="AE26" s="260"/>
-      <c r="AF26" s="260"/>
-      <c r="AG26" s="260"/>
-      <c r="AH26" s="260"/>
-      <c r="AI26" s="260"/>
-      <c r="AJ26" s="260"/>
-      <c r="AK26" s="260"/>
-      <c r="AL26" s="260"/>
-      <c r="AM26" s="261"/>
-      <c r="AN26" s="245"/>
-      <c r="AO26" s="246"/>
-      <c r="AP26" s="246"/>
-      <c r="AQ26" s="246"/>
-      <c r="AR26" s="247"/>
-      <c r="AS26" s="245"/>
-      <c r="AT26" s="246"/>
-      <c r="AU26" s="246"/>
-      <c r="AV26" s="246"/>
-      <c r="AW26" s="247"/>
+      <c r="B26" s="264"/>
+      <c r="C26" s="265"/>
+      <c r="D26" s="266"/>
+      <c r="E26" s="256"/>
+      <c r="F26" s="256"/>
+      <c r="G26" s="256"/>
+      <c r="H26" s="256"/>
+      <c r="I26" s="256"/>
+      <c r="J26" s="257"/>
+      <c r="K26" s="258"/>
+      <c r="L26" s="259"/>
+      <c r="M26" s="278"/>
+      <c r="N26" s="268"/>
+      <c r="O26" s="268"/>
+      <c r="P26" s="268"/>
+      <c r="Q26" s="268"/>
+      <c r="R26" s="269"/>
+      <c r="S26" s="254"/>
+      <c r="T26" s="254"/>
+      <c r="U26" s="254"/>
+      <c r="V26" s="270"/>
+      <c r="W26" s="271"/>
+      <c r="X26" s="271"/>
+      <c r="Y26" s="271"/>
+      <c r="Z26" s="271"/>
+      <c r="AA26" s="271"/>
+      <c r="AB26" s="271"/>
+      <c r="AC26" s="271"/>
+      <c r="AD26" s="271"/>
+      <c r="AE26" s="271"/>
+      <c r="AF26" s="271"/>
+      <c r="AG26" s="271"/>
+      <c r="AH26" s="271"/>
+      <c r="AI26" s="271"/>
+      <c r="AJ26" s="271"/>
+      <c r="AK26" s="271"/>
+      <c r="AL26" s="271"/>
+      <c r="AM26" s="272"/>
+      <c r="AN26" s="273"/>
+      <c r="AO26" s="274"/>
+      <c r="AP26" s="274"/>
+      <c r="AQ26" s="274"/>
+      <c r="AR26" s="275"/>
+      <c r="AS26" s="273"/>
+      <c r="AT26" s="274"/>
+      <c r="AU26" s="274"/>
+      <c r="AV26" s="274"/>
+      <c r="AW26" s="275"/>
     </row>
     <row r="27" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A27" s="56"/>
-      <c r="B27" s="248"/>
-      <c r="C27" s="249"/>
-      <c r="D27" s="250"/>
-      <c r="E27" s="251"/>
-      <c r="F27" s="251"/>
-      <c r="G27" s="251"/>
-      <c r="H27" s="251"/>
-      <c r="I27" s="251"/>
-      <c r="J27" s="252"/>
-      <c r="K27" s="253"/>
-      <c r="L27" s="254"/>
-      <c r="M27" s="262"/>
-      <c r="N27" s="263"/>
-      <c r="O27" s="263"/>
-      <c r="P27" s="263"/>
-      <c r="Q27" s="263"/>
-      <c r="R27" s="264"/>
-      <c r="S27" s="258"/>
-      <c r="T27" s="258"/>
-      <c r="U27" s="258"/>
-      <c r="V27" s="259"/>
-      <c r="W27" s="260"/>
-      <c r="X27" s="260"/>
-      <c r="Y27" s="260"/>
-      <c r="Z27" s="260"/>
-      <c r="AA27" s="260"/>
-      <c r="AB27" s="260"/>
-      <c r="AC27" s="260"/>
-      <c r="AD27" s="260"/>
-      <c r="AE27" s="260"/>
-      <c r="AF27" s="260"/>
-      <c r="AG27" s="260"/>
-      <c r="AH27" s="260"/>
-      <c r="AI27" s="260"/>
-      <c r="AJ27" s="260"/>
-      <c r="AK27" s="260"/>
-      <c r="AL27" s="260"/>
-      <c r="AM27" s="261"/>
-      <c r="AN27" s="245"/>
-      <c r="AO27" s="246"/>
-      <c r="AP27" s="246"/>
-      <c r="AQ27" s="246"/>
-      <c r="AR27" s="247"/>
-      <c r="AS27" s="245"/>
-      <c r="AT27" s="246"/>
-      <c r="AU27" s="246"/>
-      <c r="AV27" s="246"/>
-      <c r="AW27" s="247"/>
+      <c r="B27" s="264"/>
+      <c r="C27" s="265"/>
+      <c r="D27" s="266"/>
+      <c r="E27" s="256"/>
+      <c r="F27" s="256"/>
+      <c r="G27" s="256"/>
+      <c r="H27" s="256"/>
+      <c r="I27" s="256"/>
+      <c r="J27" s="257"/>
+      <c r="K27" s="258"/>
+      <c r="L27" s="259"/>
+      <c r="M27" s="278"/>
+      <c r="N27" s="268"/>
+      <c r="O27" s="268"/>
+      <c r="P27" s="268"/>
+      <c r="Q27" s="268"/>
+      <c r="R27" s="269"/>
+      <c r="S27" s="254"/>
+      <c r="T27" s="254"/>
+      <c r="U27" s="254"/>
+      <c r="V27" s="270"/>
+      <c r="W27" s="271"/>
+      <c r="X27" s="271"/>
+      <c r="Y27" s="271"/>
+      <c r="Z27" s="271"/>
+      <c r="AA27" s="271"/>
+      <c r="AB27" s="271"/>
+      <c r="AC27" s="271"/>
+      <c r="AD27" s="271"/>
+      <c r="AE27" s="271"/>
+      <c r="AF27" s="271"/>
+      <c r="AG27" s="271"/>
+      <c r="AH27" s="271"/>
+      <c r="AI27" s="271"/>
+      <c r="AJ27" s="271"/>
+      <c r="AK27" s="271"/>
+      <c r="AL27" s="271"/>
+      <c r="AM27" s="272"/>
+      <c r="AN27" s="273"/>
+      <c r="AO27" s="274"/>
+      <c r="AP27" s="274"/>
+      <c r="AQ27" s="274"/>
+      <c r="AR27" s="275"/>
+      <c r="AS27" s="273"/>
+      <c r="AT27" s="274"/>
+      <c r="AU27" s="274"/>
+      <c r="AV27" s="274"/>
+      <c r="AW27" s="275"/>
     </row>
     <row r="28" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A28" s="56"/>
-      <c r="B28" s="248"/>
-      <c r="C28" s="249"/>
-      <c r="D28" s="250"/>
-      <c r="E28" s="251"/>
-      <c r="F28" s="251"/>
-      <c r="G28" s="251"/>
-      <c r="H28" s="251"/>
-      <c r="I28" s="251"/>
-      <c r="J28" s="252"/>
-      <c r="K28" s="253"/>
-      <c r="L28" s="254"/>
-      <c r="M28" s="265"/>
-      <c r="N28" s="263"/>
-      <c r="O28" s="263"/>
-      <c r="P28" s="263"/>
-      <c r="Q28" s="263"/>
-      <c r="R28" s="264"/>
-      <c r="S28" s="258"/>
-      <c r="T28" s="258"/>
-      <c r="U28" s="258"/>
-      <c r="V28" s="259"/>
-      <c r="W28" s="260"/>
-      <c r="X28" s="260"/>
-      <c r="Y28" s="260"/>
-      <c r="Z28" s="260"/>
-      <c r="AA28" s="260"/>
-      <c r="AB28" s="260"/>
-      <c r="AC28" s="260"/>
-      <c r="AD28" s="260"/>
-      <c r="AE28" s="260"/>
-      <c r="AF28" s="260"/>
-      <c r="AG28" s="260"/>
-      <c r="AH28" s="260"/>
-      <c r="AI28" s="260"/>
-      <c r="AJ28" s="260"/>
-      <c r="AK28" s="260"/>
-      <c r="AL28" s="260"/>
-      <c r="AM28" s="261"/>
-      <c r="AN28" s="245"/>
-      <c r="AO28" s="246"/>
-      <c r="AP28" s="246"/>
-      <c r="AQ28" s="246"/>
-      <c r="AR28" s="247"/>
-      <c r="AS28" s="245"/>
-      <c r="AT28" s="246"/>
-      <c r="AU28" s="246"/>
-      <c r="AV28" s="246"/>
-      <c r="AW28" s="247"/>
+      <c r="B28" s="264"/>
+      <c r="C28" s="265"/>
+      <c r="D28" s="266"/>
+      <c r="E28" s="256"/>
+      <c r="F28" s="256"/>
+      <c r="G28" s="256"/>
+      <c r="H28" s="256"/>
+      <c r="I28" s="256"/>
+      <c r="J28" s="257"/>
+      <c r="K28" s="258"/>
+      <c r="L28" s="259"/>
+      <c r="M28" s="267"/>
+      <c r="N28" s="268"/>
+      <c r="O28" s="268"/>
+      <c r="P28" s="268"/>
+      <c r="Q28" s="268"/>
+      <c r="R28" s="269"/>
+      <c r="S28" s="254"/>
+      <c r="T28" s="254"/>
+      <c r="U28" s="254"/>
+      <c r="V28" s="270"/>
+      <c r="W28" s="271"/>
+      <c r="X28" s="271"/>
+      <c r="Y28" s="271"/>
+      <c r="Z28" s="271"/>
+      <c r="AA28" s="271"/>
+      <c r="AB28" s="271"/>
+      <c r="AC28" s="271"/>
+      <c r="AD28" s="271"/>
+      <c r="AE28" s="271"/>
+      <c r="AF28" s="271"/>
+      <c r="AG28" s="271"/>
+      <c r="AH28" s="271"/>
+      <c r="AI28" s="271"/>
+      <c r="AJ28" s="271"/>
+      <c r="AK28" s="271"/>
+      <c r="AL28" s="271"/>
+      <c r="AM28" s="272"/>
+      <c r="AN28" s="273"/>
+      <c r="AO28" s="274"/>
+      <c r="AP28" s="274"/>
+      <c r="AQ28" s="274"/>
+      <c r="AR28" s="275"/>
+      <c r="AS28" s="273"/>
+      <c r="AT28" s="274"/>
+      <c r="AU28" s="274"/>
+      <c r="AV28" s="274"/>
+      <c r="AW28" s="275"/>
     </row>
     <row r="29" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A29" s="56"/>
-      <c r="B29" s="248"/>
-      <c r="C29" s="249"/>
-      <c r="D29" s="250"/>
-      <c r="E29" s="251"/>
-      <c r="F29" s="251"/>
-      <c r="G29" s="251"/>
-      <c r="H29" s="251"/>
-      <c r="I29" s="251"/>
-      <c r="J29" s="252"/>
-      <c r="K29" s="253"/>
-      <c r="L29" s="254"/>
-      <c r="M29" s="265"/>
-      <c r="N29" s="263"/>
-      <c r="O29" s="263"/>
-      <c r="P29" s="263"/>
-      <c r="Q29" s="263"/>
-      <c r="R29" s="264"/>
-      <c r="S29" s="258"/>
-      <c r="T29" s="258"/>
-      <c r="U29" s="258"/>
-      <c r="V29" s="259"/>
-      <c r="W29" s="260"/>
-      <c r="X29" s="260"/>
-      <c r="Y29" s="260"/>
-      <c r="Z29" s="260"/>
-      <c r="AA29" s="260"/>
-      <c r="AB29" s="260"/>
-      <c r="AC29" s="260"/>
-      <c r="AD29" s="260"/>
-      <c r="AE29" s="260"/>
-      <c r="AF29" s="260"/>
-      <c r="AG29" s="260"/>
-      <c r="AH29" s="260"/>
-      <c r="AI29" s="260"/>
-      <c r="AJ29" s="260"/>
-      <c r="AK29" s="260"/>
-      <c r="AL29" s="260"/>
-      <c r="AM29" s="261"/>
-      <c r="AN29" s="245"/>
-      <c r="AO29" s="246"/>
-      <c r="AP29" s="246"/>
-      <c r="AQ29" s="246"/>
-      <c r="AR29" s="247"/>
-      <c r="AS29" s="245"/>
-      <c r="AT29" s="246"/>
-      <c r="AU29" s="246"/>
-      <c r="AV29" s="246"/>
-      <c r="AW29" s="247"/>
+      <c r="B29" s="264"/>
+      <c r="C29" s="265"/>
+      <c r="D29" s="266"/>
+      <c r="E29" s="256"/>
+      <c r="F29" s="256"/>
+      <c r="G29" s="256"/>
+      <c r="H29" s="256"/>
+      <c r="I29" s="256"/>
+      <c r="J29" s="257"/>
+      <c r="K29" s="258"/>
+      <c r="L29" s="259"/>
+      <c r="M29" s="267"/>
+      <c r="N29" s="268"/>
+      <c r="O29" s="268"/>
+      <c r="P29" s="268"/>
+      <c r="Q29" s="268"/>
+      <c r="R29" s="269"/>
+      <c r="S29" s="254"/>
+      <c r="T29" s="254"/>
+      <c r="U29" s="254"/>
+      <c r="V29" s="270"/>
+      <c r="W29" s="271"/>
+      <c r="X29" s="271"/>
+      <c r="Y29" s="271"/>
+      <c r="Z29" s="271"/>
+      <c r="AA29" s="271"/>
+      <c r="AB29" s="271"/>
+      <c r="AC29" s="271"/>
+      <c r="AD29" s="271"/>
+      <c r="AE29" s="271"/>
+      <c r="AF29" s="271"/>
+      <c r="AG29" s="271"/>
+      <c r="AH29" s="271"/>
+      <c r="AI29" s="271"/>
+      <c r="AJ29" s="271"/>
+      <c r="AK29" s="271"/>
+      <c r="AL29" s="271"/>
+      <c r="AM29" s="272"/>
+      <c r="AN29" s="273"/>
+      <c r="AO29" s="274"/>
+      <c r="AP29" s="274"/>
+      <c r="AQ29" s="274"/>
+      <c r="AR29" s="275"/>
+      <c r="AS29" s="273"/>
+      <c r="AT29" s="274"/>
+      <c r="AU29" s="274"/>
+      <c r="AV29" s="274"/>
+      <c r="AW29" s="275"/>
     </row>
     <row r="30" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A30" s="56"/>
-      <c r="B30" s="248"/>
-      <c r="C30" s="249"/>
-      <c r="D30" s="250"/>
-      <c r="E30" s="251"/>
-      <c r="F30" s="251"/>
-      <c r="G30" s="251"/>
-      <c r="H30" s="251"/>
-      <c r="I30" s="251"/>
-      <c r="J30" s="252"/>
-      <c r="K30" s="253"/>
-      <c r="L30" s="254"/>
-      <c r="M30" s="262"/>
-      <c r="N30" s="263"/>
-      <c r="O30" s="263"/>
-      <c r="P30" s="263"/>
-      <c r="Q30" s="263"/>
-      <c r="R30" s="264"/>
-      <c r="S30" s="258"/>
-      <c r="T30" s="258"/>
-      <c r="U30" s="258"/>
-      <c r="V30" s="259"/>
-      <c r="W30" s="260"/>
-      <c r="X30" s="260"/>
-      <c r="Y30" s="260"/>
-      <c r="Z30" s="260"/>
-      <c r="AA30" s="260"/>
-      <c r="AB30" s="260"/>
-      <c r="AC30" s="260"/>
-      <c r="AD30" s="260"/>
-      <c r="AE30" s="260"/>
-      <c r="AF30" s="260"/>
-      <c r="AG30" s="260"/>
-      <c r="AH30" s="260"/>
-      <c r="AI30" s="260"/>
-      <c r="AJ30" s="260"/>
-      <c r="AK30" s="260"/>
-      <c r="AL30" s="260"/>
-      <c r="AM30" s="261"/>
-      <c r="AN30" s="245"/>
-      <c r="AO30" s="246"/>
-      <c r="AP30" s="246"/>
-      <c r="AQ30" s="246"/>
-      <c r="AR30" s="247"/>
-      <c r="AS30" s="245"/>
-      <c r="AT30" s="246"/>
-      <c r="AU30" s="246"/>
-      <c r="AV30" s="246"/>
-      <c r="AW30" s="247"/>
+      <c r="B30" s="264"/>
+      <c r="C30" s="265"/>
+      <c r="D30" s="266"/>
+      <c r="E30" s="256"/>
+      <c r="F30" s="256"/>
+      <c r="G30" s="256"/>
+      <c r="H30" s="256"/>
+      <c r="I30" s="256"/>
+      <c r="J30" s="257"/>
+      <c r="K30" s="258"/>
+      <c r="L30" s="259"/>
+      <c r="M30" s="278"/>
+      <c r="N30" s="268"/>
+      <c r="O30" s="268"/>
+      <c r="P30" s="268"/>
+      <c r="Q30" s="268"/>
+      <c r="R30" s="269"/>
+      <c r="S30" s="254"/>
+      <c r="T30" s="254"/>
+      <c r="U30" s="254"/>
+      <c r="V30" s="270"/>
+      <c r="W30" s="271"/>
+      <c r="X30" s="271"/>
+      <c r="Y30" s="271"/>
+      <c r="Z30" s="271"/>
+      <c r="AA30" s="271"/>
+      <c r="AB30" s="271"/>
+      <c r="AC30" s="271"/>
+      <c r="AD30" s="271"/>
+      <c r="AE30" s="271"/>
+      <c r="AF30" s="271"/>
+      <c r="AG30" s="271"/>
+      <c r="AH30" s="271"/>
+      <c r="AI30" s="271"/>
+      <c r="AJ30" s="271"/>
+      <c r="AK30" s="271"/>
+      <c r="AL30" s="271"/>
+      <c r="AM30" s="272"/>
+      <c r="AN30" s="273"/>
+      <c r="AO30" s="274"/>
+      <c r="AP30" s="274"/>
+      <c r="AQ30" s="274"/>
+      <c r="AR30" s="275"/>
+      <c r="AS30" s="273"/>
+      <c r="AT30" s="274"/>
+      <c r="AU30" s="274"/>
+      <c r="AV30" s="274"/>
+      <c r="AW30" s="275"/>
     </row>
     <row r="31" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A31" s="56"/>
-      <c r="B31" s="248"/>
-      <c r="C31" s="249"/>
-      <c r="D31" s="250"/>
-      <c r="E31" s="251"/>
-      <c r="F31" s="251"/>
-      <c r="G31" s="251"/>
-      <c r="H31" s="251"/>
-      <c r="I31" s="251"/>
-      <c r="J31" s="252"/>
-      <c r="K31" s="253"/>
-      <c r="L31" s="254"/>
-      <c r="M31" s="262"/>
-      <c r="N31" s="263"/>
-      <c r="O31" s="263"/>
-      <c r="P31" s="263"/>
-      <c r="Q31" s="263"/>
-      <c r="R31" s="264"/>
-      <c r="S31" s="258"/>
-      <c r="T31" s="258"/>
-      <c r="U31" s="258"/>
-      <c r="V31" s="259"/>
-      <c r="W31" s="260"/>
-      <c r="X31" s="260"/>
-      <c r="Y31" s="260"/>
-      <c r="Z31" s="260"/>
-      <c r="AA31" s="260"/>
-      <c r="AB31" s="260"/>
-      <c r="AC31" s="260"/>
-      <c r="AD31" s="260"/>
-      <c r="AE31" s="260"/>
-      <c r="AF31" s="260"/>
-      <c r="AG31" s="260"/>
-      <c r="AH31" s="260"/>
-      <c r="AI31" s="260"/>
-      <c r="AJ31" s="260"/>
-      <c r="AK31" s="260"/>
-      <c r="AL31" s="260"/>
-      <c r="AM31" s="261"/>
-      <c r="AN31" s="245"/>
-      <c r="AO31" s="246"/>
-      <c r="AP31" s="246"/>
-      <c r="AQ31" s="246"/>
-      <c r="AR31" s="247"/>
-      <c r="AS31" s="245"/>
-      <c r="AT31" s="246"/>
-      <c r="AU31" s="246"/>
-      <c r="AV31" s="246"/>
-      <c r="AW31" s="247"/>
+      <c r="B31" s="264"/>
+      <c r="C31" s="265"/>
+      <c r="D31" s="266"/>
+      <c r="E31" s="256"/>
+      <c r="F31" s="256"/>
+      <c r="G31" s="256"/>
+      <c r="H31" s="256"/>
+      <c r="I31" s="256"/>
+      <c r="J31" s="257"/>
+      <c r="K31" s="258"/>
+      <c r="L31" s="259"/>
+      <c r="M31" s="278"/>
+      <c r="N31" s="268"/>
+      <c r="O31" s="268"/>
+      <c r="P31" s="268"/>
+      <c r="Q31" s="268"/>
+      <c r="R31" s="269"/>
+      <c r="S31" s="254"/>
+      <c r="T31" s="254"/>
+      <c r="U31" s="254"/>
+      <c r="V31" s="270"/>
+      <c r="W31" s="271"/>
+      <c r="X31" s="271"/>
+      <c r="Y31" s="271"/>
+      <c r="Z31" s="271"/>
+      <c r="AA31" s="271"/>
+      <c r="AB31" s="271"/>
+      <c r="AC31" s="271"/>
+      <c r="AD31" s="271"/>
+      <c r="AE31" s="271"/>
+      <c r="AF31" s="271"/>
+      <c r="AG31" s="271"/>
+      <c r="AH31" s="271"/>
+      <c r="AI31" s="271"/>
+      <c r="AJ31" s="271"/>
+      <c r="AK31" s="271"/>
+      <c r="AL31" s="271"/>
+      <c r="AM31" s="272"/>
+      <c r="AN31" s="273"/>
+      <c r="AO31" s="274"/>
+      <c r="AP31" s="274"/>
+      <c r="AQ31" s="274"/>
+      <c r="AR31" s="275"/>
+      <c r="AS31" s="273"/>
+      <c r="AT31" s="274"/>
+      <c r="AU31" s="274"/>
+      <c r="AV31" s="274"/>
+      <c r="AW31" s="275"/>
     </row>
     <row r="32" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A32" s="56"/>
-      <c r="B32" s="248"/>
-      <c r="C32" s="249"/>
-      <c r="D32" s="250"/>
-      <c r="E32" s="251"/>
-      <c r="F32" s="251"/>
-      <c r="G32" s="251"/>
-      <c r="H32" s="251"/>
-      <c r="I32" s="251"/>
-      <c r="J32" s="252"/>
-      <c r="K32" s="253"/>
-      <c r="L32" s="254"/>
-      <c r="M32" s="262"/>
-      <c r="N32" s="263"/>
-      <c r="O32" s="263"/>
-      <c r="P32" s="263"/>
-      <c r="Q32" s="263"/>
-      <c r="R32" s="264"/>
-      <c r="S32" s="258"/>
-      <c r="T32" s="258"/>
-      <c r="U32" s="258"/>
-      <c r="V32" s="259"/>
-      <c r="W32" s="260"/>
-      <c r="X32" s="260"/>
-      <c r="Y32" s="260"/>
-      <c r="Z32" s="260"/>
-      <c r="AA32" s="260"/>
-      <c r="AB32" s="260"/>
-      <c r="AC32" s="260"/>
-      <c r="AD32" s="260"/>
-      <c r="AE32" s="260"/>
-      <c r="AF32" s="260"/>
-      <c r="AG32" s="260"/>
-      <c r="AH32" s="260"/>
-      <c r="AI32" s="260"/>
-      <c r="AJ32" s="260"/>
-      <c r="AK32" s="260"/>
-      <c r="AL32" s="260"/>
-      <c r="AM32" s="261"/>
-      <c r="AN32" s="245"/>
-      <c r="AO32" s="246"/>
-      <c r="AP32" s="246"/>
-      <c r="AQ32" s="246"/>
-      <c r="AR32" s="247"/>
-      <c r="AS32" s="245"/>
-      <c r="AT32" s="246"/>
-      <c r="AU32" s="246"/>
-      <c r="AV32" s="246"/>
-      <c r="AW32" s="247"/>
+      <c r="B32" s="264"/>
+      <c r="C32" s="265"/>
+      <c r="D32" s="266"/>
+      <c r="E32" s="256"/>
+      <c r="F32" s="256"/>
+      <c r="G32" s="256"/>
+      <c r="H32" s="256"/>
+      <c r="I32" s="256"/>
+      <c r="J32" s="257"/>
+      <c r="K32" s="258"/>
+      <c r="L32" s="259"/>
+      <c r="M32" s="278"/>
+      <c r="N32" s="268"/>
+      <c r="O32" s="268"/>
+      <c r="P32" s="268"/>
+      <c r="Q32" s="268"/>
+      <c r="R32" s="269"/>
+      <c r="S32" s="254"/>
+      <c r="T32" s="254"/>
+      <c r="U32" s="254"/>
+      <c r="V32" s="270"/>
+      <c r="W32" s="271"/>
+      <c r="X32" s="271"/>
+      <c r="Y32" s="271"/>
+      <c r="Z32" s="271"/>
+      <c r="AA32" s="271"/>
+      <c r="AB32" s="271"/>
+      <c r="AC32" s="271"/>
+      <c r="AD32" s="271"/>
+      <c r="AE32" s="271"/>
+      <c r="AF32" s="271"/>
+      <c r="AG32" s="271"/>
+      <c r="AH32" s="271"/>
+      <c r="AI32" s="271"/>
+      <c r="AJ32" s="271"/>
+      <c r="AK32" s="271"/>
+      <c r="AL32" s="271"/>
+      <c r="AM32" s="272"/>
+      <c r="AN32" s="273"/>
+      <c r="AO32" s="274"/>
+      <c r="AP32" s="274"/>
+      <c r="AQ32" s="274"/>
+      <c r="AR32" s="275"/>
+      <c r="AS32" s="273"/>
+      <c r="AT32" s="274"/>
+      <c r="AU32" s="274"/>
+      <c r="AV32" s="274"/>
+      <c r="AW32" s="275"/>
     </row>
     <row r="33" spans="2:49" x14ac:dyDescent="0.25">
-      <c r="B33" s="248"/>
-      <c r="C33" s="249"/>
-      <c r="D33" s="250"/>
-      <c r="E33" s="251"/>
-      <c r="F33" s="251"/>
-      <c r="G33" s="251"/>
-      <c r="H33" s="251"/>
-      <c r="I33" s="251"/>
-      <c r="J33" s="252"/>
-      <c r="K33" s="253"/>
-      <c r="L33" s="254"/>
-      <c r="M33" s="262"/>
-      <c r="N33" s="263"/>
-      <c r="O33" s="263"/>
-      <c r="P33" s="263"/>
-      <c r="Q33" s="263"/>
-      <c r="R33" s="264"/>
-      <c r="S33" s="258"/>
-      <c r="T33" s="258"/>
-      <c r="U33" s="258"/>
-      <c r="V33" s="259"/>
-      <c r="W33" s="260"/>
-      <c r="X33" s="260"/>
-      <c r="Y33" s="260"/>
-      <c r="Z33" s="260"/>
-      <c r="AA33" s="260"/>
-      <c r="AB33" s="260"/>
-      <c r="AC33" s="260"/>
-      <c r="AD33" s="260"/>
-      <c r="AE33" s="260"/>
-      <c r="AF33" s="260"/>
-      <c r="AG33" s="260"/>
-      <c r="AH33" s="260"/>
-      <c r="AI33" s="260"/>
-      <c r="AJ33" s="260"/>
-      <c r="AK33" s="260"/>
-      <c r="AL33" s="260"/>
-      <c r="AM33" s="261"/>
-      <c r="AN33" s="245"/>
-      <c r="AO33" s="246"/>
-      <c r="AP33" s="246"/>
-      <c r="AQ33" s="246"/>
-      <c r="AR33" s="247"/>
-      <c r="AS33" s="245"/>
-      <c r="AT33" s="246"/>
-      <c r="AU33" s="246"/>
-      <c r="AV33" s="246"/>
-      <c r="AW33" s="247"/>
+      <c r="B33" s="264"/>
+      <c r="C33" s="265"/>
+      <c r="D33" s="266"/>
+      <c r="E33" s="256"/>
+      <c r="F33" s="256"/>
+      <c r="G33" s="256"/>
+      <c r="H33" s="256"/>
+      <c r="I33" s="256"/>
+      <c r="J33" s="257"/>
+      <c r="K33" s="258"/>
+      <c r="L33" s="259"/>
+      <c r="M33" s="278"/>
+      <c r="N33" s="268"/>
+      <c r="O33" s="268"/>
+      <c r="P33" s="268"/>
+      <c r="Q33" s="268"/>
+      <c r="R33" s="269"/>
+      <c r="S33" s="254"/>
+      <c r="T33" s="254"/>
+      <c r="U33" s="254"/>
+      <c r="V33" s="270"/>
+      <c r="W33" s="271"/>
+      <c r="X33" s="271"/>
+      <c r="Y33" s="271"/>
+      <c r="Z33" s="271"/>
+      <c r="AA33" s="271"/>
+      <c r="AB33" s="271"/>
+      <c r="AC33" s="271"/>
+      <c r="AD33" s="271"/>
+      <c r="AE33" s="271"/>
+      <c r="AF33" s="271"/>
+      <c r="AG33" s="271"/>
+      <c r="AH33" s="271"/>
+      <c r="AI33" s="271"/>
+      <c r="AJ33" s="271"/>
+      <c r="AK33" s="271"/>
+      <c r="AL33" s="271"/>
+      <c r="AM33" s="272"/>
+      <c r="AN33" s="273"/>
+      <c r="AO33" s="274"/>
+      <c r="AP33" s="274"/>
+      <c r="AQ33" s="274"/>
+      <c r="AR33" s="275"/>
+      <c r="AS33" s="273"/>
+      <c r="AT33" s="274"/>
+      <c r="AU33" s="274"/>
+      <c r="AV33" s="274"/>
+      <c r="AW33" s="275"/>
     </row>
     <row r="34" spans="2:49" x14ac:dyDescent="0.25">
-      <c r="B34" s="248"/>
-      <c r="C34" s="249"/>
-      <c r="D34" s="250"/>
-      <c r="E34" s="251"/>
-      <c r="F34" s="251"/>
-      <c r="G34" s="251"/>
-      <c r="H34" s="251"/>
-      <c r="I34" s="251"/>
-      <c r="J34" s="252"/>
-      <c r="K34" s="253"/>
-      <c r="L34" s="254"/>
-      <c r="M34" s="255"/>
-      <c r="N34" s="256"/>
-      <c r="O34" s="256"/>
-      <c r="P34" s="256"/>
-      <c r="Q34" s="256"/>
-      <c r="R34" s="257"/>
-      <c r="S34" s="258"/>
-      <c r="T34" s="258"/>
-      <c r="U34" s="258"/>
-      <c r="V34" s="259"/>
-      <c r="W34" s="260"/>
-      <c r="X34" s="260"/>
-      <c r="Y34" s="260"/>
-      <c r="Z34" s="260"/>
-      <c r="AA34" s="260"/>
-      <c r="AB34" s="260"/>
-      <c r="AC34" s="260"/>
-      <c r="AD34" s="260"/>
-      <c r="AE34" s="260"/>
-      <c r="AF34" s="260"/>
-      <c r="AG34" s="260"/>
-      <c r="AH34" s="260"/>
-      <c r="AI34" s="260"/>
-      <c r="AJ34" s="260"/>
-      <c r="AK34" s="260"/>
-      <c r="AL34" s="260"/>
-      <c r="AM34" s="261"/>
-      <c r="AN34" s="245"/>
-      <c r="AO34" s="246"/>
-      <c r="AP34" s="246"/>
-      <c r="AQ34" s="246"/>
-      <c r="AR34" s="247"/>
-      <c r="AS34" s="245"/>
-      <c r="AT34" s="246"/>
-      <c r="AU34" s="246"/>
-      <c r="AV34" s="246"/>
-      <c r="AW34" s="247"/>
+      <c r="B34" s="264"/>
+      <c r="C34" s="265"/>
+      <c r="D34" s="266"/>
+      <c r="E34" s="256"/>
+      <c r="F34" s="256"/>
+      <c r="G34" s="256"/>
+      <c r="H34" s="256"/>
+      <c r="I34" s="256"/>
+      <c r="J34" s="257"/>
+      <c r="K34" s="258"/>
+      <c r="L34" s="259"/>
+      <c r="M34" s="282"/>
+      <c r="N34" s="283"/>
+      <c r="O34" s="283"/>
+      <c r="P34" s="283"/>
+      <c r="Q34" s="283"/>
+      <c r="R34" s="284"/>
+      <c r="S34" s="254"/>
+      <c r="T34" s="254"/>
+      <c r="U34" s="254"/>
+      <c r="V34" s="270"/>
+      <c r="W34" s="271"/>
+      <c r="X34" s="271"/>
+      <c r="Y34" s="271"/>
+      <c r="Z34" s="271"/>
+      <c r="AA34" s="271"/>
+      <c r="AB34" s="271"/>
+      <c r="AC34" s="271"/>
+      <c r="AD34" s="271"/>
+      <c r="AE34" s="271"/>
+      <c r="AF34" s="271"/>
+      <c r="AG34" s="271"/>
+      <c r="AH34" s="271"/>
+      <c r="AI34" s="271"/>
+      <c r="AJ34" s="271"/>
+      <c r="AK34" s="271"/>
+      <c r="AL34" s="271"/>
+      <c r="AM34" s="272"/>
+      <c r="AN34" s="273"/>
+      <c r="AO34" s="274"/>
+      <c r="AP34" s="274"/>
+      <c r="AQ34" s="274"/>
+      <c r="AR34" s="275"/>
+      <c r="AS34" s="273"/>
+      <c r="AT34" s="274"/>
+      <c r="AU34" s="274"/>
+      <c r="AV34" s="274"/>
+      <c r="AW34" s="275"/>
     </row>
   </sheetData>
   <mergeCells count="249">
-    <mergeCell ref="B1:AW2"/>
-    <mergeCell ref="B3:D4"/>
-    <mergeCell ref="E3:I4"/>
-    <mergeCell ref="J3:L4"/>
-    <mergeCell ref="M3:R4"/>
-    <mergeCell ref="S3:U4"/>
-    <mergeCell ref="V3:AM4"/>
-    <mergeCell ref="AN3:AR4"/>
-    <mergeCell ref="AS3:AW4"/>
+    <mergeCell ref="AN33:AR33"/>
+    <mergeCell ref="AS33:AW33"/>
+    <mergeCell ref="B34:D34"/>
+    <mergeCell ref="E34:I34"/>
+    <mergeCell ref="J34:L34"/>
+    <mergeCell ref="M34:R34"/>
+    <mergeCell ref="S34:U34"/>
+    <mergeCell ref="V34:AM34"/>
+    <mergeCell ref="AN34:AR34"/>
+    <mergeCell ref="AS34:AW34"/>
+    <mergeCell ref="B33:D33"/>
+    <mergeCell ref="E33:I33"/>
+    <mergeCell ref="J33:L33"/>
+    <mergeCell ref="M33:R33"/>
+    <mergeCell ref="S33:U33"/>
+    <mergeCell ref="V33:AM33"/>
+    <mergeCell ref="AN31:AR31"/>
+    <mergeCell ref="AS31:AW31"/>
+    <mergeCell ref="B32:D32"/>
+    <mergeCell ref="E32:I32"/>
+    <mergeCell ref="J32:L32"/>
+    <mergeCell ref="M32:R32"/>
+    <mergeCell ref="S32:U32"/>
+    <mergeCell ref="V32:AM32"/>
+    <mergeCell ref="AN32:AR32"/>
+    <mergeCell ref="AS32:AW32"/>
+    <mergeCell ref="B31:D31"/>
+    <mergeCell ref="E31:I31"/>
+    <mergeCell ref="J31:L31"/>
+    <mergeCell ref="M31:R31"/>
+    <mergeCell ref="S31:U31"/>
+    <mergeCell ref="V31:AM31"/>
+    <mergeCell ref="AN29:AR29"/>
+    <mergeCell ref="AS29:AW29"/>
+    <mergeCell ref="B30:D30"/>
+    <mergeCell ref="E30:I30"/>
+    <mergeCell ref="J30:L30"/>
+    <mergeCell ref="M30:R30"/>
+    <mergeCell ref="S30:U30"/>
+    <mergeCell ref="V30:AM30"/>
+    <mergeCell ref="AN30:AR30"/>
+    <mergeCell ref="AS30:AW30"/>
+    <mergeCell ref="B29:D29"/>
+    <mergeCell ref="E29:I29"/>
+    <mergeCell ref="J29:L29"/>
+    <mergeCell ref="M29:R29"/>
+    <mergeCell ref="S29:U29"/>
+    <mergeCell ref="V29:AM29"/>
+    <mergeCell ref="AN27:AR27"/>
+    <mergeCell ref="AS27:AW27"/>
+    <mergeCell ref="B28:D28"/>
+    <mergeCell ref="E28:I28"/>
+    <mergeCell ref="J28:L28"/>
+    <mergeCell ref="M28:R28"/>
+    <mergeCell ref="S28:U28"/>
+    <mergeCell ref="V28:AM28"/>
+    <mergeCell ref="AN28:AR28"/>
+    <mergeCell ref="AS28:AW28"/>
+    <mergeCell ref="B27:D27"/>
+    <mergeCell ref="E27:I27"/>
+    <mergeCell ref="J27:L27"/>
+    <mergeCell ref="M27:R27"/>
+    <mergeCell ref="S27:U27"/>
+    <mergeCell ref="V27:AM27"/>
+    <mergeCell ref="AN25:AR25"/>
+    <mergeCell ref="AS25:AW25"/>
+    <mergeCell ref="B26:D26"/>
+    <mergeCell ref="E26:I26"/>
+    <mergeCell ref="J26:L26"/>
+    <mergeCell ref="M26:R26"/>
+    <mergeCell ref="S26:U26"/>
+    <mergeCell ref="V26:AM26"/>
+    <mergeCell ref="AN26:AR26"/>
+    <mergeCell ref="AS26:AW26"/>
+    <mergeCell ref="B25:D25"/>
+    <mergeCell ref="E25:I25"/>
+    <mergeCell ref="J25:L25"/>
+    <mergeCell ref="M25:R25"/>
+    <mergeCell ref="S25:U25"/>
+    <mergeCell ref="V25:AM25"/>
+    <mergeCell ref="AN23:AR23"/>
+    <mergeCell ref="AS23:AW23"/>
+    <mergeCell ref="B24:D24"/>
+    <mergeCell ref="E24:I24"/>
+    <mergeCell ref="J24:L24"/>
+    <mergeCell ref="M24:R24"/>
+    <mergeCell ref="S24:U24"/>
+    <mergeCell ref="V24:AM24"/>
+    <mergeCell ref="AN24:AR24"/>
+    <mergeCell ref="AS24:AW24"/>
+    <mergeCell ref="B23:D23"/>
+    <mergeCell ref="E23:I23"/>
+    <mergeCell ref="J23:L23"/>
+    <mergeCell ref="M23:R23"/>
+    <mergeCell ref="S23:U23"/>
+    <mergeCell ref="V23:AM23"/>
+    <mergeCell ref="AN21:AR21"/>
+    <mergeCell ref="AS21:AW21"/>
+    <mergeCell ref="B22:D22"/>
+    <mergeCell ref="E22:I22"/>
+    <mergeCell ref="J22:L22"/>
+    <mergeCell ref="M22:R22"/>
+    <mergeCell ref="S22:U22"/>
+    <mergeCell ref="V22:AM22"/>
+    <mergeCell ref="AN22:AR22"/>
+    <mergeCell ref="AS22:AW22"/>
+    <mergeCell ref="B21:D21"/>
+    <mergeCell ref="E21:I21"/>
+    <mergeCell ref="J21:L21"/>
+    <mergeCell ref="M21:R21"/>
+    <mergeCell ref="S21:U21"/>
+    <mergeCell ref="V21:AM21"/>
+    <mergeCell ref="AN19:AR19"/>
+    <mergeCell ref="AS19:AW19"/>
+    <mergeCell ref="B20:D20"/>
+    <mergeCell ref="E20:I20"/>
+    <mergeCell ref="J20:L20"/>
+    <mergeCell ref="M20:R20"/>
+    <mergeCell ref="S20:U20"/>
+    <mergeCell ref="V20:AM20"/>
+    <mergeCell ref="AN20:AR20"/>
+    <mergeCell ref="AS20:AW20"/>
+    <mergeCell ref="B19:D19"/>
+    <mergeCell ref="E19:I19"/>
+    <mergeCell ref="J19:L19"/>
+    <mergeCell ref="M19:R19"/>
+    <mergeCell ref="S19:U19"/>
+    <mergeCell ref="V19:AM19"/>
+    <mergeCell ref="AN17:AR17"/>
+    <mergeCell ref="AS17:AW17"/>
+    <mergeCell ref="B18:D18"/>
+    <mergeCell ref="E18:I18"/>
+    <mergeCell ref="J18:L18"/>
+    <mergeCell ref="M18:R18"/>
+    <mergeCell ref="S18:U18"/>
+    <mergeCell ref="V18:AM18"/>
+    <mergeCell ref="AN18:AR18"/>
+    <mergeCell ref="AS18:AW18"/>
+    <mergeCell ref="B17:D17"/>
+    <mergeCell ref="E17:I17"/>
+    <mergeCell ref="J17:L17"/>
+    <mergeCell ref="M17:R17"/>
+    <mergeCell ref="S17:U17"/>
+    <mergeCell ref="V17:AM17"/>
+    <mergeCell ref="AN15:AR15"/>
+    <mergeCell ref="AS15:AW15"/>
+    <mergeCell ref="B16:D16"/>
+    <mergeCell ref="E16:I16"/>
+    <mergeCell ref="J16:L16"/>
+    <mergeCell ref="M16:R16"/>
+    <mergeCell ref="S16:U16"/>
+    <mergeCell ref="V16:AM16"/>
+    <mergeCell ref="AN16:AR16"/>
+    <mergeCell ref="AS16:AW16"/>
+    <mergeCell ref="B15:D15"/>
+    <mergeCell ref="E15:I15"/>
+    <mergeCell ref="J15:L15"/>
+    <mergeCell ref="M15:R15"/>
+    <mergeCell ref="S15:U15"/>
+    <mergeCell ref="V15:AM15"/>
+    <mergeCell ref="AN13:AR13"/>
+    <mergeCell ref="AS13:AW13"/>
+    <mergeCell ref="B14:D14"/>
+    <mergeCell ref="E14:I14"/>
+    <mergeCell ref="J14:L14"/>
+    <mergeCell ref="M14:R14"/>
+    <mergeCell ref="S14:U14"/>
+    <mergeCell ref="V14:AM14"/>
+    <mergeCell ref="AN14:AR14"/>
+    <mergeCell ref="AS14:AW14"/>
+    <mergeCell ref="B13:D13"/>
+    <mergeCell ref="E13:I13"/>
+    <mergeCell ref="J13:L13"/>
+    <mergeCell ref="M13:R13"/>
+    <mergeCell ref="S13:U13"/>
+    <mergeCell ref="V13:AM13"/>
+    <mergeCell ref="AN11:AR11"/>
+    <mergeCell ref="AS11:AW11"/>
+    <mergeCell ref="B12:D12"/>
+    <mergeCell ref="E12:I12"/>
+    <mergeCell ref="J12:L12"/>
+    <mergeCell ref="M12:R12"/>
+    <mergeCell ref="S12:U12"/>
+    <mergeCell ref="V12:AM12"/>
+    <mergeCell ref="AN12:AR12"/>
+    <mergeCell ref="AS12:AW12"/>
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="E11:I11"/>
+    <mergeCell ref="J11:L11"/>
+    <mergeCell ref="M11:R11"/>
+    <mergeCell ref="S11:U11"/>
+    <mergeCell ref="V11:AM11"/>
+    <mergeCell ref="AN9:AR9"/>
+    <mergeCell ref="AS9:AW9"/>
+    <mergeCell ref="B10:D10"/>
+    <mergeCell ref="E10:I10"/>
+    <mergeCell ref="J10:L10"/>
+    <mergeCell ref="M10:R10"/>
+    <mergeCell ref="S10:U10"/>
+    <mergeCell ref="V10:AM10"/>
+    <mergeCell ref="AN10:AR10"/>
+    <mergeCell ref="AS10:AW10"/>
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="E9:I9"/>
+    <mergeCell ref="J9:L9"/>
+    <mergeCell ref="M9:R9"/>
+    <mergeCell ref="S9:U9"/>
+    <mergeCell ref="V9:AM9"/>
+    <mergeCell ref="AN7:AR7"/>
+    <mergeCell ref="AS7:AW7"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="E8:I8"/>
+    <mergeCell ref="J8:L8"/>
+    <mergeCell ref="M8:R8"/>
+    <mergeCell ref="S8:U8"/>
+    <mergeCell ref="V8:AM8"/>
+    <mergeCell ref="AN8:AR8"/>
+    <mergeCell ref="AS8:AW8"/>
+    <mergeCell ref="B7:D7"/>
+    <mergeCell ref="E7:I7"/>
+    <mergeCell ref="J7:L7"/>
+    <mergeCell ref="M7:R7"/>
+    <mergeCell ref="S7:U7"/>
+    <mergeCell ref="V7:AM7"/>
     <mergeCell ref="AN5:AR5"/>
     <mergeCell ref="AS5:AW5"/>
     <mergeCell ref="B6:D6"/>
@@ -10126,230 +10346,15 @@
     <mergeCell ref="M5:R5"/>
     <mergeCell ref="S5:U5"/>
     <mergeCell ref="V5:AM5"/>
-    <mergeCell ref="AN7:AR7"/>
-    <mergeCell ref="AS7:AW7"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="E8:I8"/>
-    <mergeCell ref="J8:L8"/>
-    <mergeCell ref="M8:R8"/>
-    <mergeCell ref="S8:U8"/>
-    <mergeCell ref="V8:AM8"/>
-    <mergeCell ref="AN8:AR8"/>
-    <mergeCell ref="AS8:AW8"/>
-    <mergeCell ref="B7:D7"/>
-    <mergeCell ref="E7:I7"/>
-    <mergeCell ref="J7:L7"/>
-    <mergeCell ref="M7:R7"/>
-    <mergeCell ref="S7:U7"/>
-    <mergeCell ref="V7:AM7"/>
-    <mergeCell ref="AN9:AR9"/>
-    <mergeCell ref="AS9:AW9"/>
-    <mergeCell ref="B10:D10"/>
-    <mergeCell ref="E10:I10"/>
-    <mergeCell ref="J10:L10"/>
-    <mergeCell ref="M10:R10"/>
-    <mergeCell ref="S10:U10"/>
-    <mergeCell ref="V10:AM10"/>
-    <mergeCell ref="AN10:AR10"/>
-    <mergeCell ref="AS10:AW10"/>
-    <mergeCell ref="B9:D9"/>
-    <mergeCell ref="E9:I9"/>
-    <mergeCell ref="J9:L9"/>
-    <mergeCell ref="M9:R9"/>
-    <mergeCell ref="S9:U9"/>
-    <mergeCell ref="V9:AM9"/>
-    <mergeCell ref="AN11:AR11"/>
-    <mergeCell ref="AS11:AW11"/>
-    <mergeCell ref="B12:D12"/>
-    <mergeCell ref="E12:I12"/>
-    <mergeCell ref="J12:L12"/>
-    <mergeCell ref="M12:R12"/>
-    <mergeCell ref="S12:U12"/>
-    <mergeCell ref="V12:AM12"/>
-    <mergeCell ref="AN12:AR12"/>
-    <mergeCell ref="AS12:AW12"/>
-    <mergeCell ref="B11:D11"/>
-    <mergeCell ref="E11:I11"/>
-    <mergeCell ref="J11:L11"/>
-    <mergeCell ref="M11:R11"/>
-    <mergeCell ref="S11:U11"/>
-    <mergeCell ref="V11:AM11"/>
-    <mergeCell ref="AN13:AR13"/>
-    <mergeCell ref="AS13:AW13"/>
-    <mergeCell ref="B14:D14"/>
-    <mergeCell ref="E14:I14"/>
-    <mergeCell ref="J14:L14"/>
-    <mergeCell ref="M14:R14"/>
-    <mergeCell ref="S14:U14"/>
-    <mergeCell ref="V14:AM14"/>
-    <mergeCell ref="AN14:AR14"/>
-    <mergeCell ref="AS14:AW14"/>
-    <mergeCell ref="B13:D13"/>
-    <mergeCell ref="E13:I13"/>
-    <mergeCell ref="J13:L13"/>
-    <mergeCell ref="M13:R13"/>
-    <mergeCell ref="S13:U13"/>
-    <mergeCell ref="V13:AM13"/>
-    <mergeCell ref="AN15:AR15"/>
-    <mergeCell ref="AS15:AW15"/>
-    <mergeCell ref="B16:D16"/>
-    <mergeCell ref="E16:I16"/>
-    <mergeCell ref="J16:L16"/>
-    <mergeCell ref="M16:R16"/>
-    <mergeCell ref="S16:U16"/>
-    <mergeCell ref="V16:AM16"/>
-    <mergeCell ref="AN16:AR16"/>
-    <mergeCell ref="AS16:AW16"/>
-    <mergeCell ref="B15:D15"/>
-    <mergeCell ref="E15:I15"/>
-    <mergeCell ref="J15:L15"/>
-    <mergeCell ref="M15:R15"/>
-    <mergeCell ref="S15:U15"/>
-    <mergeCell ref="V15:AM15"/>
-    <mergeCell ref="AN17:AR17"/>
-    <mergeCell ref="AS17:AW17"/>
-    <mergeCell ref="B18:D18"/>
-    <mergeCell ref="E18:I18"/>
-    <mergeCell ref="J18:L18"/>
-    <mergeCell ref="M18:R18"/>
-    <mergeCell ref="S18:U18"/>
-    <mergeCell ref="V18:AM18"/>
-    <mergeCell ref="AN18:AR18"/>
-    <mergeCell ref="AS18:AW18"/>
-    <mergeCell ref="B17:D17"/>
-    <mergeCell ref="E17:I17"/>
-    <mergeCell ref="J17:L17"/>
-    <mergeCell ref="M17:R17"/>
-    <mergeCell ref="S17:U17"/>
-    <mergeCell ref="V17:AM17"/>
-    <mergeCell ref="AN19:AR19"/>
-    <mergeCell ref="AS19:AW19"/>
-    <mergeCell ref="B20:D20"/>
-    <mergeCell ref="E20:I20"/>
-    <mergeCell ref="J20:L20"/>
-    <mergeCell ref="M20:R20"/>
-    <mergeCell ref="S20:U20"/>
-    <mergeCell ref="V20:AM20"/>
-    <mergeCell ref="AN20:AR20"/>
-    <mergeCell ref="AS20:AW20"/>
-    <mergeCell ref="B19:D19"/>
-    <mergeCell ref="E19:I19"/>
-    <mergeCell ref="J19:L19"/>
-    <mergeCell ref="M19:R19"/>
-    <mergeCell ref="S19:U19"/>
-    <mergeCell ref="V19:AM19"/>
-    <mergeCell ref="AN21:AR21"/>
-    <mergeCell ref="AS21:AW21"/>
-    <mergeCell ref="B22:D22"/>
-    <mergeCell ref="E22:I22"/>
-    <mergeCell ref="J22:L22"/>
-    <mergeCell ref="M22:R22"/>
-    <mergeCell ref="S22:U22"/>
-    <mergeCell ref="V22:AM22"/>
-    <mergeCell ref="AN22:AR22"/>
-    <mergeCell ref="AS22:AW22"/>
-    <mergeCell ref="B21:D21"/>
-    <mergeCell ref="E21:I21"/>
-    <mergeCell ref="J21:L21"/>
-    <mergeCell ref="M21:R21"/>
-    <mergeCell ref="S21:U21"/>
-    <mergeCell ref="V21:AM21"/>
-    <mergeCell ref="AN23:AR23"/>
-    <mergeCell ref="AS23:AW23"/>
-    <mergeCell ref="B24:D24"/>
-    <mergeCell ref="E24:I24"/>
-    <mergeCell ref="J24:L24"/>
-    <mergeCell ref="M24:R24"/>
-    <mergeCell ref="S24:U24"/>
-    <mergeCell ref="V24:AM24"/>
-    <mergeCell ref="AN24:AR24"/>
-    <mergeCell ref="AS24:AW24"/>
-    <mergeCell ref="B23:D23"/>
-    <mergeCell ref="E23:I23"/>
-    <mergeCell ref="J23:L23"/>
-    <mergeCell ref="M23:R23"/>
-    <mergeCell ref="S23:U23"/>
-    <mergeCell ref="V23:AM23"/>
-    <mergeCell ref="AN25:AR25"/>
-    <mergeCell ref="AS25:AW25"/>
-    <mergeCell ref="B26:D26"/>
-    <mergeCell ref="E26:I26"/>
-    <mergeCell ref="J26:L26"/>
-    <mergeCell ref="M26:R26"/>
-    <mergeCell ref="S26:U26"/>
-    <mergeCell ref="V26:AM26"/>
-    <mergeCell ref="AN26:AR26"/>
-    <mergeCell ref="AS26:AW26"/>
-    <mergeCell ref="B25:D25"/>
-    <mergeCell ref="E25:I25"/>
-    <mergeCell ref="J25:L25"/>
-    <mergeCell ref="M25:R25"/>
-    <mergeCell ref="S25:U25"/>
-    <mergeCell ref="V25:AM25"/>
-    <mergeCell ref="AN27:AR27"/>
-    <mergeCell ref="AS27:AW27"/>
-    <mergeCell ref="B28:D28"/>
-    <mergeCell ref="E28:I28"/>
-    <mergeCell ref="J28:L28"/>
-    <mergeCell ref="M28:R28"/>
-    <mergeCell ref="S28:U28"/>
-    <mergeCell ref="V28:AM28"/>
-    <mergeCell ref="AN28:AR28"/>
-    <mergeCell ref="AS28:AW28"/>
-    <mergeCell ref="B27:D27"/>
-    <mergeCell ref="E27:I27"/>
-    <mergeCell ref="J27:L27"/>
-    <mergeCell ref="M27:R27"/>
-    <mergeCell ref="S27:U27"/>
-    <mergeCell ref="V27:AM27"/>
-    <mergeCell ref="AN29:AR29"/>
-    <mergeCell ref="AS29:AW29"/>
-    <mergeCell ref="B30:D30"/>
-    <mergeCell ref="E30:I30"/>
-    <mergeCell ref="J30:L30"/>
-    <mergeCell ref="M30:R30"/>
-    <mergeCell ref="S30:U30"/>
-    <mergeCell ref="V30:AM30"/>
-    <mergeCell ref="AN30:AR30"/>
-    <mergeCell ref="AS30:AW30"/>
-    <mergeCell ref="B29:D29"/>
-    <mergeCell ref="E29:I29"/>
-    <mergeCell ref="J29:L29"/>
-    <mergeCell ref="M29:R29"/>
-    <mergeCell ref="S29:U29"/>
-    <mergeCell ref="V29:AM29"/>
-    <mergeCell ref="AN31:AR31"/>
-    <mergeCell ref="AS31:AW31"/>
-    <mergeCell ref="B32:D32"/>
-    <mergeCell ref="E32:I32"/>
-    <mergeCell ref="J32:L32"/>
-    <mergeCell ref="M32:R32"/>
-    <mergeCell ref="S32:U32"/>
-    <mergeCell ref="V32:AM32"/>
-    <mergeCell ref="AN32:AR32"/>
-    <mergeCell ref="AS32:AW32"/>
-    <mergeCell ref="B31:D31"/>
-    <mergeCell ref="E31:I31"/>
-    <mergeCell ref="J31:L31"/>
-    <mergeCell ref="M31:R31"/>
-    <mergeCell ref="S31:U31"/>
-    <mergeCell ref="V31:AM31"/>
-    <mergeCell ref="AN33:AR33"/>
-    <mergeCell ref="AS33:AW33"/>
-    <mergeCell ref="B34:D34"/>
-    <mergeCell ref="E34:I34"/>
-    <mergeCell ref="J34:L34"/>
-    <mergeCell ref="M34:R34"/>
-    <mergeCell ref="S34:U34"/>
-    <mergeCell ref="V34:AM34"/>
-    <mergeCell ref="AN34:AR34"/>
-    <mergeCell ref="AS34:AW34"/>
-    <mergeCell ref="B33:D33"/>
-    <mergeCell ref="E33:I33"/>
-    <mergeCell ref="J33:L33"/>
-    <mergeCell ref="M33:R33"/>
-    <mergeCell ref="S33:U33"/>
-    <mergeCell ref="V33:AM33"/>
+    <mergeCell ref="B1:AW2"/>
+    <mergeCell ref="B3:D4"/>
+    <mergeCell ref="E3:I4"/>
+    <mergeCell ref="J3:L4"/>
+    <mergeCell ref="M3:R4"/>
+    <mergeCell ref="S3:U4"/>
+    <mergeCell ref="V3:AM4"/>
+    <mergeCell ref="AN3:AR4"/>
+    <mergeCell ref="AS3:AW4"/>
   </mergeCells>
   <phoneticPr fontId="4"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -10481,7 +10486,7 @@
       <c r="P2" s="38"/>
       <c r="Q2" s="39"/>
       <c r="R2" s="110" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="S2" s="111"/>
       <c r="T2" s="111"/>
@@ -12378,7 +12383,7 @@
       <c r="I51" s="84"/>
       <c r="J51" s="222"/>
       <c r="K51" s="221" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="L51" s="84"/>
       <c r="M51" s="84"/>
@@ -12410,7 +12415,7 @@
       <c r="AK51" s="287"/>
       <c r="AL51" s="288"/>
       <c r="AM51" s="81" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="AN51" s="82"/>
       <c r="AO51" s="82"/>
@@ -12612,7 +12617,7 @@
       <c r="I54" s="84"/>
       <c r="J54" s="222"/>
       <c r="K54" s="221" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="L54" s="84"/>
       <c r="M54" s="84"/>
@@ -12924,7 +12929,7 @@
       <c r="I58" s="84"/>
       <c r="J58" s="222"/>
       <c r="K58" s="221" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="L58" s="84"/>
       <c r="M58" s="84"/>
@@ -13227,20 +13232,34 @@
     </row>
   </sheetData>
   <mergeCells count="58">
-    <mergeCell ref="B60:C60"/>
-    <mergeCell ref="AE60:AF60"/>
-    <mergeCell ref="B58:C58"/>
-    <mergeCell ref="AK58:AL58"/>
-    <mergeCell ref="B59:C59"/>
-    <mergeCell ref="AE59:AF59"/>
-    <mergeCell ref="AG59:AH59"/>
-    <mergeCell ref="AI59:AJ59"/>
-    <mergeCell ref="AK59:AL59"/>
-    <mergeCell ref="AK55:AL55"/>
-    <mergeCell ref="AI55:AJ55"/>
-    <mergeCell ref="AG60:AH60"/>
-    <mergeCell ref="AI60:AJ60"/>
-    <mergeCell ref="AK60:AL60"/>
+    <mergeCell ref="B61:C61"/>
+    <mergeCell ref="AE61:AF61"/>
+    <mergeCell ref="AG61:AH61"/>
+    <mergeCell ref="AI61:AJ61"/>
+    <mergeCell ref="AK61:AL61"/>
+    <mergeCell ref="AO2:AS2"/>
+    <mergeCell ref="AZ2:BG2"/>
+    <mergeCell ref="B50:C50"/>
+    <mergeCell ref="B52:C52"/>
+    <mergeCell ref="B53:C53"/>
+    <mergeCell ref="AG51:AH51"/>
+    <mergeCell ref="AK51:AL51"/>
+    <mergeCell ref="AE51:AF51"/>
+    <mergeCell ref="B51:C51"/>
+    <mergeCell ref="AI51:AJ51"/>
+    <mergeCell ref="AI52:AJ52"/>
+    <mergeCell ref="AK52:AL52"/>
+    <mergeCell ref="AK53:AL53"/>
+    <mergeCell ref="AI53:AJ53"/>
+    <mergeCell ref="AE52:AF52"/>
+    <mergeCell ref="AE53:AF53"/>
+    <mergeCell ref="AG53:AH53"/>
+    <mergeCell ref="AG54:AH54"/>
+    <mergeCell ref="AG52:AH52"/>
+    <mergeCell ref="AI57:AJ57"/>
+    <mergeCell ref="AG58:AH58"/>
+    <mergeCell ref="AI58:AJ58"/>
+    <mergeCell ref="AG55:AH55"/>
     <mergeCell ref="B54:C54"/>
     <mergeCell ref="AI54:AJ54"/>
     <mergeCell ref="AE58:AF58"/>
@@ -13257,34 +13276,20 @@
     <mergeCell ref="AE54:AF54"/>
     <mergeCell ref="B55:C55"/>
     <mergeCell ref="AE55:AF55"/>
-    <mergeCell ref="AG53:AH53"/>
-    <mergeCell ref="AG54:AH54"/>
-    <mergeCell ref="AG52:AH52"/>
-    <mergeCell ref="AI57:AJ57"/>
-    <mergeCell ref="AG58:AH58"/>
-    <mergeCell ref="AI58:AJ58"/>
-    <mergeCell ref="AG55:AH55"/>
-    <mergeCell ref="AO2:AS2"/>
-    <mergeCell ref="AZ2:BG2"/>
-    <mergeCell ref="B50:C50"/>
-    <mergeCell ref="B52:C52"/>
-    <mergeCell ref="B53:C53"/>
-    <mergeCell ref="AG51:AH51"/>
-    <mergeCell ref="AK51:AL51"/>
-    <mergeCell ref="AE51:AF51"/>
-    <mergeCell ref="B51:C51"/>
-    <mergeCell ref="AI51:AJ51"/>
-    <mergeCell ref="AI52:AJ52"/>
-    <mergeCell ref="AK52:AL52"/>
-    <mergeCell ref="AK53:AL53"/>
-    <mergeCell ref="AI53:AJ53"/>
-    <mergeCell ref="AE52:AF52"/>
-    <mergeCell ref="AE53:AF53"/>
-    <mergeCell ref="B61:C61"/>
-    <mergeCell ref="AE61:AF61"/>
-    <mergeCell ref="AG61:AH61"/>
-    <mergeCell ref="AI61:AJ61"/>
-    <mergeCell ref="AK61:AL61"/>
+    <mergeCell ref="AK55:AL55"/>
+    <mergeCell ref="AI55:AJ55"/>
+    <mergeCell ref="AG60:AH60"/>
+    <mergeCell ref="AI60:AJ60"/>
+    <mergeCell ref="AK60:AL60"/>
+    <mergeCell ref="B60:C60"/>
+    <mergeCell ref="AE60:AF60"/>
+    <mergeCell ref="B58:C58"/>
+    <mergeCell ref="AK58:AL58"/>
+    <mergeCell ref="B59:C59"/>
+    <mergeCell ref="AE59:AF59"/>
+    <mergeCell ref="AG59:AH59"/>
+    <mergeCell ref="AI59:AJ59"/>
+    <mergeCell ref="AK59:AL59"/>
   </mergeCells>
   <phoneticPr fontId="4"/>
   <printOptions horizontalCentered="1"/>
@@ -13778,22 +13783,22 @@
     <row r="6" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="15"/>
       <c r="B6" s="15"/>
-      <c r="C6" s="278" t="s">
+      <c r="C6" s="247" t="s">
         <v>27</v>
       </c>
-      <c r="D6" s="278" t="s">
+      <c r="D6" s="247" t="s">
         <v>60</v>
       </c>
-      <c r="E6" s="278" t="s">
+      <c r="E6" s="247" t="s">
         <v>44</v>
       </c>
-      <c r="F6" s="278" t="s">
+      <c r="F6" s="247" t="s">
         <v>45</v>
       </c>
-      <c r="G6" s="278" t="s">
+      <c r="G6" s="247" t="s">
         <v>28</v>
       </c>
-      <c r="H6" s="278" t="s">
+      <c r="H6" s="247" t="s">
         <v>29</v>
       </c>
       <c r="I6" s="306" t="s">
@@ -13802,13 +13807,13 @@
       <c r="J6" s="306" t="s">
         <v>51</v>
       </c>
-      <c r="K6" s="278" t="s">
+      <c r="K6" s="247" t="s">
         <v>31</v>
       </c>
-      <c r="L6" s="278" t="s">
+      <c r="L6" s="247" t="s">
         <v>30</v>
       </c>
-      <c r="M6" s="278" t="s">
+      <c r="M6" s="247" t="s">
         <v>33</v>
       </c>
       <c r="N6" s="75" t="s">
@@ -13823,17 +13828,17 @@
     <row r="7" spans="1:18" ht="15.75" x14ac:dyDescent="0.15">
       <c r="A7" s="15"/>
       <c r="B7" s="15"/>
-      <c r="C7" s="278"/>
-      <c r="D7" s="278"/>
-      <c r="E7" s="278"/>
-      <c r="F7" s="278"/>
-      <c r="G7" s="278"/>
-      <c r="H7" s="278"/>
+      <c r="C7" s="247"/>
+      <c r="D7" s="247"/>
+      <c r="E7" s="247"/>
+      <c r="F7" s="247"/>
+      <c r="G7" s="247"/>
+      <c r="H7" s="247"/>
       <c r="I7" s="306"/>
       <c r="J7" s="306"/>
-      <c r="K7" s="278"/>
-      <c r="L7" s="278"/>
-      <c r="M7" s="278"/>
+      <c r="K7" s="247"/>
+      <c r="L7" s="247"/>
+      <c r="M7" s="247"/>
       <c r="N7" s="43" t="s">
         <v>83</v>
       </c>
@@ -13997,7 +14002,7 @@
         <v>48</v>
       </c>
       <c r="F11" s="238" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="G11" s="16" t="s">
         <v>46</v>
@@ -14044,22 +14049,22 @@
     <row r="14" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="15"/>
       <c r="B14" s="15"/>
-      <c r="C14" s="278" t="s">
+      <c r="C14" s="247" t="s">
         <v>27</v>
       </c>
-      <c r="D14" s="278" t="s">
+      <c r="D14" s="247" t="s">
         <v>60</v>
       </c>
-      <c r="E14" s="278" t="s">
+      <c r="E14" s="247" t="s">
         <v>44</v>
       </c>
-      <c r="F14" s="278" t="s">
+      <c r="F14" s="247" t="s">
         <v>45</v>
       </c>
-      <c r="G14" s="278" t="s">
+      <c r="G14" s="247" t="s">
         <v>28</v>
       </c>
-      <c r="H14" s="278" t="s">
+      <c r="H14" s="247" t="s">
         <v>29</v>
       </c>
       <c r="I14" s="307" t="s">
@@ -14068,13 +14073,13 @@
       <c r="J14" s="306" t="s">
         <v>51</v>
       </c>
-      <c r="K14" s="278" t="s">
+      <c r="K14" s="247" t="s">
         <v>31</v>
       </c>
-      <c r="L14" s="278" t="s">
+      <c r="L14" s="247" t="s">
         <v>30</v>
       </c>
-      <c r="M14" s="278" t="s">
+      <c r="M14" s="247" t="s">
         <v>33</v>
       </c>
       <c r="N14" s="75" t="s">
@@ -14089,17 +14094,17 @@
     <row r="15" spans="1:18" ht="15.75" x14ac:dyDescent="0.15">
       <c r="A15" s="15"/>
       <c r="B15" s="15"/>
-      <c r="C15" s="278"/>
-      <c r="D15" s="278"/>
-      <c r="E15" s="278"/>
-      <c r="F15" s="278"/>
-      <c r="G15" s="278"/>
-      <c r="H15" s="278"/>
+      <c r="C15" s="247"/>
+      <c r="D15" s="247"/>
+      <c r="E15" s="247"/>
+      <c r="F15" s="247"/>
+      <c r="G15" s="247"/>
+      <c r="H15" s="247"/>
       <c r="I15" s="308"/>
       <c r="J15" s="306"/>
-      <c r="K15" s="278"/>
-      <c r="L15" s="278"/>
-      <c r="M15" s="278"/>
+      <c r="K15" s="247"/>
+      <c r="L15" s="247"/>
+      <c r="M15" s="247"/>
       <c r="N15" s="43" t="s">
         <v>83</v>
       </c>
@@ -14121,10 +14126,10 @@
         <v>65</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>536</v>
+      </c>
+      <c r="F16" s="7" t="s">
         <v>537</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>538</v>
       </c>
       <c r="G16" s="16" t="s">
         <v>116</v>
@@ -14373,22 +14378,22 @@
     </row>
     <row r="24" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B24" s="118"/>
-      <c r="C24" s="278" t="s">
+      <c r="C24" s="247" t="s">
         <v>27</v>
       </c>
-      <c r="D24" s="278" t="s">
+      <c r="D24" s="247" t="s">
         <v>60</v>
       </c>
-      <c r="E24" s="278" t="s">
+      <c r="E24" s="247" t="s">
         <v>44</v>
       </c>
-      <c r="F24" s="278" t="s">
+      <c r="F24" s="247" t="s">
         <v>45</v>
       </c>
-      <c r="G24" s="278" t="s">
+      <c r="G24" s="247" t="s">
         <v>28</v>
       </c>
-      <c r="H24" s="278" t="s">
+      <c r="H24" s="247" t="s">
         <v>29</v>
       </c>
       <c r="I24" s="306" t="s">
@@ -14397,13 +14402,13 @@
       <c r="J24" s="306" t="s">
         <v>51</v>
       </c>
-      <c r="K24" s="278" t="s">
+      <c r="K24" s="247" t="s">
         <v>31</v>
       </c>
-      <c r="L24" s="278" t="s">
+      <c r="L24" s="247" t="s">
         <v>30</v>
       </c>
-      <c r="M24" s="278" t="s">
+      <c r="M24" s="247" t="s">
         <v>33</v>
       </c>
       <c r="N24" s="75" t="s">
@@ -14417,17 +14422,17 @@
     </row>
     <row r="25" spans="1:17" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B25" s="118"/>
-      <c r="C25" s="278"/>
-      <c r="D25" s="278"/>
-      <c r="E25" s="278"/>
-      <c r="F25" s="278"/>
-      <c r="G25" s="278"/>
-      <c r="H25" s="278"/>
+      <c r="C25" s="247"/>
+      <c r="D25" s="247"/>
+      <c r="E25" s="247"/>
+      <c r="F25" s="247"/>
+      <c r="G25" s="247"/>
+      <c r="H25" s="247"/>
       <c r="I25" s="306"/>
       <c r="J25" s="306"/>
-      <c r="K25" s="278"/>
-      <c r="L25" s="278"/>
-      <c r="M25" s="278"/>
+      <c r="K25" s="247"/>
+      <c r="L25" s="247"/>
+      <c r="M25" s="247"/>
       <c r="N25" s="115" t="s">
         <v>83</v>
       </c>
@@ -14539,7 +14544,7 @@
         <v>68</v>
       </c>
       <c r="E28" s="239" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="F28" s="238" t="s">
         <v>35</v>
@@ -14572,7 +14577,7 @@
         <v>35</v>
       </c>
       <c r="P28" s="241" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="Q28" s="241"/>
     </row>
@@ -14585,7 +14590,7 @@
         <v>178</v>
       </c>
       <c r="E29" s="239" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="F29" s="238" t="s">
         <v>35</v>
@@ -14631,7 +14636,7 @@
         <v>179</v>
       </c>
       <c r="E30" s="239" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="F30" s="238" t="s">
         <v>35</v>
@@ -14664,7 +14669,7 @@
         <v>35</v>
       </c>
       <c r="P30" s="241" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="Q30" s="241"/>
     </row>
@@ -14677,7 +14682,7 @@
         <v>180</v>
       </c>
       <c r="E31" s="239" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="F31" s="238" t="s">
         <v>35</v>
@@ -14710,7 +14715,7 @@
         <v>35</v>
       </c>
       <c r="P31" s="241" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="Q31" s="241"/>
     </row>
@@ -14723,7 +14728,7 @@
         <v>181</v>
       </c>
       <c r="E32" s="239" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="F32" s="238" t="s">
         <v>35</v>
@@ -14756,7 +14761,7 @@
         <v>35</v>
       </c>
       <c r="P32" s="241" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="Q32" s="241"/>
     </row>
@@ -14800,7 +14805,7 @@
         <v>35</v>
       </c>
       <c r="P33" s="241" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="Q33" s="8"/>
     </row>
@@ -15166,22 +15171,22 @@
     </row>
     <row r="44" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B44" s="118"/>
-      <c r="C44" s="278" t="s">
+      <c r="C44" s="247" t="s">
         <v>27</v>
       </c>
-      <c r="D44" s="278" t="s">
+      <c r="D44" s="247" t="s">
         <v>60</v>
       </c>
-      <c r="E44" s="278" t="s">
+      <c r="E44" s="247" t="s">
         <v>44</v>
       </c>
-      <c r="F44" s="278" t="s">
+      <c r="F44" s="247" t="s">
         <v>45</v>
       </c>
-      <c r="G44" s="278" t="s">
+      <c r="G44" s="247" t="s">
         <v>28</v>
       </c>
-      <c r="H44" s="278" t="s">
+      <c r="H44" s="247" t="s">
         <v>29</v>
       </c>
       <c r="I44" s="306" t="s">
@@ -15190,13 +15195,13 @@
       <c r="J44" s="306" t="s">
         <v>51</v>
       </c>
-      <c r="K44" s="278" t="s">
+      <c r="K44" s="247" t="s">
         <v>31</v>
       </c>
-      <c r="L44" s="278" t="s">
+      <c r="L44" s="247" t="s">
         <v>30</v>
       </c>
-      <c r="M44" s="278" t="s">
+      <c r="M44" s="247" t="s">
         <v>33</v>
       </c>
       <c r="N44" s="75" t="s">
@@ -15210,17 +15215,17 @@
     </row>
     <row r="45" spans="1:17" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B45" s="118"/>
-      <c r="C45" s="278"/>
-      <c r="D45" s="278"/>
-      <c r="E45" s="278"/>
-      <c r="F45" s="278"/>
-      <c r="G45" s="278"/>
-      <c r="H45" s="278"/>
+      <c r="C45" s="247"/>
+      <c r="D45" s="247"/>
+      <c r="E45" s="247"/>
+      <c r="F45" s="247"/>
+      <c r="G45" s="247"/>
+      <c r="H45" s="247"/>
       <c r="I45" s="306"/>
       <c r="J45" s="306"/>
-      <c r="K45" s="278"/>
-      <c r="L45" s="278"/>
-      <c r="M45" s="278"/>
+      <c r="K45" s="247"/>
+      <c r="L45" s="247"/>
+      <c r="M45" s="247"/>
       <c r="N45" s="115" t="s">
         <v>83</v>
       </c>
@@ -15332,7 +15337,7 @@
         <v>68</v>
       </c>
       <c r="E48" s="239" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="F48" s="238" t="s">
         <v>35</v>
@@ -15365,7 +15370,7 @@
         <v>35</v>
       </c>
       <c r="P48" s="241" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="Q48" s="241"/>
     </row>
@@ -15378,7 +15383,7 @@
         <v>178</v>
       </c>
       <c r="E49" s="239" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="F49" s="238" t="s">
         <v>35</v>
@@ -15424,7 +15429,7 @@
         <v>179</v>
       </c>
       <c r="E50" s="239" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="F50" s="238" t="s">
         <v>35</v>
@@ -15457,7 +15462,7 @@
         <v>35</v>
       </c>
       <c r="P50" s="241" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="Q50" s="241"/>
     </row>
@@ -15470,7 +15475,7 @@
         <v>180</v>
       </c>
       <c r="E51" s="239" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="F51" s="238" t="s">
         <v>35</v>
@@ -15503,7 +15508,7 @@
         <v>35</v>
       </c>
       <c r="P51" s="241" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="Q51" s="241"/>
     </row>
@@ -15516,7 +15521,7 @@
         <v>181</v>
       </c>
       <c r="E52" s="239" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="F52" s="238" t="s">
         <v>35</v>
@@ -15549,7 +15554,7 @@
         <v>35</v>
       </c>
       <c r="P52" s="241" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="Q52" s="241"/>
     </row>
@@ -15593,7 +15598,7 @@
         <v>35</v>
       </c>
       <c r="P53" s="241" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="Q53" s="8"/>
     </row>
@@ -15955,7 +15960,7 @@
         <v>17</v>
       </c>
       <c r="D62" s="7" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="E62" s="16" t="s">
         <v>192</v>
@@ -15999,7 +16004,7 @@
         <v>18</v>
       </c>
       <c r="D63" s="7" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="E63" s="16" t="s">
         <v>193</v>
@@ -16043,7 +16048,7 @@
         <v>19</v>
       </c>
       <c r="D64" s="7" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="E64" s="16" t="s">
         <v>194</v>
@@ -16087,7 +16092,7 @@
         <v>20</v>
       </c>
       <c r="D65" s="7" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="E65" s="16" t="s">
         <v>195</v>
@@ -16151,22 +16156,22 @@
     </row>
     <row r="68" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B68" s="118"/>
-      <c r="C68" s="278" t="s">
+      <c r="C68" s="247" t="s">
         <v>27</v>
       </c>
-      <c r="D68" s="278" t="s">
+      <c r="D68" s="247" t="s">
         <v>60</v>
       </c>
-      <c r="E68" s="278" t="s">
+      <c r="E68" s="247" t="s">
         <v>44</v>
       </c>
-      <c r="F68" s="278" t="s">
+      <c r="F68" s="247" t="s">
         <v>45</v>
       </c>
-      <c r="G68" s="278" t="s">
+      <c r="G68" s="247" t="s">
         <v>28</v>
       </c>
-      <c r="H68" s="278" t="s">
+      <c r="H68" s="247" t="s">
         <v>29</v>
       </c>
       <c r="I68" s="306" t="s">
@@ -16175,13 +16180,13 @@
       <c r="J68" s="306" t="s">
         <v>51</v>
       </c>
-      <c r="K68" s="278" t="s">
+      <c r="K68" s="247" t="s">
         <v>31</v>
       </c>
-      <c r="L68" s="278" t="s">
+      <c r="L68" s="247" t="s">
         <v>30</v>
       </c>
-      <c r="M68" s="278" t="s">
+      <c r="M68" s="247" t="s">
         <v>33</v>
       </c>
       <c r="N68" s="75" t="s">
@@ -16195,17 +16200,17 @@
     </row>
     <row r="69" spans="1:17" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B69" s="118"/>
-      <c r="C69" s="278"/>
-      <c r="D69" s="278"/>
-      <c r="E69" s="278"/>
-      <c r="F69" s="278"/>
-      <c r="G69" s="278"/>
-      <c r="H69" s="278"/>
+      <c r="C69" s="247"/>
+      <c r="D69" s="247"/>
+      <c r="E69" s="247"/>
+      <c r="F69" s="247"/>
+      <c r="G69" s="247"/>
+      <c r="H69" s="247"/>
       <c r="I69" s="306"/>
       <c r="J69" s="306"/>
-      <c r="K69" s="278"/>
-      <c r="L69" s="278"/>
-      <c r="M69" s="278"/>
+      <c r="K69" s="247"/>
+      <c r="L69" s="247"/>
+      <c r="M69" s="247"/>
       <c r="N69" s="115" t="s">
         <v>83</v>
       </c>
@@ -16317,7 +16322,7 @@
         <v>68</v>
       </c>
       <c r="E72" s="239" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="F72" s="238" t="s">
         <v>35</v>
@@ -16350,7 +16355,7 @@
         <v>35</v>
       </c>
       <c r="P72" s="241" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="Q72" s="241"/>
     </row>
@@ -16363,7 +16368,7 @@
         <v>178</v>
       </c>
       <c r="E73" s="239" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="F73" s="238" t="s">
         <v>35</v>
@@ -16409,7 +16414,7 @@
         <v>179</v>
       </c>
       <c r="E74" s="239" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="F74" s="238" t="s">
         <v>35</v>
@@ -16442,7 +16447,7 @@
         <v>35</v>
       </c>
       <c r="P74" s="241" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="Q74" s="241"/>
     </row>
@@ -16455,7 +16460,7 @@
         <v>180</v>
       </c>
       <c r="E75" s="239" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="F75" s="238" t="s">
         <v>35</v>
@@ -16488,7 +16493,7 @@
         <v>35</v>
       </c>
       <c r="P75" s="241" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="Q75" s="241"/>
     </row>
@@ -16501,7 +16506,7 @@
         <v>181</v>
       </c>
       <c r="E76" s="239" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="F76" s="238" t="s">
         <v>35</v>
@@ -16534,7 +16539,7 @@
         <v>35</v>
       </c>
       <c r="P76" s="241" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="Q76" s="241"/>
     </row>
@@ -16578,7 +16583,7 @@
         <v>35</v>
       </c>
       <c r="P77" s="241" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="Q77" s="8"/>
     </row>
@@ -16983,26 +16988,38 @@
     </row>
   </sheetData>
   <mergeCells count="60">
-    <mergeCell ref="K14:K15"/>
-    <mergeCell ref="M24:M25"/>
-    <mergeCell ref="Q24:Q25"/>
-    <mergeCell ref="M44:M45"/>
-    <mergeCell ref="Q44:Q45"/>
-    <mergeCell ref="Q6:Q7"/>
-    <mergeCell ref="Q14:Q15"/>
-    <mergeCell ref="M6:M7"/>
-    <mergeCell ref="M14:M15"/>
-    <mergeCell ref="L14:L15"/>
-    <mergeCell ref="J6:J7"/>
-    <mergeCell ref="D6:D7"/>
-    <mergeCell ref="I6:I7"/>
-    <mergeCell ref="L6:L7"/>
-    <mergeCell ref="K6:K7"/>
-    <mergeCell ref="C6:C7"/>
-    <mergeCell ref="E6:E7"/>
-    <mergeCell ref="G6:G7"/>
-    <mergeCell ref="H6:H7"/>
-    <mergeCell ref="F6:F7"/>
+    <mergeCell ref="M68:M69"/>
+    <mergeCell ref="Q68:Q69"/>
+    <mergeCell ref="H68:H69"/>
+    <mergeCell ref="I68:I69"/>
+    <mergeCell ref="J68:J69"/>
+    <mergeCell ref="K68:K69"/>
+    <mergeCell ref="L68:L69"/>
+    <mergeCell ref="C68:C69"/>
+    <mergeCell ref="D68:D69"/>
+    <mergeCell ref="E68:E69"/>
+    <mergeCell ref="F68:F69"/>
+    <mergeCell ref="G68:G69"/>
+    <mergeCell ref="H44:H45"/>
+    <mergeCell ref="I44:I45"/>
+    <mergeCell ref="J44:J45"/>
+    <mergeCell ref="K44:K45"/>
+    <mergeCell ref="L44:L45"/>
+    <mergeCell ref="C44:C45"/>
+    <mergeCell ref="D44:D45"/>
+    <mergeCell ref="E44:E45"/>
+    <mergeCell ref="F44:F45"/>
+    <mergeCell ref="G44:G45"/>
+    <mergeCell ref="H24:H25"/>
+    <mergeCell ref="I24:I25"/>
+    <mergeCell ref="J24:J25"/>
+    <mergeCell ref="K24:K25"/>
+    <mergeCell ref="L24:L25"/>
+    <mergeCell ref="C24:C25"/>
+    <mergeCell ref="D24:D25"/>
+    <mergeCell ref="E24:E25"/>
+    <mergeCell ref="F24:F25"/>
+    <mergeCell ref="G24:G25"/>
     <mergeCell ref="I14:I15"/>
     <mergeCell ref="J14:J15"/>
     <mergeCell ref="C14:C15"/>
@@ -17011,38 +17028,26 @@
     <mergeCell ref="G14:G15"/>
     <mergeCell ref="H14:H15"/>
     <mergeCell ref="D14:D15"/>
-    <mergeCell ref="C24:C25"/>
-    <mergeCell ref="D24:D25"/>
-    <mergeCell ref="E24:E25"/>
-    <mergeCell ref="F24:F25"/>
-    <mergeCell ref="G24:G25"/>
-    <mergeCell ref="H24:H25"/>
-    <mergeCell ref="I24:I25"/>
-    <mergeCell ref="J24:J25"/>
-    <mergeCell ref="K24:K25"/>
-    <mergeCell ref="L24:L25"/>
-    <mergeCell ref="C44:C45"/>
-    <mergeCell ref="D44:D45"/>
-    <mergeCell ref="E44:E45"/>
-    <mergeCell ref="F44:F45"/>
-    <mergeCell ref="G44:G45"/>
-    <mergeCell ref="H44:H45"/>
-    <mergeCell ref="I44:I45"/>
-    <mergeCell ref="J44:J45"/>
-    <mergeCell ref="K44:K45"/>
-    <mergeCell ref="L44:L45"/>
-    <mergeCell ref="C68:C69"/>
-    <mergeCell ref="D68:D69"/>
-    <mergeCell ref="E68:E69"/>
-    <mergeCell ref="F68:F69"/>
-    <mergeCell ref="G68:G69"/>
-    <mergeCell ref="M68:M69"/>
-    <mergeCell ref="Q68:Q69"/>
-    <mergeCell ref="H68:H69"/>
-    <mergeCell ref="I68:I69"/>
-    <mergeCell ref="J68:J69"/>
-    <mergeCell ref="K68:K69"/>
-    <mergeCell ref="L68:L69"/>
+    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="E6:E7"/>
+    <mergeCell ref="G6:G7"/>
+    <mergeCell ref="H6:H7"/>
+    <mergeCell ref="F6:F7"/>
+    <mergeCell ref="J6:J7"/>
+    <mergeCell ref="D6:D7"/>
+    <mergeCell ref="I6:I7"/>
+    <mergeCell ref="L6:L7"/>
+    <mergeCell ref="K6:K7"/>
+    <mergeCell ref="Q6:Q7"/>
+    <mergeCell ref="Q14:Q15"/>
+    <mergeCell ref="M6:M7"/>
+    <mergeCell ref="M14:M15"/>
+    <mergeCell ref="L14:L15"/>
+    <mergeCell ref="K14:K15"/>
+    <mergeCell ref="M24:M25"/>
+    <mergeCell ref="Q24:Q25"/>
+    <mergeCell ref="M44:M45"/>
+    <mergeCell ref="Q44:Q45"/>
   </mergeCells>
   <phoneticPr fontId="4"/>
   <pageMargins left="0.62992125984251968" right="0.62992125984251968" top="0.78740157480314965" bottom="0.78740157480314965" header="0.39370078740157483" footer="0.39370078740157483"/>
@@ -17702,14 +17707,14 @@
       <c r="E14" s="223"/>
       <c r="F14" s="225"/>
       <c r="G14" s="219" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="H14" s="220"/>
       <c r="I14" s="220"/>
       <c r="J14" s="220"/>
       <c r="K14" s="226"/>
       <c r="L14" s="220" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="M14" s="229"/>
       <c r="N14" s="229"/>
@@ -17755,7 +17760,7 @@
       <c r="E15" s="223"/>
       <c r="F15" s="225"/>
       <c r="G15" s="224" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="H15" s="223"/>
       <c r="I15" s="223"/>
@@ -17817,7 +17822,7 @@
       <c r="L16" s="223"/>
       <c r="M16" s="223"/>
       <c r="N16" s="223" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="O16" s="223"/>
       <c r="P16" s="223"/>
@@ -17921,7 +17926,7 @@
       <c r="L18" s="223"/>
       <c r="M18" s="223"/>
       <c r="N18" s="223" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="O18" s="223"/>
       <c r="P18" s="223"/>
@@ -19075,7 +19080,7 @@
       <c r="L40" s="223"/>
       <c r="M40" s="223"/>
       <c r="N40" s="223" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="O40" s="223"/>
       <c r="P40" s="223"/>
@@ -19236,7 +19241,7 @@
       <c r="L43" s="223"/>
       <c r="M43" s="223"/>
       <c r="N43" s="223" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="O43" s="223"/>
       <c r="P43" s="223"/>
@@ -19562,7 +19567,7 @@
       <c r="L49" s="223"/>
       <c r="M49" s="223"/>
       <c r="N49" s="223" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="O49" s="223"/>
       <c r="P49" s="223"/>
@@ -19851,7 +19856,7 @@
         <v>225</v>
       </c>
       <c r="AB54" s="223" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="AC54" s="223"/>
       <c r="AD54" s="223"/>
@@ -19888,7 +19893,7 @@
       <c r="L55" s="223"/>
       <c r="M55" s="223"/>
       <c r="N55" s="223" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="O55" s="223"/>
       <c r="P55" s="223"/>
@@ -20049,7 +20054,7 @@
       <c r="L58" s="223"/>
       <c r="M58" s="223"/>
       <c r="N58" s="223" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="O58" s="223"/>
       <c r="P58" s="223"/>
@@ -20538,7 +20543,7 @@
       <c r="L67" s="223"/>
       <c r="M67" s="223"/>
       <c r="N67" s="223" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="O67" s="223"/>
       <c r="P67" s="223"/>
@@ -21078,7 +21083,7 @@
       <c r="L77" s="223"/>
       <c r="M77" s="223"/>
       <c r="N77" s="223" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="O77" s="223"/>
       <c r="P77" s="223"/>
@@ -21247,7 +21252,7 @@
       <c r="L80" s="223"/>
       <c r="M80" s="223"/>
       <c r="N80" s="223" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="O80" s="223"/>
       <c r="P80" s="223"/>
@@ -21469,7 +21474,7 @@
       <c r="L84" s="223"/>
       <c r="M84" s="223"/>
       <c r="N84" s="223" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="O84" s="223"/>
       <c r="P84" s="223"/>
@@ -21571,7 +21576,7 @@
       <c r="L86" s="223"/>
       <c r="M86" s="223"/>
       <c r="N86" s="223" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="O86" s="223"/>
       <c r="P86" s="223"/>
@@ -21673,7 +21678,7 @@
       <c r="L88" s="223"/>
       <c r="M88" s="231"/>
       <c r="N88" s="223" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="O88" s="223"/>
       <c r="P88" s="223"/>
@@ -21775,7 +21780,7 @@
       <c r="L90" s="223"/>
       <c r="M90" s="231"/>
       <c r="N90" s="223" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="O90" s="223"/>
       <c r="P90" s="223"/>
@@ -21826,7 +21831,7 @@
       <c r="J91" s="220"/>
       <c r="K91" s="226"/>
       <c r="L91" s="220" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="M91" s="229"/>
       <c r="N91" s="229"/>
@@ -21932,7 +21937,7 @@
       <c r="L93" s="223"/>
       <c r="M93" s="223"/>
       <c r="N93" s="223" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="O93" s="223"/>
       <c r="P93" s="223"/>
@@ -23542,7 +23547,7 @@
       <c r="M124" s="223"/>
       <c r="N124" s="223"/>
       <c r="O124" s="223" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="P124" s="223"/>
       <c r="Q124" s="223"/>
@@ -23596,7 +23601,7 @@
       <c r="L125" s="223"/>
       <c r="M125" s="223"/>
       <c r="N125" s="223" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="O125" s="223"/>
       <c r="P125" s="223"/>
@@ -23885,7 +23890,7 @@
         <v>225</v>
       </c>
       <c r="AB130" s="223" t="s">
-        <v>358</v>
+        <v>546</v>
       </c>
       <c r="AC130" s="223"/>
       <c r="AD130" s="223"/>
@@ -23922,7 +23927,7 @@
       <c r="L131" s="223"/>
       <c r="M131" s="223"/>
       <c r="N131" s="223" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="O131" s="223"/>
       <c r="P131" s="223"/>
@@ -24211,7 +24216,7 @@
         <v>225</v>
       </c>
       <c r="AB136" s="223" t="s">
-        <v>484</v>
+        <v>547</v>
       </c>
       <c r="AC136" s="223"/>
       <c r="AD136" s="223"/>
@@ -24248,7 +24253,7 @@
       <c r="L137" s="223"/>
       <c r="M137" s="223"/>
       <c r="N137" s="223" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="O137" s="223"/>
       <c r="P137" s="223"/>
@@ -24355,7 +24360,7 @@
       <c r="M139" s="223"/>
       <c r="N139" s="223"/>
       <c r="O139" s="223" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="P139" s="223"/>
       <c r="Q139" s="223"/>
@@ -24410,7 +24415,7 @@
       <c r="M140" s="223"/>
       <c r="N140" s="223"/>
       <c r="O140" s="223" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="P140" s="223"/>
       <c r="Q140" s="223"/>
@@ -24465,7 +24470,7 @@
       <c r="M141" s="223"/>
       <c r="N141" s="223"/>
       <c r="O141" s="223" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="P141" s="223"/>
       <c r="Q141" s="223"/>
@@ -24519,7 +24524,7 @@
       <c r="L142" s="223"/>
       <c r="M142" s="223"/>
       <c r="N142" s="223" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="O142" s="223"/>
       <c r="P142" s="223"/>
@@ -24626,7 +24631,7 @@
       <c r="M144" s="223"/>
       <c r="N144" s="223"/>
       <c r="O144" s="223" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="P144" s="223"/>
       <c r="Q144" s="223"/>
@@ -24681,7 +24686,7 @@
       <c r="M145" s="223"/>
       <c r="N145" s="223"/>
       <c r="O145" s="223" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="P145" s="223"/>
       <c r="Q145" s="223"/>
@@ -24736,7 +24741,7 @@
       <c r="M146" s="223"/>
       <c r="N146" s="223"/>
       <c r="O146" s="223" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="P146" s="223"/>
       <c r="Q146" s="223"/>
@@ -24790,7 +24795,7 @@
       <c r="L147" s="223"/>
       <c r="M147" s="223"/>
       <c r="N147" s="223" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="O147" s="223"/>
       <c r="P147" s="223"/>
@@ -24897,7 +24902,7 @@
       <c r="M149" s="223"/>
       <c r="N149" s="223"/>
       <c r="O149" s="223" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="P149" s="223"/>
       <c r="Q149" s="223"/>
@@ -24952,7 +24957,7 @@
       <c r="M150" s="223"/>
       <c r="N150" s="223"/>
       <c r="O150" s="223" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="P150" s="223"/>
       <c r="Q150" s="223"/>
@@ -25007,7 +25012,7 @@
       <c r="M151" s="223"/>
       <c r="N151" s="223"/>
       <c r="O151" s="223" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="P151" s="223"/>
       <c r="Q151" s="223"/>
@@ -25061,7 +25066,7 @@
       <c r="L152" s="223"/>
       <c r="M152" s="223"/>
       <c r="N152" s="223" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="O152" s="223"/>
       <c r="P152" s="223"/>
@@ -25168,7 +25173,7 @@
       <c r="M154" s="223"/>
       <c r="N154" s="223"/>
       <c r="O154" s="223" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="P154" s="223"/>
       <c r="Q154" s="223"/>
@@ -25223,7 +25228,7 @@
       <c r="M155" s="223"/>
       <c r="N155" s="223"/>
       <c r="O155" s="223" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="P155" s="223"/>
       <c r="Q155" s="223"/>
@@ -25278,7 +25283,7 @@
       <c r="M156" s="223"/>
       <c r="N156" s="223"/>
       <c r="O156" s="223" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="P156" s="223"/>
       <c r="Q156" s="223"/>
@@ -25495,7 +25500,7 @@
       <c r="L160" s="223"/>
       <c r="M160" s="223"/>
       <c r="N160" s="223" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="O160" s="223"/>
       <c r="P160" s="223"/>
@@ -25666,7 +25671,7 @@
       <c r="L163" s="223"/>
       <c r="M163" s="223"/>
       <c r="N163" s="223" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="O163" s="223"/>
       <c r="P163" s="223"/>
@@ -25774,7 +25779,7 @@
       <c r="L165" s="223"/>
       <c r="M165" s="223"/>
       <c r="N165" s="223" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="O165" s="223"/>
       <c r="P165" s="223"/>
@@ -25876,7 +25881,7 @@
       <c r="L167" s="223"/>
       <c r="M167" s="231"/>
       <c r="N167" s="223" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="O167" s="223"/>
       <c r="P167" s="223"/>
@@ -25976,7 +25981,7 @@
       <c r="J169" s="220"/>
       <c r="K169" s="226"/>
       <c r="L169" s="220" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="M169" s="229"/>
       <c r="N169" s="229"/>
@@ -26082,7 +26087,7 @@
       <c r="L171" s="223"/>
       <c r="M171" s="223"/>
       <c r="N171" s="223" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="O171" s="223"/>
       <c r="P171" s="223"/>
@@ -27338,7 +27343,7 @@
       <c r="L195" s="223"/>
       <c r="M195" s="223"/>
       <c r="N195" s="223" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="O195" s="223"/>
       <c r="P195" s="223"/>
@@ -27627,7 +27632,7 @@
         <v>225</v>
       </c>
       <c r="AB200" s="223" t="s">
-        <v>358</v>
+        <v>546</v>
       </c>
       <c r="AC200" s="223"/>
       <c r="AD200" s="223"/>
@@ -27664,7 +27669,7 @@
       <c r="L201" s="223"/>
       <c r="M201" s="223"/>
       <c r="N201" s="223" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="O201" s="223"/>
       <c r="P201" s="223"/>
@@ -27953,7 +27958,7 @@
         <v>225</v>
       </c>
       <c r="AB206" s="223" t="s">
-        <v>484</v>
+        <v>547</v>
       </c>
       <c r="AC206" s="223"/>
       <c r="AD206" s="223"/>
@@ -27990,7 +27995,7 @@
       <c r="L207" s="223"/>
       <c r="M207" s="223"/>
       <c r="N207" s="223" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="O207" s="223"/>
       <c r="P207" s="223"/>
@@ -28479,7 +28484,7 @@
       <c r="L216" s="223"/>
       <c r="M216" s="223"/>
       <c r="N216" s="223" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="O216" s="223"/>
       <c r="P216" s="223"/>
@@ -29131,7 +29136,7 @@
       <c r="L228" s="223"/>
       <c r="M228" s="223"/>
       <c r="N228" s="223" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="O228" s="223"/>
       <c r="P228" s="223"/>
@@ -29302,7 +29307,7 @@
       <c r="L231" s="223"/>
       <c r="M231" s="223"/>
       <c r="N231" s="223" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="O231" s="223"/>
       <c r="P231" s="223"/>
@@ -29410,7 +29415,7 @@
       <c r="L233" s="223"/>
       <c r="M233" s="223"/>
       <c r="N233" s="223" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="O233" s="223"/>
       <c r="P233" s="223"/>
@@ -29563,7 +29568,7 @@
       <c r="L236" s="223"/>
       <c r="M236" s="231"/>
       <c r="N236" s="223" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="O236" s="223"/>
       <c r="P236" s="223"/>
@@ -43126,16 +43131,16 @@
         <v>234</v>
       </c>
       <c r="K9" s="312" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="L9" s="313"/>
       <c r="M9" s="314"/>
       <c r="N9" s="312" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="O9" s="314"/>
       <c r="P9" s="321" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="Q9" s="318"/>
       <c r="R9" s="53"/>
@@ -56070,7 +56075,7 @@
     </row>
     <row r="12" spans="2:102" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B12" s="150" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="C12" s="148"/>
       <c r="D12" s="148"/>
@@ -56282,7 +56287,7 @@
       <c r="B14" s="147"/>
       <c r="C14" s="148"/>
       <c r="D14" s="153" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="E14" s="154"/>
       <c r="F14" s="154"/>
@@ -56395,7 +56400,7 @@
       <c r="B15" s="147"/>
       <c r="C15" s="148"/>
       <c r="D15" s="154" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="E15" s="154"/>
       <c r="F15" s="154"/>
@@ -56508,7 +56513,7 @@
       <c r="B16" s="147"/>
       <c r="C16" s="148"/>
       <c r="D16" s="155" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="E16" s="156"/>
       <c r="F16" s="156"/>
@@ -60668,7 +60673,7 @@
     </row>
     <row r="57" spans="2:102" s="212" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B57" s="150" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="C57" s="148"/>
       <c r="D57" s="148"/>
@@ -61106,7 +61111,7 @@
       <c r="B61" s="147"/>
       <c r="C61" s="148"/>
       <c r="D61" s="155" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="E61" s="156"/>
       <c r="F61" s="156"/>
@@ -65298,7 +65303,7 @@
     </row>
     <row r="102" spans="2:102" s="212" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B102" s="150" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="C102" s="148"/>
       <c r="D102" s="148"/>
@@ -65736,7 +65741,7 @@
       <c r="B106" s="147"/>
       <c r="C106" s="148"/>
       <c r="D106" s="155" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="E106" s="156"/>
       <c r="F106" s="156"/>
@@ -68874,18 +68879,18 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -69047,6 +69052,14 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7CA02E59-26EF-42FD-ADE3-8B1F7DDCD7B9}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7B96F246-76A3-4A27-8547-17CD1E715E86}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
@@ -69058,14 +69071,6 @@
     <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
     <ds:schemaRef ds:uri="72c70d25-b9e8-475b-ae7b-39931ca24b85"/>
     <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7CA02E59-26EF-42FD-ADE3-8B1F7DDCD7B9}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
